--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="1674">
   <si>
     <t>A#3</t>
   </si>
@@ -4366,6 +4366,75 @@
   </si>
   <si>
     <t>{7, 113}</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>announce</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>spontaneous</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>according</t>
+  </si>
+  <si>
+    <t>represent</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>vegetation</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>stitch</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>entertain</t>
+  </si>
+  <si>
+    <t>universal</t>
+  </si>
+  <si>
+    <t>sprinkle</t>
+  </si>
+  <si>
+    <t>fragile</t>
+  </si>
+  <si>
+    <t>{7, 47}</t>
+  </si>
+  <si>
+    <t>{7, 49}</t>
+  </si>
+  <si>
+    <t>{2, 3, 4, 6, 7, 12, 14, 21, 28, 42}</t>
   </si>
   <si>
     <t>-</t>
@@ -5591,7 +5660,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="200">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6057,6 +6126,36 @@
     <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="17" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="41" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -21774,7 +21873,9 @@
         <v>1.0</v>
       </c>
       <c r="C82" s="100"/>
-      <c r="D82" s="110"/>
+      <c r="D82" s="161" t="s">
+        <v>1451</v>
+      </c>
       <c r="E82" s="111"/>
       <c r="F82" s="111"/>
       <c r="G82" s="111"/>
@@ -21799,7 +21900,9 @@
       <c r="Z82" s="111"/>
       <c r="AA82" s="111"/>
       <c r="AB82" s="111"/>
-      <c r="AC82" s="112"/>
+      <c r="AC82" s="162" t="s">
+        <v>1452</v>
+      </c>
       <c r="AD82" s="100"/>
       <c r="AE82" s="113"/>
       <c r="AF82" s="114"/>
@@ -21813,7 +21916,9 @@
         <v>2.0</v>
       </c>
       <c r="C83" s="100"/>
-      <c r="D83" s="118"/>
+      <c r="D83" s="163" t="s">
+        <v>1453</v>
+      </c>
       <c r="E83" s="119"/>
       <c r="F83" s="119"/>
       <c r="G83" s="119"/>
@@ -21838,7 +21943,9 @@
       <c r="Z83" s="119"/>
       <c r="AA83" s="119"/>
       <c r="AB83" s="119"/>
-      <c r="AC83" s="120"/>
+      <c r="AC83" s="164" t="s">
+        <v>1454</v>
+      </c>
       <c r="AD83" s="100"/>
       <c r="AE83" s="121"/>
       <c r="AF83" s="122"/>
@@ -21852,7 +21959,9 @@
         <v>3.0</v>
       </c>
       <c r="C84" s="100"/>
-      <c r="D84" s="118"/>
+      <c r="D84" s="163" t="s">
+        <v>1455</v>
+      </c>
       <c r="E84" s="119"/>
       <c r="F84" s="119"/>
       <c r="G84" s="119"/>
@@ -21877,7 +21986,9 @@
       <c r="Z84" s="119"/>
       <c r="AA84" s="119"/>
       <c r="AB84" s="119"/>
-      <c r="AC84" s="120"/>
+      <c r="AC84" s="164" t="s">
+        <v>1456</v>
+      </c>
       <c r="AD84" s="100"/>
       <c r="AE84" s="121"/>
       <c r="AF84" s="122"/>
@@ -21891,7 +22002,9 @@
         <v>4.0</v>
       </c>
       <c r="C85" s="100"/>
-      <c r="D85" s="118"/>
+      <c r="D85" s="163" t="s">
+        <v>1457</v>
+      </c>
       <c r="E85" s="119"/>
       <c r="F85" s="119"/>
       <c r="G85" s="119"/>
@@ -21916,7 +22029,9 @@
       <c r="Z85" s="119"/>
       <c r="AA85" s="119"/>
       <c r="AB85" s="119"/>
-      <c r="AC85" s="120"/>
+      <c r="AC85" s="164" t="s">
+        <v>1458</v>
+      </c>
       <c r="AD85" s="100"/>
       <c r="AE85" s="121"/>
       <c r="AF85" s="122"/>
@@ -21930,7 +22045,9 @@
         <v>5.0</v>
       </c>
       <c r="C86" s="100"/>
-      <c r="D86" s="118"/>
+      <c r="D86" s="163" t="s">
+        <v>1459</v>
+      </c>
       <c r="E86" s="119"/>
       <c r="F86" s="119"/>
       <c r="G86" s="119"/>
@@ -21955,7 +22072,9 @@
       <c r="Z86" s="119"/>
       <c r="AA86" s="119"/>
       <c r="AB86" s="119"/>
-      <c r="AC86" s="120"/>
+      <c r="AC86" s="164" t="s">
+        <v>1460</v>
+      </c>
       <c r="AD86" s="100"/>
       <c r="AE86" s="121"/>
       <c r="AF86" s="122"/>
@@ -21969,7 +22088,9 @@
         <v>6.0</v>
       </c>
       <c r="C87" s="100"/>
-      <c r="D87" s="118"/>
+      <c r="D87" s="163" t="s">
+        <v>1461</v>
+      </c>
       <c r="E87" s="119"/>
       <c r="F87" s="119"/>
       <c r="G87" s="119"/>
@@ -21994,7 +22115,9 @@
       <c r="Z87" s="119"/>
       <c r="AA87" s="119"/>
       <c r="AB87" s="119"/>
-      <c r="AC87" s="120"/>
+      <c r="AC87" s="164" t="s">
+        <v>1462</v>
+      </c>
       <c r="AD87" s="100"/>
       <c r="AE87" s="121"/>
       <c r="AF87" s="122"/>
@@ -22008,7 +22131,9 @@
         <v>7.0</v>
       </c>
       <c r="C88" s="100"/>
-      <c r="D88" s="118"/>
+      <c r="D88" s="163" t="s">
+        <v>1463</v>
+      </c>
       <c r="E88" s="119"/>
       <c r="F88" s="119"/>
       <c r="G88" s="119"/>
@@ -22033,7 +22158,9 @@
       <c r="Z88" s="119"/>
       <c r="AA88" s="119"/>
       <c r="AB88" s="119"/>
-      <c r="AC88" s="120"/>
+      <c r="AC88" s="164" t="s">
+        <v>1464</v>
+      </c>
       <c r="AD88" s="100"/>
       <c r="AE88" s="121"/>
       <c r="AF88" s="122"/>
@@ -22047,7 +22174,9 @@
         <v>8.0</v>
       </c>
       <c r="C89" s="100"/>
-      <c r="D89" s="118"/>
+      <c r="D89" s="163" t="s">
+        <v>1465</v>
+      </c>
       <c r="E89" s="119"/>
       <c r="F89" s="119"/>
       <c r="G89" s="119"/>
@@ -22072,7 +22201,9 @@
       <c r="Z89" s="119"/>
       <c r="AA89" s="119"/>
       <c r="AB89" s="119"/>
-      <c r="AC89" s="120"/>
+      <c r="AC89" s="164" t="s">
+        <v>1466</v>
+      </c>
       <c r="AD89" s="100"/>
       <c r="AE89" s="121"/>
       <c r="AF89" s="122"/>
@@ -22086,7 +22217,9 @@
         <v>9.0</v>
       </c>
       <c r="C90" s="100"/>
-      <c r="D90" s="118"/>
+      <c r="D90" s="163" t="s">
+        <v>1467</v>
+      </c>
       <c r="E90" s="119"/>
       <c r="F90" s="119"/>
       <c r="G90" s="119"/>
@@ -22111,7 +22244,9 @@
       <c r="Z90" s="119"/>
       <c r="AA90" s="119"/>
       <c r="AB90" s="119"/>
-      <c r="AC90" s="120"/>
+      <c r="AC90" s="164" t="s">
+        <v>1468</v>
+      </c>
       <c r="AD90" s="100"/>
       <c r="AE90" s="121"/>
       <c r="AF90" s="122"/>
@@ -22125,7 +22260,9 @@
         <v>10.0</v>
       </c>
       <c r="C91" s="100"/>
-      <c r="D91" s="125"/>
+      <c r="D91" s="165" t="s">
+        <v>1469</v>
+      </c>
       <c r="E91" s="126"/>
       <c r="F91" s="126"/>
       <c r="G91" s="126"/>
@@ -22150,7 +22287,9 @@
       <c r="Z91" s="126"/>
       <c r="AA91" s="126"/>
       <c r="AB91" s="126"/>
-      <c r="AC91" s="127"/>
+      <c r="AC91" s="166" t="s">
+        <v>1470</v>
+      </c>
       <c r="AD91" s="100"/>
       <c r="AE91" s="128"/>
       <c r="AF91" s="129"/>
@@ -22164,7 +22303,9 @@
         <v>26</v>
       </c>
       <c r="C92" s="100"/>
-      <c r="D92" s="133"/>
+      <c r="D92" s="167">
+        <v>329.0</v>
+      </c>
       <c r="E92" s="134"/>
       <c r="F92" s="134"/>
       <c r="G92" s="134"/>
@@ -22189,7 +22330,9 @@
       <c r="Z92" s="134"/>
       <c r="AA92" s="134"/>
       <c r="AB92" s="134"/>
-      <c r="AC92" s="135"/>
+      <c r="AC92" s="132">
+        <v>343.0</v>
+      </c>
       <c r="AD92" s="100"/>
       <c r="AE92" s="113"/>
       <c r="AF92" s="114"/>
@@ -22203,7 +22346,9 @@
         <v>27</v>
       </c>
       <c r="C93" s="100"/>
-      <c r="D93" s="137"/>
+      <c r="D93" s="168" t="s">
+        <v>1471</v>
+      </c>
       <c r="E93" s="138"/>
       <c r="F93" s="138"/>
       <c r="G93" s="138"/>
@@ -22228,7 +22373,9 @@
       <c r="Z93" s="138"/>
       <c r="AA93" s="138"/>
       <c r="AB93" s="138"/>
-      <c r="AC93" s="139"/>
+      <c r="AC93" s="136" t="s">
+        <v>1472</v>
+      </c>
       <c r="AD93" s="140"/>
       <c r="AE93" s="141"/>
       <c r="AF93" s="142"/>
@@ -22242,7 +22389,9 @@
         <v>28</v>
       </c>
       <c r="C94" s="100"/>
-      <c r="D94" s="146"/>
+      <c r="D94" s="169">
+        <v>85.0</v>
+      </c>
       <c r="E94" s="147"/>
       <c r="F94" s="147"/>
       <c r="G94" s="147"/>
@@ -22267,7 +22416,9 @@
       <c r="Z94" s="147"/>
       <c r="AA94" s="147"/>
       <c r="AB94" s="147"/>
-      <c r="AC94" s="148"/>
+      <c r="AC94" s="145">
+        <v>84.0</v>
+      </c>
       <c r="AD94" s="100"/>
       <c r="AE94" s="149"/>
       <c r="AF94" s="150"/>
@@ -22281,7 +22432,9 @@
         <v>29</v>
       </c>
       <c r="C95" s="100"/>
-      <c r="D95" s="154"/>
+      <c r="D95" s="170" t="s">
+        <v>440</v>
+      </c>
       <c r="E95" s="155"/>
       <c r="F95" s="155"/>
       <c r="G95" s="155"/>
@@ -22306,7 +22459,9 @@
       <c r="Z95" s="155"/>
       <c r="AA95" s="155"/>
       <c r="AB95" s="155"/>
-      <c r="AC95" s="156"/>
+      <c r="AC95" s="153" t="s">
+        <v>1473</v>
+      </c>
       <c r="AD95" s="100"/>
       <c r="AE95" s="157"/>
       <c r="AF95" s="158"/>
@@ -22571,7 +22726,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToHeight="0" paperSize="8" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -22610,4369 +22765,4369 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="B2" s="161"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="161"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="171"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3">
-      <c r="B3" s="161"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="161"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="171"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="171" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C4" s="172" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D4" s="173" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E4" s="174" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F4" s="175" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G4" s="173" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H4" s="176" t="s">
+      <c r="B4" s="181" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D4" s="183" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E4" s="184" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F4" s="185" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G4" s="183" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H4" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="177" t="s">
-        <v>1451</v>
+      <c r="I4" s="187" t="s">
+        <v>1474</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5">
-      <c r="B5" s="178"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="180"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="190"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C6" s="181" t="s">
+      <c r="B6" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C6" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="165" t="s">
-        <v>1457</v>
-      </c>
-      <c r="G6" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H6" s="166">
+      <c r="D6" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E6" s="174"/>
+      <c r="F6" s="175" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G6" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H6" s="176">
         <v>1.0</v>
       </c>
-      <c r="I6" s="180" t="s">
-        <v>1451</v>
+      <c r="I6" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C7" s="181" t="s">
+      <c r="B7" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C7" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="165" t="s">
-        <v>1458</v>
-      </c>
-      <c r="G7" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H7" s="166">
+      <c r="D7" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E7" s="174"/>
+      <c r="F7" s="175" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G7" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H7" s="176">
         <v>2.0</v>
       </c>
-      <c r="I7" s="180" t="s">
-        <v>1451</v>
+      <c r="I7" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C8" s="181" t="s">
+      <c r="B8" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C8" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G8" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H8" s="166">
+      <c r="D8" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E8" s="174"/>
+      <c r="F8" s="175" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G8" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H8" s="176">
         <v>3.0</v>
       </c>
-      <c r="I8" s="180" t="s">
-        <v>1451</v>
+      <c r="I8" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C9" s="181" t="s">
+      <c r="B9" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C9" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G9" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H9" s="166">
+      <c r="D9" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E9" s="174"/>
+      <c r="F9" s="175" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G9" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H9" s="176">
         <v>4.0</v>
       </c>
-      <c r="I9" s="180" t="s">
-        <v>1451</v>
+      <c r="I9" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C10" s="181" t="s">
+      <c r="B10" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C10" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="165" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G10" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H10" s="166">
+      <c r="D10" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E10" s="174"/>
+      <c r="F10" s="175" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G10" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H10" s="176">
         <v>5.0</v>
       </c>
-      <c r="I10" s="180" t="s">
-        <v>1451</v>
+      <c r="I10" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C11" s="181" t="s">
+      <c r="B11" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C11" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="165" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G11" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H11" s="166">
+      <c r="D11" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E11" s="174"/>
+      <c r="F11" s="175" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G11" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H11" s="176">
         <v>6.0</v>
       </c>
-      <c r="I11" s="180" t="s">
-        <v>1451</v>
+      <c r="I11" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C12" s="181" t="s">
+      <c r="B12" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C12" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="165" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G12" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H12" s="166">
+      <c r="D12" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E12" s="174"/>
+      <c r="F12" s="175" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G12" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H12" s="176">
         <v>7.0</v>
       </c>
-      <c r="I12" s="180" t="s">
-        <v>1451</v>
+      <c r="I12" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C13" s="181" t="s">
+      <c r="B13" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C13" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="165" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G13" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H13" s="166">
+      <c r="D13" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E13" s="174"/>
+      <c r="F13" s="175" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G13" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H13" s="176">
         <v>8.0</v>
       </c>
-      <c r="I13" s="180" t="s">
-        <v>1451</v>
+      <c r="I13" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C14" s="181" t="s">
+      <c r="B14" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C14" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="165" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G14" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H14" s="166">
+      <c r="D14" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E14" s="174"/>
+      <c r="F14" s="175" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G14" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H14" s="176">
         <v>9.0</v>
       </c>
-      <c r="I14" s="180" t="s">
-        <v>1451</v>
+      <c r="I14" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C15" s="181" t="s">
+      <c r="B15" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C15" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G15" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H15" s="166">
+      <c r="D15" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E15" s="174"/>
+      <c r="F15" s="175" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G15" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H15" s="176">
         <v>10.0</v>
       </c>
-      <c r="I15" s="180" t="s">
-        <v>1451</v>
+      <c r="I15" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C16" s="181" t="s">
+      <c r="B16" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C16" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="165" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G16" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H16" s="166">
+      <c r="D16" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E16" s="174"/>
+      <c r="F16" s="175" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G16" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H16" s="176">
         <v>11.0</v>
       </c>
-      <c r="I16" s="180" t="s">
-        <v>1451</v>
+      <c r="I16" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C17" s="181" t="s">
+      <c r="B17" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C17" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G17" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H17" s="166">
+      <c r="D17" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E17" s="174"/>
+      <c r="F17" s="175" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G17" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H17" s="176">
         <v>12.0</v>
       </c>
-      <c r="I17" s="180" t="s">
-        <v>1451</v>
+      <c r="I17" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C18" s="181" t="s">
+      <c r="B18" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C18" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E18" s="164"/>
-      <c r="F18" s="165" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G18" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H18" s="166">
+      <c r="D18" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E18" s="174"/>
+      <c r="F18" s="175" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G18" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H18" s="176">
         <v>13.0</v>
       </c>
-      <c r="I18" s="180" t="s">
-        <v>1451</v>
+      <c r="I18" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C19" s="181" t="s">
+      <c r="B19" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C19" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E19" s="164"/>
-      <c r="F19" s="165" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G19" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H19" s="166">
+      <c r="D19" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E19" s="174"/>
+      <c r="F19" s="175" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G19" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H19" s="176">
         <v>14.0</v>
       </c>
-      <c r="I19" s="180" t="s">
-        <v>1451</v>
+      <c r="I19" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C20" s="181" t="s">
+      <c r="B20" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C20" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E20" s="164"/>
-      <c r="F20" s="165" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G20" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H20" s="166">
+      <c r="D20" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E20" s="174"/>
+      <c r="F20" s="175" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G20" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H20" s="176">
         <v>15.0</v>
       </c>
-      <c r="I20" s="180" t="s">
-        <v>1451</v>
+      <c r="I20" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C21" s="181" t="s">
+      <c r="B21" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C21" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="165" t="s">
-        <v>1472</v>
-      </c>
-      <c r="G21" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H21" s="166">
+      <c r="D21" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E21" s="174"/>
+      <c r="F21" s="175" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G21" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H21" s="176">
         <v>16.0</v>
       </c>
-      <c r="I21" s="180" t="s">
-        <v>1451</v>
+      <c r="I21" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C22" s="181" t="s">
+      <c r="B22" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C22" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="165" t="s">
-        <v>1473</v>
-      </c>
-      <c r="G22" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H22" s="166">
+      <c r="D22" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E22" s="174"/>
+      <c r="F22" s="175" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G22" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H22" s="176">
         <v>17.0</v>
       </c>
-      <c r="I22" s="180" t="s">
-        <v>1451</v>
+      <c r="I22" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C23" s="181" t="s">
+      <c r="B23" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C23" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E23" s="164"/>
-      <c r="F23" s="165" t="s">
-        <v>1474</v>
-      </c>
-      <c r="G23" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H23" s="166">
+      <c r="D23" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G23" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H23" s="176">
         <v>18.0</v>
       </c>
-      <c r="I23" s="180" t="s">
-        <v>1451</v>
+      <c r="I23" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="B24" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C24" s="181" t="s">
+      <c r="B24" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C24" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E24" s="164"/>
-      <c r="F24" s="165" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G24" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H24" s="166">
+      <c r="D24" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E24" s="174"/>
+      <c r="F24" s="175" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G24" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H24" s="176">
         <v>19.0</v>
       </c>
-      <c r="I24" s="180" t="s">
-        <v>1451</v>
+      <c r="I24" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C25" s="181" t="s">
+      <c r="B25" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C25" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E25" s="164"/>
-      <c r="F25" s="165" t="s">
+      <c r="D25" s="173" t="s">
         <v>1476</v>
       </c>
-      <c r="G25" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H25" s="166">
+      <c r="E25" s="174"/>
+      <c r="F25" s="175" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G25" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H25" s="176">
         <v>20.0</v>
       </c>
-      <c r="I25" s="180" t="s">
-        <v>1451</v>
+      <c r="I25" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C26" s="181" t="s">
+      <c r="B26" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C26" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E26" s="164"/>
-      <c r="F26" s="165" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G26" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H26" s="166">
+      <c r="D26" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E26" s="174"/>
+      <c r="F26" s="175" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H26" s="176">
         <v>21.0</v>
       </c>
-      <c r="I26" s="180" t="s">
-        <v>1451</v>
+      <c r="I26" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C27" s="181" t="s">
+      <c r="B27" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C27" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E27" s="164"/>
-      <c r="F27" s="165" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G27" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H27" s="166">
+      <c r="D27" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E27" s="174"/>
+      <c r="F27" s="175" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G27" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H27" s="176">
         <v>22.0</v>
       </c>
-      <c r="I27" s="180" t="s">
-        <v>1451</v>
+      <c r="I27" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C28" s="181" t="s">
+      <c r="B28" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C28" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E28" s="164"/>
-      <c r="F28" s="165" t="s">
+      <c r="D28" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E28" s="174"/>
+      <c r="F28" s="175" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G28" s="173" t="s">
         <v>1479</v>
       </c>
-      <c r="G28" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H28" s="166">
+      <c r="H28" s="176">
         <v>23.0</v>
       </c>
-      <c r="I28" s="180" t="s">
-        <v>1451</v>
+      <c r="I28" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C29" s="181" t="s">
+      <c r="B29" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C29" s="191" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E29" s="164"/>
-      <c r="F29" s="165" t="s">
-        <v>1480</v>
-      </c>
-      <c r="G29" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H29" s="166">
+      <c r="D29" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E29" s="174"/>
+      <c r="F29" s="175" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G29" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H29" s="176">
         <v>24.0</v>
       </c>
-      <c r="I29" s="180" t="s">
-        <v>1451</v>
+      <c r="I29" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C30" s="181" t="s">
+      <c r="B30" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C30" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E30" s="164"/>
-      <c r="F30" s="165" t="s">
-        <v>1481</v>
-      </c>
-      <c r="G30" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H30" s="166">
+      <c r="D30" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E30" s="174"/>
+      <c r="F30" s="175" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G30" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H30" s="176">
         <v>25.0</v>
       </c>
-      <c r="I30" s="180" t="s">
-        <v>1451</v>
+      <c r="I30" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="182" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C31" s="183" t="s">
+      <c r="B31" s="192" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C31" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="184" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E31" s="185"/>
-      <c r="F31" s="186" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G31" s="184" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H31" s="187">
+      <c r="D31" s="194" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E31" s="195"/>
+      <c r="F31" s="196" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G31" s="194" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H31" s="197">
         <v>26.0</v>
       </c>
-      <c r="I31" s="188" t="s">
-        <v>1451</v>
+      <c r="I31" s="198" t="s">
+        <v>1474</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32">
-      <c r="B32" s="161"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="161"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="171"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="171" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C33" s="172" t="s">
+      <c r="B33" s="181" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C33" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="173" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E33" s="174" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F33" s="175" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G33" s="173" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H33" s="176" t="s">
+      <c r="D33" s="183" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E33" s="184" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F33" s="185" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G33" s="183" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H33" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="177" t="s">
-        <v>1451</v>
+      <c r="I33" s="187" t="s">
+        <v>1474</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34">
-      <c r="B34" s="178"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="180"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="190"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C35" s="162" t="s">
+      <c r="B35" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C35" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E35" s="164"/>
-      <c r="F35" s="165" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G35" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H35" s="166">
+      <c r="D35" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E35" s="174"/>
+      <c r="F35" s="175" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G35" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H35" s="176">
         <v>1.0</v>
       </c>
-      <c r="I35" s="180" t="s">
-        <v>1451</v>
+      <c r="I35" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C36" s="162" t="s">
+      <c r="B36" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C36" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E36" s="164"/>
-      <c r="F36" s="165" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G36" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H36" s="166">
+      <c r="D36" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E36" s="174"/>
+      <c r="F36" s="175" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G36" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H36" s="176">
         <v>2.0</v>
       </c>
-      <c r="I36" s="180" t="s">
-        <v>1451</v>
+      <c r="I36" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C37" s="162" t="s">
+      <c r="B37" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C37" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E37" s="164"/>
-      <c r="F37" s="165" t="s">
-        <v>1487</v>
-      </c>
-      <c r="G37" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H37" s="166">
+      <c r="D37" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E37" s="174"/>
+      <c r="F37" s="175" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G37" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H37" s="176">
         <v>3.0</v>
       </c>
-      <c r="I37" s="180" t="s">
-        <v>1451</v>
+      <c r="I37" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C38" s="162" t="s">
+      <c r="B38" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C38" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E38" s="164"/>
-      <c r="F38" s="165" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G38" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H38" s="166">
+      <c r="D38" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E38" s="174"/>
+      <c r="F38" s="175" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G38" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H38" s="176">
         <v>4.0</v>
       </c>
-      <c r="I38" s="180" t="s">
-        <v>1451</v>
+      <c r="I38" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C39" s="162" t="s">
+      <c r="B39" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C39" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="165" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G39" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H39" s="166">
+      <c r="D39" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E39" s="174"/>
+      <c r="F39" s="175" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G39" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H39" s="176">
         <v>5.0</v>
       </c>
-      <c r="I39" s="180" t="s">
-        <v>1451</v>
+      <c r="I39" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C40" s="162" t="s">
+      <c r="B40" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C40" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="165" t="s">
-        <v>1490</v>
-      </c>
-      <c r="G40" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H40" s="166">
+      <c r="D40" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E40" s="174"/>
+      <c r="F40" s="175" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G40" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H40" s="176">
         <v>6.0</v>
       </c>
-      <c r="I40" s="180" t="s">
-        <v>1451</v>
+      <c r="I40" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C41" s="162" t="s">
+      <c r="B41" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C41" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E41" s="164"/>
-      <c r="F41" s="165" t="s">
-        <v>1491</v>
-      </c>
-      <c r="G41" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H41" s="166">
+      <c r="D41" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E41" s="174"/>
+      <c r="F41" s="175" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G41" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H41" s="176">
         <v>7.0</v>
       </c>
-      <c r="I41" s="180" t="s">
-        <v>1451</v>
+      <c r="I41" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C42" s="162" t="s">
+      <c r="B42" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C42" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E42" s="164"/>
-      <c r="F42" s="165" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G42" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H42" s="166">
+      <c r="D42" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E42" s="174"/>
+      <c r="F42" s="175" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G42" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H42" s="176">
         <v>8.0</v>
       </c>
-      <c r="I42" s="180" t="s">
-        <v>1451</v>
+      <c r="I42" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C43" s="162" t="s">
+      <c r="B43" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C43" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E43" s="164"/>
-      <c r="F43" s="165" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G43" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H43" s="166">
+      <c r="D43" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E43" s="174"/>
+      <c r="F43" s="175" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G43" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H43" s="176">
         <v>9.0</v>
       </c>
-      <c r="I43" s="180" t="s">
-        <v>1451</v>
+      <c r="I43" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C44" s="162" t="s">
+      <c r="B44" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C44" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E44" s="164"/>
-      <c r="F44" s="165" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G44" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H44" s="166">
+      <c r="D44" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E44" s="174"/>
+      <c r="F44" s="175" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G44" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H44" s="176">
         <v>10.0</v>
       </c>
-      <c r="I44" s="180" t="s">
-        <v>1451</v>
+      <c r="I44" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C45" s="162" t="s">
+      <c r="B45" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C45" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E45" s="164"/>
-      <c r="F45" s="165" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G45" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H45" s="166">
+      <c r="D45" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E45" s="174"/>
+      <c r="F45" s="175" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G45" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H45" s="176">
         <v>11.0</v>
       </c>
-      <c r="I45" s="180" t="s">
-        <v>1451</v>
+      <c r="I45" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C46" s="162" t="s">
+      <c r="B46" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C46" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E46" s="164"/>
-      <c r="F46" s="165" t="s">
-        <v>1496</v>
-      </c>
-      <c r="G46" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H46" s="166">
+      <c r="D46" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E46" s="174"/>
+      <c r="F46" s="175" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G46" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H46" s="176">
         <v>12.0</v>
       </c>
-      <c r="I46" s="180" t="s">
-        <v>1451</v>
+      <c r="I46" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C47" s="162" t="s">
+      <c r="B47" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C47" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E47" s="164"/>
-      <c r="F47" s="165" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G47" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H47" s="166">
+      <c r="D47" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E47" s="174"/>
+      <c r="F47" s="175" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G47" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H47" s="176">
         <v>13.0</v>
       </c>
-      <c r="I47" s="180" t="s">
-        <v>1451</v>
+      <c r="I47" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C48" s="162" t="s">
+      <c r="B48" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C48" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E48" s="164"/>
-      <c r="F48" s="165" t="s">
-        <v>1498</v>
-      </c>
-      <c r="G48" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H48" s="166">
+      <c r="D48" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E48" s="174"/>
+      <c r="F48" s="175" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G48" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H48" s="176">
         <v>14.0</v>
       </c>
-      <c r="I48" s="180" t="s">
-        <v>1451</v>
+      <c r="I48" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C49" s="162" t="s">
+      <c r="B49" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C49" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E49" s="164"/>
-      <c r="F49" s="165" t="s">
-        <v>1499</v>
-      </c>
-      <c r="G49" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H49" s="166">
+      <c r="D49" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E49" s="174"/>
+      <c r="F49" s="175" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G49" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H49" s="176">
         <v>15.0</v>
       </c>
-      <c r="I49" s="180" t="s">
-        <v>1451</v>
+      <c r="I49" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C50" s="162" t="s">
+      <c r="B50" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C50" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E50" s="164"/>
-      <c r="F50" s="165" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G50" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H50" s="166">
+      <c r="D50" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E50" s="174"/>
+      <c r="F50" s="175" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G50" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H50" s="176">
         <v>16.0</v>
       </c>
-      <c r="I50" s="180" t="s">
-        <v>1451</v>
+      <c r="I50" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C51" s="162" t="s">
+      <c r="B51" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C51" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E51" s="164"/>
-      <c r="F51" s="165" t="s">
-        <v>1501</v>
-      </c>
-      <c r="G51" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H51" s="166">
+      <c r="D51" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E51" s="174"/>
+      <c r="F51" s="175" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G51" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H51" s="176">
         <v>17.0</v>
       </c>
-      <c r="I51" s="180" t="s">
-        <v>1451</v>
+      <c r="I51" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C52" s="162" t="s">
+      <c r="B52" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C52" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E52" s="164"/>
-      <c r="F52" s="165" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G52" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H52" s="166">
+      <c r="D52" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E52" s="174"/>
+      <c r="F52" s="175" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G52" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H52" s="176">
         <v>18.0</v>
       </c>
-      <c r="I52" s="180" t="s">
-        <v>1451</v>
+      <c r="I52" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C53" s="162" t="s">
+      <c r="B53" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C53" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E53" s="164"/>
-      <c r="F53" s="165" t="s">
-        <v>1503</v>
-      </c>
-      <c r="G53" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H53" s="166">
+      <c r="D53" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E53" s="174"/>
+      <c r="F53" s="175" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G53" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H53" s="176">
         <v>19.0</v>
       </c>
-      <c r="I53" s="180" t="s">
-        <v>1451</v>
+      <c r="I53" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C54" s="162" t="s">
+      <c r="B54" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C54" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E54" s="164"/>
-      <c r="F54" s="165" t="s">
-        <v>1504</v>
-      </c>
-      <c r="G54" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H54" s="166">
+      <c r="D54" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E54" s="174"/>
+      <c r="F54" s="175" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G54" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H54" s="176">
         <v>20.0</v>
       </c>
-      <c r="I54" s="180" t="s">
-        <v>1451</v>
+      <c r="I54" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C55" s="162" t="s">
+      <c r="B55" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C55" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E55" s="164"/>
-      <c r="F55" s="165" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G55" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H55" s="166">
+      <c r="D55" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E55" s="174"/>
+      <c r="F55" s="175" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G55" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H55" s="176">
         <v>21.0</v>
       </c>
-      <c r="I55" s="180" t="s">
-        <v>1451</v>
+      <c r="I55" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C56" s="162" t="s">
+      <c r="B56" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C56" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E56" s="164"/>
-      <c r="F56" s="165" t="s">
-        <v>1506</v>
-      </c>
-      <c r="G56" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H56" s="166">
+      <c r="D56" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E56" s="174"/>
+      <c r="F56" s="175" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G56" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H56" s="176">
         <v>22.0</v>
       </c>
-      <c r="I56" s="180" t="s">
-        <v>1451</v>
+      <c r="I56" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C57" s="162" t="s">
+      <c r="B57" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C57" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E57" s="164"/>
-      <c r="F57" s="165" t="s">
-        <v>1507</v>
-      </c>
-      <c r="G57" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H57" s="166">
+      <c r="D57" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E57" s="174"/>
+      <c r="F57" s="175" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G57" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H57" s="176">
         <v>23.0</v>
       </c>
-      <c r="I57" s="180" t="s">
-        <v>1451</v>
+      <c r="I57" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C58" s="162" t="s">
+      <c r="B58" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C58" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E58" s="164"/>
-      <c r="F58" s="165" t="s">
-        <v>1508</v>
-      </c>
-      <c r="G58" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H58" s="166">
+      <c r="D58" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E58" s="174"/>
+      <c r="F58" s="175" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G58" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H58" s="176">
         <v>24.0</v>
       </c>
-      <c r="I58" s="180" t="s">
-        <v>1451</v>
+      <c r="I58" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C59" s="162" t="s">
+      <c r="B59" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C59" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E59" s="164"/>
-      <c r="F59" s="165" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G59" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H59" s="166">
+      <c r="D59" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E59" s="174"/>
+      <c r="F59" s="175" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G59" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H59" s="176">
         <v>25.0</v>
       </c>
-      <c r="I59" s="180" t="s">
-        <v>1451</v>
+      <c r="I59" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="182" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C60" s="189" t="s">
+      <c r="B60" s="192" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C60" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="184" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E60" s="185"/>
-      <c r="F60" s="186" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G60" s="184" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H60" s="187">
+      <c r="D60" s="194" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E60" s="195"/>
+      <c r="F60" s="196" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G60" s="194" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H60" s="197">
         <v>26.0</v>
       </c>
-      <c r="I60" s="188" t="s">
-        <v>1451</v>
+      <c r="I60" s="198" t="s">
+        <v>1474</v>
       </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61">
-      <c r="B61" s="161"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="163"/>
-      <c r="H61" s="170"/>
-      <c r="I61" s="161"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="178"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="180"/>
+      <c r="I61" s="171"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="171" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C62" s="172" t="s">
+      <c r="B62" s="181" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C62" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="173" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E62" s="174" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F62" s="175" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G62" s="173" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H62" s="176" t="s">
+      <c r="D62" s="183" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E62" s="184" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F62" s="185" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G62" s="183" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H62" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="I62" s="177" t="s">
-        <v>1451</v>
+      <c r="I62" s="187" t="s">
+        <v>1474</v>
       </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63">
-      <c r="B63" s="178"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="163"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="163"/>
-      <c r="H63" s="170"/>
-      <c r="I63" s="180"/>
+      <c r="B63" s="188"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="173"/>
+      <c r="E63" s="178"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="180"/>
+      <c r="I63" s="190"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C64" s="162" t="s">
+      <c r="B64" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C64" s="172" t="s">
         <v>452</v>
       </c>
-      <c r="D64" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E64" s="164"/>
-      <c r="F64" s="165" t="s">
-        <v>1513</v>
-      </c>
-      <c r="G64" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H64" s="166">
+      <c r="D64" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E64" s="174"/>
+      <c r="F64" s="175" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G64" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H64" s="176">
         <v>1.0</v>
       </c>
-      <c r="I64" s="180" t="s">
-        <v>1451</v>
+      <c r="I64" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C65" s="162" t="s">
+      <c r="B65" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C65" s="172" t="s">
         <v>453</v>
       </c>
-      <c r="D65" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E65" s="164"/>
-      <c r="F65" s="165" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G65" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H65" s="166">
+      <c r="D65" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E65" s="174"/>
+      <c r="F65" s="175" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G65" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H65" s="176">
         <v>2.0</v>
       </c>
-      <c r="I65" s="180" t="s">
-        <v>1451</v>
+      <c r="I65" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C66" s="162" t="s">
+      <c r="B66" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C66" s="172" t="s">
         <v>454</v>
       </c>
-      <c r="D66" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E66" s="164"/>
-      <c r="F66" s="165" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G66" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H66" s="166">
+      <c r="D66" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E66" s="174"/>
+      <c r="F66" s="175" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G66" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H66" s="176">
         <v>3.0</v>
       </c>
-      <c r="I66" s="180" t="s">
-        <v>1451</v>
+      <c r="I66" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C67" s="162" t="s">
+      <c r="B67" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C67" s="172" t="s">
         <v>455</v>
       </c>
-      <c r="D67" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E67" s="164"/>
-      <c r="F67" s="165" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G67" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H67" s="166">
+      <c r="D67" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E67" s="174"/>
+      <c r="F67" s="175" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G67" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H67" s="176">
         <v>4.0</v>
       </c>
-      <c r="I67" s="180" t="s">
-        <v>1451</v>
+      <c r="I67" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C68" s="162" t="s">
+      <c r="B68" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C68" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="D68" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E68" s="164"/>
-      <c r="F68" s="165" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G68" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H68" s="166">
+      <c r="D68" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E68" s="174"/>
+      <c r="F68" s="175" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G68" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H68" s="176">
         <v>5.0</v>
       </c>
-      <c r="I68" s="180" t="s">
-        <v>1451</v>
+      <c r="I68" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
-      <c r="B69" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C69" s="162" t="s">
+      <c r="B69" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C69" s="172" t="s">
         <v>457</v>
       </c>
-      <c r="D69" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E69" s="164"/>
-      <c r="F69" s="165" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G69" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H69" s="166">
+      <c r="D69" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E69" s="174"/>
+      <c r="F69" s="175" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G69" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H69" s="176">
         <v>6.0</v>
       </c>
-      <c r="I69" s="180" t="s">
-        <v>1451</v>
+      <c r="I69" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C70" s="162" t="s">
+      <c r="B70" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C70" s="172" t="s">
         <v>458</v>
       </c>
-      <c r="D70" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E70" s="164"/>
-      <c r="F70" s="165" t="s">
-        <v>1519</v>
-      </c>
-      <c r="G70" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H70" s="166">
+      <c r="D70" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E70" s="174"/>
+      <c r="F70" s="175" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G70" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H70" s="176">
         <v>7.0</v>
       </c>
-      <c r="I70" s="180" t="s">
-        <v>1451</v>
+      <c r="I70" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C71" s="162" t="s">
+      <c r="B71" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C71" s="172" t="s">
         <v>459</v>
       </c>
-      <c r="D71" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E71" s="164"/>
-      <c r="F71" s="165" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G71" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H71" s="166">
+      <c r="D71" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E71" s="174"/>
+      <c r="F71" s="175" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G71" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H71" s="176">
         <v>8.0</v>
       </c>
-      <c r="I71" s="180" t="s">
-        <v>1451</v>
+      <c r="I71" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C72" s="162" t="s">
+      <c r="B72" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C72" s="172" t="s">
         <v>460</v>
       </c>
-      <c r="D72" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E72" s="164"/>
-      <c r="F72" s="165" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G72" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H72" s="166">
+      <c r="D72" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E72" s="174"/>
+      <c r="F72" s="175" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G72" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H72" s="176">
         <v>9.0</v>
       </c>
-      <c r="I72" s="180" t="s">
-        <v>1451</v>
+      <c r="I72" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
-      <c r="B73" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C73" s="162" t="s">
+      <c r="B73" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C73" s="172" t="s">
         <v>461</v>
       </c>
-      <c r="D73" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E73" s="164"/>
-      <c r="F73" s="165" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G73" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H73" s="166">
+      <c r="D73" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E73" s="174"/>
+      <c r="F73" s="175" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G73" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H73" s="176">
         <v>10.0</v>
       </c>
-      <c r="I73" s="180" t="s">
-        <v>1451</v>
+      <c r="I73" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
-      <c r="B74" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C74" s="162" t="s">
+      <c r="B74" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C74" s="172" t="s">
         <v>462</v>
       </c>
-      <c r="D74" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E74" s="164"/>
-      <c r="F74" s="165" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G74" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H74" s="166">
+      <c r="D74" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E74" s="174"/>
+      <c r="F74" s="175" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G74" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H74" s="176">
         <v>11.0</v>
       </c>
-      <c r="I74" s="180" t="s">
-        <v>1451</v>
+      <c r="I74" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
-      <c r="B75" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C75" s="162" t="s">
+      <c r="B75" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C75" s="172" t="s">
         <v>463</v>
       </c>
-      <c r="D75" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E75" s="164"/>
-      <c r="F75" s="165" t="s">
-        <v>1524</v>
-      </c>
-      <c r="G75" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H75" s="166">
+      <c r="D75" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E75" s="174"/>
+      <c r="F75" s="175" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G75" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H75" s="176">
         <v>12.0</v>
       </c>
-      <c r="I75" s="180" t="s">
-        <v>1451</v>
+      <c r="I75" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
-      <c r="B76" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C76" s="162" t="s">
+      <c r="B76" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C76" s="172" t="s">
         <v>464</v>
       </c>
-      <c r="D76" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E76" s="164"/>
-      <c r="F76" s="165" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G76" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H76" s="166">
+      <c r="D76" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E76" s="174"/>
+      <c r="F76" s="175" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G76" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H76" s="176">
         <v>13.0</v>
       </c>
-      <c r="I76" s="180" t="s">
-        <v>1451</v>
+      <c r="I76" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
-      <c r="B77" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C77" s="162" t="s">
+      <c r="B77" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C77" s="172" t="s">
         <v>465</v>
       </c>
-      <c r="D77" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E77" s="164"/>
-      <c r="F77" s="165" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G77" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H77" s="166">
+      <c r="D77" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E77" s="174"/>
+      <c r="F77" s="175" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G77" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H77" s="176">
         <v>14.0</v>
       </c>
-      <c r="I77" s="180" t="s">
-        <v>1451</v>
+      <c r="I77" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
-      <c r="B78" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C78" s="162" t="s">
+      <c r="B78" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C78" s="172" t="s">
         <v>466</v>
       </c>
-      <c r="D78" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E78" s="164"/>
-      <c r="F78" s="165" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G78" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H78" s="166">
+      <c r="D78" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E78" s="174"/>
+      <c r="F78" s="175" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G78" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H78" s="176">
         <v>15.0</v>
       </c>
-      <c r="I78" s="180" t="s">
-        <v>1451</v>
+      <c r="I78" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
-      <c r="B79" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C79" s="162" t="s">
+      <c r="B79" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C79" s="172" t="s">
         <v>467</v>
       </c>
-      <c r="D79" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E79" s="164"/>
-      <c r="F79" s="165" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G79" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H79" s="166">
+      <c r="D79" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E79" s="174"/>
+      <c r="F79" s="175" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G79" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H79" s="176">
         <v>16.0</v>
       </c>
-      <c r="I79" s="180" t="s">
-        <v>1451</v>
+      <c r="I79" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C80" s="162" t="s">
+      <c r="B80" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C80" s="172" t="s">
         <v>468</v>
       </c>
-      <c r="D80" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E80" s="164"/>
-      <c r="F80" s="165" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G80" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H80" s="166">
+      <c r="D80" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E80" s="174"/>
+      <c r="F80" s="175" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G80" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H80" s="176">
         <v>17.0</v>
       </c>
-      <c r="I80" s="180" t="s">
-        <v>1451</v>
+      <c r="I80" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
-      <c r="B81" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C81" s="162" t="s">
+      <c r="B81" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C81" s="172" t="s">
         <v>469</v>
       </c>
-      <c r="D81" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E81" s="164"/>
-      <c r="F81" s="165" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G81" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H81" s="166">
+      <c r="D81" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E81" s="174"/>
+      <c r="F81" s="175" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G81" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H81" s="176">
         <v>18.0</v>
       </c>
-      <c r="I81" s="180" t="s">
-        <v>1451</v>
+      <c r="I81" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
-      <c r="B82" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C82" s="162" t="s">
+      <c r="B82" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C82" s="172" t="s">
         <v>470</v>
       </c>
-      <c r="D82" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E82" s="164"/>
-      <c r="F82" s="165" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G82" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H82" s="166">
+      <c r="D82" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E82" s="174"/>
+      <c r="F82" s="175" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G82" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H82" s="176">
         <v>19.0</v>
       </c>
-      <c r="I82" s="180" t="s">
-        <v>1451</v>
+      <c r="I82" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
-      <c r="B83" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C83" s="162" t="s">
+      <c r="B83" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C83" s="172" t="s">
         <v>471</v>
       </c>
-      <c r="D83" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E83" s="164"/>
-      <c r="F83" s="165" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G83" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H83" s="166">
+      <c r="D83" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E83" s="174"/>
+      <c r="F83" s="175" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G83" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H83" s="176">
         <v>20.0</v>
       </c>
-      <c r="I83" s="180" t="s">
-        <v>1451</v>
+      <c r="I83" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
-      <c r="B84" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C84" s="162" t="s">
+      <c r="B84" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C84" s="172" t="s">
         <v>472</v>
       </c>
-      <c r="D84" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E84" s="164"/>
-      <c r="F84" s="165" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G84" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H84" s="166">
+      <c r="D84" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E84" s="174"/>
+      <c r="F84" s="175" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G84" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H84" s="176">
         <v>21.0</v>
       </c>
-      <c r="I84" s="180" t="s">
-        <v>1451</v>
+      <c r="I84" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
-      <c r="B85" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C85" s="162" t="s">
+      <c r="B85" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C85" s="172" t="s">
         <v>473</v>
       </c>
-      <c r="D85" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E85" s="164"/>
-      <c r="F85" s="165" t="s">
-        <v>1534</v>
-      </c>
-      <c r="G85" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H85" s="166">
+      <c r="D85" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E85" s="174"/>
+      <c r="F85" s="175" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G85" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H85" s="176">
         <v>22.0</v>
       </c>
-      <c r="I85" s="180" t="s">
-        <v>1451</v>
+      <c r="I85" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
-      <c r="B86" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C86" s="162" t="s">
+      <c r="B86" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C86" s="172" t="s">
         <v>474</v>
       </c>
-      <c r="D86" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E86" s="164"/>
-      <c r="F86" s="165" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G86" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H86" s="166">
+      <c r="D86" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E86" s="174"/>
+      <c r="F86" s="175" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G86" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H86" s="176">
         <v>23.0</v>
       </c>
-      <c r="I86" s="180" t="s">
-        <v>1451</v>
+      <c r="I86" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
-      <c r="B87" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C87" s="162" t="s">
+      <c r="B87" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C87" s="172" t="s">
         <v>475</v>
       </c>
-      <c r="D87" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E87" s="164"/>
-      <c r="F87" s="165" t="s">
-        <v>1536</v>
-      </c>
-      <c r="G87" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H87" s="166">
+      <c r="D87" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E87" s="174"/>
+      <c r="F87" s="175" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G87" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H87" s="176">
         <v>24.0</v>
       </c>
-      <c r="I87" s="180" t="s">
-        <v>1451</v>
+      <c r="I87" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
-      <c r="B88" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C88" s="162" t="s">
+      <c r="B88" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C88" s="172" t="s">
         <v>476</v>
       </c>
-      <c r="D88" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E88" s="164"/>
-      <c r="F88" s="165" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G88" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H88" s="166">
+      <c r="D88" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E88" s="174"/>
+      <c r="F88" s="175" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G88" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H88" s="176">
         <v>25.0</v>
       </c>
-      <c r="I88" s="180" t="s">
-        <v>1451</v>
+      <c r="I88" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
-      <c r="B89" s="182" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C89" s="189" t="s">
+      <c r="B89" s="192" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C89" s="199" t="s">
         <v>477</v>
       </c>
-      <c r="D89" s="184" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E89" s="185"/>
-      <c r="F89" s="186" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G89" s="184" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H89" s="187">
+      <c r="D89" s="194" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E89" s="195"/>
+      <c r="F89" s="196" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G89" s="194" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H89" s="197">
         <v>26.0</v>
       </c>
-      <c r="I89" s="188" t="s">
-        <v>1451</v>
+      <c r="I89" s="198" t="s">
+        <v>1474</v>
       </c>
       <c r="J89" s="1"/>
     </row>
     <row r="90">
-      <c r="B90" s="161"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="163"/>
-      <c r="E90" s="168"/>
-      <c r="F90" s="169"/>
-      <c r="G90" s="163"/>
-      <c r="H90" s="170"/>
-      <c r="I90" s="161"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="177"/>
+      <c r="D90" s="173"/>
+      <c r="E90" s="178"/>
+      <c r="F90" s="179"/>
+      <c r="G90" s="173"/>
+      <c r="H90" s="180"/>
+      <c r="I90" s="171"/>
       <c r="J90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
-      <c r="B91" s="171" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C91" s="172" t="s">
+      <c r="B91" s="181" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C91" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="173" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E91" s="174" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F91" s="175" t="s">
-        <v>1540</v>
-      </c>
-      <c r="G91" s="173" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H91" s="176" t="s">
+      <c r="D91" s="183" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E91" s="184" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F91" s="185" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G91" s="183" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H91" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="I91" s="177" t="s">
-        <v>1451</v>
+      <c r="I91" s="187" t="s">
+        <v>1474</v>
       </c>
       <c r="J91" s="1"/>
     </row>
     <row r="92">
-      <c r="B92" s="178"/>
-      <c r="C92" s="167"/>
-      <c r="D92" s="163"/>
-      <c r="E92" s="168"/>
-      <c r="F92" s="169"/>
-      <c r="G92" s="163"/>
-      <c r="H92" s="170"/>
-      <c r="I92" s="180"/>
+      <c r="B92" s="188"/>
+      <c r="C92" s="177"/>
+      <c r="D92" s="173"/>
+      <c r="E92" s="178"/>
+      <c r="F92" s="179"/>
+      <c r="G92" s="173"/>
+      <c r="H92" s="180"/>
+      <c r="I92" s="190"/>
       <c r="J92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
-      <c r="B93" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C93" s="162" t="s">
+      <c r="B93" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C93" s="172" t="s">
         <v>729</v>
       </c>
-      <c r="D93" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E93" s="164"/>
-      <c r="F93" s="165" t="s">
-        <v>1541</v>
-      </c>
-      <c r="G93" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H93" s="166">
+      <c r="D93" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E93" s="174"/>
+      <c r="F93" s="175" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G93" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H93" s="176">
         <v>1.0</v>
       </c>
-      <c r="I93" s="180" t="s">
-        <v>1451</v>
+      <c r="I93" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
-      <c r="B94" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C94" s="162" t="s">
+      <c r="B94" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C94" s="172" t="s">
         <v>730</v>
       </c>
-      <c r="D94" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E94" s="164"/>
-      <c r="F94" s="165" t="s">
-        <v>1542</v>
-      </c>
-      <c r="G94" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H94" s="166">
+      <c r="D94" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E94" s="174"/>
+      <c r="F94" s="175" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G94" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H94" s="176">
         <v>2.0</v>
       </c>
-      <c r="I94" s="180" t="s">
-        <v>1451</v>
+      <c r="I94" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
-      <c r="B95" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C95" s="162" t="s">
+      <c r="B95" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C95" s="172" t="s">
         <v>731</v>
       </c>
-      <c r="D95" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E95" s="164"/>
-      <c r="F95" s="165" t="s">
-        <v>1543</v>
-      </c>
-      <c r="G95" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H95" s="166">
+      <c r="D95" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E95" s="174"/>
+      <c r="F95" s="175" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G95" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H95" s="176">
         <v>3.0</v>
       </c>
-      <c r="I95" s="180" t="s">
-        <v>1451</v>
+      <c r="I95" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
-      <c r="B96" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C96" s="162" t="s">
+      <c r="B96" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C96" s="172" t="s">
         <v>732</v>
       </c>
-      <c r="D96" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E96" s="164"/>
-      <c r="F96" s="165" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G96" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H96" s="166">
+      <c r="D96" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E96" s="174"/>
+      <c r="F96" s="175" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G96" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H96" s="176">
         <v>4.0</v>
       </c>
-      <c r="I96" s="180" t="s">
-        <v>1451</v>
+      <c r="I96" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
-      <c r="B97" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C97" s="162" t="s">
+      <c r="B97" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C97" s="172" t="s">
         <v>733</v>
       </c>
-      <c r="D97" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E97" s="164"/>
-      <c r="F97" s="165" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G97" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H97" s="166">
+      <c r="D97" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E97" s="174"/>
+      <c r="F97" s="175" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G97" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H97" s="176">
         <v>5.0</v>
       </c>
-      <c r="I97" s="180" t="s">
-        <v>1451</v>
+      <c r="I97" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
-      <c r="B98" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C98" s="162" t="s">
+      <c r="B98" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C98" s="172" t="s">
         <v>734</v>
       </c>
-      <c r="D98" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E98" s="164"/>
-      <c r="F98" s="165" t="s">
-        <v>1546</v>
-      </c>
-      <c r="G98" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H98" s="166">
+      <c r="D98" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E98" s="174"/>
+      <c r="F98" s="175" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G98" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H98" s="176">
         <v>6.0</v>
       </c>
-      <c r="I98" s="180" t="s">
-        <v>1451</v>
+      <c r="I98" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
-      <c r="B99" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C99" s="162" t="s">
+      <c r="B99" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C99" s="172" t="s">
         <v>735</v>
       </c>
-      <c r="D99" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E99" s="164"/>
-      <c r="F99" s="165" t="s">
-        <v>1547</v>
-      </c>
-      <c r="G99" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H99" s="166">
+      <c r="D99" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E99" s="174"/>
+      <c r="F99" s="175" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G99" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H99" s="176">
         <v>7.0</v>
       </c>
-      <c r="I99" s="180" t="s">
-        <v>1451</v>
+      <c r="I99" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
-      <c r="B100" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C100" s="162" t="s">
+      <c r="B100" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C100" s="172" t="s">
         <v>736</v>
       </c>
-      <c r="D100" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E100" s="164"/>
-      <c r="F100" s="165" t="s">
-        <v>1548</v>
-      </c>
-      <c r="G100" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H100" s="166">
+      <c r="D100" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E100" s="174"/>
+      <c r="F100" s="175" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G100" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H100" s="176">
         <v>8.0</v>
       </c>
-      <c r="I100" s="180" t="s">
-        <v>1451</v>
+      <c r="I100" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
-      <c r="B101" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C101" s="162" t="s">
+      <c r="B101" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C101" s="172" t="s">
         <v>737</v>
       </c>
-      <c r="D101" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E101" s="164"/>
-      <c r="F101" s="165" t="s">
-        <v>1549</v>
-      </c>
-      <c r="G101" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H101" s="166">
+      <c r="D101" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E101" s="174"/>
+      <c r="F101" s="175" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G101" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H101" s="176">
         <v>9.0</v>
       </c>
-      <c r="I101" s="180" t="s">
-        <v>1451</v>
+      <c r="I101" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
-      <c r="B102" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C102" s="162" t="s">
+      <c r="B102" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C102" s="172" t="s">
         <v>738</v>
       </c>
-      <c r="D102" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E102" s="164"/>
-      <c r="F102" s="165" t="s">
-        <v>1550</v>
-      </c>
-      <c r="G102" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H102" s="166">
+      <c r="D102" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E102" s="174"/>
+      <c r="F102" s="175" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G102" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H102" s="176">
         <v>10.0</v>
       </c>
-      <c r="I102" s="180" t="s">
-        <v>1451</v>
+      <c r="I102" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
-      <c r="B103" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C103" s="162" t="s">
+      <c r="B103" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C103" s="172" t="s">
         <v>739</v>
       </c>
-      <c r="D103" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E103" s="164"/>
-      <c r="F103" s="165" t="s">
-        <v>1551</v>
-      </c>
-      <c r="G103" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H103" s="166">
+      <c r="D103" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E103" s="174"/>
+      <c r="F103" s="175" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G103" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H103" s="176">
         <v>11.0</v>
       </c>
-      <c r="I103" s="180" t="s">
-        <v>1451</v>
+      <c r="I103" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
-      <c r="B104" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C104" s="162" t="s">
+      <c r="B104" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C104" s="172" t="s">
         <v>740</v>
       </c>
-      <c r="D104" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E104" s="164"/>
-      <c r="F104" s="165" t="s">
-        <v>1552</v>
-      </c>
-      <c r="G104" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H104" s="166">
+      <c r="D104" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E104" s="174"/>
+      <c r="F104" s="175" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G104" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H104" s="176">
         <v>12.0</v>
       </c>
-      <c r="I104" s="180" t="s">
-        <v>1451</v>
+      <c r="I104" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
-      <c r="B105" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C105" s="162" t="s">
+      <c r="B105" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C105" s="172" t="s">
         <v>741</v>
       </c>
-      <c r="D105" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E105" s="164"/>
-      <c r="F105" s="165" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G105" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H105" s="166">
+      <c r="D105" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E105" s="174"/>
+      <c r="F105" s="175" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G105" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H105" s="176">
         <v>13.0</v>
       </c>
-      <c r="I105" s="180" t="s">
-        <v>1451</v>
+      <c r="I105" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
-      <c r="B106" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C106" s="162" t="s">
+      <c r="B106" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C106" s="172" t="s">
         <v>742</v>
       </c>
-      <c r="D106" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E106" s="164"/>
-      <c r="F106" s="165" t="s">
-        <v>1554</v>
-      </c>
-      <c r="G106" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H106" s="166">
+      <c r="D106" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E106" s="174"/>
+      <c r="F106" s="175" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G106" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H106" s="176">
         <v>14.0</v>
       </c>
-      <c r="I106" s="180" t="s">
-        <v>1451</v>
+      <c r="I106" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
-      <c r="B107" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C107" s="162" t="s">
+      <c r="B107" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C107" s="172" t="s">
         <v>743</v>
       </c>
-      <c r="D107" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E107" s="164"/>
-      <c r="F107" s="165" t="s">
-        <v>1555</v>
-      </c>
-      <c r="G107" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H107" s="166">
+      <c r="D107" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E107" s="174"/>
+      <c r="F107" s="175" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G107" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H107" s="176">
         <v>15.0</v>
       </c>
-      <c r="I107" s="180" t="s">
-        <v>1451</v>
+      <c r="I107" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
-      <c r="B108" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C108" s="162" t="s">
+      <c r="B108" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C108" s="172" t="s">
         <v>744</v>
       </c>
-      <c r="D108" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E108" s="164"/>
-      <c r="F108" s="165" t="s">
-        <v>1556</v>
-      </c>
-      <c r="G108" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H108" s="166">
+      <c r="D108" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E108" s="174"/>
+      <c r="F108" s="175" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G108" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H108" s="176">
         <v>16.0</v>
       </c>
-      <c r="I108" s="180" t="s">
-        <v>1451</v>
+      <c r="I108" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
-      <c r="B109" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C109" s="162" t="s">
+      <c r="B109" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C109" s="172" t="s">
         <v>745</v>
       </c>
-      <c r="D109" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E109" s="164"/>
-      <c r="F109" s="165" t="s">
-        <v>1557</v>
-      </c>
-      <c r="G109" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H109" s="166">
+      <c r="D109" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E109" s="174"/>
+      <c r="F109" s="175" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G109" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H109" s="176">
         <v>17.0</v>
       </c>
-      <c r="I109" s="180" t="s">
-        <v>1451</v>
+      <c r="I109" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
-      <c r="B110" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C110" s="162" t="s">
+      <c r="B110" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C110" s="172" t="s">
         <v>746</v>
       </c>
-      <c r="D110" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E110" s="164"/>
-      <c r="F110" s="165" t="s">
-        <v>1558</v>
-      </c>
-      <c r="G110" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H110" s="166">
+      <c r="D110" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E110" s="174"/>
+      <c r="F110" s="175" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G110" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H110" s="176">
         <v>18.0</v>
       </c>
-      <c r="I110" s="180" t="s">
-        <v>1451</v>
+      <c r="I110" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
-      <c r="B111" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C111" s="162" t="s">
+      <c r="B111" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C111" s="172" t="s">
         <v>747</v>
       </c>
-      <c r="D111" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E111" s="164"/>
-      <c r="F111" s="165" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G111" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H111" s="166">
+      <c r="D111" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E111" s="174"/>
+      <c r="F111" s="175" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G111" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H111" s="176">
         <v>19.0</v>
       </c>
-      <c r="I111" s="180" t="s">
-        <v>1451</v>
+      <c r="I111" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
-      <c r="B112" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C112" s="162" t="s">
+      <c r="B112" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C112" s="172" t="s">
         <v>748</v>
       </c>
-      <c r="D112" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E112" s="164"/>
-      <c r="F112" s="165" t="s">
-        <v>1560</v>
-      </c>
-      <c r="G112" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H112" s="166">
+      <c r="D112" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E112" s="174"/>
+      <c r="F112" s="175" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G112" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H112" s="176">
         <v>20.0</v>
       </c>
-      <c r="I112" s="180" t="s">
-        <v>1451</v>
+      <c r="I112" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
-      <c r="B113" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C113" s="162" t="s">
+      <c r="B113" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C113" s="172" t="s">
         <v>749</v>
       </c>
-      <c r="D113" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E113" s="164"/>
-      <c r="F113" s="165" t="s">
-        <v>1561</v>
-      </c>
-      <c r="G113" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H113" s="166">
+      <c r="D113" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E113" s="174"/>
+      <c r="F113" s="175" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G113" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H113" s="176">
         <v>21.0</v>
       </c>
-      <c r="I113" s="180" t="s">
-        <v>1451</v>
+      <c r="I113" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
-      <c r="B114" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C114" s="162" t="s">
+      <c r="B114" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C114" s="172" t="s">
         <v>750</v>
       </c>
-      <c r="D114" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E114" s="164"/>
-      <c r="F114" s="165" t="s">
-        <v>1562</v>
-      </c>
-      <c r="G114" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H114" s="166">
+      <c r="D114" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E114" s="174"/>
+      <c r="F114" s="175" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G114" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H114" s="176">
         <v>22.0</v>
       </c>
-      <c r="I114" s="180" t="s">
-        <v>1451</v>
+      <c r="I114" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
-      <c r="B115" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C115" s="162" t="s">
+      <c r="B115" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C115" s="172" t="s">
         <v>751</v>
       </c>
-      <c r="D115" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E115" s="164"/>
-      <c r="F115" s="165" t="s">
-        <v>1563</v>
-      </c>
-      <c r="G115" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H115" s="166">
+      <c r="D115" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E115" s="174"/>
+      <c r="F115" s="175" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G115" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H115" s="176">
         <v>23.0</v>
       </c>
-      <c r="I115" s="180" t="s">
-        <v>1451</v>
+      <c r="I115" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
-      <c r="B116" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C116" s="162" t="s">
+      <c r="B116" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C116" s="172" t="s">
         <v>752</v>
       </c>
-      <c r="D116" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E116" s="164"/>
-      <c r="F116" s="165" t="s">
-        <v>1564</v>
-      </c>
-      <c r="G116" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H116" s="166">
+      <c r="D116" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E116" s="174"/>
+      <c r="F116" s="175" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G116" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H116" s="176">
         <v>24.0</v>
       </c>
-      <c r="I116" s="180" t="s">
-        <v>1451</v>
+      <c r="I116" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
-      <c r="B117" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C117" s="162" t="s">
+      <c r="B117" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C117" s="172" t="s">
         <v>753</v>
       </c>
-      <c r="D117" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E117" s="164"/>
-      <c r="F117" s="165" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G117" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H117" s="166">
+      <c r="D117" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E117" s="174"/>
+      <c r="F117" s="175" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G117" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H117" s="176">
         <v>25.0</v>
       </c>
-      <c r="I117" s="180" t="s">
-        <v>1451</v>
+      <c r="I117" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
-      <c r="B118" s="182" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C118" s="189" t="s">
+      <c r="B118" s="192" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C118" s="199" t="s">
         <v>754</v>
       </c>
-      <c r="D118" s="184" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E118" s="185"/>
-      <c r="F118" s="186" t="s">
-        <v>1566</v>
-      </c>
-      <c r="G118" s="184" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H118" s="187">
+      <c r="D118" s="194" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E118" s="195"/>
+      <c r="F118" s="196" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G118" s="194" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H118" s="197">
         <v>26.0</v>
       </c>
-      <c r="I118" s="188" t="s">
-        <v>1451</v>
+      <c r="I118" s="198" t="s">
+        <v>1474</v>
       </c>
       <c r="J118" s="1"/>
     </row>
     <row r="119">
-      <c r="B119" s="161"/>
-      <c r="C119" s="167"/>
-      <c r="D119" s="163"/>
-      <c r="E119" s="168"/>
-      <c r="F119" s="169"/>
-      <c r="G119" s="163"/>
-      <c r="H119" s="170"/>
-      <c r="I119" s="161"/>
+      <c r="B119" s="171"/>
+      <c r="C119" s="177"/>
+      <c r="D119" s="173"/>
+      <c r="E119" s="178"/>
+      <c r="F119" s="179"/>
+      <c r="G119" s="173"/>
+      <c r="H119" s="180"/>
+      <c r="I119" s="171"/>
       <c r="J119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
-      <c r="B120" s="171" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C120" s="172" t="s">
+      <c r="B120" s="181" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C120" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="173" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E120" s="174" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F120" s="175" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G120" s="173" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H120" s="176" t="s">
+      <c r="D120" s="183" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E120" s="184" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F120" s="185" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G120" s="183" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H120" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="I120" s="177" t="s">
-        <v>1451</v>
+      <c r="I120" s="187" t="s">
+        <v>1474</v>
       </c>
       <c r="J120" s="1"/>
     </row>
     <row r="121">
-      <c r="B121" s="178"/>
-      <c r="C121" s="167"/>
-      <c r="D121" s="163"/>
-      <c r="E121" s="168"/>
-      <c r="F121" s="169"/>
-      <c r="G121" s="163"/>
-      <c r="H121" s="170"/>
-      <c r="I121" s="180"/>
+      <c r="B121" s="188"/>
+      <c r="C121" s="177"/>
+      <c r="D121" s="173"/>
+      <c r="E121" s="178"/>
+      <c r="F121" s="179"/>
+      <c r="G121" s="173"/>
+      <c r="H121" s="180"/>
+      <c r="I121" s="190"/>
       <c r="J121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
-      <c r="B122" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C122" s="162" t="s">
+      <c r="B122" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C122" s="172" t="s">
         <v>1045</v>
       </c>
-      <c r="D122" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E122" s="164"/>
-      <c r="F122" s="165" t="s">
-        <v>1569</v>
-      </c>
-      <c r="G122" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H122" s="166">
+      <c r="D122" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E122" s="174"/>
+      <c r="F122" s="175" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G122" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H122" s="176">
         <v>1.0</v>
       </c>
-      <c r="I122" s="180" t="s">
-        <v>1451</v>
+      <c r="I122" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
-      <c r="B123" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C123" s="162" t="s">
+      <c r="B123" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C123" s="172" t="s">
         <v>1046</v>
       </c>
-      <c r="D123" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E123" s="164"/>
-      <c r="F123" s="165" t="s">
-        <v>1570</v>
-      </c>
-      <c r="G123" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H123" s="166">
+      <c r="D123" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E123" s="174"/>
+      <c r="F123" s="175" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G123" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H123" s="176">
         <v>2.0</v>
       </c>
-      <c r="I123" s="180" t="s">
-        <v>1451</v>
+      <c r="I123" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
-      <c r="B124" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C124" s="162" t="s">
+      <c r="B124" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C124" s="172" t="s">
         <v>1047</v>
       </c>
-      <c r="D124" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E124" s="164"/>
-      <c r="F124" s="165" t="s">
-        <v>1571</v>
-      </c>
-      <c r="G124" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H124" s="166">
+      <c r="D124" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E124" s="174"/>
+      <c r="F124" s="175" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G124" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H124" s="176">
         <v>3.0</v>
       </c>
-      <c r="I124" s="180" t="s">
-        <v>1451</v>
+      <c r="I124" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
-      <c r="B125" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C125" s="162" t="s">
+      <c r="B125" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C125" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="D125" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E125" s="164"/>
-      <c r="F125" s="165" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G125" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H125" s="166">
+      <c r="D125" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E125" s="174"/>
+      <c r="F125" s="175" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G125" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H125" s="176">
         <v>4.0</v>
       </c>
-      <c r="I125" s="180" t="s">
-        <v>1451</v>
+      <c r="I125" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
-      <c r="B126" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C126" s="162" t="s">
+      <c r="B126" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C126" s="172" t="s">
         <v>1049</v>
       </c>
-      <c r="D126" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E126" s="164"/>
-      <c r="F126" s="165" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G126" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H126" s="166">
+      <c r="D126" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E126" s="174"/>
+      <c r="F126" s="175" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G126" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H126" s="176">
         <v>5.0</v>
       </c>
-      <c r="I126" s="180" t="s">
-        <v>1451</v>
+      <c r="I126" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
-      <c r="B127" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C127" s="162" t="s">
+      <c r="B127" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C127" s="172" t="s">
         <v>1050</v>
       </c>
-      <c r="D127" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E127" s="164"/>
-      <c r="F127" s="165" t="s">
-        <v>1574</v>
-      </c>
-      <c r="G127" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H127" s="166">
+      <c r="D127" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E127" s="174"/>
+      <c r="F127" s="175" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G127" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H127" s="176">
         <v>6.0</v>
       </c>
-      <c r="I127" s="180" t="s">
-        <v>1451</v>
+      <c r="I127" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
-      <c r="B128" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C128" s="162" t="s">
+      <c r="B128" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C128" s="172" t="s">
         <v>1051</v>
       </c>
-      <c r="D128" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E128" s="164"/>
-      <c r="F128" s="165" t="s">
-        <v>1575</v>
-      </c>
-      <c r="G128" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H128" s="166">
+      <c r="D128" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E128" s="174"/>
+      <c r="F128" s="175" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G128" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H128" s="176">
         <v>7.0</v>
       </c>
-      <c r="I128" s="180" t="s">
-        <v>1451</v>
+      <c r="I128" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
-      <c r="B129" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C129" s="162" t="s">
+      <c r="B129" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C129" s="172" t="s">
         <v>1052</v>
       </c>
-      <c r="D129" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E129" s="164"/>
-      <c r="F129" s="165" t="s">
-        <v>1576</v>
-      </c>
-      <c r="G129" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H129" s="166">
+      <c r="D129" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E129" s="174"/>
+      <c r="F129" s="175" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G129" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H129" s="176">
         <v>8.0</v>
       </c>
-      <c r="I129" s="180" t="s">
-        <v>1451</v>
+      <c r="I129" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
-      <c r="B130" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C130" s="162" t="s">
+      <c r="B130" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C130" s="172" t="s">
         <v>1053</v>
       </c>
-      <c r="D130" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E130" s="164"/>
-      <c r="F130" s="165" t="s">
-        <v>1577</v>
-      </c>
-      <c r="G130" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H130" s="166">
+      <c r="D130" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E130" s="174"/>
+      <c r="F130" s="175" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G130" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H130" s="176">
         <v>9.0</v>
       </c>
-      <c r="I130" s="180" t="s">
-        <v>1451</v>
+      <c r="I130" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
-      <c r="B131" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C131" s="162" t="s">
+      <c r="B131" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C131" s="172" t="s">
         <v>1054</v>
       </c>
-      <c r="D131" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E131" s="164"/>
-      <c r="F131" s="165" t="s">
-        <v>1578</v>
-      </c>
-      <c r="G131" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H131" s="166">
+      <c r="D131" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E131" s="174"/>
+      <c r="F131" s="175" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G131" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H131" s="176">
         <v>10.0</v>
       </c>
-      <c r="I131" s="180" t="s">
-        <v>1451</v>
+      <c r="I131" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
-      <c r="B132" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C132" s="162" t="s">
+      <c r="B132" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C132" s="172" t="s">
         <v>1055</v>
       </c>
-      <c r="D132" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E132" s="164"/>
-      <c r="F132" s="165" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G132" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H132" s="166">
+      <c r="D132" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E132" s="174"/>
+      <c r="F132" s="175" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G132" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H132" s="176">
         <v>11.0</v>
       </c>
-      <c r="I132" s="180" t="s">
-        <v>1451</v>
+      <c r="I132" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
-      <c r="B133" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C133" s="162" t="s">
+      <c r="B133" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C133" s="172" t="s">
         <v>1056</v>
       </c>
-      <c r="D133" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E133" s="164"/>
-      <c r="F133" s="165" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G133" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H133" s="166">
+      <c r="D133" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E133" s="174"/>
+      <c r="F133" s="175" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G133" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H133" s="176">
         <v>12.0</v>
       </c>
-      <c r="I133" s="180" t="s">
-        <v>1451</v>
+      <c r="I133" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
-      <c r="B134" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C134" s="162" t="s">
+      <c r="B134" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C134" s="172" t="s">
         <v>1057</v>
       </c>
-      <c r="D134" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E134" s="164"/>
-      <c r="F134" s="165" t="s">
-        <v>1581</v>
-      </c>
-      <c r="G134" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H134" s="166">
+      <c r="D134" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E134" s="174"/>
+      <c r="F134" s="175" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G134" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H134" s="176">
         <v>13.0</v>
       </c>
-      <c r="I134" s="180" t="s">
-        <v>1451</v>
+      <c r="I134" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
-      <c r="B135" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C135" s="162" t="s">
+      <c r="B135" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C135" s="172" t="s">
         <v>1058</v>
       </c>
-      <c r="D135" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E135" s="164"/>
-      <c r="F135" s="165" t="s">
-        <v>1582</v>
-      </c>
-      <c r="G135" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H135" s="166">
+      <c r="D135" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E135" s="174"/>
+      <c r="F135" s="175" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G135" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H135" s="176">
         <v>14.0</v>
       </c>
-      <c r="I135" s="180" t="s">
-        <v>1451</v>
+      <c r="I135" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
-      <c r="B136" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C136" s="162" t="s">
+      <c r="B136" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C136" s="172" t="s">
         <v>1059</v>
       </c>
-      <c r="D136" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E136" s="164"/>
-      <c r="F136" s="165" t="s">
-        <v>1583</v>
-      </c>
-      <c r="G136" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H136" s="166">
+      <c r="D136" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E136" s="174"/>
+      <c r="F136" s="175" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G136" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H136" s="176">
         <v>15.0</v>
       </c>
-      <c r="I136" s="180" t="s">
-        <v>1451</v>
+      <c r="I136" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
-      <c r="B137" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C137" s="162" t="s">
+      <c r="B137" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C137" s="172" t="s">
         <v>1060</v>
       </c>
-      <c r="D137" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E137" s="164"/>
-      <c r="F137" s="165" t="s">
-        <v>1584</v>
-      </c>
-      <c r="G137" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H137" s="166">
+      <c r="D137" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E137" s="174"/>
+      <c r="F137" s="175" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G137" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H137" s="176">
         <v>16.0</v>
       </c>
-      <c r="I137" s="180" t="s">
-        <v>1451</v>
+      <c r="I137" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
-      <c r="B138" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C138" s="162" t="s">
+      <c r="B138" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C138" s="172" t="s">
         <v>1061</v>
       </c>
-      <c r="D138" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E138" s="164"/>
-      <c r="F138" s="165" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G138" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H138" s="166">
+      <c r="D138" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E138" s="174"/>
+      <c r="F138" s="175" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G138" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H138" s="176">
         <v>17.0</v>
       </c>
-      <c r="I138" s="180" t="s">
-        <v>1451</v>
+      <c r="I138" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
-      <c r="B139" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C139" s="162" t="s">
+      <c r="B139" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C139" s="172" t="s">
         <v>1062</v>
       </c>
-      <c r="D139" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E139" s="164"/>
-      <c r="F139" s="165" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G139" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H139" s="166">
+      <c r="D139" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E139" s="174"/>
+      <c r="F139" s="175" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G139" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H139" s="176">
         <v>18.0</v>
       </c>
-      <c r="I139" s="180" t="s">
-        <v>1451</v>
+      <c r="I139" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
-      <c r="B140" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C140" s="162" t="s">
+      <c r="B140" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C140" s="172" t="s">
         <v>1063</v>
       </c>
-      <c r="D140" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E140" s="164"/>
-      <c r="F140" s="165" t="s">
-        <v>1587</v>
-      </c>
-      <c r="G140" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H140" s="166">
+      <c r="D140" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E140" s="174"/>
+      <c r="F140" s="175" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G140" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H140" s="176">
         <v>19.0</v>
       </c>
-      <c r="I140" s="180" t="s">
-        <v>1451</v>
+      <c r="I140" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
-      <c r="B141" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C141" s="162" t="s">
+      <c r="B141" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C141" s="172" t="s">
         <v>1064</v>
       </c>
-      <c r="D141" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E141" s="164"/>
-      <c r="F141" s="165" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G141" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H141" s="166">
+      <c r="D141" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E141" s="174"/>
+      <c r="F141" s="175" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G141" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H141" s="176">
         <v>20.0</v>
       </c>
-      <c r="I141" s="180" t="s">
-        <v>1451</v>
+      <c r="I141" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
-      <c r="B142" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C142" s="162" t="s">
+      <c r="B142" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C142" s="172" t="s">
         <v>1065</v>
       </c>
-      <c r="D142" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E142" s="164"/>
-      <c r="F142" s="165" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G142" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H142" s="166">
+      <c r="D142" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E142" s="174"/>
+      <c r="F142" s="175" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G142" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H142" s="176">
         <v>21.0</v>
       </c>
-      <c r="I142" s="180" t="s">
-        <v>1451</v>
+      <c r="I142" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
-      <c r="B143" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C143" s="162" t="s">
+      <c r="B143" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C143" s="172" t="s">
         <v>1066</v>
       </c>
-      <c r="D143" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E143" s="164"/>
-      <c r="F143" s="165" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G143" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H143" s="166">
+      <c r="D143" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E143" s="174"/>
+      <c r="F143" s="175" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G143" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H143" s="176">
         <v>22.0</v>
       </c>
-      <c r="I143" s="180" t="s">
-        <v>1451</v>
+      <c r="I143" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
-      <c r="B144" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C144" s="162" t="s">
+      <c r="B144" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C144" s="172" t="s">
         <v>1067</v>
       </c>
-      <c r="D144" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E144" s="164"/>
-      <c r="F144" s="165" t="s">
-        <v>1591</v>
-      </c>
-      <c r="G144" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H144" s="166">
+      <c r="D144" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E144" s="174"/>
+      <c r="F144" s="175" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G144" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H144" s="176">
         <v>23.0</v>
       </c>
-      <c r="I144" s="180" t="s">
-        <v>1451</v>
+      <c r="I144" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
-      <c r="B145" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C145" s="162" t="s">
+      <c r="B145" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C145" s="172" t="s">
         <v>1068</v>
       </c>
-      <c r="D145" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E145" s="164"/>
-      <c r="F145" s="165" t="s">
-        <v>1592</v>
-      </c>
-      <c r="G145" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H145" s="166">
+      <c r="D145" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E145" s="174"/>
+      <c r="F145" s="175" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G145" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H145" s="176">
         <v>24.0</v>
       </c>
-      <c r="I145" s="180" t="s">
-        <v>1451</v>
+      <c r="I145" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
-      <c r="B146" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C146" s="162" t="s">
+      <c r="B146" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C146" s="172" t="s">
         <v>1069</v>
       </c>
-      <c r="D146" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E146" s="164"/>
-      <c r="F146" s="165" t="s">
-        <v>1593</v>
-      </c>
-      <c r="G146" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H146" s="166">
+      <c r="D146" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E146" s="174"/>
+      <c r="F146" s="175" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G146" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H146" s="176">
         <v>25.0</v>
       </c>
-      <c r="I146" s="180" t="s">
-        <v>1451</v>
+      <c r="I146" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
-      <c r="B147" s="182" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C147" s="189" t="s">
+      <c r="B147" s="192" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C147" s="199" t="s">
         <v>1070</v>
       </c>
-      <c r="D147" s="184" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E147" s="185"/>
-      <c r="F147" s="186" t="s">
-        <v>1594</v>
-      </c>
-      <c r="G147" s="184" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H147" s="187">
+      <c r="D147" s="194" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E147" s="195"/>
+      <c r="F147" s="196" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G147" s="194" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H147" s="197">
         <v>26.0</v>
       </c>
-      <c r="I147" s="188" t="s">
-        <v>1451</v>
+      <c r="I147" s="198" t="s">
+        <v>1474</v>
       </c>
       <c r="J147" s="1"/>
     </row>
     <row r="148">
-      <c r="B148" s="161"/>
-      <c r="C148" s="167"/>
-      <c r="D148" s="163"/>
-      <c r="E148" s="168"/>
-      <c r="F148" s="169"/>
-      <c r="G148" s="163"/>
-      <c r="H148" s="170"/>
-      <c r="I148" s="161"/>
+      <c r="B148" s="171"/>
+      <c r="C148" s="177"/>
+      <c r="D148" s="173"/>
+      <c r="E148" s="178"/>
+      <c r="F148" s="179"/>
+      <c r="G148" s="173"/>
+      <c r="H148" s="180"/>
+      <c r="I148" s="171"/>
       <c r="J148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
-      <c r="B149" s="171" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C149" s="172" t="s">
+      <c r="B149" s="181" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C149" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="173" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E149" s="174" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F149" s="175" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G149" s="173" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H149" s="176" t="s">
+      <c r="D149" s="183" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E149" s="184" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F149" s="185" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G149" s="183" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H149" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="I149" s="177" t="s">
-        <v>1451</v>
+      <c r="I149" s="187" t="s">
+        <v>1474</v>
       </c>
       <c r="J149" s="1"/>
     </row>
     <row r="150">
-      <c r="B150" s="178"/>
-      <c r="C150" s="167"/>
-      <c r="D150" s="163"/>
-      <c r="E150" s="168"/>
-      <c r="F150" s="169"/>
-      <c r="G150" s="163"/>
-      <c r="H150" s="170"/>
-      <c r="I150" s="180"/>
+      <c r="B150" s="188"/>
+      <c r="C150" s="177"/>
+      <c r="D150" s="173"/>
+      <c r="E150" s="178"/>
+      <c r="F150" s="179"/>
+      <c r="G150" s="173"/>
+      <c r="H150" s="180"/>
+      <c r="I150" s="190"/>
       <c r="J150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
-      <c r="B151" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C151" s="162" t="s">
+      <c r="B151" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C151" s="172" t="s">
         <v>1269</v>
       </c>
-      <c r="D151" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E151" s="164"/>
-      <c r="F151" s="165" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G151" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H151" s="166">
+      <c r="D151" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E151" s="174"/>
+      <c r="F151" s="175" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G151" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H151" s="176">
         <v>1.0</v>
       </c>
-      <c r="I151" s="180" t="s">
-        <v>1451</v>
+      <c r="I151" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
-      <c r="B152" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C152" s="162" t="s">
+      <c r="B152" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C152" s="172" t="s">
         <v>1270</v>
       </c>
-      <c r="D152" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E152" s="164"/>
-      <c r="F152" s="165" t="s">
-        <v>1598</v>
-      </c>
-      <c r="G152" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H152" s="166">
+      <c r="D152" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E152" s="174"/>
+      <c r="F152" s="175" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G152" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H152" s="176">
         <v>2.0</v>
       </c>
-      <c r="I152" s="180" t="s">
-        <v>1451</v>
+      <c r="I152" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
-      <c r="B153" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C153" s="162" t="s">
+      <c r="B153" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C153" s="172" t="s">
         <v>1271</v>
       </c>
-      <c r="D153" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E153" s="164"/>
-      <c r="F153" s="165" t="s">
-        <v>1599</v>
-      </c>
-      <c r="G153" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H153" s="166">
+      <c r="D153" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E153" s="174"/>
+      <c r="F153" s="175" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G153" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H153" s="176">
         <v>3.0</v>
       </c>
-      <c r="I153" s="180" t="s">
-        <v>1451</v>
+      <c r="I153" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
-      <c r="B154" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C154" s="162" t="s">
+      <c r="B154" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C154" s="172" t="s">
         <v>1272</v>
       </c>
-      <c r="D154" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E154" s="164"/>
-      <c r="F154" s="165" t="s">
-        <v>1600</v>
-      </c>
-      <c r="G154" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H154" s="166">
+      <c r="D154" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E154" s="174"/>
+      <c r="F154" s="175" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G154" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H154" s="176">
         <v>4.0</v>
       </c>
-      <c r="I154" s="180" t="s">
-        <v>1451</v>
+      <c r="I154" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
-      <c r="B155" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C155" s="162" t="s">
+      <c r="B155" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C155" s="172" t="s">
         <v>1273</v>
       </c>
-      <c r="D155" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E155" s="164"/>
-      <c r="F155" s="165" t="s">
-        <v>1601</v>
-      </c>
-      <c r="G155" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H155" s="166">
+      <c r="D155" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E155" s="174"/>
+      <c r="F155" s="175" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G155" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H155" s="176">
         <v>5.0</v>
       </c>
-      <c r="I155" s="180" t="s">
-        <v>1451</v>
+      <c r="I155" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
-      <c r="B156" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C156" s="162" t="s">
+      <c r="B156" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C156" s="172" t="s">
         <v>1274</v>
       </c>
-      <c r="D156" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E156" s="164"/>
-      <c r="F156" s="165" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G156" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H156" s="166">
+      <c r="D156" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E156" s="174"/>
+      <c r="F156" s="175" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G156" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H156" s="176">
         <v>6.0</v>
       </c>
-      <c r="I156" s="180" t="s">
-        <v>1451</v>
+      <c r="I156" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
-      <c r="B157" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C157" s="162" t="s">
+      <c r="B157" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C157" s="172" t="s">
         <v>1275</v>
       </c>
-      <c r="D157" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E157" s="164"/>
-      <c r="F157" s="165" t="s">
-        <v>1603</v>
-      </c>
-      <c r="G157" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H157" s="166">
+      <c r="D157" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E157" s="174"/>
+      <c r="F157" s="175" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G157" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H157" s="176">
         <v>7.0</v>
       </c>
-      <c r="I157" s="180" t="s">
-        <v>1451</v>
+      <c r="I157" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
-      <c r="B158" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C158" s="162" t="s">
+      <c r="B158" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C158" s="172" t="s">
         <v>1276</v>
       </c>
-      <c r="D158" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E158" s="164"/>
-      <c r="F158" s="165" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G158" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H158" s="166">
+      <c r="D158" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E158" s="174"/>
+      <c r="F158" s="175" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G158" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H158" s="176">
         <v>8.0</v>
       </c>
-      <c r="I158" s="180" t="s">
-        <v>1451</v>
+      <c r="I158" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
-      <c r="B159" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C159" s="162" t="s">
+      <c r="B159" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C159" s="172" t="s">
         <v>1277</v>
       </c>
-      <c r="D159" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E159" s="164"/>
-      <c r="F159" s="165" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G159" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H159" s="166">
+      <c r="D159" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E159" s="174"/>
+      <c r="F159" s="175" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G159" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H159" s="176">
         <v>9.0</v>
       </c>
-      <c r="I159" s="180" t="s">
-        <v>1451</v>
+      <c r="I159" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
-      <c r="B160" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C160" s="162" t="s">
+      <c r="B160" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C160" s="172" t="s">
         <v>1278</v>
       </c>
-      <c r="D160" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E160" s="164"/>
-      <c r="F160" s="165" t="s">
-        <v>1606</v>
-      </c>
-      <c r="G160" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H160" s="166">
+      <c r="D160" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E160" s="174"/>
+      <c r="F160" s="175" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G160" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H160" s="176">
         <v>10.0</v>
       </c>
-      <c r="I160" s="180" t="s">
-        <v>1451</v>
+      <c r="I160" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
-      <c r="B161" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C161" s="162" t="s">
+      <c r="B161" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C161" s="172" t="s">
         <v>1279</v>
       </c>
-      <c r="D161" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E161" s="164"/>
-      <c r="F161" s="165" t="s">
-        <v>1607</v>
-      </c>
-      <c r="G161" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H161" s="166">
+      <c r="D161" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E161" s="174"/>
+      <c r="F161" s="175" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G161" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H161" s="176">
         <v>11.0</v>
       </c>
-      <c r="I161" s="180" t="s">
-        <v>1451</v>
+      <c r="I161" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
-      <c r="B162" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C162" s="162" t="s">
+      <c r="B162" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C162" s="172" t="s">
         <v>1280</v>
       </c>
-      <c r="D162" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E162" s="164"/>
-      <c r="F162" s="165" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G162" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H162" s="166">
+      <c r="D162" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E162" s="174"/>
+      <c r="F162" s="175" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G162" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H162" s="176">
         <v>12.0</v>
       </c>
-      <c r="I162" s="180" t="s">
-        <v>1451</v>
+      <c r="I162" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
-      <c r="B163" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C163" s="162" t="s">
+      <c r="B163" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C163" s="172" t="s">
         <v>1281</v>
       </c>
-      <c r="D163" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E163" s="164"/>
-      <c r="F163" s="165" t="s">
-        <v>1609</v>
-      </c>
-      <c r="G163" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H163" s="166">
+      <c r="D163" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E163" s="174"/>
+      <c r="F163" s="175" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G163" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H163" s="176">
         <v>13.0</v>
       </c>
-      <c r="I163" s="180" t="s">
-        <v>1451</v>
+      <c r="I163" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
-      <c r="B164" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C164" s="162" t="s">
+      <c r="B164" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C164" s="172" t="s">
         <v>1282</v>
       </c>
-      <c r="D164" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E164" s="164"/>
-      <c r="F164" s="165" t="s">
-        <v>1610</v>
-      </c>
-      <c r="G164" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H164" s="166">
+      <c r="D164" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E164" s="174"/>
+      <c r="F164" s="175" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G164" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H164" s="176">
         <v>14.0</v>
       </c>
-      <c r="I164" s="180" t="s">
-        <v>1451</v>
+      <c r="I164" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
-      <c r="B165" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C165" s="162" t="s">
+      <c r="B165" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C165" s="172" t="s">
         <v>1283</v>
       </c>
-      <c r="D165" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E165" s="164"/>
-      <c r="F165" s="165" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G165" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H165" s="166">
+      <c r="D165" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E165" s="174"/>
+      <c r="F165" s="175" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G165" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H165" s="176">
         <v>15.0</v>
       </c>
-      <c r="I165" s="180" t="s">
-        <v>1451</v>
+      <c r="I165" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
-      <c r="B166" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C166" s="162" t="s">
+      <c r="B166" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C166" s="172" t="s">
         <v>1284</v>
       </c>
-      <c r="D166" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E166" s="164"/>
-      <c r="F166" s="165" t="s">
-        <v>1612</v>
-      </c>
-      <c r="G166" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H166" s="166">
+      <c r="D166" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E166" s="174"/>
+      <c r="F166" s="175" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G166" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H166" s="176">
         <v>16.0</v>
       </c>
-      <c r="I166" s="180" t="s">
-        <v>1451</v>
+      <c r="I166" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
-      <c r="B167" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C167" s="162" t="s">
+      <c r="B167" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C167" s="172" t="s">
         <v>1285</v>
       </c>
-      <c r="D167" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E167" s="164"/>
-      <c r="F167" s="165" t="s">
-        <v>1613</v>
-      </c>
-      <c r="G167" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H167" s="166">
+      <c r="D167" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E167" s="174"/>
+      <c r="F167" s="175" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G167" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H167" s="176">
         <v>17.0</v>
       </c>
-      <c r="I167" s="180" t="s">
-        <v>1451</v>
+      <c r="I167" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
-      <c r="B168" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C168" s="162" t="s">
+      <c r="B168" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C168" s="172" t="s">
         <v>1286</v>
       </c>
-      <c r="D168" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E168" s="164"/>
-      <c r="F168" s="165" t="s">
-        <v>1614</v>
-      </c>
-      <c r="G168" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H168" s="166">
+      <c r="D168" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E168" s="174"/>
+      <c r="F168" s="175" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G168" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H168" s="176">
         <v>18.0</v>
       </c>
-      <c r="I168" s="180" t="s">
-        <v>1451</v>
+      <c r="I168" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
-      <c r="B169" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C169" s="162" t="s">
+      <c r="B169" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C169" s="172" t="s">
         <v>1287</v>
       </c>
-      <c r="D169" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E169" s="164"/>
-      <c r="F169" s="165" t="s">
-        <v>1615</v>
-      </c>
-      <c r="G169" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H169" s="166">
+      <c r="D169" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E169" s="174"/>
+      <c r="F169" s="175" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G169" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H169" s="176">
         <v>19.0</v>
       </c>
-      <c r="I169" s="180" t="s">
-        <v>1451</v>
+      <c r="I169" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
-      <c r="B170" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C170" s="162" t="s">
+      <c r="B170" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C170" s="172" t="s">
         <v>1288</v>
       </c>
-      <c r="D170" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E170" s="164"/>
-      <c r="F170" s="165" t="s">
-        <v>1616</v>
-      </c>
-      <c r="G170" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H170" s="166">
+      <c r="D170" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E170" s="174"/>
+      <c r="F170" s="175" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G170" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H170" s="176">
         <v>20.0</v>
       </c>
-      <c r="I170" s="180" t="s">
-        <v>1451</v>
+      <c r="I170" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
-      <c r="B171" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C171" s="162" t="s">
+      <c r="B171" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C171" s="172" t="s">
         <v>1289</v>
       </c>
-      <c r="D171" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E171" s="164"/>
-      <c r="F171" s="165" t="s">
-        <v>1617</v>
-      </c>
-      <c r="G171" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H171" s="166">
+      <c r="D171" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E171" s="174"/>
+      <c r="F171" s="175" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G171" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H171" s="176">
         <v>21.0</v>
       </c>
-      <c r="I171" s="180" t="s">
-        <v>1451</v>
+      <c r="I171" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
-      <c r="B172" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C172" s="162" t="s">
+      <c r="B172" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C172" s="172" t="s">
         <v>1290</v>
       </c>
-      <c r="D172" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E172" s="164"/>
-      <c r="F172" s="165" t="s">
-        <v>1618</v>
-      </c>
-      <c r="G172" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H172" s="166">
+      <c r="D172" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E172" s="174"/>
+      <c r="F172" s="175" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G172" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H172" s="176">
         <v>22.0</v>
       </c>
-      <c r="I172" s="180" t="s">
-        <v>1451</v>
+      <c r="I172" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
-      <c r="B173" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C173" s="162" t="s">
+      <c r="B173" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C173" s="172" t="s">
         <v>1291</v>
       </c>
-      <c r="D173" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E173" s="164"/>
-      <c r="F173" s="165" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G173" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H173" s="166">
+      <c r="D173" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E173" s="174"/>
+      <c r="F173" s="175" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G173" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H173" s="176">
         <v>23.0</v>
       </c>
-      <c r="I173" s="180" t="s">
-        <v>1451</v>
+      <c r="I173" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
-      <c r="B174" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C174" s="162" t="s">
+      <c r="B174" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C174" s="172" t="s">
         <v>1292</v>
       </c>
-      <c r="D174" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E174" s="164"/>
-      <c r="F174" s="165" t="s">
-        <v>1620</v>
-      </c>
-      <c r="G174" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H174" s="166">
+      <c r="D174" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E174" s="174"/>
+      <c r="F174" s="175" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G174" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H174" s="176">
         <v>24.0</v>
       </c>
-      <c r="I174" s="180" t="s">
-        <v>1451</v>
+      <c r="I174" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
-      <c r="B175" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C175" s="162" t="s">
+      <c r="B175" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C175" s="172" t="s">
         <v>1293</v>
       </c>
-      <c r="D175" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E175" s="164"/>
-      <c r="F175" s="165" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G175" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H175" s="166">
+      <c r="D175" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E175" s="174"/>
+      <c r="F175" s="175" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G175" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H175" s="176">
         <v>25.0</v>
       </c>
-      <c r="I175" s="180" t="s">
-        <v>1451</v>
+      <c r="I175" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
-      <c r="B176" s="182" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C176" s="189" t="s">
+      <c r="B176" s="192" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C176" s="199" t="s">
         <v>1294</v>
       </c>
-      <c r="D176" s="184" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E176" s="185"/>
-      <c r="F176" s="186" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G176" s="184" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H176" s="187">
+      <c r="D176" s="194" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E176" s="195"/>
+      <c r="F176" s="196" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G176" s="194" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H176" s="197">
         <v>26.0</v>
       </c>
-      <c r="I176" s="188" t="s">
-        <v>1451</v>
+      <c r="I176" s="198" t="s">
+        <v>1474</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -26990,717 +27145,717 @@
     </row>
     <row r="178">
       <c r="A178" s="1"/>
-      <c r="B178" s="171" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C178" s="172" t="s">
+      <c r="B178" s="181" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C178" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="D178" s="173" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E178" s="174" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F178" s="175" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G178" s="173" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H178" s="176" t="s">
+      <c r="D178" s="183" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E178" s="184" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F178" s="185" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G178" s="183" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H178" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="I178" s="177" t="s">
-        <v>1451</v>
+      <c r="I178" s="187" t="s">
+        <v>1474</v>
       </c>
       <c r="J178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
-      <c r="B179" s="178"/>
-      <c r="C179" s="167"/>
-      <c r="D179" s="163"/>
-      <c r="E179" s="168"/>
-      <c r="F179" s="169"/>
-      <c r="G179" s="163"/>
-      <c r="H179" s="170"/>
-      <c r="I179" s="180"/>
+      <c r="B179" s="188"/>
+      <c r="C179" s="177"/>
+      <c r="D179" s="173"/>
+      <c r="E179" s="178"/>
+      <c r="F179" s="179"/>
+      <c r="G179" s="173"/>
+      <c r="H179" s="180"/>
+      <c r="I179" s="190"/>
       <c r="J179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
-      <c r="B180" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C180" s="162" t="s">
+      <c r="B180" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C180" s="172" t="s">
         <v>1424</v>
       </c>
-      <c r="D180" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E180" s="164"/>
-      <c r="F180" s="165" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G180" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H180" s="166">
+      <c r="D180" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E180" s="174"/>
+      <c r="F180" s="175" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G180" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H180" s="176">
         <v>1.0</v>
       </c>
-      <c r="I180" s="180" t="s">
-        <v>1451</v>
+      <c r="I180" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
-      <c r="B181" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C181" s="162" t="s">
+      <c r="B181" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C181" s="172" t="s">
         <v>1425</v>
       </c>
-      <c r="D181" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E181" s="164"/>
-      <c r="F181" s="165" t="s">
-        <v>1626</v>
-      </c>
-      <c r="G181" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H181" s="166">
+      <c r="D181" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E181" s="174"/>
+      <c r="F181" s="175" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G181" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H181" s="176">
         <v>2.0</v>
       </c>
-      <c r="I181" s="180" t="s">
-        <v>1451</v>
+      <c r="I181" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
-      <c r="B182" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C182" s="162" t="s">
+      <c r="B182" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C182" s="172" t="s">
         <v>1426</v>
       </c>
-      <c r="D182" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E182" s="164"/>
-      <c r="F182" s="165" t="s">
-        <v>1627</v>
-      </c>
-      <c r="G182" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H182" s="166">
+      <c r="D182" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E182" s="174"/>
+      <c r="F182" s="175" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G182" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H182" s="176">
         <v>3.0</v>
       </c>
-      <c r="I182" s="180" t="s">
-        <v>1451</v>
+      <c r="I182" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
-      <c r="B183" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C183" s="162" t="s">
+      <c r="B183" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C183" s="172" t="s">
         <v>1427</v>
       </c>
-      <c r="D183" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E183" s="164"/>
-      <c r="F183" s="165" t="s">
-        <v>1628</v>
-      </c>
-      <c r="G183" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H183" s="166">
+      <c r="D183" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E183" s="174"/>
+      <c r="F183" s="175" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G183" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H183" s="176">
         <v>4.0</v>
       </c>
-      <c r="I183" s="180" t="s">
-        <v>1451</v>
+      <c r="I183" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
-      <c r="B184" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C184" s="162" t="s">
+      <c r="B184" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C184" s="172" t="s">
         <v>1428</v>
       </c>
-      <c r="D184" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E184" s="164"/>
-      <c r="F184" s="165" t="s">
-        <v>1629</v>
-      </c>
-      <c r="G184" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H184" s="166">
+      <c r="D184" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E184" s="174"/>
+      <c r="F184" s="175" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G184" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H184" s="176">
         <v>5.0</v>
       </c>
-      <c r="I184" s="180" t="s">
-        <v>1451</v>
+      <c r="I184" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
-      <c r="B185" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C185" s="162" t="s">
+      <c r="B185" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C185" s="172" t="s">
         <v>1429</v>
       </c>
-      <c r="D185" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E185" s="164"/>
-      <c r="F185" s="165" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G185" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H185" s="166">
+      <c r="D185" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E185" s="174"/>
+      <c r="F185" s="175" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G185" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H185" s="176">
         <v>6.0</v>
       </c>
-      <c r="I185" s="180" t="s">
-        <v>1451</v>
+      <c r="I185" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
-      <c r="B186" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C186" s="162" t="s">
+      <c r="B186" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C186" s="172" t="s">
         <v>1430</v>
       </c>
-      <c r="D186" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E186" s="164"/>
-      <c r="F186" s="165" t="s">
-        <v>1631</v>
-      </c>
-      <c r="G186" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H186" s="166">
+      <c r="D186" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E186" s="174"/>
+      <c r="F186" s="175" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G186" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H186" s="176">
         <v>7.0</v>
       </c>
-      <c r="I186" s="180" t="s">
-        <v>1451</v>
+      <c r="I186" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
-      <c r="B187" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C187" s="162" t="s">
+      <c r="B187" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C187" s="172" t="s">
         <v>1431</v>
       </c>
-      <c r="D187" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E187" s="164"/>
-      <c r="F187" s="165" t="s">
-        <v>1632</v>
-      </c>
-      <c r="G187" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H187" s="166">
+      <c r="D187" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E187" s="174"/>
+      <c r="F187" s="175" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G187" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H187" s="176">
         <v>8.0</v>
       </c>
-      <c r="I187" s="180" t="s">
-        <v>1451</v>
+      <c r="I187" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
-      <c r="B188" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C188" s="162" t="s">
+      <c r="B188" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C188" s="172" t="s">
         <v>1432</v>
       </c>
-      <c r="D188" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E188" s="164"/>
-      <c r="F188" s="165" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G188" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H188" s="166">
+      <c r="D188" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E188" s="174"/>
+      <c r="F188" s="175" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G188" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H188" s="176">
         <v>9.0</v>
       </c>
-      <c r="I188" s="180" t="s">
-        <v>1451</v>
+      <c r="I188" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
-      <c r="B189" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C189" s="162" t="s">
+      <c r="B189" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C189" s="172" t="s">
         <v>1433</v>
       </c>
-      <c r="D189" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E189" s="164"/>
-      <c r="F189" s="165" t="s">
-        <v>1634</v>
-      </c>
-      <c r="G189" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H189" s="166">
+      <c r="D189" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E189" s="174"/>
+      <c r="F189" s="175" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G189" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H189" s="176">
         <v>10.0</v>
       </c>
-      <c r="I189" s="180" t="s">
-        <v>1451</v>
+      <c r="I189" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
-      <c r="B190" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C190" s="162" t="s">
+      <c r="B190" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C190" s="172" t="s">
         <v>1434</v>
       </c>
-      <c r="D190" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E190" s="164"/>
-      <c r="F190" s="165" t="s">
-        <v>1635</v>
-      </c>
-      <c r="G190" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H190" s="166">
+      <c r="D190" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E190" s="174"/>
+      <c r="F190" s="175" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G190" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H190" s="176">
         <v>11.0</v>
       </c>
-      <c r="I190" s="180" t="s">
-        <v>1451</v>
+      <c r="I190" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
-      <c r="B191" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C191" s="162" t="s">
+      <c r="B191" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C191" s="172" t="s">
         <v>1435</v>
       </c>
-      <c r="D191" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E191" s="164"/>
-      <c r="F191" s="165" t="s">
-        <v>1636</v>
-      </c>
-      <c r="G191" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H191" s="166">
+      <c r="D191" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E191" s="174"/>
+      <c r="F191" s="175" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G191" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H191" s="176">
         <v>12.0</v>
       </c>
-      <c r="I191" s="180" t="s">
-        <v>1451</v>
+      <c r="I191" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
-      <c r="B192" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C192" s="162" t="s">
+      <c r="B192" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C192" s="172" t="s">
         <v>1436</v>
       </c>
-      <c r="D192" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E192" s="164"/>
-      <c r="F192" s="165" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G192" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H192" s="166">
+      <c r="D192" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E192" s="174"/>
+      <c r="F192" s="175" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G192" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H192" s="176">
         <v>13.0</v>
       </c>
-      <c r="I192" s="180" t="s">
-        <v>1451</v>
+      <c r="I192" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
-      <c r="B193" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C193" s="162" t="s">
+      <c r="B193" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C193" s="172" t="s">
         <v>1437</v>
       </c>
-      <c r="D193" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E193" s="164"/>
-      <c r="F193" s="165" t="s">
-        <v>1638</v>
-      </c>
-      <c r="G193" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H193" s="166">
+      <c r="D193" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E193" s="174"/>
+      <c r="F193" s="175" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G193" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H193" s="176">
         <v>14.0</v>
       </c>
-      <c r="I193" s="180" t="s">
-        <v>1451</v>
+      <c r="I193" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
-      <c r="B194" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C194" s="162" t="s">
+      <c r="B194" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C194" s="172" t="s">
         <v>1438</v>
       </c>
-      <c r="D194" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E194" s="164"/>
-      <c r="F194" s="165" t="s">
-        <v>1639</v>
-      </c>
-      <c r="G194" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H194" s="166">
+      <c r="D194" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E194" s="174"/>
+      <c r="F194" s="175" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G194" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H194" s="176">
         <v>15.0</v>
       </c>
-      <c r="I194" s="180" t="s">
-        <v>1451</v>
+      <c r="I194" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
-      <c r="B195" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C195" s="162" t="s">
+      <c r="B195" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C195" s="172" t="s">
         <v>1439</v>
       </c>
-      <c r="D195" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E195" s="164"/>
-      <c r="F195" s="165" t="s">
-        <v>1640</v>
-      </c>
-      <c r="G195" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H195" s="166">
+      <c r="D195" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E195" s="174"/>
+      <c r="F195" s="175" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G195" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H195" s="176">
         <v>16.0</v>
       </c>
-      <c r="I195" s="180" t="s">
-        <v>1451</v>
+      <c r="I195" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
-      <c r="B196" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C196" s="162" t="s">
+      <c r="B196" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C196" s="172" t="s">
         <v>1440</v>
       </c>
-      <c r="D196" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E196" s="164"/>
-      <c r="F196" s="165" t="s">
-        <v>1641</v>
-      </c>
-      <c r="G196" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H196" s="166">
+      <c r="D196" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E196" s="174"/>
+      <c r="F196" s="175" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G196" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H196" s="176">
         <v>17.0</v>
       </c>
-      <c r="I196" s="180" t="s">
-        <v>1451</v>
+      <c r="I196" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
-      <c r="B197" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C197" s="162" t="s">
+      <c r="B197" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C197" s="172" t="s">
         <v>1441</v>
       </c>
-      <c r="D197" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E197" s="164"/>
-      <c r="F197" s="165" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G197" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H197" s="166">
+      <c r="D197" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E197" s="174"/>
+      <c r="F197" s="175" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G197" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H197" s="176">
         <v>18.0</v>
       </c>
-      <c r="I197" s="180" t="s">
-        <v>1451</v>
+      <c r="I197" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
-      <c r="B198" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C198" s="162" t="s">
+      <c r="B198" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C198" s="172" t="s">
         <v>1442</v>
       </c>
-      <c r="D198" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E198" s="164"/>
-      <c r="F198" s="165" t="s">
-        <v>1643</v>
-      </c>
-      <c r="G198" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H198" s="166">
+      <c r="D198" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E198" s="174"/>
+      <c r="F198" s="175" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G198" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H198" s="176">
         <v>19.0</v>
       </c>
-      <c r="I198" s="180" t="s">
-        <v>1451</v>
+      <c r="I198" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
-      <c r="B199" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C199" s="162" t="s">
+      <c r="B199" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C199" s="172" t="s">
         <v>1443</v>
       </c>
-      <c r="D199" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E199" s="164"/>
-      <c r="F199" s="165" t="s">
-        <v>1644</v>
-      </c>
-      <c r="G199" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H199" s="166">
+      <c r="D199" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E199" s="174"/>
+      <c r="F199" s="175" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G199" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H199" s="176">
         <v>20.0</v>
       </c>
-      <c r="I199" s="180" t="s">
-        <v>1451</v>
+      <c r="I199" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
-      <c r="B200" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C200" s="162" t="s">
+      <c r="B200" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C200" s="172" t="s">
         <v>1444</v>
       </c>
-      <c r="D200" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E200" s="164"/>
-      <c r="F200" s="165" t="s">
-        <v>1645</v>
-      </c>
-      <c r="G200" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H200" s="166">
+      <c r="D200" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E200" s="174"/>
+      <c r="F200" s="175" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G200" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H200" s="176">
         <v>21.0</v>
       </c>
-      <c r="I200" s="180" t="s">
-        <v>1451</v>
+      <c r="I200" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
-      <c r="B201" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C201" s="162" t="s">
+      <c r="B201" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C201" s="172" t="s">
         <v>1445</v>
       </c>
-      <c r="D201" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E201" s="164"/>
-      <c r="F201" s="165" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G201" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H201" s="166">
+      <c r="D201" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E201" s="174"/>
+      <c r="F201" s="175" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G201" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H201" s="176">
         <v>22.0</v>
       </c>
-      <c r="I201" s="180" t="s">
-        <v>1451</v>
+      <c r="I201" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
-      <c r="B202" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C202" s="162" t="s">
+      <c r="B202" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C202" s="172" t="s">
         <v>1446</v>
       </c>
-      <c r="D202" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E202" s="164"/>
-      <c r="F202" s="165" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G202" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H202" s="166">
+      <c r="D202" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E202" s="174"/>
+      <c r="F202" s="175" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G202" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H202" s="176">
         <v>23.0</v>
       </c>
-      <c r="I202" s="180" t="s">
-        <v>1451</v>
+      <c r="I202" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
-      <c r="B203" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C203" s="162" t="s">
+      <c r="B203" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C203" s="172" t="s">
         <v>1447</v>
       </c>
-      <c r="D203" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E203" s="164"/>
-      <c r="F203" s="165" t="s">
-        <v>1648</v>
-      </c>
-      <c r="G203" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H203" s="166">
+      <c r="D203" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E203" s="174"/>
+      <c r="F203" s="175" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G203" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H203" s="176">
         <v>24.0</v>
       </c>
-      <c r="I203" s="180" t="s">
-        <v>1451</v>
+      <c r="I203" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
-      <c r="B204" s="178" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C204" s="162" t="s">
+      <c r="B204" s="188" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C204" s="172" t="s">
         <v>1448</v>
       </c>
-      <c r="D204" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E204" s="164"/>
-      <c r="F204" s="165" t="s">
-        <v>1649</v>
-      </c>
-      <c r="G204" s="163" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H204" s="166">
+      <c r="D204" s="173" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E204" s="174"/>
+      <c r="F204" s="175" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G204" s="173" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H204" s="176">
         <v>25.0</v>
       </c>
-      <c r="I204" s="180" t="s">
-        <v>1451</v>
+      <c r="I204" s="190" t="s">
+        <v>1474</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
-      <c r="B205" s="182" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C205" s="189" t="s">
+      <c r="B205" s="192" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C205" s="199" t="s">
         <v>1449</v>
       </c>
-      <c r="D205" s="184" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E205" s="185"/>
-      <c r="F205" s="186" t="s">
-        <v>1650</v>
-      </c>
-      <c r="G205" s="184" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H205" s="187">
+      <c r="D205" s="194" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E205" s="195"/>
+      <c r="F205" s="196" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G205" s="194" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H205" s="197">
         <v>26.0</v>
       </c>
-      <c r="I205" s="188" t="s">
-        <v>1451</v>
+      <c r="I205" s="198" t="s">
+        <v>1474</v>
       </c>
       <c r="J205" s="1"/>
     </row>
@@ -27718,14 +27873,14 @@
     </row>
     <row r="207">
       <c r="A207" s="1"/>
-      <c r="B207" s="161"/>
-      <c r="C207" s="162"/>
-      <c r="D207" s="163"/>
-      <c r="E207" s="164"/>
-      <c r="F207" s="165"/>
-      <c r="G207" s="163"/>
-      <c r="H207" s="166"/>
-      <c r="I207" s="161"/>
+      <c r="B207" s="171"/>
+      <c r="C207" s="172"/>
+      <c r="D207" s="173"/>
+      <c r="E207" s="174"/>
+      <c r="F207" s="175"/>
+      <c r="G207" s="173"/>
+      <c r="H207" s="176"/>
+      <c r="I207" s="171"/>
       <c r="J207" s="1"/>
     </row>
     <row r="208">

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4714" uniqueCount="1717">
   <si>
     <t>A#3</t>
   </si>
@@ -4371,67 +4371,196 @@
     <t>envelope</t>
   </si>
   <si>
+    <t>bonsai</t>
+  </si>
+  <si>
+    <t>compatible</t>
+  </si>
+  <si>
+    <t>surpass</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
     <t>announce</t>
   </si>
   <si>
     <t>hierarchy</t>
   </si>
   <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>capacitance</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
     <t>consistent</t>
   </si>
   <si>
     <t>spontaneous</t>
   </si>
   <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>devise</t>
+  </si>
+  <si>
     <t>demonstrate</t>
   </si>
   <si>
     <t>according</t>
   </si>
   <si>
+    <t>throttle</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>propose</t>
+  </si>
+  <si>
     <t>represent</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>alphabet</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
     <t>enhance</t>
   </si>
   <si>
     <t>vegetation</t>
   </si>
   <si>
+    <t>analyse</t>
+  </si>
+  <si>
+    <t>tabular</t>
+  </si>
+  <si>
+    <t>premier</t>
+  </si>
+  <si>
+    <t>glossary</t>
+  </si>
+  <si>
     <t>molecule</t>
   </si>
   <si>
     <t>stitch</t>
   </si>
   <si>
+    <t>friction</t>
+  </si>
+  <si>
+    <t>regulatory</t>
+  </si>
+  <si>
+    <t>especial</t>
+  </si>
+  <si>
+    <t>terrain</t>
+  </si>
+  <si>
     <t>campaign</t>
   </si>
   <si>
     <t>flight</t>
   </si>
   <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>polish</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
     <t>nucleus</t>
   </si>
   <si>
     <t>entertain</t>
   </si>
   <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>remittance</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
     <t>universal</t>
   </si>
   <si>
     <t>sprinkle</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>preference</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
     <t>fragile</t>
   </si>
   <si>
     <t>{7, 47}</t>
   </si>
   <si>
+    <t>{2, 181}</t>
+  </si>
+  <si>
+    <t>{3, 5, 15, 19, 57, 95}</t>
+  </si>
+  <si>
     <t>{7, 49}</t>
+  </si>
+  <si>
+    <t>{2, 4, 23, 46}</t>
   </si>
   <si>
     <t>{2, 3, 4, 6, 7, 12, 14, 21, 28, 42}</t>
@@ -5660,7 +5789,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6129,10 +6258,16 @@
     <xf borderId="17" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="18" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -6141,19 +6276,34 @@
     <xf borderId="41" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="42" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="40" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="18" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="24" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="32" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="37" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -21876,8 +22026,12 @@
       <c r="D82" s="161" t="s">
         <v>1451</v>
       </c>
-      <c r="E82" s="111"/>
-      <c r="F82" s="111"/>
+      <c r="E82" s="162" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F82" s="162" t="s">
+        <v>1453</v>
+      </c>
       <c r="G82" s="111"/>
       <c r="H82" s="111"/>
       <c r="I82" s="111"/>
@@ -21898,10 +22052,14 @@
       <c r="X82" s="111"/>
       <c r="Y82" s="111"/>
       <c r="Z82" s="111"/>
-      <c r="AA82" s="111"/>
-      <c r="AB82" s="111"/>
-      <c r="AC82" s="162" t="s">
-        <v>1452</v>
+      <c r="AA82" s="162" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AB82" s="162" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AC82" s="163" t="s">
+        <v>1456</v>
       </c>
       <c r="AD82" s="100"/>
       <c r="AE82" s="113"/>
@@ -21916,11 +22074,15 @@
         <v>2.0</v>
       </c>
       <c r="C83" s="100"/>
-      <c r="D83" s="163" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E83" s="119"/>
-      <c r="F83" s="119"/>
+      <c r="D83" s="164" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E83" s="165" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F83" s="165" t="s">
+        <v>1459</v>
+      </c>
       <c r="G83" s="119"/>
       <c r="H83" s="119"/>
       <c r="I83" s="119"/>
@@ -21941,10 +22103,14 @@
       <c r="X83" s="119"/>
       <c r="Y83" s="119"/>
       <c r="Z83" s="119"/>
-      <c r="AA83" s="119"/>
-      <c r="AB83" s="119"/>
-      <c r="AC83" s="164" t="s">
-        <v>1454</v>
+      <c r="AA83" s="165" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AB83" s="165" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AC83" s="166" t="s">
+        <v>1462</v>
       </c>
       <c r="AD83" s="100"/>
       <c r="AE83" s="121"/>
@@ -21959,11 +22125,15 @@
         <v>3.0</v>
       </c>
       <c r="C84" s="100"/>
-      <c r="D84" s="163" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E84" s="119"/>
-      <c r="F84" s="119"/>
+      <c r="D84" s="164" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E84" s="165" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F84" s="165" t="s">
+        <v>1465</v>
+      </c>
       <c r="G84" s="119"/>
       <c r="H84" s="119"/>
       <c r="I84" s="119"/>
@@ -21984,10 +22154,14 @@
       <c r="X84" s="119"/>
       <c r="Y84" s="119"/>
       <c r="Z84" s="119"/>
-      <c r="AA84" s="119"/>
-      <c r="AB84" s="119"/>
-      <c r="AC84" s="164" t="s">
-        <v>1456</v>
+      <c r="AA84" s="165" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AB84" s="165" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AC84" s="166" t="s">
+        <v>1468</v>
       </c>
       <c r="AD84" s="100"/>
       <c r="AE84" s="121"/>
@@ -22002,11 +22176,15 @@
         <v>4.0</v>
       </c>
       <c r="C85" s="100"/>
-      <c r="D85" s="163" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E85" s="119"/>
-      <c r="F85" s="119"/>
+      <c r="D85" s="164" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E85" s="165" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F85" s="165" t="s">
+        <v>1471</v>
+      </c>
       <c r="G85" s="119"/>
       <c r="H85" s="119"/>
       <c r="I85" s="119"/>
@@ -22027,10 +22205,14 @@
       <c r="X85" s="119"/>
       <c r="Y85" s="119"/>
       <c r="Z85" s="119"/>
-      <c r="AA85" s="119"/>
-      <c r="AB85" s="119"/>
-      <c r="AC85" s="164" t="s">
-        <v>1458</v>
+      <c r="AA85" s="165" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AB85" s="165" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AC85" s="166" t="s">
+        <v>1474</v>
       </c>
       <c r="AD85" s="100"/>
       <c r="AE85" s="121"/>
@@ -22045,11 +22227,15 @@
         <v>5.0</v>
       </c>
       <c r="C86" s="100"/>
-      <c r="D86" s="163" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E86" s="119"/>
-      <c r="F86" s="119"/>
+      <c r="D86" s="164" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E86" s="165" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F86" s="165" t="s">
+        <v>1477</v>
+      </c>
       <c r="G86" s="119"/>
       <c r="H86" s="119"/>
       <c r="I86" s="119"/>
@@ -22070,10 +22256,14 @@
       <c r="X86" s="119"/>
       <c r="Y86" s="119"/>
       <c r="Z86" s="119"/>
-      <c r="AA86" s="119"/>
-      <c r="AB86" s="119"/>
-      <c r="AC86" s="164" t="s">
-        <v>1460</v>
+      <c r="AA86" s="165" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AB86" s="165" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AC86" s="166" t="s">
+        <v>1480</v>
       </c>
       <c r="AD86" s="100"/>
       <c r="AE86" s="121"/>
@@ -22088,11 +22278,15 @@
         <v>6.0</v>
       </c>
       <c r="C87" s="100"/>
-      <c r="D87" s="163" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E87" s="119"/>
-      <c r="F87" s="119"/>
+      <c r="D87" s="164" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E87" s="165" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F87" s="165" t="s">
+        <v>1483</v>
+      </c>
       <c r="G87" s="119"/>
       <c r="H87" s="119"/>
       <c r="I87" s="119"/>
@@ -22113,10 +22307,14 @@
       <c r="X87" s="119"/>
       <c r="Y87" s="119"/>
       <c r="Z87" s="119"/>
-      <c r="AA87" s="119"/>
-      <c r="AB87" s="119"/>
-      <c r="AC87" s="164" t="s">
-        <v>1462</v>
+      <c r="AA87" s="165" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AB87" s="165" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AC87" s="166" t="s">
+        <v>1486</v>
       </c>
       <c r="AD87" s="100"/>
       <c r="AE87" s="121"/>
@@ -22131,11 +22329,15 @@
         <v>7.0</v>
       </c>
       <c r="C88" s="100"/>
-      <c r="D88" s="163" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E88" s="119"/>
-      <c r="F88" s="119"/>
+      <c r="D88" s="164" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E88" s="165" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F88" s="165" t="s">
+        <v>1489</v>
+      </c>
       <c r="G88" s="119"/>
       <c r="H88" s="119"/>
       <c r="I88" s="119"/>
@@ -22156,10 +22358,14 @@
       <c r="X88" s="119"/>
       <c r="Y88" s="119"/>
       <c r="Z88" s="119"/>
-      <c r="AA88" s="119"/>
-      <c r="AB88" s="119"/>
-      <c r="AC88" s="164" t="s">
-        <v>1464</v>
+      <c r="AA88" s="165" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AB88" s="165" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AC88" s="166" t="s">
+        <v>1492</v>
       </c>
       <c r="AD88" s="100"/>
       <c r="AE88" s="121"/>
@@ -22174,11 +22380,15 @@
         <v>8.0</v>
       </c>
       <c r="C89" s="100"/>
-      <c r="D89" s="163" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E89" s="119"/>
-      <c r="F89" s="119"/>
+      <c r="D89" s="164" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E89" s="165" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F89" s="165" t="s">
+        <v>1495</v>
+      </c>
       <c r="G89" s="119"/>
       <c r="H89" s="119"/>
       <c r="I89" s="119"/>
@@ -22199,10 +22409,14 @@
       <c r="X89" s="119"/>
       <c r="Y89" s="119"/>
       <c r="Z89" s="119"/>
-      <c r="AA89" s="119"/>
-      <c r="AB89" s="119"/>
-      <c r="AC89" s="164" t="s">
-        <v>1466</v>
+      <c r="AA89" s="165" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AB89" s="165" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AC89" s="166" t="s">
+        <v>1498</v>
       </c>
       <c r="AD89" s="100"/>
       <c r="AE89" s="121"/>
@@ -22217,11 +22431,15 @@
         <v>9.0</v>
       </c>
       <c r="C90" s="100"/>
-      <c r="D90" s="163" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E90" s="119"/>
-      <c r="F90" s="119"/>
+      <c r="D90" s="164" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E90" s="165" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F90" s="165" t="s">
+        <v>1501</v>
+      </c>
       <c r="G90" s="119"/>
       <c r="H90" s="119"/>
       <c r="I90" s="119"/>
@@ -22242,10 +22460,14 @@
       <c r="X90" s="119"/>
       <c r="Y90" s="119"/>
       <c r="Z90" s="119"/>
-      <c r="AA90" s="119"/>
-      <c r="AB90" s="119"/>
-      <c r="AC90" s="164" t="s">
-        <v>1468</v>
+      <c r="AA90" s="165" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AB90" s="165" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AC90" s="166" t="s">
+        <v>1504</v>
       </c>
       <c r="AD90" s="100"/>
       <c r="AE90" s="121"/>
@@ -22260,11 +22482,15 @@
         <v>10.0</v>
       </c>
       <c r="C91" s="100"/>
-      <c r="D91" s="165" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E91" s="126"/>
-      <c r="F91" s="126"/>
+      <c r="D91" s="167" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E91" s="168" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F91" s="168" t="s">
+        <v>1507</v>
+      </c>
       <c r="G91" s="126"/>
       <c r="H91" s="126"/>
       <c r="I91" s="126"/>
@@ -22285,10 +22511,14 @@
       <c r="X91" s="126"/>
       <c r="Y91" s="126"/>
       <c r="Z91" s="126"/>
-      <c r="AA91" s="126"/>
-      <c r="AB91" s="126"/>
-      <c r="AC91" s="166" t="s">
-        <v>1470</v>
+      <c r="AA91" s="168" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AB91" s="168" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AC91" s="169" t="s">
+        <v>1510</v>
       </c>
       <c r="AD91" s="100"/>
       <c r="AE91" s="128"/>
@@ -22303,11 +22533,15 @@
         <v>26</v>
       </c>
       <c r="C92" s="100"/>
-      <c r="D92" s="167">
+      <c r="D92" s="170">
         <v>329.0</v>
       </c>
-      <c r="E92" s="134"/>
-      <c r="F92" s="134"/>
+      <c r="E92" s="171">
+        <v>257.0</v>
+      </c>
+      <c r="F92" s="171">
+        <v>362.0</v>
+      </c>
       <c r="G92" s="134"/>
       <c r="H92" s="134"/>
       <c r="I92" s="134"/>
@@ -22328,8 +22562,12 @@
       <c r="X92" s="134"/>
       <c r="Y92" s="134"/>
       <c r="Z92" s="134"/>
-      <c r="AA92" s="134"/>
-      <c r="AB92" s="134"/>
+      <c r="AA92" s="171">
+        <v>285.0</v>
+      </c>
+      <c r="AB92" s="171">
+        <v>257.0</v>
+      </c>
       <c r="AC92" s="132">
         <v>343.0</v>
       </c>
@@ -22346,11 +22584,15 @@
         <v>27</v>
       </c>
       <c r="C93" s="100"/>
-      <c r="D93" s="168" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E93" s="138"/>
-      <c r="F93" s="138"/>
+      <c r="D93" s="172" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E93" s="173" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="173" t="s">
+        <v>1512</v>
+      </c>
       <c r="G93" s="138"/>
       <c r="H93" s="138"/>
       <c r="I93" s="138"/>
@@ -22371,10 +22613,14 @@
       <c r="X93" s="138"/>
       <c r="Y93" s="138"/>
       <c r="Z93" s="138"/>
-      <c r="AA93" s="138"/>
-      <c r="AB93" s="138"/>
+      <c r="AA93" s="173" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AB93" s="173" t="s">
+        <v>58</v>
+      </c>
       <c r="AC93" s="136" t="s">
-        <v>1472</v>
+        <v>1514</v>
       </c>
       <c r="AD93" s="140"/>
       <c r="AE93" s="141"/>
@@ -22389,11 +22635,15 @@
         <v>28</v>
       </c>
       <c r="C94" s="100"/>
-      <c r="D94" s="169">
+      <c r="D94" s="174">
         <v>85.0</v>
       </c>
-      <c r="E94" s="147"/>
-      <c r="F94" s="147"/>
+      <c r="E94" s="175">
+        <v>64.0</v>
+      </c>
+      <c r="F94" s="175">
+        <v>92.0</v>
+      </c>
       <c r="G94" s="147"/>
       <c r="H94" s="147"/>
       <c r="I94" s="147"/>
@@ -22414,8 +22664,12 @@
       <c r="X94" s="147"/>
       <c r="Y94" s="147"/>
       <c r="Z94" s="147"/>
-      <c r="AA94" s="147"/>
-      <c r="AB94" s="147"/>
+      <c r="AA94" s="175">
+        <v>69.0</v>
+      </c>
+      <c r="AB94" s="175">
+        <v>64.0</v>
+      </c>
       <c r="AC94" s="145">
         <v>84.0</v>
       </c>
@@ -22432,11 +22686,15 @@
         <v>29</v>
       </c>
       <c r="C95" s="100"/>
-      <c r="D95" s="170" t="s">
+      <c r="D95" s="176" t="s">
         <v>440</v>
       </c>
-      <c r="E95" s="155"/>
-      <c r="F95" s="155"/>
+      <c r="E95" s="177" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F95" s="177" t="s">
+        <v>1515</v>
+      </c>
       <c r="G95" s="155"/>
       <c r="H95" s="155"/>
       <c r="I95" s="155"/>
@@ -22457,10 +22715,14 @@
       <c r="X95" s="155"/>
       <c r="Y95" s="155"/>
       <c r="Z95" s="155"/>
-      <c r="AA95" s="155"/>
-      <c r="AB95" s="155"/>
+      <c r="AA95" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB95" s="177" t="s">
+        <v>1407</v>
+      </c>
       <c r="AC95" s="153" t="s">
-        <v>1473</v>
+        <v>1516</v>
       </c>
       <c r="AD95" s="100"/>
       <c r="AE95" s="157"/>
@@ -22765,4369 +23027,4369 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="B2" s="171"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="171"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3">
-      <c r="B3" s="171"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="171"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="178"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="181" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C4" s="182" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D4" s="183" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E4" s="184" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F4" s="185" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G4" s="183" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H4" s="186" t="s">
+      <c r="B4" s="188" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D4" s="190" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E4" s="191" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F4" s="192" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G4" s="190" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H4" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="187" t="s">
-        <v>1474</v>
+      <c r="I4" s="194" t="s">
+        <v>1517</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5">
-      <c r="B5" s="188"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="190"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="197"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C6" s="191" t="s">
+      <c r="B6" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C6" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E6" s="174"/>
-      <c r="F6" s="175" t="s">
-        <v>1480</v>
-      </c>
-      <c r="G6" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H6" s="176">
+      <c r="D6" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E6" s="181"/>
+      <c r="F6" s="182" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G6" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H6" s="183">
         <v>1.0</v>
       </c>
-      <c r="I6" s="190" t="s">
-        <v>1474</v>
+      <c r="I6" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C7" s="191" t="s">
+      <c r="B7" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C7" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="175" t="s">
-        <v>1481</v>
-      </c>
-      <c r="G7" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H7" s="176">
+      <c r="D7" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E7" s="181"/>
+      <c r="F7" s="182" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G7" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H7" s="183">
         <v>2.0</v>
       </c>
-      <c r="I7" s="190" t="s">
-        <v>1474</v>
+      <c r="I7" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C8" s="191" t="s">
+      <c r="B8" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C8" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="175" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G8" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H8" s="176">
+      <c r="D8" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E8" s="181"/>
+      <c r="F8" s="182" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G8" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H8" s="183">
         <v>3.0</v>
       </c>
-      <c r="I8" s="190" t="s">
-        <v>1474</v>
+      <c r="I8" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C9" s="191" t="s">
+      <c r="B9" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C9" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E9" s="174"/>
-      <c r="F9" s="175" t="s">
-        <v>1483</v>
-      </c>
-      <c r="G9" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H9" s="176">
+      <c r="D9" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E9" s="181"/>
+      <c r="F9" s="182" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G9" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H9" s="183">
         <v>4.0</v>
       </c>
-      <c r="I9" s="190" t="s">
-        <v>1474</v>
+      <c r="I9" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C10" s="191" t="s">
+      <c r="B10" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C10" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G10" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H10" s="176">
+      <c r="D10" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E10" s="181"/>
+      <c r="F10" s="182" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G10" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H10" s="183">
         <v>5.0</v>
       </c>
-      <c r="I10" s="190" t="s">
-        <v>1474</v>
+      <c r="I10" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C11" s="191" t="s">
+      <c r="B11" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C11" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E11" s="174"/>
-      <c r="F11" s="175" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G11" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H11" s="176">
+      <c r="D11" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E11" s="181"/>
+      <c r="F11" s="182" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G11" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H11" s="183">
         <v>6.0</v>
       </c>
-      <c r="I11" s="190" t="s">
-        <v>1474</v>
+      <c r="I11" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C12" s="191" t="s">
+      <c r="B12" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C12" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E12" s="174"/>
-      <c r="F12" s="175" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G12" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H12" s="176">
+      <c r="D12" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E12" s="181"/>
+      <c r="F12" s="182" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G12" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H12" s="183">
         <v>7.0</v>
       </c>
-      <c r="I12" s="190" t="s">
-        <v>1474</v>
+      <c r="I12" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C13" s="191" t="s">
+      <c r="B13" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C13" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E13" s="174"/>
-      <c r="F13" s="175" t="s">
-        <v>1487</v>
-      </c>
-      <c r="G13" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H13" s="176">
+      <c r="D13" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E13" s="181"/>
+      <c r="F13" s="182" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G13" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H13" s="183">
         <v>8.0</v>
       </c>
-      <c r="I13" s="190" t="s">
-        <v>1474</v>
+      <c r="I13" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C14" s="191" t="s">
+      <c r="B14" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C14" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E14" s="174"/>
-      <c r="F14" s="175" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G14" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H14" s="176">
+      <c r="D14" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E14" s="181"/>
+      <c r="F14" s="182" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G14" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H14" s="183">
         <v>9.0</v>
       </c>
-      <c r="I14" s="190" t="s">
-        <v>1474</v>
+      <c r="I14" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C15" s="191" t="s">
+      <c r="B15" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C15" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E15" s="174"/>
-      <c r="F15" s="175" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G15" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H15" s="176">
+      <c r="D15" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E15" s="181"/>
+      <c r="F15" s="182" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G15" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H15" s="183">
         <v>10.0</v>
       </c>
-      <c r="I15" s="190" t="s">
-        <v>1474</v>
+      <c r="I15" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C16" s="191" t="s">
+      <c r="B16" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C16" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175" t="s">
-        <v>1490</v>
-      </c>
-      <c r="G16" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H16" s="176">
+      <c r="D16" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G16" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H16" s="183">
         <v>11.0</v>
       </c>
-      <c r="I16" s="190" t="s">
-        <v>1474</v>
+      <c r="I16" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C17" s="191" t="s">
+      <c r="B17" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C17" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E17" s="174"/>
-      <c r="F17" s="175" t="s">
-        <v>1491</v>
-      </c>
-      <c r="G17" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H17" s="176">
+      <c r="D17" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E17" s="181"/>
+      <c r="F17" s="182" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G17" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H17" s="183">
         <v>12.0</v>
       </c>
-      <c r="I17" s="190" t="s">
-        <v>1474</v>
+      <c r="I17" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C18" s="191" t="s">
+      <c r="B18" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C18" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="175" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G18" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H18" s="176">
+      <c r="D18" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E18" s="181"/>
+      <c r="F18" s="182" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G18" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H18" s="183">
         <v>13.0</v>
       </c>
-      <c r="I18" s="190" t="s">
-        <v>1474</v>
+      <c r="I18" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C19" s="191" t="s">
+      <c r="B19" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C19" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E19" s="174"/>
-      <c r="F19" s="175" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G19" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H19" s="176">
+      <c r="D19" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G19" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H19" s="183">
         <v>14.0</v>
       </c>
-      <c r="I19" s="190" t="s">
-        <v>1474</v>
+      <c r="I19" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C20" s="191" t="s">
+      <c r="B20" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C20" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E20" s="174"/>
-      <c r="F20" s="175" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G20" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H20" s="176">
+      <c r="D20" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E20" s="181"/>
+      <c r="F20" s="182" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G20" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H20" s="183">
         <v>15.0</v>
       </c>
-      <c r="I20" s="190" t="s">
-        <v>1474</v>
+      <c r="I20" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C21" s="191" t="s">
+      <c r="B21" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C21" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E21" s="174"/>
-      <c r="F21" s="175" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G21" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H21" s="176">
+      <c r="D21" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E21" s="181"/>
+      <c r="F21" s="182" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G21" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H21" s="183">
         <v>16.0</v>
       </c>
-      <c r="I21" s="190" t="s">
-        <v>1474</v>
+      <c r="I21" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C22" s="191" t="s">
+      <c r="B22" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C22" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E22" s="174"/>
-      <c r="F22" s="175" t="s">
-        <v>1496</v>
-      </c>
-      <c r="G22" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H22" s="176">
+      <c r="D22" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G22" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H22" s="183">
         <v>17.0</v>
       </c>
-      <c r="I22" s="190" t="s">
-        <v>1474</v>
+      <c r="I22" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C23" s="191" t="s">
+      <c r="B23" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C23" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E23" s="174"/>
-      <c r="F23" s="175" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G23" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H23" s="176">
+      <c r="D23" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E23" s="181"/>
+      <c r="F23" s="182" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G23" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H23" s="183">
         <v>18.0</v>
       </c>
-      <c r="I23" s="190" t="s">
-        <v>1474</v>
+      <c r="I23" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="B24" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C24" s="191" t="s">
+      <c r="B24" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C24" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E24" s="174"/>
-      <c r="F24" s="175" t="s">
-        <v>1498</v>
-      </c>
-      <c r="G24" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H24" s="176">
+      <c r="D24" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E24" s="181"/>
+      <c r="F24" s="182" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G24" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H24" s="183">
         <v>19.0</v>
       </c>
-      <c r="I24" s="190" t="s">
-        <v>1474</v>
+      <c r="I24" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C25" s="191" t="s">
+      <c r="B25" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C25" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E25" s="174"/>
-      <c r="F25" s="175" t="s">
-        <v>1499</v>
-      </c>
-      <c r="G25" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H25" s="176">
+      <c r="D25" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G25" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H25" s="183">
         <v>20.0</v>
       </c>
-      <c r="I25" s="190" t="s">
-        <v>1474</v>
+      <c r="I25" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C26" s="191" t="s">
+      <c r="B26" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C26" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E26" s="174"/>
-      <c r="F26" s="175" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G26" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H26" s="176">
+      <c r="D26" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E26" s="181"/>
+      <c r="F26" s="182" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G26" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H26" s="183">
         <v>21.0</v>
       </c>
-      <c r="I26" s="190" t="s">
-        <v>1474</v>
+      <c r="I26" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C27" s="191" t="s">
+      <c r="B27" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C27" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E27" s="174"/>
-      <c r="F27" s="175" t="s">
-        <v>1501</v>
-      </c>
-      <c r="G27" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H27" s="176">
+      <c r="D27" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E27" s="181"/>
+      <c r="F27" s="182" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G27" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H27" s="183">
         <v>22.0</v>
       </c>
-      <c r="I27" s="190" t="s">
-        <v>1474</v>
+      <c r="I27" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C28" s="191" t="s">
+      <c r="B28" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C28" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G28" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H28" s="176">
+      <c r="D28" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G28" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H28" s="183">
         <v>23.0</v>
       </c>
-      <c r="I28" s="190" t="s">
-        <v>1474</v>
+      <c r="I28" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C29" s="191" t="s">
+      <c r="B29" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C29" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E29" s="174"/>
-      <c r="F29" s="175" t="s">
-        <v>1503</v>
-      </c>
-      <c r="G29" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H29" s="176">
+      <c r="D29" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E29" s="181"/>
+      <c r="F29" s="182" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G29" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H29" s="183">
         <v>24.0</v>
       </c>
-      <c r="I29" s="190" t="s">
-        <v>1474</v>
+      <c r="I29" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C30" s="191" t="s">
+      <c r="B30" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C30" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E30" s="174"/>
-      <c r="F30" s="175" t="s">
-        <v>1504</v>
-      </c>
-      <c r="G30" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H30" s="176">
+      <c r="D30" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E30" s="181"/>
+      <c r="F30" s="182" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G30" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H30" s="183">
         <v>25.0</v>
       </c>
-      <c r="I30" s="190" t="s">
-        <v>1474</v>
+      <c r="I30" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="192" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C31" s="193" t="s">
+      <c r="B31" s="199" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C31" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="194" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E31" s="195"/>
-      <c r="F31" s="196" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G31" s="194" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H31" s="197">
+      <c r="D31" s="201" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E31" s="202"/>
+      <c r="F31" s="203" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G31" s="201" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H31" s="204">
         <v>26.0</v>
       </c>
-      <c r="I31" s="198" t="s">
-        <v>1474</v>
+      <c r="I31" s="205" t="s">
+        <v>1517</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32">
-      <c r="B32" s="171"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="171"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="178"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="181" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C33" s="182" t="s">
+      <c r="B33" s="188" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C33" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="183" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E33" s="184" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F33" s="185" t="s">
-        <v>1507</v>
-      </c>
-      <c r="G33" s="183" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H33" s="186" t="s">
+      <c r="D33" s="190" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E33" s="191" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F33" s="192" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G33" s="190" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H33" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="187" t="s">
-        <v>1474</v>
+      <c r="I33" s="194" t="s">
+        <v>1517</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34">
-      <c r="B34" s="188"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="190"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="197"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C35" s="172" t="s">
+      <c r="B35" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C35" s="179" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E35" s="174"/>
-      <c r="F35" s="175" t="s">
-        <v>1508</v>
-      </c>
-      <c r="G35" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H35" s="176">
+      <c r="D35" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E35" s="181"/>
+      <c r="F35" s="182" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G35" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H35" s="183">
         <v>1.0</v>
       </c>
-      <c r="I35" s="190" t="s">
-        <v>1474</v>
+      <c r="I35" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C36" s="172" t="s">
+      <c r="B36" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C36" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E36" s="174"/>
-      <c r="F36" s="175" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G36" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H36" s="176">
+      <c r="D36" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E36" s="181"/>
+      <c r="F36" s="182" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G36" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H36" s="183">
         <v>2.0</v>
       </c>
-      <c r="I36" s="190" t="s">
-        <v>1474</v>
+      <c r="I36" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C37" s="172" t="s">
+      <c r="B37" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C37" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E37" s="174"/>
-      <c r="F37" s="175" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G37" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H37" s="176">
+      <c r="D37" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E37" s="181"/>
+      <c r="F37" s="182" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G37" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H37" s="183">
         <v>3.0</v>
       </c>
-      <c r="I37" s="190" t="s">
-        <v>1474</v>
+      <c r="I37" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C38" s="172" t="s">
+      <c r="B38" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C38" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E38" s="174"/>
-      <c r="F38" s="175" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G38" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H38" s="176">
+      <c r="D38" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E38" s="181"/>
+      <c r="F38" s="182" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G38" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H38" s="183">
         <v>4.0</v>
       </c>
-      <c r="I38" s="190" t="s">
-        <v>1474</v>
+      <c r="I38" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C39" s="172" t="s">
+      <c r="B39" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C39" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E39" s="174"/>
-      <c r="F39" s="175" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G39" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H39" s="176">
+      <c r="D39" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E39" s="181"/>
+      <c r="F39" s="182" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G39" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H39" s="183">
         <v>5.0</v>
       </c>
-      <c r="I39" s="190" t="s">
-        <v>1474</v>
+      <c r="I39" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C40" s="172" t="s">
+      <c r="B40" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C40" s="179" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E40" s="174"/>
-      <c r="F40" s="175" t="s">
-        <v>1513</v>
-      </c>
-      <c r="G40" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H40" s="176">
+      <c r="D40" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E40" s="181"/>
+      <c r="F40" s="182" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G40" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H40" s="183">
         <v>6.0</v>
       </c>
-      <c r="I40" s="190" t="s">
-        <v>1474</v>
+      <c r="I40" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C41" s="172" t="s">
+      <c r="B41" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C41" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E41" s="174"/>
-      <c r="F41" s="175" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G41" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H41" s="176">
+      <c r="D41" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E41" s="181"/>
+      <c r="F41" s="182" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G41" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H41" s="183">
         <v>7.0</v>
       </c>
-      <c r="I41" s="190" t="s">
-        <v>1474</v>
+      <c r="I41" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C42" s="172" t="s">
+      <c r="B42" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C42" s="179" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E42" s="174"/>
-      <c r="F42" s="175" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G42" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H42" s="176">
+      <c r="D42" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E42" s="181"/>
+      <c r="F42" s="182" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G42" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H42" s="183">
         <v>8.0</v>
       </c>
-      <c r="I42" s="190" t="s">
-        <v>1474</v>
+      <c r="I42" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C43" s="172" t="s">
+      <c r="B43" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C43" s="179" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E43" s="174"/>
-      <c r="F43" s="175" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G43" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H43" s="176">
+      <c r="D43" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E43" s="181"/>
+      <c r="F43" s="182" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G43" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H43" s="183">
         <v>9.0</v>
       </c>
-      <c r="I43" s="190" t="s">
-        <v>1474</v>
+      <c r="I43" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C44" s="172" t="s">
+      <c r="B44" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C44" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E44" s="174"/>
-      <c r="F44" s="175" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G44" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H44" s="176">
+      <c r="D44" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E44" s="181"/>
+      <c r="F44" s="182" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G44" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H44" s="183">
         <v>10.0</v>
       </c>
-      <c r="I44" s="190" t="s">
-        <v>1474</v>
+      <c r="I44" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C45" s="172" t="s">
+      <c r="B45" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C45" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E45" s="174"/>
-      <c r="F45" s="175" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G45" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H45" s="176">
+      <c r="D45" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E45" s="181"/>
+      <c r="F45" s="182" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G45" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H45" s="183">
         <v>11.0</v>
       </c>
-      <c r="I45" s="190" t="s">
-        <v>1474</v>
+      <c r="I45" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C46" s="172" t="s">
+      <c r="B46" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C46" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E46" s="174"/>
-      <c r="F46" s="175" t="s">
+      <c r="D46" s="180" t="s">
         <v>1519</v>
       </c>
-      <c r="G46" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H46" s="176">
+      <c r="E46" s="181"/>
+      <c r="F46" s="182" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G46" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H46" s="183">
         <v>12.0</v>
       </c>
-      <c r="I46" s="190" t="s">
-        <v>1474</v>
+      <c r="I46" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C47" s="172" t="s">
+      <c r="B47" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C47" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E47" s="174"/>
-      <c r="F47" s="175" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G47" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H47" s="176">
+      <c r="D47" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E47" s="181"/>
+      <c r="F47" s="182" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G47" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H47" s="183">
         <v>13.0</v>
       </c>
-      <c r="I47" s="190" t="s">
-        <v>1474</v>
+      <c r="I47" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C48" s="172" t="s">
+      <c r="B48" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C48" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E48" s="174"/>
-      <c r="F48" s="175" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G48" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H48" s="176">
+      <c r="D48" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E48" s="181"/>
+      <c r="F48" s="182" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G48" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H48" s="183">
         <v>14.0</v>
       </c>
-      <c r="I48" s="190" t="s">
-        <v>1474</v>
+      <c r="I48" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C49" s="172" t="s">
+      <c r="B49" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C49" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E49" s="174"/>
-      <c r="F49" s="175" t="s">
+      <c r="D49" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E49" s="181"/>
+      <c r="F49" s="182" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G49" s="180" t="s">
         <v>1522</v>
       </c>
-      <c r="G49" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H49" s="176">
+      <c r="H49" s="183">
         <v>15.0</v>
       </c>
-      <c r="I49" s="190" t="s">
-        <v>1474</v>
+      <c r="I49" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C50" s="172" t="s">
+      <c r="B50" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C50" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E50" s="174"/>
-      <c r="F50" s="175" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G50" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H50" s="176">
+      <c r="D50" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E50" s="181"/>
+      <c r="F50" s="182" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G50" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H50" s="183">
         <v>16.0</v>
       </c>
-      <c r="I50" s="190" t="s">
-        <v>1474</v>
+      <c r="I50" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C51" s="172" t="s">
+      <c r="B51" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C51" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E51" s="174"/>
-      <c r="F51" s="175" t="s">
-        <v>1524</v>
-      </c>
-      <c r="G51" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H51" s="176">
+      <c r="D51" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E51" s="181"/>
+      <c r="F51" s="182" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G51" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H51" s="183">
         <v>17.0</v>
       </c>
-      <c r="I51" s="190" t="s">
-        <v>1474</v>
+      <c r="I51" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C52" s="172" t="s">
+      <c r="B52" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C52" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E52" s="174"/>
-      <c r="F52" s="175" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G52" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H52" s="176">
+      <c r="D52" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E52" s="181"/>
+      <c r="F52" s="182" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G52" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H52" s="183">
         <v>18.0</v>
       </c>
-      <c r="I52" s="190" t="s">
-        <v>1474</v>
+      <c r="I52" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C53" s="172" t="s">
+      <c r="B53" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C53" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E53" s="174"/>
-      <c r="F53" s="175" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G53" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H53" s="176">
+      <c r="D53" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E53" s="181"/>
+      <c r="F53" s="182" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G53" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H53" s="183">
         <v>19.0</v>
       </c>
-      <c r="I53" s="190" t="s">
-        <v>1474</v>
+      <c r="I53" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C54" s="172" t="s">
+      <c r="B54" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C54" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G54" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H54" s="176">
+      <c r="D54" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E54" s="181"/>
+      <c r="F54" s="182" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G54" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H54" s="183">
         <v>20.0</v>
       </c>
-      <c r="I54" s="190" t="s">
-        <v>1474</v>
+      <c r="I54" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C55" s="172" t="s">
+      <c r="B55" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C55" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E55" s="174"/>
-      <c r="F55" s="175" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G55" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H55" s="176">
+      <c r="D55" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E55" s="181"/>
+      <c r="F55" s="182" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G55" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H55" s="183">
         <v>21.0</v>
       </c>
-      <c r="I55" s="190" t="s">
-        <v>1474</v>
+      <c r="I55" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C56" s="172" t="s">
+      <c r="B56" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C56" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E56" s="174"/>
-      <c r="F56" s="175" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G56" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H56" s="176">
+      <c r="D56" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E56" s="181"/>
+      <c r="F56" s="182" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G56" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H56" s="183">
         <v>22.0</v>
       </c>
-      <c r="I56" s="190" t="s">
-        <v>1474</v>
+      <c r="I56" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C57" s="172" t="s">
+      <c r="B57" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C57" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E57" s="174"/>
-      <c r="F57" s="175" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G57" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H57" s="176">
+      <c r="D57" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E57" s="181"/>
+      <c r="F57" s="182" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G57" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H57" s="183">
         <v>23.0</v>
       </c>
-      <c r="I57" s="190" t="s">
-        <v>1474</v>
+      <c r="I57" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C58" s="172" t="s">
+      <c r="B58" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C58" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E58" s="174"/>
-      <c r="F58" s="175" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G58" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H58" s="176">
+      <c r="D58" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E58" s="181"/>
+      <c r="F58" s="182" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G58" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H58" s="183">
         <v>24.0</v>
       </c>
-      <c r="I58" s="190" t="s">
-        <v>1474</v>
+      <c r="I58" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C59" s="172" t="s">
+      <c r="B59" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C59" s="179" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E59" s="174"/>
-      <c r="F59" s="175" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G59" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H59" s="176">
+      <c r="D59" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E59" s="181"/>
+      <c r="F59" s="182" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G59" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H59" s="183">
         <v>25.0</v>
       </c>
-      <c r="I59" s="190" t="s">
-        <v>1474</v>
+      <c r="I59" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="192" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C60" s="199" t="s">
+      <c r="B60" s="199" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C60" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="194" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E60" s="195"/>
-      <c r="F60" s="196" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G60" s="194" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H60" s="197">
+      <c r="D60" s="201" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E60" s="202"/>
+      <c r="F60" s="203" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G60" s="201" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H60" s="204">
         <v>26.0</v>
       </c>
-      <c r="I60" s="198" t="s">
-        <v>1474</v>
+      <c r="I60" s="205" t="s">
+        <v>1517</v>
       </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61">
-      <c r="B61" s="171"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="179"/>
-      <c r="G61" s="173"/>
-      <c r="H61" s="180"/>
-      <c r="I61" s="171"/>
+      <c r="B61" s="178"/>
+      <c r="C61" s="184"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="185"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="187"/>
+      <c r="I61" s="178"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="181" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C62" s="182" t="s">
+      <c r="B62" s="188" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C62" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="183" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E62" s="184" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F62" s="185" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G62" s="183" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H62" s="186" t="s">
+      <c r="D62" s="190" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E62" s="191" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F62" s="192" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G62" s="190" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H62" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="I62" s="187" t="s">
-        <v>1474</v>
+      <c r="I62" s="194" t="s">
+        <v>1517</v>
       </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63">
-      <c r="B63" s="188"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="173"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="179"/>
-      <c r="G63" s="173"/>
-      <c r="H63" s="180"/>
-      <c r="I63" s="190"/>
+      <c r="B63" s="195"/>
+      <c r="C63" s="184"/>
+      <c r="D63" s="180"/>
+      <c r="E63" s="185"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="180"/>
+      <c r="H63" s="187"/>
+      <c r="I63" s="197"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C64" s="172" t="s">
+      <c r="B64" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C64" s="179" t="s">
         <v>452</v>
       </c>
-      <c r="D64" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E64" s="174"/>
-      <c r="F64" s="175" t="s">
-        <v>1536</v>
-      </c>
-      <c r="G64" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H64" s="176">
+      <c r="D64" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E64" s="181"/>
+      <c r="F64" s="182" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G64" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H64" s="183">
         <v>1.0</v>
       </c>
-      <c r="I64" s="190" t="s">
-        <v>1474</v>
+      <c r="I64" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C65" s="172" t="s">
+      <c r="B65" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C65" s="179" t="s">
         <v>453</v>
       </c>
-      <c r="D65" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E65" s="174"/>
-      <c r="F65" s="175" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G65" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H65" s="176">
+      <c r="D65" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E65" s="181"/>
+      <c r="F65" s="182" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G65" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H65" s="183">
         <v>2.0</v>
       </c>
-      <c r="I65" s="190" t="s">
-        <v>1474</v>
+      <c r="I65" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C66" s="172" t="s">
+      <c r="B66" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C66" s="179" t="s">
         <v>454</v>
       </c>
-      <c r="D66" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E66" s="174"/>
-      <c r="F66" s="175" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G66" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H66" s="176">
+      <c r="D66" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E66" s="181"/>
+      <c r="F66" s="182" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G66" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H66" s="183">
         <v>3.0</v>
       </c>
-      <c r="I66" s="190" t="s">
-        <v>1474</v>
+      <c r="I66" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C67" s="172" t="s">
+      <c r="B67" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C67" s="179" t="s">
         <v>455</v>
       </c>
-      <c r="D67" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E67" s="174"/>
-      <c r="F67" s="175" t="s">
-        <v>1539</v>
-      </c>
-      <c r="G67" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H67" s="176">
+      <c r="D67" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E67" s="181"/>
+      <c r="F67" s="182" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G67" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H67" s="183">
         <v>4.0</v>
       </c>
-      <c r="I67" s="190" t="s">
-        <v>1474</v>
+      <c r="I67" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C68" s="172" t="s">
+      <c r="B68" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C68" s="179" t="s">
         <v>456</v>
       </c>
-      <c r="D68" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E68" s="174"/>
-      <c r="F68" s="175" t="s">
-        <v>1540</v>
-      </c>
-      <c r="G68" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H68" s="176">
+      <c r="D68" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E68" s="181"/>
+      <c r="F68" s="182" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G68" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H68" s="183">
         <v>5.0</v>
       </c>
-      <c r="I68" s="190" t="s">
-        <v>1474</v>
+      <c r="I68" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
-      <c r="B69" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C69" s="172" t="s">
+      <c r="B69" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C69" s="179" t="s">
         <v>457</v>
       </c>
-      <c r="D69" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E69" s="174"/>
-      <c r="F69" s="175" t="s">
-        <v>1541</v>
-      </c>
-      <c r="G69" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H69" s="176">
+      <c r="D69" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E69" s="181"/>
+      <c r="F69" s="182" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G69" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H69" s="183">
         <v>6.0</v>
       </c>
-      <c r="I69" s="190" t="s">
-        <v>1474</v>
+      <c r="I69" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C70" s="172" t="s">
+      <c r="B70" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C70" s="179" t="s">
         <v>458</v>
       </c>
-      <c r="D70" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E70" s="174"/>
-      <c r="F70" s="175" t="s">
-        <v>1542</v>
-      </c>
-      <c r="G70" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H70" s="176">
+      <c r="D70" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E70" s="181"/>
+      <c r="F70" s="182" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G70" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H70" s="183">
         <v>7.0</v>
       </c>
-      <c r="I70" s="190" t="s">
-        <v>1474</v>
+      <c r="I70" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C71" s="172" t="s">
+      <c r="B71" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C71" s="179" t="s">
         <v>459</v>
       </c>
-      <c r="D71" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E71" s="174"/>
-      <c r="F71" s="175" t="s">
-        <v>1543</v>
-      </c>
-      <c r="G71" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H71" s="176">
+      <c r="D71" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E71" s="181"/>
+      <c r="F71" s="182" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G71" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H71" s="183">
         <v>8.0</v>
       </c>
-      <c r="I71" s="190" t="s">
-        <v>1474</v>
+      <c r="I71" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C72" s="172" t="s">
+      <c r="B72" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C72" s="179" t="s">
         <v>460</v>
       </c>
-      <c r="D72" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E72" s="174"/>
-      <c r="F72" s="175" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G72" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H72" s="176">
+      <c r="D72" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E72" s="181"/>
+      <c r="F72" s="182" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G72" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H72" s="183">
         <v>9.0</v>
       </c>
-      <c r="I72" s="190" t="s">
-        <v>1474</v>
+      <c r="I72" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
-      <c r="B73" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C73" s="172" t="s">
+      <c r="B73" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C73" s="179" t="s">
         <v>461</v>
       </c>
-      <c r="D73" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E73" s="174"/>
-      <c r="F73" s="175" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G73" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H73" s="176">
+      <c r="D73" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E73" s="181"/>
+      <c r="F73" s="182" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G73" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H73" s="183">
         <v>10.0</v>
       </c>
-      <c r="I73" s="190" t="s">
-        <v>1474</v>
+      <c r="I73" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
-      <c r="B74" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C74" s="172" t="s">
+      <c r="B74" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C74" s="179" t="s">
         <v>462</v>
       </c>
-      <c r="D74" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E74" s="174"/>
-      <c r="F74" s="175" t="s">
-        <v>1546</v>
-      </c>
-      <c r="G74" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H74" s="176">
+      <c r="D74" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E74" s="181"/>
+      <c r="F74" s="182" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G74" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H74" s="183">
         <v>11.0</v>
       </c>
-      <c r="I74" s="190" t="s">
-        <v>1474</v>
+      <c r="I74" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
-      <c r="B75" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C75" s="172" t="s">
+      <c r="B75" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C75" s="179" t="s">
         <v>463</v>
       </c>
-      <c r="D75" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E75" s="174"/>
-      <c r="F75" s="175" t="s">
-        <v>1547</v>
-      </c>
-      <c r="G75" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H75" s="176">
+      <c r="D75" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E75" s="181"/>
+      <c r="F75" s="182" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G75" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H75" s="183">
         <v>12.0</v>
       </c>
-      <c r="I75" s="190" t="s">
-        <v>1474</v>
+      <c r="I75" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
-      <c r="B76" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C76" s="172" t="s">
+      <c r="B76" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C76" s="179" t="s">
         <v>464</v>
       </c>
-      <c r="D76" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E76" s="174"/>
-      <c r="F76" s="175" t="s">
-        <v>1548</v>
-      </c>
-      <c r="G76" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H76" s="176">
+      <c r="D76" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E76" s="181"/>
+      <c r="F76" s="182" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G76" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H76" s="183">
         <v>13.0</v>
       </c>
-      <c r="I76" s="190" t="s">
-        <v>1474</v>
+      <c r="I76" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
-      <c r="B77" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C77" s="172" t="s">
+      <c r="B77" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C77" s="179" t="s">
         <v>465</v>
       </c>
-      <c r="D77" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E77" s="174"/>
-      <c r="F77" s="175" t="s">
-        <v>1549</v>
-      </c>
-      <c r="G77" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H77" s="176">
+      <c r="D77" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E77" s="181"/>
+      <c r="F77" s="182" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G77" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H77" s="183">
         <v>14.0</v>
       </c>
-      <c r="I77" s="190" t="s">
-        <v>1474</v>
+      <c r="I77" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
-      <c r="B78" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C78" s="172" t="s">
+      <c r="B78" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C78" s="179" t="s">
         <v>466</v>
       </c>
-      <c r="D78" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E78" s="174"/>
-      <c r="F78" s="175" t="s">
-        <v>1550</v>
-      </c>
-      <c r="G78" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H78" s="176">
+      <c r="D78" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E78" s="181"/>
+      <c r="F78" s="182" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G78" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H78" s="183">
         <v>15.0</v>
       </c>
-      <c r="I78" s="190" t="s">
-        <v>1474</v>
+      <c r="I78" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
-      <c r="B79" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C79" s="172" t="s">
+      <c r="B79" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C79" s="179" t="s">
         <v>467</v>
       </c>
-      <c r="D79" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E79" s="174"/>
-      <c r="F79" s="175" t="s">
-        <v>1551</v>
-      </c>
-      <c r="G79" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H79" s="176">
+      <c r="D79" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E79" s="181"/>
+      <c r="F79" s="182" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G79" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H79" s="183">
         <v>16.0</v>
       </c>
-      <c r="I79" s="190" t="s">
-        <v>1474</v>
+      <c r="I79" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C80" s="172" t="s">
+      <c r="B80" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C80" s="179" t="s">
         <v>468</v>
       </c>
-      <c r="D80" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E80" s="174"/>
-      <c r="F80" s="175" t="s">
-        <v>1552</v>
-      </c>
-      <c r="G80" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H80" s="176">
+      <c r="D80" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E80" s="181"/>
+      <c r="F80" s="182" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G80" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H80" s="183">
         <v>17.0</v>
       </c>
-      <c r="I80" s="190" t="s">
-        <v>1474</v>
+      <c r="I80" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
-      <c r="B81" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C81" s="172" t="s">
+      <c r="B81" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C81" s="179" t="s">
         <v>469</v>
       </c>
-      <c r="D81" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E81" s="174"/>
-      <c r="F81" s="175" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G81" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H81" s="176">
+      <c r="D81" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E81" s="181"/>
+      <c r="F81" s="182" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G81" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H81" s="183">
         <v>18.0</v>
       </c>
-      <c r="I81" s="190" t="s">
-        <v>1474</v>
+      <c r="I81" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
-      <c r="B82" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C82" s="172" t="s">
+      <c r="B82" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C82" s="179" t="s">
         <v>470</v>
       </c>
-      <c r="D82" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E82" s="174"/>
-      <c r="F82" s="175" t="s">
-        <v>1554</v>
-      </c>
-      <c r="G82" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H82" s="176">
+      <c r="D82" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E82" s="181"/>
+      <c r="F82" s="182" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G82" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H82" s="183">
         <v>19.0</v>
       </c>
-      <c r="I82" s="190" t="s">
-        <v>1474</v>
+      <c r="I82" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
-      <c r="B83" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C83" s="172" t="s">
+      <c r="B83" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C83" s="179" t="s">
         <v>471</v>
       </c>
-      <c r="D83" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E83" s="174"/>
-      <c r="F83" s="175" t="s">
-        <v>1555</v>
-      </c>
-      <c r="G83" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H83" s="176">
+      <c r="D83" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E83" s="181"/>
+      <c r="F83" s="182" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G83" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H83" s="183">
         <v>20.0</v>
       </c>
-      <c r="I83" s="190" t="s">
-        <v>1474</v>
+      <c r="I83" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
-      <c r="B84" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C84" s="172" t="s">
+      <c r="B84" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C84" s="179" t="s">
         <v>472</v>
       </c>
-      <c r="D84" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E84" s="174"/>
-      <c r="F84" s="175" t="s">
-        <v>1556</v>
-      </c>
-      <c r="G84" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H84" s="176">
+      <c r="D84" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E84" s="181"/>
+      <c r="F84" s="182" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G84" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H84" s="183">
         <v>21.0</v>
       </c>
-      <c r="I84" s="190" t="s">
-        <v>1474</v>
+      <c r="I84" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
-      <c r="B85" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C85" s="172" t="s">
+      <c r="B85" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C85" s="179" t="s">
         <v>473</v>
       </c>
-      <c r="D85" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E85" s="174"/>
-      <c r="F85" s="175" t="s">
-        <v>1557</v>
-      </c>
-      <c r="G85" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H85" s="176">
+      <c r="D85" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E85" s="181"/>
+      <c r="F85" s="182" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G85" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H85" s="183">
         <v>22.0</v>
       </c>
-      <c r="I85" s="190" t="s">
-        <v>1474</v>
+      <c r="I85" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
-      <c r="B86" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C86" s="172" t="s">
+      <c r="B86" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C86" s="179" t="s">
         <v>474</v>
       </c>
-      <c r="D86" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E86" s="174"/>
-      <c r="F86" s="175" t="s">
-        <v>1558</v>
-      </c>
-      <c r="G86" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H86" s="176">
+      <c r="D86" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E86" s="181"/>
+      <c r="F86" s="182" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G86" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H86" s="183">
         <v>23.0</v>
       </c>
-      <c r="I86" s="190" t="s">
-        <v>1474</v>
+      <c r="I86" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
-      <c r="B87" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C87" s="172" t="s">
+      <c r="B87" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C87" s="179" t="s">
         <v>475</v>
       </c>
-      <c r="D87" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E87" s="174"/>
-      <c r="F87" s="175" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G87" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H87" s="176">
+      <c r="D87" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E87" s="181"/>
+      <c r="F87" s="182" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G87" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H87" s="183">
         <v>24.0</v>
       </c>
-      <c r="I87" s="190" t="s">
-        <v>1474</v>
+      <c r="I87" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
-      <c r="B88" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C88" s="172" t="s">
+      <c r="B88" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C88" s="179" t="s">
         <v>476</v>
       </c>
-      <c r="D88" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E88" s="174"/>
-      <c r="F88" s="175" t="s">
-        <v>1560</v>
-      </c>
-      <c r="G88" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H88" s="176">
+      <c r="D88" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E88" s="181"/>
+      <c r="F88" s="182" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G88" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H88" s="183">
         <v>25.0</v>
       </c>
-      <c r="I88" s="190" t="s">
-        <v>1474</v>
+      <c r="I88" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
-      <c r="B89" s="192" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C89" s="199" t="s">
+      <c r="B89" s="199" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C89" s="206" t="s">
         <v>477</v>
       </c>
-      <c r="D89" s="194" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E89" s="195"/>
-      <c r="F89" s="196" t="s">
-        <v>1561</v>
-      </c>
-      <c r="G89" s="194" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H89" s="197">
+      <c r="D89" s="201" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E89" s="202"/>
+      <c r="F89" s="203" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G89" s="201" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H89" s="204">
         <v>26.0</v>
       </c>
-      <c r="I89" s="198" t="s">
-        <v>1474</v>
+      <c r="I89" s="205" t="s">
+        <v>1517</v>
       </c>
       <c r="J89" s="1"/>
     </row>
     <row r="90">
-      <c r="B90" s="171"/>
-      <c r="C90" s="177"/>
-      <c r="D90" s="173"/>
-      <c r="E90" s="178"/>
-      <c r="F90" s="179"/>
-      <c r="G90" s="173"/>
-      <c r="H90" s="180"/>
-      <c r="I90" s="171"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="184"/>
+      <c r="D90" s="180"/>
+      <c r="E90" s="185"/>
+      <c r="F90" s="186"/>
+      <c r="G90" s="180"/>
+      <c r="H90" s="187"/>
+      <c r="I90" s="178"/>
       <c r="J90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
-      <c r="B91" s="181" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C91" s="182" t="s">
+      <c r="B91" s="188" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C91" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="183" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E91" s="184" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F91" s="185" t="s">
-        <v>1563</v>
-      </c>
-      <c r="G91" s="183" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H91" s="186" t="s">
+      <c r="D91" s="190" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E91" s="191" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F91" s="192" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G91" s="190" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H91" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="I91" s="187" t="s">
-        <v>1474</v>
+      <c r="I91" s="194" t="s">
+        <v>1517</v>
       </c>
       <c r="J91" s="1"/>
     </row>
     <row r="92">
-      <c r="B92" s="188"/>
-      <c r="C92" s="177"/>
-      <c r="D92" s="173"/>
-      <c r="E92" s="178"/>
-      <c r="F92" s="179"/>
-      <c r="G92" s="173"/>
-      <c r="H92" s="180"/>
-      <c r="I92" s="190"/>
+      <c r="B92" s="195"/>
+      <c r="C92" s="184"/>
+      <c r="D92" s="180"/>
+      <c r="E92" s="185"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="180"/>
+      <c r="H92" s="187"/>
+      <c r="I92" s="197"/>
       <c r="J92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
-      <c r="B93" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C93" s="172" t="s">
+      <c r="B93" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C93" s="179" t="s">
         <v>729</v>
       </c>
-      <c r="D93" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E93" s="174"/>
-      <c r="F93" s="175" t="s">
-        <v>1564</v>
-      </c>
-      <c r="G93" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H93" s="176">
+      <c r="D93" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E93" s="181"/>
+      <c r="F93" s="182" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G93" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H93" s="183">
         <v>1.0</v>
       </c>
-      <c r="I93" s="190" t="s">
-        <v>1474</v>
+      <c r="I93" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
-      <c r="B94" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C94" s="172" t="s">
+      <c r="B94" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C94" s="179" t="s">
         <v>730</v>
       </c>
-      <c r="D94" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E94" s="174"/>
-      <c r="F94" s="175" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G94" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H94" s="176">
+      <c r="D94" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E94" s="181"/>
+      <c r="F94" s="182" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G94" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H94" s="183">
         <v>2.0</v>
       </c>
-      <c r="I94" s="190" t="s">
-        <v>1474</v>
+      <c r="I94" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
-      <c r="B95" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C95" s="172" t="s">
+      <c r="B95" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C95" s="179" t="s">
         <v>731</v>
       </c>
-      <c r="D95" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E95" s="174"/>
-      <c r="F95" s="175" t="s">
-        <v>1566</v>
-      </c>
-      <c r="G95" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H95" s="176">
+      <c r="D95" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E95" s="181"/>
+      <c r="F95" s="182" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G95" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H95" s="183">
         <v>3.0</v>
       </c>
-      <c r="I95" s="190" t="s">
-        <v>1474</v>
+      <c r="I95" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
-      <c r="B96" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C96" s="172" t="s">
+      <c r="B96" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C96" s="179" t="s">
         <v>732</v>
       </c>
-      <c r="D96" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E96" s="174"/>
-      <c r="F96" s="175" t="s">
-        <v>1567</v>
-      </c>
-      <c r="G96" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H96" s="176">
+      <c r="D96" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E96" s="181"/>
+      <c r="F96" s="182" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G96" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H96" s="183">
         <v>4.0</v>
       </c>
-      <c r="I96" s="190" t="s">
-        <v>1474</v>
+      <c r="I96" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
-      <c r="B97" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C97" s="172" t="s">
+      <c r="B97" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C97" s="179" t="s">
         <v>733</v>
       </c>
-      <c r="D97" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E97" s="174"/>
-      <c r="F97" s="175" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G97" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H97" s="176">
+      <c r="D97" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E97" s="181"/>
+      <c r="F97" s="182" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G97" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H97" s="183">
         <v>5.0</v>
       </c>
-      <c r="I97" s="190" t="s">
-        <v>1474</v>
+      <c r="I97" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
-      <c r="B98" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C98" s="172" t="s">
+      <c r="B98" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C98" s="179" t="s">
         <v>734</v>
       </c>
-      <c r="D98" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E98" s="174"/>
-      <c r="F98" s="175" t="s">
-        <v>1569</v>
-      </c>
-      <c r="G98" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H98" s="176">
+      <c r="D98" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E98" s="181"/>
+      <c r="F98" s="182" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G98" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H98" s="183">
         <v>6.0</v>
       </c>
-      <c r="I98" s="190" t="s">
-        <v>1474</v>
+      <c r="I98" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
-      <c r="B99" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C99" s="172" t="s">
+      <c r="B99" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C99" s="179" t="s">
         <v>735</v>
       </c>
-      <c r="D99" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E99" s="174"/>
-      <c r="F99" s="175" t="s">
-        <v>1570</v>
-      </c>
-      <c r="G99" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H99" s="176">
+      <c r="D99" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E99" s="181"/>
+      <c r="F99" s="182" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G99" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H99" s="183">
         <v>7.0</v>
       </c>
-      <c r="I99" s="190" t="s">
-        <v>1474</v>
+      <c r="I99" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
-      <c r="B100" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C100" s="172" t="s">
+      <c r="B100" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C100" s="179" t="s">
         <v>736</v>
       </c>
-      <c r="D100" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E100" s="174"/>
-      <c r="F100" s="175" t="s">
-        <v>1571</v>
-      </c>
-      <c r="G100" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H100" s="176">
+      <c r="D100" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E100" s="181"/>
+      <c r="F100" s="182" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G100" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H100" s="183">
         <v>8.0</v>
       </c>
-      <c r="I100" s="190" t="s">
-        <v>1474</v>
+      <c r="I100" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
-      <c r="B101" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C101" s="172" t="s">
+      <c r="B101" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C101" s="179" t="s">
         <v>737</v>
       </c>
-      <c r="D101" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E101" s="174"/>
-      <c r="F101" s="175" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G101" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H101" s="176">
+      <c r="D101" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E101" s="181"/>
+      <c r="F101" s="182" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G101" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H101" s="183">
         <v>9.0</v>
       </c>
-      <c r="I101" s="190" t="s">
-        <v>1474</v>
+      <c r="I101" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
-      <c r="B102" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C102" s="172" t="s">
+      <c r="B102" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C102" s="179" t="s">
         <v>738</v>
       </c>
-      <c r="D102" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E102" s="174"/>
-      <c r="F102" s="175" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G102" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H102" s="176">
+      <c r="D102" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E102" s="181"/>
+      <c r="F102" s="182" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G102" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H102" s="183">
         <v>10.0</v>
       </c>
-      <c r="I102" s="190" t="s">
-        <v>1474</v>
+      <c r="I102" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
-      <c r="B103" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C103" s="172" t="s">
+      <c r="B103" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C103" s="179" t="s">
         <v>739</v>
       </c>
-      <c r="D103" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E103" s="174"/>
-      <c r="F103" s="175" t="s">
-        <v>1574</v>
-      </c>
-      <c r="G103" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H103" s="176">
+      <c r="D103" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E103" s="181"/>
+      <c r="F103" s="182" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G103" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H103" s="183">
         <v>11.0</v>
       </c>
-      <c r="I103" s="190" t="s">
-        <v>1474</v>
+      <c r="I103" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
-      <c r="B104" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C104" s="172" t="s">
+      <c r="B104" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C104" s="179" t="s">
         <v>740</v>
       </c>
-      <c r="D104" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E104" s="174"/>
-      <c r="F104" s="175" t="s">
-        <v>1575</v>
-      </c>
-      <c r="G104" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H104" s="176">
+      <c r="D104" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E104" s="181"/>
+      <c r="F104" s="182" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G104" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H104" s="183">
         <v>12.0</v>
       </c>
-      <c r="I104" s="190" t="s">
-        <v>1474</v>
+      <c r="I104" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
-      <c r="B105" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C105" s="172" t="s">
+      <c r="B105" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C105" s="179" t="s">
         <v>741</v>
       </c>
-      <c r="D105" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E105" s="174"/>
-      <c r="F105" s="175" t="s">
-        <v>1576</v>
-      </c>
-      <c r="G105" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H105" s="176">
+      <c r="D105" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E105" s="181"/>
+      <c r="F105" s="182" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G105" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H105" s="183">
         <v>13.0</v>
       </c>
-      <c r="I105" s="190" t="s">
-        <v>1474</v>
+      <c r="I105" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
-      <c r="B106" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C106" s="172" t="s">
+      <c r="B106" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C106" s="179" t="s">
         <v>742</v>
       </c>
-      <c r="D106" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E106" s="174"/>
-      <c r="F106" s="175" t="s">
-        <v>1577</v>
-      </c>
-      <c r="G106" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H106" s="176">
+      <c r="D106" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E106" s="181"/>
+      <c r="F106" s="182" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G106" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H106" s="183">
         <v>14.0</v>
       </c>
-      <c r="I106" s="190" t="s">
-        <v>1474</v>
+      <c r="I106" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
-      <c r="B107" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C107" s="172" t="s">
+      <c r="B107" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C107" s="179" t="s">
         <v>743</v>
       </c>
-      <c r="D107" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E107" s="174"/>
-      <c r="F107" s="175" t="s">
-        <v>1578</v>
-      </c>
-      <c r="G107" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H107" s="176">
+      <c r="D107" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E107" s="181"/>
+      <c r="F107" s="182" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G107" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H107" s="183">
         <v>15.0</v>
       </c>
-      <c r="I107" s="190" t="s">
-        <v>1474</v>
+      <c r="I107" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
-      <c r="B108" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C108" s="172" t="s">
+      <c r="B108" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C108" s="179" t="s">
         <v>744</v>
       </c>
-      <c r="D108" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E108" s="174"/>
-      <c r="F108" s="175" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G108" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H108" s="176">
+      <c r="D108" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E108" s="181"/>
+      <c r="F108" s="182" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G108" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H108" s="183">
         <v>16.0</v>
       </c>
-      <c r="I108" s="190" t="s">
-        <v>1474</v>
+      <c r="I108" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
-      <c r="B109" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C109" s="172" t="s">
+      <c r="B109" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C109" s="179" t="s">
         <v>745</v>
       </c>
-      <c r="D109" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E109" s="174"/>
-      <c r="F109" s="175" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G109" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H109" s="176">
+      <c r="D109" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E109" s="181"/>
+      <c r="F109" s="182" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G109" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H109" s="183">
         <v>17.0</v>
       </c>
-      <c r="I109" s="190" t="s">
-        <v>1474</v>
+      <c r="I109" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
-      <c r="B110" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C110" s="172" t="s">
+      <c r="B110" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C110" s="179" t="s">
         <v>746</v>
       </c>
-      <c r="D110" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E110" s="174"/>
-      <c r="F110" s="175" t="s">
-        <v>1581</v>
-      </c>
-      <c r="G110" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H110" s="176">
+      <c r="D110" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E110" s="181"/>
+      <c r="F110" s="182" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G110" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H110" s="183">
         <v>18.0</v>
       </c>
-      <c r="I110" s="190" t="s">
-        <v>1474</v>
+      <c r="I110" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
-      <c r="B111" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C111" s="172" t="s">
+      <c r="B111" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C111" s="179" t="s">
         <v>747</v>
       </c>
-      <c r="D111" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E111" s="174"/>
-      <c r="F111" s="175" t="s">
-        <v>1582</v>
-      </c>
-      <c r="G111" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H111" s="176">
+      <c r="D111" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E111" s="181"/>
+      <c r="F111" s="182" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G111" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H111" s="183">
         <v>19.0</v>
       </c>
-      <c r="I111" s="190" t="s">
-        <v>1474</v>
+      <c r="I111" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
-      <c r="B112" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C112" s="172" t="s">
+      <c r="B112" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C112" s="179" t="s">
         <v>748</v>
       </c>
-      <c r="D112" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E112" s="174"/>
-      <c r="F112" s="175" t="s">
-        <v>1583</v>
-      </c>
-      <c r="G112" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H112" s="176">
+      <c r="D112" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E112" s="181"/>
+      <c r="F112" s="182" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G112" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H112" s="183">
         <v>20.0</v>
       </c>
-      <c r="I112" s="190" t="s">
-        <v>1474</v>
+      <c r="I112" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
-      <c r="B113" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C113" s="172" t="s">
+      <c r="B113" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C113" s="179" t="s">
         <v>749</v>
       </c>
-      <c r="D113" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E113" s="174"/>
-      <c r="F113" s="175" t="s">
-        <v>1584</v>
-      </c>
-      <c r="G113" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H113" s="176">
+      <c r="D113" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E113" s="181"/>
+      <c r="F113" s="182" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G113" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H113" s="183">
         <v>21.0</v>
       </c>
-      <c r="I113" s="190" t="s">
-        <v>1474</v>
+      <c r="I113" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
-      <c r="B114" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C114" s="172" t="s">
+      <c r="B114" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C114" s="179" t="s">
         <v>750</v>
       </c>
-      <c r="D114" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E114" s="174"/>
-      <c r="F114" s="175" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G114" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H114" s="176">
+      <c r="D114" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E114" s="181"/>
+      <c r="F114" s="182" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G114" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H114" s="183">
         <v>22.0</v>
       </c>
-      <c r="I114" s="190" t="s">
-        <v>1474</v>
+      <c r="I114" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
-      <c r="B115" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C115" s="172" t="s">
+      <c r="B115" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C115" s="179" t="s">
         <v>751</v>
       </c>
-      <c r="D115" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E115" s="174"/>
-      <c r="F115" s="175" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G115" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H115" s="176">
+      <c r="D115" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E115" s="181"/>
+      <c r="F115" s="182" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G115" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H115" s="183">
         <v>23.0</v>
       </c>
-      <c r="I115" s="190" t="s">
-        <v>1474</v>
+      <c r="I115" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
-      <c r="B116" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C116" s="172" t="s">
+      <c r="B116" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C116" s="179" t="s">
         <v>752</v>
       </c>
-      <c r="D116" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E116" s="174"/>
-      <c r="F116" s="175" t="s">
-        <v>1587</v>
-      </c>
-      <c r="G116" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H116" s="176">
+      <c r="D116" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E116" s="181"/>
+      <c r="F116" s="182" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G116" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H116" s="183">
         <v>24.0</v>
       </c>
-      <c r="I116" s="190" t="s">
-        <v>1474</v>
+      <c r="I116" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
-      <c r="B117" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C117" s="172" t="s">
+      <c r="B117" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C117" s="179" t="s">
         <v>753</v>
       </c>
-      <c r="D117" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E117" s="174"/>
-      <c r="F117" s="175" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G117" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H117" s="176">
+      <c r="D117" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E117" s="181"/>
+      <c r="F117" s="182" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G117" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H117" s="183">
         <v>25.0</v>
       </c>
-      <c r="I117" s="190" t="s">
-        <v>1474</v>
+      <c r="I117" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
-      <c r="B118" s="192" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C118" s="199" t="s">
+      <c r="B118" s="199" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C118" s="206" t="s">
         <v>754</v>
       </c>
-      <c r="D118" s="194" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E118" s="195"/>
-      <c r="F118" s="196" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G118" s="194" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H118" s="197">
+      <c r="D118" s="201" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E118" s="202"/>
+      <c r="F118" s="203" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G118" s="201" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H118" s="204">
         <v>26.0</v>
       </c>
-      <c r="I118" s="198" t="s">
-        <v>1474</v>
+      <c r="I118" s="205" t="s">
+        <v>1517</v>
       </c>
       <c r="J118" s="1"/>
     </row>
     <row r="119">
-      <c r="B119" s="171"/>
-      <c r="C119" s="177"/>
-      <c r="D119" s="173"/>
-      <c r="E119" s="178"/>
-      <c r="F119" s="179"/>
-      <c r="G119" s="173"/>
-      <c r="H119" s="180"/>
-      <c r="I119" s="171"/>
+      <c r="B119" s="178"/>
+      <c r="C119" s="184"/>
+      <c r="D119" s="180"/>
+      <c r="E119" s="185"/>
+      <c r="F119" s="186"/>
+      <c r="G119" s="180"/>
+      <c r="H119" s="187"/>
+      <c r="I119" s="178"/>
       <c r="J119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
-      <c r="B120" s="181" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C120" s="182" t="s">
+      <c r="B120" s="188" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C120" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="183" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E120" s="184" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F120" s="185" t="s">
-        <v>1591</v>
-      </c>
-      <c r="G120" s="183" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H120" s="186" t="s">
+      <c r="D120" s="190" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E120" s="191" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F120" s="192" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G120" s="190" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H120" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="I120" s="187" t="s">
-        <v>1474</v>
+      <c r="I120" s="194" t="s">
+        <v>1517</v>
       </c>
       <c r="J120" s="1"/>
     </row>
     <row r="121">
-      <c r="B121" s="188"/>
-      <c r="C121" s="177"/>
-      <c r="D121" s="173"/>
-      <c r="E121" s="178"/>
-      <c r="F121" s="179"/>
-      <c r="G121" s="173"/>
-      <c r="H121" s="180"/>
-      <c r="I121" s="190"/>
+      <c r="B121" s="195"/>
+      <c r="C121" s="184"/>
+      <c r="D121" s="180"/>
+      <c r="E121" s="185"/>
+      <c r="F121" s="186"/>
+      <c r="G121" s="180"/>
+      <c r="H121" s="187"/>
+      <c r="I121" s="197"/>
       <c r="J121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
-      <c r="B122" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C122" s="172" t="s">
+      <c r="B122" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C122" s="179" t="s">
         <v>1045</v>
       </c>
-      <c r="D122" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E122" s="174"/>
-      <c r="F122" s="175" t="s">
-        <v>1592</v>
-      </c>
-      <c r="G122" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H122" s="176">
+      <c r="D122" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E122" s="181"/>
+      <c r="F122" s="182" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G122" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H122" s="183">
         <v>1.0</v>
       </c>
-      <c r="I122" s="190" t="s">
-        <v>1474</v>
+      <c r="I122" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
-      <c r="B123" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C123" s="172" t="s">
+      <c r="B123" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C123" s="179" t="s">
         <v>1046</v>
       </c>
-      <c r="D123" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E123" s="174"/>
-      <c r="F123" s="175" t="s">
-        <v>1593</v>
-      </c>
-      <c r="G123" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H123" s="176">
+      <c r="D123" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E123" s="181"/>
+      <c r="F123" s="182" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G123" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H123" s="183">
         <v>2.0</v>
       </c>
-      <c r="I123" s="190" t="s">
-        <v>1474</v>
+      <c r="I123" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
-      <c r="B124" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C124" s="172" t="s">
+      <c r="B124" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C124" s="179" t="s">
         <v>1047</v>
       </c>
-      <c r="D124" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E124" s="174"/>
-      <c r="F124" s="175" t="s">
-        <v>1594</v>
-      </c>
-      <c r="G124" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H124" s="176">
+      <c r="D124" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E124" s="181"/>
+      <c r="F124" s="182" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G124" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H124" s="183">
         <v>3.0</v>
       </c>
-      <c r="I124" s="190" t="s">
-        <v>1474</v>
+      <c r="I124" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
-      <c r="B125" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C125" s="172" t="s">
+      <c r="B125" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C125" s="179" t="s">
         <v>1048</v>
       </c>
-      <c r="D125" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E125" s="174"/>
-      <c r="F125" s="175" t="s">
-        <v>1595</v>
-      </c>
-      <c r="G125" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H125" s="176">
+      <c r="D125" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E125" s="181"/>
+      <c r="F125" s="182" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G125" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H125" s="183">
         <v>4.0</v>
       </c>
-      <c r="I125" s="190" t="s">
-        <v>1474</v>
+      <c r="I125" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
-      <c r="B126" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C126" s="172" t="s">
+      <c r="B126" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C126" s="179" t="s">
         <v>1049</v>
       </c>
-      <c r="D126" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E126" s="174"/>
-      <c r="F126" s="175" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G126" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H126" s="176">
+      <c r="D126" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E126" s="181"/>
+      <c r="F126" s="182" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G126" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H126" s="183">
         <v>5.0</v>
       </c>
-      <c r="I126" s="190" t="s">
-        <v>1474</v>
+      <c r="I126" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
-      <c r="B127" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C127" s="172" t="s">
+      <c r="B127" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C127" s="179" t="s">
         <v>1050</v>
       </c>
-      <c r="D127" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E127" s="174"/>
-      <c r="F127" s="175" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G127" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H127" s="176">
+      <c r="D127" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E127" s="181"/>
+      <c r="F127" s="182" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G127" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H127" s="183">
         <v>6.0</v>
       </c>
-      <c r="I127" s="190" t="s">
-        <v>1474</v>
+      <c r="I127" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
-      <c r="B128" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C128" s="172" t="s">
+      <c r="B128" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C128" s="179" t="s">
         <v>1051</v>
       </c>
-      <c r="D128" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E128" s="174"/>
-      <c r="F128" s="175" t="s">
-        <v>1598</v>
-      </c>
-      <c r="G128" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H128" s="176">
+      <c r="D128" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E128" s="181"/>
+      <c r="F128" s="182" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G128" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H128" s="183">
         <v>7.0</v>
       </c>
-      <c r="I128" s="190" t="s">
-        <v>1474</v>
+      <c r="I128" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
-      <c r="B129" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C129" s="172" t="s">
+      <c r="B129" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C129" s="179" t="s">
         <v>1052</v>
       </c>
-      <c r="D129" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E129" s="174"/>
-      <c r="F129" s="175" t="s">
-        <v>1599</v>
-      </c>
-      <c r="G129" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H129" s="176">
+      <c r="D129" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E129" s="181"/>
+      <c r="F129" s="182" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G129" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H129" s="183">
         <v>8.0</v>
       </c>
-      <c r="I129" s="190" t="s">
-        <v>1474</v>
+      <c r="I129" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
-      <c r="B130" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C130" s="172" t="s">
+      <c r="B130" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C130" s="179" t="s">
         <v>1053</v>
       </c>
-      <c r="D130" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E130" s="174"/>
-      <c r="F130" s="175" t="s">
-        <v>1600</v>
-      </c>
-      <c r="G130" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H130" s="176">
+      <c r="D130" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E130" s="181"/>
+      <c r="F130" s="182" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G130" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H130" s="183">
         <v>9.0</v>
       </c>
-      <c r="I130" s="190" t="s">
-        <v>1474</v>
+      <c r="I130" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
-      <c r="B131" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C131" s="172" t="s">
+      <c r="B131" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C131" s="179" t="s">
         <v>1054</v>
       </c>
-      <c r="D131" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E131" s="174"/>
-      <c r="F131" s="175" t="s">
-        <v>1601</v>
-      </c>
-      <c r="G131" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H131" s="176">
+      <c r="D131" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E131" s="181"/>
+      <c r="F131" s="182" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G131" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H131" s="183">
         <v>10.0</v>
       </c>
-      <c r="I131" s="190" t="s">
-        <v>1474</v>
+      <c r="I131" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
-      <c r="B132" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C132" s="172" t="s">
+      <c r="B132" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C132" s="179" t="s">
         <v>1055</v>
       </c>
-      <c r="D132" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E132" s="174"/>
-      <c r="F132" s="175" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G132" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H132" s="176">
+      <c r="D132" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E132" s="181"/>
+      <c r="F132" s="182" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G132" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H132" s="183">
         <v>11.0</v>
       </c>
-      <c r="I132" s="190" t="s">
-        <v>1474</v>
+      <c r="I132" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
-      <c r="B133" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C133" s="172" t="s">
+      <c r="B133" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C133" s="179" t="s">
         <v>1056</v>
       </c>
-      <c r="D133" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E133" s="174"/>
-      <c r="F133" s="175" t="s">
-        <v>1603</v>
-      </c>
-      <c r="G133" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H133" s="176">
+      <c r="D133" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E133" s="181"/>
+      <c r="F133" s="182" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G133" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H133" s="183">
         <v>12.0</v>
       </c>
-      <c r="I133" s="190" t="s">
-        <v>1474</v>
+      <c r="I133" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
-      <c r="B134" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C134" s="172" t="s">
+      <c r="B134" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C134" s="179" t="s">
         <v>1057</v>
       </c>
-      <c r="D134" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E134" s="174"/>
-      <c r="F134" s="175" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G134" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H134" s="176">
+      <c r="D134" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E134" s="181"/>
+      <c r="F134" s="182" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G134" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H134" s="183">
         <v>13.0</v>
       </c>
-      <c r="I134" s="190" t="s">
-        <v>1474</v>
+      <c r="I134" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
-      <c r="B135" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C135" s="172" t="s">
+      <c r="B135" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C135" s="179" t="s">
         <v>1058</v>
       </c>
-      <c r="D135" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E135" s="174"/>
-      <c r="F135" s="175" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G135" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H135" s="176">
+      <c r="D135" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E135" s="181"/>
+      <c r="F135" s="182" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G135" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H135" s="183">
         <v>14.0</v>
       </c>
-      <c r="I135" s="190" t="s">
-        <v>1474</v>
+      <c r="I135" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
-      <c r="B136" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C136" s="172" t="s">
+      <c r="B136" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C136" s="179" t="s">
         <v>1059</v>
       </c>
-      <c r="D136" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E136" s="174"/>
-      <c r="F136" s="175" t="s">
-        <v>1606</v>
-      </c>
-      <c r="G136" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H136" s="176">
+      <c r="D136" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E136" s="181"/>
+      <c r="F136" s="182" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G136" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H136" s="183">
         <v>15.0</v>
       </c>
-      <c r="I136" s="190" t="s">
-        <v>1474</v>
+      <c r="I136" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
-      <c r="B137" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C137" s="172" t="s">
+      <c r="B137" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C137" s="179" t="s">
         <v>1060</v>
       </c>
-      <c r="D137" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E137" s="174"/>
-      <c r="F137" s="175" t="s">
-        <v>1607</v>
-      </c>
-      <c r="G137" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H137" s="176">
+      <c r="D137" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E137" s="181"/>
+      <c r="F137" s="182" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G137" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H137" s="183">
         <v>16.0</v>
       </c>
-      <c r="I137" s="190" t="s">
-        <v>1474</v>
+      <c r="I137" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
-      <c r="B138" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C138" s="172" t="s">
+      <c r="B138" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C138" s="179" t="s">
         <v>1061</v>
       </c>
-      <c r="D138" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E138" s="174"/>
-      <c r="F138" s="175" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G138" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H138" s="176">
+      <c r="D138" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E138" s="181"/>
+      <c r="F138" s="182" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G138" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H138" s="183">
         <v>17.0</v>
       </c>
-      <c r="I138" s="190" t="s">
-        <v>1474</v>
+      <c r="I138" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
-      <c r="B139" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C139" s="172" t="s">
+      <c r="B139" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C139" s="179" t="s">
         <v>1062</v>
       </c>
-      <c r="D139" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E139" s="174"/>
-      <c r="F139" s="175" t="s">
-        <v>1609</v>
-      </c>
-      <c r="G139" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H139" s="176">
+      <c r="D139" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E139" s="181"/>
+      <c r="F139" s="182" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G139" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H139" s="183">
         <v>18.0</v>
       </c>
-      <c r="I139" s="190" t="s">
-        <v>1474</v>
+      <c r="I139" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
-      <c r="B140" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C140" s="172" t="s">
+      <c r="B140" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C140" s="179" t="s">
         <v>1063</v>
       </c>
-      <c r="D140" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E140" s="174"/>
-      <c r="F140" s="175" t="s">
-        <v>1610</v>
-      </c>
-      <c r="G140" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H140" s="176">
+      <c r="D140" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E140" s="181"/>
+      <c r="F140" s="182" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G140" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H140" s="183">
         <v>19.0</v>
       </c>
-      <c r="I140" s="190" t="s">
-        <v>1474</v>
+      <c r="I140" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
-      <c r="B141" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C141" s="172" t="s">
+      <c r="B141" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C141" s="179" t="s">
         <v>1064</v>
       </c>
-      <c r="D141" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E141" s="174"/>
-      <c r="F141" s="175" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G141" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H141" s="176">
+      <c r="D141" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E141" s="181"/>
+      <c r="F141" s="182" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G141" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H141" s="183">
         <v>20.0</v>
       </c>
-      <c r="I141" s="190" t="s">
-        <v>1474</v>
+      <c r="I141" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
-      <c r="B142" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C142" s="172" t="s">
+      <c r="B142" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C142" s="179" t="s">
         <v>1065</v>
       </c>
-      <c r="D142" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E142" s="174"/>
-      <c r="F142" s="175" t="s">
-        <v>1612</v>
-      </c>
-      <c r="G142" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H142" s="176">
+      <c r="D142" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E142" s="181"/>
+      <c r="F142" s="182" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G142" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H142" s="183">
         <v>21.0</v>
       </c>
-      <c r="I142" s="190" t="s">
-        <v>1474</v>
+      <c r="I142" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
-      <c r="B143" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C143" s="172" t="s">
+      <c r="B143" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C143" s="179" t="s">
         <v>1066</v>
       </c>
-      <c r="D143" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E143" s="174"/>
-      <c r="F143" s="175" t="s">
-        <v>1613</v>
-      </c>
-      <c r="G143" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H143" s="176">
+      <c r="D143" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E143" s="181"/>
+      <c r="F143" s="182" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G143" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H143" s="183">
         <v>22.0</v>
       </c>
-      <c r="I143" s="190" t="s">
-        <v>1474</v>
+      <c r="I143" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
-      <c r="B144" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C144" s="172" t="s">
+      <c r="B144" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C144" s="179" t="s">
         <v>1067</v>
       </c>
-      <c r="D144" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E144" s="174"/>
-      <c r="F144" s="175" t="s">
-        <v>1614</v>
-      </c>
-      <c r="G144" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H144" s="176">
+      <c r="D144" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E144" s="181"/>
+      <c r="F144" s="182" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G144" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H144" s="183">
         <v>23.0</v>
       </c>
-      <c r="I144" s="190" t="s">
-        <v>1474</v>
+      <c r="I144" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
-      <c r="B145" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C145" s="172" t="s">
+      <c r="B145" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C145" s="179" t="s">
         <v>1068</v>
       </c>
-      <c r="D145" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E145" s="174"/>
-      <c r="F145" s="175" t="s">
-        <v>1615</v>
-      </c>
-      <c r="G145" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H145" s="176">
+      <c r="D145" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E145" s="181"/>
+      <c r="F145" s="182" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G145" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H145" s="183">
         <v>24.0</v>
       </c>
-      <c r="I145" s="190" t="s">
-        <v>1474</v>
+      <c r="I145" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
-      <c r="B146" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C146" s="172" t="s">
+      <c r="B146" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C146" s="179" t="s">
         <v>1069</v>
       </c>
-      <c r="D146" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E146" s="174"/>
-      <c r="F146" s="175" t="s">
-        <v>1616</v>
-      </c>
-      <c r="G146" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H146" s="176">
+      <c r="D146" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E146" s="181"/>
+      <c r="F146" s="182" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G146" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H146" s="183">
         <v>25.0</v>
       </c>
-      <c r="I146" s="190" t="s">
-        <v>1474</v>
+      <c r="I146" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
-      <c r="B147" s="192" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C147" s="199" t="s">
+      <c r="B147" s="199" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C147" s="206" t="s">
         <v>1070</v>
       </c>
-      <c r="D147" s="194" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E147" s="195"/>
-      <c r="F147" s="196" t="s">
-        <v>1617</v>
-      </c>
-      <c r="G147" s="194" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H147" s="197">
+      <c r="D147" s="201" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E147" s="202"/>
+      <c r="F147" s="203" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G147" s="201" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H147" s="204">
         <v>26.0</v>
       </c>
-      <c r="I147" s="198" t="s">
-        <v>1474</v>
+      <c r="I147" s="205" t="s">
+        <v>1517</v>
       </c>
       <c r="J147" s="1"/>
     </row>
     <row r="148">
-      <c r="B148" s="171"/>
-      <c r="C148" s="177"/>
-      <c r="D148" s="173"/>
-      <c r="E148" s="178"/>
-      <c r="F148" s="179"/>
-      <c r="G148" s="173"/>
-      <c r="H148" s="180"/>
-      <c r="I148" s="171"/>
+      <c r="B148" s="178"/>
+      <c r="C148" s="184"/>
+      <c r="D148" s="180"/>
+      <c r="E148" s="185"/>
+      <c r="F148" s="186"/>
+      <c r="G148" s="180"/>
+      <c r="H148" s="187"/>
+      <c r="I148" s="178"/>
       <c r="J148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
-      <c r="B149" s="181" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C149" s="182" t="s">
+      <c r="B149" s="188" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C149" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="183" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E149" s="184" t="s">
-        <v>1618</v>
-      </c>
-      <c r="F149" s="185" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G149" s="183" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H149" s="186" t="s">
+      <c r="D149" s="190" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E149" s="191" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F149" s="192" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G149" s="190" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H149" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="I149" s="187" t="s">
-        <v>1474</v>
+      <c r="I149" s="194" t="s">
+        <v>1517</v>
       </c>
       <c r="J149" s="1"/>
     </row>
     <row r="150">
-      <c r="B150" s="188"/>
-      <c r="C150" s="177"/>
-      <c r="D150" s="173"/>
-      <c r="E150" s="178"/>
-      <c r="F150" s="179"/>
-      <c r="G150" s="173"/>
-      <c r="H150" s="180"/>
-      <c r="I150" s="190"/>
+      <c r="B150" s="195"/>
+      <c r="C150" s="184"/>
+      <c r="D150" s="180"/>
+      <c r="E150" s="185"/>
+      <c r="F150" s="186"/>
+      <c r="G150" s="180"/>
+      <c r="H150" s="187"/>
+      <c r="I150" s="197"/>
       <c r="J150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
-      <c r="B151" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C151" s="172" t="s">
+      <c r="B151" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C151" s="179" t="s">
         <v>1269</v>
       </c>
-      <c r="D151" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E151" s="174"/>
-      <c r="F151" s="175" t="s">
-        <v>1620</v>
-      </c>
-      <c r="G151" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H151" s="176">
+      <c r="D151" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E151" s="181"/>
+      <c r="F151" s="182" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G151" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H151" s="183">
         <v>1.0</v>
       </c>
-      <c r="I151" s="190" t="s">
-        <v>1474</v>
+      <c r="I151" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
-      <c r="B152" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C152" s="172" t="s">
+      <c r="B152" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C152" s="179" t="s">
         <v>1270</v>
       </c>
-      <c r="D152" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E152" s="174"/>
-      <c r="F152" s="175" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G152" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H152" s="176">
+      <c r="D152" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E152" s="181"/>
+      <c r="F152" s="182" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G152" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H152" s="183">
         <v>2.0</v>
       </c>
-      <c r="I152" s="190" t="s">
-        <v>1474</v>
+      <c r="I152" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
-      <c r="B153" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C153" s="172" t="s">
+      <c r="B153" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C153" s="179" t="s">
         <v>1271</v>
       </c>
-      <c r="D153" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E153" s="174"/>
-      <c r="F153" s="175" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G153" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H153" s="176">
+      <c r="D153" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E153" s="181"/>
+      <c r="F153" s="182" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G153" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H153" s="183">
         <v>3.0</v>
       </c>
-      <c r="I153" s="190" t="s">
-        <v>1474</v>
+      <c r="I153" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
-      <c r="B154" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C154" s="172" t="s">
+      <c r="B154" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C154" s="179" t="s">
         <v>1272</v>
       </c>
-      <c r="D154" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E154" s="174"/>
-      <c r="F154" s="175" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G154" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H154" s="176">
+      <c r="D154" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E154" s="181"/>
+      <c r="F154" s="182" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G154" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H154" s="183">
         <v>4.0</v>
       </c>
-      <c r="I154" s="190" t="s">
-        <v>1474</v>
+      <c r="I154" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
-      <c r="B155" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C155" s="172" t="s">
+      <c r="B155" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C155" s="179" t="s">
         <v>1273</v>
       </c>
-      <c r="D155" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E155" s="174"/>
-      <c r="F155" s="175" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G155" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H155" s="176">
+      <c r="D155" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E155" s="181"/>
+      <c r="F155" s="182" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G155" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H155" s="183">
         <v>5.0</v>
       </c>
-      <c r="I155" s="190" t="s">
-        <v>1474</v>
+      <c r="I155" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
-      <c r="B156" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C156" s="172" t="s">
+      <c r="B156" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C156" s="179" t="s">
         <v>1274</v>
       </c>
-      <c r="D156" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E156" s="174"/>
-      <c r="F156" s="175" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G156" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H156" s="176">
+      <c r="D156" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E156" s="181"/>
+      <c r="F156" s="182" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G156" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H156" s="183">
         <v>6.0</v>
       </c>
-      <c r="I156" s="190" t="s">
-        <v>1474</v>
+      <c r="I156" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
-      <c r="B157" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C157" s="172" t="s">
+      <c r="B157" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C157" s="179" t="s">
         <v>1275</v>
       </c>
-      <c r="D157" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E157" s="174"/>
-      <c r="F157" s="175" t="s">
-        <v>1626</v>
-      </c>
-      <c r="G157" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H157" s="176">
+      <c r="D157" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E157" s="181"/>
+      <c r="F157" s="182" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G157" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H157" s="183">
         <v>7.0</v>
       </c>
-      <c r="I157" s="190" t="s">
-        <v>1474</v>
+      <c r="I157" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
-      <c r="B158" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C158" s="172" t="s">
+      <c r="B158" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C158" s="179" t="s">
         <v>1276</v>
       </c>
-      <c r="D158" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E158" s="174"/>
-      <c r="F158" s="175" t="s">
-        <v>1627</v>
-      </c>
-      <c r="G158" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H158" s="176">
+      <c r="D158" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E158" s="181"/>
+      <c r="F158" s="182" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G158" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H158" s="183">
         <v>8.0</v>
       </c>
-      <c r="I158" s="190" t="s">
-        <v>1474</v>
+      <c r="I158" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
-      <c r="B159" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C159" s="172" t="s">
+      <c r="B159" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C159" s="179" t="s">
         <v>1277</v>
       </c>
-      <c r="D159" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E159" s="174"/>
-      <c r="F159" s="175" t="s">
-        <v>1628</v>
-      </c>
-      <c r="G159" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H159" s="176">
+      <c r="D159" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E159" s="181"/>
+      <c r="F159" s="182" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G159" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H159" s="183">
         <v>9.0</v>
       </c>
-      <c r="I159" s="190" t="s">
-        <v>1474</v>
+      <c r="I159" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
-      <c r="B160" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C160" s="172" t="s">
+      <c r="B160" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C160" s="179" t="s">
         <v>1278</v>
       </c>
-      <c r="D160" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E160" s="174"/>
-      <c r="F160" s="175" t="s">
-        <v>1629</v>
-      </c>
-      <c r="G160" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H160" s="176">
+      <c r="D160" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E160" s="181"/>
+      <c r="F160" s="182" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G160" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H160" s="183">
         <v>10.0</v>
       </c>
-      <c r="I160" s="190" t="s">
-        <v>1474</v>
+      <c r="I160" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
-      <c r="B161" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C161" s="172" t="s">
+      <c r="B161" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C161" s="179" t="s">
         <v>1279</v>
       </c>
-      <c r="D161" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E161" s="174"/>
-      <c r="F161" s="175" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G161" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H161" s="176">
+      <c r="D161" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E161" s="181"/>
+      <c r="F161" s="182" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G161" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H161" s="183">
         <v>11.0</v>
       </c>
-      <c r="I161" s="190" t="s">
-        <v>1474</v>
+      <c r="I161" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
-      <c r="B162" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C162" s="172" t="s">
+      <c r="B162" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C162" s="179" t="s">
         <v>1280</v>
       </c>
-      <c r="D162" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E162" s="174"/>
-      <c r="F162" s="175" t="s">
-        <v>1631</v>
-      </c>
-      <c r="G162" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H162" s="176">
+      <c r="D162" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E162" s="181"/>
+      <c r="F162" s="182" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G162" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H162" s="183">
         <v>12.0</v>
       </c>
-      <c r="I162" s="190" t="s">
-        <v>1474</v>
+      <c r="I162" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
-      <c r="B163" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C163" s="172" t="s">
+      <c r="B163" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C163" s="179" t="s">
         <v>1281</v>
       </c>
-      <c r="D163" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E163" s="174"/>
-      <c r="F163" s="175" t="s">
-        <v>1632</v>
-      </c>
-      <c r="G163" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H163" s="176">
+      <c r="D163" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E163" s="181"/>
+      <c r="F163" s="182" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G163" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H163" s="183">
         <v>13.0</v>
       </c>
-      <c r="I163" s="190" t="s">
-        <v>1474</v>
+      <c r="I163" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
-      <c r="B164" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C164" s="172" t="s">
+      <c r="B164" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C164" s="179" t="s">
         <v>1282</v>
       </c>
-      <c r="D164" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E164" s="174"/>
-      <c r="F164" s="175" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G164" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H164" s="176">
+      <c r="D164" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E164" s="181"/>
+      <c r="F164" s="182" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G164" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H164" s="183">
         <v>14.0</v>
       </c>
-      <c r="I164" s="190" t="s">
-        <v>1474</v>
+      <c r="I164" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
-      <c r="B165" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C165" s="172" t="s">
+      <c r="B165" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C165" s="179" t="s">
         <v>1283</v>
       </c>
-      <c r="D165" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E165" s="174"/>
-      <c r="F165" s="175" t="s">
-        <v>1634</v>
-      </c>
-      <c r="G165" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H165" s="176">
+      <c r="D165" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E165" s="181"/>
+      <c r="F165" s="182" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G165" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H165" s="183">
         <v>15.0</v>
       </c>
-      <c r="I165" s="190" t="s">
-        <v>1474</v>
+      <c r="I165" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
-      <c r="B166" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C166" s="172" t="s">
+      <c r="B166" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C166" s="179" t="s">
         <v>1284</v>
       </c>
-      <c r="D166" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E166" s="174"/>
-      <c r="F166" s="175" t="s">
-        <v>1635</v>
-      </c>
-      <c r="G166" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H166" s="176">
+      <c r="D166" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E166" s="181"/>
+      <c r="F166" s="182" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G166" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H166" s="183">
         <v>16.0</v>
       </c>
-      <c r="I166" s="190" t="s">
-        <v>1474</v>
+      <c r="I166" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
-      <c r="B167" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C167" s="172" t="s">
+      <c r="B167" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C167" s="179" t="s">
         <v>1285</v>
       </c>
-      <c r="D167" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E167" s="174"/>
-      <c r="F167" s="175" t="s">
-        <v>1636</v>
-      </c>
-      <c r="G167" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H167" s="176">
+      <c r="D167" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E167" s="181"/>
+      <c r="F167" s="182" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G167" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H167" s="183">
         <v>17.0</v>
       </c>
-      <c r="I167" s="190" t="s">
-        <v>1474</v>
+      <c r="I167" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
-      <c r="B168" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C168" s="172" t="s">
+      <c r="B168" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C168" s="179" t="s">
         <v>1286</v>
       </c>
-      <c r="D168" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E168" s="174"/>
-      <c r="F168" s="175" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G168" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H168" s="176">
+      <c r="D168" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E168" s="181"/>
+      <c r="F168" s="182" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G168" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H168" s="183">
         <v>18.0</v>
       </c>
-      <c r="I168" s="190" t="s">
-        <v>1474</v>
+      <c r="I168" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
-      <c r="B169" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C169" s="172" t="s">
+      <c r="B169" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C169" s="179" t="s">
         <v>1287</v>
       </c>
-      <c r="D169" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E169" s="174"/>
-      <c r="F169" s="175" t="s">
-        <v>1638</v>
-      </c>
-      <c r="G169" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H169" s="176">
+      <c r="D169" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E169" s="181"/>
+      <c r="F169" s="182" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G169" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H169" s="183">
         <v>19.0</v>
       </c>
-      <c r="I169" s="190" t="s">
-        <v>1474</v>
+      <c r="I169" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
-      <c r="B170" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C170" s="172" t="s">
+      <c r="B170" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C170" s="179" t="s">
         <v>1288</v>
       </c>
-      <c r="D170" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E170" s="174"/>
-      <c r="F170" s="175" t="s">
-        <v>1639</v>
-      </c>
-      <c r="G170" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H170" s="176">
+      <c r="D170" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E170" s="181"/>
+      <c r="F170" s="182" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G170" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H170" s="183">
         <v>20.0</v>
       </c>
-      <c r="I170" s="190" t="s">
-        <v>1474</v>
+      <c r="I170" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
-      <c r="B171" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C171" s="172" t="s">
+      <c r="B171" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C171" s="179" t="s">
         <v>1289</v>
       </c>
-      <c r="D171" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E171" s="174"/>
-      <c r="F171" s="175" t="s">
-        <v>1640</v>
-      </c>
-      <c r="G171" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H171" s="176">
+      <c r="D171" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E171" s="181"/>
+      <c r="F171" s="182" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G171" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H171" s="183">
         <v>21.0</v>
       </c>
-      <c r="I171" s="190" t="s">
-        <v>1474</v>
+      <c r="I171" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
-      <c r="B172" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C172" s="172" t="s">
+      <c r="B172" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C172" s="179" t="s">
         <v>1290</v>
       </c>
-      <c r="D172" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E172" s="174"/>
-      <c r="F172" s="175" t="s">
-        <v>1641</v>
-      </c>
-      <c r="G172" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H172" s="176">
+      <c r="D172" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E172" s="181"/>
+      <c r="F172" s="182" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G172" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H172" s="183">
         <v>22.0</v>
       </c>
-      <c r="I172" s="190" t="s">
-        <v>1474</v>
+      <c r="I172" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
-      <c r="B173" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C173" s="172" t="s">
+      <c r="B173" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C173" s="179" t="s">
         <v>1291</v>
       </c>
-      <c r="D173" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E173" s="174"/>
-      <c r="F173" s="175" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G173" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H173" s="176">
+      <c r="D173" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E173" s="181"/>
+      <c r="F173" s="182" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G173" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H173" s="183">
         <v>23.0</v>
       </c>
-      <c r="I173" s="190" t="s">
-        <v>1474</v>
+      <c r="I173" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
-      <c r="B174" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C174" s="172" t="s">
+      <c r="B174" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C174" s="179" t="s">
         <v>1292</v>
       </c>
-      <c r="D174" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E174" s="174"/>
-      <c r="F174" s="175" t="s">
-        <v>1643</v>
-      </c>
-      <c r="G174" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H174" s="176">
+      <c r="D174" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E174" s="181"/>
+      <c r="F174" s="182" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G174" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H174" s="183">
         <v>24.0</v>
       </c>
-      <c r="I174" s="190" t="s">
-        <v>1474</v>
+      <c r="I174" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
-      <c r="B175" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C175" s="172" t="s">
+      <c r="B175" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C175" s="179" t="s">
         <v>1293</v>
       </c>
-      <c r="D175" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E175" s="174"/>
-      <c r="F175" s="175" t="s">
-        <v>1644</v>
-      </c>
-      <c r="G175" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H175" s="176">
+      <c r="D175" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E175" s="181"/>
+      <c r="F175" s="182" t="s">
+        <v>1687</v>
+      </c>
+      <c r="G175" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H175" s="183">
         <v>25.0</v>
       </c>
-      <c r="I175" s="190" t="s">
-        <v>1474</v>
+      <c r="I175" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
-      <c r="B176" s="192" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C176" s="199" t="s">
+      <c r="B176" s="199" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C176" s="206" t="s">
         <v>1294</v>
       </c>
-      <c r="D176" s="194" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E176" s="195"/>
-      <c r="F176" s="196" t="s">
-        <v>1645</v>
-      </c>
-      <c r="G176" s="194" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H176" s="197">
+      <c r="D176" s="201" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E176" s="202"/>
+      <c r="F176" s="203" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G176" s="201" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H176" s="204">
         <v>26.0</v>
       </c>
-      <c r="I176" s="198" t="s">
-        <v>1474</v>
+      <c r="I176" s="205" t="s">
+        <v>1517</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -27145,717 +27407,717 @@
     </row>
     <row r="178">
       <c r="A178" s="1"/>
-      <c r="B178" s="181" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C178" s="182" t="s">
+      <c r="B178" s="188" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C178" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="D178" s="183" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E178" s="184" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F178" s="185" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G178" s="183" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H178" s="186" t="s">
+      <c r="D178" s="190" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E178" s="191" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F178" s="192" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G178" s="190" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H178" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="I178" s="187" t="s">
-        <v>1474</v>
+      <c r="I178" s="194" t="s">
+        <v>1517</v>
       </c>
       <c r="J178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
-      <c r="B179" s="188"/>
-      <c r="C179" s="177"/>
-      <c r="D179" s="173"/>
-      <c r="E179" s="178"/>
-      <c r="F179" s="179"/>
-      <c r="G179" s="173"/>
-      <c r="H179" s="180"/>
-      <c r="I179" s="190"/>
+      <c r="B179" s="195"/>
+      <c r="C179" s="184"/>
+      <c r="D179" s="180"/>
+      <c r="E179" s="185"/>
+      <c r="F179" s="186"/>
+      <c r="G179" s="180"/>
+      <c r="H179" s="187"/>
+      <c r="I179" s="197"/>
       <c r="J179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
-      <c r="B180" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C180" s="172" t="s">
+      <c r="B180" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C180" s="179" t="s">
         <v>1424</v>
       </c>
-      <c r="D180" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E180" s="174"/>
-      <c r="F180" s="175" t="s">
-        <v>1648</v>
-      </c>
-      <c r="G180" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H180" s="176">
+      <c r="D180" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E180" s="181"/>
+      <c r="F180" s="182" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G180" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H180" s="183">
         <v>1.0</v>
       </c>
-      <c r="I180" s="190" t="s">
-        <v>1474</v>
+      <c r="I180" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
-      <c r="B181" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C181" s="172" t="s">
+      <c r="B181" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C181" s="179" t="s">
         <v>1425</v>
       </c>
-      <c r="D181" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E181" s="174"/>
-      <c r="F181" s="175" t="s">
-        <v>1649</v>
-      </c>
-      <c r="G181" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H181" s="176">
+      <c r="D181" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E181" s="181"/>
+      <c r="F181" s="182" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G181" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H181" s="183">
         <v>2.0</v>
       </c>
-      <c r="I181" s="190" t="s">
-        <v>1474</v>
+      <c r="I181" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
-      <c r="B182" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C182" s="172" t="s">
+      <c r="B182" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C182" s="179" t="s">
         <v>1426</v>
       </c>
-      <c r="D182" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E182" s="174"/>
-      <c r="F182" s="175" t="s">
-        <v>1650</v>
-      </c>
-      <c r="G182" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H182" s="176">
+      <c r="D182" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E182" s="181"/>
+      <c r="F182" s="182" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G182" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H182" s="183">
         <v>3.0</v>
       </c>
-      <c r="I182" s="190" t="s">
-        <v>1474</v>
+      <c r="I182" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
-      <c r="B183" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C183" s="172" t="s">
+      <c r="B183" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C183" s="179" t="s">
         <v>1427</v>
       </c>
-      <c r="D183" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E183" s="174"/>
-      <c r="F183" s="175" t="s">
-        <v>1651</v>
-      </c>
-      <c r="G183" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H183" s="176">
+      <c r="D183" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E183" s="181"/>
+      <c r="F183" s="182" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G183" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H183" s="183">
         <v>4.0</v>
       </c>
-      <c r="I183" s="190" t="s">
-        <v>1474</v>
+      <c r="I183" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
-      <c r="B184" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C184" s="172" t="s">
+      <c r="B184" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C184" s="179" t="s">
         <v>1428</v>
       </c>
-      <c r="D184" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E184" s="174"/>
-      <c r="F184" s="175" t="s">
-        <v>1652</v>
-      </c>
-      <c r="G184" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H184" s="176">
+      <c r="D184" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E184" s="181"/>
+      <c r="F184" s="182" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G184" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H184" s="183">
         <v>5.0</v>
       </c>
-      <c r="I184" s="190" t="s">
-        <v>1474</v>
+      <c r="I184" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
-      <c r="B185" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C185" s="172" t="s">
+      <c r="B185" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C185" s="179" t="s">
         <v>1429</v>
       </c>
-      <c r="D185" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E185" s="174"/>
-      <c r="F185" s="175" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G185" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H185" s="176">
+      <c r="D185" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E185" s="181"/>
+      <c r="F185" s="182" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G185" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H185" s="183">
         <v>6.0</v>
       </c>
-      <c r="I185" s="190" t="s">
-        <v>1474</v>
+      <c r="I185" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
-      <c r="B186" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C186" s="172" t="s">
+      <c r="B186" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C186" s="179" t="s">
         <v>1430</v>
       </c>
-      <c r="D186" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E186" s="174"/>
-      <c r="F186" s="175" t="s">
-        <v>1654</v>
-      </c>
-      <c r="G186" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H186" s="176">
+      <c r="D186" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E186" s="181"/>
+      <c r="F186" s="182" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G186" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H186" s="183">
         <v>7.0</v>
       </c>
-      <c r="I186" s="190" t="s">
-        <v>1474</v>
+      <c r="I186" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
-      <c r="B187" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C187" s="172" t="s">
+      <c r="B187" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C187" s="179" t="s">
         <v>1431</v>
       </c>
-      <c r="D187" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E187" s="174"/>
-      <c r="F187" s="175" t="s">
-        <v>1655</v>
-      </c>
-      <c r="G187" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H187" s="176">
+      <c r="D187" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E187" s="181"/>
+      <c r="F187" s="182" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G187" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H187" s="183">
         <v>8.0</v>
       </c>
-      <c r="I187" s="190" t="s">
-        <v>1474</v>
+      <c r="I187" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
-      <c r="B188" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C188" s="172" t="s">
+      <c r="B188" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C188" s="179" t="s">
         <v>1432</v>
       </c>
-      <c r="D188" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E188" s="174"/>
-      <c r="F188" s="175" t="s">
-        <v>1656</v>
-      </c>
-      <c r="G188" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H188" s="176">
+      <c r="D188" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E188" s="181"/>
+      <c r="F188" s="182" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G188" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H188" s="183">
         <v>9.0</v>
       </c>
-      <c r="I188" s="190" t="s">
-        <v>1474</v>
+      <c r="I188" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
-      <c r="B189" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C189" s="172" t="s">
+      <c r="B189" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C189" s="179" t="s">
         <v>1433</v>
       </c>
-      <c r="D189" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E189" s="174"/>
-      <c r="F189" s="175" t="s">
-        <v>1657</v>
-      </c>
-      <c r="G189" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H189" s="176">
+      <c r="D189" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E189" s="181"/>
+      <c r="F189" s="182" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G189" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H189" s="183">
         <v>10.0</v>
       </c>
-      <c r="I189" s="190" t="s">
-        <v>1474</v>
+      <c r="I189" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
-      <c r="B190" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C190" s="172" t="s">
+      <c r="B190" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C190" s="179" t="s">
         <v>1434</v>
       </c>
-      <c r="D190" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E190" s="174"/>
-      <c r="F190" s="175" t="s">
-        <v>1658</v>
-      </c>
-      <c r="G190" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H190" s="176">
+      <c r="D190" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E190" s="181"/>
+      <c r="F190" s="182" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G190" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H190" s="183">
         <v>11.0</v>
       </c>
-      <c r="I190" s="190" t="s">
-        <v>1474</v>
+      <c r="I190" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
-      <c r="B191" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C191" s="172" t="s">
+      <c r="B191" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C191" s="179" t="s">
         <v>1435</v>
       </c>
-      <c r="D191" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E191" s="174"/>
-      <c r="F191" s="175" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G191" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H191" s="176">
+      <c r="D191" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E191" s="181"/>
+      <c r="F191" s="182" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G191" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H191" s="183">
         <v>12.0</v>
       </c>
-      <c r="I191" s="190" t="s">
-        <v>1474</v>
+      <c r="I191" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
-      <c r="B192" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C192" s="172" t="s">
+      <c r="B192" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C192" s="179" t="s">
         <v>1436</v>
       </c>
-      <c r="D192" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E192" s="174"/>
-      <c r="F192" s="175" t="s">
-        <v>1660</v>
-      </c>
-      <c r="G192" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H192" s="176">
+      <c r="D192" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E192" s="181"/>
+      <c r="F192" s="182" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G192" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H192" s="183">
         <v>13.0</v>
       </c>
-      <c r="I192" s="190" t="s">
-        <v>1474</v>
+      <c r="I192" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
-      <c r="B193" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C193" s="172" t="s">
+      <c r="B193" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C193" s="179" t="s">
         <v>1437</v>
       </c>
-      <c r="D193" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E193" s="174"/>
-      <c r="F193" s="175" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G193" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H193" s="176">
+      <c r="D193" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E193" s="181"/>
+      <c r="F193" s="182" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G193" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H193" s="183">
         <v>14.0</v>
       </c>
-      <c r="I193" s="190" t="s">
-        <v>1474</v>
+      <c r="I193" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
-      <c r="B194" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C194" s="172" t="s">
+      <c r="B194" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C194" s="179" t="s">
         <v>1438</v>
       </c>
-      <c r="D194" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E194" s="174"/>
-      <c r="F194" s="175" t="s">
-        <v>1662</v>
-      </c>
-      <c r="G194" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H194" s="176">
+      <c r="D194" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E194" s="181"/>
+      <c r="F194" s="182" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G194" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H194" s="183">
         <v>15.0</v>
       </c>
-      <c r="I194" s="190" t="s">
-        <v>1474</v>
+      <c r="I194" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
-      <c r="B195" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C195" s="172" t="s">
+      <c r="B195" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C195" s="179" t="s">
         <v>1439</v>
       </c>
-      <c r="D195" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E195" s="174"/>
-      <c r="F195" s="175" t="s">
-        <v>1663</v>
-      </c>
-      <c r="G195" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H195" s="176">
+      <c r="D195" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E195" s="181"/>
+      <c r="F195" s="182" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G195" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H195" s="183">
         <v>16.0</v>
       </c>
-      <c r="I195" s="190" t="s">
-        <v>1474</v>
+      <c r="I195" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
-      <c r="B196" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C196" s="172" t="s">
+      <c r="B196" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C196" s="179" t="s">
         <v>1440</v>
       </c>
-      <c r="D196" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E196" s="174"/>
-      <c r="F196" s="175" t="s">
-        <v>1664</v>
-      </c>
-      <c r="G196" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H196" s="176">
+      <c r="D196" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E196" s="181"/>
+      <c r="F196" s="182" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G196" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H196" s="183">
         <v>17.0</v>
       </c>
-      <c r="I196" s="190" t="s">
-        <v>1474</v>
+      <c r="I196" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
-      <c r="B197" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C197" s="172" t="s">
+      <c r="B197" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C197" s="179" t="s">
         <v>1441</v>
       </c>
-      <c r="D197" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E197" s="174"/>
-      <c r="F197" s="175" t="s">
-        <v>1665</v>
-      </c>
-      <c r="G197" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H197" s="176">
+      <c r="D197" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E197" s="181"/>
+      <c r="F197" s="182" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G197" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H197" s="183">
         <v>18.0</v>
       </c>
-      <c r="I197" s="190" t="s">
-        <v>1474</v>
+      <c r="I197" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
-      <c r="B198" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C198" s="172" t="s">
+      <c r="B198" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C198" s="179" t="s">
         <v>1442</v>
       </c>
-      <c r="D198" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E198" s="174"/>
-      <c r="F198" s="175" t="s">
-        <v>1666</v>
-      </c>
-      <c r="G198" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H198" s="176">
+      <c r="D198" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E198" s="181"/>
+      <c r="F198" s="182" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G198" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H198" s="183">
         <v>19.0</v>
       </c>
-      <c r="I198" s="190" t="s">
-        <v>1474</v>
+      <c r="I198" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
-      <c r="B199" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C199" s="172" t="s">
+      <c r="B199" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C199" s="179" t="s">
         <v>1443</v>
       </c>
-      <c r="D199" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E199" s="174"/>
-      <c r="F199" s="175" t="s">
-        <v>1667</v>
-      </c>
-      <c r="G199" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H199" s="176">
+      <c r="D199" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E199" s="181"/>
+      <c r="F199" s="182" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G199" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H199" s="183">
         <v>20.0</v>
       </c>
-      <c r="I199" s="190" t="s">
-        <v>1474</v>
+      <c r="I199" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
-      <c r="B200" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C200" s="172" t="s">
+      <c r="B200" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C200" s="179" t="s">
         <v>1444</v>
       </c>
-      <c r="D200" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E200" s="174"/>
-      <c r="F200" s="175" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G200" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H200" s="176">
+      <c r="D200" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E200" s="181"/>
+      <c r="F200" s="182" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G200" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H200" s="183">
         <v>21.0</v>
       </c>
-      <c r="I200" s="190" t="s">
-        <v>1474</v>
+      <c r="I200" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
-      <c r="B201" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C201" s="172" t="s">
+      <c r="B201" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C201" s="179" t="s">
         <v>1445</v>
       </c>
-      <c r="D201" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E201" s="174"/>
-      <c r="F201" s="175" t="s">
-        <v>1669</v>
-      </c>
-      <c r="G201" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H201" s="176">
+      <c r="D201" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E201" s="181"/>
+      <c r="F201" s="182" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G201" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H201" s="183">
         <v>22.0</v>
       </c>
-      <c r="I201" s="190" t="s">
-        <v>1474</v>
+      <c r="I201" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
-      <c r="B202" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C202" s="172" t="s">
+      <c r="B202" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C202" s="179" t="s">
         <v>1446</v>
       </c>
-      <c r="D202" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E202" s="174"/>
-      <c r="F202" s="175" t="s">
-        <v>1670</v>
-      </c>
-      <c r="G202" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H202" s="176">
+      <c r="D202" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E202" s="181"/>
+      <c r="F202" s="182" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G202" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H202" s="183">
         <v>23.0</v>
       </c>
-      <c r="I202" s="190" t="s">
-        <v>1474</v>
+      <c r="I202" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
-      <c r="B203" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C203" s="172" t="s">
+      <c r="B203" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C203" s="179" t="s">
         <v>1447</v>
       </c>
-      <c r="D203" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E203" s="174"/>
-      <c r="F203" s="175" t="s">
-        <v>1671</v>
-      </c>
-      <c r="G203" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H203" s="176">
+      <c r="D203" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E203" s="181"/>
+      <c r="F203" s="182" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G203" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H203" s="183">
         <v>24.0</v>
       </c>
-      <c r="I203" s="190" t="s">
-        <v>1474</v>
+      <c r="I203" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
-      <c r="B204" s="188" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C204" s="172" t="s">
+      <c r="B204" s="195" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C204" s="179" t="s">
         <v>1448</v>
       </c>
-      <c r="D204" s="173" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E204" s="174"/>
-      <c r="F204" s="175" t="s">
-        <v>1672</v>
-      </c>
-      <c r="G204" s="173" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H204" s="176">
+      <c r="D204" s="180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E204" s="181"/>
+      <c r="F204" s="182" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G204" s="180" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H204" s="183">
         <v>25.0</v>
       </c>
-      <c r="I204" s="190" t="s">
-        <v>1474</v>
+      <c r="I204" s="197" t="s">
+        <v>1517</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
-      <c r="B205" s="192" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C205" s="199" t="s">
+      <c r="B205" s="199" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C205" s="206" t="s">
         <v>1449</v>
       </c>
-      <c r="D205" s="194" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E205" s="195"/>
-      <c r="F205" s="196" t="s">
-        <v>1673</v>
-      </c>
-      <c r="G205" s="194" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H205" s="197">
+      <c r="D205" s="201" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E205" s="202"/>
+      <c r="F205" s="203" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G205" s="201" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H205" s="204">
         <v>26.0</v>
       </c>
-      <c r="I205" s="198" t="s">
-        <v>1474</v>
+      <c r="I205" s="205" t="s">
+        <v>1517</v>
       </c>
       <c r="J205" s="1"/>
     </row>
@@ -27873,14 +28135,14 @@
     </row>
     <row r="207">
       <c r="A207" s="1"/>
-      <c r="B207" s="171"/>
-      <c r="C207" s="172"/>
-      <c r="D207" s="173"/>
-      <c r="E207" s="174"/>
-      <c r="F207" s="175"/>
-      <c r="G207" s="173"/>
-      <c r="H207" s="176"/>
-      <c r="I207" s="171"/>
+      <c r="B207" s="178"/>
+      <c r="C207" s="179"/>
+      <c r="D207" s="180"/>
+      <c r="E207" s="181"/>
+      <c r="F207" s="182"/>
+      <c r="G207" s="180"/>
+      <c r="H207" s="183"/>
+      <c r="I207" s="178"/>
       <c r="J207" s="1"/>
     </row>
     <row r="208">

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4714" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="1805">
   <si>
     <t>A#3</t>
   </si>
@@ -4377,6 +4377,30 @@
     <t>compatible</t>
   </si>
   <si>
+    <t>palette</t>
+  </si>
+  <si>
+    <t>emphasis</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>ethic</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>crystal</t>
+  </si>
+  <si>
+    <t>mortal</t>
+  </si>
+  <si>
     <t>surpass</t>
   </si>
   <si>
@@ -4395,6 +4419,30 @@
     <t>capacitance</t>
   </si>
   <si>
+    <t>renew</t>
+  </si>
+  <si>
+    <t>requisite</t>
+  </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>simultaneous</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>divert</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>capture</t>
   </si>
   <si>
@@ -4413,6 +4461,30 @@
     <t>threshold</t>
   </si>
   <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>syrup</t>
+  </si>
+  <si>
     <t>stuff</t>
   </si>
   <si>
@@ -4431,6 +4503,30 @@
     <t>purchase</t>
   </si>
   <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>bucket</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
     <t>goods</t>
   </si>
   <si>
@@ -4449,6 +4545,30 @@
     <t>alphabet</t>
   </si>
   <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>conceal</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>solvent</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
     <t>candy</t>
   </si>
   <si>
@@ -4467,6 +4587,30 @@
     <t>tabular</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>superior</t>
+  </si>
+  <si>
+    <t>compete</t>
+  </si>
+  <si>
+    <t>concurrent</t>
+  </si>
+  <si>
+    <t>municipal</t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>premier</t>
   </si>
   <si>
@@ -4485,6 +4629,30 @@
     <t>regulatory</t>
   </si>
   <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>dialogue</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
     <t>especial</t>
   </si>
   <si>
@@ -4503,6 +4671,30 @@
     <t>workshop</t>
   </si>
   <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>enclose</t>
+  </si>
+  <si>
+    <t>trophy</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>mention</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
     <t>polish</t>
   </si>
   <si>
@@ -4521,6 +4713,30 @@
     <t>remittance</t>
   </si>
   <si>
+    <t>artefact</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>portal</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>transport</t>
   </si>
   <si>
@@ -4539,6 +4755,30 @@
     <t>maintenance</t>
   </si>
   <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>suggestion</t>
+  </si>
+  <si>
+    <t>corridor</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>tender</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
     <t>preference</t>
   </si>
   <si>
@@ -4554,6 +4794,27 @@
     <t>{2, 181}</t>
   </si>
   <si>
+    <t>{2, 4, 61, 122}</t>
+  </si>
+  <si>
+    <t>{2, 139}</t>
+  </si>
+  <si>
+    <t>{2, 11, 22, 121}</t>
+  </si>
+  <si>
+    <t>{3, 107}</t>
+  </si>
+  <si>
+    <t>{5, 61}</t>
+  </si>
+  <si>
+    <t>{2, 3, 4, 6, 7, 9, 12, 14, 18, 21, 28, 36, 42, 63, 84, 126}</t>
+  </si>
+  <si>
+    <t>{3, 83}</t>
+  </si>
+  <si>
     <t>{3, 5, 15, 19, 57, 95}</t>
   </si>
   <si>
@@ -4561,6 +4822,9 @@
   </si>
   <si>
     <t>{2, 4, 23, 46}</t>
+  </si>
+  <si>
+    <t>{2, 3, 4, 6, 8, 9, 12, 18, 24, 36}</t>
   </si>
   <si>
     <t>{2, 3, 4, 6, 7, 12, 14, 21, 28, 42}</t>
@@ -22032,10 +22296,18 @@
       <c r="F82" s="162" t="s">
         <v>1453</v>
       </c>
-      <c r="G82" s="111"/>
-      <c r="H82" s="111"/>
-      <c r="I82" s="111"/>
-      <c r="J82" s="111"/>
+      <c r="G82" s="162" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H82" s="162" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I82" s="162" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J82" s="162" t="s">
+        <v>1457</v>
+      </c>
       <c r="K82" s="111"/>
       <c r="L82" s="111"/>
       <c r="M82" s="111"/>
@@ -22048,18 +22320,26 @@
       <c r="T82" s="111"/>
       <c r="U82" s="111"/>
       <c r="V82" s="111"/>
-      <c r="W82" s="111"/>
-      <c r="X82" s="111"/>
-      <c r="Y82" s="111"/>
-      <c r="Z82" s="111"/>
+      <c r="W82" s="162" t="s">
+        <v>1458</v>
+      </c>
+      <c r="X82" s="162" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Y82" s="162" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Z82" s="162" t="s">
+        <v>1461</v>
+      </c>
       <c r="AA82" s="162" t="s">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="AB82" s="162" t="s">
-        <v>1455</v>
+        <v>1463</v>
       </c>
       <c r="AC82" s="163" t="s">
-        <v>1456</v>
+        <v>1464</v>
       </c>
       <c r="AD82" s="100"/>
       <c r="AE82" s="113"/>
@@ -22075,18 +22355,26 @@
       </c>
       <c r="C83" s="100"/>
       <c r="D83" s="164" t="s">
-        <v>1457</v>
+        <v>1465</v>
       </c>
       <c r="E83" s="165" t="s">
-        <v>1458</v>
+        <v>1466</v>
       </c>
       <c r="F83" s="165" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G83" s="119"/>
-      <c r="H83" s="119"/>
-      <c r="I83" s="119"/>
-      <c r="J83" s="119"/>
+        <v>1467</v>
+      </c>
+      <c r="G83" s="165" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H83" s="165" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I83" s="165" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J83" s="165" t="s">
+        <v>1471</v>
+      </c>
       <c r="K83" s="119"/>
       <c r="L83" s="119"/>
       <c r="M83" s="119"/>
@@ -22099,18 +22387,26 @@
       <c r="T83" s="119"/>
       <c r="U83" s="119"/>
       <c r="V83" s="119"/>
-      <c r="W83" s="119"/>
-      <c r="X83" s="119"/>
-      <c r="Y83" s="119"/>
-      <c r="Z83" s="119"/>
+      <c r="W83" s="165" t="s">
+        <v>1472</v>
+      </c>
+      <c r="X83" s="165" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Y83" s="165" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Z83" s="165" t="s">
+        <v>1475</v>
+      </c>
       <c r="AA83" s="165" t="s">
-        <v>1460</v>
+        <v>1476</v>
       </c>
       <c r="AB83" s="165" t="s">
-        <v>1461</v>
+        <v>1477</v>
       </c>
       <c r="AC83" s="166" t="s">
-        <v>1462</v>
+        <v>1478</v>
       </c>
       <c r="AD83" s="100"/>
       <c r="AE83" s="121"/>
@@ -22126,18 +22422,26 @@
       </c>
       <c r="C84" s="100"/>
       <c r="D84" s="164" t="s">
-        <v>1463</v>
+        <v>1479</v>
       </c>
       <c r="E84" s="165" t="s">
-        <v>1464</v>
+        <v>1480</v>
       </c>
       <c r="F84" s="165" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G84" s="119"/>
-      <c r="H84" s="119"/>
-      <c r="I84" s="119"/>
-      <c r="J84" s="119"/>
+        <v>1481</v>
+      </c>
+      <c r="G84" s="165" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H84" s="165" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I84" s="165" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J84" s="165" t="s">
+        <v>1485</v>
+      </c>
       <c r="K84" s="119"/>
       <c r="L84" s="119"/>
       <c r="M84" s="119"/>
@@ -22150,18 +22454,26 @@
       <c r="T84" s="119"/>
       <c r="U84" s="119"/>
       <c r="V84" s="119"/>
-      <c r="W84" s="119"/>
-      <c r="X84" s="119"/>
-      <c r="Y84" s="119"/>
-      <c r="Z84" s="119"/>
+      <c r="W84" s="165" t="s">
+        <v>1486</v>
+      </c>
+      <c r="X84" s="165" t="s">
+        <v>1487</v>
+      </c>
+      <c r="Y84" s="165" t="s">
+        <v>1488</v>
+      </c>
+      <c r="Z84" s="165" t="s">
+        <v>1489</v>
+      </c>
       <c r="AA84" s="165" t="s">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="AB84" s="165" t="s">
-        <v>1467</v>
+        <v>1491</v>
       </c>
       <c r="AC84" s="166" t="s">
-        <v>1468</v>
+        <v>1492</v>
       </c>
       <c r="AD84" s="100"/>
       <c r="AE84" s="121"/>
@@ -22177,18 +22489,26 @@
       </c>
       <c r="C85" s="100"/>
       <c r="D85" s="164" t="s">
-        <v>1469</v>
+        <v>1493</v>
       </c>
       <c r="E85" s="165" t="s">
-        <v>1470</v>
+        <v>1494</v>
       </c>
       <c r="F85" s="165" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G85" s="119"/>
-      <c r="H85" s="119"/>
-      <c r="I85" s="119"/>
-      <c r="J85" s="119"/>
+        <v>1495</v>
+      </c>
+      <c r="G85" s="165" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H85" s="165" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I85" s="165" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J85" s="165" t="s">
+        <v>1499</v>
+      </c>
       <c r="K85" s="119"/>
       <c r="L85" s="119"/>
       <c r="M85" s="119"/>
@@ -22201,18 +22521,26 @@
       <c r="T85" s="119"/>
       <c r="U85" s="119"/>
       <c r="V85" s="119"/>
-      <c r="W85" s="119"/>
-      <c r="X85" s="119"/>
-      <c r="Y85" s="119"/>
-      <c r="Z85" s="119"/>
+      <c r="W85" s="165" t="s">
+        <v>1500</v>
+      </c>
+      <c r="X85" s="165" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Y85" s="165" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Z85" s="165" t="s">
+        <v>1503</v>
+      </c>
       <c r="AA85" s="165" t="s">
-        <v>1472</v>
+        <v>1504</v>
       </c>
       <c r="AB85" s="165" t="s">
-        <v>1473</v>
+        <v>1505</v>
       </c>
       <c r="AC85" s="166" t="s">
-        <v>1474</v>
+        <v>1506</v>
       </c>
       <c r="AD85" s="100"/>
       <c r="AE85" s="121"/>
@@ -22228,18 +22556,26 @@
       </c>
       <c r="C86" s="100"/>
       <c r="D86" s="164" t="s">
-        <v>1475</v>
+        <v>1507</v>
       </c>
       <c r="E86" s="165" t="s">
-        <v>1476</v>
+        <v>1508</v>
       </c>
       <c r="F86" s="165" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G86" s="119"/>
-      <c r="H86" s="119"/>
-      <c r="I86" s="119"/>
-      <c r="J86" s="119"/>
+        <v>1509</v>
+      </c>
+      <c r="G86" s="165" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H86" s="165" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I86" s="165" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J86" s="165" t="s">
+        <v>1513</v>
+      </c>
       <c r="K86" s="119"/>
       <c r="L86" s="119"/>
       <c r="M86" s="119"/>
@@ -22252,18 +22588,26 @@
       <c r="T86" s="119"/>
       <c r="U86" s="119"/>
       <c r="V86" s="119"/>
-      <c r="W86" s="119"/>
-      <c r="X86" s="119"/>
-      <c r="Y86" s="119"/>
-      <c r="Z86" s="119"/>
+      <c r="W86" s="165" t="s">
+        <v>1514</v>
+      </c>
+      <c r="X86" s="165" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Y86" s="165" t="s">
+        <v>1516</v>
+      </c>
+      <c r="Z86" s="165" t="s">
+        <v>1517</v>
+      </c>
       <c r="AA86" s="165" t="s">
-        <v>1478</v>
+        <v>1518</v>
       </c>
       <c r="AB86" s="165" t="s">
-        <v>1479</v>
+        <v>1519</v>
       </c>
       <c r="AC86" s="166" t="s">
-        <v>1480</v>
+        <v>1520</v>
       </c>
       <c r="AD86" s="100"/>
       <c r="AE86" s="121"/>
@@ -22279,18 +22623,26 @@
       </c>
       <c r="C87" s="100"/>
       <c r="D87" s="164" t="s">
-        <v>1481</v>
+        <v>1521</v>
       </c>
       <c r="E87" s="165" t="s">
-        <v>1482</v>
+        <v>1522</v>
       </c>
       <c r="F87" s="165" t="s">
-        <v>1483</v>
-      </c>
-      <c r="G87" s="119"/>
-      <c r="H87" s="119"/>
-      <c r="I87" s="119"/>
-      <c r="J87" s="119"/>
+        <v>1523</v>
+      </c>
+      <c r="G87" s="165" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H87" s="165" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I87" s="165" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J87" s="165" t="s">
+        <v>1527</v>
+      </c>
       <c r="K87" s="119"/>
       <c r="L87" s="119"/>
       <c r="M87" s="119"/>
@@ -22303,18 +22655,26 @@
       <c r="T87" s="119"/>
       <c r="U87" s="119"/>
       <c r="V87" s="119"/>
-      <c r="W87" s="119"/>
-      <c r="X87" s="119"/>
-      <c r="Y87" s="119"/>
-      <c r="Z87" s="119"/>
+      <c r="W87" s="165" t="s">
+        <v>1528</v>
+      </c>
+      <c r="X87" s="165" t="s">
+        <v>1529</v>
+      </c>
+      <c r="Y87" s="165" t="s">
+        <v>1530</v>
+      </c>
+      <c r="Z87" s="165" t="s">
+        <v>1531</v>
+      </c>
       <c r="AA87" s="165" t="s">
-        <v>1484</v>
+        <v>1532</v>
       </c>
       <c r="AB87" s="165" t="s">
-        <v>1485</v>
+        <v>1533</v>
       </c>
       <c r="AC87" s="166" t="s">
-        <v>1486</v>
+        <v>1534</v>
       </c>
       <c r="AD87" s="100"/>
       <c r="AE87" s="121"/>
@@ -22330,18 +22690,26 @@
       </c>
       <c r="C88" s="100"/>
       <c r="D88" s="164" t="s">
-        <v>1487</v>
+        <v>1535</v>
       </c>
       <c r="E88" s="165" t="s">
-        <v>1488</v>
+        <v>1536</v>
       </c>
       <c r="F88" s="165" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G88" s="119"/>
-      <c r="H88" s="119"/>
-      <c r="I88" s="119"/>
-      <c r="J88" s="119"/>
+        <v>1537</v>
+      </c>
+      <c r="G88" s="165" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H88" s="165" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I88" s="165" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J88" s="165" t="s">
+        <v>1541</v>
+      </c>
       <c r="K88" s="119"/>
       <c r="L88" s="119"/>
       <c r="M88" s="119"/>
@@ -22354,18 +22722,26 @@
       <c r="T88" s="119"/>
       <c r="U88" s="119"/>
       <c r="V88" s="119"/>
-      <c r="W88" s="119"/>
-      <c r="X88" s="119"/>
-      <c r="Y88" s="119"/>
-      <c r="Z88" s="119"/>
+      <c r="W88" s="165" t="s">
+        <v>1542</v>
+      </c>
+      <c r="X88" s="165" t="s">
+        <v>1543</v>
+      </c>
+      <c r="Y88" s="165" t="s">
+        <v>1544</v>
+      </c>
+      <c r="Z88" s="165" t="s">
+        <v>1545</v>
+      </c>
       <c r="AA88" s="165" t="s">
-        <v>1490</v>
+        <v>1546</v>
       </c>
       <c r="AB88" s="165" t="s">
-        <v>1491</v>
+        <v>1547</v>
       </c>
       <c r="AC88" s="166" t="s">
-        <v>1492</v>
+        <v>1548</v>
       </c>
       <c r="AD88" s="100"/>
       <c r="AE88" s="121"/>
@@ -22381,18 +22757,26 @@
       </c>
       <c r="C89" s="100"/>
       <c r="D89" s="164" t="s">
-        <v>1493</v>
+        <v>1549</v>
       </c>
       <c r="E89" s="165" t="s">
-        <v>1494</v>
+        <v>1550</v>
       </c>
       <c r="F89" s="165" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G89" s="119"/>
-      <c r="H89" s="119"/>
-      <c r="I89" s="119"/>
-      <c r="J89" s="119"/>
+        <v>1551</v>
+      </c>
+      <c r="G89" s="165" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H89" s="165" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I89" s="165" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J89" s="165" t="s">
+        <v>1555</v>
+      </c>
       <c r="K89" s="119"/>
       <c r="L89" s="119"/>
       <c r="M89" s="119"/>
@@ -22405,18 +22789,26 @@
       <c r="T89" s="119"/>
       <c r="U89" s="119"/>
       <c r="V89" s="119"/>
-      <c r="W89" s="119"/>
-      <c r="X89" s="119"/>
-      <c r="Y89" s="119"/>
-      <c r="Z89" s="119"/>
+      <c r="W89" s="165" t="s">
+        <v>1556</v>
+      </c>
+      <c r="X89" s="165" t="s">
+        <v>1557</v>
+      </c>
+      <c r="Y89" s="165" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Z89" s="165" t="s">
+        <v>1559</v>
+      </c>
       <c r="AA89" s="165" t="s">
-        <v>1496</v>
+        <v>1560</v>
       </c>
       <c r="AB89" s="165" t="s">
-        <v>1497</v>
+        <v>1561</v>
       </c>
       <c r="AC89" s="166" t="s">
-        <v>1498</v>
+        <v>1562</v>
       </c>
       <c r="AD89" s="100"/>
       <c r="AE89" s="121"/>
@@ -22432,18 +22824,26 @@
       </c>
       <c r="C90" s="100"/>
       <c r="D90" s="164" t="s">
-        <v>1499</v>
+        <v>1563</v>
       </c>
       <c r="E90" s="165" t="s">
-        <v>1500</v>
+        <v>1564</v>
       </c>
       <c r="F90" s="165" t="s">
-        <v>1501</v>
-      </c>
-      <c r="G90" s="119"/>
-      <c r="H90" s="119"/>
-      <c r="I90" s="119"/>
-      <c r="J90" s="119"/>
+        <v>1565</v>
+      </c>
+      <c r="G90" s="165" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H90" s="165" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I90" s="165" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J90" s="165" t="s">
+        <v>1569</v>
+      </c>
       <c r="K90" s="119"/>
       <c r="L90" s="119"/>
       <c r="M90" s="119"/>
@@ -22456,18 +22856,26 @@
       <c r="T90" s="119"/>
       <c r="U90" s="119"/>
       <c r="V90" s="119"/>
-      <c r="W90" s="119"/>
-      <c r="X90" s="119"/>
-      <c r="Y90" s="119"/>
-      <c r="Z90" s="119"/>
+      <c r="W90" s="165" t="s">
+        <v>1570</v>
+      </c>
+      <c r="X90" s="165" t="s">
+        <v>1571</v>
+      </c>
+      <c r="Y90" s="165" t="s">
+        <v>1572</v>
+      </c>
+      <c r="Z90" s="165" t="s">
+        <v>1573</v>
+      </c>
       <c r="AA90" s="165" t="s">
-        <v>1502</v>
+        <v>1574</v>
       </c>
       <c r="AB90" s="165" t="s">
-        <v>1503</v>
+        <v>1575</v>
       </c>
       <c r="AC90" s="166" t="s">
-        <v>1504</v>
+        <v>1576</v>
       </c>
       <c r="AD90" s="100"/>
       <c r="AE90" s="121"/>
@@ -22483,18 +22891,26 @@
       </c>
       <c r="C91" s="100"/>
       <c r="D91" s="167" t="s">
-        <v>1505</v>
+        <v>1577</v>
       </c>
       <c r="E91" s="168" t="s">
-        <v>1506</v>
+        <v>1578</v>
       </c>
       <c r="F91" s="168" t="s">
-        <v>1507</v>
-      </c>
-      <c r="G91" s="126"/>
-      <c r="H91" s="126"/>
-      <c r="I91" s="126"/>
-      <c r="J91" s="126"/>
+        <v>1579</v>
+      </c>
+      <c r="G91" s="168" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H91" s="168" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I91" s="168" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J91" s="168" t="s">
+        <v>1583</v>
+      </c>
       <c r="K91" s="126"/>
       <c r="L91" s="126"/>
       <c r="M91" s="126"/>
@@ -22507,18 +22923,26 @@
       <c r="T91" s="126"/>
       <c r="U91" s="126"/>
       <c r="V91" s="126"/>
-      <c r="W91" s="126"/>
-      <c r="X91" s="126"/>
-      <c r="Y91" s="126"/>
-      <c r="Z91" s="126"/>
+      <c r="W91" s="168" t="s">
+        <v>1584</v>
+      </c>
+      <c r="X91" s="168" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Y91" s="168" t="s">
+        <v>1586</v>
+      </c>
+      <c r="Z91" s="168" t="s">
+        <v>1587</v>
+      </c>
       <c r="AA91" s="168" t="s">
-        <v>1508</v>
+        <v>1588</v>
       </c>
       <c r="AB91" s="168" t="s">
-        <v>1509</v>
+        <v>1589</v>
       </c>
       <c r="AC91" s="169" t="s">
-        <v>1510</v>
+        <v>1590</v>
       </c>
       <c r="AD91" s="100"/>
       <c r="AE91" s="128"/>
@@ -22542,10 +22966,18 @@
       <c r="F92" s="171">
         <v>362.0</v>
       </c>
-      <c r="G92" s="134"/>
-      <c r="H92" s="134"/>
-      <c r="I92" s="134"/>
-      <c r="J92" s="134"/>
+      <c r="G92" s="171">
+        <v>244.0</v>
+      </c>
+      <c r="H92" s="171">
+        <v>277.0</v>
+      </c>
+      <c r="I92" s="171">
+        <v>278.0</v>
+      </c>
+      <c r="J92" s="171">
+        <v>242.0</v>
+      </c>
       <c r="K92" s="134"/>
       <c r="L92" s="134"/>
       <c r="M92" s="134"/>
@@ -22558,10 +22990,18 @@
       <c r="T92" s="134"/>
       <c r="U92" s="134"/>
       <c r="V92" s="134"/>
-      <c r="W92" s="134"/>
-      <c r="X92" s="134"/>
-      <c r="Y92" s="134"/>
-      <c r="Z92" s="134"/>
+      <c r="W92" s="171">
+        <v>321.0</v>
+      </c>
+      <c r="X92" s="171">
+        <v>305.0</v>
+      </c>
+      <c r="Y92" s="171">
+        <v>252.0</v>
+      </c>
+      <c r="Z92" s="171">
+        <v>249.0</v>
+      </c>
       <c r="AA92" s="171">
         <v>285.0</v>
       </c>
@@ -22585,18 +23025,26 @@
       </c>
       <c r="C93" s="100"/>
       <c r="D93" s="172" t="s">
-        <v>1511</v>
+        <v>1591</v>
       </c>
       <c r="E93" s="173" t="s">
         <v>58</v>
       </c>
       <c r="F93" s="173" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G93" s="138"/>
-      <c r="H93" s="138"/>
-      <c r="I93" s="138"/>
-      <c r="J93" s="138"/>
+        <v>1592</v>
+      </c>
+      <c r="G93" s="173" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H93" s="173" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" s="173" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J93" s="173" t="s">
+        <v>1595</v>
+      </c>
       <c r="K93" s="138"/>
       <c r="L93" s="138"/>
       <c r="M93" s="138"/>
@@ -22609,18 +23057,26 @@
       <c r="T93" s="138"/>
       <c r="U93" s="138"/>
       <c r="V93" s="138"/>
-      <c r="W93" s="138"/>
-      <c r="X93" s="138"/>
-      <c r="Y93" s="138"/>
-      <c r="Z93" s="138"/>
+      <c r="W93" s="173" t="s">
+        <v>1596</v>
+      </c>
+      <c r="X93" s="173" t="s">
+        <v>1597</v>
+      </c>
+      <c r="Y93" s="173" t="s">
+        <v>1598</v>
+      </c>
+      <c r="Z93" s="173" t="s">
+        <v>1599</v>
+      </c>
       <c r="AA93" s="173" t="s">
-        <v>1513</v>
+        <v>1600</v>
       </c>
       <c r="AB93" s="173" t="s">
         <v>58</v>
       </c>
       <c r="AC93" s="136" t="s">
-        <v>1514</v>
+        <v>1601</v>
       </c>
       <c r="AD93" s="140"/>
       <c r="AE93" s="141"/>
@@ -22644,10 +23100,18 @@
       <c r="F94" s="175">
         <v>92.0</v>
       </c>
-      <c r="G94" s="147"/>
-      <c r="H94" s="147"/>
-      <c r="I94" s="147"/>
-      <c r="J94" s="147"/>
+      <c r="G94" s="175">
+        <v>61.0</v>
+      </c>
+      <c r="H94" s="175">
+        <v>69.0</v>
+      </c>
+      <c r="I94" s="175">
+        <v>68.0</v>
+      </c>
+      <c r="J94" s="175">
+        <v>58.0</v>
+      </c>
       <c r="K94" s="147"/>
       <c r="L94" s="147"/>
       <c r="M94" s="147"/>
@@ -22660,10 +23124,18 @@
       <c r="T94" s="147"/>
       <c r="U94" s="147"/>
       <c r="V94" s="147"/>
-      <c r="W94" s="147"/>
-      <c r="X94" s="147"/>
-      <c r="Y94" s="147"/>
-      <c r="Z94" s="147"/>
+      <c r="W94" s="175">
+        <v>81.0</v>
+      </c>
+      <c r="X94" s="175">
+        <v>72.0</v>
+      </c>
+      <c r="Y94" s="175">
+        <v>62.0</v>
+      </c>
+      <c r="Z94" s="175">
+        <v>58.0</v>
+      </c>
       <c r="AA94" s="175">
         <v>69.0</v>
       </c>
@@ -22693,12 +23165,20 @@
         <v>1407</v>
       </c>
       <c r="F95" s="177" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G95" s="155"/>
-      <c r="H95" s="155"/>
-      <c r="I95" s="155"/>
-      <c r="J95" s="155"/>
+        <v>1602</v>
+      </c>
+      <c r="G95" s="177" t="s">
+        <v>58</v>
+      </c>
+      <c r="H95" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="I95" s="177" t="s">
+        <v>446</v>
+      </c>
+      <c r="J95" s="177" t="s">
+        <v>449</v>
+      </c>
       <c r="K95" s="155"/>
       <c r="L95" s="155"/>
       <c r="M95" s="155"/>
@@ -22711,10 +23191,18 @@
       <c r="T95" s="155"/>
       <c r="U95" s="155"/>
       <c r="V95" s="155"/>
-      <c r="W95" s="155"/>
-      <c r="X95" s="155"/>
-      <c r="Y95" s="155"/>
-      <c r="Z95" s="155"/>
+      <c r="W95" s="177" t="s">
+        <v>1410</v>
+      </c>
+      <c r="X95" s="177" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Y95" s="177" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z95" s="177" t="s">
+        <v>449</v>
+      </c>
       <c r="AA95" s="177" t="s">
         <v>451</v>
       </c>
@@ -22722,7 +23210,7 @@
         <v>1407</v>
       </c>
       <c r="AC95" s="153" t="s">
-        <v>1516</v>
+        <v>1604</v>
       </c>
       <c r="AD95" s="100"/>
       <c r="AE95" s="157"/>
@@ -23051,28 +23539,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="188" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>1518</v>
+        <v>1606</v>
       </c>
       <c r="D4" s="190" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E4" s="191" t="s">
-        <v>1520</v>
+        <v>1608</v>
       </c>
       <c r="F4" s="192" t="s">
-        <v>1521</v>
+        <v>1609</v>
       </c>
       <c r="G4" s="190" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H4" s="193" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="194" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -23090,676 +23578,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C6" s="198" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E6" s="181"/>
       <c r="F6" s="182" t="s">
-        <v>1523</v>
+        <v>1611</v>
       </c>
       <c r="G6" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H6" s="183">
         <v>1.0</v>
       </c>
       <c r="I6" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C7" s="198" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E7" s="181"/>
       <c r="F7" s="182" t="s">
-        <v>1524</v>
+        <v>1612</v>
       </c>
       <c r="G7" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H7" s="183">
         <v>2.0</v>
       </c>
       <c r="I7" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C8" s="198" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E8" s="181"/>
       <c r="F8" s="182" t="s">
-        <v>1525</v>
+        <v>1613</v>
       </c>
       <c r="G8" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H8" s="183">
         <v>3.0</v>
       </c>
       <c r="I8" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C9" s="198" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E9" s="181"/>
       <c r="F9" s="182" t="s">
-        <v>1526</v>
+        <v>1614</v>
       </c>
       <c r="G9" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H9" s="183">
         <v>4.0</v>
       </c>
       <c r="I9" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C10" s="198" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E10" s="181"/>
       <c r="F10" s="182" t="s">
-        <v>1527</v>
+        <v>1615</v>
       </c>
       <c r="G10" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H10" s="183">
         <v>5.0</v>
       </c>
       <c r="I10" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C11" s="198" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E11" s="181"/>
       <c r="F11" s="182" t="s">
-        <v>1528</v>
+        <v>1616</v>
       </c>
       <c r="G11" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H11" s="183">
         <v>6.0</v>
       </c>
       <c r="I11" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C12" s="198" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E12" s="181"/>
       <c r="F12" s="182" t="s">
-        <v>1529</v>
+        <v>1617</v>
       </c>
       <c r="G12" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H12" s="183">
         <v>7.0</v>
       </c>
       <c r="I12" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C13" s="198" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E13" s="181"/>
       <c r="F13" s="182" t="s">
-        <v>1530</v>
+        <v>1618</v>
       </c>
       <c r="G13" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H13" s="183">
         <v>8.0</v>
       </c>
       <c r="I13" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C14" s="198" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E14" s="181"/>
       <c r="F14" s="182" t="s">
-        <v>1531</v>
+        <v>1619</v>
       </c>
       <c r="G14" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H14" s="183">
         <v>9.0</v>
       </c>
       <c r="I14" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C15" s="198" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E15" s="181"/>
       <c r="F15" s="182" t="s">
-        <v>1532</v>
+        <v>1620</v>
       </c>
       <c r="G15" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H15" s="183">
         <v>10.0</v>
       </c>
       <c r="I15" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C16" s="198" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E16" s="181"/>
       <c r="F16" s="182" t="s">
-        <v>1533</v>
+        <v>1621</v>
       </c>
       <c r="G16" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H16" s="183">
         <v>11.0</v>
       </c>
       <c r="I16" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C17" s="198" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E17" s="181"/>
       <c r="F17" s="182" t="s">
-        <v>1534</v>
+        <v>1622</v>
       </c>
       <c r="G17" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H17" s="183">
         <v>12.0</v>
       </c>
       <c r="I17" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C18" s="198" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E18" s="181"/>
       <c r="F18" s="182" t="s">
-        <v>1535</v>
+        <v>1623</v>
       </c>
       <c r="G18" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H18" s="183">
         <v>13.0</v>
       </c>
       <c r="I18" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C19" s="198" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E19" s="181"/>
       <c r="F19" s="182" t="s">
-        <v>1536</v>
+        <v>1624</v>
       </c>
       <c r="G19" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H19" s="183">
         <v>14.0</v>
       </c>
       <c r="I19" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C20" s="198" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E20" s="181"/>
       <c r="F20" s="182" t="s">
-        <v>1537</v>
+        <v>1625</v>
       </c>
       <c r="G20" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H20" s="183">
         <v>15.0</v>
       </c>
       <c r="I20" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C21" s="198" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E21" s="181"/>
       <c r="F21" s="182" t="s">
-        <v>1538</v>
+        <v>1626</v>
       </c>
       <c r="G21" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H21" s="183">
         <v>16.0</v>
       </c>
       <c r="I21" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C22" s="198" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E22" s="181"/>
       <c r="F22" s="182" t="s">
-        <v>1539</v>
+        <v>1627</v>
       </c>
       <c r="G22" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H22" s="183">
         <v>17.0</v>
       </c>
       <c r="I22" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C23" s="198" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E23" s="181"/>
       <c r="F23" s="182" t="s">
-        <v>1540</v>
+        <v>1628</v>
       </c>
       <c r="G23" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H23" s="183">
         <v>18.0</v>
       </c>
       <c r="I23" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C24" s="198" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E24" s="181"/>
       <c r="F24" s="182" t="s">
-        <v>1541</v>
+        <v>1629</v>
       </c>
       <c r="G24" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H24" s="183">
         <v>19.0</v>
       </c>
       <c r="I24" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C25" s="198" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E25" s="181"/>
       <c r="F25" s="182" t="s">
-        <v>1542</v>
+        <v>1630</v>
       </c>
       <c r="G25" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H25" s="183">
         <v>20.0</v>
       </c>
       <c r="I25" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C26" s="198" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E26" s="181"/>
       <c r="F26" s="182" t="s">
-        <v>1543</v>
+        <v>1631</v>
       </c>
       <c r="G26" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H26" s="183">
         <v>21.0</v>
       </c>
       <c r="I26" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C27" s="198" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E27" s="181"/>
       <c r="F27" s="182" t="s">
-        <v>1544</v>
+        <v>1632</v>
       </c>
       <c r="G27" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H27" s="183">
         <v>22.0</v>
       </c>
       <c r="I27" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C28" s="198" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E28" s="181"/>
       <c r="F28" s="182" t="s">
-        <v>1545</v>
+        <v>1633</v>
       </c>
       <c r="G28" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H28" s="183">
         <v>23.0</v>
       </c>
       <c r="I28" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C29" s="198" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E29" s="181"/>
       <c r="F29" s="182" t="s">
-        <v>1546</v>
+        <v>1634</v>
       </c>
       <c r="G29" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H29" s="183">
         <v>24.0</v>
       </c>
       <c r="I29" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C30" s="198" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E30" s="181"/>
       <c r="F30" s="182" t="s">
-        <v>1547</v>
+        <v>1635</v>
       </c>
       <c r="G30" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H30" s="183">
         <v>25.0</v>
       </c>
       <c r="I30" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="199" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C31" s="200" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="201" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E31" s="202"/>
       <c r="F31" s="203" t="s">
-        <v>1548</v>
+        <v>1636</v>
       </c>
       <c r="G31" s="201" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H31" s="204">
         <v>26.0</v>
       </c>
       <c r="I31" s="205" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -23777,28 +24265,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="188" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C33" s="189" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="190" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E33" s="191" t="s">
-        <v>1549</v>
+        <v>1637</v>
       </c>
       <c r="F33" s="192" t="s">
-        <v>1550</v>
+        <v>1638</v>
       </c>
       <c r="G33" s="190" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H33" s="193" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="194" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -23816,676 +24304,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C35" s="179" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E35" s="181"/>
       <c r="F35" s="182" t="s">
-        <v>1551</v>
+        <v>1639</v>
       </c>
       <c r="G35" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H35" s="183">
         <v>1.0</v>
       </c>
       <c r="I35" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C36" s="179" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E36" s="181"/>
       <c r="F36" s="182" t="s">
-        <v>1552</v>
+        <v>1640</v>
       </c>
       <c r="G36" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H36" s="183">
         <v>2.0</v>
       </c>
       <c r="I36" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C37" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E37" s="181"/>
       <c r="F37" s="182" t="s">
-        <v>1553</v>
+        <v>1641</v>
       </c>
       <c r="G37" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H37" s="183">
         <v>3.0</v>
       </c>
       <c r="I37" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C38" s="179" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E38" s="181"/>
       <c r="F38" s="182" t="s">
-        <v>1554</v>
+        <v>1642</v>
       </c>
       <c r="G38" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H38" s="183">
         <v>4.0</v>
       </c>
       <c r="I38" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C39" s="179" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E39" s="181"/>
       <c r="F39" s="182" t="s">
-        <v>1555</v>
+        <v>1643</v>
       </c>
       <c r="G39" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H39" s="183">
         <v>5.0</v>
       </c>
       <c r="I39" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C40" s="179" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E40" s="181"/>
       <c r="F40" s="182" t="s">
-        <v>1556</v>
+        <v>1644</v>
       </c>
       <c r="G40" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H40" s="183">
         <v>6.0</v>
       </c>
       <c r="I40" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C41" s="179" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E41" s="181"/>
       <c r="F41" s="182" t="s">
-        <v>1557</v>
+        <v>1645</v>
       </c>
       <c r="G41" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H41" s="183">
         <v>7.0</v>
       </c>
       <c r="I41" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C42" s="179" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E42" s="181"/>
       <c r="F42" s="182" t="s">
-        <v>1558</v>
+        <v>1646</v>
       </c>
       <c r="G42" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H42" s="183">
         <v>8.0</v>
       </c>
       <c r="I42" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C43" s="179" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E43" s="181"/>
       <c r="F43" s="182" t="s">
-        <v>1559</v>
+        <v>1647</v>
       </c>
       <c r="G43" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H43" s="183">
         <v>9.0</v>
       </c>
       <c r="I43" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C44" s="179" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E44" s="181"/>
       <c r="F44" s="182" t="s">
-        <v>1560</v>
+        <v>1648</v>
       </c>
       <c r="G44" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H44" s="183">
         <v>10.0</v>
       </c>
       <c r="I44" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C45" s="179" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E45" s="181"/>
       <c r="F45" s="182" t="s">
-        <v>1561</v>
+        <v>1649</v>
       </c>
       <c r="G45" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H45" s="183">
         <v>11.0</v>
       </c>
       <c r="I45" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C46" s="179" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E46" s="181"/>
       <c r="F46" s="182" t="s">
-        <v>1562</v>
+        <v>1650</v>
       </c>
       <c r="G46" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H46" s="183">
         <v>12.0</v>
       </c>
       <c r="I46" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C47" s="179" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E47" s="181"/>
       <c r="F47" s="182" t="s">
-        <v>1563</v>
+        <v>1651</v>
       </c>
       <c r="G47" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H47" s="183">
         <v>13.0</v>
       </c>
       <c r="I47" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C48" s="179" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E48" s="181"/>
       <c r="F48" s="182" t="s">
-        <v>1564</v>
+        <v>1652</v>
       </c>
       <c r="G48" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H48" s="183">
         <v>14.0</v>
       </c>
       <c r="I48" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C49" s="179" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E49" s="181"/>
       <c r="F49" s="182" t="s">
-        <v>1565</v>
+        <v>1653</v>
       </c>
       <c r="G49" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H49" s="183">
         <v>15.0</v>
       </c>
       <c r="I49" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C50" s="179" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E50" s="181"/>
       <c r="F50" s="182" t="s">
-        <v>1566</v>
+        <v>1654</v>
       </c>
       <c r="G50" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H50" s="183">
         <v>16.0</v>
       </c>
       <c r="I50" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C51" s="179" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E51" s="181"/>
       <c r="F51" s="182" t="s">
-        <v>1567</v>
+        <v>1655</v>
       </c>
       <c r="G51" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H51" s="183">
         <v>17.0</v>
       </c>
       <c r="I51" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C52" s="179" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E52" s="181"/>
       <c r="F52" s="182" t="s">
-        <v>1568</v>
+        <v>1656</v>
       </c>
       <c r="G52" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H52" s="183">
         <v>18.0</v>
       </c>
       <c r="I52" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C53" s="179" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E53" s="181"/>
       <c r="F53" s="182" t="s">
-        <v>1569</v>
+        <v>1657</v>
       </c>
       <c r="G53" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H53" s="183">
         <v>19.0</v>
       </c>
       <c r="I53" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C54" s="179" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E54" s="181"/>
       <c r="F54" s="182" t="s">
-        <v>1570</v>
+        <v>1658</v>
       </c>
       <c r="G54" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H54" s="183">
         <v>20.0</v>
       </c>
       <c r="I54" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C55" s="179" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E55" s="181"/>
       <c r="F55" s="182" t="s">
-        <v>1571</v>
+        <v>1659</v>
       </c>
       <c r="G55" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H55" s="183">
         <v>21.0</v>
       </c>
       <c r="I55" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C56" s="179" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E56" s="181"/>
       <c r="F56" s="182" t="s">
-        <v>1572</v>
+        <v>1660</v>
       </c>
       <c r="G56" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H56" s="183">
         <v>22.0</v>
       </c>
       <c r="I56" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C57" s="179" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E57" s="181"/>
       <c r="F57" s="182" t="s">
-        <v>1573</v>
+        <v>1661</v>
       </c>
       <c r="G57" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H57" s="183">
         <v>23.0</v>
       </c>
       <c r="I57" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C58" s="179" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E58" s="181"/>
       <c r="F58" s="182" t="s">
-        <v>1574</v>
+        <v>1662</v>
       </c>
       <c r="G58" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H58" s="183">
         <v>24.0</v>
       </c>
       <c r="I58" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C59" s="179" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E59" s="181"/>
       <c r="F59" s="182" t="s">
-        <v>1575</v>
+        <v>1663</v>
       </c>
       <c r="G59" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H59" s="183">
         <v>25.0</v>
       </c>
       <c r="I59" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="199" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C60" s="206" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="201" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E60" s="202"/>
       <c r="F60" s="203" t="s">
-        <v>1576</v>
+        <v>1664</v>
       </c>
       <c r="G60" s="201" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H60" s="204">
         <v>26.0</v>
       </c>
       <c r="I60" s="205" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -24503,28 +24991,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="188" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C62" s="189" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="190" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E62" s="191" t="s">
-        <v>1577</v>
+        <v>1665</v>
       </c>
       <c r="F62" s="192" t="s">
-        <v>1578</v>
+        <v>1666</v>
       </c>
       <c r="G62" s="190" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H62" s="193" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="194" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -24542,676 +25030,676 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C64" s="179" t="s">
         <v>452</v>
       </c>
       <c r="D64" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E64" s="181"/>
       <c r="F64" s="182" t="s">
-        <v>1579</v>
+        <v>1667</v>
       </c>
       <c r="G64" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H64" s="183">
         <v>1.0</v>
       </c>
       <c r="I64" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C65" s="179" t="s">
         <v>453</v>
       </c>
       <c r="D65" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E65" s="181"/>
       <c r="F65" s="182" t="s">
-        <v>1580</v>
+        <v>1668</v>
       </c>
       <c r="G65" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H65" s="183">
         <v>2.0</v>
       </c>
       <c r="I65" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C66" s="179" t="s">
         <v>454</v>
       </c>
       <c r="D66" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E66" s="181"/>
       <c r="F66" s="182" t="s">
-        <v>1581</v>
+        <v>1669</v>
       </c>
       <c r="G66" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H66" s="183">
         <v>3.0</v>
       </c>
       <c r="I66" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C67" s="179" t="s">
         <v>455</v>
       </c>
       <c r="D67" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E67" s="181"/>
       <c r="F67" s="182" t="s">
-        <v>1582</v>
+        <v>1670</v>
       </c>
       <c r="G67" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H67" s="183">
         <v>4.0</v>
       </c>
       <c r="I67" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C68" s="179" t="s">
         <v>456</v>
       </c>
       <c r="D68" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E68" s="181"/>
       <c r="F68" s="182" t="s">
-        <v>1583</v>
+        <v>1671</v>
       </c>
       <c r="G68" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H68" s="183">
         <v>5.0</v>
       </c>
       <c r="I68" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C69" s="179" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E69" s="181"/>
       <c r="F69" s="182" t="s">
-        <v>1584</v>
+        <v>1672</v>
       </c>
       <c r="G69" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H69" s="183">
         <v>6.0</v>
       </c>
       <c r="I69" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C70" s="179" t="s">
         <v>458</v>
       </c>
       <c r="D70" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E70" s="181"/>
       <c r="F70" s="182" t="s">
-        <v>1585</v>
+        <v>1673</v>
       </c>
       <c r="G70" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H70" s="183">
         <v>7.0</v>
       </c>
       <c r="I70" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C71" s="179" t="s">
         <v>459</v>
       </c>
       <c r="D71" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E71" s="181"/>
       <c r="F71" s="182" t="s">
-        <v>1586</v>
+        <v>1674</v>
       </c>
       <c r="G71" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H71" s="183">
         <v>8.0</v>
       </c>
       <c r="I71" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C72" s="179" t="s">
         <v>460</v>
       </c>
       <c r="D72" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E72" s="181"/>
       <c r="F72" s="182" t="s">
-        <v>1587</v>
+        <v>1675</v>
       </c>
       <c r="G72" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H72" s="183">
         <v>9.0</v>
       </c>
       <c r="I72" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C73" s="179" t="s">
         <v>461</v>
       </c>
       <c r="D73" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E73" s="181"/>
       <c r="F73" s="182" t="s">
-        <v>1588</v>
+        <v>1676</v>
       </c>
       <c r="G73" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H73" s="183">
         <v>10.0</v>
       </c>
       <c r="I73" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C74" s="179" t="s">
         <v>462</v>
       </c>
       <c r="D74" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E74" s="181"/>
       <c r="F74" s="182" t="s">
-        <v>1589</v>
+        <v>1677</v>
       </c>
       <c r="G74" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H74" s="183">
         <v>11.0</v>
       </c>
       <c r="I74" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C75" s="179" t="s">
         <v>463</v>
       </c>
       <c r="D75" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E75" s="181"/>
       <c r="F75" s="182" t="s">
-        <v>1590</v>
+        <v>1678</v>
       </c>
       <c r="G75" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H75" s="183">
         <v>12.0</v>
       </c>
       <c r="I75" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C76" s="179" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E76" s="181"/>
       <c r="F76" s="182" t="s">
-        <v>1591</v>
+        <v>1679</v>
       </c>
       <c r="G76" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H76" s="183">
         <v>13.0</v>
       </c>
       <c r="I76" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C77" s="179" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E77" s="181"/>
       <c r="F77" s="182" t="s">
-        <v>1592</v>
+        <v>1680</v>
       </c>
       <c r="G77" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H77" s="183">
         <v>14.0</v>
       </c>
       <c r="I77" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C78" s="179" t="s">
         <v>466</v>
       </c>
       <c r="D78" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E78" s="181"/>
       <c r="F78" s="182" t="s">
-        <v>1593</v>
+        <v>1681</v>
       </c>
       <c r="G78" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H78" s="183">
         <v>15.0</v>
       </c>
       <c r="I78" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C79" s="179" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E79" s="181"/>
       <c r="F79" s="182" t="s">
-        <v>1594</v>
+        <v>1682</v>
       </c>
       <c r="G79" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H79" s="183">
         <v>16.0</v>
       </c>
       <c r="I79" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C80" s="179" t="s">
         <v>468</v>
       </c>
       <c r="D80" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E80" s="181"/>
       <c r="F80" s="182" t="s">
-        <v>1595</v>
+        <v>1683</v>
       </c>
       <c r="G80" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H80" s="183">
         <v>17.0</v>
       </c>
       <c r="I80" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C81" s="179" t="s">
         <v>469</v>
       </c>
       <c r="D81" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E81" s="181"/>
       <c r="F81" s="182" t="s">
-        <v>1596</v>
+        <v>1684</v>
       </c>
       <c r="G81" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H81" s="183">
         <v>18.0</v>
       </c>
       <c r="I81" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C82" s="179" t="s">
         <v>470</v>
       </c>
       <c r="D82" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E82" s="181"/>
       <c r="F82" s="182" t="s">
-        <v>1597</v>
+        <v>1685</v>
       </c>
       <c r="G82" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H82" s="183">
         <v>19.0</v>
       </c>
       <c r="I82" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C83" s="179" t="s">
         <v>471</v>
       </c>
       <c r="D83" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E83" s="181"/>
       <c r="F83" s="182" t="s">
-        <v>1598</v>
+        <v>1686</v>
       </c>
       <c r="G83" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H83" s="183">
         <v>20.0</v>
       </c>
       <c r="I83" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C84" s="179" t="s">
         <v>472</v>
       </c>
       <c r="D84" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E84" s="181"/>
       <c r="F84" s="182" t="s">
-        <v>1599</v>
+        <v>1687</v>
       </c>
       <c r="G84" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H84" s="183">
         <v>21.0</v>
       </c>
       <c r="I84" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C85" s="179" t="s">
         <v>473</v>
       </c>
       <c r="D85" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E85" s="181"/>
       <c r="F85" s="182" t="s">
-        <v>1600</v>
+        <v>1688</v>
       </c>
       <c r="G85" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H85" s="183">
         <v>22.0</v>
       </c>
       <c r="I85" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C86" s="179" t="s">
         <v>474</v>
       </c>
       <c r="D86" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E86" s="181"/>
       <c r="F86" s="182" t="s">
-        <v>1601</v>
+        <v>1689</v>
       </c>
       <c r="G86" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H86" s="183">
         <v>23.0</v>
       </c>
       <c r="I86" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C87" s="179" t="s">
         <v>475</v>
       </c>
       <c r="D87" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E87" s="181"/>
       <c r="F87" s="182" t="s">
-        <v>1602</v>
+        <v>1690</v>
       </c>
       <c r="G87" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H87" s="183">
         <v>24.0</v>
       </c>
       <c r="I87" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C88" s="179" t="s">
         <v>476</v>
       </c>
       <c r="D88" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E88" s="181"/>
       <c r="F88" s="182" t="s">
-        <v>1603</v>
+        <v>1691</v>
       </c>
       <c r="G88" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H88" s="183">
         <v>25.0</v>
       </c>
       <c r="I88" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="199" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C89" s="206" t="s">
         <v>477</v>
       </c>
       <c r="D89" s="201" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E89" s="202"/>
       <c r="F89" s="203" t="s">
-        <v>1604</v>
+        <v>1692</v>
       </c>
       <c r="G89" s="201" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H89" s="204">
         <v>26.0</v>
       </c>
       <c r="I89" s="205" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -25229,28 +25717,28 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="188" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C91" s="189" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="190" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E91" s="191" t="s">
-        <v>1605</v>
+        <v>1693</v>
       </c>
       <c r="F91" s="192" t="s">
-        <v>1606</v>
+        <v>1694</v>
       </c>
       <c r="G91" s="190" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H91" s="193" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="194" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -25268,676 +25756,676 @@
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C93" s="179" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E93" s="181"/>
       <c r="F93" s="182" t="s">
-        <v>1607</v>
+        <v>1695</v>
       </c>
       <c r="G93" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H93" s="183">
         <v>1.0</v>
       </c>
       <c r="I93" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C94" s="179" t="s">
         <v>730</v>
       </c>
       <c r="D94" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E94" s="181"/>
       <c r="F94" s="182" t="s">
-        <v>1608</v>
+        <v>1696</v>
       </c>
       <c r="G94" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H94" s="183">
         <v>2.0</v>
       </c>
       <c r="I94" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C95" s="179" t="s">
         <v>731</v>
       </c>
       <c r="D95" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E95" s="181"/>
       <c r="F95" s="182" t="s">
-        <v>1609</v>
+        <v>1697</v>
       </c>
       <c r="G95" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H95" s="183">
         <v>3.0</v>
       </c>
       <c r="I95" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C96" s="179" t="s">
         <v>732</v>
       </c>
       <c r="D96" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E96" s="181"/>
       <c r="F96" s="182" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G96" s="180" t="s">
         <v>1610</v>
-      </c>
-      <c r="G96" s="180" t="s">
-        <v>1522</v>
       </c>
       <c r="H96" s="183">
         <v>4.0</v>
       </c>
       <c r="I96" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C97" s="179" t="s">
         <v>733</v>
       </c>
       <c r="D97" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E97" s="181"/>
       <c r="F97" s="182" t="s">
-        <v>1611</v>
+        <v>1699</v>
       </c>
       <c r="G97" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H97" s="183">
         <v>5.0</v>
       </c>
       <c r="I97" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C98" s="179" t="s">
         <v>734</v>
       </c>
       <c r="D98" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E98" s="181"/>
       <c r="F98" s="182" t="s">
-        <v>1612</v>
+        <v>1700</v>
       </c>
       <c r="G98" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H98" s="183">
         <v>6.0</v>
       </c>
       <c r="I98" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C99" s="179" t="s">
         <v>735</v>
       </c>
       <c r="D99" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E99" s="181"/>
       <c r="F99" s="182" t="s">
-        <v>1613</v>
+        <v>1701</v>
       </c>
       <c r="G99" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H99" s="183">
         <v>7.0</v>
       </c>
       <c r="I99" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C100" s="179" t="s">
         <v>736</v>
       </c>
       <c r="D100" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E100" s="181"/>
       <c r="F100" s="182" t="s">
-        <v>1614</v>
+        <v>1702</v>
       </c>
       <c r="G100" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H100" s="183">
         <v>8.0</v>
       </c>
       <c r="I100" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C101" s="179" t="s">
         <v>737</v>
       </c>
       <c r="D101" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E101" s="181"/>
       <c r="F101" s="182" t="s">
-        <v>1615</v>
+        <v>1703</v>
       </c>
       <c r="G101" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H101" s="183">
         <v>9.0</v>
       </c>
       <c r="I101" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C102" s="179" t="s">
         <v>738</v>
       </c>
       <c r="D102" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E102" s="181"/>
       <c r="F102" s="182" t="s">
-        <v>1616</v>
+        <v>1704</v>
       </c>
       <c r="G102" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H102" s="183">
         <v>10.0</v>
       </c>
       <c r="I102" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C103" s="179" t="s">
         <v>739</v>
       </c>
       <c r="D103" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E103" s="181"/>
       <c r="F103" s="182" t="s">
-        <v>1617</v>
+        <v>1705</v>
       </c>
       <c r="G103" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H103" s="183">
         <v>11.0</v>
       </c>
       <c r="I103" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C104" s="179" t="s">
         <v>740</v>
       </c>
       <c r="D104" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E104" s="181"/>
       <c r="F104" s="182" t="s">
-        <v>1618</v>
+        <v>1706</v>
       </c>
       <c r="G104" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H104" s="183">
         <v>12.0</v>
       </c>
       <c r="I104" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C105" s="179" t="s">
         <v>741</v>
       </c>
       <c r="D105" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E105" s="181"/>
       <c r="F105" s="182" t="s">
-        <v>1619</v>
+        <v>1707</v>
       </c>
       <c r="G105" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H105" s="183">
         <v>13.0</v>
       </c>
       <c r="I105" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C106" s="179" t="s">
         <v>742</v>
       </c>
       <c r="D106" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E106" s="181"/>
       <c r="F106" s="182" t="s">
-        <v>1620</v>
+        <v>1708</v>
       </c>
       <c r="G106" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H106" s="183">
         <v>14.0</v>
       </c>
       <c r="I106" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C107" s="179" t="s">
         <v>743</v>
       </c>
       <c r="D107" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E107" s="181"/>
       <c r="F107" s="182" t="s">
-        <v>1621</v>
+        <v>1709</v>
       </c>
       <c r="G107" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H107" s="183">
         <v>15.0</v>
       </c>
       <c r="I107" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C108" s="179" t="s">
         <v>744</v>
       </c>
       <c r="D108" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E108" s="181"/>
       <c r="F108" s="182" t="s">
-        <v>1622</v>
+        <v>1710</v>
       </c>
       <c r="G108" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H108" s="183">
         <v>16.0</v>
       </c>
       <c r="I108" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C109" s="179" t="s">
         <v>745</v>
       </c>
       <c r="D109" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E109" s="181"/>
       <c r="F109" s="182" t="s">
-        <v>1623</v>
+        <v>1711</v>
       </c>
       <c r="G109" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H109" s="183">
         <v>17.0</v>
       </c>
       <c r="I109" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C110" s="179" t="s">
         <v>746</v>
       </c>
       <c r="D110" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E110" s="181"/>
       <c r="F110" s="182" t="s">
-        <v>1624</v>
+        <v>1712</v>
       </c>
       <c r="G110" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H110" s="183">
         <v>18.0</v>
       </c>
       <c r="I110" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C111" s="179" t="s">
         <v>747</v>
       </c>
       <c r="D111" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E111" s="181"/>
       <c r="F111" s="182" t="s">
-        <v>1625</v>
+        <v>1713</v>
       </c>
       <c r="G111" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H111" s="183">
         <v>19.0</v>
       </c>
       <c r="I111" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C112" s="179" t="s">
         <v>748</v>
       </c>
       <c r="D112" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E112" s="181"/>
       <c r="F112" s="182" t="s">
-        <v>1626</v>
+        <v>1714</v>
       </c>
       <c r="G112" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H112" s="183">
         <v>20.0</v>
       </c>
       <c r="I112" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C113" s="179" t="s">
         <v>749</v>
       </c>
       <c r="D113" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E113" s="181"/>
       <c r="F113" s="182" t="s">
-        <v>1627</v>
+        <v>1715</v>
       </c>
       <c r="G113" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H113" s="183">
         <v>21.0</v>
       </c>
       <c r="I113" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C114" s="179" t="s">
         <v>750</v>
       </c>
       <c r="D114" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E114" s="181"/>
       <c r="F114" s="182" t="s">
-        <v>1628</v>
+        <v>1716</v>
       </c>
       <c r="G114" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H114" s="183">
         <v>22.0</v>
       </c>
       <c r="I114" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C115" s="179" t="s">
         <v>751</v>
       </c>
       <c r="D115" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E115" s="181"/>
       <c r="F115" s="182" t="s">
-        <v>1629</v>
+        <v>1717</v>
       </c>
       <c r="G115" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H115" s="183">
         <v>23.0</v>
       </c>
       <c r="I115" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C116" s="179" t="s">
         <v>752</v>
       </c>
       <c r="D116" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E116" s="181"/>
       <c r="F116" s="182" t="s">
-        <v>1630</v>
+        <v>1718</v>
       </c>
       <c r="G116" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H116" s="183">
         <v>24.0</v>
       </c>
       <c r="I116" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C117" s="179" t="s">
         <v>753</v>
       </c>
       <c r="D117" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E117" s="181"/>
       <c r="F117" s="182" t="s">
-        <v>1631</v>
+        <v>1719</v>
       </c>
       <c r="G117" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H117" s="183">
         <v>25.0</v>
       </c>
       <c r="I117" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="199" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C118" s="206" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="201" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E118" s="202"/>
       <c r="F118" s="203" t="s">
-        <v>1632</v>
+        <v>1720</v>
       </c>
       <c r="G118" s="201" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H118" s="204">
         <v>26.0</v>
       </c>
       <c r="I118" s="205" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J118" s="1"/>
     </row>
@@ -25955,28 +26443,28 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="188" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C120" s="189" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="190" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E120" s="191" t="s">
-        <v>1633</v>
+        <v>1721</v>
       </c>
       <c r="F120" s="192" t="s">
-        <v>1634</v>
+        <v>1722</v>
       </c>
       <c r="G120" s="190" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H120" s="193" t="s">
         <v>3</v>
       </c>
       <c r="I120" s="194" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J120" s="1"/>
     </row>
@@ -25994,676 +26482,676 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C122" s="179" t="s">
         <v>1045</v>
       </c>
       <c r="D122" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E122" s="181"/>
       <c r="F122" s="182" t="s">
-        <v>1635</v>
+        <v>1723</v>
       </c>
       <c r="G122" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H122" s="183">
         <v>1.0</v>
       </c>
       <c r="I122" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C123" s="179" t="s">
         <v>1046</v>
       </c>
       <c r="D123" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E123" s="181"/>
       <c r="F123" s="182" t="s">
-        <v>1636</v>
+        <v>1724</v>
       </c>
       <c r="G123" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H123" s="183">
         <v>2.0</v>
       </c>
       <c r="I123" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C124" s="179" t="s">
         <v>1047</v>
       </c>
       <c r="D124" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E124" s="181"/>
       <c r="F124" s="182" t="s">
-        <v>1637</v>
+        <v>1725</v>
       </c>
       <c r="G124" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H124" s="183">
         <v>3.0</v>
       </c>
       <c r="I124" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C125" s="179" t="s">
         <v>1048</v>
       </c>
       <c r="D125" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E125" s="181"/>
       <c r="F125" s="182" t="s">
-        <v>1638</v>
+        <v>1726</v>
       </c>
       <c r="G125" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H125" s="183">
         <v>4.0</v>
       </c>
       <c r="I125" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C126" s="179" t="s">
         <v>1049</v>
       </c>
       <c r="D126" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E126" s="181"/>
       <c r="F126" s="182" t="s">
-        <v>1639</v>
+        <v>1727</v>
       </c>
       <c r="G126" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H126" s="183">
         <v>5.0</v>
       </c>
       <c r="I126" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C127" s="179" t="s">
         <v>1050</v>
       </c>
       <c r="D127" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E127" s="181"/>
       <c r="F127" s="182" t="s">
-        <v>1640</v>
+        <v>1728</v>
       </c>
       <c r="G127" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H127" s="183">
         <v>6.0</v>
       </c>
       <c r="I127" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C128" s="179" t="s">
         <v>1051</v>
       </c>
       <c r="D128" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E128" s="181"/>
       <c r="F128" s="182" t="s">
-        <v>1641</v>
+        <v>1729</v>
       </c>
       <c r="G128" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H128" s="183">
         <v>7.0</v>
       </c>
       <c r="I128" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C129" s="179" t="s">
         <v>1052</v>
       </c>
       <c r="D129" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E129" s="181"/>
       <c r="F129" s="182" t="s">
-        <v>1642</v>
+        <v>1730</v>
       </c>
       <c r="G129" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H129" s="183">
         <v>8.0</v>
       </c>
       <c r="I129" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C130" s="179" t="s">
         <v>1053</v>
       </c>
       <c r="D130" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E130" s="181"/>
       <c r="F130" s="182" t="s">
-        <v>1643</v>
+        <v>1731</v>
       </c>
       <c r="G130" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H130" s="183">
         <v>9.0</v>
       </c>
       <c r="I130" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C131" s="179" t="s">
         <v>1054</v>
       </c>
       <c r="D131" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E131" s="181"/>
       <c r="F131" s="182" t="s">
-        <v>1644</v>
+        <v>1732</v>
       </c>
       <c r="G131" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H131" s="183">
         <v>10.0</v>
       </c>
       <c r="I131" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C132" s="179" t="s">
         <v>1055</v>
       </c>
       <c r="D132" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E132" s="181"/>
       <c r="F132" s="182" t="s">
-        <v>1645</v>
+        <v>1733</v>
       </c>
       <c r="G132" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H132" s="183">
         <v>11.0</v>
       </c>
       <c r="I132" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C133" s="179" t="s">
         <v>1056</v>
       </c>
       <c r="D133" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E133" s="181"/>
       <c r="F133" s="182" t="s">
-        <v>1646</v>
+        <v>1734</v>
       </c>
       <c r="G133" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H133" s="183">
         <v>12.0</v>
       </c>
       <c r="I133" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C134" s="179" t="s">
         <v>1057</v>
       </c>
       <c r="D134" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E134" s="181"/>
       <c r="F134" s="182" t="s">
-        <v>1647</v>
+        <v>1735</v>
       </c>
       <c r="G134" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H134" s="183">
         <v>13.0</v>
       </c>
       <c r="I134" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C135" s="179" t="s">
         <v>1058</v>
       </c>
       <c r="D135" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E135" s="181"/>
       <c r="F135" s="182" t="s">
-        <v>1648</v>
+        <v>1736</v>
       </c>
       <c r="G135" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H135" s="183">
         <v>14.0</v>
       </c>
       <c r="I135" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C136" s="179" t="s">
         <v>1059</v>
       </c>
       <c r="D136" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E136" s="181"/>
       <c r="F136" s="182" t="s">
-        <v>1649</v>
+        <v>1737</v>
       </c>
       <c r="G136" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H136" s="183">
         <v>15.0</v>
       </c>
       <c r="I136" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C137" s="179" t="s">
         <v>1060</v>
       </c>
       <c r="D137" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E137" s="181"/>
       <c r="F137" s="182" t="s">
-        <v>1650</v>
+        <v>1738</v>
       </c>
       <c r="G137" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H137" s="183">
         <v>16.0</v>
       </c>
       <c r="I137" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C138" s="179" t="s">
         <v>1061</v>
       </c>
       <c r="D138" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E138" s="181"/>
       <c r="F138" s="182" t="s">
-        <v>1651</v>
+        <v>1739</v>
       </c>
       <c r="G138" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H138" s="183">
         <v>17.0</v>
       </c>
       <c r="I138" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C139" s="179" t="s">
         <v>1062</v>
       </c>
       <c r="D139" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E139" s="181"/>
       <c r="F139" s="182" t="s">
-        <v>1652</v>
+        <v>1740</v>
       </c>
       <c r="G139" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H139" s="183">
         <v>18.0</v>
       </c>
       <c r="I139" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C140" s="179" t="s">
         <v>1063</v>
       </c>
       <c r="D140" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E140" s="181"/>
       <c r="F140" s="182" t="s">
-        <v>1653</v>
+        <v>1741</v>
       </c>
       <c r="G140" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H140" s="183">
         <v>19.0</v>
       </c>
       <c r="I140" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C141" s="179" t="s">
         <v>1064</v>
       </c>
       <c r="D141" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E141" s="181"/>
       <c r="F141" s="182" t="s">
-        <v>1654</v>
+        <v>1742</v>
       </c>
       <c r="G141" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H141" s="183">
         <v>20.0</v>
       </c>
       <c r="I141" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C142" s="179" t="s">
         <v>1065</v>
       </c>
       <c r="D142" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E142" s="181"/>
       <c r="F142" s="182" t="s">
-        <v>1655</v>
+        <v>1743</v>
       </c>
       <c r="G142" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H142" s="183">
         <v>21.0</v>
       </c>
       <c r="I142" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C143" s="179" t="s">
         <v>1066</v>
       </c>
       <c r="D143" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E143" s="181"/>
       <c r="F143" s="182" t="s">
-        <v>1656</v>
+        <v>1744</v>
       </c>
       <c r="G143" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H143" s="183">
         <v>22.0</v>
       </c>
       <c r="I143" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C144" s="179" t="s">
         <v>1067</v>
       </c>
       <c r="D144" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E144" s="181"/>
       <c r="F144" s="182" t="s">
-        <v>1657</v>
+        <v>1745</v>
       </c>
       <c r="G144" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H144" s="183">
         <v>23.0</v>
       </c>
       <c r="I144" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C145" s="179" t="s">
         <v>1068</v>
       </c>
       <c r="D145" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E145" s="181"/>
       <c r="F145" s="182" t="s">
-        <v>1658</v>
+        <v>1746</v>
       </c>
       <c r="G145" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H145" s="183">
         <v>24.0</v>
       </c>
       <c r="I145" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C146" s="179" t="s">
         <v>1069</v>
       </c>
       <c r="D146" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E146" s="181"/>
       <c r="F146" s="182" t="s">
-        <v>1659</v>
+        <v>1747</v>
       </c>
       <c r="G146" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H146" s="183">
         <v>25.0</v>
       </c>
       <c r="I146" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="199" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C147" s="206" t="s">
         <v>1070</v>
       </c>
       <c r="D147" s="201" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E147" s="202"/>
       <c r="F147" s="203" t="s">
-        <v>1660</v>
+        <v>1748</v>
       </c>
       <c r="G147" s="201" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H147" s="204">
         <v>26.0</v>
       </c>
       <c r="I147" s="205" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J147" s="1"/>
     </row>
@@ -26681,28 +27169,28 @@
     <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="188" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C149" s="189" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="190" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E149" s="191" t="s">
-        <v>1661</v>
+        <v>1749</v>
       </c>
       <c r="F149" s="192" t="s">
-        <v>1662</v>
+        <v>1750</v>
       </c>
       <c r="G149" s="190" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H149" s="193" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="194" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J149" s="1"/>
     </row>
@@ -26720,676 +27208,676 @@
     <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C151" s="179" t="s">
         <v>1269</v>
       </c>
       <c r="D151" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E151" s="181"/>
       <c r="F151" s="182" t="s">
-        <v>1663</v>
+        <v>1751</v>
       </c>
       <c r="G151" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H151" s="183">
         <v>1.0</v>
       </c>
       <c r="I151" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C152" s="179" t="s">
         <v>1270</v>
       </c>
       <c r="D152" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E152" s="181"/>
       <c r="F152" s="182" t="s">
-        <v>1664</v>
+        <v>1752</v>
       </c>
       <c r="G152" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H152" s="183">
         <v>2.0</v>
       </c>
       <c r="I152" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C153" s="179" t="s">
         <v>1271</v>
       </c>
       <c r="D153" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E153" s="181"/>
       <c r="F153" s="182" t="s">
-        <v>1665</v>
+        <v>1753</v>
       </c>
       <c r="G153" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H153" s="183">
         <v>3.0</v>
       </c>
       <c r="I153" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C154" s="179" t="s">
         <v>1272</v>
       </c>
       <c r="D154" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E154" s="181"/>
       <c r="F154" s="182" t="s">
-        <v>1666</v>
+        <v>1754</v>
       </c>
       <c r="G154" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H154" s="183">
         <v>4.0</v>
       </c>
       <c r="I154" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C155" s="179" t="s">
         <v>1273</v>
       </c>
       <c r="D155" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E155" s="181"/>
       <c r="F155" s="182" t="s">
-        <v>1667</v>
+        <v>1755</v>
       </c>
       <c r="G155" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H155" s="183">
         <v>5.0</v>
       </c>
       <c r="I155" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C156" s="179" t="s">
         <v>1274</v>
       </c>
       <c r="D156" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E156" s="181"/>
       <c r="F156" s="182" t="s">
-        <v>1668</v>
+        <v>1756</v>
       </c>
       <c r="G156" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H156" s="183">
         <v>6.0</v>
       </c>
       <c r="I156" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C157" s="179" t="s">
         <v>1275</v>
       </c>
       <c r="D157" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E157" s="181"/>
       <c r="F157" s="182" t="s">
-        <v>1669</v>
+        <v>1757</v>
       </c>
       <c r="G157" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H157" s="183">
         <v>7.0</v>
       </c>
       <c r="I157" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C158" s="179" t="s">
         <v>1276</v>
       </c>
       <c r="D158" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E158" s="181"/>
       <c r="F158" s="182" t="s">
-        <v>1670</v>
+        <v>1758</v>
       </c>
       <c r="G158" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H158" s="183">
         <v>8.0</v>
       </c>
       <c r="I158" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C159" s="179" t="s">
         <v>1277</v>
       </c>
       <c r="D159" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E159" s="181"/>
       <c r="F159" s="182" t="s">
-        <v>1671</v>
+        <v>1759</v>
       </c>
       <c r="G159" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H159" s="183">
         <v>9.0</v>
       </c>
       <c r="I159" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C160" s="179" t="s">
         <v>1278</v>
       </c>
       <c r="D160" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E160" s="181"/>
       <c r="F160" s="182" t="s">
-        <v>1672</v>
+        <v>1760</v>
       </c>
       <c r="G160" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H160" s="183">
         <v>10.0</v>
       </c>
       <c r="I160" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C161" s="179" t="s">
         <v>1279</v>
       </c>
       <c r="D161" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E161" s="181"/>
       <c r="F161" s="182" t="s">
-        <v>1673</v>
+        <v>1761</v>
       </c>
       <c r="G161" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H161" s="183">
         <v>11.0</v>
       </c>
       <c r="I161" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C162" s="179" t="s">
         <v>1280</v>
       </c>
       <c r="D162" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E162" s="181"/>
       <c r="F162" s="182" t="s">
-        <v>1674</v>
+        <v>1762</v>
       </c>
       <c r="G162" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H162" s="183">
         <v>12.0</v>
       </c>
       <c r="I162" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C163" s="179" t="s">
         <v>1281</v>
       </c>
       <c r="D163" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E163" s="181"/>
       <c r="F163" s="182" t="s">
-        <v>1675</v>
+        <v>1763</v>
       </c>
       <c r="G163" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H163" s="183">
         <v>13.0</v>
       </c>
       <c r="I163" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C164" s="179" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E164" s="181"/>
       <c r="F164" s="182" t="s">
-        <v>1676</v>
+        <v>1764</v>
       </c>
       <c r="G164" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H164" s="183">
         <v>14.0</v>
       </c>
       <c r="I164" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C165" s="179" t="s">
         <v>1283</v>
       </c>
       <c r="D165" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E165" s="181"/>
       <c r="F165" s="182" t="s">
-        <v>1677</v>
+        <v>1765</v>
       </c>
       <c r="G165" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H165" s="183">
         <v>15.0</v>
       </c>
       <c r="I165" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C166" s="179" t="s">
         <v>1284</v>
       </c>
       <c r="D166" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E166" s="181"/>
       <c r="F166" s="182" t="s">
-        <v>1678</v>
+        <v>1766</v>
       </c>
       <c r="G166" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H166" s="183">
         <v>16.0</v>
       </c>
       <c r="I166" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C167" s="179" t="s">
         <v>1285</v>
       </c>
       <c r="D167" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E167" s="181"/>
       <c r="F167" s="182" t="s">
-        <v>1679</v>
+        <v>1767</v>
       </c>
       <c r="G167" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H167" s="183">
         <v>17.0</v>
       </c>
       <c r="I167" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C168" s="179" t="s">
         <v>1286</v>
       </c>
       <c r="D168" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E168" s="181"/>
       <c r="F168" s="182" t="s">
-        <v>1680</v>
+        <v>1768</v>
       </c>
       <c r="G168" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H168" s="183">
         <v>18.0</v>
       </c>
       <c r="I168" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C169" s="179" t="s">
         <v>1287</v>
       </c>
       <c r="D169" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E169" s="181"/>
       <c r="F169" s="182" t="s">
-        <v>1681</v>
+        <v>1769</v>
       </c>
       <c r="G169" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H169" s="183">
         <v>19.0</v>
       </c>
       <c r="I169" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C170" s="179" t="s">
         <v>1288</v>
       </c>
       <c r="D170" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E170" s="181"/>
       <c r="F170" s="182" t="s">
-        <v>1682</v>
+        <v>1770</v>
       </c>
       <c r="G170" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H170" s="183">
         <v>20.0</v>
       </c>
       <c r="I170" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C171" s="179" t="s">
         <v>1289</v>
       </c>
       <c r="D171" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E171" s="181"/>
       <c r="F171" s="182" t="s">
-        <v>1683</v>
+        <v>1771</v>
       </c>
       <c r="G171" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H171" s="183">
         <v>21.0</v>
       </c>
       <c r="I171" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C172" s="179" t="s">
         <v>1290</v>
       </c>
       <c r="D172" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E172" s="181"/>
       <c r="F172" s="182" t="s">
-        <v>1684</v>
+        <v>1772</v>
       </c>
       <c r="G172" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H172" s="183">
         <v>22.0</v>
       </c>
       <c r="I172" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C173" s="179" t="s">
         <v>1291</v>
       </c>
       <c r="D173" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E173" s="181"/>
       <c r="F173" s="182" t="s">
-        <v>1685</v>
+        <v>1773</v>
       </c>
       <c r="G173" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H173" s="183">
         <v>23.0</v>
       </c>
       <c r="I173" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C174" s="179" t="s">
         <v>1292</v>
       </c>
       <c r="D174" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E174" s="181"/>
       <c r="F174" s="182" t="s">
-        <v>1686</v>
+        <v>1774</v>
       </c>
       <c r="G174" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H174" s="183">
         <v>24.0</v>
       </c>
       <c r="I174" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C175" s="179" t="s">
         <v>1293</v>
       </c>
       <c r="D175" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E175" s="181"/>
       <c r="F175" s="182" t="s">
-        <v>1687</v>
+        <v>1775</v>
       </c>
       <c r="G175" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H175" s="183">
         <v>25.0</v>
       </c>
       <c r="I175" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="199" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C176" s="206" t="s">
         <v>1294</v>
       </c>
       <c r="D176" s="201" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E176" s="202"/>
       <c r="F176" s="203" t="s">
-        <v>1688</v>
+        <v>1776</v>
       </c>
       <c r="G176" s="201" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H176" s="204">
         <v>26.0</v>
       </c>
       <c r="I176" s="205" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -27408,28 +27896,28 @@
     <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="188" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C178" s="189" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="190" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E178" s="191" t="s">
-        <v>1689</v>
+        <v>1777</v>
       </c>
       <c r="F178" s="192" t="s">
-        <v>1690</v>
+        <v>1778</v>
       </c>
       <c r="G178" s="190" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H178" s="193" t="s">
         <v>5</v>
       </c>
       <c r="I178" s="194" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J178" s="1"/>
     </row>
@@ -27448,676 +27936,676 @@
     <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C180" s="179" t="s">
         <v>1424</v>
       </c>
       <c r="D180" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E180" s="181"/>
       <c r="F180" s="182" t="s">
-        <v>1691</v>
+        <v>1779</v>
       </c>
       <c r="G180" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H180" s="183">
         <v>1.0</v>
       </c>
       <c r="I180" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C181" s="179" t="s">
         <v>1425</v>
       </c>
       <c r="D181" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E181" s="181"/>
       <c r="F181" s="182" t="s">
-        <v>1692</v>
+        <v>1780</v>
       </c>
       <c r="G181" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H181" s="183">
         <v>2.0</v>
       </c>
       <c r="I181" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C182" s="179" t="s">
         <v>1426</v>
       </c>
       <c r="D182" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E182" s="181"/>
       <c r="F182" s="182" t="s">
-        <v>1693</v>
+        <v>1781</v>
       </c>
       <c r="G182" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H182" s="183">
         <v>3.0</v>
       </c>
       <c r="I182" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C183" s="179" t="s">
         <v>1427</v>
       </c>
       <c r="D183" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E183" s="181"/>
       <c r="F183" s="182" t="s">
-        <v>1694</v>
+        <v>1782</v>
       </c>
       <c r="G183" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H183" s="183">
         <v>4.0</v>
       </c>
       <c r="I183" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C184" s="179" t="s">
         <v>1428</v>
       </c>
       <c r="D184" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E184" s="181"/>
       <c r="F184" s="182" t="s">
-        <v>1695</v>
+        <v>1783</v>
       </c>
       <c r="G184" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H184" s="183">
         <v>5.0</v>
       </c>
       <c r="I184" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C185" s="179" t="s">
         <v>1429</v>
       </c>
       <c r="D185" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E185" s="181"/>
       <c r="F185" s="182" t="s">
-        <v>1696</v>
+        <v>1784</v>
       </c>
       <c r="G185" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H185" s="183">
         <v>6.0</v>
       </c>
       <c r="I185" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C186" s="179" t="s">
         <v>1430</v>
       </c>
       <c r="D186" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E186" s="181"/>
       <c r="F186" s="182" t="s">
-        <v>1697</v>
+        <v>1785</v>
       </c>
       <c r="G186" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H186" s="183">
         <v>7.0</v>
       </c>
       <c r="I186" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C187" s="179" t="s">
         <v>1431</v>
       </c>
       <c r="D187" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E187" s="181"/>
       <c r="F187" s="182" t="s">
-        <v>1698</v>
+        <v>1786</v>
       </c>
       <c r="G187" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H187" s="183">
         <v>8.0</v>
       </c>
       <c r="I187" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C188" s="179" t="s">
         <v>1432</v>
       </c>
       <c r="D188" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E188" s="181"/>
       <c r="F188" s="182" t="s">
-        <v>1699</v>
+        <v>1787</v>
       </c>
       <c r="G188" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H188" s="183">
         <v>9.0</v>
       </c>
       <c r="I188" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C189" s="179" t="s">
         <v>1433</v>
       </c>
       <c r="D189" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E189" s="181"/>
       <c r="F189" s="182" t="s">
-        <v>1700</v>
+        <v>1788</v>
       </c>
       <c r="G189" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H189" s="183">
         <v>10.0</v>
       </c>
       <c r="I189" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C190" s="179" t="s">
         <v>1434</v>
       </c>
       <c r="D190" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E190" s="181"/>
       <c r="F190" s="182" t="s">
-        <v>1701</v>
+        <v>1789</v>
       </c>
       <c r="G190" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H190" s="183">
         <v>11.0</v>
       </c>
       <c r="I190" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C191" s="179" t="s">
         <v>1435</v>
       </c>
       <c r="D191" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E191" s="181"/>
       <c r="F191" s="182" t="s">
-        <v>1702</v>
+        <v>1790</v>
       </c>
       <c r="G191" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H191" s="183">
         <v>12.0</v>
       </c>
       <c r="I191" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C192" s="179" t="s">
         <v>1436</v>
       </c>
       <c r="D192" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E192" s="181"/>
       <c r="F192" s="182" t="s">
-        <v>1703</v>
+        <v>1791</v>
       </c>
       <c r="G192" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H192" s="183">
         <v>13.0</v>
       </c>
       <c r="I192" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C193" s="179" t="s">
         <v>1437</v>
       </c>
       <c r="D193" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E193" s="181"/>
       <c r="F193" s="182" t="s">
-        <v>1704</v>
+        <v>1792</v>
       </c>
       <c r="G193" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H193" s="183">
         <v>14.0</v>
       </c>
       <c r="I193" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C194" s="179" t="s">
         <v>1438</v>
       </c>
       <c r="D194" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E194" s="181"/>
       <c r="F194" s="182" t="s">
-        <v>1705</v>
+        <v>1793</v>
       </c>
       <c r="G194" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H194" s="183">
         <v>15.0</v>
       </c>
       <c r="I194" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C195" s="179" t="s">
         <v>1439</v>
       </c>
       <c r="D195" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E195" s="181"/>
       <c r="F195" s="182" t="s">
-        <v>1706</v>
+        <v>1794</v>
       </c>
       <c r="G195" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H195" s="183">
         <v>16.0</v>
       </c>
       <c r="I195" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C196" s="179" t="s">
         <v>1440</v>
       </c>
       <c r="D196" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E196" s="181"/>
       <c r="F196" s="182" t="s">
-        <v>1707</v>
+        <v>1795</v>
       </c>
       <c r="G196" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H196" s="183">
         <v>17.0</v>
       </c>
       <c r="I196" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C197" s="179" t="s">
         <v>1441</v>
       </c>
       <c r="D197" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E197" s="181"/>
       <c r="F197" s="182" t="s">
-        <v>1708</v>
+        <v>1796</v>
       </c>
       <c r="G197" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H197" s="183">
         <v>18.0</v>
       </c>
       <c r="I197" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C198" s="179" t="s">
         <v>1442</v>
       </c>
       <c r="D198" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E198" s="181"/>
       <c r="F198" s="182" t="s">
-        <v>1709</v>
+        <v>1797</v>
       </c>
       <c r="G198" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H198" s="183">
         <v>19.0</v>
       </c>
       <c r="I198" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C199" s="179" t="s">
         <v>1443</v>
       </c>
       <c r="D199" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E199" s="181"/>
       <c r="F199" s="182" t="s">
-        <v>1710</v>
+        <v>1798</v>
       </c>
       <c r="G199" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H199" s="183">
         <v>20.0</v>
       </c>
       <c r="I199" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C200" s="179" t="s">
         <v>1444</v>
       </c>
       <c r="D200" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E200" s="181"/>
       <c r="F200" s="182" t="s">
-        <v>1711</v>
+        <v>1799</v>
       </c>
       <c r="G200" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H200" s="183">
         <v>21.0</v>
       </c>
       <c r="I200" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C201" s="179" t="s">
         <v>1445</v>
       </c>
       <c r="D201" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E201" s="181"/>
       <c r="F201" s="182" t="s">
-        <v>1712</v>
+        <v>1800</v>
       </c>
       <c r="G201" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H201" s="183">
         <v>22.0</v>
       </c>
       <c r="I201" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C202" s="179" t="s">
         <v>1446</v>
       </c>
       <c r="D202" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E202" s="181"/>
       <c r="F202" s="182" t="s">
-        <v>1713</v>
+        <v>1801</v>
       </c>
       <c r="G202" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H202" s="183">
         <v>23.0</v>
       </c>
       <c r="I202" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C203" s="179" t="s">
         <v>1447</v>
       </c>
       <c r="D203" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E203" s="181"/>
       <c r="F203" s="182" t="s">
-        <v>1714</v>
+        <v>1802</v>
       </c>
       <c r="G203" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H203" s="183">
         <v>24.0</v>
       </c>
       <c r="I203" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="195" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C204" s="179" t="s">
         <v>1448</v>
       </c>
       <c r="D204" s="180" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E204" s="181"/>
       <c r="F204" s="182" t="s">
-        <v>1715</v>
+        <v>1803</v>
       </c>
       <c r="G204" s="180" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H204" s="183">
         <v>25.0</v>
       </c>
       <c r="I204" s="197" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="199" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="C205" s="206" t="s">
         <v>1449</v>
       </c>
       <c r="D205" s="201" t="s">
-        <v>1519</v>
+        <v>1607</v>
       </c>
       <c r="E205" s="202"/>
       <c r="F205" s="203" t="s">
-        <v>1716</v>
+        <v>1804</v>
       </c>
       <c r="G205" s="201" t="s">
-        <v>1522</v>
+        <v>1610</v>
       </c>
       <c r="H205" s="204">
         <v>26.0</v>
       </c>
       <c r="I205" s="205" t="s">
-        <v>1517</v>
+        <v>1605</v>
       </c>
       <c r="J205" s="1"/>
     </row>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="1847">
   <si>
     <t>A#3</t>
   </si>
@@ -4389,6 +4389,18 @@
     <t>oral</t>
   </si>
   <si>
+    <t>neuron</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>feat</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
     <t>ethic</t>
   </si>
   <si>
@@ -4431,6 +4443,18 @@
     <t>simultaneous</t>
   </si>
   <si>
+    <t>surveillance</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
     <t>conference</t>
   </si>
   <si>
@@ -4473,6 +4497,18 @@
     <t>even</t>
   </si>
   <si>
+    <t>habitation</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>entangle</t>
+  </si>
+  <si>
     <t>fund</t>
   </si>
   <si>
@@ -4515,6 +4551,18 @@
     <t>odd</t>
   </si>
   <si>
+    <t>consortium</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>manner</t>
+  </si>
+  <si>
+    <t>allocation</t>
+  </si>
+  <si>
     <t>participant</t>
   </si>
   <si>
@@ -4557,6 +4605,18 @@
     <t>visual</t>
   </si>
   <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>lottery</t>
+  </si>
+  <si>
     <t>conceal</t>
   </si>
   <si>
@@ -4599,6 +4659,18 @@
     <t>compete</t>
   </si>
   <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>conscious</t>
+  </si>
+  <si>
+    <t>awake</t>
+  </si>
+  <si>
+    <t>breeze</t>
+  </si>
+  <si>
     <t>concurrent</t>
   </si>
   <si>
@@ -4641,6 +4713,18 @@
     <t>cash</t>
   </si>
   <si>
+    <t>discrete</t>
+  </si>
+  <si>
+    <t>catalogue</t>
+  </si>
+  <si>
+    <t>recurring</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
     <t>fashion</t>
   </si>
   <si>
@@ -4683,6 +4767,18 @@
     <t>trophy</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>pendulum</t>
+  </si>
+  <si>
     <t>transmission</t>
   </si>
   <si>
@@ -4725,6 +4821,18 @@
     <t>century</t>
   </si>
   <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>stump</t>
+  </si>
+  <si>
+    <t>indication</t>
+  </si>
+  <si>
     <t>approve</t>
   </si>
   <si>
@@ -4767,6 +4875,18 @@
     <t>daily</t>
   </si>
   <si>
+    <t>ambition</t>
+  </si>
+  <si>
+    <t>medic</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>imperial</t>
+  </si>
+  <si>
     <t>consider</t>
   </si>
   <si>
@@ -4801,6 +4921,12 @@
   </si>
   <si>
     <t>{2, 11, 22, 121}</t>
+  </si>
+  <si>
+    <t>{5, 13, 25, 65}</t>
+  </si>
+  <si>
+    <t>{2, 127}</t>
   </si>
   <si>
     <t>{3, 107}</t>
@@ -22308,8 +22434,12 @@
       <c r="J82" s="162" t="s">
         <v>1457</v>
       </c>
-      <c r="K82" s="111"/>
-      <c r="L82" s="111"/>
+      <c r="K82" s="162" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L82" s="162" t="s">
+        <v>1459</v>
+      </c>
       <c r="M82" s="111"/>
       <c r="N82" s="111"/>
       <c r="O82" s="111"/>
@@ -22318,28 +22448,32 @@
       <c r="R82" s="111"/>
       <c r="S82" s="111"/>
       <c r="T82" s="111"/>
-      <c r="U82" s="111"/>
-      <c r="V82" s="111"/>
+      <c r="U82" s="162" t="s">
+        <v>1460</v>
+      </c>
+      <c r="V82" s="162" t="s">
+        <v>1461</v>
+      </c>
       <c r="W82" s="162" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="X82" s="162" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="Y82" s="162" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="Z82" s="162" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="AA82" s="162" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="AB82" s="162" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="AC82" s="163" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="AD82" s="100"/>
       <c r="AE82" s="113"/>
@@ -22355,28 +22489,32 @@
       </c>
       <c r="C83" s="100"/>
       <c r="D83" s="164" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="E83" s="165" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="F83" s="165" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="G83" s="165" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="H83" s="165" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="I83" s="165" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="J83" s="165" t="s">
-        <v>1471</v>
-      </c>
-      <c r="K83" s="119"/>
-      <c r="L83" s="119"/>
+        <v>1475</v>
+      </c>
+      <c r="K83" s="165" t="s">
+        <v>1476</v>
+      </c>
+      <c r="L83" s="165" t="s">
+        <v>1477</v>
+      </c>
       <c r="M83" s="119"/>
       <c r="N83" s="119"/>
       <c r="O83" s="119"/>
@@ -22385,28 +22523,32 @@
       <c r="R83" s="119"/>
       <c r="S83" s="119"/>
       <c r="T83" s="119"/>
-      <c r="U83" s="119"/>
-      <c r="V83" s="119"/>
+      <c r="U83" s="165" t="s">
+        <v>1478</v>
+      </c>
+      <c r="V83" s="165" t="s">
+        <v>1479</v>
+      </c>
       <c r="W83" s="165" t="s">
-        <v>1472</v>
+        <v>1480</v>
       </c>
       <c r="X83" s="165" t="s">
-        <v>1473</v>
+        <v>1481</v>
       </c>
       <c r="Y83" s="165" t="s">
-        <v>1474</v>
+        <v>1482</v>
       </c>
       <c r="Z83" s="165" t="s">
-        <v>1475</v>
+        <v>1483</v>
       </c>
       <c r="AA83" s="165" t="s">
-        <v>1476</v>
+        <v>1484</v>
       </c>
       <c r="AB83" s="165" t="s">
-        <v>1477</v>
+        <v>1485</v>
       </c>
       <c r="AC83" s="166" t="s">
-        <v>1478</v>
+        <v>1486</v>
       </c>
       <c r="AD83" s="100"/>
       <c r="AE83" s="121"/>
@@ -22422,28 +22564,32 @@
       </c>
       <c r="C84" s="100"/>
       <c r="D84" s="164" t="s">
-        <v>1479</v>
+        <v>1487</v>
       </c>
       <c r="E84" s="165" t="s">
-        <v>1480</v>
+        <v>1488</v>
       </c>
       <c r="F84" s="165" t="s">
-        <v>1481</v>
+        <v>1489</v>
       </c>
       <c r="G84" s="165" t="s">
-        <v>1482</v>
+        <v>1490</v>
       </c>
       <c r="H84" s="165" t="s">
-        <v>1483</v>
+        <v>1491</v>
       </c>
       <c r="I84" s="165" t="s">
-        <v>1484</v>
+        <v>1492</v>
       </c>
       <c r="J84" s="165" t="s">
-        <v>1485</v>
-      </c>
-      <c r="K84" s="119"/>
-      <c r="L84" s="119"/>
+        <v>1493</v>
+      </c>
+      <c r="K84" s="165" t="s">
+        <v>1494</v>
+      </c>
+      <c r="L84" s="165" t="s">
+        <v>1495</v>
+      </c>
       <c r="M84" s="119"/>
       <c r="N84" s="119"/>
       <c r="O84" s="119"/>
@@ -22452,28 +22598,32 @@
       <c r="R84" s="119"/>
       <c r="S84" s="119"/>
       <c r="T84" s="119"/>
-      <c r="U84" s="119"/>
-      <c r="V84" s="119"/>
+      <c r="U84" s="165" t="s">
+        <v>1496</v>
+      </c>
+      <c r="V84" s="165" t="s">
+        <v>1497</v>
+      </c>
       <c r="W84" s="165" t="s">
-        <v>1486</v>
+        <v>1498</v>
       </c>
       <c r="X84" s="165" t="s">
-        <v>1487</v>
+        <v>1499</v>
       </c>
       <c r="Y84" s="165" t="s">
-        <v>1488</v>
+        <v>1500</v>
       </c>
       <c r="Z84" s="165" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="AA84" s="165" t="s">
-        <v>1490</v>
+        <v>1502</v>
       </c>
       <c r="AB84" s="165" t="s">
-        <v>1491</v>
+        <v>1503</v>
       </c>
       <c r="AC84" s="166" t="s">
-        <v>1492</v>
+        <v>1504</v>
       </c>
       <c r="AD84" s="100"/>
       <c r="AE84" s="121"/>
@@ -22489,28 +22639,32 @@
       </c>
       <c r="C85" s="100"/>
       <c r="D85" s="164" t="s">
-        <v>1493</v>
+        <v>1505</v>
       </c>
       <c r="E85" s="165" t="s">
-        <v>1494</v>
+        <v>1506</v>
       </c>
       <c r="F85" s="165" t="s">
-        <v>1495</v>
+        <v>1507</v>
       </c>
       <c r="G85" s="165" t="s">
-        <v>1496</v>
+        <v>1508</v>
       </c>
       <c r="H85" s="165" t="s">
-        <v>1497</v>
+        <v>1509</v>
       </c>
       <c r="I85" s="165" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
       <c r="J85" s="165" t="s">
-        <v>1499</v>
-      </c>
-      <c r="K85" s="119"/>
-      <c r="L85" s="119"/>
+        <v>1511</v>
+      </c>
+      <c r="K85" s="165" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L85" s="165" t="s">
+        <v>1513</v>
+      </c>
       <c r="M85" s="119"/>
       <c r="N85" s="119"/>
       <c r="O85" s="119"/>
@@ -22519,28 +22673,32 @@
       <c r="R85" s="119"/>
       <c r="S85" s="119"/>
       <c r="T85" s="119"/>
-      <c r="U85" s="119"/>
-      <c r="V85" s="119"/>
+      <c r="U85" s="165" t="s">
+        <v>1514</v>
+      </c>
+      <c r="V85" s="165" t="s">
+        <v>1515</v>
+      </c>
       <c r="W85" s="165" t="s">
-        <v>1500</v>
+        <v>1516</v>
       </c>
       <c r="X85" s="165" t="s">
-        <v>1501</v>
+        <v>1517</v>
       </c>
       <c r="Y85" s="165" t="s">
-        <v>1502</v>
+        <v>1518</v>
       </c>
       <c r="Z85" s="165" t="s">
-        <v>1503</v>
+        <v>1519</v>
       </c>
       <c r="AA85" s="165" t="s">
-        <v>1504</v>
+        <v>1520</v>
       </c>
       <c r="AB85" s="165" t="s">
-        <v>1505</v>
+        <v>1521</v>
       </c>
       <c r="AC85" s="166" t="s">
-        <v>1506</v>
+        <v>1522</v>
       </c>
       <c r="AD85" s="100"/>
       <c r="AE85" s="121"/>
@@ -22556,28 +22714,32 @@
       </c>
       <c r="C86" s="100"/>
       <c r="D86" s="164" t="s">
-        <v>1507</v>
+        <v>1523</v>
       </c>
       <c r="E86" s="165" t="s">
-        <v>1508</v>
+        <v>1524</v>
       </c>
       <c r="F86" s="165" t="s">
-        <v>1509</v>
+        <v>1525</v>
       </c>
       <c r="G86" s="165" t="s">
-        <v>1510</v>
+        <v>1526</v>
       </c>
       <c r="H86" s="165" t="s">
-        <v>1511</v>
+        <v>1527</v>
       </c>
       <c r="I86" s="165" t="s">
-        <v>1512</v>
+        <v>1528</v>
       </c>
       <c r="J86" s="165" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K86" s="119"/>
-      <c r="L86" s="119"/>
+        <v>1529</v>
+      </c>
+      <c r="K86" s="165" t="s">
+        <v>1530</v>
+      </c>
+      <c r="L86" s="165" t="s">
+        <v>1531</v>
+      </c>
       <c r="M86" s="119"/>
       <c r="N86" s="119"/>
       <c r="O86" s="119"/>
@@ -22586,28 +22748,32 @@
       <c r="R86" s="119"/>
       <c r="S86" s="119"/>
       <c r="T86" s="119"/>
-      <c r="U86" s="119"/>
-      <c r="V86" s="119"/>
+      <c r="U86" s="165" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V86" s="165" t="s">
+        <v>1533</v>
+      </c>
       <c r="W86" s="165" t="s">
-        <v>1514</v>
+        <v>1534</v>
       </c>
       <c r="X86" s="165" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="Y86" s="165" t="s">
-        <v>1516</v>
+        <v>1536</v>
       </c>
       <c r="Z86" s="165" t="s">
-        <v>1517</v>
+        <v>1537</v>
       </c>
       <c r="AA86" s="165" t="s">
-        <v>1518</v>
+        <v>1538</v>
       </c>
       <c r="AB86" s="165" t="s">
-        <v>1519</v>
+        <v>1539</v>
       </c>
       <c r="AC86" s="166" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="AD86" s="100"/>
       <c r="AE86" s="121"/>
@@ -22623,28 +22789,32 @@
       </c>
       <c r="C87" s="100"/>
       <c r="D87" s="164" t="s">
-        <v>1521</v>
+        <v>1541</v>
       </c>
       <c r="E87" s="165" t="s">
-        <v>1522</v>
+        <v>1542</v>
       </c>
       <c r="F87" s="165" t="s">
-        <v>1523</v>
+        <v>1543</v>
       </c>
       <c r="G87" s="165" t="s">
-        <v>1524</v>
+        <v>1544</v>
       </c>
       <c r="H87" s="165" t="s">
-        <v>1525</v>
+        <v>1545</v>
       </c>
       <c r="I87" s="165" t="s">
-        <v>1526</v>
+        <v>1546</v>
       </c>
       <c r="J87" s="165" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K87" s="119"/>
-      <c r="L87" s="119"/>
+        <v>1547</v>
+      </c>
+      <c r="K87" s="165" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L87" s="165" t="s">
+        <v>1549</v>
+      </c>
       <c r="M87" s="119"/>
       <c r="N87" s="119"/>
       <c r="O87" s="119"/>
@@ -22653,28 +22823,32 @@
       <c r="R87" s="119"/>
       <c r="S87" s="119"/>
       <c r="T87" s="119"/>
-      <c r="U87" s="119"/>
-      <c r="V87" s="119"/>
+      <c r="U87" s="165" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V87" s="165" t="s">
+        <v>1551</v>
+      </c>
       <c r="W87" s="165" t="s">
-        <v>1528</v>
+        <v>1552</v>
       </c>
       <c r="X87" s="165" t="s">
-        <v>1529</v>
+        <v>1553</v>
       </c>
       <c r="Y87" s="165" t="s">
-        <v>1530</v>
+        <v>1554</v>
       </c>
       <c r="Z87" s="165" t="s">
-        <v>1531</v>
+        <v>1555</v>
       </c>
       <c r="AA87" s="165" t="s">
-        <v>1532</v>
+        <v>1556</v>
       </c>
       <c r="AB87" s="165" t="s">
-        <v>1533</v>
+        <v>1557</v>
       </c>
       <c r="AC87" s="166" t="s">
-        <v>1534</v>
+        <v>1558</v>
       </c>
       <c r="AD87" s="100"/>
       <c r="AE87" s="121"/>
@@ -22690,28 +22864,32 @@
       </c>
       <c r="C88" s="100"/>
       <c r="D88" s="164" t="s">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="E88" s="165" t="s">
-        <v>1536</v>
+        <v>1560</v>
       </c>
       <c r="F88" s="165" t="s">
-        <v>1537</v>
+        <v>1561</v>
       </c>
       <c r="G88" s="165" t="s">
-        <v>1538</v>
+        <v>1562</v>
       </c>
       <c r="H88" s="165" t="s">
-        <v>1539</v>
+        <v>1563</v>
       </c>
       <c r="I88" s="165" t="s">
-        <v>1540</v>
+        <v>1564</v>
       </c>
       <c r="J88" s="165" t="s">
-        <v>1541</v>
-      </c>
-      <c r="K88" s="119"/>
-      <c r="L88" s="119"/>
+        <v>1565</v>
+      </c>
+      <c r="K88" s="165" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L88" s="165" t="s">
+        <v>1567</v>
+      </c>
       <c r="M88" s="119"/>
       <c r="N88" s="119"/>
       <c r="O88" s="119"/>
@@ -22720,28 +22898,32 @@
       <c r="R88" s="119"/>
       <c r="S88" s="119"/>
       <c r="T88" s="119"/>
-      <c r="U88" s="119"/>
-      <c r="V88" s="119"/>
+      <c r="U88" s="165" t="s">
+        <v>1568</v>
+      </c>
+      <c r="V88" s="165" t="s">
+        <v>1569</v>
+      </c>
       <c r="W88" s="165" t="s">
-        <v>1542</v>
+        <v>1570</v>
       </c>
       <c r="X88" s="165" t="s">
-        <v>1543</v>
+        <v>1571</v>
       </c>
       <c r="Y88" s="165" t="s">
-        <v>1544</v>
+        <v>1572</v>
       </c>
       <c r="Z88" s="165" t="s">
-        <v>1545</v>
+        <v>1573</v>
       </c>
       <c r="AA88" s="165" t="s">
-        <v>1546</v>
+        <v>1574</v>
       </c>
       <c r="AB88" s="165" t="s">
-        <v>1547</v>
+        <v>1575</v>
       </c>
       <c r="AC88" s="166" t="s">
-        <v>1548</v>
+        <v>1576</v>
       </c>
       <c r="AD88" s="100"/>
       <c r="AE88" s="121"/>
@@ -22757,28 +22939,32 @@
       </c>
       <c r="C89" s="100"/>
       <c r="D89" s="164" t="s">
-        <v>1549</v>
+        <v>1577</v>
       </c>
       <c r="E89" s="165" t="s">
-        <v>1550</v>
+        <v>1578</v>
       </c>
       <c r="F89" s="165" t="s">
-        <v>1551</v>
+        <v>1579</v>
       </c>
       <c r="G89" s="165" t="s">
-        <v>1552</v>
+        <v>1580</v>
       </c>
       <c r="H89" s="165" t="s">
-        <v>1553</v>
+        <v>1581</v>
       </c>
       <c r="I89" s="165" t="s">
-        <v>1554</v>
+        <v>1582</v>
       </c>
       <c r="J89" s="165" t="s">
-        <v>1555</v>
-      </c>
-      <c r="K89" s="119"/>
-      <c r="L89" s="119"/>
+        <v>1583</v>
+      </c>
+      <c r="K89" s="165" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L89" s="165" t="s">
+        <v>1585</v>
+      </c>
       <c r="M89" s="119"/>
       <c r="N89" s="119"/>
       <c r="O89" s="119"/>
@@ -22787,28 +22973,32 @@
       <c r="R89" s="119"/>
       <c r="S89" s="119"/>
       <c r="T89" s="119"/>
-      <c r="U89" s="119"/>
-      <c r="V89" s="119"/>
+      <c r="U89" s="165" t="s">
+        <v>1586</v>
+      </c>
+      <c r="V89" s="165" t="s">
+        <v>1587</v>
+      </c>
       <c r="W89" s="165" t="s">
-        <v>1556</v>
+        <v>1588</v>
       </c>
       <c r="X89" s="165" t="s">
-        <v>1557</v>
+        <v>1589</v>
       </c>
       <c r="Y89" s="165" t="s">
-        <v>1558</v>
+        <v>1590</v>
       </c>
       <c r="Z89" s="165" t="s">
-        <v>1559</v>
+        <v>1591</v>
       </c>
       <c r="AA89" s="165" t="s">
-        <v>1560</v>
+        <v>1592</v>
       </c>
       <c r="AB89" s="165" t="s">
-        <v>1561</v>
+        <v>1593</v>
       </c>
       <c r="AC89" s="166" t="s">
-        <v>1562</v>
+        <v>1594</v>
       </c>
       <c r="AD89" s="100"/>
       <c r="AE89" s="121"/>
@@ -22824,28 +23014,32 @@
       </c>
       <c r="C90" s="100"/>
       <c r="D90" s="164" t="s">
-        <v>1563</v>
+        <v>1595</v>
       </c>
       <c r="E90" s="165" t="s">
-        <v>1564</v>
+        <v>1596</v>
       </c>
       <c r="F90" s="165" t="s">
-        <v>1565</v>
+        <v>1597</v>
       </c>
       <c r="G90" s="165" t="s">
-        <v>1566</v>
+        <v>1598</v>
       </c>
       <c r="H90" s="165" t="s">
-        <v>1567</v>
+        <v>1599</v>
       </c>
       <c r="I90" s="165" t="s">
-        <v>1568</v>
+        <v>1600</v>
       </c>
       <c r="J90" s="165" t="s">
-        <v>1569</v>
-      </c>
-      <c r="K90" s="119"/>
-      <c r="L90" s="119"/>
+        <v>1601</v>
+      </c>
+      <c r="K90" s="165" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L90" s="165" t="s">
+        <v>1603</v>
+      </c>
       <c r="M90" s="119"/>
       <c r="N90" s="119"/>
       <c r="O90" s="119"/>
@@ -22854,28 +23048,32 @@
       <c r="R90" s="119"/>
       <c r="S90" s="119"/>
       <c r="T90" s="119"/>
-      <c r="U90" s="119"/>
-      <c r="V90" s="119"/>
+      <c r="U90" s="165" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V90" s="165" t="s">
+        <v>1605</v>
+      </c>
       <c r="W90" s="165" t="s">
-        <v>1570</v>
+        <v>1606</v>
       </c>
       <c r="X90" s="165" t="s">
-        <v>1571</v>
+        <v>1607</v>
       </c>
       <c r="Y90" s="165" t="s">
-        <v>1572</v>
+        <v>1608</v>
       </c>
       <c r="Z90" s="165" t="s">
-        <v>1573</v>
+        <v>1609</v>
       </c>
       <c r="AA90" s="165" t="s">
-        <v>1574</v>
+        <v>1610</v>
       </c>
       <c r="AB90" s="165" t="s">
-        <v>1575</v>
+        <v>1611</v>
       </c>
       <c r="AC90" s="166" t="s">
-        <v>1576</v>
+        <v>1612</v>
       </c>
       <c r="AD90" s="100"/>
       <c r="AE90" s="121"/>
@@ -22891,28 +23089,32 @@
       </c>
       <c r="C91" s="100"/>
       <c r="D91" s="167" t="s">
-        <v>1577</v>
+        <v>1613</v>
       </c>
       <c r="E91" s="168" t="s">
-        <v>1578</v>
+        <v>1614</v>
       </c>
       <c r="F91" s="168" t="s">
-        <v>1579</v>
+        <v>1615</v>
       </c>
       <c r="G91" s="168" t="s">
-        <v>1580</v>
+        <v>1616</v>
       </c>
       <c r="H91" s="168" t="s">
-        <v>1581</v>
+        <v>1617</v>
       </c>
       <c r="I91" s="168" t="s">
-        <v>1582</v>
+        <v>1618</v>
       </c>
       <c r="J91" s="168" t="s">
-        <v>1583</v>
-      </c>
-      <c r="K91" s="126"/>
-      <c r="L91" s="126"/>
+        <v>1619</v>
+      </c>
+      <c r="K91" s="168" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L91" s="168" t="s">
+        <v>1621</v>
+      </c>
       <c r="M91" s="126"/>
       <c r="N91" s="126"/>
       <c r="O91" s="126"/>
@@ -22921,28 +23123,32 @@
       <c r="R91" s="126"/>
       <c r="S91" s="126"/>
       <c r="T91" s="126"/>
-      <c r="U91" s="126"/>
-      <c r="V91" s="126"/>
+      <c r="U91" s="168" t="s">
+        <v>1622</v>
+      </c>
+      <c r="V91" s="168" t="s">
+        <v>1623</v>
+      </c>
       <c r="W91" s="168" t="s">
-        <v>1584</v>
+        <v>1624</v>
       </c>
       <c r="X91" s="168" t="s">
-        <v>1585</v>
+        <v>1625</v>
       </c>
       <c r="Y91" s="168" t="s">
-        <v>1586</v>
+        <v>1626</v>
       </c>
       <c r="Z91" s="168" t="s">
-        <v>1587</v>
+        <v>1627</v>
       </c>
       <c r="AA91" s="168" t="s">
-        <v>1588</v>
+        <v>1628</v>
       </c>
       <c r="AB91" s="168" t="s">
-        <v>1589</v>
+        <v>1629</v>
       </c>
       <c r="AC91" s="169" t="s">
-        <v>1590</v>
+        <v>1630</v>
       </c>
       <c r="AD91" s="100"/>
       <c r="AE91" s="128"/>
@@ -22978,8 +23184,12 @@
       <c r="J92" s="171">
         <v>242.0</v>
       </c>
-      <c r="K92" s="134"/>
-      <c r="L92" s="134"/>
+      <c r="K92" s="171">
+        <v>325.0</v>
+      </c>
+      <c r="L92" s="171">
+        <v>254.0</v>
+      </c>
       <c r="M92" s="134"/>
       <c r="N92" s="134"/>
       <c r="O92" s="134"/>
@@ -22988,8 +23198,12 @@
       <c r="R92" s="134"/>
       <c r="S92" s="134"/>
       <c r="T92" s="134"/>
-      <c r="U92" s="134"/>
-      <c r="V92" s="134"/>
+      <c r="U92" s="171">
+        <v>221.0</v>
+      </c>
+      <c r="V92" s="171">
+        <v>337.0</v>
+      </c>
       <c r="W92" s="171">
         <v>321.0</v>
       </c>
@@ -23025,28 +23239,32 @@
       </c>
       <c r="C93" s="100"/>
       <c r="D93" s="172" t="s">
-        <v>1591</v>
+        <v>1631</v>
       </c>
       <c r="E93" s="173" t="s">
         <v>58</v>
       </c>
       <c r="F93" s="173" t="s">
-        <v>1592</v>
+        <v>1632</v>
       </c>
       <c r="G93" s="173" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="H93" s="173" t="s">
         <v>58</v>
       </c>
       <c r="I93" s="173" t="s">
-        <v>1594</v>
+        <v>1634</v>
       </c>
       <c r="J93" s="173" t="s">
-        <v>1595</v>
-      </c>
-      <c r="K93" s="138"/>
-      <c r="L93" s="138"/>
+        <v>1635</v>
+      </c>
+      <c r="K93" s="173" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L93" s="173" t="s">
+        <v>1637</v>
+      </c>
       <c r="M93" s="138"/>
       <c r="N93" s="138"/>
       <c r="O93" s="138"/>
@@ -23055,28 +23273,32 @@
       <c r="R93" s="138"/>
       <c r="S93" s="138"/>
       <c r="T93" s="138"/>
-      <c r="U93" s="138"/>
-      <c r="V93" s="138"/>
+      <c r="U93" s="173" t="s">
+        <v>425</v>
+      </c>
+      <c r="V93" s="173" t="s">
+        <v>58</v>
+      </c>
       <c r="W93" s="173" t="s">
-        <v>1596</v>
+        <v>1638</v>
       </c>
       <c r="X93" s="173" t="s">
-        <v>1597</v>
+        <v>1639</v>
       </c>
       <c r="Y93" s="173" t="s">
-        <v>1598</v>
+        <v>1640</v>
       </c>
       <c r="Z93" s="173" t="s">
-        <v>1599</v>
+        <v>1641</v>
       </c>
       <c r="AA93" s="173" t="s">
-        <v>1600</v>
+        <v>1642</v>
       </c>
       <c r="AB93" s="173" t="s">
         <v>58</v>
       </c>
       <c r="AC93" s="136" t="s">
-        <v>1601</v>
+        <v>1643</v>
       </c>
       <c r="AD93" s="140"/>
       <c r="AE93" s="141"/>
@@ -23112,8 +23334,12 @@
       <c r="J94" s="175">
         <v>58.0</v>
       </c>
-      <c r="K94" s="147"/>
-      <c r="L94" s="147"/>
+      <c r="K94" s="175">
+        <v>82.0</v>
+      </c>
+      <c r="L94" s="175">
+        <v>62.0</v>
+      </c>
       <c r="M94" s="147"/>
       <c r="N94" s="147"/>
       <c r="O94" s="147"/>
@@ -23122,8 +23348,12 @@
       <c r="R94" s="147"/>
       <c r="S94" s="147"/>
       <c r="T94" s="147"/>
-      <c r="U94" s="147"/>
-      <c r="V94" s="147"/>
+      <c r="U94" s="175">
+        <v>54.0</v>
+      </c>
+      <c r="V94" s="175">
+        <v>81.0</v>
+      </c>
       <c r="W94" s="175">
         <v>81.0</v>
       </c>
@@ -23165,7 +23395,7 @@
         <v>1407</v>
       </c>
       <c r="F95" s="177" t="s">
-        <v>1602</v>
+        <v>1644</v>
       </c>
       <c r="G95" s="177" t="s">
         <v>58</v>
@@ -23179,8 +23409,12 @@
       <c r="J95" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="K95" s="155"/>
-      <c r="L95" s="155"/>
+      <c r="K95" s="177" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L95" s="177" t="s">
+        <v>447</v>
+      </c>
       <c r="M95" s="155"/>
       <c r="N95" s="155"/>
       <c r="O95" s="155"/>
@@ -23189,13 +23423,17 @@
       <c r="R95" s="155"/>
       <c r="S95" s="155"/>
       <c r="T95" s="155"/>
-      <c r="U95" s="155"/>
-      <c r="V95" s="155"/>
+      <c r="U95" s="177" t="s">
+        <v>437</v>
+      </c>
+      <c r="V95" s="177" t="s">
+        <v>1410</v>
+      </c>
       <c r="W95" s="177" t="s">
         <v>1410</v>
       </c>
       <c r="X95" s="177" t="s">
-        <v>1603</v>
+        <v>1645</v>
       </c>
       <c r="Y95" s="177" t="s">
         <v>447</v>
@@ -23210,7 +23448,7 @@
         <v>1407</v>
       </c>
       <c r="AC95" s="153" t="s">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="AD95" s="100"/>
       <c r="AE95" s="157"/>
@@ -23539,28 +23777,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="188" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>1606</v>
+        <v>1648</v>
       </c>
       <c r="D4" s="190" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E4" s="191" t="s">
-        <v>1608</v>
+        <v>1650</v>
       </c>
       <c r="F4" s="192" t="s">
-        <v>1609</v>
+        <v>1651</v>
       </c>
       <c r="G4" s="190" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H4" s="193" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="194" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -23578,676 +23816,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C6" s="198" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E6" s="181"/>
       <c r="F6" s="182" t="s">
-        <v>1611</v>
+        <v>1653</v>
       </c>
       <c r="G6" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H6" s="183">
         <v>1.0</v>
       </c>
       <c r="I6" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C7" s="198" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E7" s="181"/>
       <c r="F7" s="182" t="s">
-        <v>1612</v>
+        <v>1654</v>
       </c>
       <c r="G7" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H7" s="183">
         <v>2.0</v>
       </c>
       <c r="I7" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C8" s="198" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E8" s="181"/>
       <c r="F8" s="182" t="s">
-        <v>1613</v>
+        <v>1655</v>
       </c>
       <c r="G8" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H8" s="183">
         <v>3.0</v>
       </c>
       <c r="I8" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C9" s="198" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E9" s="181"/>
       <c r="F9" s="182" t="s">
-        <v>1614</v>
+        <v>1656</v>
       </c>
       <c r="G9" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H9" s="183">
         <v>4.0</v>
       </c>
       <c r="I9" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C10" s="198" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E10" s="181"/>
       <c r="F10" s="182" t="s">
-        <v>1615</v>
+        <v>1657</v>
       </c>
       <c r="G10" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H10" s="183">
         <v>5.0</v>
       </c>
       <c r="I10" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C11" s="198" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E11" s="181"/>
       <c r="F11" s="182" t="s">
-        <v>1616</v>
+        <v>1658</v>
       </c>
       <c r="G11" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H11" s="183">
         <v>6.0</v>
       </c>
       <c r="I11" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C12" s="198" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E12" s="181"/>
       <c r="F12" s="182" t="s">
-        <v>1617</v>
+        <v>1659</v>
       </c>
       <c r="G12" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H12" s="183">
         <v>7.0</v>
       </c>
       <c r="I12" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C13" s="198" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E13" s="181"/>
       <c r="F13" s="182" t="s">
-        <v>1618</v>
+        <v>1660</v>
       </c>
       <c r="G13" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H13" s="183">
         <v>8.0</v>
       </c>
       <c r="I13" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C14" s="198" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E14" s="181"/>
       <c r="F14" s="182" t="s">
-        <v>1619</v>
+        <v>1661</v>
       </c>
       <c r="G14" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H14" s="183">
         <v>9.0</v>
       </c>
       <c r="I14" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C15" s="198" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E15" s="181"/>
       <c r="F15" s="182" t="s">
-        <v>1620</v>
+        <v>1662</v>
       </c>
       <c r="G15" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H15" s="183">
         <v>10.0</v>
       </c>
       <c r="I15" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C16" s="198" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E16" s="181"/>
       <c r="F16" s="182" t="s">
-        <v>1621</v>
+        <v>1663</v>
       </c>
       <c r="G16" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H16" s="183">
         <v>11.0</v>
       </c>
       <c r="I16" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C17" s="198" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E17" s="181"/>
       <c r="F17" s="182" t="s">
-        <v>1622</v>
+        <v>1664</v>
       </c>
       <c r="G17" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H17" s="183">
         <v>12.0</v>
       </c>
       <c r="I17" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C18" s="198" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E18" s="181"/>
       <c r="F18" s="182" t="s">
-        <v>1623</v>
+        <v>1665</v>
       </c>
       <c r="G18" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H18" s="183">
         <v>13.0</v>
       </c>
       <c r="I18" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C19" s="198" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E19" s="181"/>
       <c r="F19" s="182" t="s">
-        <v>1624</v>
+        <v>1666</v>
       </c>
       <c r="G19" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H19" s="183">
         <v>14.0</v>
       </c>
       <c r="I19" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C20" s="198" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E20" s="181"/>
       <c r="F20" s="182" t="s">
-        <v>1625</v>
+        <v>1667</v>
       </c>
       <c r="G20" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H20" s="183">
         <v>15.0</v>
       </c>
       <c r="I20" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C21" s="198" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E21" s="181"/>
       <c r="F21" s="182" t="s">
-        <v>1626</v>
+        <v>1668</v>
       </c>
       <c r="G21" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H21" s="183">
         <v>16.0</v>
       </c>
       <c r="I21" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C22" s="198" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E22" s="181"/>
       <c r="F22" s="182" t="s">
-        <v>1627</v>
+        <v>1669</v>
       </c>
       <c r="G22" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H22" s="183">
         <v>17.0</v>
       </c>
       <c r="I22" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C23" s="198" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E23" s="181"/>
       <c r="F23" s="182" t="s">
-        <v>1628</v>
+        <v>1670</v>
       </c>
       <c r="G23" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H23" s="183">
         <v>18.0</v>
       </c>
       <c r="I23" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C24" s="198" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E24" s="181"/>
       <c r="F24" s="182" t="s">
-        <v>1629</v>
+        <v>1671</v>
       </c>
       <c r="G24" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H24" s="183">
         <v>19.0</v>
       </c>
       <c r="I24" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C25" s="198" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E25" s="181"/>
       <c r="F25" s="182" t="s">
-        <v>1630</v>
+        <v>1672</v>
       </c>
       <c r="G25" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H25" s="183">
         <v>20.0</v>
       </c>
       <c r="I25" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C26" s="198" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E26" s="181"/>
       <c r="F26" s="182" t="s">
-        <v>1631</v>
+        <v>1673</v>
       </c>
       <c r="G26" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H26" s="183">
         <v>21.0</v>
       </c>
       <c r="I26" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C27" s="198" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E27" s="181"/>
       <c r="F27" s="182" t="s">
-        <v>1632</v>
+        <v>1674</v>
       </c>
       <c r="G27" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H27" s="183">
         <v>22.0</v>
       </c>
       <c r="I27" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C28" s="198" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E28" s="181"/>
       <c r="F28" s="182" t="s">
-        <v>1633</v>
+        <v>1675</v>
       </c>
       <c r="G28" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H28" s="183">
         <v>23.0</v>
       </c>
       <c r="I28" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C29" s="198" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E29" s="181"/>
       <c r="F29" s="182" t="s">
-        <v>1634</v>
+        <v>1676</v>
       </c>
       <c r="G29" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H29" s="183">
         <v>24.0</v>
       </c>
       <c r="I29" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C30" s="198" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E30" s="181"/>
       <c r="F30" s="182" t="s">
-        <v>1635</v>
+        <v>1677</v>
       </c>
       <c r="G30" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H30" s="183">
         <v>25.0</v>
       </c>
       <c r="I30" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="199" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C31" s="200" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="201" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E31" s="202"/>
       <c r="F31" s="203" t="s">
-        <v>1636</v>
+        <v>1678</v>
       </c>
       <c r="G31" s="201" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H31" s="204">
         <v>26.0</v>
       </c>
       <c r="I31" s="205" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -24265,28 +24503,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="188" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C33" s="189" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="190" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E33" s="191" t="s">
-        <v>1637</v>
+        <v>1679</v>
       </c>
       <c r="F33" s="192" t="s">
-        <v>1638</v>
+        <v>1680</v>
       </c>
       <c r="G33" s="190" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H33" s="193" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="194" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -24304,676 +24542,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C35" s="179" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E35" s="181"/>
       <c r="F35" s="182" t="s">
-        <v>1639</v>
+        <v>1681</v>
       </c>
       <c r="G35" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H35" s="183">
         <v>1.0</v>
       </c>
       <c r="I35" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C36" s="179" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E36" s="181"/>
       <c r="F36" s="182" t="s">
-        <v>1640</v>
+        <v>1682</v>
       </c>
       <c r="G36" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H36" s="183">
         <v>2.0</v>
       </c>
       <c r="I36" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C37" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E37" s="181"/>
       <c r="F37" s="182" t="s">
-        <v>1641</v>
+        <v>1683</v>
       </c>
       <c r="G37" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H37" s="183">
         <v>3.0</v>
       </c>
       <c r="I37" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C38" s="179" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E38" s="181"/>
       <c r="F38" s="182" t="s">
-        <v>1642</v>
+        <v>1684</v>
       </c>
       <c r="G38" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H38" s="183">
         <v>4.0</v>
       </c>
       <c r="I38" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C39" s="179" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E39" s="181"/>
       <c r="F39" s="182" t="s">
-        <v>1643</v>
+        <v>1685</v>
       </c>
       <c r="G39" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H39" s="183">
         <v>5.0</v>
       </c>
       <c r="I39" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C40" s="179" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E40" s="181"/>
       <c r="F40" s="182" t="s">
-        <v>1644</v>
+        <v>1686</v>
       </c>
       <c r="G40" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H40" s="183">
         <v>6.0</v>
       </c>
       <c r="I40" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C41" s="179" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E41" s="181"/>
       <c r="F41" s="182" t="s">
-        <v>1645</v>
+        <v>1687</v>
       </c>
       <c r="G41" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H41" s="183">
         <v>7.0</v>
       </c>
       <c r="I41" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C42" s="179" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E42" s="181"/>
       <c r="F42" s="182" t="s">
-        <v>1646</v>
+        <v>1688</v>
       </c>
       <c r="G42" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H42" s="183">
         <v>8.0</v>
       </c>
       <c r="I42" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C43" s="179" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E43" s="181"/>
       <c r="F43" s="182" t="s">
-        <v>1647</v>
+        <v>1689</v>
       </c>
       <c r="G43" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H43" s="183">
         <v>9.0</v>
       </c>
       <c r="I43" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C44" s="179" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E44" s="181"/>
       <c r="F44" s="182" t="s">
-        <v>1648</v>
+        <v>1690</v>
       </c>
       <c r="G44" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H44" s="183">
         <v>10.0</v>
       </c>
       <c r="I44" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C45" s="179" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E45" s="181"/>
       <c r="F45" s="182" t="s">
-        <v>1649</v>
+        <v>1691</v>
       </c>
       <c r="G45" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H45" s="183">
         <v>11.0</v>
       </c>
       <c r="I45" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C46" s="179" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E46" s="181"/>
       <c r="F46" s="182" t="s">
-        <v>1650</v>
+        <v>1692</v>
       </c>
       <c r="G46" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H46" s="183">
         <v>12.0</v>
       </c>
       <c r="I46" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C47" s="179" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E47" s="181"/>
       <c r="F47" s="182" t="s">
-        <v>1651</v>
+        <v>1693</v>
       </c>
       <c r="G47" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H47" s="183">
         <v>13.0</v>
       </c>
       <c r="I47" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C48" s="179" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E48" s="181"/>
       <c r="F48" s="182" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G48" s="180" t="s">
         <v>1652</v>
-      </c>
-      <c r="G48" s="180" t="s">
-        <v>1610</v>
       </c>
       <c r="H48" s="183">
         <v>14.0</v>
       </c>
       <c r="I48" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C49" s="179" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E49" s="181"/>
       <c r="F49" s="182" t="s">
-        <v>1653</v>
+        <v>1695</v>
       </c>
       <c r="G49" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H49" s="183">
         <v>15.0</v>
       </c>
       <c r="I49" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C50" s="179" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E50" s="181"/>
       <c r="F50" s="182" t="s">
-        <v>1654</v>
+        <v>1696</v>
       </c>
       <c r="G50" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H50" s="183">
         <v>16.0</v>
       </c>
       <c r="I50" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C51" s="179" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E51" s="181"/>
       <c r="F51" s="182" t="s">
-        <v>1655</v>
+        <v>1697</v>
       </c>
       <c r="G51" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H51" s="183">
         <v>17.0</v>
       </c>
       <c r="I51" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C52" s="179" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E52" s="181"/>
       <c r="F52" s="182" t="s">
-        <v>1656</v>
+        <v>1698</v>
       </c>
       <c r="G52" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H52" s="183">
         <v>18.0</v>
       </c>
       <c r="I52" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C53" s="179" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E53" s="181"/>
       <c r="F53" s="182" t="s">
-        <v>1657</v>
+        <v>1699</v>
       </c>
       <c r="G53" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H53" s="183">
         <v>19.0</v>
       </c>
       <c r="I53" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C54" s="179" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E54" s="181"/>
       <c r="F54" s="182" t="s">
-        <v>1658</v>
+        <v>1700</v>
       </c>
       <c r="G54" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H54" s="183">
         <v>20.0</v>
       </c>
       <c r="I54" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C55" s="179" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E55" s="181"/>
       <c r="F55" s="182" t="s">
-        <v>1659</v>
+        <v>1701</v>
       </c>
       <c r="G55" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H55" s="183">
         <v>21.0</v>
       </c>
       <c r="I55" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C56" s="179" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E56" s="181"/>
       <c r="F56" s="182" t="s">
-        <v>1660</v>
+        <v>1702</v>
       </c>
       <c r="G56" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H56" s="183">
         <v>22.0</v>
       </c>
       <c r="I56" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C57" s="179" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E57" s="181"/>
       <c r="F57" s="182" t="s">
-        <v>1661</v>
+        <v>1703</v>
       </c>
       <c r="G57" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H57" s="183">
         <v>23.0</v>
       </c>
       <c r="I57" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C58" s="179" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E58" s="181"/>
       <c r="F58" s="182" t="s">
-        <v>1662</v>
+        <v>1704</v>
       </c>
       <c r="G58" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H58" s="183">
         <v>24.0</v>
       </c>
       <c r="I58" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C59" s="179" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E59" s="181"/>
       <c r="F59" s="182" t="s">
-        <v>1663</v>
+        <v>1705</v>
       </c>
       <c r="G59" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H59" s="183">
         <v>25.0</v>
       </c>
       <c r="I59" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="199" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C60" s="206" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="201" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E60" s="202"/>
       <c r="F60" s="203" t="s">
-        <v>1664</v>
+        <v>1706</v>
       </c>
       <c r="G60" s="201" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H60" s="204">
         <v>26.0</v>
       </c>
       <c r="I60" s="205" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -24991,28 +25229,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="188" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C62" s="189" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="190" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E62" s="191" t="s">
-        <v>1665</v>
+        <v>1707</v>
       </c>
       <c r="F62" s="192" t="s">
-        <v>1666</v>
+        <v>1708</v>
       </c>
       <c r="G62" s="190" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H62" s="193" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="194" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -25030,676 +25268,676 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C64" s="179" t="s">
         <v>452</v>
       </c>
       <c r="D64" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E64" s="181"/>
       <c r="F64" s="182" t="s">
-        <v>1667</v>
+        <v>1709</v>
       </c>
       <c r="G64" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H64" s="183">
         <v>1.0</v>
       </c>
       <c r="I64" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C65" s="179" t="s">
         <v>453</v>
       </c>
       <c r="D65" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E65" s="181"/>
       <c r="F65" s="182" t="s">
-        <v>1668</v>
+        <v>1710</v>
       </c>
       <c r="G65" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H65" s="183">
         <v>2.0</v>
       </c>
       <c r="I65" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C66" s="179" t="s">
         <v>454</v>
       </c>
       <c r="D66" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E66" s="181"/>
       <c r="F66" s="182" t="s">
-        <v>1669</v>
+        <v>1711</v>
       </c>
       <c r="G66" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H66" s="183">
         <v>3.0</v>
       </c>
       <c r="I66" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C67" s="179" t="s">
         <v>455</v>
       </c>
       <c r="D67" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E67" s="181"/>
       <c r="F67" s="182" t="s">
-        <v>1670</v>
+        <v>1712</v>
       </c>
       <c r="G67" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H67" s="183">
         <v>4.0</v>
       </c>
       <c r="I67" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C68" s="179" t="s">
         <v>456</v>
       </c>
       <c r="D68" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E68" s="181"/>
       <c r="F68" s="182" t="s">
-        <v>1671</v>
+        <v>1713</v>
       </c>
       <c r="G68" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H68" s="183">
         <v>5.0</v>
       </c>
       <c r="I68" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C69" s="179" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E69" s="181"/>
       <c r="F69" s="182" t="s">
-        <v>1672</v>
+        <v>1714</v>
       </c>
       <c r="G69" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H69" s="183">
         <v>6.0</v>
       </c>
       <c r="I69" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C70" s="179" t="s">
         <v>458</v>
       </c>
       <c r="D70" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E70" s="181"/>
       <c r="F70" s="182" t="s">
-        <v>1673</v>
+        <v>1715</v>
       </c>
       <c r="G70" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H70" s="183">
         <v>7.0</v>
       </c>
       <c r="I70" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C71" s="179" t="s">
         <v>459</v>
       </c>
       <c r="D71" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E71" s="181"/>
       <c r="F71" s="182" t="s">
-        <v>1674</v>
+        <v>1716</v>
       </c>
       <c r="G71" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H71" s="183">
         <v>8.0</v>
       </c>
       <c r="I71" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C72" s="179" t="s">
         <v>460</v>
       </c>
       <c r="D72" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E72" s="181"/>
       <c r="F72" s="182" t="s">
-        <v>1675</v>
+        <v>1717</v>
       </c>
       <c r="G72" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H72" s="183">
         <v>9.0</v>
       </c>
       <c r="I72" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C73" s="179" t="s">
         <v>461</v>
       </c>
       <c r="D73" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E73" s="181"/>
       <c r="F73" s="182" t="s">
-        <v>1676</v>
+        <v>1718</v>
       </c>
       <c r="G73" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H73" s="183">
         <v>10.0</v>
       </c>
       <c r="I73" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C74" s="179" t="s">
         <v>462</v>
       </c>
       <c r="D74" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E74" s="181"/>
       <c r="F74" s="182" t="s">
-        <v>1677</v>
+        <v>1719</v>
       </c>
       <c r="G74" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H74" s="183">
         <v>11.0</v>
       </c>
       <c r="I74" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C75" s="179" t="s">
         <v>463</v>
       </c>
       <c r="D75" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E75" s="181"/>
       <c r="F75" s="182" t="s">
-        <v>1678</v>
+        <v>1720</v>
       </c>
       <c r="G75" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H75" s="183">
         <v>12.0</v>
       </c>
       <c r="I75" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C76" s="179" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E76" s="181"/>
       <c r="F76" s="182" t="s">
-        <v>1679</v>
+        <v>1721</v>
       </c>
       <c r="G76" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H76" s="183">
         <v>13.0</v>
       </c>
       <c r="I76" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C77" s="179" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E77" s="181"/>
       <c r="F77" s="182" t="s">
-        <v>1680</v>
+        <v>1722</v>
       </c>
       <c r="G77" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H77" s="183">
         <v>14.0</v>
       </c>
       <c r="I77" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C78" s="179" t="s">
         <v>466</v>
       </c>
       <c r="D78" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E78" s="181"/>
       <c r="F78" s="182" t="s">
-        <v>1681</v>
+        <v>1723</v>
       </c>
       <c r="G78" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H78" s="183">
         <v>15.0</v>
       </c>
       <c r="I78" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C79" s="179" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E79" s="181"/>
       <c r="F79" s="182" t="s">
-        <v>1682</v>
+        <v>1724</v>
       </c>
       <c r="G79" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H79" s="183">
         <v>16.0</v>
       </c>
       <c r="I79" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C80" s="179" t="s">
         <v>468</v>
       </c>
       <c r="D80" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E80" s="181"/>
       <c r="F80" s="182" t="s">
-        <v>1683</v>
+        <v>1725</v>
       </c>
       <c r="G80" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H80" s="183">
         <v>17.0</v>
       </c>
       <c r="I80" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C81" s="179" t="s">
         <v>469</v>
       </c>
       <c r="D81" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E81" s="181"/>
       <c r="F81" s="182" t="s">
-        <v>1684</v>
+        <v>1726</v>
       </c>
       <c r="G81" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H81" s="183">
         <v>18.0</v>
       </c>
       <c r="I81" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C82" s="179" t="s">
         <v>470</v>
       </c>
       <c r="D82" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E82" s="181"/>
       <c r="F82" s="182" t="s">
-        <v>1685</v>
+        <v>1727</v>
       </c>
       <c r="G82" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H82" s="183">
         <v>19.0</v>
       </c>
       <c r="I82" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C83" s="179" t="s">
         <v>471</v>
       </c>
       <c r="D83" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E83" s="181"/>
       <c r="F83" s="182" t="s">
-        <v>1686</v>
+        <v>1728</v>
       </c>
       <c r="G83" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H83" s="183">
         <v>20.0</v>
       </c>
       <c r="I83" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C84" s="179" t="s">
         <v>472</v>
       </c>
       <c r="D84" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E84" s="181"/>
       <c r="F84" s="182" t="s">
-        <v>1687</v>
+        <v>1729</v>
       </c>
       <c r="G84" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H84" s="183">
         <v>21.0</v>
       </c>
       <c r="I84" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C85" s="179" t="s">
         <v>473</v>
       </c>
       <c r="D85" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E85" s="181"/>
       <c r="F85" s="182" t="s">
-        <v>1688</v>
+        <v>1730</v>
       </c>
       <c r="G85" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H85" s="183">
         <v>22.0</v>
       </c>
       <c r="I85" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C86" s="179" t="s">
         <v>474</v>
       </c>
       <c r="D86" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E86" s="181"/>
       <c r="F86" s="182" t="s">
-        <v>1689</v>
+        <v>1731</v>
       </c>
       <c r="G86" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H86" s="183">
         <v>23.0</v>
       </c>
       <c r="I86" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C87" s="179" t="s">
         <v>475</v>
       </c>
       <c r="D87" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E87" s="181"/>
       <c r="F87" s="182" t="s">
-        <v>1690</v>
+        <v>1732</v>
       </c>
       <c r="G87" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H87" s="183">
         <v>24.0</v>
       </c>
       <c r="I87" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C88" s="179" t="s">
         <v>476</v>
       </c>
       <c r="D88" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E88" s="181"/>
       <c r="F88" s="182" t="s">
-        <v>1691</v>
+        <v>1733</v>
       </c>
       <c r="G88" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H88" s="183">
         <v>25.0</v>
       </c>
       <c r="I88" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="199" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C89" s="206" t="s">
         <v>477</v>
       </c>
       <c r="D89" s="201" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E89" s="202"/>
       <c r="F89" s="203" t="s">
-        <v>1692</v>
+        <v>1734</v>
       </c>
       <c r="G89" s="201" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H89" s="204">
         <v>26.0</v>
       </c>
       <c r="I89" s="205" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -25717,28 +25955,28 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="188" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C91" s="189" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="190" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E91" s="191" t="s">
-        <v>1693</v>
+        <v>1735</v>
       </c>
       <c r="F91" s="192" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="G91" s="190" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H91" s="193" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="194" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -25756,676 +25994,676 @@
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C93" s="179" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E93" s="181"/>
       <c r="F93" s="182" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
       <c r="G93" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H93" s="183">
         <v>1.0</v>
       </c>
       <c r="I93" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C94" s="179" t="s">
         <v>730</v>
       </c>
       <c r="D94" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E94" s="181"/>
       <c r="F94" s="182" t="s">
-        <v>1696</v>
+        <v>1738</v>
       </c>
       <c r="G94" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H94" s="183">
         <v>2.0</v>
       </c>
       <c r="I94" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C95" s="179" t="s">
         <v>731</v>
       </c>
       <c r="D95" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E95" s="181"/>
       <c r="F95" s="182" t="s">
-        <v>1697</v>
+        <v>1739</v>
       </c>
       <c r="G95" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H95" s="183">
         <v>3.0</v>
       </c>
       <c r="I95" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C96" s="179" t="s">
         <v>732</v>
       </c>
       <c r="D96" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E96" s="181"/>
       <c r="F96" s="182" t="s">
-        <v>1698</v>
+        <v>1740</v>
       </c>
       <c r="G96" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H96" s="183">
         <v>4.0</v>
       </c>
       <c r="I96" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C97" s="179" t="s">
         <v>733</v>
       </c>
       <c r="D97" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E97" s="181"/>
       <c r="F97" s="182" t="s">
-        <v>1699</v>
+        <v>1741</v>
       </c>
       <c r="G97" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H97" s="183">
         <v>5.0</v>
       </c>
       <c r="I97" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C98" s="179" t="s">
         <v>734</v>
       </c>
       <c r="D98" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E98" s="181"/>
       <c r="F98" s="182" t="s">
-        <v>1700</v>
+        <v>1742</v>
       </c>
       <c r="G98" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H98" s="183">
         <v>6.0</v>
       </c>
       <c r="I98" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C99" s="179" t="s">
         <v>735</v>
       </c>
       <c r="D99" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E99" s="181"/>
       <c r="F99" s="182" t="s">
-        <v>1701</v>
+        <v>1743</v>
       </c>
       <c r="G99" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H99" s="183">
         <v>7.0</v>
       </c>
       <c r="I99" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C100" s="179" t="s">
         <v>736</v>
       </c>
       <c r="D100" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E100" s="181"/>
       <c r="F100" s="182" t="s">
-        <v>1702</v>
+        <v>1744</v>
       </c>
       <c r="G100" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H100" s="183">
         <v>8.0</v>
       </c>
       <c r="I100" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C101" s="179" t="s">
         <v>737</v>
       </c>
       <c r="D101" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E101" s="181"/>
       <c r="F101" s="182" t="s">
-        <v>1703</v>
+        <v>1745</v>
       </c>
       <c r="G101" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H101" s="183">
         <v>9.0</v>
       </c>
       <c r="I101" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C102" s="179" t="s">
         <v>738</v>
       </c>
       <c r="D102" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E102" s="181"/>
       <c r="F102" s="182" t="s">
-        <v>1704</v>
+        <v>1746</v>
       </c>
       <c r="G102" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H102" s="183">
         <v>10.0</v>
       </c>
       <c r="I102" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C103" s="179" t="s">
         <v>739</v>
       </c>
       <c r="D103" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E103" s="181"/>
       <c r="F103" s="182" t="s">
-        <v>1705</v>
+        <v>1747</v>
       </c>
       <c r="G103" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H103" s="183">
         <v>11.0</v>
       </c>
       <c r="I103" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C104" s="179" t="s">
         <v>740</v>
       </c>
       <c r="D104" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E104" s="181"/>
       <c r="F104" s="182" t="s">
-        <v>1706</v>
+        <v>1748</v>
       </c>
       <c r="G104" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H104" s="183">
         <v>12.0</v>
       </c>
       <c r="I104" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C105" s="179" t="s">
         <v>741</v>
       </c>
       <c r="D105" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E105" s="181"/>
       <c r="F105" s="182" t="s">
-        <v>1707</v>
+        <v>1749</v>
       </c>
       <c r="G105" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H105" s="183">
         <v>13.0</v>
       </c>
       <c r="I105" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C106" s="179" t="s">
         <v>742</v>
       </c>
       <c r="D106" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E106" s="181"/>
       <c r="F106" s="182" t="s">
-        <v>1708</v>
+        <v>1750</v>
       </c>
       <c r="G106" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H106" s="183">
         <v>14.0</v>
       </c>
       <c r="I106" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C107" s="179" t="s">
         <v>743</v>
       </c>
       <c r="D107" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E107" s="181"/>
       <c r="F107" s="182" t="s">
-        <v>1709</v>
+        <v>1751</v>
       </c>
       <c r="G107" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H107" s="183">
         <v>15.0</v>
       </c>
       <c r="I107" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C108" s="179" t="s">
         <v>744</v>
       </c>
       <c r="D108" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E108" s="181"/>
       <c r="F108" s="182" t="s">
-        <v>1710</v>
+        <v>1752</v>
       </c>
       <c r="G108" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H108" s="183">
         <v>16.0</v>
       </c>
       <c r="I108" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C109" s="179" t="s">
         <v>745</v>
       </c>
       <c r="D109" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E109" s="181"/>
       <c r="F109" s="182" t="s">
-        <v>1711</v>
+        <v>1753</v>
       </c>
       <c r="G109" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H109" s="183">
         <v>17.0</v>
       </c>
       <c r="I109" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C110" s="179" t="s">
         <v>746</v>
       </c>
       <c r="D110" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E110" s="181"/>
       <c r="F110" s="182" t="s">
-        <v>1712</v>
+        <v>1754</v>
       </c>
       <c r="G110" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H110" s="183">
         <v>18.0</v>
       </c>
       <c r="I110" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C111" s="179" t="s">
         <v>747</v>
       </c>
       <c r="D111" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E111" s="181"/>
       <c r="F111" s="182" t="s">
-        <v>1713</v>
+        <v>1755</v>
       </c>
       <c r="G111" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H111" s="183">
         <v>19.0</v>
       </c>
       <c r="I111" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C112" s="179" t="s">
         <v>748</v>
       </c>
       <c r="D112" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E112" s="181"/>
       <c r="F112" s="182" t="s">
-        <v>1714</v>
+        <v>1756</v>
       </c>
       <c r="G112" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H112" s="183">
         <v>20.0</v>
       </c>
       <c r="I112" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C113" s="179" t="s">
         <v>749</v>
       </c>
       <c r="D113" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E113" s="181"/>
       <c r="F113" s="182" t="s">
-        <v>1715</v>
+        <v>1757</v>
       </c>
       <c r="G113" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H113" s="183">
         <v>21.0</v>
       </c>
       <c r="I113" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C114" s="179" t="s">
         <v>750</v>
       </c>
       <c r="D114" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E114" s="181"/>
       <c r="F114" s="182" t="s">
-        <v>1716</v>
+        <v>1758</v>
       </c>
       <c r="G114" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H114" s="183">
         <v>22.0</v>
       </c>
       <c r="I114" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C115" s="179" t="s">
         <v>751</v>
       </c>
       <c r="D115" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E115" s="181"/>
       <c r="F115" s="182" t="s">
-        <v>1717</v>
+        <v>1759</v>
       </c>
       <c r="G115" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H115" s="183">
         <v>23.0</v>
       </c>
       <c r="I115" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C116" s="179" t="s">
         <v>752</v>
       </c>
       <c r="D116" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E116" s="181"/>
       <c r="F116" s="182" t="s">
-        <v>1718</v>
+        <v>1760</v>
       </c>
       <c r="G116" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H116" s="183">
         <v>24.0</v>
       </c>
       <c r="I116" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C117" s="179" t="s">
         <v>753</v>
       </c>
       <c r="D117" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E117" s="181"/>
       <c r="F117" s="182" t="s">
-        <v>1719</v>
+        <v>1761</v>
       </c>
       <c r="G117" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H117" s="183">
         <v>25.0</v>
       </c>
       <c r="I117" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="199" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C118" s="206" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="201" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E118" s="202"/>
       <c r="F118" s="203" t="s">
-        <v>1720</v>
+        <v>1762</v>
       </c>
       <c r="G118" s="201" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H118" s="204">
         <v>26.0</v>
       </c>
       <c r="I118" s="205" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J118" s="1"/>
     </row>
@@ -26443,28 +26681,28 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="188" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C120" s="189" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="190" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E120" s="191" t="s">
-        <v>1721</v>
+        <v>1763</v>
       </c>
       <c r="F120" s="192" t="s">
-        <v>1722</v>
+        <v>1764</v>
       </c>
       <c r="G120" s="190" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H120" s="193" t="s">
         <v>3</v>
       </c>
       <c r="I120" s="194" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J120" s="1"/>
     </row>
@@ -26482,676 +26720,676 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C122" s="179" t="s">
         <v>1045</v>
       </c>
       <c r="D122" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E122" s="181"/>
       <c r="F122" s="182" t="s">
-        <v>1723</v>
+        <v>1765</v>
       </c>
       <c r="G122" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H122" s="183">
         <v>1.0</v>
       </c>
       <c r="I122" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C123" s="179" t="s">
         <v>1046</v>
       </c>
       <c r="D123" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E123" s="181"/>
       <c r="F123" s="182" t="s">
-        <v>1724</v>
+        <v>1766</v>
       </c>
       <c r="G123" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H123" s="183">
         <v>2.0</v>
       </c>
       <c r="I123" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C124" s="179" t="s">
         <v>1047</v>
       </c>
       <c r="D124" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E124" s="181"/>
       <c r="F124" s="182" t="s">
-        <v>1725</v>
+        <v>1767</v>
       </c>
       <c r="G124" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H124" s="183">
         <v>3.0</v>
       </c>
       <c r="I124" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C125" s="179" t="s">
         <v>1048</v>
       </c>
       <c r="D125" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E125" s="181"/>
       <c r="F125" s="182" t="s">
-        <v>1726</v>
+        <v>1768</v>
       </c>
       <c r="G125" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H125" s="183">
         <v>4.0</v>
       </c>
       <c r="I125" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C126" s="179" t="s">
         <v>1049</v>
       </c>
       <c r="D126" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E126" s="181"/>
       <c r="F126" s="182" t="s">
-        <v>1727</v>
+        <v>1769</v>
       </c>
       <c r="G126" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H126" s="183">
         <v>5.0</v>
       </c>
       <c r="I126" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C127" s="179" t="s">
         <v>1050</v>
       </c>
       <c r="D127" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E127" s="181"/>
       <c r="F127" s="182" t="s">
-        <v>1728</v>
+        <v>1770</v>
       </c>
       <c r="G127" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H127" s="183">
         <v>6.0</v>
       </c>
       <c r="I127" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C128" s="179" t="s">
         <v>1051</v>
       </c>
       <c r="D128" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E128" s="181"/>
       <c r="F128" s="182" t="s">
-        <v>1729</v>
+        <v>1771</v>
       </c>
       <c r="G128" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H128" s="183">
         <v>7.0</v>
       </c>
       <c r="I128" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C129" s="179" t="s">
         <v>1052</v>
       </c>
       <c r="D129" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E129" s="181"/>
       <c r="F129" s="182" t="s">
-        <v>1730</v>
+        <v>1772</v>
       </c>
       <c r="G129" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H129" s="183">
         <v>8.0</v>
       </c>
       <c r="I129" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C130" s="179" t="s">
         <v>1053</v>
       </c>
       <c r="D130" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E130" s="181"/>
       <c r="F130" s="182" t="s">
-        <v>1731</v>
+        <v>1773</v>
       </c>
       <c r="G130" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H130" s="183">
         <v>9.0</v>
       </c>
       <c r="I130" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C131" s="179" t="s">
         <v>1054</v>
       </c>
       <c r="D131" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E131" s="181"/>
       <c r="F131" s="182" t="s">
-        <v>1732</v>
+        <v>1774</v>
       </c>
       <c r="G131" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H131" s="183">
         <v>10.0</v>
       </c>
       <c r="I131" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C132" s="179" t="s">
         <v>1055</v>
       </c>
       <c r="D132" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E132" s="181"/>
       <c r="F132" s="182" t="s">
-        <v>1733</v>
+        <v>1775</v>
       </c>
       <c r="G132" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H132" s="183">
         <v>11.0</v>
       </c>
       <c r="I132" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C133" s="179" t="s">
         <v>1056</v>
       </c>
       <c r="D133" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E133" s="181"/>
       <c r="F133" s="182" t="s">
-        <v>1734</v>
+        <v>1776</v>
       </c>
       <c r="G133" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H133" s="183">
         <v>12.0</v>
       </c>
       <c r="I133" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C134" s="179" t="s">
         <v>1057</v>
       </c>
       <c r="D134" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E134" s="181"/>
       <c r="F134" s="182" t="s">
-        <v>1735</v>
+        <v>1777</v>
       </c>
       <c r="G134" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H134" s="183">
         <v>13.0</v>
       </c>
       <c r="I134" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C135" s="179" t="s">
         <v>1058</v>
       </c>
       <c r="D135" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E135" s="181"/>
       <c r="F135" s="182" t="s">
-        <v>1736</v>
+        <v>1778</v>
       </c>
       <c r="G135" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H135" s="183">
         <v>14.0</v>
       </c>
       <c r="I135" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C136" s="179" t="s">
         <v>1059</v>
       </c>
       <c r="D136" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E136" s="181"/>
       <c r="F136" s="182" t="s">
-        <v>1737</v>
+        <v>1779</v>
       </c>
       <c r="G136" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H136" s="183">
         <v>15.0</v>
       </c>
       <c r="I136" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C137" s="179" t="s">
         <v>1060</v>
       </c>
       <c r="D137" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E137" s="181"/>
       <c r="F137" s="182" t="s">
-        <v>1738</v>
+        <v>1780</v>
       </c>
       <c r="G137" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H137" s="183">
         <v>16.0</v>
       </c>
       <c r="I137" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C138" s="179" t="s">
         <v>1061</v>
       </c>
       <c r="D138" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E138" s="181"/>
       <c r="F138" s="182" t="s">
-        <v>1739</v>
+        <v>1781</v>
       </c>
       <c r="G138" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H138" s="183">
         <v>17.0</v>
       </c>
       <c r="I138" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C139" s="179" t="s">
         <v>1062</v>
       </c>
       <c r="D139" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E139" s="181"/>
       <c r="F139" s="182" t="s">
-        <v>1740</v>
+        <v>1782</v>
       </c>
       <c r="G139" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H139" s="183">
         <v>18.0</v>
       </c>
       <c r="I139" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C140" s="179" t="s">
         <v>1063</v>
       </c>
       <c r="D140" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E140" s="181"/>
       <c r="F140" s="182" t="s">
-        <v>1741</v>
+        <v>1783</v>
       </c>
       <c r="G140" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H140" s="183">
         <v>19.0</v>
       </c>
       <c r="I140" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C141" s="179" t="s">
         <v>1064</v>
       </c>
       <c r="D141" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E141" s="181"/>
       <c r="F141" s="182" t="s">
-        <v>1742</v>
+        <v>1784</v>
       </c>
       <c r="G141" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H141" s="183">
         <v>20.0</v>
       </c>
       <c r="I141" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C142" s="179" t="s">
         <v>1065</v>
       </c>
       <c r="D142" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E142" s="181"/>
       <c r="F142" s="182" t="s">
-        <v>1743</v>
+        <v>1785</v>
       </c>
       <c r="G142" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H142" s="183">
         <v>21.0</v>
       </c>
       <c r="I142" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C143" s="179" t="s">
         <v>1066</v>
       </c>
       <c r="D143" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E143" s="181"/>
       <c r="F143" s="182" t="s">
-        <v>1744</v>
+        <v>1786</v>
       </c>
       <c r="G143" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H143" s="183">
         <v>22.0</v>
       </c>
       <c r="I143" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C144" s="179" t="s">
         <v>1067</v>
       </c>
       <c r="D144" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E144" s="181"/>
       <c r="F144" s="182" t="s">
-        <v>1745</v>
+        <v>1787</v>
       </c>
       <c r="G144" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H144" s="183">
         <v>23.0</v>
       </c>
       <c r="I144" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C145" s="179" t="s">
         <v>1068</v>
       </c>
       <c r="D145" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E145" s="181"/>
       <c r="F145" s="182" t="s">
-        <v>1746</v>
+        <v>1788</v>
       </c>
       <c r="G145" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H145" s="183">
         <v>24.0</v>
       </c>
       <c r="I145" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C146" s="179" t="s">
         <v>1069</v>
       </c>
       <c r="D146" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E146" s="181"/>
       <c r="F146" s="182" t="s">
-        <v>1747</v>
+        <v>1789</v>
       </c>
       <c r="G146" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H146" s="183">
         <v>25.0</v>
       </c>
       <c r="I146" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="199" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C147" s="206" t="s">
         <v>1070</v>
       </c>
       <c r="D147" s="201" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E147" s="202"/>
       <c r="F147" s="203" t="s">
-        <v>1748</v>
+        <v>1790</v>
       </c>
       <c r="G147" s="201" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H147" s="204">
         <v>26.0</v>
       </c>
       <c r="I147" s="205" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J147" s="1"/>
     </row>
@@ -27169,28 +27407,28 @@
     <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="188" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C149" s="189" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="190" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E149" s="191" t="s">
-        <v>1749</v>
+        <v>1791</v>
       </c>
       <c r="F149" s="192" t="s">
-        <v>1750</v>
+        <v>1792</v>
       </c>
       <c r="G149" s="190" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H149" s="193" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="194" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J149" s="1"/>
     </row>
@@ -27208,676 +27446,676 @@
     <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C151" s="179" t="s">
         <v>1269</v>
       </c>
       <c r="D151" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E151" s="181"/>
       <c r="F151" s="182" t="s">
-        <v>1751</v>
+        <v>1793</v>
       </c>
       <c r="G151" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H151" s="183">
         <v>1.0</v>
       </c>
       <c r="I151" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C152" s="179" t="s">
         <v>1270</v>
       </c>
       <c r="D152" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E152" s="181"/>
       <c r="F152" s="182" t="s">
-        <v>1752</v>
+        <v>1794</v>
       </c>
       <c r="G152" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H152" s="183">
         <v>2.0</v>
       </c>
       <c r="I152" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C153" s="179" t="s">
         <v>1271</v>
       </c>
       <c r="D153" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E153" s="181"/>
       <c r="F153" s="182" t="s">
-        <v>1753</v>
+        <v>1795</v>
       </c>
       <c r="G153" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H153" s="183">
         <v>3.0</v>
       </c>
       <c r="I153" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C154" s="179" t="s">
         <v>1272</v>
       </c>
       <c r="D154" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E154" s="181"/>
       <c r="F154" s="182" t="s">
-        <v>1754</v>
+        <v>1796</v>
       </c>
       <c r="G154" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H154" s="183">
         <v>4.0</v>
       </c>
       <c r="I154" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C155" s="179" t="s">
         <v>1273</v>
       </c>
       <c r="D155" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E155" s="181"/>
       <c r="F155" s="182" t="s">
-        <v>1755</v>
+        <v>1797</v>
       </c>
       <c r="G155" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H155" s="183">
         <v>5.0</v>
       </c>
       <c r="I155" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C156" s="179" t="s">
         <v>1274</v>
       </c>
       <c r="D156" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E156" s="181"/>
       <c r="F156" s="182" t="s">
-        <v>1756</v>
+        <v>1798</v>
       </c>
       <c r="G156" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H156" s="183">
         <v>6.0</v>
       </c>
       <c r="I156" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C157" s="179" t="s">
         <v>1275</v>
       </c>
       <c r="D157" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E157" s="181"/>
       <c r="F157" s="182" t="s">
-        <v>1757</v>
+        <v>1799</v>
       </c>
       <c r="G157" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H157" s="183">
         <v>7.0</v>
       </c>
       <c r="I157" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C158" s="179" t="s">
         <v>1276</v>
       </c>
       <c r="D158" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E158" s="181"/>
       <c r="F158" s="182" t="s">
-        <v>1758</v>
+        <v>1800</v>
       </c>
       <c r="G158" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H158" s="183">
         <v>8.0</v>
       </c>
       <c r="I158" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C159" s="179" t="s">
         <v>1277</v>
       </c>
       <c r="D159" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E159" s="181"/>
       <c r="F159" s="182" t="s">
-        <v>1759</v>
+        <v>1801</v>
       </c>
       <c r="G159" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H159" s="183">
         <v>9.0</v>
       </c>
       <c r="I159" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C160" s="179" t="s">
         <v>1278</v>
       </c>
       <c r="D160" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E160" s="181"/>
       <c r="F160" s="182" t="s">
-        <v>1760</v>
+        <v>1802</v>
       </c>
       <c r="G160" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H160" s="183">
         <v>10.0</v>
       </c>
       <c r="I160" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C161" s="179" t="s">
         <v>1279</v>
       </c>
       <c r="D161" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E161" s="181"/>
       <c r="F161" s="182" t="s">
-        <v>1761</v>
+        <v>1803</v>
       </c>
       <c r="G161" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H161" s="183">
         <v>11.0</v>
       </c>
       <c r="I161" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C162" s="179" t="s">
         <v>1280</v>
       </c>
       <c r="D162" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E162" s="181"/>
       <c r="F162" s="182" t="s">
-        <v>1762</v>
+        <v>1804</v>
       </c>
       <c r="G162" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H162" s="183">
         <v>12.0</v>
       </c>
       <c r="I162" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C163" s="179" t="s">
         <v>1281</v>
       </c>
       <c r="D163" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E163" s="181"/>
       <c r="F163" s="182" t="s">
-        <v>1763</v>
+        <v>1805</v>
       </c>
       <c r="G163" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H163" s="183">
         <v>13.0</v>
       </c>
       <c r="I163" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C164" s="179" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E164" s="181"/>
       <c r="F164" s="182" t="s">
-        <v>1764</v>
+        <v>1806</v>
       </c>
       <c r="G164" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H164" s="183">
         <v>14.0</v>
       </c>
       <c r="I164" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C165" s="179" t="s">
         <v>1283</v>
       </c>
       <c r="D165" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E165" s="181"/>
       <c r="F165" s="182" t="s">
-        <v>1765</v>
+        <v>1807</v>
       </c>
       <c r="G165" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H165" s="183">
         <v>15.0</v>
       </c>
       <c r="I165" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C166" s="179" t="s">
         <v>1284</v>
       </c>
       <c r="D166" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E166" s="181"/>
       <c r="F166" s="182" t="s">
-        <v>1766</v>
+        <v>1808</v>
       </c>
       <c r="G166" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H166" s="183">
         <v>16.0</v>
       </c>
       <c r="I166" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C167" s="179" t="s">
         <v>1285</v>
       </c>
       <c r="D167" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E167" s="181"/>
       <c r="F167" s="182" t="s">
-        <v>1767</v>
+        <v>1809</v>
       </c>
       <c r="G167" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H167" s="183">
         <v>17.0</v>
       </c>
       <c r="I167" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C168" s="179" t="s">
         <v>1286</v>
       </c>
       <c r="D168" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E168" s="181"/>
       <c r="F168" s="182" t="s">
-        <v>1768</v>
+        <v>1810</v>
       </c>
       <c r="G168" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H168" s="183">
         <v>18.0</v>
       </c>
       <c r="I168" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C169" s="179" t="s">
         <v>1287</v>
       </c>
       <c r="D169" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E169" s="181"/>
       <c r="F169" s="182" t="s">
-        <v>1769</v>
+        <v>1811</v>
       </c>
       <c r="G169" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H169" s="183">
         <v>19.0</v>
       </c>
       <c r="I169" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C170" s="179" t="s">
         <v>1288</v>
       </c>
       <c r="D170" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E170" s="181"/>
       <c r="F170" s="182" t="s">
-        <v>1770</v>
+        <v>1812</v>
       </c>
       <c r="G170" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H170" s="183">
         <v>20.0</v>
       </c>
       <c r="I170" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C171" s="179" t="s">
         <v>1289</v>
       </c>
       <c r="D171" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E171" s="181"/>
       <c r="F171" s="182" t="s">
-        <v>1771</v>
+        <v>1813</v>
       </c>
       <c r="G171" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H171" s="183">
         <v>21.0</v>
       </c>
       <c r="I171" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C172" s="179" t="s">
         <v>1290</v>
       </c>
       <c r="D172" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E172" s="181"/>
       <c r="F172" s="182" t="s">
-        <v>1772</v>
+        <v>1814</v>
       </c>
       <c r="G172" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H172" s="183">
         <v>22.0</v>
       </c>
       <c r="I172" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C173" s="179" t="s">
         <v>1291</v>
       </c>
       <c r="D173" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E173" s="181"/>
       <c r="F173" s="182" t="s">
-        <v>1773</v>
+        <v>1815</v>
       </c>
       <c r="G173" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H173" s="183">
         <v>23.0</v>
       </c>
       <c r="I173" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C174" s="179" t="s">
         <v>1292</v>
       </c>
       <c r="D174" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E174" s="181"/>
       <c r="F174" s="182" t="s">
-        <v>1774</v>
+        <v>1816</v>
       </c>
       <c r="G174" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H174" s="183">
         <v>24.0</v>
       </c>
       <c r="I174" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C175" s="179" t="s">
         <v>1293</v>
       </c>
       <c r="D175" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E175" s="181"/>
       <c r="F175" s="182" t="s">
-        <v>1775</v>
+        <v>1817</v>
       </c>
       <c r="G175" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H175" s="183">
         <v>25.0</v>
       </c>
       <c r="I175" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="199" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C176" s="206" t="s">
         <v>1294</v>
       </c>
       <c r="D176" s="201" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E176" s="202"/>
       <c r="F176" s="203" t="s">
-        <v>1776</v>
+        <v>1818</v>
       </c>
       <c r="G176" s="201" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H176" s="204">
         <v>26.0</v>
       </c>
       <c r="I176" s="205" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -27896,28 +28134,28 @@
     <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="188" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C178" s="189" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="190" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E178" s="191" t="s">
-        <v>1777</v>
+        <v>1819</v>
       </c>
       <c r="F178" s="192" t="s">
-        <v>1778</v>
+        <v>1820</v>
       </c>
       <c r="G178" s="190" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H178" s="193" t="s">
         <v>5</v>
       </c>
       <c r="I178" s="194" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J178" s="1"/>
     </row>
@@ -27936,676 +28174,676 @@
     <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C180" s="179" t="s">
         <v>1424</v>
       </c>
       <c r="D180" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E180" s="181"/>
       <c r="F180" s="182" t="s">
-        <v>1779</v>
+        <v>1821</v>
       </c>
       <c r="G180" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H180" s="183">
         <v>1.0</v>
       </c>
       <c r="I180" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C181" s="179" t="s">
         <v>1425</v>
       </c>
       <c r="D181" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E181" s="181"/>
       <c r="F181" s="182" t="s">
-        <v>1780</v>
+        <v>1822</v>
       </c>
       <c r="G181" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H181" s="183">
         <v>2.0</v>
       </c>
       <c r="I181" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C182" s="179" t="s">
         <v>1426</v>
       </c>
       <c r="D182" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E182" s="181"/>
       <c r="F182" s="182" t="s">
-        <v>1781</v>
+        <v>1823</v>
       </c>
       <c r="G182" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H182" s="183">
         <v>3.0</v>
       </c>
       <c r="I182" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C183" s="179" t="s">
         <v>1427</v>
       </c>
       <c r="D183" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E183" s="181"/>
       <c r="F183" s="182" t="s">
-        <v>1782</v>
+        <v>1824</v>
       </c>
       <c r="G183" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H183" s="183">
         <v>4.0</v>
       </c>
       <c r="I183" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C184" s="179" t="s">
         <v>1428</v>
       </c>
       <c r="D184" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E184" s="181"/>
       <c r="F184" s="182" t="s">
-        <v>1783</v>
+        <v>1825</v>
       </c>
       <c r="G184" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H184" s="183">
         <v>5.0</v>
       </c>
       <c r="I184" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C185" s="179" t="s">
         <v>1429</v>
       </c>
       <c r="D185" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E185" s="181"/>
       <c r="F185" s="182" t="s">
-        <v>1784</v>
+        <v>1826</v>
       </c>
       <c r="G185" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H185" s="183">
         <v>6.0</v>
       </c>
       <c r="I185" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C186" s="179" t="s">
         <v>1430</v>
       </c>
       <c r="D186" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E186" s="181"/>
       <c r="F186" s="182" t="s">
-        <v>1785</v>
+        <v>1827</v>
       </c>
       <c r="G186" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H186" s="183">
         <v>7.0</v>
       </c>
       <c r="I186" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C187" s="179" t="s">
         <v>1431</v>
       </c>
       <c r="D187" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E187" s="181"/>
       <c r="F187" s="182" t="s">
-        <v>1786</v>
+        <v>1828</v>
       </c>
       <c r="G187" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H187" s="183">
         <v>8.0</v>
       </c>
       <c r="I187" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C188" s="179" t="s">
         <v>1432</v>
       </c>
       <c r="D188" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E188" s="181"/>
       <c r="F188" s="182" t="s">
-        <v>1787</v>
+        <v>1829</v>
       </c>
       <c r="G188" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H188" s="183">
         <v>9.0</v>
       </c>
       <c r="I188" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C189" s="179" t="s">
         <v>1433</v>
       </c>
       <c r="D189" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E189" s="181"/>
       <c r="F189" s="182" t="s">
-        <v>1788</v>
+        <v>1830</v>
       </c>
       <c r="G189" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H189" s="183">
         <v>10.0</v>
       </c>
       <c r="I189" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C190" s="179" t="s">
         <v>1434</v>
       </c>
       <c r="D190" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E190" s="181"/>
       <c r="F190" s="182" t="s">
-        <v>1789</v>
+        <v>1831</v>
       </c>
       <c r="G190" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H190" s="183">
         <v>11.0</v>
       </c>
       <c r="I190" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C191" s="179" t="s">
         <v>1435</v>
       </c>
       <c r="D191" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E191" s="181"/>
       <c r="F191" s="182" t="s">
-        <v>1790</v>
+        <v>1832</v>
       </c>
       <c r="G191" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H191" s="183">
         <v>12.0</v>
       </c>
       <c r="I191" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C192" s="179" t="s">
         <v>1436</v>
       </c>
       <c r="D192" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E192" s="181"/>
       <c r="F192" s="182" t="s">
-        <v>1791</v>
+        <v>1833</v>
       </c>
       <c r="G192" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H192" s="183">
         <v>13.0</v>
       </c>
       <c r="I192" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C193" s="179" t="s">
         <v>1437</v>
       </c>
       <c r="D193" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E193" s="181"/>
       <c r="F193" s="182" t="s">
-        <v>1792</v>
+        <v>1834</v>
       </c>
       <c r="G193" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H193" s="183">
         <v>14.0</v>
       </c>
       <c r="I193" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C194" s="179" t="s">
         <v>1438</v>
       </c>
       <c r="D194" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E194" s="181"/>
       <c r="F194" s="182" t="s">
-        <v>1793</v>
+        <v>1835</v>
       </c>
       <c r="G194" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H194" s="183">
         <v>15.0</v>
       </c>
       <c r="I194" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C195" s="179" t="s">
         <v>1439</v>
       </c>
       <c r="D195" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E195" s="181"/>
       <c r="F195" s="182" t="s">
-        <v>1794</v>
+        <v>1836</v>
       </c>
       <c r="G195" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H195" s="183">
         <v>16.0</v>
       </c>
       <c r="I195" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C196" s="179" t="s">
         <v>1440</v>
       </c>
       <c r="D196" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E196" s="181"/>
       <c r="F196" s="182" t="s">
-        <v>1795</v>
+        <v>1837</v>
       </c>
       <c r="G196" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H196" s="183">
         <v>17.0</v>
       </c>
       <c r="I196" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C197" s="179" t="s">
         <v>1441</v>
       </c>
       <c r="D197" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E197" s="181"/>
       <c r="F197" s="182" t="s">
-        <v>1796</v>
+        <v>1838</v>
       </c>
       <c r="G197" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H197" s="183">
         <v>18.0</v>
       </c>
       <c r="I197" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C198" s="179" t="s">
         <v>1442</v>
       </c>
       <c r="D198" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E198" s="181"/>
       <c r="F198" s="182" t="s">
-        <v>1797</v>
+        <v>1839</v>
       </c>
       <c r="G198" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H198" s="183">
         <v>19.0</v>
       </c>
       <c r="I198" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C199" s="179" t="s">
         <v>1443</v>
       </c>
       <c r="D199" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E199" s="181"/>
       <c r="F199" s="182" t="s">
-        <v>1798</v>
+        <v>1840</v>
       </c>
       <c r="G199" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H199" s="183">
         <v>20.0</v>
       </c>
       <c r="I199" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C200" s="179" t="s">
         <v>1444</v>
       </c>
       <c r="D200" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E200" s="181"/>
       <c r="F200" s="182" t="s">
-        <v>1799</v>
+        <v>1841</v>
       </c>
       <c r="G200" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H200" s="183">
         <v>21.0</v>
       </c>
       <c r="I200" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C201" s="179" t="s">
         <v>1445</v>
       </c>
       <c r="D201" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E201" s="181"/>
       <c r="F201" s="182" t="s">
-        <v>1800</v>
+        <v>1842</v>
       </c>
       <c r="G201" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H201" s="183">
         <v>22.0</v>
       </c>
       <c r="I201" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C202" s="179" t="s">
         <v>1446</v>
       </c>
       <c r="D202" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E202" s="181"/>
       <c r="F202" s="182" t="s">
-        <v>1801</v>
+        <v>1843</v>
       </c>
       <c r="G202" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H202" s="183">
         <v>23.0</v>
       </c>
       <c r="I202" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C203" s="179" t="s">
         <v>1447</v>
       </c>
       <c r="D203" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E203" s="181"/>
       <c r="F203" s="182" t="s">
-        <v>1802</v>
+        <v>1844</v>
       </c>
       <c r="G203" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H203" s="183">
         <v>24.0</v>
       </c>
       <c r="I203" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="195" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C204" s="179" t="s">
         <v>1448</v>
       </c>
       <c r="D204" s="180" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E204" s="181"/>
       <c r="F204" s="182" t="s">
-        <v>1803</v>
+        <v>1845</v>
       </c>
       <c r="G204" s="180" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H204" s="183">
         <v>25.0</v>
       </c>
       <c r="I204" s="197" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="199" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="C205" s="206" t="s">
         <v>1449</v>
       </c>
       <c r="D205" s="201" t="s">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="E205" s="202"/>
       <c r="F205" s="203" t="s">
-        <v>1804</v>
+        <v>1846</v>
       </c>
       <c r="G205" s="201" t="s">
-        <v>1610</v>
+        <v>1652</v>
       </c>
       <c r="H205" s="204">
         <v>26.0</v>
       </c>
       <c r="I205" s="205" t="s">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="J205" s="1"/>
     </row>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="1867">
   <si>
     <t>A#3</t>
   </si>
@@ -4395,6 +4395,12 @@
     <t>easy</t>
   </si>
   <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
     <t>feat</t>
   </si>
   <si>
@@ -4449,6 +4455,12 @@
     <t>pump</t>
   </si>
   <si>
+    <t>ledger</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
     <t>lift</t>
   </si>
   <si>
@@ -4503,6 +4515,12 @@
     <t>left</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
     <t>hang</t>
   </si>
   <si>
@@ -4557,6 +4575,12 @@
     <t>genre</t>
   </si>
   <si>
+    <t>oven</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
     <t>manner</t>
   </si>
   <si>
@@ -4611,6 +4635,12 @@
     <t>clinic</t>
   </si>
   <si>
+    <t>leaflet</t>
+  </si>
+  <si>
+    <t>bulletin</t>
+  </si>
+  <si>
     <t>study</t>
   </si>
   <si>
@@ -4665,6 +4695,12 @@
     <t>conscious</t>
   </si>
   <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
     <t>awake</t>
   </si>
   <si>
@@ -4719,6 +4755,12 @@
     <t>catalogue</t>
   </si>
   <si>
+    <t>clash</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
     <t>recurring</t>
   </si>
   <si>
@@ -4773,6 +4815,12 @@
     <t>inventory</t>
   </si>
   <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>formal</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
@@ -4827,6 +4875,12 @@
     <t>cluster</t>
   </si>
   <si>
+    <t>imprint</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
     <t>stump</t>
   </si>
   <si>
@@ -4879,6 +4933,12 @@
   </si>
   <si>
     <t>medic</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>twig</t>
   </si>
   <si>
     <t>spirit</t>
@@ -22440,40 +22500,44 @@
       <c r="L82" s="162" t="s">
         <v>1459</v>
       </c>
-      <c r="M82" s="111"/>
+      <c r="M82" s="162" t="s">
+        <v>1460</v>
+      </c>
       <c r="N82" s="111"/>
       <c r="O82" s="111"/>
       <c r="P82" s="111"/>
       <c r="Q82" s="111"/>
       <c r="R82" s="111"/>
       <c r="S82" s="111"/>
-      <c r="T82" s="111"/>
+      <c r="T82" s="162" t="s">
+        <v>1461</v>
+      </c>
       <c r="U82" s="162" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="V82" s="162" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="W82" s="162" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="X82" s="162" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="Y82" s="162" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="Z82" s="162" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="AA82" s="162" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="AB82" s="162" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="AC82" s="163" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="AD82" s="100"/>
       <c r="AE82" s="113"/>
@@ -22489,66 +22553,70 @@
       </c>
       <c r="C83" s="100"/>
       <c r="D83" s="164" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="E83" s="165" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="F83" s="165" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="G83" s="165" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="H83" s="165" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="I83" s="165" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="J83" s="165" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="K83" s="165" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="L83" s="165" t="s">
-        <v>1477</v>
-      </c>
-      <c r="M83" s="119"/>
+        <v>1479</v>
+      </c>
+      <c r="M83" s="165" t="s">
+        <v>1480</v>
+      </c>
       <c r="N83" s="119"/>
       <c r="O83" s="119"/>
       <c r="P83" s="119"/>
       <c r="Q83" s="119"/>
       <c r="R83" s="119"/>
       <c r="S83" s="119"/>
-      <c r="T83" s="119"/>
+      <c r="T83" s="165" t="s">
+        <v>1481</v>
+      </c>
       <c r="U83" s="165" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="V83" s="165" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="W83" s="165" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="X83" s="165" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="Y83" s="165" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="Z83" s="165" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="AA83" s="165" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="AB83" s="165" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="AC83" s="166" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="AD83" s="100"/>
       <c r="AE83" s="121"/>
@@ -22564,66 +22632,70 @@
       </c>
       <c r="C84" s="100"/>
       <c r="D84" s="164" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="E84" s="165" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="F84" s="165" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="G84" s="165" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="H84" s="165" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="I84" s="165" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="J84" s="165" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="K84" s="165" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="L84" s="165" t="s">
-        <v>1495</v>
-      </c>
-      <c r="M84" s="119"/>
+        <v>1499</v>
+      </c>
+      <c r="M84" s="165" t="s">
+        <v>1500</v>
+      </c>
       <c r="N84" s="119"/>
       <c r="O84" s="119"/>
       <c r="P84" s="119"/>
       <c r="Q84" s="119"/>
       <c r="R84" s="119"/>
       <c r="S84" s="119"/>
-      <c r="T84" s="119"/>
+      <c r="T84" s="165" t="s">
+        <v>1501</v>
+      </c>
       <c r="U84" s="165" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="V84" s="165" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="W84" s="165" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c r="X84" s="165" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="Y84" s="165" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
       <c r="Z84" s="165" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="AA84" s="165" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="AB84" s="165" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="AC84" s="166" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="AD84" s="100"/>
       <c r="AE84" s="121"/>
@@ -22639,66 +22711,70 @@
       </c>
       <c r="C85" s="100"/>
       <c r="D85" s="164" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="E85" s="165" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="F85" s="165" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="G85" s="165" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="H85" s="165" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="I85" s="165" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="J85" s="165" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="K85" s="165" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="L85" s="165" t="s">
-        <v>1513</v>
-      </c>
-      <c r="M85" s="119"/>
+        <v>1519</v>
+      </c>
+      <c r="M85" s="165" t="s">
+        <v>1520</v>
+      </c>
       <c r="N85" s="119"/>
       <c r="O85" s="119"/>
       <c r="P85" s="119"/>
       <c r="Q85" s="119"/>
       <c r="R85" s="119"/>
       <c r="S85" s="119"/>
-      <c r="T85" s="119"/>
+      <c r="T85" s="165" t="s">
+        <v>1521</v>
+      </c>
       <c r="U85" s="165" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="V85" s="165" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="W85" s="165" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="X85" s="165" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="Y85" s="165" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="Z85" s="165" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="AA85" s="165" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="AB85" s="165" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="AC85" s="166" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="AD85" s="100"/>
       <c r="AE85" s="121"/>
@@ -22714,66 +22790,70 @@
       </c>
       <c r="C86" s="100"/>
       <c r="D86" s="164" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="E86" s="165" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="F86" s="165" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="G86" s="165" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="H86" s="165" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="I86" s="165" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="J86" s="165" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="K86" s="165" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="L86" s="165" t="s">
-        <v>1531</v>
-      </c>
-      <c r="M86" s="119"/>
+        <v>1539</v>
+      </c>
+      <c r="M86" s="165" t="s">
+        <v>1540</v>
+      </c>
       <c r="N86" s="119"/>
       <c r="O86" s="119"/>
       <c r="P86" s="119"/>
       <c r="Q86" s="119"/>
       <c r="R86" s="119"/>
       <c r="S86" s="119"/>
-      <c r="T86" s="119"/>
+      <c r="T86" s="165" t="s">
+        <v>1541</v>
+      </c>
       <c r="U86" s="165" t="s">
-        <v>1532</v>
+        <v>1542</v>
       </c>
       <c r="V86" s="165" t="s">
-        <v>1533</v>
+        <v>1543</v>
       </c>
       <c r="W86" s="165" t="s">
-        <v>1534</v>
+        <v>1544</v>
       </c>
       <c r="X86" s="165" t="s">
-        <v>1535</v>
+        <v>1545</v>
       </c>
       <c r="Y86" s="165" t="s">
-        <v>1536</v>
+        <v>1546</v>
       </c>
       <c r="Z86" s="165" t="s">
-        <v>1537</v>
+        <v>1547</v>
       </c>
       <c r="AA86" s="165" t="s">
-        <v>1538</v>
+        <v>1548</v>
       </c>
       <c r="AB86" s="165" t="s">
-        <v>1539</v>
+        <v>1549</v>
       </c>
       <c r="AC86" s="166" t="s">
-        <v>1540</v>
+        <v>1550</v>
       </c>
       <c r="AD86" s="100"/>
       <c r="AE86" s="121"/>
@@ -22789,66 +22869,70 @@
       </c>
       <c r="C87" s="100"/>
       <c r="D87" s="164" t="s">
-        <v>1541</v>
+        <v>1551</v>
       </c>
       <c r="E87" s="165" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="F87" s="165" t="s">
-        <v>1543</v>
+        <v>1553</v>
       </c>
       <c r="G87" s="165" t="s">
-        <v>1544</v>
+        <v>1554</v>
       </c>
       <c r="H87" s="165" t="s">
-        <v>1545</v>
+        <v>1555</v>
       </c>
       <c r="I87" s="165" t="s">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="J87" s="165" t="s">
-        <v>1547</v>
+        <v>1557</v>
       </c>
       <c r="K87" s="165" t="s">
-        <v>1548</v>
+        <v>1558</v>
       </c>
       <c r="L87" s="165" t="s">
-        <v>1549</v>
-      </c>
-      <c r="M87" s="119"/>
+        <v>1559</v>
+      </c>
+      <c r="M87" s="165" t="s">
+        <v>1560</v>
+      </c>
       <c r="N87" s="119"/>
       <c r="O87" s="119"/>
       <c r="P87" s="119"/>
       <c r="Q87" s="119"/>
       <c r="R87" s="119"/>
       <c r="S87" s="119"/>
-      <c r="T87" s="119"/>
+      <c r="T87" s="165" t="s">
+        <v>1561</v>
+      </c>
       <c r="U87" s="165" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
       <c r="V87" s="165" t="s">
-        <v>1551</v>
+        <v>1563</v>
       </c>
       <c r="W87" s="165" t="s">
-        <v>1552</v>
+        <v>1564</v>
       </c>
       <c r="X87" s="165" t="s">
-        <v>1553</v>
+        <v>1565</v>
       </c>
       <c r="Y87" s="165" t="s">
-        <v>1554</v>
+        <v>1566</v>
       </c>
       <c r="Z87" s="165" t="s">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="AA87" s="165" t="s">
-        <v>1556</v>
+        <v>1568</v>
       </c>
       <c r="AB87" s="165" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
       <c r="AC87" s="166" t="s">
-        <v>1558</v>
+        <v>1570</v>
       </c>
       <c r="AD87" s="100"/>
       <c r="AE87" s="121"/>
@@ -22864,66 +22948,70 @@
       </c>
       <c r="C88" s="100"/>
       <c r="D88" s="164" t="s">
-        <v>1559</v>
+        <v>1571</v>
       </c>
       <c r="E88" s="165" t="s">
-        <v>1560</v>
+        <v>1572</v>
       </c>
       <c r="F88" s="165" t="s">
-        <v>1561</v>
+        <v>1573</v>
       </c>
       <c r="G88" s="165" t="s">
-        <v>1562</v>
+        <v>1574</v>
       </c>
       <c r="H88" s="165" t="s">
-        <v>1563</v>
+        <v>1575</v>
       </c>
       <c r="I88" s="165" t="s">
-        <v>1564</v>
+        <v>1576</v>
       </c>
       <c r="J88" s="165" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
       <c r="K88" s="165" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
       <c r="L88" s="165" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M88" s="119"/>
+        <v>1579</v>
+      </c>
+      <c r="M88" s="165" t="s">
+        <v>1580</v>
+      </c>
       <c r="N88" s="119"/>
       <c r="O88" s="119"/>
       <c r="P88" s="119"/>
       <c r="Q88" s="119"/>
       <c r="R88" s="119"/>
       <c r="S88" s="119"/>
-      <c r="T88" s="119"/>
+      <c r="T88" s="165" t="s">
+        <v>1581</v>
+      </c>
       <c r="U88" s="165" t="s">
-        <v>1568</v>
+        <v>1582</v>
       </c>
       <c r="V88" s="165" t="s">
-        <v>1569</v>
+        <v>1583</v>
       </c>
       <c r="W88" s="165" t="s">
-        <v>1570</v>
+        <v>1584</v>
       </c>
       <c r="X88" s="165" t="s">
-        <v>1571</v>
+        <v>1585</v>
       </c>
       <c r="Y88" s="165" t="s">
-        <v>1572</v>
+        <v>1586</v>
       </c>
       <c r="Z88" s="165" t="s">
-        <v>1573</v>
+        <v>1587</v>
       </c>
       <c r="AA88" s="165" t="s">
-        <v>1574</v>
+        <v>1588</v>
       </c>
       <c r="AB88" s="165" t="s">
-        <v>1575</v>
+        <v>1589</v>
       </c>
       <c r="AC88" s="166" t="s">
-        <v>1576</v>
+        <v>1590</v>
       </c>
       <c r="AD88" s="100"/>
       <c r="AE88" s="121"/>
@@ -22939,66 +23027,70 @@
       </c>
       <c r="C89" s="100"/>
       <c r="D89" s="164" t="s">
-        <v>1577</v>
+        <v>1591</v>
       </c>
       <c r="E89" s="165" t="s">
-        <v>1578</v>
+        <v>1592</v>
       </c>
       <c r="F89" s="165" t="s">
-        <v>1579</v>
+        <v>1593</v>
       </c>
       <c r="G89" s="165" t="s">
-        <v>1580</v>
+        <v>1594</v>
       </c>
       <c r="H89" s="165" t="s">
-        <v>1581</v>
+        <v>1595</v>
       </c>
       <c r="I89" s="165" t="s">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="J89" s="165" t="s">
-        <v>1583</v>
+        <v>1597</v>
       </c>
       <c r="K89" s="165" t="s">
-        <v>1584</v>
+        <v>1598</v>
       </c>
       <c r="L89" s="165" t="s">
-        <v>1585</v>
-      </c>
-      <c r="M89" s="119"/>
+        <v>1599</v>
+      </c>
+      <c r="M89" s="165" t="s">
+        <v>1600</v>
+      </c>
       <c r="N89" s="119"/>
       <c r="O89" s="119"/>
       <c r="P89" s="119"/>
       <c r="Q89" s="119"/>
       <c r="R89" s="119"/>
       <c r="S89" s="119"/>
-      <c r="T89" s="119"/>
+      <c r="T89" s="165" t="s">
+        <v>1601</v>
+      </c>
       <c r="U89" s="165" t="s">
-        <v>1586</v>
+        <v>1602</v>
       </c>
       <c r="V89" s="165" t="s">
-        <v>1587</v>
+        <v>1603</v>
       </c>
       <c r="W89" s="165" t="s">
-        <v>1588</v>
+        <v>1604</v>
       </c>
       <c r="X89" s="165" t="s">
-        <v>1589</v>
+        <v>1605</v>
       </c>
       <c r="Y89" s="165" t="s">
-        <v>1590</v>
+        <v>1606</v>
       </c>
       <c r="Z89" s="165" t="s">
-        <v>1591</v>
+        <v>1607</v>
       </c>
       <c r="AA89" s="165" t="s">
-        <v>1592</v>
+        <v>1608</v>
       </c>
       <c r="AB89" s="165" t="s">
-        <v>1593</v>
+        <v>1609</v>
       </c>
       <c r="AC89" s="166" t="s">
-        <v>1594</v>
+        <v>1610</v>
       </c>
       <c r="AD89" s="100"/>
       <c r="AE89" s="121"/>
@@ -23014,66 +23106,70 @@
       </c>
       <c r="C90" s="100"/>
       <c r="D90" s="164" t="s">
-        <v>1595</v>
+        <v>1611</v>
       </c>
       <c r="E90" s="165" t="s">
-        <v>1596</v>
+        <v>1612</v>
       </c>
       <c r="F90" s="165" t="s">
-        <v>1597</v>
+        <v>1613</v>
       </c>
       <c r="G90" s="165" t="s">
-        <v>1598</v>
+        <v>1614</v>
       </c>
       <c r="H90" s="165" t="s">
-        <v>1599</v>
+        <v>1615</v>
       </c>
       <c r="I90" s="165" t="s">
-        <v>1600</v>
+        <v>1616</v>
       </c>
       <c r="J90" s="165" t="s">
-        <v>1601</v>
+        <v>1617</v>
       </c>
       <c r="K90" s="165" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="L90" s="165" t="s">
-        <v>1603</v>
-      </c>
-      <c r="M90" s="119"/>
+        <v>1619</v>
+      </c>
+      <c r="M90" s="165" t="s">
+        <v>1620</v>
+      </c>
       <c r="N90" s="119"/>
       <c r="O90" s="119"/>
       <c r="P90" s="119"/>
       <c r="Q90" s="119"/>
       <c r="R90" s="119"/>
       <c r="S90" s="119"/>
-      <c r="T90" s="119"/>
+      <c r="T90" s="165" t="s">
+        <v>1621</v>
+      </c>
       <c r="U90" s="165" t="s">
-        <v>1604</v>
+        <v>1622</v>
       </c>
       <c r="V90" s="165" t="s">
-        <v>1605</v>
+        <v>1623</v>
       </c>
       <c r="W90" s="165" t="s">
-        <v>1606</v>
+        <v>1624</v>
       </c>
       <c r="X90" s="165" t="s">
-        <v>1607</v>
+        <v>1625</v>
       </c>
       <c r="Y90" s="165" t="s">
-        <v>1608</v>
+        <v>1626</v>
       </c>
       <c r="Z90" s="165" t="s">
-        <v>1609</v>
+        <v>1627</v>
       </c>
       <c r="AA90" s="165" t="s">
-        <v>1610</v>
+        <v>1628</v>
       </c>
       <c r="AB90" s="165" t="s">
-        <v>1611</v>
+        <v>1629</v>
       </c>
       <c r="AC90" s="166" t="s">
-        <v>1612</v>
+        <v>1630</v>
       </c>
       <c r="AD90" s="100"/>
       <c r="AE90" s="121"/>
@@ -23089,66 +23185,70 @@
       </c>
       <c r="C91" s="100"/>
       <c r="D91" s="167" t="s">
-        <v>1613</v>
+        <v>1631</v>
       </c>
       <c r="E91" s="168" t="s">
-        <v>1614</v>
+        <v>1632</v>
       </c>
       <c r="F91" s="168" t="s">
-        <v>1615</v>
+        <v>1633</v>
       </c>
       <c r="G91" s="168" t="s">
-        <v>1616</v>
+        <v>1634</v>
       </c>
       <c r="H91" s="168" t="s">
-        <v>1617</v>
+        <v>1635</v>
       </c>
       <c r="I91" s="168" t="s">
-        <v>1618</v>
+        <v>1636</v>
       </c>
       <c r="J91" s="168" t="s">
-        <v>1619</v>
+        <v>1637</v>
       </c>
       <c r="K91" s="168" t="s">
-        <v>1620</v>
+        <v>1638</v>
       </c>
       <c r="L91" s="168" t="s">
-        <v>1621</v>
-      </c>
-      <c r="M91" s="126"/>
+        <v>1639</v>
+      </c>
+      <c r="M91" s="168" t="s">
+        <v>1640</v>
+      </c>
       <c r="N91" s="126"/>
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
       <c r="Q91" s="126"/>
       <c r="R91" s="126"/>
       <c r="S91" s="126"/>
-      <c r="T91" s="126"/>
+      <c r="T91" s="168" t="s">
+        <v>1641</v>
+      </c>
       <c r="U91" s="168" t="s">
-        <v>1622</v>
+        <v>1642</v>
       </c>
       <c r="V91" s="168" t="s">
-        <v>1623</v>
+        <v>1643</v>
       </c>
       <c r="W91" s="168" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="X91" s="168" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="Y91" s="168" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="Z91" s="168" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="AA91" s="168" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
       <c r="AB91" s="168" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="AC91" s="169" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="AD91" s="100"/>
       <c r="AE91" s="128"/>
@@ -23190,14 +23290,18 @@
       <c r="L92" s="171">
         <v>254.0</v>
       </c>
-      <c r="M92" s="134"/>
+      <c r="M92" s="171">
+        <v>253.0</v>
+      </c>
       <c r="N92" s="134"/>
       <c r="O92" s="134"/>
       <c r="P92" s="134"/>
       <c r="Q92" s="134"/>
       <c r="R92" s="134"/>
       <c r="S92" s="134"/>
-      <c r="T92" s="134"/>
+      <c r="T92" s="171">
+        <v>270.0</v>
+      </c>
       <c r="U92" s="171">
         <v>221.0</v>
       </c>
@@ -23239,40 +23343,44 @@
       </c>
       <c r="C93" s="100"/>
       <c r="D93" s="172" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="E93" s="173" t="s">
         <v>58</v>
       </c>
       <c r="F93" s="173" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="G93" s="173" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="H93" s="173" t="s">
         <v>58</v>
       </c>
       <c r="I93" s="173" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="J93" s="173" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="K93" s="173" t="s">
-        <v>1636</v>
+        <v>1656</v>
       </c>
       <c r="L93" s="173" t="s">
-        <v>1637</v>
-      </c>
-      <c r="M93" s="138"/>
+        <v>1657</v>
+      </c>
+      <c r="M93" s="173" t="s">
+        <v>419</v>
+      </c>
       <c r="N93" s="138"/>
       <c r="O93" s="138"/>
       <c r="P93" s="138"/>
       <c r="Q93" s="138"/>
       <c r="R93" s="138"/>
       <c r="S93" s="138"/>
-      <c r="T93" s="138"/>
+      <c r="T93" s="173" t="s">
+        <v>423</v>
+      </c>
       <c r="U93" s="173" t="s">
         <v>425</v>
       </c>
@@ -23280,25 +23388,25 @@
         <v>58</v>
       </c>
       <c r="W93" s="173" t="s">
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="X93" s="173" t="s">
-        <v>1639</v>
+        <v>1659</v>
       </c>
       <c r="Y93" s="173" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="Z93" s="173" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="AA93" s="173" t="s">
-        <v>1642</v>
+        <v>1662</v>
       </c>
       <c r="AB93" s="173" t="s">
         <v>58</v>
       </c>
       <c r="AC93" s="136" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="AD93" s="140"/>
       <c r="AE93" s="141"/>
@@ -23340,14 +23448,18 @@
       <c r="L94" s="175">
         <v>62.0</v>
       </c>
-      <c r="M94" s="147"/>
+      <c r="M94" s="175">
+        <v>64.0</v>
+      </c>
       <c r="N94" s="147"/>
       <c r="O94" s="147"/>
       <c r="P94" s="147"/>
       <c r="Q94" s="147"/>
       <c r="R94" s="147"/>
       <c r="S94" s="147"/>
-      <c r="T94" s="147"/>
+      <c r="T94" s="175">
+        <v>67.0</v>
+      </c>
       <c r="U94" s="175">
         <v>54.0</v>
       </c>
@@ -23395,7 +23507,7 @@
         <v>1407</v>
       </c>
       <c r="F95" s="177" t="s">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="G95" s="177" t="s">
         <v>58</v>
@@ -23415,14 +23527,18 @@
       <c r="L95" s="177" t="s">
         <v>447</v>
       </c>
-      <c r="M95" s="155"/>
+      <c r="M95" s="177" t="s">
+        <v>1407</v>
+      </c>
       <c r="N95" s="155"/>
       <c r="O95" s="155"/>
       <c r="P95" s="155"/>
       <c r="Q95" s="155"/>
       <c r="R95" s="155"/>
       <c r="S95" s="155"/>
-      <c r="T95" s="155"/>
+      <c r="T95" s="177" t="s">
+        <v>58</v>
+      </c>
       <c r="U95" s="177" t="s">
         <v>437</v>
       </c>
@@ -23433,7 +23549,7 @@
         <v>1410</v>
       </c>
       <c r="X95" s="177" t="s">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="Y95" s="177" t="s">
         <v>447</v>
@@ -23448,7 +23564,7 @@
         <v>1407</v>
       </c>
       <c r="AC95" s="153" t="s">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="AD95" s="100"/>
       <c r="AE95" s="157"/>
@@ -23777,28 +23893,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="188" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>1648</v>
+        <v>1668</v>
       </c>
       <c r="D4" s="190" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E4" s="191" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="F4" s="192" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
       <c r="G4" s="190" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H4" s="193" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="194" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -23816,676 +23932,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C6" s="198" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E6" s="181"/>
       <c r="F6" s="182" t="s">
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="G6" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H6" s="183">
         <v>1.0</v>
       </c>
       <c r="I6" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C7" s="198" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E7" s="181"/>
       <c r="F7" s="182" t="s">
-        <v>1654</v>
+        <v>1674</v>
       </c>
       <c r="G7" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H7" s="183">
         <v>2.0</v>
       </c>
       <c r="I7" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C8" s="198" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E8" s="181"/>
       <c r="F8" s="182" t="s">
-        <v>1655</v>
+        <v>1675</v>
       </c>
       <c r="G8" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H8" s="183">
         <v>3.0</v>
       </c>
       <c r="I8" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C9" s="198" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E9" s="181"/>
       <c r="F9" s="182" t="s">
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="G9" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H9" s="183">
         <v>4.0</v>
       </c>
       <c r="I9" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C10" s="198" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E10" s="181"/>
       <c r="F10" s="182" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="G10" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H10" s="183">
         <v>5.0</v>
       </c>
       <c r="I10" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C11" s="198" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E11" s="181"/>
       <c r="F11" s="182" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="G11" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H11" s="183">
         <v>6.0</v>
       </c>
       <c r="I11" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C12" s="198" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E12" s="181"/>
       <c r="F12" s="182" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="G12" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H12" s="183">
         <v>7.0</v>
       </c>
       <c r="I12" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C13" s="198" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E13" s="181"/>
       <c r="F13" s="182" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="G13" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H13" s="183">
         <v>8.0</v>
       </c>
       <c r="I13" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C14" s="198" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E14" s="181"/>
       <c r="F14" s="182" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="G14" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H14" s="183">
         <v>9.0</v>
       </c>
       <c r="I14" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C15" s="198" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E15" s="181"/>
       <c r="F15" s="182" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="G15" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H15" s="183">
         <v>10.0</v>
       </c>
       <c r="I15" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C16" s="198" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E16" s="181"/>
       <c r="F16" s="182" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="G16" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H16" s="183">
         <v>11.0</v>
       </c>
       <c r="I16" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C17" s="198" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E17" s="181"/>
       <c r="F17" s="182" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="G17" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H17" s="183">
         <v>12.0</v>
       </c>
       <c r="I17" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C18" s="198" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E18" s="181"/>
       <c r="F18" s="182" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="G18" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H18" s="183">
         <v>13.0</v>
       </c>
       <c r="I18" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C19" s="198" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E19" s="181"/>
       <c r="F19" s="182" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="G19" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H19" s="183">
         <v>14.0</v>
       </c>
       <c r="I19" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C20" s="198" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E20" s="181"/>
       <c r="F20" s="182" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="G20" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H20" s="183">
         <v>15.0</v>
       </c>
       <c r="I20" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C21" s="198" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E21" s="181"/>
       <c r="F21" s="182" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="G21" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H21" s="183">
         <v>16.0</v>
       </c>
       <c r="I21" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C22" s="198" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E22" s="181"/>
       <c r="F22" s="182" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="G22" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H22" s="183">
         <v>17.0</v>
       </c>
       <c r="I22" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C23" s="198" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E23" s="181"/>
       <c r="F23" s="182" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="G23" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H23" s="183">
         <v>18.0</v>
       </c>
       <c r="I23" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C24" s="198" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E24" s="181"/>
       <c r="F24" s="182" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="G24" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H24" s="183">
         <v>19.0</v>
       </c>
       <c r="I24" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C25" s="198" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E25" s="181"/>
       <c r="F25" s="182" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G25" s="180" t="s">
         <v>1672</v>
-      </c>
-      <c r="G25" s="180" t="s">
-        <v>1652</v>
       </c>
       <c r="H25" s="183">
         <v>20.0</v>
       </c>
       <c r="I25" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C26" s="198" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E26" s="181"/>
       <c r="F26" s="182" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="G26" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H26" s="183">
         <v>21.0</v>
       </c>
       <c r="I26" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C27" s="198" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E27" s="181"/>
       <c r="F27" s="182" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="G27" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H27" s="183">
         <v>22.0</v>
       </c>
       <c r="I27" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C28" s="198" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E28" s="181"/>
       <c r="F28" s="182" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="G28" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H28" s="183">
         <v>23.0</v>
       </c>
       <c r="I28" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C29" s="198" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E29" s="181"/>
       <c r="F29" s="182" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="G29" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H29" s="183">
         <v>24.0</v>
       </c>
       <c r="I29" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C30" s="198" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E30" s="181"/>
       <c r="F30" s="182" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="G30" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H30" s="183">
         <v>25.0</v>
       </c>
       <c r="I30" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="199" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C31" s="200" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="201" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E31" s="202"/>
       <c r="F31" s="203" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="G31" s="201" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H31" s="204">
         <v>26.0</v>
       </c>
       <c r="I31" s="205" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -24503,28 +24619,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="188" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C33" s="189" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="190" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E33" s="191" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="F33" s="192" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="G33" s="190" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H33" s="193" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="194" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -24542,676 +24658,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C35" s="179" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E35" s="181"/>
       <c r="F35" s="182" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
       <c r="G35" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H35" s="183">
         <v>1.0</v>
       </c>
       <c r="I35" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C36" s="179" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E36" s="181"/>
       <c r="F36" s="182" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="G36" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H36" s="183">
         <v>2.0</v>
       </c>
       <c r="I36" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C37" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E37" s="181"/>
       <c r="F37" s="182" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="G37" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H37" s="183">
         <v>3.0</v>
       </c>
       <c r="I37" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C38" s="179" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E38" s="181"/>
       <c r="F38" s="182" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="G38" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H38" s="183">
         <v>4.0</v>
       </c>
       <c r="I38" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C39" s="179" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E39" s="181"/>
       <c r="F39" s="182" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="G39" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H39" s="183">
         <v>5.0</v>
       </c>
       <c r="I39" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C40" s="179" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E40" s="181"/>
       <c r="F40" s="182" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="G40" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H40" s="183">
         <v>6.0</v>
       </c>
       <c r="I40" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C41" s="179" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E41" s="181"/>
       <c r="F41" s="182" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="G41" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H41" s="183">
         <v>7.0</v>
       </c>
       <c r="I41" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C42" s="179" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E42" s="181"/>
       <c r="F42" s="182" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="G42" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H42" s="183">
         <v>8.0</v>
       </c>
       <c r="I42" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C43" s="179" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E43" s="181"/>
       <c r="F43" s="182" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="G43" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H43" s="183">
         <v>9.0</v>
       </c>
       <c r="I43" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C44" s="179" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E44" s="181"/>
       <c r="F44" s="182" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G44" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H44" s="183">
         <v>10.0</v>
       </c>
       <c r="I44" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C45" s="179" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E45" s="181"/>
       <c r="F45" s="182" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="G45" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H45" s="183">
         <v>11.0</v>
       </c>
       <c r="I45" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C46" s="179" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E46" s="181"/>
       <c r="F46" s="182" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="G46" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H46" s="183">
         <v>12.0</v>
       </c>
       <c r="I46" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C47" s="179" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E47" s="181"/>
       <c r="F47" s="182" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="G47" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H47" s="183">
         <v>13.0</v>
       </c>
       <c r="I47" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C48" s="179" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E48" s="181"/>
       <c r="F48" s="182" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="G48" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H48" s="183">
         <v>14.0</v>
       </c>
       <c r="I48" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C49" s="179" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E49" s="181"/>
       <c r="F49" s="182" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="G49" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H49" s="183">
         <v>15.0</v>
       </c>
       <c r="I49" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C50" s="179" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E50" s="181"/>
       <c r="F50" s="182" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="G50" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H50" s="183">
         <v>16.0</v>
       </c>
       <c r="I50" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C51" s="179" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E51" s="181"/>
       <c r="F51" s="182" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="G51" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H51" s="183">
         <v>17.0</v>
       </c>
       <c r="I51" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C52" s="179" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E52" s="181"/>
       <c r="F52" s="182" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="G52" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H52" s="183">
         <v>18.0</v>
       </c>
       <c r="I52" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C53" s="179" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E53" s="181"/>
       <c r="F53" s="182" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="G53" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H53" s="183">
         <v>19.0</v>
       </c>
       <c r="I53" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C54" s="179" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E54" s="181"/>
       <c r="F54" s="182" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="G54" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H54" s="183">
         <v>20.0</v>
       </c>
       <c r="I54" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C55" s="179" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E55" s="181"/>
       <c r="F55" s="182" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="G55" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H55" s="183">
         <v>21.0</v>
       </c>
       <c r="I55" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C56" s="179" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E56" s="181"/>
       <c r="F56" s="182" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="G56" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H56" s="183">
         <v>22.0</v>
       </c>
       <c r="I56" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C57" s="179" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E57" s="181"/>
       <c r="F57" s="182" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="G57" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H57" s="183">
         <v>23.0</v>
       </c>
       <c r="I57" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C58" s="179" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E58" s="181"/>
       <c r="F58" s="182" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="G58" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H58" s="183">
         <v>24.0</v>
       </c>
       <c r="I58" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C59" s="179" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E59" s="181"/>
       <c r="F59" s="182" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="G59" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H59" s="183">
         <v>25.0</v>
       </c>
       <c r="I59" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="199" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C60" s="206" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="201" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E60" s="202"/>
       <c r="F60" s="203" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="G60" s="201" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H60" s="204">
         <v>26.0</v>
       </c>
       <c r="I60" s="205" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -25229,28 +25345,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="188" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C62" s="189" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="190" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E62" s="191" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="F62" s="192" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="G62" s="190" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H62" s="193" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="194" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -25268,676 +25384,676 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C64" s="179" t="s">
         <v>452</v>
       </c>
       <c r="D64" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E64" s="181"/>
       <c r="F64" s="182" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="G64" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H64" s="183">
         <v>1.0</v>
       </c>
       <c r="I64" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C65" s="179" t="s">
         <v>453</v>
       </c>
       <c r="D65" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E65" s="181"/>
       <c r="F65" s="182" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="G65" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H65" s="183">
         <v>2.0</v>
       </c>
       <c r="I65" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C66" s="179" t="s">
         <v>454</v>
       </c>
       <c r="D66" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E66" s="181"/>
       <c r="F66" s="182" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="G66" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H66" s="183">
         <v>3.0</v>
       </c>
       <c r="I66" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C67" s="179" t="s">
         <v>455</v>
       </c>
       <c r="D67" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E67" s="181"/>
       <c r="F67" s="182" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="G67" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H67" s="183">
         <v>4.0</v>
       </c>
       <c r="I67" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C68" s="179" t="s">
         <v>456</v>
       </c>
       <c r="D68" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E68" s="181"/>
       <c r="F68" s="182" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="G68" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H68" s="183">
         <v>5.0</v>
       </c>
       <c r="I68" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C69" s="179" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E69" s="181"/>
       <c r="F69" s="182" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="G69" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H69" s="183">
         <v>6.0</v>
       </c>
       <c r="I69" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C70" s="179" t="s">
         <v>458</v>
       </c>
       <c r="D70" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E70" s="181"/>
       <c r="F70" s="182" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="G70" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H70" s="183">
         <v>7.0</v>
       </c>
       <c r="I70" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C71" s="179" t="s">
         <v>459</v>
       </c>
       <c r="D71" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E71" s="181"/>
       <c r="F71" s="182" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="G71" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H71" s="183">
         <v>8.0</v>
       </c>
       <c r="I71" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C72" s="179" t="s">
         <v>460</v>
       </c>
       <c r="D72" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E72" s="181"/>
       <c r="F72" s="182" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="G72" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H72" s="183">
         <v>9.0</v>
       </c>
       <c r="I72" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C73" s="179" t="s">
         <v>461</v>
       </c>
       <c r="D73" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E73" s="181"/>
       <c r="F73" s="182" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="G73" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H73" s="183">
         <v>10.0</v>
       </c>
       <c r="I73" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C74" s="179" t="s">
         <v>462</v>
       </c>
       <c r="D74" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E74" s="181"/>
       <c r="F74" s="182" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="G74" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H74" s="183">
         <v>11.0</v>
       </c>
       <c r="I74" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C75" s="179" t="s">
         <v>463</v>
       </c>
       <c r="D75" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E75" s="181"/>
       <c r="F75" s="182" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G75" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H75" s="183">
         <v>12.0</v>
       </c>
       <c r="I75" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C76" s="179" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E76" s="181"/>
       <c r="F76" s="182" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="G76" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H76" s="183">
         <v>13.0</v>
       </c>
       <c r="I76" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C77" s="179" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E77" s="181"/>
       <c r="F77" s="182" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="G77" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H77" s="183">
         <v>14.0</v>
       </c>
       <c r="I77" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C78" s="179" t="s">
         <v>466</v>
       </c>
       <c r="D78" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E78" s="181"/>
       <c r="F78" s="182" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="G78" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H78" s="183">
         <v>15.0</v>
       </c>
       <c r="I78" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C79" s="179" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E79" s="181"/>
       <c r="F79" s="182" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="G79" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H79" s="183">
         <v>16.0</v>
       </c>
       <c r="I79" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C80" s="179" t="s">
         <v>468</v>
       </c>
       <c r="D80" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E80" s="181"/>
       <c r="F80" s="182" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="G80" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H80" s="183">
         <v>17.0</v>
       </c>
       <c r="I80" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C81" s="179" t="s">
         <v>469</v>
       </c>
       <c r="D81" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E81" s="181"/>
       <c r="F81" s="182" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="G81" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H81" s="183">
         <v>18.0</v>
       </c>
       <c r="I81" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C82" s="179" t="s">
         <v>470</v>
       </c>
       <c r="D82" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E82" s="181"/>
       <c r="F82" s="182" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="G82" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H82" s="183">
         <v>19.0</v>
       </c>
       <c r="I82" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C83" s="179" t="s">
         <v>471</v>
       </c>
       <c r="D83" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E83" s="181"/>
       <c r="F83" s="182" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="G83" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H83" s="183">
         <v>20.0</v>
       </c>
       <c r="I83" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C84" s="179" t="s">
         <v>472</v>
       </c>
       <c r="D84" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E84" s="181"/>
       <c r="F84" s="182" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="G84" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H84" s="183">
         <v>21.0</v>
       </c>
       <c r="I84" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C85" s="179" t="s">
         <v>473</v>
       </c>
       <c r="D85" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E85" s="181"/>
       <c r="F85" s="182" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="G85" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H85" s="183">
         <v>22.0</v>
       </c>
       <c r="I85" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C86" s="179" t="s">
         <v>474</v>
       </c>
       <c r="D86" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E86" s="181"/>
       <c r="F86" s="182" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="G86" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H86" s="183">
         <v>23.0</v>
       </c>
       <c r="I86" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C87" s="179" t="s">
         <v>475</v>
       </c>
       <c r="D87" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E87" s="181"/>
       <c r="F87" s="182" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="G87" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H87" s="183">
         <v>24.0</v>
       </c>
       <c r="I87" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C88" s="179" t="s">
         <v>476</v>
       </c>
       <c r="D88" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E88" s="181"/>
       <c r="F88" s="182" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="G88" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H88" s="183">
         <v>25.0</v>
       </c>
       <c r="I88" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="199" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C89" s="206" t="s">
         <v>477</v>
       </c>
       <c r="D89" s="201" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E89" s="202"/>
       <c r="F89" s="203" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="G89" s="201" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H89" s="204">
         <v>26.0</v>
       </c>
       <c r="I89" s="205" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -25955,28 +26071,28 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="188" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C91" s="189" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="190" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E91" s="191" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="F91" s="192" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="G91" s="190" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H91" s="193" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="194" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -25994,676 +26110,676 @@
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C93" s="179" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E93" s="181"/>
       <c r="F93" s="182" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="G93" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H93" s="183">
         <v>1.0</v>
       </c>
       <c r="I93" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C94" s="179" t="s">
         <v>730</v>
       </c>
       <c r="D94" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E94" s="181"/>
       <c r="F94" s="182" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="G94" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H94" s="183">
         <v>2.0</v>
       </c>
       <c r="I94" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C95" s="179" t="s">
         <v>731</v>
       </c>
       <c r="D95" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E95" s="181"/>
       <c r="F95" s="182" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="G95" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H95" s="183">
         <v>3.0</v>
       </c>
       <c r="I95" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C96" s="179" t="s">
         <v>732</v>
       </c>
       <c r="D96" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E96" s="181"/>
       <c r="F96" s="182" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="G96" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H96" s="183">
         <v>4.0</v>
       </c>
       <c r="I96" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C97" s="179" t="s">
         <v>733</v>
       </c>
       <c r="D97" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E97" s="181"/>
       <c r="F97" s="182" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="G97" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H97" s="183">
         <v>5.0</v>
       </c>
       <c r="I97" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C98" s="179" t="s">
         <v>734</v>
       </c>
       <c r="D98" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E98" s="181"/>
       <c r="F98" s="182" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G98" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H98" s="183">
         <v>6.0</v>
       </c>
       <c r="I98" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C99" s="179" t="s">
         <v>735</v>
       </c>
       <c r="D99" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E99" s="181"/>
       <c r="F99" s="182" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="G99" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H99" s="183">
         <v>7.0</v>
       </c>
       <c r="I99" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C100" s="179" t="s">
         <v>736</v>
       </c>
       <c r="D100" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E100" s="181"/>
       <c r="F100" s="182" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="G100" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H100" s="183">
         <v>8.0</v>
       </c>
       <c r="I100" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C101" s="179" t="s">
         <v>737</v>
       </c>
       <c r="D101" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E101" s="181"/>
       <c r="F101" s="182" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="G101" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H101" s="183">
         <v>9.0</v>
       </c>
       <c r="I101" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C102" s="179" t="s">
         <v>738</v>
       </c>
       <c r="D102" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E102" s="181"/>
       <c r="F102" s="182" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="G102" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H102" s="183">
         <v>10.0</v>
       </c>
       <c r="I102" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C103" s="179" t="s">
         <v>739</v>
       </c>
       <c r="D103" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E103" s="181"/>
       <c r="F103" s="182" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="G103" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H103" s="183">
         <v>11.0</v>
       </c>
       <c r="I103" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C104" s="179" t="s">
         <v>740</v>
       </c>
       <c r="D104" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E104" s="181"/>
       <c r="F104" s="182" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
       <c r="G104" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H104" s="183">
         <v>12.0</v>
       </c>
       <c r="I104" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C105" s="179" t="s">
         <v>741</v>
       </c>
       <c r="D105" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E105" s="181"/>
       <c r="F105" s="182" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
       <c r="G105" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H105" s="183">
         <v>13.0</v>
       </c>
       <c r="I105" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C106" s="179" t="s">
         <v>742</v>
       </c>
       <c r="D106" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E106" s="181"/>
       <c r="F106" s="182" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="G106" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H106" s="183">
         <v>14.0</v>
       </c>
       <c r="I106" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C107" s="179" t="s">
         <v>743</v>
       </c>
       <c r="D107" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E107" s="181"/>
       <c r="F107" s="182" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="G107" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H107" s="183">
         <v>15.0</v>
       </c>
       <c r="I107" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C108" s="179" t="s">
         <v>744</v>
       </c>
       <c r="D108" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E108" s="181"/>
       <c r="F108" s="182" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="G108" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H108" s="183">
         <v>16.0</v>
       </c>
       <c r="I108" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C109" s="179" t="s">
         <v>745</v>
       </c>
       <c r="D109" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E109" s="181"/>
       <c r="F109" s="182" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="G109" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H109" s="183">
         <v>17.0</v>
       </c>
       <c r="I109" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C110" s="179" t="s">
         <v>746</v>
       </c>
       <c r="D110" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E110" s="181"/>
       <c r="F110" s="182" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="G110" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H110" s="183">
         <v>18.0</v>
       </c>
       <c r="I110" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C111" s="179" t="s">
         <v>747</v>
       </c>
       <c r="D111" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E111" s="181"/>
       <c r="F111" s="182" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="G111" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H111" s="183">
         <v>19.0</v>
       </c>
       <c r="I111" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C112" s="179" t="s">
         <v>748</v>
       </c>
       <c r="D112" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E112" s="181"/>
       <c r="F112" s="182" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="G112" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H112" s="183">
         <v>20.0</v>
       </c>
       <c r="I112" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C113" s="179" t="s">
         <v>749</v>
       </c>
       <c r="D113" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E113" s="181"/>
       <c r="F113" s="182" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="G113" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H113" s="183">
         <v>21.0</v>
       </c>
       <c r="I113" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C114" s="179" t="s">
         <v>750</v>
       </c>
       <c r="D114" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E114" s="181"/>
       <c r="F114" s="182" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="G114" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H114" s="183">
         <v>22.0</v>
       </c>
       <c r="I114" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C115" s="179" t="s">
         <v>751</v>
       </c>
       <c r="D115" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E115" s="181"/>
       <c r="F115" s="182" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="G115" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H115" s="183">
         <v>23.0</v>
       </c>
       <c r="I115" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C116" s="179" t="s">
         <v>752</v>
       </c>
       <c r="D116" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E116" s="181"/>
       <c r="F116" s="182" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="G116" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H116" s="183">
         <v>24.0</v>
       </c>
       <c r="I116" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C117" s="179" t="s">
         <v>753</v>
       </c>
       <c r="D117" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E117" s="181"/>
       <c r="F117" s="182" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="G117" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H117" s="183">
         <v>25.0</v>
       </c>
       <c r="I117" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="199" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C118" s="206" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="201" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E118" s="202"/>
       <c r="F118" s="203" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="G118" s="201" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H118" s="204">
         <v>26.0</v>
       </c>
       <c r="I118" s="205" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J118" s="1"/>
     </row>
@@ -26681,28 +26797,28 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="188" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C120" s="189" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="190" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E120" s="191" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="F120" s="192" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="G120" s="190" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H120" s="193" t="s">
         <v>3</v>
       </c>
       <c r="I120" s="194" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J120" s="1"/>
     </row>
@@ -26720,676 +26836,676 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C122" s="179" t="s">
         <v>1045</v>
       </c>
       <c r="D122" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E122" s="181"/>
       <c r="F122" s="182" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="G122" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H122" s="183">
         <v>1.0</v>
       </c>
       <c r="I122" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C123" s="179" t="s">
         <v>1046</v>
       </c>
       <c r="D123" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E123" s="181"/>
       <c r="F123" s="182" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="G123" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H123" s="183">
         <v>2.0</v>
       </c>
       <c r="I123" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C124" s="179" t="s">
         <v>1047</v>
       </c>
       <c r="D124" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E124" s="181"/>
       <c r="F124" s="182" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="G124" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H124" s="183">
         <v>3.0</v>
       </c>
       <c r="I124" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C125" s="179" t="s">
         <v>1048</v>
       </c>
       <c r="D125" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E125" s="181"/>
       <c r="F125" s="182" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="G125" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H125" s="183">
         <v>4.0</v>
       </c>
       <c r="I125" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C126" s="179" t="s">
         <v>1049</v>
       </c>
       <c r="D126" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E126" s="181"/>
       <c r="F126" s="182" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="G126" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H126" s="183">
         <v>5.0</v>
       </c>
       <c r="I126" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C127" s="179" t="s">
         <v>1050</v>
       </c>
       <c r="D127" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E127" s="181"/>
       <c r="F127" s="182" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="G127" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H127" s="183">
         <v>6.0</v>
       </c>
       <c r="I127" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C128" s="179" t="s">
         <v>1051</v>
       </c>
       <c r="D128" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E128" s="181"/>
       <c r="F128" s="182" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="G128" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H128" s="183">
         <v>7.0</v>
       </c>
       <c r="I128" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C129" s="179" t="s">
         <v>1052</v>
       </c>
       <c r="D129" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E129" s="181"/>
       <c r="F129" s="182" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="G129" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H129" s="183">
         <v>8.0</v>
       </c>
       <c r="I129" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C130" s="179" t="s">
         <v>1053</v>
       </c>
       <c r="D130" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E130" s="181"/>
       <c r="F130" s="182" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="G130" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H130" s="183">
         <v>9.0</v>
       </c>
       <c r="I130" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C131" s="179" t="s">
         <v>1054</v>
       </c>
       <c r="D131" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E131" s="181"/>
       <c r="F131" s="182" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="G131" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H131" s="183">
         <v>10.0</v>
       </c>
       <c r="I131" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C132" s="179" t="s">
         <v>1055</v>
       </c>
       <c r="D132" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E132" s="181"/>
       <c r="F132" s="182" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="G132" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H132" s="183">
         <v>11.0</v>
       </c>
       <c r="I132" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C133" s="179" t="s">
         <v>1056</v>
       </c>
       <c r="D133" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E133" s="181"/>
       <c r="F133" s="182" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="G133" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H133" s="183">
         <v>12.0</v>
       </c>
       <c r="I133" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C134" s="179" t="s">
         <v>1057</v>
       </c>
       <c r="D134" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E134" s="181"/>
       <c r="F134" s="182" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="G134" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H134" s="183">
         <v>13.0</v>
       </c>
       <c r="I134" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C135" s="179" t="s">
         <v>1058</v>
       </c>
       <c r="D135" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E135" s="181"/>
       <c r="F135" s="182" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="G135" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H135" s="183">
         <v>14.0</v>
       </c>
       <c r="I135" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C136" s="179" t="s">
         <v>1059</v>
       </c>
       <c r="D136" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E136" s="181"/>
       <c r="F136" s="182" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="G136" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H136" s="183">
         <v>15.0</v>
       </c>
       <c r="I136" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C137" s="179" t="s">
         <v>1060</v>
       </c>
       <c r="D137" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E137" s="181"/>
       <c r="F137" s="182" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="G137" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H137" s="183">
         <v>16.0</v>
       </c>
       <c r="I137" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C138" s="179" t="s">
         <v>1061</v>
       </c>
       <c r="D138" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E138" s="181"/>
       <c r="F138" s="182" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="G138" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H138" s="183">
         <v>17.0</v>
       </c>
       <c r="I138" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C139" s="179" t="s">
         <v>1062</v>
       </c>
       <c r="D139" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E139" s="181"/>
       <c r="F139" s="182" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="G139" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H139" s="183">
         <v>18.0</v>
       </c>
       <c r="I139" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C140" s="179" t="s">
         <v>1063</v>
       </c>
       <c r="D140" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E140" s="181"/>
       <c r="F140" s="182" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="G140" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H140" s="183">
         <v>19.0</v>
       </c>
       <c r="I140" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C141" s="179" t="s">
         <v>1064</v>
       </c>
       <c r="D141" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E141" s="181"/>
       <c r="F141" s="182" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="G141" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H141" s="183">
         <v>20.0</v>
       </c>
       <c r="I141" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C142" s="179" t="s">
         <v>1065</v>
       </c>
       <c r="D142" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E142" s="181"/>
       <c r="F142" s="182" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="G142" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H142" s="183">
         <v>21.0</v>
       </c>
       <c r="I142" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C143" s="179" t="s">
         <v>1066</v>
       </c>
       <c r="D143" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E143" s="181"/>
       <c r="F143" s="182" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="G143" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H143" s="183">
         <v>22.0</v>
       </c>
       <c r="I143" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C144" s="179" t="s">
         <v>1067</v>
       </c>
       <c r="D144" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E144" s="181"/>
       <c r="F144" s="182" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="G144" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H144" s="183">
         <v>23.0</v>
       </c>
       <c r="I144" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C145" s="179" t="s">
         <v>1068</v>
       </c>
       <c r="D145" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E145" s="181"/>
       <c r="F145" s="182" t="s">
-        <v>1788</v>
+        <v>1808</v>
       </c>
       <c r="G145" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H145" s="183">
         <v>24.0</v>
       </c>
       <c r="I145" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C146" s="179" t="s">
         <v>1069</v>
       </c>
       <c r="D146" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E146" s="181"/>
       <c r="F146" s="182" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="G146" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H146" s="183">
         <v>25.0</v>
       </c>
       <c r="I146" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="199" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C147" s="206" t="s">
         <v>1070</v>
       </c>
       <c r="D147" s="201" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E147" s="202"/>
       <c r="F147" s="203" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="G147" s="201" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H147" s="204">
         <v>26.0</v>
       </c>
       <c r="I147" s="205" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J147" s="1"/>
     </row>
@@ -27407,28 +27523,28 @@
     <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="188" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C149" s="189" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="190" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E149" s="191" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="F149" s="192" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="G149" s="190" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H149" s="193" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="194" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J149" s="1"/>
     </row>
@@ -27446,676 +27562,676 @@
     <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C151" s="179" t="s">
         <v>1269</v>
       </c>
       <c r="D151" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E151" s="181"/>
       <c r="F151" s="182" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="G151" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H151" s="183">
         <v>1.0</v>
       </c>
       <c r="I151" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C152" s="179" t="s">
         <v>1270</v>
       </c>
       <c r="D152" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E152" s="181"/>
       <c r="F152" s="182" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="G152" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H152" s="183">
         <v>2.0</v>
       </c>
       <c r="I152" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C153" s="179" t="s">
         <v>1271</v>
       </c>
       <c r="D153" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E153" s="181"/>
       <c r="F153" s="182" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="G153" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H153" s="183">
         <v>3.0</v>
       </c>
       <c r="I153" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C154" s="179" t="s">
         <v>1272</v>
       </c>
       <c r="D154" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E154" s="181"/>
       <c r="F154" s="182" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="G154" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H154" s="183">
         <v>4.0</v>
       </c>
       <c r="I154" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C155" s="179" t="s">
         <v>1273</v>
       </c>
       <c r="D155" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E155" s="181"/>
       <c r="F155" s="182" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
       <c r="G155" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H155" s="183">
         <v>5.0</v>
       </c>
       <c r="I155" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C156" s="179" t="s">
         <v>1274</v>
       </c>
       <c r="D156" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E156" s="181"/>
       <c r="F156" s="182" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="G156" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H156" s="183">
         <v>6.0</v>
       </c>
       <c r="I156" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C157" s="179" t="s">
         <v>1275</v>
       </c>
       <c r="D157" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E157" s="181"/>
       <c r="F157" s="182" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="G157" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H157" s="183">
         <v>7.0</v>
       </c>
       <c r="I157" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C158" s="179" t="s">
         <v>1276</v>
       </c>
       <c r="D158" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E158" s="181"/>
       <c r="F158" s="182" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="G158" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H158" s="183">
         <v>8.0</v>
       </c>
       <c r="I158" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C159" s="179" t="s">
         <v>1277</v>
       </c>
       <c r="D159" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E159" s="181"/>
       <c r="F159" s="182" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="G159" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H159" s="183">
         <v>9.0</v>
       </c>
       <c r="I159" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C160" s="179" t="s">
         <v>1278</v>
       </c>
       <c r="D160" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E160" s="181"/>
       <c r="F160" s="182" t="s">
-        <v>1802</v>
+        <v>1822</v>
       </c>
       <c r="G160" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H160" s="183">
         <v>10.0</v>
       </c>
       <c r="I160" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C161" s="179" t="s">
         <v>1279</v>
       </c>
       <c r="D161" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E161" s="181"/>
       <c r="F161" s="182" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="G161" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H161" s="183">
         <v>11.0</v>
       </c>
       <c r="I161" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C162" s="179" t="s">
         <v>1280</v>
       </c>
       <c r="D162" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E162" s="181"/>
       <c r="F162" s="182" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="G162" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H162" s="183">
         <v>12.0</v>
       </c>
       <c r="I162" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C163" s="179" t="s">
         <v>1281</v>
       </c>
       <c r="D163" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E163" s="181"/>
       <c r="F163" s="182" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="G163" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H163" s="183">
         <v>13.0</v>
       </c>
       <c r="I163" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C164" s="179" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E164" s="181"/>
       <c r="F164" s="182" t="s">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="G164" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H164" s="183">
         <v>14.0</v>
       </c>
       <c r="I164" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C165" s="179" t="s">
         <v>1283</v>
       </c>
       <c r="D165" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E165" s="181"/>
       <c r="F165" s="182" t="s">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="G165" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H165" s="183">
         <v>15.0</v>
       </c>
       <c r="I165" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C166" s="179" t="s">
         <v>1284</v>
       </c>
       <c r="D166" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E166" s="181"/>
       <c r="F166" s="182" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="G166" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H166" s="183">
         <v>16.0</v>
       </c>
       <c r="I166" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C167" s="179" t="s">
         <v>1285</v>
       </c>
       <c r="D167" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E167" s="181"/>
       <c r="F167" s="182" t="s">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="G167" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H167" s="183">
         <v>17.0</v>
       </c>
       <c r="I167" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C168" s="179" t="s">
         <v>1286</v>
       </c>
       <c r="D168" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E168" s="181"/>
       <c r="F168" s="182" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="G168" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H168" s="183">
         <v>18.0</v>
       </c>
       <c r="I168" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C169" s="179" t="s">
         <v>1287</v>
       </c>
       <c r="D169" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E169" s="181"/>
       <c r="F169" s="182" t="s">
-        <v>1811</v>
+        <v>1831</v>
       </c>
       <c r="G169" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H169" s="183">
         <v>19.0</v>
       </c>
       <c r="I169" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C170" s="179" t="s">
         <v>1288</v>
       </c>
       <c r="D170" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E170" s="181"/>
       <c r="F170" s="182" t="s">
-        <v>1812</v>
+        <v>1832</v>
       </c>
       <c r="G170" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H170" s="183">
         <v>20.0</v>
       </c>
       <c r="I170" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C171" s="179" t="s">
         <v>1289</v>
       </c>
       <c r="D171" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E171" s="181"/>
       <c r="F171" s="182" t="s">
-        <v>1813</v>
+        <v>1833</v>
       </c>
       <c r="G171" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H171" s="183">
         <v>21.0</v>
       </c>
       <c r="I171" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C172" s="179" t="s">
         <v>1290</v>
       </c>
       <c r="D172" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E172" s="181"/>
       <c r="F172" s="182" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="G172" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H172" s="183">
         <v>22.0</v>
       </c>
       <c r="I172" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C173" s="179" t="s">
         <v>1291</v>
       </c>
       <c r="D173" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E173" s="181"/>
       <c r="F173" s="182" t="s">
-        <v>1815</v>
+        <v>1835</v>
       </c>
       <c r="G173" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H173" s="183">
         <v>23.0</v>
       </c>
       <c r="I173" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C174" s="179" t="s">
         <v>1292</v>
       </c>
       <c r="D174" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E174" s="181"/>
       <c r="F174" s="182" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="G174" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H174" s="183">
         <v>24.0</v>
       </c>
       <c r="I174" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C175" s="179" t="s">
         <v>1293</v>
       </c>
       <c r="D175" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E175" s="181"/>
       <c r="F175" s="182" t="s">
-        <v>1817</v>
+        <v>1837</v>
       </c>
       <c r="G175" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H175" s="183">
         <v>25.0</v>
       </c>
       <c r="I175" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="199" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C176" s="206" t="s">
         <v>1294</v>
       </c>
       <c r="D176" s="201" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E176" s="202"/>
       <c r="F176" s="203" t="s">
-        <v>1818</v>
+        <v>1838</v>
       </c>
       <c r="G176" s="201" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H176" s="204">
         <v>26.0</v>
       </c>
       <c r="I176" s="205" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -28134,28 +28250,28 @@
     <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="188" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C178" s="189" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="190" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E178" s="191" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="F178" s="192" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="G178" s="190" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H178" s="193" t="s">
         <v>5</v>
       </c>
       <c r="I178" s="194" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J178" s="1"/>
     </row>
@@ -28174,676 +28290,676 @@
     <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C180" s="179" t="s">
         <v>1424</v>
       </c>
       <c r="D180" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E180" s="181"/>
       <c r="F180" s="182" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="G180" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H180" s="183">
         <v>1.0</v>
       </c>
       <c r="I180" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C181" s="179" t="s">
         <v>1425</v>
       </c>
       <c r="D181" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E181" s="181"/>
       <c r="F181" s="182" t="s">
-        <v>1822</v>
+        <v>1842</v>
       </c>
       <c r="G181" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H181" s="183">
         <v>2.0</v>
       </c>
       <c r="I181" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C182" s="179" t="s">
         <v>1426</v>
       </c>
       <c r="D182" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E182" s="181"/>
       <c r="F182" s="182" t="s">
-        <v>1823</v>
+        <v>1843</v>
       </c>
       <c r="G182" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H182" s="183">
         <v>3.0</v>
       </c>
       <c r="I182" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C183" s="179" t="s">
         <v>1427</v>
       </c>
       <c r="D183" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E183" s="181"/>
       <c r="F183" s="182" t="s">
-        <v>1824</v>
+        <v>1844</v>
       </c>
       <c r="G183" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H183" s="183">
         <v>4.0</v>
       </c>
       <c r="I183" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C184" s="179" t="s">
         <v>1428</v>
       </c>
       <c r="D184" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E184" s="181"/>
       <c r="F184" s="182" t="s">
-        <v>1825</v>
+        <v>1845</v>
       </c>
       <c r="G184" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H184" s="183">
         <v>5.0</v>
       </c>
       <c r="I184" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C185" s="179" t="s">
         <v>1429</v>
       </c>
       <c r="D185" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E185" s="181"/>
       <c r="F185" s="182" t="s">
-        <v>1826</v>
+        <v>1846</v>
       </c>
       <c r="G185" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H185" s="183">
         <v>6.0</v>
       </c>
       <c r="I185" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C186" s="179" t="s">
         <v>1430</v>
       </c>
       <c r="D186" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E186" s="181"/>
       <c r="F186" s="182" t="s">
-        <v>1827</v>
+        <v>1847</v>
       </c>
       <c r="G186" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H186" s="183">
         <v>7.0</v>
       </c>
       <c r="I186" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C187" s="179" t="s">
         <v>1431</v>
       </c>
       <c r="D187" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E187" s="181"/>
       <c r="F187" s="182" t="s">
-        <v>1828</v>
+        <v>1848</v>
       </c>
       <c r="G187" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H187" s="183">
         <v>8.0</v>
       </c>
       <c r="I187" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C188" s="179" t="s">
         <v>1432</v>
       </c>
       <c r="D188" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E188" s="181"/>
       <c r="F188" s="182" t="s">
-        <v>1829</v>
+        <v>1849</v>
       </c>
       <c r="G188" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H188" s="183">
         <v>9.0</v>
       </c>
       <c r="I188" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C189" s="179" t="s">
         <v>1433</v>
       </c>
       <c r="D189" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E189" s="181"/>
       <c r="F189" s="182" t="s">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="G189" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H189" s="183">
         <v>10.0</v>
       </c>
       <c r="I189" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C190" s="179" t="s">
         <v>1434</v>
       </c>
       <c r="D190" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E190" s="181"/>
       <c r="F190" s="182" t="s">
-        <v>1831</v>
+        <v>1851</v>
       </c>
       <c r="G190" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H190" s="183">
         <v>11.0</v>
       </c>
       <c r="I190" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C191" s="179" t="s">
         <v>1435</v>
       </c>
       <c r="D191" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E191" s="181"/>
       <c r="F191" s="182" t="s">
-        <v>1832</v>
+        <v>1852</v>
       </c>
       <c r="G191" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H191" s="183">
         <v>12.0</v>
       </c>
       <c r="I191" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C192" s="179" t="s">
         <v>1436</v>
       </c>
       <c r="D192" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E192" s="181"/>
       <c r="F192" s="182" t="s">
-        <v>1833</v>
+        <v>1853</v>
       </c>
       <c r="G192" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H192" s="183">
         <v>13.0</v>
       </c>
       <c r="I192" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C193" s="179" t="s">
         <v>1437</v>
       </c>
       <c r="D193" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E193" s="181"/>
       <c r="F193" s="182" t="s">
-        <v>1834</v>
+        <v>1854</v>
       </c>
       <c r="G193" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H193" s="183">
         <v>14.0</v>
       </c>
       <c r="I193" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C194" s="179" t="s">
         <v>1438</v>
       </c>
       <c r="D194" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E194" s="181"/>
       <c r="F194" s="182" t="s">
-        <v>1835</v>
+        <v>1855</v>
       </c>
       <c r="G194" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H194" s="183">
         <v>15.0</v>
       </c>
       <c r="I194" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C195" s="179" t="s">
         <v>1439</v>
       </c>
       <c r="D195" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E195" s="181"/>
       <c r="F195" s="182" t="s">
-        <v>1836</v>
+        <v>1856</v>
       </c>
       <c r="G195" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H195" s="183">
         <v>16.0</v>
       </c>
       <c r="I195" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C196" s="179" t="s">
         <v>1440</v>
       </c>
       <c r="D196" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E196" s="181"/>
       <c r="F196" s="182" t="s">
-        <v>1837</v>
+        <v>1857</v>
       </c>
       <c r="G196" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H196" s="183">
         <v>17.0</v>
       </c>
       <c r="I196" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C197" s="179" t="s">
         <v>1441</v>
       </c>
       <c r="D197" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E197" s="181"/>
       <c r="F197" s="182" t="s">
-        <v>1838</v>
+        <v>1858</v>
       </c>
       <c r="G197" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H197" s="183">
         <v>18.0</v>
       </c>
       <c r="I197" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C198" s="179" t="s">
         <v>1442</v>
       </c>
       <c r="D198" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E198" s="181"/>
       <c r="F198" s="182" t="s">
-        <v>1839</v>
+        <v>1859</v>
       </c>
       <c r="G198" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H198" s="183">
         <v>19.0</v>
       </c>
       <c r="I198" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C199" s="179" t="s">
         <v>1443</v>
       </c>
       <c r="D199" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E199" s="181"/>
       <c r="F199" s="182" t="s">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="G199" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H199" s="183">
         <v>20.0</v>
       </c>
       <c r="I199" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C200" s="179" t="s">
         <v>1444</v>
       </c>
       <c r="D200" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E200" s="181"/>
       <c r="F200" s="182" t="s">
-        <v>1841</v>
+        <v>1861</v>
       </c>
       <c r="G200" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H200" s="183">
         <v>21.0</v>
       </c>
       <c r="I200" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C201" s="179" t="s">
         <v>1445</v>
       </c>
       <c r="D201" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E201" s="181"/>
       <c r="F201" s="182" t="s">
-        <v>1842</v>
+        <v>1862</v>
       </c>
       <c r="G201" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H201" s="183">
         <v>22.0</v>
       </c>
       <c r="I201" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C202" s="179" t="s">
         <v>1446</v>
       </c>
       <c r="D202" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E202" s="181"/>
       <c r="F202" s="182" t="s">
-        <v>1843</v>
+        <v>1863</v>
       </c>
       <c r="G202" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H202" s="183">
         <v>23.0</v>
       </c>
       <c r="I202" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C203" s="179" t="s">
         <v>1447</v>
       </c>
       <c r="D203" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E203" s="181"/>
       <c r="F203" s="182" t="s">
-        <v>1844</v>
+        <v>1864</v>
       </c>
       <c r="G203" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H203" s="183">
         <v>24.0</v>
       </c>
       <c r="I203" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="195" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C204" s="179" t="s">
         <v>1448</v>
       </c>
       <c r="D204" s="180" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E204" s="181"/>
       <c r="F204" s="182" t="s">
-        <v>1845</v>
+        <v>1865</v>
       </c>
       <c r="G204" s="180" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H204" s="183">
         <v>25.0</v>
       </c>
       <c r="I204" s="197" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="199" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C205" s="206" t="s">
         <v>1449</v>
       </c>
       <c r="D205" s="201" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="E205" s="202"/>
       <c r="F205" s="203" t="s">
-        <v>1846</v>
+        <v>1866</v>
       </c>
       <c r="G205" s="201" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="H205" s="204">
         <v>26.0</v>
       </c>
       <c r="I205" s="205" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="J205" s="1"/>
     </row>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="1875">
   <si>
     <t>A#3</t>
   </si>
@@ -4398,6 +4398,12 @@
     <t>compass</t>
   </si>
   <si>
+    <t>affiliate</t>
+  </si>
+  <si>
+    <t>levitate</t>
+  </si>
+  <si>
     <t>algorithm</t>
   </si>
   <si>
@@ -4936,6 +4942,24 @@
   </si>
   <si>
     <t>basis</t>
+  </si>
+  <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>fest</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>torch</t>
+  </si>
+  <si>
+    <t>dependent</t>
   </si>
   <si>
     <t>twig</t>
@@ -6239,7 +6263,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="211">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6732,6 +6756,18 @@
     <xf borderId="40" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="43" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -22503,41 +22539,45 @@
       <c r="M82" s="162" t="s">
         <v>1460</v>
       </c>
-      <c r="N82" s="111"/>
+      <c r="N82" s="162" t="s">
+        <v>1461</v>
+      </c>
       <c r="O82" s="111"/>
       <c r="P82" s="111"/>
       <c r="Q82" s="111"/>
       <c r="R82" s="111"/>
-      <c r="S82" s="111"/>
+      <c r="S82" s="162" t="s">
+        <v>1462</v>
+      </c>
       <c r="T82" s="162" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="U82" s="162" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="V82" s="162" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="W82" s="162" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="X82" s="162" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="Y82" s="162" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="Z82" s="162" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="AA82" s="162" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="AB82" s="162" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="AC82" s="163" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="AD82" s="100"/>
       <c r="AE82" s="113"/>
@@ -22553,34 +22593,34 @@
       </c>
       <c r="C83" s="100"/>
       <c r="D83" s="164" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="E83" s="165" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="F83" s="165" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="G83" s="165" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="H83" s="165" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="I83" s="165" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="J83" s="165" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="K83" s="165" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="L83" s="165" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="M83" s="165" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="N83" s="119"/>
       <c r="O83" s="119"/>
@@ -22589,34 +22629,34 @@
       <c r="R83" s="119"/>
       <c r="S83" s="119"/>
       <c r="T83" s="165" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="U83" s="165" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="V83" s="165" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="W83" s="165" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="X83" s="165" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="Y83" s="165" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="Z83" s="165" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="AA83" s="165" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="AB83" s="165" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="AC83" s="166" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="AD83" s="100"/>
       <c r="AE83" s="121"/>
@@ -22632,34 +22672,34 @@
       </c>
       <c r="C84" s="100"/>
       <c r="D84" s="164" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E84" s="165" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="F84" s="165" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="G84" s="165" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H84" s="165" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="I84" s="165" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="J84" s="165" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="K84" s="165" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="L84" s="165" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="M84" s="165" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="N84" s="119"/>
       <c r="O84" s="119"/>
@@ -22668,34 +22708,34 @@
       <c r="R84" s="119"/>
       <c r="S84" s="119"/>
       <c r="T84" s="165" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="U84" s="165" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="V84" s="165" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="W84" s="165" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="X84" s="165" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="Y84" s="165" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="Z84" s="165" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="AA84" s="165" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="AB84" s="165" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="AC84" s="166" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="AD84" s="100"/>
       <c r="AE84" s="121"/>
@@ -22711,34 +22751,34 @@
       </c>
       <c r="C85" s="100"/>
       <c r="D85" s="164" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="E85" s="165" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="F85" s="165" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="G85" s="165" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="H85" s="165" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="I85" s="165" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="J85" s="165" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="K85" s="165" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="L85" s="165" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="M85" s="165" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="N85" s="119"/>
       <c r="O85" s="119"/>
@@ -22747,34 +22787,34 @@
       <c r="R85" s="119"/>
       <c r="S85" s="119"/>
       <c r="T85" s="165" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="U85" s="165" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="V85" s="165" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="W85" s="165" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="X85" s="165" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="Y85" s="165" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="Z85" s="165" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AA85" s="165" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AB85" s="165" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AC85" s="166" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AD85" s="100"/>
       <c r="AE85" s="121"/>
@@ -22790,34 +22830,34 @@
       </c>
       <c r="C86" s="100"/>
       <c r="D86" s="164" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="E86" s="165" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="F86" s="165" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="G86" s="165" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="H86" s="165" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="I86" s="165" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="J86" s="165" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="K86" s="165" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="L86" s="165" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="M86" s="165" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="N86" s="119"/>
       <c r="O86" s="119"/>
@@ -22826,34 +22866,34 @@
       <c r="R86" s="119"/>
       <c r="S86" s="119"/>
       <c r="T86" s="165" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="U86" s="165" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="V86" s="165" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="W86" s="165" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="X86" s="165" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="Y86" s="165" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="Z86" s="165" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AA86" s="165" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AB86" s="165" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AC86" s="166" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AD86" s="100"/>
       <c r="AE86" s="121"/>
@@ -22869,34 +22909,34 @@
       </c>
       <c r="C87" s="100"/>
       <c r="D87" s="164" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="E87" s="165" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="F87" s="165" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="G87" s="165" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="H87" s="165" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="I87" s="165" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="J87" s="165" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="K87" s="165" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="L87" s="165" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="M87" s="165" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="N87" s="119"/>
       <c r="O87" s="119"/>
@@ -22905,34 +22945,34 @@
       <c r="R87" s="119"/>
       <c r="S87" s="119"/>
       <c r="T87" s="165" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="U87" s="165" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="V87" s="165" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="W87" s="165" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="X87" s="165" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="Y87" s="165" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="Z87" s="165" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AA87" s="165" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AB87" s="165" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AC87" s="166" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AD87" s="100"/>
       <c r="AE87" s="121"/>
@@ -22948,34 +22988,34 @@
       </c>
       <c r="C88" s="100"/>
       <c r="D88" s="164" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="E88" s="165" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="F88" s="165" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="G88" s="165" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="H88" s="165" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="I88" s="165" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="J88" s="165" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="K88" s="165" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="L88" s="165" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="M88" s="165" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="N88" s="119"/>
       <c r="O88" s="119"/>
@@ -22984,34 +23024,34 @@
       <c r="R88" s="119"/>
       <c r="S88" s="119"/>
       <c r="T88" s="165" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="U88" s="165" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="V88" s="165" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="W88" s="165" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="X88" s="165" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="Y88" s="165" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="Z88" s="165" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="AA88" s="165" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="AB88" s="165" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="AC88" s="166" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AD88" s="100"/>
       <c r="AE88" s="121"/>
@@ -23027,34 +23067,34 @@
       </c>
       <c r="C89" s="100"/>
       <c r="D89" s="164" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="E89" s="165" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="F89" s="165" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="G89" s="165" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="H89" s="165" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="I89" s="165" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="J89" s="165" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="K89" s="165" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="L89" s="165" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="M89" s="165" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="N89" s="119"/>
       <c r="O89" s="119"/>
@@ -23063,34 +23103,34 @@
       <c r="R89" s="119"/>
       <c r="S89" s="119"/>
       <c r="T89" s="165" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="U89" s="165" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="V89" s="165" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="W89" s="165" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="X89" s="165" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="Y89" s="165" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="Z89" s="165" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AA89" s="165" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="AB89" s="165" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="AC89" s="166" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="AD89" s="100"/>
       <c r="AE89" s="121"/>
@@ -23106,34 +23146,34 @@
       </c>
       <c r="C90" s="100"/>
       <c r="D90" s="164" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="E90" s="165" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F90" s="165" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="G90" s="165" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="H90" s="165" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="I90" s="165" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J90" s="165" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="K90" s="165" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="L90" s="165" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="M90" s="165" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="N90" s="119"/>
       <c r="O90" s="119"/>
@@ -23142,34 +23182,34 @@
       <c r="R90" s="119"/>
       <c r="S90" s="119"/>
       <c r="T90" s="165" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="U90" s="165" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="V90" s="165" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="W90" s="165" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="X90" s="165" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="Y90" s="165" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="Z90" s="165" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AA90" s="165" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AB90" s="165" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AC90" s="166" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AD90" s="100"/>
       <c r="AE90" s="121"/>
@@ -23185,76 +23225,96 @@
       </c>
       <c r="C91" s="100"/>
       <c r="D91" s="167" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="E91" s="168" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="F91" s="168" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="G91" s="168" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="H91" s="168" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="I91" s="168" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="J91" s="168" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="K91" s="168" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="L91" s="168" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="M91" s="168" t="s">
-        <v>1640</v>
-      </c>
-      <c r="N91" s="126"/>
-      <c r="O91" s="126"/>
-      <c r="P91" s="126"/>
-      <c r="Q91" s="126"/>
-      <c r="R91" s="126"/>
-      <c r="S91" s="126"/>
+        <v>1642</v>
+      </c>
+      <c r="N91" s="168" t="s">
+        <v>1643</v>
+      </c>
+      <c r="O91" s="168" t="s">
+        <v>1644</v>
+      </c>
+      <c r="P91" s="168" t="s">
+        <v>1645</v>
+      </c>
+      <c r="Q91" s="168" t="s">
+        <v>1646</v>
+      </c>
+      <c r="R91" s="168" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S91" s="168" t="s">
+        <v>1648</v>
+      </c>
       <c r="T91" s="168" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
       <c r="U91" s="168" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="V91" s="168" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="W91" s="168" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="X91" s="168" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="Y91" s="168" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="Z91" s="168" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="AA91" s="168" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="AB91" s="168" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="AC91" s="169" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="AD91" s="100"/>
-      <c r="AE91" s="128"/>
-      <c r="AF91" s="129"/>
-      <c r="AG91" s="130"/>
-      <c r="AH91" s="131"/>
+      <c r="AE91" s="170">
+        <v>737.0</v>
+      </c>
+      <c r="AF91" s="171" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AG91" s="172">
+        <v>191.0</v>
+      </c>
+      <c r="AH91" s="173" t="s">
+        <v>58</v>
+      </c>
       <c r="AI91" s="100"/>
     </row>
     <row r="92">
@@ -23263,34 +23323,34 @@
         <v>26</v>
       </c>
       <c r="C92" s="100"/>
-      <c r="D92" s="170">
+      <c r="D92" s="174">
         <v>329.0</v>
       </c>
-      <c r="E92" s="171">
+      <c r="E92" s="175">
         <v>257.0</v>
       </c>
-      <c r="F92" s="171">
+      <c r="F92" s="175">
         <v>362.0</v>
       </c>
-      <c r="G92" s="171">
+      <c r="G92" s="175">
         <v>244.0</v>
       </c>
-      <c r="H92" s="171">
+      <c r="H92" s="175">
         <v>277.0</v>
       </c>
-      <c r="I92" s="171">
+      <c r="I92" s="175">
         <v>278.0</v>
       </c>
-      <c r="J92" s="171">
+      <c r="J92" s="175">
         <v>242.0</v>
       </c>
-      <c r="K92" s="171">
+      <c r="K92" s="175">
         <v>325.0</v>
       </c>
-      <c r="L92" s="171">
+      <c r="L92" s="175">
         <v>254.0</v>
       </c>
-      <c r="M92" s="171">
+      <c r="M92" s="175">
         <v>253.0</v>
       </c>
       <c r="N92" s="134"/>
@@ -23299,31 +23359,31 @@
       <c r="Q92" s="134"/>
       <c r="R92" s="134"/>
       <c r="S92" s="134"/>
-      <c r="T92" s="171">
+      <c r="T92" s="175">
         <v>270.0</v>
       </c>
-      <c r="U92" s="171">
+      <c r="U92" s="175">
         <v>221.0</v>
       </c>
-      <c r="V92" s="171">
+      <c r="V92" s="175">
         <v>337.0</v>
       </c>
-      <c r="W92" s="171">
+      <c r="W92" s="175">
         <v>321.0</v>
       </c>
-      <c r="X92" s="171">
+      <c r="X92" s="175">
         <v>305.0</v>
       </c>
-      <c r="Y92" s="171">
+      <c r="Y92" s="175">
         <v>252.0</v>
       </c>
-      <c r="Z92" s="171">
+      <c r="Z92" s="175">
         <v>249.0</v>
       </c>
-      <c r="AA92" s="171">
+      <c r="AA92" s="175">
         <v>285.0</v>
       </c>
-      <c r="AB92" s="171">
+      <c r="AB92" s="175">
         <v>257.0</v>
       </c>
       <c r="AC92" s="132">
@@ -23342,34 +23402,34 @@
         <v>27</v>
       </c>
       <c r="C93" s="100"/>
-      <c r="D93" s="172" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E93" s="173" t="s">
+      <c r="D93" s="176" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E93" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="F93" s="173" t="s">
-        <v>1652</v>
-      </c>
-      <c r="G93" s="173" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H93" s="173" t="s">
+      <c r="F93" s="177" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G93" s="177" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H93" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="I93" s="173" t="s">
-        <v>1654</v>
-      </c>
-      <c r="J93" s="173" t="s">
-        <v>1655</v>
-      </c>
-      <c r="K93" s="173" t="s">
-        <v>1656</v>
-      </c>
-      <c r="L93" s="173" t="s">
-        <v>1657</v>
-      </c>
-      <c r="M93" s="173" t="s">
+      <c r="I93" s="177" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J93" s="177" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K93" s="177" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L93" s="177" t="s">
+        <v>1665</v>
+      </c>
+      <c r="M93" s="177" t="s">
         <v>419</v>
       </c>
       <c r="N93" s="138"/>
@@ -23378,35 +23438,35 @@
       <c r="Q93" s="138"/>
       <c r="R93" s="138"/>
       <c r="S93" s="138"/>
-      <c r="T93" s="173" t="s">
+      <c r="T93" s="177" t="s">
         <v>423</v>
       </c>
-      <c r="U93" s="173" t="s">
+      <c r="U93" s="177" t="s">
         <v>425</v>
       </c>
-      <c r="V93" s="173" t="s">
+      <c r="V93" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="W93" s="173" t="s">
-        <v>1658</v>
-      </c>
-      <c r="X93" s="173" t="s">
-        <v>1659</v>
-      </c>
-      <c r="Y93" s="173" t="s">
-        <v>1660</v>
-      </c>
-      <c r="Z93" s="173" t="s">
-        <v>1661</v>
-      </c>
-      <c r="AA93" s="173" t="s">
-        <v>1662</v>
-      </c>
-      <c r="AB93" s="173" t="s">
+      <c r="W93" s="177" t="s">
+        <v>1666</v>
+      </c>
+      <c r="X93" s="177" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Y93" s="177" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Z93" s="177" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AA93" s="177" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AB93" s="177" t="s">
         <v>58</v>
       </c>
       <c r="AC93" s="136" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="AD93" s="140"/>
       <c r="AE93" s="141"/>
@@ -23421,34 +23481,34 @@
         <v>28</v>
       </c>
       <c r="C94" s="100"/>
-      <c r="D94" s="174">
+      <c r="D94" s="178">
         <v>85.0</v>
       </c>
-      <c r="E94" s="175">
+      <c r="E94" s="179">
         <v>64.0</v>
       </c>
-      <c r="F94" s="175">
+      <c r="F94" s="179">
         <v>92.0</v>
       </c>
-      <c r="G94" s="175">
+      <c r="G94" s="179">
         <v>61.0</v>
       </c>
-      <c r="H94" s="175">
+      <c r="H94" s="179">
         <v>69.0</v>
       </c>
-      <c r="I94" s="175">
+      <c r="I94" s="179">
         <v>68.0</v>
       </c>
-      <c r="J94" s="175">
+      <c r="J94" s="179">
         <v>58.0</v>
       </c>
-      <c r="K94" s="175">
+      <c r="K94" s="179">
         <v>82.0</v>
       </c>
-      <c r="L94" s="175">
+      <c r="L94" s="179">
         <v>62.0</v>
       </c>
-      <c r="M94" s="175">
+      <c r="M94" s="179">
         <v>64.0</v>
       </c>
       <c r="N94" s="147"/>
@@ -23457,31 +23517,31 @@
       <c r="Q94" s="147"/>
       <c r="R94" s="147"/>
       <c r="S94" s="147"/>
-      <c r="T94" s="175">
+      <c r="T94" s="179">
         <v>67.0</v>
       </c>
-      <c r="U94" s="175">
+      <c r="U94" s="179">
         <v>54.0</v>
       </c>
-      <c r="V94" s="175">
+      <c r="V94" s="179">
         <v>81.0</v>
       </c>
-      <c r="W94" s="175">
+      <c r="W94" s="179">
         <v>81.0</v>
       </c>
-      <c r="X94" s="175">
+      <c r="X94" s="179">
         <v>72.0</v>
       </c>
-      <c r="Y94" s="175">
+      <c r="Y94" s="179">
         <v>62.0</v>
       </c>
-      <c r="Z94" s="175">
+      <c r="Z94" s="179">
         <v>58.0</v>
       </c>
-      <c r="AA94" s="175">
+      <c r="AA94" s="179">
         <v>69.0</v>
       </c>
-      <c r="AB94" s="175">
+      <c r="AB94" s="179">
         <v>64.0</v>
       </c>
       <c r="AC94" s="145">
@@ -23500,34 +23560,34 @@
         <v>29</v>
       </c>
       <c r="C95" s="100"/>
-      <c r="D95" s="176" t="s">
+      <c r="D95" s="180" t="s">
         <v>440</v>
       </c>
-      <c r="E95" s="177" t="s">
+      <c r="E95" s="181" t="s">
         <v>1407</v>
       </c>
-      <c r="F95" s="177" t="s">
-        <v>1664</v>
-      </c>
-      <c r="G95" s="177" t="s">
+      <c r="F95" s="181" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G95" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="177" t="s">
+      <c r="H95" s="181" t="s">
         <v>451</v>
       </c>
-      <c r="I95" s="177" t="s">
+      <c r="I95" s="181" t="s">
         <v>446</v>
       </c>
-      <c r="J95" s="177" t="s">
+      <c r="J95" s="181" t="s">
         <v>449</v>
       </c>
-      <c r="K95" s="177" t="s">
+      <c r="K95" s="181" t="s">
         <v>1419</v>
       </c>
-      <c r="L95" s="177" t="s">
+      <c r="L95" s="181" t="s">
         <v>447</v>
       </c>
-      <c r="M95" s="177" t="s">
+      <c r="M95" s="181" t="s">
         <v>1407</v>
       </c>
       <c r="N95" s="155"/>
@@ -23536,35 +23596,35 @@
       <c r="Q95" s="155"/>
       <c r="R95" s="155"/>
       <c r="S95" s="155"/>
-      <c r="T95" s="177" t="s">
+      <c r="T95" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="U95" s="177" t="s">
+      <c r="U95" s="181" t="s">
         <v>437</v>
       </c>
-      <c r="V95" s="177" t="s">
+      <c r="V95" s="181" t="s">
         <v>1410</v>
       </c>
-      <c r="W95" s="177" t="s">
+      <c r="W95" s="181" t="s">
         <v>1410</v>
       </c>
-      <c r="X95" s="177" t="s">
-        <v>1665</v>
-      </c>
-      <c r="Y95" s="177" t="s">
+      <c r="X95" s="181" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Y95" s="181" t="s">
         <v>447</v>
       </c>
-      <c r="Z95" s="177" t="s">
+      <c r="Z95" s="181" t="s">
         <v>449</v>
       </c>
-      <c r="AA95" s="177" t="s">
+      <c r="AA95" s="181" t="s">
         <v>451</v>
       </c>
-      <c r="AB95" s="177" t="s">
+      <c r="AB95" s="181" t="s">
         <v>1407</v>
       </c>
       <c r="AC95" s="153" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="AD95" s="100"/>
       <c r="AE95" s="157"/>
@@ -23869,4369 +23929,4369 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="178"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="182"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3">
-      <c r="B3" s="178"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="178"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="182"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="188" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C4" s="189" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D4" s="190" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E4" s="191" t="s">
-        <v>1670</v>
-      </c>
-      <c r="F4" s="192" t="s">
-        <v>1671</v>
-      </c>
-      <c r="G4" s="190" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H4" s="193" t="s">
+      <c r="B4" s="192" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C4" s="193" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D4" s="194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E4" s="195" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F4" s="196" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G4" s="194" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H4" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="194" t="s">
-        <v>1667</v>
+      <c r="I4" s="198" t="s">
+        <v>1675</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5">
-      <c r="B5" s="195"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="197"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C6" s="198" t="s">
+      <c r="B6" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C6" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="182" t="s">
-        <v>1673</v>
-      </c>
-      <c r="G6" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H6" s="183">
+      <c r="D6" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E6" s="185"/>
+      <c r="F6" s="186" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G6" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H6" s="187">
         <v>1.0</v>
       </c>
-      <c r="I6" s="197" t="s">
-        <v>1667</v>
+      <c r="I6" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C7" s="198" t="s">
+      <c r="B7" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C7" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="182" t="s">
-        <v>1674</v>
-      </c>
-      <c r="G7" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H7" s="183">
+      <c r="D7" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E7" s="185"/>
+      <c r="F7" s="186" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G7" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H7" s="187">
         <v>2.0</v>
       </c>
-      <c r="I7" s="197" t="s">
-        <v>1667</v>
+      <c r="I7" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C8" s="198" t="s">
+      <c r="B8" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C8" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E8" s="181"/>
-      <c r="F8" s="182" t="s">
-        <v>1675</v>
-      </c>
-      <c r="G8" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H8" s="183">
+      <c r="D8" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E8" s="185"/>
+      <c r="F8" s="186" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G8" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H8" s="187">
         <v>3.0</v>
       </c>
-      <c r="I8" s="197" t="s">
-        <v>1667</v>
+      <c r="I8" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C9" s="198" t="s">
+      <c r="B9" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C9" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182" t="s">
-        <v>1676</v>
-      </c>
-      <c r="G9" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H9" s="183">
+      <c r="D9" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E9" s="185"/>
+      <c r="F9" s="186" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G9" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H9" s="187">
         <v>4.0</v>
       </c>
-      <c r="I9" s="197" t="s">
-        <v>1667</v>
+      <c r="I9" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C10" s="198" t="s">
+      <c r="B10" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C10" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="182" t="s">
+      <c r="D10" s="184" t="s">
         <v>1677</v>
       </c>
-      <c r="G10" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H10" s="183">
+      <c r="E10" s="185"/>
+      <c r="F10" s="186" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G10" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H10" s="187">
         <v>5.0</v>
       </c>
-      <c r="I10" s="197" t="s">
-        <v>1667</v>
+      <c r="I10" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C11" s="198" t="s">
+      <c r="B11" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C11" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E11" s="181"/>
-      <c r="F11" s="182" t="s">
-        <v>1678</v>
-      </c>
-      <c r="G11" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H11" s="183">
+      <c r="D11" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E11" s="185"/>
+      <c r="F11" s="186" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G11" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H11" s="187">
         <v>6.0</v>
       </c>
-      <c r="I11" s="197" t="s">
-        <v>1667</v>
+      <c r="I11" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C12" s="198" t="s">
+      <c r="B12" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C12" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E12" s="181"/>
-      <c r="F12" s="182" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G12" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H12" s="183">
+      <c r="D12" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186" t="s">
+        <v>1687</v>
+      </c>
+      <c r="G12" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H12" s="187">
         <v>7.0</v>
       </c>
-      <c r="I12" s="197" t="s">
-        <v>1667</v>
+      <c r="I12" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C13" s="198" t="s">
+      <c r="B13" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C13" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E13" s="181"/>
-      <c r="F13" s="182" t="s">
+      <c r="D13" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G13" s="184" t="s">
         <v>1680</v>
       </c>
-      <c r="G13" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H13" s="183">
+      <c r="H13" s="187">
         <v>8.0</v>
       </c>
-      <c r="I13" s="197" t="s">
-        <v>1667</v>
+      <c r="I13" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C14" s="198" t="s">
+      <c r="B14" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C14" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E14" s="181"/>
-      <c r="F14" s="182" t="s">
-        <v>1681</v>
-      </c>
-      <c r="G14" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H14" s="183">
+      <c r="D14" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E14" s="185"/>
+      <c r="F14" s="186" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G14" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H14" s="187">
         <v>9.0</v>
       </c>
-      <c r="I14" s="197" t="s">
-        <v>1667</v>
+      <c r="I14" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C15" s="198" t="s">
+      <c r="B15" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C15" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E15" s="181"/>
-      <c r="F15" s="182" t="s">
-        <v>1682</v>
-      </c>
-      <c r="G15" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H15" s="183">
+      <c r="D15" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E15" s="185"/>
+      <c r="F15" s="186" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G15" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H15" s="187">
         <v>10.0</v>
       </c>
-      <c r="I15" s="197" t="s">
-        <v>1667</v>
+      <c r="I15" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C16" s="198" t="s">
+      <c r="B16" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C16" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="182" t="s">
-        <v>1683</v>
-      </c>
-      <c r="G16" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H16" s="183">
+      <c r="D16" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E16" s="185"/>
+      <c r="F16" s="186" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G16" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H16" s="187">
         <v>11.0</v>
       </c>
-      <c r="I16" s="197" t="s">
-        <v>1667</v>
+      <c r="I16" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C17" s="198" t="s">
+      <c r="B17" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C17" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E17" s="181"/>
-      <c r="F17" s="182" t="s">
-        <v>1684</v>
-      </c>
-      <c r="G17" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H17" s="183">
+      <c r="D17" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E17" s="185"/>
+      <c r="F17" s="186" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G17" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H17" s="187">
         <v>12.0</v>
       </c>
-      <c r="I17" s="197" t="s">
-        <v>1667</v>
+      <c r="I17" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C18" s="198" t="s">
+      <c r="B18" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C18" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E18" s="181"/>
-      <c r="F18" s="182" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G18" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H18" s="183">
+      <c r="D18" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E18" s="185"/>
+      <c r="F18" s="186" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G18" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H18" s="187">
         <v>13.0</v>
       </c>
-      <c r="I18" s="197" t="s">
-        <v>1667</v>
+      <c r="I18" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C19" s="198" t="s">
+      <c r="B19" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C19" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E19" s="181"/>
-      <c r="F19" s="182" t="s">
-        <v>1686</v>
-      </c>
-      <c r="G19" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H19" s="183">
+      <c r="D19" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E19" s="185"/>
+      <c r="F19" s="186" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G19" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H19" s="187">
         <v>14.0</v>
       </c>
-      <c r="I19" s="197" t="s">
-        <v>1667</v>
+      <c r="I19" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C20" s="198" t="s">
+      <c r="B20" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C20" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E20" s="181"/>
-      <c r="F20" s="182" t="s">
-        <v>1687</v>
-      </c>
-      <c r="G20" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H20" s="183">
+      <c r="D20" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E20" s="185"/>
+      <c r="F20" s="186" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G20" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H20" s="187">
         <v>15.0</v>
       </c>
-      <c r="I20" s="197" t="s">
-        <v>1667</v>
+      <c r="I20" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C21" s="198" t="s">
+      <c r="B21" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C21" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E21" s="181"/>
-      <c r="F21" s="182" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G21" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H21" s="183">
+      <c r="D21" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E21" s="185"/>
+      <c r="F21" s="186" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G21" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H21" s="187">
         <v>16.0</v>
       </c>
-      <c r="I21" s="197" t="s">
-        <v>1667</v>
+      <c r="I21" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C22" s="198" t="s">
+      <c r="B22" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C22" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E22" s="181"/>
-      <c r="F22" s="182" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G22" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H22" s="183">
+      <c r="D22" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E22" s="185"/>
+      <c r="F22" s="186" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G22" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H22" s="187">
         <v>17.0</v>
       </c>
-      <c r="I22" s="197" t="s">
-        <v>1667</v>
+      <c r="I22" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C23" s="198" t="s">
+      <c r="B23" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C23" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E23" s="181"/>
-      <c r="F23" s="182" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G23" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H23" s="183">
+      <c r="D23" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E23" s="185"/>
+      <c r="F23" s="186" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G23" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H23" s="187">
         <v>18.0</v>
       </c>
-      <c r="I23" s="197" t="s">
-        <v>1667</v>
+      <c r="I23" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="B24" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C24" s="198" t="s">
+      <c r="B24" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C24" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E24" s="181"/>
-      <c r="F24" s="182" t="s">
-        <v>1691</v>
-      </c>
-      <c r="G24" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H24" s="183">
+      <c r="D24" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E24" s="185"/>
+      <c r="F24" s="186" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G24" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H24" s="187">
         <v>19.0</v>
       </c>
-      <c r="I24" s="197" t="s">
-        <v>1667</v>
+      <c r="I24" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C25" s="198" t="s">
+      <c r="B25" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C25" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E25" s="181"/>
-      <c r="F25" s="182" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G25" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H25" s="183">
+      <c r="D25" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E25" s="185"/>
+      <c r="F25" s="186" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G25" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H25" s="187">
         <v>20.0</v>
       </c>
-      <c r="I25" s="197" t="s">
-        <v>1667</v>
+      <c r="I25" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C26" s="198" t="s">
+      <c r="B26" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C26" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E26" s="181"/>
-      <c r="F26" s="182" t="s">
-        <v>1693</v>
-      </c>
-      <c r="G26" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H26" s="183">
+      <c r="D26" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G26" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H26" s="187">
         <v>21.0</v>
       </c>
-      <c r="I26" s="197" t="s">
-        <v>1667</v>
+      <c r="I26" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C27" s="198" t="s">
+      <c r="B27" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C27" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E27" s="181"/>
-      <c r="F27" s="182" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G27" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H27" s="183">
+      <c r="D27" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E27" s="185"/>
+      <c r="F27" s="186" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G27" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H27" s="187">
         <v>22.0</v>
       </c>
-      <c r="I27" s="197" t="s">
-        <v>1667</v>
+      <c r="I27" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C28" s="198" t="s">
+      <c r="B28" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C28" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E28" s="181"/>
-      <c r="F28" s="182" t="s">
-        <v>1695</v>
-      </c>
-      <c r="G28" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H28" s="183">
+      <c r="D28" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E28" s="185"/>
+      <c r="F28" s="186" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G28" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H28" s="187">
         <v>23.0</v>
       </c>
-      <c r="I28" s="197" t="s">
-        <v>1667</v>
+      <c r="I28" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C29" s="198" t="s">
+      <c r="B29" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C29" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E29" s="181"/>
-      <c r="F29" s="182" t="s">
-        <v>1696</v>
-      </c>
-      <c r="G29" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H29" s="183">
+      <c r="D29" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E29" s="185"/>
+      <c r="F29" s="186" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G29" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H29" s="187">
         <v>24.0</v>
       </c>
-      <c r="I29" s="197" t="s">
-        <v>1667</v>
+      <c r="I29" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C30" s="198" t="s">
+      <c r="B30" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C30" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E30" s="181"/>
-      <c r="F30" s="182" t="s">
-        <v>1697</v>
-      </c>
-      <c r="G30" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H30" s="183">
+      <c r="D30" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E30" s="185"/>
+      <c r="F30" s="186" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H30" s="187">
         <v>25.0</v>
       </c>
-      <c r="I30" s="197" t="s">
-        <v>1667</v>
+      <c r="I30" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="199" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C31" s="200" t="s">
+      <c r="B31" s="203" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C31" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="201" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E31" s="202"/>
-      <c r="F31" s="203" t="s">
-        <v>1698</v>
-      </c>
-      <c r="G31" s="201" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H31" s="204">
+      <c r="D31" s="205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E31" s="206"/>
+      <c r="F31" s="207" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G31" s="205" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H31" s="208">
         <v>26.0</v>
       </c>
-      <c r="I31" s="205" t="s">
-        <v>1667</v>
+      <c r="I31" s="209" t="s">
+        <v>1675</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32">
-      <c r="B32" s="178"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="178"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="182"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="188" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C33" s="189" t="s">
+      <c r="B33" s="192" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C33" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="190" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E33" s="191" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F33" s="192" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G33" s="190" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H33" s="193" t="s">
+      <c r="D33" s="194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E33" s="195" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F33" s="196" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G33" s="194" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H33" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="194" t="s">
-        <v>1667</v>
+      <c r="I33" s="198" t="s">
+        <v>1675</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34">
-      <c r="B34" s="195"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="197"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="201"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C35" s="179" t="s">
+      <c r="B35" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C35" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E35" s="181"/>
-      <c r="F35" s="182" t="s">
-        <v>1701</v>
-      </c>
-      <c r="G35" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H35" s="183">
+      <c r="D35" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E35" s="185"/>
+      <c r="F35" s="186" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G35" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H35" s="187">
         <v>1.0</v>
       </c>
-      <c r="I35" s="197" t="s">
-        <v>1667</v>
+      <c r="I35" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C36" s="179" t="s">
+      <c r="B36" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C36" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E36" s="181"/>
-      <c r="F36" s="182" t="s">
-        <v>1702</v>
-      </c>
-      <c r="G36" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H36" s="183">
+      <c r="D36" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G36" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H36" s="187">
         <v>2.0</v>
       </c>
-      <c r="I36" s="197" t="s">
-        <v>1667</v>
+      <c r="I36" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C37" s="179" t="s">
+      <c r="B37" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C37" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E37" s="181"/>
-      <c r="F37" s="182" t="s">
-        <v>1703</v>
-      </c>
-      <c r="G37" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H37" s="183">
+      <c r="D37" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E37" s="185"/>
+      <c r="F37" s="186" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G37" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H37" s="187">
         <v>3.0</v>
       </c>
-      <c r="I37" s="197" t="s">
-        <v>1667</v>
+      <c r="I37" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C38" s="179" t="s">
+      <c r="B38" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C38" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E38" s="181"/>
-      <c r="F38" s="182" t="s">
-        <v>1704</v>
-      </c>
-      <c r="G38" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H38" s="183">
+      <c r="D38" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E38" s="185"/>
+      <c r="F38" s="186" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G38" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H38" s="187">
         <v>4.0</v>
       </c>
-      <c r="I38" s="197" t="s">
-        <v>1667</v>
+      <c r="I38" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C39" s="179" t="s">
+      <c r="B39" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C39" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E39" s="181"/>
-      <c r="F39" s="182" t="s">
-        <v>1705</v>
-      </c>
-      <c r="G39" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H39" s="183">
+      <c r="D39" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E39" s="185"/>
+      <c r="F39" s="186" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G39" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H39" s="187">
         <v>5.0</v>
       </c>
-      <c r="I39" s="197" t="s">
-        <v>1667</v>
+      <c r="I39" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C40" s="179" t="s">
+      <c r="B40" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C40" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E40" s="181"/>
-      <c r="F40" s="182" t="s">
-        <v>1706</v>
-      </c>
-      <c r="G40" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H40" s="183">
+      <c r="D40" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E40" s="185"/>
+      <c r="F40" s="186" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G40" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H40" s="187">
         <v>6.0</v>
       </c>
-      <c r="I40" s="197" t="s">
-        <v>1667</v>
+      <c r="I40" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C41" s="179" t="s">
+      <c r="B41" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C41" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E41" s="181"/>
-      <c r="F41" s="182" t="s">
-        <v>1707</v>
-      </c>
-      <c r="G41" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H41" s="183">
+      <c r="D41" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E41" s="185"/>
+      <c r="F41" s="186" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G41" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H41" s="187">
         <v>7.0</v>
       </c>
-      <c r="I41" s="197" t="s">
-        <v>1667</v>
+      <c r="I41" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C42" s="179" t="s">
+      <c r="B42" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C42" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E42" s="181"/>
-      <c r="F42" s="182" t="s">
-        <v>1708</v>
-      </c>
-      <c r="G42" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H42" s="183">
+      <c r="D42" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E42" s="185"/>
+      <c r="F42" s="186" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G42" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H42" s="187">
         <v>8.0</v>
       </c>
-      <c r="I42" s="197" t="s">
-        <v>1667</v>
+      <c r="I42" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C43" s="179" t="s">
+      <c r="B43" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C43" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E43" s="181"/>
-      <c r="F43" s="182" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G43" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H43" s="183">
+      <c r="D43" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E43" s="185"/>
+      <c r="F43" s="186" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G43" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H43" s="187">
         <v>9.0</v>
       </c>
-      <c r="I43" s="197" t="s">
-        <v>1667</v>
+      <c r="I43" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C44" s="179" t="s">
+      <c r="B44" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C44" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E44" s="181"/>
-      <c r="F44" s="182" t="s">
-        <v>1710</v>
-      </c>
-      <c r="G44" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H44" s="183">
+      <c r="D44" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E44" s="185"/>
+      <c r="F44" s="186" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G44" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H44" s="187">
         <v>10.0</v>
       </c>
-      <c r="I44" s="197" t="s">
-        <v>1667</v>
+      <c r="I44" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C45" s="179" t="s">
+      <c r="B45" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C45" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E45" s="181"/>
-      <c r="F45" s="182" t="s">
-        <v>1711</v>
-      </c>
-      <c r="G45" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H45" s="183">
+      <c r="D45" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E45" s="185"/>
+      <c r="F45" s="186" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G45" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H45" s="187">
         <v>11.0</v>
       </c>
-      <c r="I45" s="197" t="s">
-        <v>1667</v>
+      <c r="I45" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C46" s="179" t="s">
+      <c r="B46" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C46" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E46" s="181"/>
-      <c r="F46" s="182" t="s">
-        <v>1712</v>
-      </c>
-      <c r="G46" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H46" s="183">
+      <c r="D46" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E46" s="185"/>
+      <c r="F46" s="186" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G46" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H46" s="187">
         <v>12.0</v>
       </c>
-      <c r="I46" s="197" t="s">
-        <v>1667</v>
+      <c r="I46" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C47" s="179" t="s">
+      <c r="B47" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C47" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E47" s="181"/>
-      <c r="F47" s="182" t="s">
-        <v>1713</v>
-      </c>
-      <c r="G47" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H47" s="183">
+      <c r="D47" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E47" s="185"/>
+      <c r="F47" s="186" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G47" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H47" s="187">
         <v>13.0</v>
       </c>
-      <c r="I47" s="197" t="s">
-        <v>1667</v>
+      <c r="I47" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C48" s="179" t="s">
+      <c r="B48" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C48" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E48" s="181"/>
-      <c r="F48" s="182" t="s">
-        <v>1714</v>
-      </c>
-      <c r="G48" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H48" s="183">
+      <c r="D48" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E48" s="185"/>
+      <c r="F48" s="186" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G48" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H48" s="187">
         <v>14.0</v>
       </c>
-      <c r="I48" s="197" t="s">
-        <v>1667</v>
+      <c r="I48" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C49" s="179" t="s">
+      <c r="B49" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C49" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E49" s="181"/>
-      <c r="F49" s="182" t="s">
-        <v>1715</v>
-      </c>
-      <c r="G49" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H49" s="183">
+      <c r="D49" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E49" s="185"/>
+      <c r="F49" s="186" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G49" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H49" s="187">
         <v>15.0</v>
       </c>
-      <c r="I49" s="197" t="s">
-        <v>1667</v>
+      <c r="I49" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C50" s="179" t="s">
+      <c r="B50" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C50" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E50" s="181"/>
-      <c r="F50" s="182" t="s">
-        <v>1716</v>
-      </c>
-      <c r="G50" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H50" s="183">
+      <c r="D50" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E50" s="185"/>
+      <c r="F50" s="186" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G50" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H50" s="187">
         <v>16.0</v>
       </c>
-      <c r="I50" s="197" t="s">
-        <v>1667</v>
+      <c r="I50" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C51" s="179" t="s">
+      <c r="B51" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C51" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E51" s="181"/>
-      <c r="F51" s="182" t="s">
-        <v>1717</v>
-      </c>
-      <c r="G51" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H51" s="183">
+      <c r="D51" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E51" s="185"/>
+      <c r="F51" s="186" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G51" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H51" s="187">
         <v>17.0</v>
       </c>
-      <c r="I51" s="197" t="s">
-        <v>1667</v>
+      <c r="I51" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C52" s="179" t="s">
+      <c r="B52" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C52" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E52" s="181"/>
-      <c r="F52" s="182" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G52" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H52" s="183">
+      <c r="D52" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E52" s="185"/>
+      <c r="F52" s="186" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G52" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H52" s="187">
         <v>18.0</v>
       </c>
-      <c r="I52" s="197" t="s">
-        <v>1667</v>
+      <c r="I52" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C53" s="179" t="s">
+      <c r="B53" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C53" s="183" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E53" s="181"/>
-      <c r="F53" s="182" t="s">
-        <v>1719</v>
-      </c>
-      <c r="G53" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H53" s="183">
+      <c r="D53" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E53" s="185"/>
+      <c r="F53" s="186" t="s">
+        <v>1727</v>
+      </c>
+      <c r="G53" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H53" s="187">
         <v>19.0</v>
       </c>
-      <c r="I53" s="197" t="s">
-        <v>1667</v>
+      <c r="I53" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C54" s="179" t="s">
+      <c r="B54" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C54" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E54" s="181"/>
-      <c r="F54" s="182" t="s">
-        <v>1720</v>
-      </c>
-      <c r="G54" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H54" s="183">
+      <c r="D54" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E54" s="185"/>
+      <c r="F54" s="186" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G54" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H54" s="187">
         <v>20.0</v>
       </c>
-      <c r="I54" s="197" t="s">
-        <v>1667</v>
+      <c r="I54" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C55" s="179" t="s">
+      <c r="B55" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C55" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E55" s="181"/>
-      <c r="F55" s="182" t="s">
-        <v>1721</v>
-      </c>
-      <c r="G55" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H55" s="183">
+      <c r="D55" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E55" s="185"/>
+      <c r="F55" s="186" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G55" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H55" s="187">
         <v>21.0</v>
       </c>
-      <c r="I55" s="197" t="s">
-        <v>1667</v>
+      <c r="I55" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C56" s="179" t="s">
+      <c r="B56" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C56" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E56" s="181"/>
-      <c r="F56" s="182" t="s">
-        <v>1722</v>
-      </c>
-      <c r="G56" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H56" s="183">
+      <c r="D56" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E56" s="185"/>
+      <c r="F56" s="186" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G56" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H56" s="187">
         <v>22.0</v>
       </c>
-      <c r="I56" s="197" t="s">
-        <v>1667</v>
+      <c r="I56" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C57" s="179" t="s">
+      <c r="B57" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C57" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E57" s="181"/>
-      <c r="F57" s="182" t="s">
-        <v>1723</v>
-      </c>
-      <c r="G57" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H57" s="183">
+      <c r="D57" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E57" s="185"/>
+      <c r="F57" s="186" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G57" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H57" s="187">
         <v>23.0</v>
       </c>
-      <c r="I57" s="197" t="s">
-        <v>1667</v>
+      <c r="I57" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C58" s="179" t="s">
+      <c r="B58" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C58" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E58" s="181"/>
-      <c r="F58" s="182" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G58" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H58" s="183">
+      <c r="D58" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E58" s="185"/>
+      <c r="F58" s="186" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G58" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H58" s="187">
         <v>24.0</v>
       </c>
-      <c r="I58" s="197" t="s">
-        <v>1667</v>
+      <c r="I58" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C59" s="179" t="s">
+      <c r="B59" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C59" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E59" s="181"/>
-      <c r="F59" s="182" t="s">
-        <v>1725</v>
-      </c>
-      <c r="G59" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H59" s="183">
+      <c r="D59" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E59" s="185"/>
+      <c r="F59" s="186" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G59" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H59" s="187">
         <v>25.0</v>
       </c>
-      <c r="I59" s="197" t="s">
-        <v>1667</v>
+      <c r="I59" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="199" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C60" s="206" t="s">
+      <c r="B60" s="203" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C60" s="210" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="201" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E60" s="202"/>
-      <c r="F60" s="203" t="s">
-        <v>1726</v>
-      </c>
-      <c r="G60" s="201" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H60" s="204">
+      <c r="D60" s="205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E60" s="206"/>
+      <c r="F60" s="207" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G60" s="205" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H60" s="208">
         <v>26.0</v>
       </c>
-      <c r="I60" s="205" t="s">
-        <v>1667</v>
+      <c r="I60" s="209" t="s">
+        <v>1675</v>
       </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61">
-      <c r="B61" s="178"/>
-      <c r="C61" s="184"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="185"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="180"/>
-      <c r="H61" s="187"/>
-      <c r="I61" s="178"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="189"/>
+      <c r="F61" s="190"/>
+      <c r="G61" s="184"/>
+      <c r="H61" s="191"/>
+      <c r="I61" s="182"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="188" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C62" s="189" t="s">
+      <c r="B62" s="192" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C62" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="190" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E62" s="191" t="s">
-        <v>1727</v>
-      </c>
-      <c r="F62" s="192" t="s">
-        <v>1728</v>
-      </c>
-      <c r="G62" s="190" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H62" s="193" t="s">
+      <c r="D62" s="194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E62" s="195" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F62" s="196" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G62" s="194" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H62" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="I62" s="194" t="s">
-        <v>1667</v>
+      <c r="I62" s="198" t="s">
+        <v>1675</v>
       </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63">
-      <c r="B63" s="195"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="185"/>
-      <c r="F63" s="186"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="187"/>
-      <c r="I63" s="197"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="188"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="190"/>
+      <c r="G63" s="184"/>
+      <c r="H63" s="191"/>
+      <c r="I63" s="201"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C64" s="179" t="s">
+      <c r="B64" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C64" s="183" t="s">
         <v>452</v>
       </c>
-      <c r="D64" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E64" s="181"/>
-      <c r="F64" s="182" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G64" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H64" s="183">
+      <c r="D64" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E64" s="185"/>
+      <c r="F64" s="186" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G64" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H64" s="187">
         <v>1.0</v>
       </c>
-      <c r="I64" s="197" t="s">
-        <v>1667</v>
+      <c r="I64" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C65" s="179" t="s">
+      <c r="B65" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C65" s="183" t="s">
         <v>453</v>
       </c>
-      <c r="D65" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E65" s="181"/>
-      <c r="F65" s="182" t="s">
-        <v>1730</v>
-      </c>
-      <c r="G65" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H65" s="183">
+      <c r="D65" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E65" s="185"/>
+      <c r="F65" s="186" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G65" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H65" s="187">
         <v>2.0</v>
       </c>
-      <c r="I65" s="197" t="s">
-        <v>1667</v>
+      <c r="I65" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C66" s="179" t="s">
+      <c r="B66" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C66" s="183" t="s">
         <v>454</v>
       </c>
-      <c r="D66" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E66" s="181"/>
-      <c r="F66" s="182" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G66" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H66" s="183">
+      <c r="D66" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E66" s="185"/>
+      <c r="F66" s="186" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G66" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H66" s="187">
         <v>3.0</v>
       </c>
-      <c r="I66" s="197" t="s">
-        <v>1667</v>
+      <c r="I66" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C67" s="179" t="s">
+      <c r="B67" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C67" s="183" t="s">
         <v>455</v>
       </c>
-      <c r="D67" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E67" s="181"/>
-      <c r="F67" s="182" t="s">
-        <v>1732</v>
-      </c>
-      <c r="G67" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H67" s="183">
+      <c r="D67" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E67" s="185"/>
+      <c r="F67" s="186" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G67" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H67" s="187">
         <v>4.0</v>
       </c>
-      <c r="I67" s="197" t="s">
-        <v>1667</v>
+      <c r="I67" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C68" s="179" t="s">
+      <c r="B68" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C68" s="183" t="s">
         <v>456</v>
       </c>
-      <c r="D68" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E68" s="181"/>
-      <c r="F68" s="182" t="s">
-        <v>1733</v>
-      </c>
-      <c r="G68" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H68" s="183">
+      <c r="D68" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E68" s="185"/>
+      <c r="F68" s="186" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G68" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H68" s="187">
         <v>5.0</v>
       </c>
-      <c r="I68" s="197" t="s">
-        <v>1667</v>
+      <c r="I68" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
-      <c r="B69" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C69" s="179" t="s">
+      <c r="B69" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C69" s="183" t="s">
         <v>457</v>
       </c>
-      <c r="D69" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E69" s="181"/>
-      <c r="F69" s="182" t="s">
-        <v>1734</v>
-      </c>
-      <c r="G69" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H69" s="183">
+      <c r="D69" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E69" s="185"/>
+      <c r="F69" s="186" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G69" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H69" s="187">
         <v>6.0</v>
       </c>
-      <c r="I69" s="197" t="s">
-        <v>1667</v>
+      <c r="I69" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C70" s="179" t="s">
+      <c r="B70" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C70" s="183" t="s">
         <v>458</v>
       </c>
-      <c r="D70" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E70" s="181"/>
-      <c r="F70" s="182" t="s">
-        <v>1735</v>
-      </c>
-      <c r="G70" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H70" s="183">
+      <c r="D70" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E70" s="185"/>
+      <c r="F70" s="186" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G70" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H70" s="187">
         <v>7.0</v>
       </c>
-      <c r="I70" s="197" t="s">
-        <v>1667</v>
+      <c r="I70" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C71" s="179" t="s">
+      <c r="B71" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C71" s="183" t="s">
         <v>459</v>
       </c>
-      <c r="D71" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E71" s="181"/>
-      <c r="F71" s="182" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G71" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H71" s="183">
+      <c r="D71" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E71" s="185"/>
+      <c r="F71" s="186" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G71" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H71" s="187">
         <v>8.0</v>
       </c>
-      <c r="I71" s="197" t="s">
-        <v>1667</v>
+      <c r="I71" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C72" s="179" t="s">
+      <c r="B72" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C72" s="183" t="s">
         <v>460</v>
       </c>
-      <c r="D72" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E72" s="181"/>
-      <c r="F72" s="182" t="s">
-        <v>1737</v>
-      </c>
-      <c r="G72" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H72" s="183">
+      <c r="D72" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E72" s="185"/>
+      <c r="F72" s="186" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G72" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H72" s="187">
         <v>9.0</v>
       </c>
-      <c r="I72" s="197" t="s">
-        <v>1667</v>
+      <c r="I72" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
-      <c r="B73" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C73" s="179" t="s">
+      <c r="B73" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C73" s="183" t="s">
         <v>461</v>
       </c>
-      <c r="D73" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E73" s="181"/>
-      <c r="F73" s="182" t="s">
-        <v>1738</v>
-      </c>
-      <c r="G73" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H73" s="183">
+      <c r="D73" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E73" s="185"/>
+      <c r="F73" s="186" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G73" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H73" s="187">
         <v>10.0</v>
       </c>
-      <c r="I73" s="197" t="s">
-        <v>1667</v>
+      <c r="I73" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
-      <c r="B74" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C74" s="179" t="s">
+      <c r="B74" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C74" s="183" t="s">
         <v>462</v>
       </c>
-      <c r="D74" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E74" s="181"/>
-      <c r="F74" s="182" t="s">
-        <v>1739</v>
-      </c>
-      <c r="G74" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H74" s="183">
+      <c r="D74" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E74" s="185"/>
+      <c r="F74" s="186" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G74" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H74" s="187">
         <v>11.0</v>
       </c>
-      <c r="I74" s="197" t="s">
-        <v>1667</v>
+      <c r="I74" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
-      <c r="B75" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C75" s="179" t="s">
+      <c r="B75" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C75" s="183" t="s">
         <v>463</v>
       </c>
-      <c r="D75" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E75" s="181"/>
-      <c r="F75" s="182" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G75" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H75" s="183">
+      <c r="D75" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E75" s="185"/>
+      <c r="F75" s="186" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G75" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H75" s="187">
         <v>12.0</v>
       </c>
-      <c r="I75" s="197" t="s">
-        <v>1667</v>
+      <c r="I75" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
-      <c r="B76" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C76" s="179" t="s">
+      <c r="B76" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C76" s="183" t="s">
         <v>464</v>
       </c>
-      <c r="D76" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E76" s="181"/>
-      <c r="F76" s="182" t="s">
-        <v>1741</v>
-      </c>
-      <c r="G76" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H76" s="183">
+      <c r="D76" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E76" s="185"/>
+      <c r="F76" s="186" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G76" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H76" s="187">
         <v>13.0</v>
       </c>
-      <c r="I76" s="197" t="s">
-        <v>1667</v>
+      <c r="I76" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
-      <c r="B77" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C77" s="179" t="s">
+      <c r="B77" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C77" s="183" t="s">
         <v>465</v>
       </c>
-      <c r="D77" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E77" s="181"/>
-      <c r="F77" s="182" t="s">
-        <v>1742</v>
-      </c>
-      <c r="G77" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H77" s="183">
+      <c r="D77" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E77" s="185"/>
+      <c r="F77" s="186" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G77" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H77" s="187">
         <v>14.0</v>
       </c>
-      <c r="I77" s="197" t="s">
-        <v>1667</v>
+      <c r="I77" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
-      <c r="B78" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C78" s="179" t="s">
+      <c r="B78" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C78" s="183" t="s">
         <v>466</v>
       </c>
-      <c r="D78" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E78" s="181"/>
-      <c r="F78" s="182" t="s">
-        <v>1743</v>
-      </c>
-      <c r="G78" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H78" s="183">
+      <c r="D78" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E78" s="185"/>
+      <c r="F78" s="186" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G78" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H78" s="187">
         <v>15.0</v>
       </c>
-      <c r="I78" s="197" t="s">
-        <v>1667</v>
+      <c r="I78" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
-      <c r="B79" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C79" s="179" t="s">
+      <c r="B79" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C79" s="183" t="s">
         <v>467</v>
       </c>
-      <c r="D79" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E79" s="181"/>
-      <c r="F79" s="182" t="s">
-        <v>1744</v>
-      </c>
-      <c r="G79" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H79" s="183">
+      <c r="D79" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E79" s="185"/>
+      <c r="F79" s="186" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G79" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H79" s="187">
         <v>16.0</v>
       </c>
-      <c r="I79" s="197" t="s">
-        <v>1667</v>
+      <c r="I79" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C80" s="179" t="s">
+      <c r="B80" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C80" s="183" t="s">
         <v>468</v>
       </c>
-      <c r="D80" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E80" s="181"/>
-      <c r="F80" s="182" t="s">
-        <v>1745</v>
-      </c>
-      <c r="G80" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H80" s="183">
+      <c r="D80" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E80" s="185"/>
+      <c r="F80" s="186" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G80" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H80" s="187">
         <v>17.0</v>
       </c>
-      <c r="I80" s="197" t="s">
-        <v>1667</v>
+      <c r="I80" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
-      <c r="B81" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C81" s="179" t="s">
+      <c r="B81" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C81" s="183" t="s">
         <v>469</v>
       </c>
-      <c r="D81" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E81" s="181"/>
-      <c r="F81" s="182" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G81" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H81" s="183">
+      <c r="D81" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E81" s="185"/>
+      <c r="F81" s="186" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G81" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H81" s="187">
         <v>18.0</v>
       </c>
-      <c r="I81" s="197" t="s">
-        <v>1667</v>
+      <c r="I81" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
-      <c r="B82" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C82" s="179" t="s">
+      <c r="B82" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C82" s="183" t="s">
         <v>470</v>
       </c>
-      <c r="D82" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E82" s="181"/>
-      <c r="F82" s="182" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G82" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H82" s="183">
+      <c r="D82" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E82" s="185"/>
+      <c r="F82" s="186" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G82" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H82" s="187">
         <v>19.0</v>
       </c>
-      <c r="I82" s="197" t="s">
-        <v>1667</v>
+      <c r="I82" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
-      <c r="B83" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C83" s="179" t="s">
+      <c r="B83" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C83" s="183" t="s">
         <v>471</v>
       </c>
-      <c r="D83" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E83" s="181"/>
-      <c r="F83" s="182" t="s">
-        <v>1748</v>
-      </c>
-      <c r="G83" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H83" s="183">
+      <c r="D83" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E83" s="185"/>
+      <c r="F83" s="186" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G83" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H83" s="187">
         <v>20.0</v>
       </c>
-      <c r="I83" s="197" t="s">
-        <v>1667</v>
+      <c r="I83" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
-      <c r="B84" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C84" s="179" t="s">
+      <c r="B84" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C84" s="183" t="s">
         <v>472</v>
       </c>
-      <c r="D84" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E84" s="181"/>
-      <c r="F84" s="182" t="s">
-        <v>1749</v>
-      </c>
-      <c r="G84" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H84" s="183">
+      <c r="D84" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E84" s="185"/>
+      <c r="F84" s="186" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G84" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H84" s="187">
         <v>21.0</v>
       </c>
-      <c r="I84" s="197" t="s">
-        <v>1667</v>
+      <c r="I84" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
-      <c r="B85" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C85" s="179" t="s">
+      <c r="B85" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C85" s="183" t="s">
         <v>473</v>
       </c>
-      <c r="D85" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E85" s="181"/>
-      <c r="F85" s="182" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G85" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H85" s="183">
+      <c r="D85" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E85" s="185"/>
+      <c r="F85" s="186" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G85" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H85" s="187">
         <v>22.0</v>
       </c>
-      <c r="I85" s="197" t="s">
-        <v>1667</v>
+      <c r="I85" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
-      <c r="B86" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C86" s="179" t="s">
+      <c r="B86" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C86" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="D86" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E86" s="181"/>
-      <c r="F86" s="182" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G86" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H86" s="183">
+      <c r="D86" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E86" s="185"/>
+      <c r="F86" s="186" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G86" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H86" s="187">
         <v>23.0</v>
       </c>
-      <c r="I86" s="197" t="s">
-        <v>1667</v>
+      <c r="I86" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
-      <c r="B87" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C87" s="179" t="s">
+      <c r="B87" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C87" s="183" t="s">
         <v>475</v>
       </c>
-      <c r="D87" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E87" s="181"/>
-      <c r="F87" s="182" t="s">
-        <v>1752</v>
-      </c>
-      <c r="G87" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H87" s="183">
+      <c r="D87" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E87" s="185"/>
+      <c r="F87" s="186" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G87" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H87" s="187">
         <v>24.0</v>
       </c>
-      <c r="I87" s="197" t="s">
-        <v>1667</v>
+      <c r="I87" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
-      <c r="B88" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C88" s="179" t="s">
+      <c r="B88" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C88" s="183" t="s">
         <v>476</v>
       </c>
-      <c r="D88" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E88" s="181"/>
-      <c r="F88" s="182" t="s">
-        <v>1753</v>
-      </c>
-      <c r="G88" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H88" s="183">
+      <c r="D88" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E88" s="185"/>
+      <c r="F88" s="186" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G88" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H88" s="187">
         <v>25.0</v>
       </c>
-      <c r="I88" s="197" t="s">
-        <v>1667</v>
+      <c r="I88" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
-      <c r="B89" s="199" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C89" s="206" t="s">
+      <c r="B89" s="203" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C89" s="210" t="s">
         <v>477</v>
       </c>
-      <c r="D89" s="201" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E89" s="202"/>
-      <c r="F89" s="203" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G89" s="201" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H89" s="204">
+      <c r="D89" s="205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E89" s="206"/>
+      <c r="F89" s="207" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G89" s="205" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H89" s="208">
         <v>26.0</v>
       </c>
-      <c r="I89" s="205" t="s">
-        <v>1667</v>
+      <c r="I89" s="209" t="s">
+        <v>1675</v>
       </c>
       <c r="J89" s="1"/>
     </row>
     <row r="90">
-      <c r="B90" s="178"/>
-      <c r="C90" s="184"/>
-      <c r="D90" s="180"/>
-      <c r="E90" s="185"/>
-      <c r="F90" s="186"/>
-      <c r="G90" s="180"/>
-      <c r="H90" s="187"/>
-      <c r="I90" s="178"/>
+      <c r="B90" s="182"/>
+      <c r="C90" s="188"/>
+      <c r="D90" s="184"/>
+      <c r="E90" s="189"/>
+      <c r="F90" s="190"/>
+      <c r="G90" s="184"/>
+      <c r="H90" s="191"/>
+      <c r="I90" s="182"/>
       <c r="J90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
-      <c r="B91" s="188" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C91" s="189" t="s">
+      <c r="B91" s="192" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C91" s="193" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="190" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E91" s="191" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F91" s="192" t="s">
-        <v>1756</v>
-      </c>
-      <c r="G91" s="190" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H91" s="193" t="s">
+      <c r="D91" s="194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E91" s="195" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F91" s="196" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G91" s="194" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H91" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="I91" s="194" t="s">
-        <v>1667</v>
+      <c r="I91" s="198" t="s">
+        <v>1675</v>
       </c>
       <c r="J91" s="1"/>
     </row>
     <row r="92">
-      <c r="B92" s="195"/>
-      <c r="C92" s="184"/>
-      <c r="D92" s="180"/>
-      <c r="E92" s="185"/>
-      <c r="F92" s="186"/>
-      <c r="G92" s="180"/>
-      <c r="H92" s="187"/>
-      <c r="I92" s="197"/>
+      <c r="B92" s="199"/>
+      <c r="C92" s="188"/>
+      <c r="D92" s="184"/>
+      <c r="E92" s="189"/>
+      <c r="F92" s="190"/>
+      <c r="G92" s="184"/>
+      <c r="H92" s="191"/>
+      <c r="I92" s="201"/>
       <c r="J92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
-      <c r="B93" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C93" s="179" t="s">
+      <c r="B93" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C93" s="183" t="s">
         <v>729</v>
       </c>
-      <c r="D93" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E93" s="181"/>
-      <c r="F93" s="182" t="s">
-        <v>1757</v>
-      </c>
-      <c r="G93" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H93" s="183">
+      <c r="D93" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E93" s="185"/>
+      <c r="F93" s="186" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G93" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H93" s="187">
         <v>1.0</v>
       </c>
-      <c r="I93" s="197" t="s">
-        <v>1667</v>
+      <c r="I93" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
-      <c r="B94" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C94" s="179" t="s">
+      <c r="B94" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C94" s="183" t="s">
         <v>730</v>
       </c>
-      <c r="D94" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E94" s="181"/>
-      <c r="F94" s="182" t="s">
-        <v>1758</v>
-      </c>
-      <c r="G94" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H94" s="183">
+      <c r="D94" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E94" s="185"/>
+      <c r="F94" s="186" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G94" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H94" s="187">
         <v>2.0</v>
       </c>
-      <c r="I94" s="197" t="s">
-        <v>1667</v>
+      <c r="I94" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
-      <c r="B95" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C95" s="179" t="s">
+      <c r="B95" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C95" s="183" t="s">
         <v>731</v>
       </c>
-      <c r="D95" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E95" s="181"/>
-      <c r="F95" s="182" t="s">
-        <v>1759</v>
-      </c>
-      <c r="G95" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H95" s="183">
+      <c r="D95" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E95" s="185"/>
+      <c r="F95" s="186" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G95" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H95" s="187">
         <v>3.0</v>
       </c>
-      <c r="I95" s="197" t="s">
-        <v>1667</v>
+      <c r="I95" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
-      <c r="B96" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C96" s="179" t="s">
+      <c r="B96" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C96" s="183" t="s">
         <v>732</v>
       </c>
-      <c r="D96" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E96" s="181"/>
-      <c r="F96" s="182" t="s">
-        <v>1760</v>
-      </c>
-      <c r="G96" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H96" s="183">
+      <c r="D96" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E96" s="185"/>
+      <c r="F96" s="186" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G96" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H96" s="187">
         <v>4.0</v>
       </c>
-      <c r="I96" s="197" t="s">
-        <v>1667</v>
+      <c r="I96" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
-      <c r="B97" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C97" s="179" t="s">
+      <c r="B97" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C97" s="183" t="s">
         <v>733</v>
       </c>
-      <c r="D97" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E97" s="181"/>
-      <c r="F97" s="182" t="s">
-        <v>1761</v>
-      </c>
-      <c r="G97" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H97" s="183">
+      <c r="D97" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E97" s="185"/>
+      <c r="F97" s="186" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G97" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H97" s="187">
         <v>5.0</v>
       </c>
-      <c r="I97" s="197" t="s">
-        <v>1667</v>
+      <c r="I97" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
-      <c r="B98" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C98" s="179" t="s">
+      <c r="B98" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C98" s="183" t="s">
         <v>734</v>
       </c>
-      <c r="D98" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E98" s="181"/>
-      <c r="F98" s="182" t="s">
-        <v>1762</v>
-      </c>
-      <c r="G98" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H98" s="183">
+      <c r="D98" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E98" s="185"/>
+      <c r="F98" s="186" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G98" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H98" s="187">
         <v>6.0</v>
       </c>
-      <c r="I98" s="197" t="s">
-        <v>1667</v>
+      <c r="I98" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
-      <c r="B99" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C99" s="179" t="s">
+      <c r="B99" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C99" s="183" t="s">
         <v>735</v>
       </c>
-      <c r="D99" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E99" s="181"/>
-      <c r="F99" s="182" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G99" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H99" s="183">
+      <c r="D99" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E99" s="185"/>
+      <c r="F99" s="186" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G99" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H99" s="187">
         <v>7.0</v>
       </c>
-      <c r="I99" s="197" t="s">
-        <v>1667</v>
+      <c r="I99" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
-      <c r="B100" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C100" s="179" t="s">
+      <c r="B100" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C100" s="183" t="s">
         <v>736</v>
       </c>
-      <c r="D100" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E100" s="181"/>
-      <c r="F100" s="182" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G100" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H100" s="183">
+      <c r="D100" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E100" s="185"/>
+      <c r="F100" s="186" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G100" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H100" s="187">
         <v>8.0</v>
       </c>
-      <c r="I100" s="197" t="s">
-        <v>1667</v>
+      <c r="I100" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
-      <c r="B101" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C101" s="179" t="s">
+      <c r="B101" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C101" s="183" t="s">
         <v>737</v>
       </c>
-      <c r="D101" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E101" s="181"/>
-      <c r="F101" s="182" t="s">
-        <v>1765</v>
-      </c>
-      <c r="G101" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H101" s="183">
+      <c r="D101" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E101" s="185"/>
+      <c r="F101" s="186" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G101" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H101" s="187">
         <v>9.0</v>
       </c>
-      <c r="I101" s="197" t="s">
-        <v>1667</v>
+      <c r="I101" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
-      <c r="B102" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C102" s="179" t="s">
+      <c r="B102" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C102" s="183" t="s">
         <v>738</v>
       </c>
-      <c r="D102" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E102" s="181"/>
-      <c r="F102" s="182" t="s">
-        <v>1766</v>
-      </c>
-      <c r="G102" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H102" s="183">
+      <c r="D102" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E102" s="185"/>
+      <c r="F102" s="186" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G102" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H102" s="187">
         <v>10.0</v>
       </c>
-      <c r="I102" s="197" t="s">
-        <v>1667</v>
+      <c r="I102" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
-      <c r="B103" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C103" s="179" t="s">
+      <c r="B103" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C103" s="183" t="s">
         <v>739</v>
       </c>
-      <c r="D103" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E103" s="181"/>
-      <c r="F103" s="182" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G103" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H103" s="183">
+      <c r="D103" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E103" s="185"/>
+      <c r="F103" s="186" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G103" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H103" s="187">
         <v>11.0</v>
       </c>
-      <c r="I103" s="197" t="s">
-        <v>1667</v>
+      <c r="I103" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
-      <c r="B104" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C104" s="179" t="s">
+      <c r="B104" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C104" s="183" t="s">
         <v>740</v>
       </c>
-      <c r="D104" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E104" s="181"/>
-      <c r="F104" s="182" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G104" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H104" s="183">
+      <c r="D104" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E104" s="185"/>
+      <c r="F104" s="186" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G104" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H104" s="187">
         <v>12.0</v>
       </c>
-      <c r="I104" s="197" t="s">
-        <v>1667</v>
+      <c r="I104" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
-      <c r="B105" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C105" s="179" t="s">
+      <c r="B105" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C105" s="183" t="s">
         <v>741</v>
       </c>
-      <c r="D105" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E105" s="181"/>
-      <c r="F105" s="182" t="s">
-        <v>1769</v>
-      </c>
-      <c r="G105" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H105" s="183">
+      <c r="D105" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E105" s="185"/>
+      <c r="F105" s="186" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G105" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H105" s="187">
         <v>13.0</v>
       </c>
-      <c r="I105" s="197" t="s">
-        <v>1667</v>
+      <c r="I105" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
-      <c r="B106" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C106" s="179" t="s">
+      <c r="B106" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C106" s="183" t="s">
         <v>742</v>
       </c>
-      <c r="D106" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E106" s="181"/>
-      <c r="F106" s="182" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G106" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H106" s="183">
+      <c r="D106" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E106" s="185"/>
+      <c r="F106" s="186" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G106" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H106" s="187">
         <v>14.0</v>
       </c>
-      <c r="I106" s="197" t="s">
-        <v>1667</v>
+      <c r="I106" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
-      <c r="B107" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C107" s="179" t="s">
+      <c r="B107" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C107" s="183" t="s">
         <v>743</v>
       </c>
-      <c r="D107" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E107" s="181"/>
-      <c r="F107" s="182" t="s">
-        <v>1771</v>
-      </c>
-      <c r="G107" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H107" s="183">
+      <c r="D107" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E107" s="185"/>
+      <c r="F107" s="186" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G107" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H107" s="187">
         <v>15.0</v>
       </c>
-      <c r="I107" s="197" t="s">
-        <v>1667</v>
+      <c r="I107" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
-      <c r="B108" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C108" s="179" t="s">
+      <c r="B108" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C108" s="183" t="s">
         <v>744</v>
       </c>
-      <c r="D108" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E108" s="181"/>
-      <c r="F108" s="182" t="s">
-        <v>1772</v>
-      </c>
-      <c r="G108" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H108" s="183">
+      <c r="D108" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E108" s="185"/>
+      <c r="F108" s="186" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G108" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H108" s="187">
         <v>16.0</v>
       </c>
-      <c r="I108" s="197" t="s">
-        <v>1667</v>
+      <c r="I108" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
-      <c r="B109" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C109" s="179" t="s">
+      <c r="B109" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C109" s="183" t="s">
         <v>745</v>
       </c>
-      <c r="D109" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E109" s="181"/>
-      <c r="F109" s="182" t="s">
-        <v>1773</v>
-      </c>
-      <c r="G109" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H109" s="183">
+      <c r="D109" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E109" s="185"/>
+      <c r="F109" s="186" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G109" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H109" s="187">
         <v>17.0</v>
       </c>
-      <c r="I109" s="197" t="s">
-        <v>1667</v>
+      <c r="I109" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
-      <c r="B110" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C110" s="179" t="s">
+      <c r="B110" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C110" s="183" t="s">
         <v>746</v>
       </c>
-      <c r="D110" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E110" s="181"/>
-      <c r="F110" s="182" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G110" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H110" s="183">
+      <c r="D110" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E110" s="185"/>
+      <c r="F110" s="186" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G110" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H110" s="187">
         <v>18.0</v>
       </c>
-      <c r="I110" s="197" t="s">
-        <v>1667</v>
+      <c r="I110" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
-      <c r="B111" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C111" s="179" t="s">
+      <c r="B111" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C111" s="183" t="s">
         <v>747</v>
       </c>
-      <c r="D111" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E111" s="181"/>
-      <c r="F111" s="182" t="s">
-        <v>1775</v>
-      </c>
-      <c r="G111" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H111" s="183">
+      <c r="D111" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E111" s="185"/>
+      <c r="F111" s="186" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G111" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H111" s="187">
         <v>19.0</v>
       </c>
-      <c r="I111" s="197" t="s">
-        <v>1667</v>
+      <c r="I111" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
-      <c r="B112" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C112" s="179" t="s">
+      <c r="B112" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C112" s="183" t="s">
         <v>748</v>
       </c>
-      <c r="D112" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E112" s="181"/>
-      <c r="F112" s="182" t="s">
-        <v>1776</v>
-      </c>
-      <c r="G112" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H112" s="183">
+      <c r="D112" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E112" s="185"/>
+      <c r="F112" s="186" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G112" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H112" s="187">
         <v>20.0</v>
       </c>
-      <c r="I112" s="197" t="s">
-        <v>1667</v>
+      <c r="I112" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
-      <c r="B113" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C113" s="179" t="s">
+      <c r="B113" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C113" s="183" t="s">
         <v>749</v>
       </c>
-      <c r="D113" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E113" s="181"/>
-      <c r="F113" s="182" t="s">
-        <v>1777</v>
-      </c>
-      <c r="G113" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H113" s="183">
+      <c r="D113" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E113" s="185"/>
+      <c r="F113" s="186" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G113" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H113" s="187">
         <v>21.0</v>
       </c>
-      <c r="I113" s="197" t="s">
-        <v>1667</v>
+      <c r="I113" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
-      <c r="B114" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C114" s="179" t="s">
+      <c r="B114" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C114" s="183" t="s">
         <v>750</v>
       </c>
-      <c r="D114" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E114" s="181"/>
-      <c r="F114" s="182" t="s">
-        <v>1778</v>
-      </c>
-      <c r="G114" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H114" s="183">
+      <c r="D114" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E114" s="185"/>
+      <c r="F114" s="186" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G114" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H114" s="187">
         <v>22.0</v>
       </c>
-      <c r="I114" s="197" t="s">
-        <v>1667</v>
+      <c r="I114" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
-      <c r="B115" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C115" s="179" t="s">
+      <c r="B115" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C115" s="183" t="s">
         <v>751</v>
       </c>
-      <c r="D115" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E115" s="181"/>
-      <c r="F115" s="182" t="s">
-        <v>1779</v>
-      </c>
-      <c r="G115" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H115" s="183">
+      <c r="D115" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E115" s="185"/>
+      <c r="F115" s="186" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G115" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H115" s="187">
         <v>23.0</v>
       </c>
-      <c r="I115" s="197" t="s">
-        <v>1667</v>
+      <c r="I115" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
-      <c r="B116" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C116" s="179" t="s">
+      <c r="B116" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C116" s="183" t="s">
         <v>752</v>
       </c>
-      <c r="D116" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E116" s="181"/>
-      <c r="F116" s="182" t="s">
-        <v>1780</v>
-      </c>
-      <c r="G116" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H116" s="183">
+      <c r="D116" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E116" s="185"/>
+      <c r="F116" s="186" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G116" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H116" s="187">
         <v>24.0</v>
       </c>
-      <c r="I116" s="197" t="s">
-        <v>1667</v>
+      <c r="I116" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
-      <c r="B117" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C117" s="179" t="s">
+      <c r="B117" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C117" s="183" t="s">
         <v>753</v>
       </c>
-      <c r="D117" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E117" s="181"/>
-      <c r="F117" s="182" t="s">
-        <v>1781</v>
-      </c>
-      <c r="G117" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H117" s="183">
+      <c r="D117" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E117" s="185"/>
+      <c r="F117" s="186" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G117" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H117" s="187">
         <v>25.0</v>
       </c>
-      <c r="I117" s="197" t="s">
-        <v>1667</v>
+      <c r="I117" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
-      <c r="B118" s="199" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C118" s="206" t="s">
+      <c r="B118" s="203" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C118" s="210" t="s">
         <v>754</v>
       </c>
-      <c r="D118" s="201" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E118" s="202"/>
-      <c r="F118" s="203" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G118" s="201" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H118" s="204">
+      <c r="D118" s="205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E118" s="206"/>
+      <c r="F118" s="207" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G118" s="205" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H118" s="208">
         <v>26.0</v>
       </c>
-      <c r="I118" s="205" t="s">
-        <v>1667</v>
+      <c r="I118" s="209" t="s">
+        <v>1675</v>
       </c>
       <c r="J118" s="1"/>
     </row>
     <row r="119">
-      <c r="B119" s="178"/>
-      <c r="C119" s="184"/>
-      <c r="D119" s="180"/>
-      <c r="E119" s="185"/>
-      <c r="F119" s="186"/>
-      <c r="G119" s="180"/>
-      <c r="H119" s="187"/>
-      <c r="I119" s="178"/>
+      <c r="B119" s="182"/>
+      <c r="C119" s="188"/>
+      <c r="D119" s="184"/>
+      <c r="E119" s="189"/>
+      <c r="F119" s="190"/>
+      <c r="G119" s="184"/>
+      <c r="H119" s="191"/>
+      <c r="I119" s="182"/>
       <c r="J119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
-      <c r="B120" s="188" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C120" s="189" t="s">
+      <c r="B120" s="192" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C120" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="190" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E120" s="191" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F120" s="192" t="s">
-        <v>1784</v>
-      </c>
-      <c r="G120" s="190" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H120" s="193" t="s">
+      <c r="D120" s="194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E120" s="195" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F120" s="196" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G120" s="194" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H120" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="I120" s="194" t="s">
-        <v>1667</v>
+      <c r="I120" s="198" t="s">
+        <v>1675</v>
       </c>
       <c r="J120" s="1"/>
     </row>
     <row r="121">
-      <c r="B121" s="195"/>
-      <c r="C121" s="184"/>
-      <c r="D121" s="180"/>
-      <c r="E121" s="185"/>
-      <c r="F121" s="186"/>
-      <c r="G121" s="180"/>
-      <c r="H121" s="187"/>
-      <c r="I121" s="197"/>
+      <c r="B121" s="199"/>
+      <c r="C121" s="188"/>
+      <c r="D121" s="184"/>
+      <c r="E121" s="189"/>
+      <c r="F121" s="190"/>
+      <c r="G121" s="184"/>
+      <c r="H121" s="191"/>
+      <c r="I121" s="201"/>
       <c r="J121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
-      <c r="B122" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C122" s="179" t="s">
+      <c r="B122" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C122" s="183" t="s">
         <v>1045</v>
       </c>
-      <c r="D122" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E122" s="181"/>
-      <c r="F122" s="182" t="s">
-        <v>1785</v>
-      </c>
-      <c r="G122" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H122" s="183">
+      <c r="D122" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E122" s="185"/>
+      <c r="F122" s="186" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G122" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H122" s="187">
         <v>1.0</v>
       </c>
-      <c r="I122" s="197" t="s">
-        <v>1667</v>
+      <c r="I122" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
-      <c r="B123" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C123" s="179" t="s">
+      <c r="B123" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C123" s="183" t="s">
         <v>1046</v>
       </c>
-      <c r="D123" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E123" s="181"/>
-      <c r="F123" s="182" t="s">
-        <v>1786</v>
-      </c>
-      <c r="G123" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H123" s="183">
+      <c r="D123" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E123" s="185"/>
+      <c r="F123" s="186" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G123" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H123" s="187">
         <v>2.0</v>
       </c>
-      <c r="I123" s="197" t="s">
-        <v>1667</v>
+      <c r="I123" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
-      <c r="B124" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C124" s="179" t="s">
+      <c r="B124" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C124" s="183" t="s">
         <v>1047</v>
       </c>
-      <c r="D124" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E124" s="181"/>
-      <c r="F124" s="182" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G124" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H124" s="183">
+      <c r="D124" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E124" s="185"/>
+      <c r="F124" s="186" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G124" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H124" s="187">
         <v>3.0</v>
       </c>
-      <c r="I124" s="197" t="s">
-        <v>1667</v>
+      <c r="I124" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
-      <c r="B125" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C125" s="179" t="s">
+      <c r="B125" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C125" s="183" t="s">
         <v>1048</v>
       </c>
-      <c r="D125" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E125" s="181"/>
-      <c r="F125" s="182" t="s">
-        <v>1788</v>
-      </c>
-      <c r="G125" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H125" s="183">
+      <c r="D125" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E125" s="185"/>
+      <c r="F125" s="186" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G125" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H125" s="187">
         <v>4.0</v>
       </c>
-      <c r="I125" s="197" t="s">
-        <v>1667</v>
+      <c r="I125" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
-      <c r="B126" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C126" s="179" t="s">
+      <c r="B126" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C126" s="183" t="s">
         <v>1049</v>
       </c>
-      <c r="D126" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E126" s="181"/>
-      <c r="F126" s="182" t="s">
-        <v>1789</v>
-      </c>
-      <c r="G126" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H126" s="183">
+      <c r="D126" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E126" s="185"/>
+      <c r="F126" s="186" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G126" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H126" s="187">
         <v>5.0</v>
       </c>
-      <c r="I126" s="197" t="s">
-        <v>1667</v>
+      <c r="I126" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
-      <c r="B127" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C127" s="179" t="s">
+      <c r="B127" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C127" s="183" t="s">
         <v>1050</v>
       </c>
-      <c r="D127" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E127" s="181"/>
-      <c r="F127" s="182" t="s">
-        <v>1790</v>
-      </c>
-      <c r="G127" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H127" s="183">
+      <c r="D127" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E127" s="185"/>
+      <c r="F127" s="186" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G127" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H127" s="187">
         <v>6.0</v>
       </c>
-      <c r="I127" s="197" t="s">
-        <v>1667</v>
+      <c r="I127" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
-      <c r="B128" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C128" s="179" t="s">
+      <c r="B128" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C128" s="183" t="s">
         <v>1051</v>
       </c>
-      <c r="D128" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E128" s="181"/>
-      <c r="F128" s="182" t="s">
-        <v>1791</v>
-      </c>
-      <c r="G128" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H128" s="183">
+      <c r="D128" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E128" s="185"/>
+      <c r="F128" s="186" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G128" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H128" s="187">
         <v>7.0</v>
       </c>
-      <c r="I128" s="197" t="s">
-        <v>1667</v>
+      <c r="I128" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
-      <c r="B129" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C129" s="179" t="s">
+      <c r="B129" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C129" s="183" t="s">
         <v>1052</v>
       </c>
-      <c r="D129" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E129" s="181"/>
-      <c r="F129" s="182" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G129" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H129" s="183">
+      <c r="D129" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E129" s="185"/>
+      <c r="F129" s="186" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G129" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H129" s="187">
         <v>8.0</v>
       </c>
-      <c r="I129" s="197" t="s">
-        <v>1667</v>
+      <c r="I129" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
-      <c r="B130" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C130" s="179" t="s">
+      <c r="B130" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C130" s="183" t="s">
         <v>1053</v>
       </c>
-      <c r="D130" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E130" s="181"/>
-      <c r="F130" s="182" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G130" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H130" s="183">
+      <c r="D130" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E130" s="185"/>
+      <c r="F130" s="186" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G130" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H130" s="187">
         <v>9.0</v>
       </c>
-      <c r="I130" s="197" t="s">
-        <v>1667</v>
+      <c r="I130" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
-      <c r="B131" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C131" s="179" t="s">
+      <c r="B131" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C131" s="183" t="s">
         <v>1054</v>
       </c>
-      <c r="D131" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E131" s="181"/>
-      <c r="F131" s="182" t="s">
-        <v>1794</v>
-      </c>
-      <c r="G131" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H131" s="183">
+      <c r="D131" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E131" s="185"/>
+      <c r="F131" s="186" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G131" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H131" s="187">
         <v>10.0</v>
       </c>
-      <c r="I131" s="197" t="s">
-        <v>1667</v>
+      <c r="I131" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
-      <c r="B132" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C132" s="179" t="s">
+      <c r="B132" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C132" s="183" t="s">
         <v>1055</v>
       </c>
-      <c r="D132" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E132" s="181"/>
-      <c r="F132" s="182" t="s">
-        <v>1795</v>
-      </c>
-      <c r="G132" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H132" s="183">
+      <c r="D132" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E132" s="185"/>
+      <c r="F132" s="186" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G132" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H132" s="187">
         <v>11.0</v>
       </c>
-      <c r="I132" s="197" t="s">
-        <v>1667</v>
+      <c r="I132" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
-      <c r="B133" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C133" s="179" t="s">
+      <c r="B133" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C133" s="183" t="s">
         <v>1056</v>
       </c>
-      <c r="D133" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E133" s="181"/>
-      <c r="F133" s="182" t="s">
-        <v>1796</v>
-      </c>
-      <c r="G133" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H133" s="183">
+      <c r="D133" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E133" s="185"/>
+      <c r="F133" s="186" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G133" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H133" s="187">
         <v>12.0</v>
       </c>
-      <c r="I133" s="197" t="s">
-        <v>1667</v>
+      <c r="I133" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
-      <c r="B134" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C134" s="179" t="s">
+      <c r="B134" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C134" s="183" t="s">
         <v>1057</v>
       </c>
-      <c r="D134" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E134" s="181"/>
-      <c r="F134" s="182" t="s">
-        <v>1797</v>
-      </c>
-      <c r="G134" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H134" s="183">
+      <c r="D134" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E134" s="185"/>
+      <c r="F134" s="186" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G134" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H134" s="187">
         <v>13.0</v>
       </c>
-      <c r="I134" s="197" t="s">
-        <v>1667</v>
+      <c r="I134" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
-      <c r="B135" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C135" s="179" t="s">
+      <c r="B135" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C135" s="183" t="s">
         <v>1058</v>
       </c>
-      <c r="D135" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E135" s="181"/>
-      <c r="F135" s="182" t="s">
-        <v>1798</v>
-      </c>
-      <c r="G135" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H135" s="183">
+      <c r="D135" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E135" s="185"/>
+      <c r="F135" s="186" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G135" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H135" s="187">
         <v>14.0</v>
       </c>
-      <c r="I135" s="197" t="s">
-        <v>1667</v>
+      <c r="I135" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
-      <c r="B136" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C136" s="179" t="s">
+      <c r="B136" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C136" s="183" t="s">
         <v>1059</v>
       </c>
-      <c r="D136" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E136" s="181"/>
-      <c r="F136" s="182" t="s">
-        <v>1799</v>
-      </c>
-      <c r="G136" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H136" s="183">
+      <c r="D136" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E136" s="185"/>
+      <c r="F136" s="186" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G136" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H136" s="187">
         <v>15.0</v>
       </c>
-      <c r="I136" s="197" t="s">
-        <v>1667</v>
+      <c r="I136" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
-      <c r="B137" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C137" s="179" t="s">
+      <c r="B137" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C137" s="183" t="s">
         <v>1060</v>
       </c>
-      <c r="D137" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E137" s="181"/>
-      <c r="F137" s="182" t="s">
-        <v>1800</v>
-      </c>
-      <c r="G137" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H137" s="183">
+      <c r="D137" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E137" s="185"/>
+      <c r="F137" s="186" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G137" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H137" s="187">
         <v>16.0</v>
       </c>
-      <c r="I137" s="197" t="s">
-        <v>1667</v>
+      <c r="I137" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
-      <c r="B138" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C138" s="179" t="s">
+      <c r="B138" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C138" s="183" t="s">
         <v>1061</v>
       </c>
-      <c r="D138" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E138" s="181"/>
-      <c r="F138" s="182" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G138" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H138" s="183">
+      <c r="D138" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E138" s="185"/>
+      <c r="F138" s="186" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G138" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H138" s="187">
         <v>17.0</v>
       </c>
-      <c r="I138" s="197" t="s">
-        <v>1667</v>
+      <c r="I138" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
-      <c r="B139" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C139" s="179" t="s">
+      <c r="B139" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C139" s="183" t="s">
         <v>1062</v>
       </c>
-      <c r="D139" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E139" s="181"/>
-      <c r="F139" s="182" t="s">
-        <v>1802</v>
-      </c>
-      <c r="G139" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H139" s="183">
+      <c r="D139" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E139" s="185"/>
+      <c r="F139" s="186" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G139" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H139" s="187">
         <v>18.0</v>
       </c>
-      <c r="I139" s="197" t="s">
-        <v>1667</v>
+      <c r="I139" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
-      <c r="B140" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C140" s="179" t="s">
+      <c r="B140" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C140" s="183" t="s">
         <v>1063</v>
       </c>
-      <c r="D140" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E140" s="181"/>
-      <c r="F140" s="182" t="s">
-        <v>1803</v>
-      </c>
-      <c r="G140" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H140" s="183">
+      <c r="D140" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E140" s="185"/>
+      <c r="F140" s="186" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G140" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H140" s="187">
         <v>19.0</v>
       </c>
-      <c r="I140" s="197" t="s">
-        <v>1667</v>
+      <c r="I140" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
-      <c r="B141" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C141" s="179" t="s">
+      <c r="B141" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C141" s="183" t="s">
         <v>1064</v>
       </c>
-      <c r="D141" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E141" s="181"/>
-      <c r="F141" s="182" t="s">
-        <v>1804</v>
-      </c>
-      <c r="G141" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H141" s="183">
+      <c r="D141" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E141" s="185"/>
+      <c r="F141" s="186" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G141" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H141" s="187">
         <v>20.0</v>
       </c>
-      <c r="I141" s="197" t="s">
-        <v>1667</v>
+      <c r="I141" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
-      <c r="B142" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C142" s="179" t="s">
+      <c r="B142" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C142" s="183" t="s">
         <v>1065</v>
       </c>
-      <c r="D142" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E142" s="181"/>
-      <c r="F142" s="182" t="s">
-        <v>1805</v>
-      </c>
-      <c r="G142" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H142" s="183">
+      <c r="D142" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E142" s="185"/>
+      <c r="F142" s="186" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G142" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H142" s="187">
         <v>21.0</v>
       </c>
-      <c r="I142" s="197" t="s">
-        <v>1667</v>
+      <c r="I142" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
-      <c r="B143" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C143" s="179" t="s">
+      <c r="B143" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C143" s="183" t="s">
         <v>1066</v>
       </c>
-      <c r="D143" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E143" s="181"/>
-      <c r="F143" s="182" t="s">
-        <v>1806</v>
-      </c>
-      <c r="G143" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H143" s="183">
+      <c r="D143" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E143" s="185"/>
+      <c r="F143" s="186" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G143" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H143" s="187">
         <v>22.0</v>
       </c>
-      <c r="I143" s="197" t="s">
-        <v>1667</v>
+      <c r="I143" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
-      <c r="B144" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C144" s="179" t="s">
+      <c r="B144" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C144" s="183" t="s">
         <v>1067</v>
       </c>
-      <c r="D144" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E144" s="181"/>
-      <c r="F144" s="182" t="s">
-        <v>1807</v>
-      </c>
-      <c r="G144" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H144" s="183">
+      <c r="D144" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E144" s="185"/>
+      <c r="F144" s="186" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G144" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H144" s="187">
         <v>23.0</v>
       </c>
-      <c r="I144" s="197" t="s">
-        <v>1667</v>
+      <c r="I144" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
-      <c r="B145" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C145" s="179" t="s">
+      <c r="B145" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C145" s="183" t="s">
         <v>1068</v>
       </c>
-      <c r="D145" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E145" s="181"/>
-      <c r="F145" s="182" t="s">
-        <v>1808</v>
-      </c>
-      <c r="G145" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H145" s="183">
+      <c r="D145" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E145" s="185"/>
+      <c r="F145" s="186" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G145" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H145" s="187">
         <v>24.0</v>
       </c>
-      <c r="I145" s="197" t="s">
-        <v>1667</v>
+      <c r="I145" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
-      <c r="B146" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C146" s="179" t="s">
+      <c r="B146" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C146" s="183" t="s">
         <v>1069</v>
       </c>
-      <c r="D146" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E146" s="181"/>
-      <c r="F146" s="182" t="s">
-        <v>1809</v>
-      </c>
-      <c r="G146" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H146" s="183">
+      <c r="D146" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E146" s="185"/>
+      <c r="F146" s="186" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G146" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H146" s="187">
         <v>25.0</v>
       </c>
-      <c r="I146" s="197" t="s">
-        <v>1667</v>
+      <c r="I146" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
-      <c r="B147" s="199" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C147" s="206" t="s">
+      <c r="B147" s="203" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C147" s="210" t="s">
         <v>1070</v>
       </c>
-      <c r="D147" s="201" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E147" s="202"/>
-      <c r="F147" s="203" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G147" s="201" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H147" s="204">
+      <c r="D147" s="205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E147" s="206"/>
+      <c r="F147" s="207" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G147" s="205" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H147" s="208">
         <v>26.0</v>
       </c>
-      <c r="I147" s="205" t="s">
-        <v>1667</v>
+      <c r="I147" s="209" t="s">
+        <v>1675</v>
       </c>
       <c r="J147" s="1"/>
     </row>
     <row r="148">
-      <c r="B148" s="178"/>
-      <c r="C148" s="184"/>
-      <c r="D148" s="180"/>
-      <c r="E148" s="185"/>
-      <c r="F148" s="186"/>
-      <c r="G148" s="180"/>
-      <c r="H148" s="187"/>
-      <c r="I148" s="178"/>
+      <c r="B148" s="182"/>
+      <c r="C148" s="188"/>
+      <c r="D148" s="184"/>
+      <c r="E148" s="189"/>
+      <c r="F148" s="190"/>
+      <c r="G148" s="184"/>
+      <c r="H148" s="191"/>
+      <c r="I148" s="182"/>
       <c r="J148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
-      <c r="B149" s="188" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C149" s="189" t="s">
+      <c r="B149" s="192" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C149" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="190" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E149" s="191" t="s">
-        <v>1811</v>
-      </c>
-      <c r="F149" s="192" t="s">
-        <v>1812</v>
-      </c>
-      <c r="G149" s="190" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H149" s="193" t="s">
+      <c r="D149" s="194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E149" s="195" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F149" s="196" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G149" s="194" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H149" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="I149" s="194" t="s">
-        <v>1667</v>
+      <c r="I149" s="198" t="s">
+        <v>1675</v>
       </c>
       <c r="J149" s="1"/>
     </row>
     <row r="150">
-      <c r="B150" s="195"/>
-      <c r="C150" s="184"/>
-      <c r="D150" s="180"/>
-      <c r="E150" s="185"/>
-      <c r="F150" s="186"/>
-      <c r="G150" s="180"/>
-      <c r="H150" s="187"/>
-      <c r="I150" s="197"/>
+      <c r="B150" s="199"/>
+      <c r="C150" s="188"/>
+      <c r="D150" s="184"/>
+      <c r="E150" s="189"/>
+      <c r="F150" s="190"/>
+      <c r="G150" s="184"/>
+      <c r="H150" s="191"/>
+      <c r="I150" s="201"/>
       <c r="J150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
-      <c r="B151" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C151" s="179" t="s">
+      <c r="B151" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C151" s="183" t="s">
         <v>1269</v>
       </c>
-      <c r="D151" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E151" s="181"/>
-      <c r="F151" s="182" t="s">
-        <v>1813</v>
-      </c>
-      <c r="G151" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H151" s="183">
+      <c r="D151" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E151" s="185"/>
+      <c r="F151" s="186" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G151" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H151" s="187">
         <v>1.0</v>
       </c>
-      <c r="I151" s="197" t="s">
-        <v>1667</v>
+      <c r="I151" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
-      <c r="B152" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C152" s="179" t="s">
+      <c r="B152" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C152" s="183" t="s">
         <v>1270</v>
       </c>
-      <c r="D152" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E152" s="181"/>
-      <c r="F152" s="182" t="s">
-        <v>1814</v>
-      </c>
-      <c r="G152" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H152" s="183">
+      <c r="D152" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E152" s="185"/>
+      <c r="F152" s="186" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G152" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H152" s="187">
         <v>2.0</v>
       </c>
-      <c r="I152" s="197" t="s">
-        <v>1667</v>
+      <c r="I152" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
-      <c r="B153" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C153" s="179" t="s">
+      <c r="B153" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C153" s="183" t="s">
         <v>1271</v>
       </c>
-      <c r="D153" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E153" s="181"/>
-      <c r="F153" s="182" t="s">
-        <v>1815</v>
-      </c>
-      <c r="G153" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H153" s="183">
+      <c r="D153" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E153" s="185"/>
+      <c r="F153" s="186" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G153" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H153" s="187">
         <v>3.0</v>
       </c>
-      <c r="I153" s="197" t="s">
-        <v>1667</v>
+      <c r="I153" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
-      <c r="B154" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C154" s="179" t="s">
+      <c r="B154" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C154" s="183" t="s">
         <v>1272</v>
       </c>
-      <c r="D154" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E154" s="181"/>
-      <c r="F154" s="182" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G154" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H154" s="183">
+      <c r="D154" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E154" s="185"/>
+      <c r="F154" s="186" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G154" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H154" s="187">
         <v>4.0</v>
       </c>
-      <c r="I154" s="197" t="s">
-        <v>1667</v>
+      <c r="I154" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
-      <c r="B155" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C155" s="179" t="s">
+      <c r="B155" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C155" s="183" t="s">
         <v>1273</v>
       </c>
-      <c r="D155" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E155" s="181"/>
-      <c r="F155" s="182" t="s">
-        <v>1817</v>
-      </c>
-      <c r="G155" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H155" s="183">
+      <c r="D155" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E155" s="185"/>
+      <c r="F155" s="186" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G155" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H155" s="187">
         <v>5.0</v>
       </c>
-      <c r="I155" s="197" t="s">
-        <v>1667</v>
+      <c r="I155" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
-      <c r="B156" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C156" s="179" t="s">
+      <c r="B156" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C156" s="183" t="s">
         <v>1274</v>
       </c>
-      <c r="D156" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E156" s="181"/>
-      <c r="F156" s="182" t="s">
-        <v>1818</v>
-      </c>
-      <c r="G156" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H156" s="183">
+      <c r="D156" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E156" s="185"/>
+      <c r="F156" s="186" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G156" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H156" s="187">
         <v>6.0</v>
       </c>
-      <c r="I156" s="197" t="s">
-        <v>1667</v>
+      <c r="I156" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
-      <c r="B157" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C157" s="179" t="s">
+      <c r="B157" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C157" s="183" t="s">
         <v>1275</v>
       </c>
-      <c r="D157" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E157" s="181"/>
-      <c r="F157" s="182" t="s">
-        <v>1819</v>
-      </c>
-      <c r="G157" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H157" s="183">
+      <c r="D157" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E157" s="185"/>
+      <c r="F157" s="186" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G157" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H157" s="187">
         <v>7.0</v>
       </c>
-      <c r="I157" s="197" t="s">
-        <v>1667</v>
+      <c r="I157" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
-      <c r="B158" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C158" s="179" t="s">
+      <c r="B158" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C158" s="183" t="s">
         <v>1276</v>
       </c>
-      <c r="D158" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E158" s="181"/>
-      <c r="F158" s="182" t="s">
-        <v>1820</v>
-      </c>
-      <c r="G158" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H158" s="183">
+      <c r="D158" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E158" s="185"/>
+      <c r="F158" s="186" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G158" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H158" s="187">
         <v>8.0</v>
       </c>
-      <c r="I158" s="197" t="s">
-        <v>1667</v>
+      <c r="I158" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
-      <c r="B159" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C159" s="179" t="s">
+      <c r="B159" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C159" s="183" t="s">
         <v>1277</v>
       </c>
-      <c r="D159" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E159" s="181"/>
-      <c r="F159" s="182" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G159" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H159" s="183">
+      <c r="D159" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E159" s="185"/>
+      <c r="F159" s="186" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G159" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H159" s="187">
         <v>9.0</v>
       </c>
-      <c r="I159" s="197" t="s">
-        <v>1667</v>
+      <c r="I159" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
-      <c r="B160" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C160" s="179" t="s">
+      <c r="B160" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C160" s="183" t="s">
         <v>1278</v>
       </c>
-      <c r="D160" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E160" s="181"/>
-      <c r="F160" s="182" t="s">
-        <v>1822</v>
-      </c>
-      <c r="G160" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H160" s="183">
+      <c r="D160" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E160" s="185"/>
+      <c r="F160" s="186" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G160" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H160" s="187">
         <v>10.0</v>
       </c>
-      <c r="I160" s="197" t="s">
-        <v>1667</v>
+      <c r="I160" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
-      <c r="B161" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C161" s="179" t="s">
+      <c r="B161" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C161" s="183" t="s">
         <v>1279</v>
       </c>
-      <c r="D161" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E161" s="181"/>
-      <c r="F161" s="182" t="s">
-        <v>1823</v>
-      </c>
-      <c r="G161" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H161" s="183">
+      <c r="D161" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E161" s="185"/>
+      <c r="F161" s="186" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G161" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H161" s="187">
         <v>11.0</v>
       </c>
-      <c r="I161" s="197" t="s">
-        <v>1667</v>
+      <c r="I161" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
-      <c r="B162" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C162" s="179" t="s">
+      <c r="B162" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C162" s="183" t="s">
         <v>1280</v>
       </c>
-      <c r="D162" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E162" s="181"/>
-      <c r="F162" s="182" t="s">
-        <v>1824</v>
-      </c>
-      <c r="G162" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H162" s="183">
+      <c r="D162" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E162" s="185"/>
+      <c r="F162" s="186" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G162" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H162" s="187">
         <v>12.0</v>
       </c>
-      <c r="I162" s="197" t="s">
-        <v>1667</v>
+      <c r="I162" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
-      <c r="B163" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C163" s="179" t="s">
+      <c r="B163" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C163" s="183" t="s">
         <v>1281</v>
       </c>
-      <c r="D163" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E163" s="181"/>
-      <c r="F163" s="182" t="s">
-        <v>1825</v>
-      </c>
-      <c r="G163" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H163" s="183">
+      <c r="D163" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E163" s="185"/>
+      <c r="F163" s="186" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G163" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H163" s="187">
         <v>13.0</v>
       </c>
-      <c r="I163" s="197" t="s">
-        <v>1667</v>
+      <c r="I163" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
-      <c r="B164" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C164" s="179" t="s">
+      <c r="B164" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C164" s="183" t="s">
         <v>1282</v>
       </c>
-      <c r="D164" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E164" s="181"/>
-      <c r="F164" s="182" t="s">
-        <v>1826</v>
-      </c>
-      <c r="G164" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H164" s="183">
+      <c r="D164" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E164" s="185"/>
+      <c r="F164" s="186" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G164" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H164" s="187">
         <v>14.0</v>
       </c>
-      <c r="I164" s="197" t="s">
-        <v>1667</v>
+      <c r="I164" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
-      <c r="B165" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C165" s="179" t="s">
+      <c r="B165" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C165" s="183" t="s">
         <v>1283</v>
       </c>
-      <c r="D165" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E165" s="181"/>
-      <c r="F165" s="182" t="s">
-        <v>1827</v>
-      </c>
-      <c r="G165" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H165" s="183">
+      <c r="D165" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E165" s="185"/>
+      <c r="F165" s="186" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G165" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H165" s="187">
         <v>15.0</v>
       </c>
-      <c r="I165" s="197" t="s">
-        <v>1667</v>
+      <c r="I165" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
-      <c r="B166" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C166" s="179" t="s">
+      <c r="B166" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C166" s="183" t="s">
         <v>1284</v>
       </c>
-      <c r="D166" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E166" s="181"/>
-      <c r="F166" s="182" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G166" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H166" s="183">
+      <c r="D166" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E166" s="185"/>
+      <c r="F166" s="186" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G166" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H166" s="187">
         <v>16.0</v>
       </c>
-      <c r="I166" s="197" t="s">
-        <v>1667</v>
+      <c r="I166" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
-      <c r="B167" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C167" s="179" t="s">
+      <c r="B167" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C167" s="183" t="s">
         <v>1285</v>
       </c>
-      <c r="D167" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E167" s="181"/>
-      <c r="F167" s="182" t="s">
-        <v>1829</v>
-      </c>
-      <c r="G167" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H167" s="183">
+      <c r="D167" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E167" s="185"/>
+      <c r="F167" s="186" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G167" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H167" s="187">
         <v>17.0</v>
       </c>
-      <c r="I167" s="197" t="s">
-        <v>1667</v>
+      <c r="I167" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
-      <c r="B168" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C168" s="179" t="s">
+      <c r="B168" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C168" s="183" t="s">
         <v>1286</v>
       </c>
-      <c r="D168" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E168" s="181"/>
-      <c r="F168" s="182" t="s">
-        <v>1830</v>
-      </c>
-      <c r="G168" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H168" s="183">
+      <c r="D168" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E168" s="185"/>
+      <c r="F168" s="186" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G168" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H168" s="187">
         <v>18.0</v>
       </c>
-      <c r="I168" s="197" t="s">
-        <v>1667</v>
+      <c r="I168" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
-      <c r="B169" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C169" s="179" t="s">
+      <c r="B169" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C169" s="183" t="s">
         <v>1287</v>
       </c>
-      <c r="D169" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E169" s="181"/>
-      <c r="F169" s="182" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G169" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H169" s="183">
+      <c r="D169" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E169" s="185"/>
+      <c r="F169" s="186" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G169" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H169" s="187">
         <v>19.0</v>
       </c>
-      <c r="I169" s="197" t="s">
-        <v>1667</v>
+      <c r="I169" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
-      <c r="B170" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C170" s="179" t="s">
+      <c r="B170" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C170" s="183" t="s">
         <v>1288</v>
       </c>
-      <c r="D170" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E170" s="181"/>
-      <c r="F170" s="182" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G170" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H170" s="183">
+      <c r="D170" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E170" s="185"/>
+      <c r="F170" s="186" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G170" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H170" s="187">
         <v>20.0</v>
       </c>
-      <c r="I170" s="197" t="s">
-        <v>1667</v>
+      <c r="I170" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
-      <c r="B171" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C171" s="179" t="s">
+      <c r="B171" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C171" s="183" t="s">
         <v>1289</v>
       </c>
-      <c r="D171" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E171" s="181"/>
-      <c r="F171" s="182" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G171" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H171" s="183">
+      <c r="D171" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E171" s="185"/>
+      <c r="F171" s="186" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G171" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H171" s="187">
         <v>21.0</v>
       </c>
-      <c r="I171" s="197" t="s">
-        <v>1667</v>
+      <c r="I171" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
-      <c r="B172" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C172" s="179" t="s">
+      <c r="B172" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C172" s="183" t="s">
         <v>1290</v>
       </c>
-      <c r="D172" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E172" s="181"/>
-      <c r="F172" s="182" t="s">
-        <v>1834</v>
-      </c>
-      <c r="G172" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H172" s="183">
+      <c r="D172" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E172" s="185"/>
+      <c r="F172" s="186" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G172" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H172" s="187">
         <v>22.0</v>
       </c>
-      <c r="I172" s="197" t="s">
-        <v>1667</v>
+      <c r="I172" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
-      <c r="B173" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C173" s="179" t="s">
+      <c r="B173" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C173" s="183" t="s">
         <v>1291</v>
       </c>
-      <c r="D173" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E173" s="181"/>
-      <c r="F173" s="182" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G173" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H173" s="183">
+      <c r="D173" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E173" s="185"/>
+      <c r="F173" s="186" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G173" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H173" s="187">
         <v>23.0</v>
       </c>
-      <c r="I173" s="197" t="s">
-        <v>1667</v>
+      <c r="I173" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
-      <c r="B174" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C174" s="179" t="s">
+      <c r="B174" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C174" s="183" t="s">
         <v>1292</v>
       </c>
-      <c r="D174" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E174" s="181"/>
-      <c r="F174" s="182" t="s">
-        <v>1836</v>
-      </c>
-      <c r="G174" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H174" s="183">
+      <c r="D174" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E174" s="185"/>
+      <c r="F174" s="186" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G174" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H174" s="187">
         <v>24.0</v>
       </c>
-      <c r="I174" s="197" t="s">
-        <v>1667</v>
+      <c r="I174" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
-      <c r="B175" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C175" s="179" t="s">
+      <c r="B175" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C175" s="183" t="s">
         <v>1293</v>
       </c>
-      <c r="D175" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E175" s="181"/>
-      <c r="F175" s="182" t="s">
-        <v>1837</v>
-      </c>
-      <c r="G175" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H175" s="183">
+      <c r="D175" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E175" s="185"/>
+      <c r="F175" s="186" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G175" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H175" s="187">
         <v>25.0</v>
       </c>
-      <c r="I175" s="197" t="s">
-        <v>1667</v>
+      <c r="I175" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
-      <c r="B176" s="199" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C176" s="206" t="s">
+      <c r="B176" s="203" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C176" s="210" t="s">
         <v>1294</v>
       </c>
-      <c r="D176" s="201" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E176" s="202"/>
-      <c r="F176" s="203" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G176" s="201" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H176" s="204">
+      <c r="D176" s="205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E176" s="206"/>
+      <c r="F176" s="207" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G176" s="205" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H176" s="208">
         <v>26.0</v>
       </c>
-      <c r="I176" s="205" t="s">
-        <v>1667</v>
+      <c r="I176" s="209" t="s">
+        <v>1675</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -28249,717 +28309,717 @@
     </row>
     <row r="178">
       <c r="A178" s="1"/>
-      <c r="B178" s="188" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C178" s="189" t="s">
+      <c r="B178" s="192" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C178" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="D178" s="190" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E178" s="191" t="s">
-        <v>1839</v>
-      </c>
-      <c r="F178" s="192" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G178" s="190" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H178" s="193" t="s">
+      <c r="D178" s="194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E178" s="195" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F178" s="196" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G178" s="194" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H178" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="I178" s="194" t="s">
-        <v>1667</v>
+      <c r="I178" s="198" t="s">
+        <v>1675</v>
       </c>
       <c r="J178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
-      <c r="B179" s="195"/>
-      <c r="C179" s="184"/>
-      <c r="D179" s="180"/>
-      <c r="E179" s="185"/>
-      <c r="F179" s="186"/>
-      <c r="G179" s="180"/>
-      <c r="H179" s="187"/>
-      <c r="I179" s="197"/>
+      <c r="B179" s="199"/>
+      <c r="C179" s="188"/>
+      <c r="D179" s="184"/>
+      <c r="E179" s="189"/>
+      <c r="F179" s="190"/>
+      <c r="G179" s="184"/>
+      <c r="H179" s="191"/>
+      <c r="I179" s="201"/>
       <c r="J179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
-      <c r="B180" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C180" s="179" t="s">
+      <c r="B180" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C180" s="183" t="s">
         <v>1424</v>
       </c>
-      <c r="D180" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E180" s="181"/>
-      <c r="F180" s="182" t="s">
-        <v>1841</v>
-      </c>
-      <c r="G180" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H180" s="183">
+      <c r="D180" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E180" s="185"/>
+      <c r="F180" s="186" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G180" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H180" s="187">
         <v>1.0</v>
       </c>
-      <c r="I180" s="197" t="s">
-        <v>1667</v>
+      <c r="I180" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
-      <c r="B181" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C181" s="179" t="s">
+      <c r="B181" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C181" s="183" t="s">
         <v>1425</v>
       </c>
-      <c r="D181" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E181" s="181"/>
-      <c r="F181" s="182" t="s">
-        <v>1842</v>
-      </c>
-      <c r="G181" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H181" s="183">
+      <c r="D181" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E181" s="185"/>
+      <c r="F181" s="186" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G181" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H181" s="187">
         <v>2.0</v>
       </c>
-      <c r="I181" s="197" t="s">
-        <v>1667</v>
+      <c r="I181" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
-      <c r="B182" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C182" s="179" t="s">
+      <c r="B182" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C182" s="183" t="s">
         <v>1426</v>
       </c>
-      <c r="D182" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E182" s="181"/>
-      <c r="F182" s="182" t="s">
-        <v>1843</v>
-      </c>
-      <c r="G182" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H182" s="183">
+      <c r="D182" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E182" s="185"/>
+      <c r="F182" s="186" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G182" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H182" s="187">
         <v>3.0</v>
       </c>
-      <c r="I182" s="197" t="s">
-        <v>1667</v>
+      <c r="I182" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
-      <c r="B183" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C183" s="179" t="s">
+      <c r="B183" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C183" s="183" t="s">
         <v>1427</v>
       </c>
-      <c r="D183" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E183" s="181"/>
-      <c r="F183" s="182" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G183" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H183" s="183">
+      <c r="D183" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E183" s="185"/>
+      <c r="F183" s="186" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G183" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H183" s="187">
         <v>4.0</v>
       </c>
-      <c r="I183" s="197" t="s">
-        <v>1667</v>
+      <c r="I183" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
-      <c r="B184" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C184" s="179" t="s">
+      <c r="B184" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C184" s="183" t="s">
         <v>1428</v>
       </c>
-      <c r="D184" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E184" s="181"/>
-      <c r="F184" s="182" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G184" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H184" s="183">
+      <c r="D184" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E184" s="185"/>
+      <c r="F184" s="186" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G184" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H184" s="187">
         <v>5.0</v>
       </c>
-      <c r="I184" s="197" t="s">
-        <v>1667</v>
+      <c r="I184" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
-      <c r="B185" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C185" s="179" t="s">
+      <c r="B185" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C185" s="183" t="s">
         <v>1429</v>
       </c>
-      <c r="D185" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E185" s="181"/>
-      <c r="F185" s="182" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G185" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H185" s="183">
+      <c r="D185" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E185" s="185"/>
+      <c r="F185" s="186" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G185" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H185" s="187">
         <v>6.0</v>
       </c>
-      <c r="I185" s="197" t="s">
-        <v>1667</v>
+      <c r="I185" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
-      <c r="B186" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C186" s="179" t="s">
+      <c r="B186" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C186" s="183" t="s">
         <v>1430</v>
       </c>
-      <c r="D186" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E186" s="181"/>
-      <c r="F186" s="182" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G186" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H186" s="183">
+      <c r="D186" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E186" s="185"/>
+      <c r="F186" s="186" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G186" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H186" s="187">
         <v>7.0</v>
       </c>
-      <c r="I186" s="197" t="s">
-        <v>1667</v>
+      <c r="I186" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
-      <c r="B187" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C187" s="179" t="s">
+      <c r="B187" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C187" s="183" t="s">
         <v>1431</v>
       </c>
-      <c r="D187" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E187" s="181"/>
-      <c r="F187" s="182" t="s">
-        <v>1848</v>
-      </c>
-      <c r="G187" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H187" s="183">
+      <c r="D187" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E187" s="185"/>
+      <c r="F187" s="186" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G187" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H187" s="187">
         <v>8.0</v>
       </c>
-      <c r="I187" s="197" t="s">
-        <v>1667</v>
+      <c r="I187" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
-      <c r="B188" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C188" s="179" t="s">
+      <c r="B188" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C188" s="183" t="s">
         <v>1432</v>
       </c>
-      <c r="D188" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E188" s="181"/>
-      <c r="F188" s="182" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G188" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H188" s="183">
+      <c r="D188" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E188" s="185"/>
+      <c r="F188" s="186" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G188" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H188" s="187">
         <v>9.0</v>
       </c>
-      <c r="I188" s="197" t="s">
-        <v>1667</v>
+      <c r="I188" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
-      <c r="B189" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C189" s="179" t="s">
+      <c r="B189" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C189" s="183" t="s">
         <v>1433</v>
       </c>
-      <c r="D189" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E189" s="181"/>
-      <c r="F189" s="182" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G189" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H189" s="183">
+      <c r="D189" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E189" s="185"/>
+      <c r="F189" s="186" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G189" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H189" s="187">
         <v>10.0</v>
       </c>
-      <c r="I189" s="197" t="s">
-        <v>1667</v>
+      <c r="I189" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
-      <c r="B190" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C190" s="179" t="s">
+      <c r="B190" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C190" s="183" t="s">
         <v>1434</v>
       </c>
-      <c r="D190" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E190" s="181"/>
-      <c r="F190" s="182" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G190" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H190" s="183">
+      <c r="D190" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E190" s="185"/>
+      <c r="F190" s="186" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G190" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H190" s="187">
         <v>11.0</v>
       </c>
-      <c r="I190" s="197" t="s">
-        <v>1667</v>
+      <c r="I190" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
-      <c r="B191" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C191" s="179" t="s">
+      <c r="B191" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C191" s="183" t="s">
         <v>1435</v>
       </c>
-      <c r="D191" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E191" s="181"/>
-      <c r="F191" s="182" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G191" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H191" s="183">
+      <c r="D191" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E191" s="185"/>
+      <c r="F191" s="186" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G191" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H191" s="187">
         <v>12.0</v>
       </c>
-      <c r="I191" s="197" t="s">
-        <v>1667</v>
+      <c r="I191" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
-      <c r="B192" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C192" s="179" t="s">
+      <c r="B192" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C192" s="183" t="s">
         <v>1436</v>
       </c>
-      <c r="D192" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E192" s="181"/>
-      <c r="F192" s="182" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G192" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H192" s="183">
+      <c r="D192" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E192" s="185"/>
+      <c r="F192" s="186" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G192" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H192" s="187">
         <v>13.0</v>
       </c>
-      <c r="I192" s="197" t="s">
-        <v>1667</v>
+      <c r="I192" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
-      <c r="B193" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C193" s="179" t="s">
+      <c r="B193" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C193" s="183" t="s">
         <v>1437</v>
       </c>
-      <c r="D193" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E193" s="181"/>
-      <c r="F193" s="182" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G193" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H193" s="183">
+      <c r="D193" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E193" s="185"/>
+      <c r="F193" s="186" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G193" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H193" s="187">
         <v>14.0</v>
       </c>
-      <c r="I193" s="197" t="s">
-        <v>1667</v>
+      <c r="I193" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
-      <c r="B194" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C194" s="179" t="s">
+      <c r="B194" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C194" s="183" t="s">
         <v>1438</v>
       </c>
-      <c r="D194" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E194" s="181"/>
-      <c r="F194" s="182" t="s">
-        <v>1855</v>
-      </c>
-      <c r="G194" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H194" s="183">
+      <c r="D194" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E194" s="185"/>
+      <c r="F194" s="186" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G194" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H194" s="187">
         <v>15.0</v>
       </c>
-      <c r="I194" s="197" t="s">
-        <v>1667</v>
+      <c r="I194" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
-      <c r="B195" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C195" s="179" t="s">
+      <c r="B195" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C195" s="183" t="s">
         <v>1439</v>
       </c>
-      <c r="D195" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E195" s="181"/>
-      <c r="F195" s="182" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G195" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H195" s="183">
+      <c r="D195" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E195" s="185"/>
+      <c r="F195" s="186" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G195" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H195" s="187">
         <v>16.0</v>
       </c>
-      <c r="I195" s="197" t="s">
-        <v>1667</v>
+      <c r="I195" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
-      <c r="B196" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C196" s="179" t="s">
+      <c r="B196" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C196" s="183" t="s">
         <v>1440</v>
       </c>
-      <c r="D196" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E196" s="181"/>
-      <c r="F196" s="182" t="s">
-        <v>1857</v>
-      </c>
-      <c r="G196" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H196" s="183">
+      <c r="D196" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E196" s="185"/>
+      <c r="F196" s="186" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G196" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H196" s="187">
         <v>17.0</v>
       </c>
-      <c r="I196" s="197" t="s">
-        <v>1667</v>
+      <c r="I196" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
-      <c r="B197" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C197" s="179" t="s">
+      <c r="B197" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C197" s="183" t="s">
         <v>1441</v>
       </c>
-      <c r="D197" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E197" s="181"/>
-      <c r="F197" s="182" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G197" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H197" s="183">
+      <c r="D197" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E197" s="185"/>
+      <c r="F197" s="186" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G197" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H197" s="187">
         <v>18.0</v>
       </c>
-      <c r="I197" s="197" t="s">
-        <v>1667</v>
+      <c r="I197" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
-      <c r="B198" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C198" s="179" t="s">
+      <c r="B198" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C198" s="183" t="s">
         <v>1442</v>
       </c>
-      <c r="D198" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E198" s="181"/>
-      <c r="F198" s="182" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G198" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H198" s="183">
+      <c r="D198" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E198" s="185"/>
+      <c r="F198" s="186" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G198" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H198" s="187">
         <v>19.0</v>
       </c>
-      <c r="I198" s="197" t="s">
-        <v>1667</v>
+      <c r="I198" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
-      <c r="B199" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C199" s="179" t="s">
+      <c r="B199" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C199" s="183" t="s">
         <v>1443</v>
       </c>
-      <c r="D199" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E199" s="181"/>
-      <c r="F199" s="182" t="s">
-        <v>1860</v>
-      </c>
-      <c r="G199" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H199" s="183">
+      <c r="D199" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E199" s="185"/>
+      <c r="F199" s="186" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G199" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H199" s="187">
         <v>20.0</v>
       </c>
-      <c r="I199" s="197" t="s">
-        <v>1667</v>
+      <c r="I199" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
-      <c r="B200" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C200" s="179" t="s">
+      <c r="B200" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C200" s="183" t="s">
         <v>1444</v>
       </c>
-      <c r="D200" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E200" s="181"/>
-      <c r="F200" s="182" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G200" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H200" s="183">
+      <c r="D200" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E200" s="185"/>
+      <c r="F200" s="186" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G200" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H200" s="187">
         <v>21.0</v>
       </c>
-      <c r="I200" s="197" t="s">
-        <v>1667</v>
+      <c r="I200" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
-      <c r="B201" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C201" s="179" t="s">
+      <c r="B201" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C201" s="183" t="s">
         <v>1445</v>
       </c>
-      <c r="D201" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E201" s="181"/>
-      <c r="F201" s="182" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G201" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H201" s="183">
+      <c r="D201" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E201" s="185"/>
+      <c r="F201" s="186" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G201" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H201" s="187">
         <v>22.0</v>
       </c>
-      <c r="I201" s="197" t="s">
-        <v>1667</v>
+      <c r="I201" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
-      <c r="B202" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C202" s="179" t="s">
+      <c r="B202" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C202" s="183" t="s">
         <v>1446</v>
       </c>
-      <c r="D202" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E202" s="181"/>
-      <c r="F202" s="182" t="s">
-        <v>1863</v>
-      </c>
-      <c r="G202" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H202" s="183">
+      <c r="D202" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E202" s="185"/>
+      <c r="F202" s="186" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G202" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H202" s="187">
         <v>23.0</v>
       </c>
-      <c r="I202" s="197" t="s">
-        <v>1667</v>
+      <c r="I202" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
-      <c r="B203" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C203" s="179" t="s">
+      <c r="B203" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C203" s="183" t="s">
         <v>1447</v>
       </c>
-      <c r="D203" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E203" s="181"/>
-      <c r="F203" s="182" t="s">
-        <v>1864</v>
-      </c>
-      <c r="G203" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H203" s="183">
+      <c r="D203" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E203" s="185"/>
+      <c r="F203" s="186" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G203" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H203" s="187">
         <v>24.0</v>
       </c>
-      <c r="I203" s="197" t="s">
-        <v>1667</v>
+      <c r="I203" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
-      <c r="B204" s="195" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C204" s="179" t="s">
+      <c r="B204" s="199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C204" s="183" t="s">
         <v>1448</v>
       </c>
-      <c r="D204" s="180" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E204" s="181"/>
-      <c r="F204" s="182" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G204" s="180" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H204" s="183">
+      <c r="D204" s="184" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E204" s="185"/>
+      <c r="F204" s="186" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G204" s="184" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H204" s="187">
         <v>25.0</v>
       </c>
-      <c r="I204" s="197" t="s">
-        <v>1667</v>
+      <c r="I204" s="201" t="s">
+        <v>1675</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
-      <c r="B205" s="199" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C205" s="206" t="s">
+      <c r="B205" s="203" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C205" s="210" t="s">
         <v>1449</v>
       </c>
-      <c r="D205" s="201" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E205" s="202"/>
-      <c r="F205" s="203" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G205" s="201" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H205" s="204">
+      <c r="D205" s="205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E205" s="206"/>
+      <c r="F205" s="207" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G205" s="205" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H205" s="208">
         <v>26.0</v>
       </c>
-      <c r="I205" s="205" t="s">
-        <v>1667</v>
+      <c r="I205" s="209" t="s">
+        <v>1675</v>
       </c>
       <c r="J205" s="1"/>
     </row>
@@ -28977,14 +29037,14 @@
     </row>
     <row r="207">
       <c r="A207" s="1"/>
-      <c r="B207" s="178"/>
-      <c r="C207" s="179"/>
-      <c r="D207" s="180"/>
-      <c r="E207" s="181"/>
-      <c r="F207" s="182"/>
-      <c r="G207" s="180"/>
-      <c r="H207" s="183"/>
-      <c r="I207" s="178"/>
+      <c r="B207" s="182"/>
+      <c r="C207" s="183"/>
+      <c r="D207" s="184"/>
+      <c r="E207" s="185"/>
+      <c r="F207" s="186"/>
+      <c r="G207" s="184"/>
+      <c r="H207" s="187"/>
+      <c r="I207" s="182"/>
       <c r="J207" s="1"/>
     </row>
     <row r="208">

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4906" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="1924">
   <si>
     <t>A#3</t>
   </si>
@@ -4479,6 +4479,24 @@
     <t>ledger</t>
   </si>
   <si>
+    <t>punch</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>kick</t>
+  </si>
+  <si>
     <t>episode</t>
   </si>
   <si>
@@ -4509,6 +4527,12 @@
     <t>consistent</t>
   </si>
   <si>
+    <t>{2, 3, 6, 11, 22, 33, 66, 121, 242, 363}</t>
+  </si>
+  <si>
+    <t>{2, 3, 4, 5, 6, 9, 10, 12, 15, 18, 20, 30, 36, 45, 60, 90}</t>
+  </si>
+  <si>
     <t>spontaneous</t>
   </si>
   <si>
@@ -4539,6 +4563,12 @@
     <t>essential</t>
   </si>
   <si>
+    <t>meridian</t>
+  </si>
+  <si>
+    <t>imaginary</t>
+  </si>
+  <si>
     <t>percent</t>
   </si>
   <si>
@@ -4599,6 +4629,12 @@
     <t>oven</t>
   </si>
   <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
     <t>bottle</t>
   </si>
   <si>
@@ -4740,6 +4776,12 @@
     <t>preserve</t>
   </si>
   <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>coherence</t>
+  </si>
+  <si>
     <t>caption</t>
   </si>
   <si>
@@ -4800,6 +4842,24 @@
     <t>clash</t>
   </si>
   <si>
+    <t>definite</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
     <t>inject</t>
   </si>
   <si>
@@ -4830,6 +4890,9 @@
     <t>campaign</t>
   </si>
   <si>
+    <t>{2, 3, 4, 6, 7, 8, 12, 14, 16, 21, 24, 28, 32, 42, 48, 56, 84, 96, 112, 168, 224, 336}</t>
+  </si>
+  <si>
     <t>flight</t>
   </si>
   <si>
@@ -4860,6 +4923,24 @@
     <t>expert</t>
   </si>
   <si>
+    <t>gradual</t>
+  </si>
+  <si>
+    <t>illuminate</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>eliminate</t>
+  </si>
+  <si>
+    <t>cryptography</t>
+  </si>
+  <si>
+    <t>radiant</t>
+  </si>
+  <si>
     <t>formal</t>
   </si>
   <si>
@@ -4890,6 +4971,9 @@
     <t>nucleus</t>
   </si>
   <si>
+    <t>{3, 5, 15, 53, 159, 265}</t>
+  </si>
+  <si>
     <t>entertain</t>
   </si>
   <si>
@@ -4920,6 +5004,24 @@
     <t>imprint</t>
   </si>
   <si>
+    <t>convex</t>
+  </si>
+  <si>
+    <t>trail</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>directive</t>
+  </si>
+  <si>
+    <t>tease</t>
+  </si>
+  <si>
+    <t>concave</t>
+  </si>
+  <si>
     <t>surface</t>
   </si>
   <si>
@@ -4950,6 +5052,12 @@
     <t>universal</t>
   </si>
   <si>
+    <t>{2, 3, 6, 7, 14, 17, 21, 34, 42, 51, 102, 119, 238, 357}</t>
+  </si>
+  <si>
+    <t>{5, 37}</t>
+  </si>
+  <si>
     <t>sprinkle</t>
   </si>
   <si>
@@ -5068,6 +5176,9 @@
   </si>
   <si>
     <t>{2, 4, 23, 46}</t>
+  </si>
+  <si>
+    <t>{3, 5, 15, 25}</t>
   </si>
   <si>
     <t>{2, 3, 4, 6, 8, 9, 12, 18, 24, 36}</t>
@@ -22698,47 +22809,67 @@
       <c r="M83" s="169" t="s">
         <v>1487</v>
       </c>
-      <c r="N83" s="119"/>
-      <c r="O83" s="119"/>
-      <c r="P83" s="119"/>
-      <c r="Q83" s="119"/>
-      <c r="R83" s="119"/>
-      <c r="S83" s="119"/>
+      <c r="N83" s="169" t="s">
+        <v>1488</v>
+      </c>
+      <c r="O83" s="169" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P83" s="169" t="s">
+        <v>1490</v>
+      </c>
+      <c r="Q83" s="169" t="s">
+        <v>1491</v>
+      </c>
+      <c r="R83" s="169" t="s">
+        <v>1492</v>
+      </c>
+      <c r="S83" s="169" t="s">
+        <v>1493</v>
+      </c>
       <c r="T83" s="169" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="U83" s="169" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="V83" s="169" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
       <c r="W83" s="169" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="X83" s="169" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
       <c r="Y83" s="169" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="Z83" s="169" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="AA83" s="169" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="AB83" s="169" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="AC83" s="170" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="AD83" s="100"/>
-      <c r="AE83" s="121"/>
-      <c r="AF83" s="122"/>
-      <c r="AG83" s="123"/>
-      <c r="AH83" s="124"/>
+      <c r="AE83" s="171">
+        <v>726.0</v>
+      </c>
+      <c r="AF83" s="172" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AG83" s="173">
+        <v>180.0</v>
+      </c>
+      <c r="AH83" s="174" t="s">
+        <v>1505</v>
+      </c>
       <c r="AI83" s="100"/>
     </row>
     <row r="84">
@@ -22748,70 +22879,74 @@
       </c>
       <c r="C84" s="100"/>
       <c r="D84" s="168" t="s">
-        <v>1498</v>
+        <v>1506</v>
       </c>
       <c r="E84" s="169" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="F84" s="169" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
       <c r="G84" s="169" t="s">
-        <v>1501</v>
+        <v>1509</v>
       </c>
       <c r="H84" s="169" t="s">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="I84" s="169" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="J84" s="169" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="K84" s="169" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="L84" s="169" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="M84" s="169" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="N84" s="119"/>
       <c r="O84" s="119"/>
-      <c r="P84" s="119"/>
-      <c r="Q84" s="119"/>
+      <c r="P84" s="169" t="s">
+        <v>1516</v>
+      </c>
+      <c r="Q84" s="169" t="s">
+        <v>1517</v>
+      </c>
       <c r="R84" s="119"/>
       <c r="S84" s="119"/>
       <c r="T84" s="169" t="s">
-        <v>1508</v>
+        <v>1518</v>
       </c>
       <c r="U84" s="169" t="s">
-        <v>1509</v>
+        <v>1519</v>
       </c>
       <c r="V84" s="169" t="s">
-        <v>1510</v>
+        <v>1520</v>
       </c>
       <c r="W84" s="169" t="s">
-        <v>1511</v>
+        <v>1521</v>
       </c>
       <c r="X84" s="169" t="s">
-        <v>1512</v>
+        <v>1522</v>
       </c>
       <c r="Y84" s="169" t="s">
-        <v>1513</v>
+        <v>1523</v>
       </c>
       <c r="Z84" s="169" t="s">
-        <v>1514</v>
+        <v>1524</v>
       </c>
       <c r="AA84" s="169" t="s">
-        <v>1515</v>
+        <v>1525</v>
       </c>
       <c r="AB84" s="169" t="s">
-        <v>1516</v>
+        <v>1526</v>
       </c>
       <c r="AC84" s="170" t="s">
-        <v>1517</v>
+        <v>1527</v>
       </c>
       <c r="AD84" s="100"/>
       <c r="AE84" s="121"/>
@@ -22827,70 +22962,74 @@
       </c>
       <c r="C85" s="100"/>
       <c r="D85" s="168" t="s">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="E85" s="169" t="s">
-        <v>1519</v>
+        <v>1529</v>
       </c>
       <c r="F85" s="169" t="s">
-        <v>1520</v>
+        <v>1530</v>
       </c>
       <c r="G85" s="169" t="s">
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="H85" s="169" t="s">
-        <v>1522</v>
+        <v>1532</v>
       </c>
       <c r="I85" s="169" t="s">
-        <v>1523</v>
+        <v>1533</v>
       </c>
       <c r="J85" s="169" t="s">
-        <v>1524</v>
+        <v>1534</v>
       </c>
       <c r="K85" s="169" t="s">
-        <v>1525</v>
+        <v>1535</v>
       </c>
       <c r="L85" s="169" t="s">
-        <v>1526</v>
+        <v>1536</v>
       </c>
       <c r="M85" s="169" t="s">
-        <v>1527</v>
+        <v>1537</v>
       </c>
       <c r="N85" s="119"/>
       <c r="O85" s="119"/>
-      <c r="P85" s="119"/>
-      <c r="Q85" s="119"/>
+      <c r="P85" s="169" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q85" s="169" t="s">
+        <v>1539</v>
+      </c>
       <c r="R85" s="119"/>
       <c r="S85" s="119"/>
       <c r="T85" s="169" t="s">
-        <v>1528</v>
+        <v>1540</v>
       </c>
       <c r="U85" s="169" t="s">
-        <v>1529</v>
+        <v>1541</v>
       </c>
       <c r="V85" s="169" t="s">
-        <v>1530</v>
+        <v>1542</v>
       </c>
       <c r="W85" s="169" t="s">
-        <v>1531</v>
+        <v>1543</v>
       </c>
       <c r="X85" s="169" t="s">
-        <v>1532</v>
+        <v>1544</v>
       </c>
       <c r="Y85" s="169" t="s">
-        <v>1533</v>
+        <v>1545</v>
       </c>
       <c r="Z85" s="169" t="s">
-        <v>1534</v>
+        <v>1546</v>
       </c>
       <c r="AA85" s="169" t="s">
-        <v>1535</v>
+        <v>1547</v>
       </c>
       <c r="AB85" s="169" t="s">
-        <v>1536</v>
+        <v>1548</v>
       </c>
       <c r="AC85" s="170" t="s">
-        <v>1537</v>
+        <v>1549</v>
       </c>
       <c r="AD85" s="100"/>
       <c r="AE85" s="121"/>
@@ -22906,89 +23045,89 @@
       </c>
       <c r="C86" s="100"/>
       <c r="D86" s="168" t="s">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="E86" s="169" t="s">
-        <v>1539</v>
+        <v>1551</v>
       </c>
       <c r="F86" s="169" t="s">
-        <v>1540</v>
+        <v>1552</v>
       </c>
       <c r="G86" s="169" t="s">
-        <v>1541</v>
+        <v>1553</v>
       </c>
       <c r="H86" s="169" t="s">
-        <v>1542</v>
+        <v>1554</v>
       </c>
       <c r="I86" s="169" t="s">
-        <v>1543</v>
+        <v>1555</v>
       </c>
       <c r="J86" s="169" t="s">
-        <v>1544</v>
+        <v>1556</v>
       </c>
       <c r="K86" s="169" t="s">
-        <v>1545</v>
+        <v>1557</v>
       </c>
       <c r="L86" s="169" t="s">
-        <v>1546</v>
+        <v>1558</v>
       </c>
       <c r="M86" s="169" t="s">
-        <v>1547</v>
+        <v>1559</v>
       </c>
       <c r="N86" s="169" t="s">
-        <v>1548</v>
+        <v>1560</v>
       </c>
       <c r="O86" s="169" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
       <c r="P86" s="169" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
       <c r="Q86" s="169" t="s">
-        <v>1551</v>
+        <v>1563</v>
       </c>
       <c r="R86" s="169" t="s">
-        <v>1552</v>
+        <v>1564</v>
       </c>
       <c r="S86" s="169" t="s">
-        <v>1553</v>
+        <v>1565</v>
       </c>
       <c r="T86" s="169" t="s">
-        <v>1554</v>
+        <v>1566</v>
       </c>
       <c r="U86" s="169" t="s">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="V86" s="169" t="s">
-        <v>1556</v>
+        <v>1568</v>
       </c>
       <c r="W86" s="169" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
       <c r="X86" s="169" t="s">
-        <v>1558</v>
+        <v>1570</v>
       </c>
       <c r="Y86" s="169" t="s">
-        <v>1559</v>
+        <v>1571</v>
       </c>
       <c r="Z86" s="169" t="s">
-        <v>1560</v>
+        <v>1572</v>
       </c>
       <c r="AA86" s="169" t="s">
-        <v>1561</v>
+        <v>1573</v>
       </c>
       <c r="AB86" s="169" t="s">
-        <v>1562</v>
+        <v>1574</v>
       </c>
       <c r="AC86" s="170" t="s">
-        <v>1563</v>
+        <v>1575</v>
       </c>
       <c r="AD86" s="100"/>
       <c r="AE86" s="171">
         <v>642.0</v>
       </c>
       <c r="AF86" s="172" t="s">
-        <v>1564</v>
+        <v>1576</v>
       </c>
       <c r="AG86" s="173">
         <v>161.0</v>
@@ -23005,70 +23144,74 @@
       </c>
       <c r="C87" s="100"/>
       <c r="D87" s="168" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
       <c r="E87" s="169" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
       <c r="F87" s="169" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
       <c r="G87" s="169" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="H87" s="169" t="s">
-        <v>1569</v>
+        <v>1581</v>
       </c>
       <c r="I87" s="169" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="J87" s="169" t="s">
-        <v>1571</v>
+        <v>1583</v>
       </c>
       <c r="K87" s="169" t="s">
-        <v>1572</v>
+        <v>1584</v>
       </c>
       <c r="L87" s="169" t="s">
-        <v>1573</v>
+        <v>1585</v>
       </c>
       <c r="M87" s="169" t="s">
-        <v>1574</v>
+        <v>1586</v>
       </c>
       <c r="N87" s="119"/>
       <c r="O87" s="119"/>
-      <c r="P87" s="119"/>
-      <c r="Q87" s="119"/>
+      <c r="P87" s="169" t="s">
+        <v>1587</v>
+      </c>
+      <c r="Q87" s="169" t="s">
+        <v>1588</v>
+      </c>
       <c r="R87" s="119"/>
       <c r="S87" s="119"/>
       <c r="T87" s="169" t="s">
-        <v>1575</v>
+        <v>1589</v>
       </c>
       <c r="U87" s="169" t="s">
-        <v>1576</v>
+        <v>1590</v>
       </c>
       <c r="V87" s="169" t="s">
-        <v>1577</v>
+        <v>1591</v>
       </c>
       <c r="W87" s="169" t="s">
-        <v>1578</v>
+        <v>1592</v>
       </c>
       <c r="X87" s="169" t="s">
-        <v>1579</v>
+        <v>1593</v>
       </c>
       <c r="Y87" s="169" t="s">
-        <v>1580</v>
+        <v>1594</v>
       </c>
       <c r="Z87" s="169" t="s">
-        <v>1581</v>
+        <v>1595</v>
       </c>
       <c r="AA87" s="169" t="s">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="AB87" s="169" t="s">
-        <v>1583</v>
+        <v>1597</v>
       </c>
       <c r="AC87" s="170" t="s">
-        <v>1584</v>
+        <v>1598</v>
       </c>
       <c r="AD87" s="100"/>
       <c r="AE87" s="121"/>
@@ -23084,76 +23227,96 @@
       </c>
       <c r="C88" s="100"/>
       <c r="D88" s="168" t="s">
-        <v>1585</v>
+        <v>1599</v>
       </c>
       <c r="E88" s="169" t="s">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="F88" s="169" t="s">
-        <v>1587</v>
+        <v>1601</v>
       </c>
       <c r="G88" s="169" t="s">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="H88" s="169" t="s">
-        <v>1589</v>
+        <v>1603</v>
       </c>
       <c r="I88" s="169" t="s">
-        <v>1590</v>
+        <v>1604</v>
       </c>
       <c r="J88" s="169" t="s">
-        <v>1591</v>
+        <v>1605</v>
       </c>
       <c r="K88" s="169" t="s">
-        <v>1592</v>
+        <v>1606</v>
       </c>
       <c r="L88" s="169" t="s">
-        <v>1593</v>
+        <v>1607</v>
       </c>
       <c r="M88" s="169" t="s">
-        <v>1594</v>
-      </c>
-      <c r="N88" s="119"/>
-      <c r="O88" s="119"/>
-      <c r="P88" s="119"/>
-      <c r="Q88" s="119"/>
-      <c r="R88" s="119"/>
-      <c r="S88" s="119"/>
+        <v>1608</v>
+      </c>
+      <c r="N88" s="169" t="s">
+        <v>1609</v>
+      </c>
+      <c r="O88" s="169" t="s">
+        <v>1610</v>
+      </c>
+      <c r="P88" s="169" t="s">
+        <v>1611</v>
+      </c>
+      <c r="Q88" s="169" t="s">
+        <v>1612</v>
+      </c>
+      <c r="R88" s="169" t="s">
+        <v>1613</v>
+      </c>
+      <c r="S88" s="169" t="s">
+        <v>1614</v>
+      </c>
       <c r="T88" s="169" t="s">
-        <v>1595</v>
+        <v>1615</v>
       </c>
       <c r="U88" s="169" t="s">
-        <v>1596</v>
+        <v>1616</v>
       </c>
       <c r="V88" s="169" t="s">
-        <v>1597</v>
+        <v>1617</v>
       </c>
       <c r="W88" s="169" t="s">
-        <v>1598</v>
+        <v>1618</v>
       </c>
       <c r="X88" s="169" t="s">
-        <v>1599</v>
+        <v>1619</v>
       </c>
       <c r="Y88" s="169" t="s">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="Z88" s="169" t="s">
-        <v>1601</v>
+        <v>1621</v>
       </c>
       <c r="AA88" s="169" t="s">
-        <v>1602</v>
+        <v>1622</v>
       </c>
       <c r="AB88" s="169" t="s">
-        <v>1603</v>
+        <v>1623</v>
       </c>
       <c r="AC88" s="170" t="s">
-        <v>1604</v>
+        <v>1624</v>
       </c>
       <c r="AD88" s="100"/>
-      <c r="AE88" s="121"/>
-      <c r="AF88" s="122"/>
-      <c r="AG88" s="123"/>
-      <c r="AH88" s="124"/>
+      <c r="AE88" s="171">
+        <v>672.0</v>
+      </c>
+      <c r="AF88" s="172" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AG88" s="173">
+        <v>174.0</v>
+      </c>
+      <c r="AH88" s="174" t="s">
+        <v>711</v>
+      </c>
       <c r="AI88" s="100"/>
     </row>
     <row r="89">
@@ -23163,76 +23326,96 @@
       </c>
       <c r="C89" s="100"/>
       <c r="D89" s="168" t="s">
-        <v>1605</v>
+        <v>1626</v>
       </c>
       <c r="E89" s="169" t="s">
-        <v>1606</v>
+        <v>1627</v>
       </c>
       <c r="F89" s="169" t="s">
-        <v>1607</v>
+        <v>1628</v>
       </c>
       <c r="G89" s="169" t="s">
-        <v>1608</v>
+        <v>1629</v>
       </c>
       <c r="H89" s="169" t="s">
-        <v>1609</v>
+        <v>1630</v>
       </c>
       <c r="I89" s="169" t="s">
-        <v>1610</v>
+        <v>1631</v>
       </c>
       <c r="J89" s="169" t="s">
-        <v>1611</v>
+        <v>1632</v>
       </c>
       <c r="K89" s="169" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
       <c r="L89" s="169" t="s">
-        <v>1613</v>
+        <v>1634</v>
       </c>
       <c r="M89" s="169" t="s">
-        <v>1614</v>
-      </c>
-      <c r="N89" s="119"/>
-      <c r="O89" s="119"/>
-      <c r="P89" s="119"/>
-      <c r="Q89" s="119"/>
-      <c r="R89" s="119"/>
-      <c r="S89" s="119"/>
+        <v>1635</v>
+      </c>
+      <c r="N89" s="169" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O89" s="169" t="s">
+        <v>1637</v>
+      </c>
+      <c r="P89" s="169" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Q89" s="169" t="s">
+        <v>1639</v>
+      </c>
+      <c r="R89" s="169" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S89" s="169" t="s">
+        <v>1641</v>
+      </c>
       <c r="T89" s="169" t="s">
-        <v>1615</v>
+        <v>1642</v>
       </c>
       <c r="U89" s="169" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="V89" s="169" t="s">
-        <v>1617</v>
+        <v>1644</v>
       </c>
       <c r="W89" s="169" t="s">
-        <v>1618</v>
+        <v>1645</v>
       </c>
       <c r="X89" s="169" t="s">
-        <v>1619</v>
+        <v>1646</v>
       </c>
       <c r="Y89" s="169" t="s">
-        <v>1620</v>
+        <v>1647</v>
       </c>
       <c r="Z89" s="169" t="s">
-        <v>1621</v>
+        <v>1648</v>
       </c>
       <c r="AA89" s="169" t="s">
-        <v>1622</v>
+        <v>1649</v>
       </c>
       <c r="AB89" s="169" t="s">
-        <v>1623</v>
+        <v>1650</v>
       </c>
       <c r="AC89" s="170" t="s">
-        <v>1624</v>
+        <v>1651</v>
       </c>
       <c r="AD89" s="100"/>
-      <c r="AE89" s="121"/>
-      <c r="AF89" s="122"/>
-      <c r="AG89" s="123"/>
-      <c r="AH89" s="124"/>
+      <c r="AE89" s="171">
+        <v>795.0</v>
+      </c>
+      <c r="AF89" s="172" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AG89" s="173">
+        <v>189.0</v>
+      </c>
+      <c r="AH89" s="174" t="s">
+        <v>413</v>
+      </c>
       <c r="AI89" s="100"/>
     </row>
     <row r="90">
@@ -23242,76 +23425,96 @@
       </c>
       <c r="C90" s="100"/>
       <c r="D90" s="168" t="s">
-        <v>1625</v>
+        <v>1653</v>
       </c>
       <c r="E90" s="169" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="F90" s="169" t="s">
-        <v>1627</v>
+        <v>1655</v>
       </c>
       <c r="G90" s="169" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="H90" s="169" t="s">
-        <v>1629</v>
+        <v>1657</v>
       </c>
       <c r="I90" s="169" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="J90" s="169" t="s">
-        <v>1631</v>
+        <v>1659</v>
       </c>
       <c r="K90" s="169" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="L90" s="169" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="M90" s="169" t="s">
-        <v>1634</v>
-      </c>
-      <c r="N90" s="119"/>
-      <c r="O90" s="119"/>
-      <c r="P90" s="119"/>
-      <c r="Q90" s="119"/>
-      <c r="R90" s="119"/>
-      <c r="S90" s="119"/>
+        <v>1662</v>
+      </c>
+      <c r="N90" s="169" t="s">
+        <v>1663</v>
+      </c>
+      <c r="O90" s="169" t="s">
+        <v>1664</v>
+      </c>
+      <c r="P90" s="169" t="s">
+        <v>1665</v>
+      </c>
+      <c r="Q90" s="169" t="s">
+        <v>1666</v>
+      </c>
+      <c r="R90" s="169" t="s">
+        <v>1667</v>
+      </c>
+      <c r="S90" s="169" t="s">
+        <v>1668</v>
+      </c>
       <c r="T90" s="169" t="s">
-        <v>1635</v>
+        <v>1669</v>
       </c>
       <c r="U90" s="169" t="s">
-        <v>1636</v>
+        <v>1670</v>
       </c>
       <c r="V90" s="169" t="s">
-        <v>1637</v>
+        <v>1671</v>
       </c>
       <c r="W90" s="169" t="s">
-        <v>1638</v>
+        <v>1672</v>
       </c>
       <c r="X90" s="169" t="s">
-        <v>1639</v>
+        <v>1673</v>
       </c>
       <c r="Y90" s="169" t="s">
-        <v>1640</v>
+        <v>1674</v>
       </c>
       <c r="Z90" s="169" t="s">
-        <v>1641</v>
+        <v>1675</v>
       </c>
       <c r="AA90" s="169" t="s">
-        <v>1642</v>
+        <v>1676</v>
       </c>
       <c r="AB90" s="169" t="s">
-        <v>1643</v>
+        <v>1677</v>
       </c>
       <c r="AC90" s="170" t="s">
-        <v>1644</v>
+        <v>1678</v>
       </c>
       <c r="AD90" s="100"/>
-      <c r="AE90" s="121"/>
-      <c r="AF90" s="122"/>
-      <c r="AG90" s="123"/>
-      <c r="AH90" s="124"/>
+      <c r="AE90" s="171">
+        <v>714.0</v>
+      </c>
+      <c r="AF90" s="172" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AG90" s="173">
+        <v>185.0</v>
+      </c>
+      <c r="AH90" s="174" t="s">
+        <v>1680</v>
+      </c>
       <c r="AI90" s="100"/>
     </row>
     <row r="91">
@@ -23321,82 +23524,82 @@
       </c>
       <c r="C91" s="100"/>
       <c r="D91" s="175" t="s">
-        <v>1645</v>
+        <v>1681</v>
       </c>
       <c r="E91" s="176" t="s">
-        <v>1646</v>
+        <v>1682</v>
       </c>
       <c r="F91" s="176" t="s">
-        <v>1647</v>
+        <v>1683</v>
       </c>
       <c r="G91" s="176" t="s">
-        <v>1648</v>
+        <v>1684</v>
       </c>
       <c r="H91" s="176" t="s">
-        <v>1649</v>
+        <v>1685</v>
       </c>
       <c r="I91" s="176" t="s">
-        <v>1650</v>
+        <v>1686</v>
       </c>
       <c r="J91" s="176" t="s">
-        <v>1651</v>
+        <v>1687</v>
       </c>
       <c r="K91" s="176" t="s">
-        <v>1652</v>
+        <v>1688</v>
       </c>
       <c r="L91" s="176" t="s">
-        <v>1653</v>
+        <v>1689</v>
       </c>
       <c r="M91" s="176" t="s">
-        <v>1654</v>
+        <v>1690</v>
       </c>
       <c r="N91" s="176" t="s">
-        <v>1655</v>
+        <v>1691</v>
       </c>
       <c r="O91" s="176" t="s">
-        <v>1656</v>
+        <v>1692</v>
       </c>
       <c r="P91" s="176" t="s">
-        <v>1657</v>
+        <v>1693</v>
       </c>
       <c r="Q91" s="176" t="s">
-        <v>1658</v>
+        <v>1694</v>
       </c>
       <c r="R91" s="176" t="s">
-        <v>1659</v>
+        <v>1695</v>
       </c>
       <c r="S91" s="176" t="s">
-        <v>1660</v>
+        <v>1696</v>
       </c>
       <c r="T91" s="176" t="s">
-        <v>1661</v>
+        <v>1697</v>
       </c>
       <c r="U91" s="176" t="s">
-        <v>1662</v>
+        <v>1698</v>
       </c>
       <c r="V91" s="176" t="s">
-        <v>1663</v>
+        <v>1699</v>
       </c>
       <c r="W91" s="176" t="s">
-        <v>1664</v>
+        <v>1700</v>
       </c>
       <c r="X91" s="176" t="s">
-        <v>1665</v>
+        <v>1701</v>
       </c>
       <c r="Y91" s="176" t="s">
-        <v>1666</v>
+        <v>1702</v>
       </c>
       <c r="Z91" s="176" t="s">
-        <v>1667</v>
+        <v>1703</v>
       </c>
       <c r="AA91" s="176" t="s">
-        <v>1668</v>
+        <v>1704</v>
       </c>
       <c r="AB91" s="176" t="s">
-        <v>1669</v>
+        <v>1705</v>
       </c>
       <c r="AC91" s="177" t="s">
-        <v>1670</v>
+        <v>1706</v>
       </c>
       <c r="AD91" s="100"/>
       <c r="AE91" s="178">
@@ -23451,8 +23654,12 @@
       </c>
       <c r="N92" s="134"/>
       <c r="O92" s="134"/>
-      <c r="P92" s="134"/>
-      <c r="Q92" s="134"/>
+      <c r="P92" s="183">
+        <v>283.0</v>
+      </c>
+      <c r="Q92" s="183">
+        <v>284.0</v>
+      </c>
       <c r="R92" s="134"/>
       <c r="S92" s="134"/>
       <c r="T92" s="183">
@@ -23499,39 +23706,43 @@
       </c>
       <c r="C93" s="100"/>
       <c r="D93" s="184" t="s">
-        <v>1671</v>
+        <v>1707</v>
       </c>
       <c r="E93" s="185" t="s">
         <v>58</v>
       </c>
       <c r="F93" s="185" t="s">
-        <v>1672</v>
+        <v>1708</v>
       </c>
       <c r="G93" s="185" t="s">
-        <v>1673</v>
+        <v>1709</v>
       </c>
       <c r="H93" s="185" t="s">
         <v>58</v>
       </c>
       <c r="I93" s="185" t="s">
-        <v>1674</v>
+        <v>1710</v>
       </c>
       <c r="J93" s="185" t="s">
-        <v>1675</v>
+        <v>1711</v>
       </c>
       <c r="K93" s="185" t="s">
-        <v>1676</v>
+        <v>1712</v>
       </c>
       <c r="L93" s="185" t="s">
-        <v>1677</v>
+        <v>1713</v>
       </c>
       <c r="M93" s="185" t="s">
         <v>419</v>
       </c>
       <c r="N93" s="138"/>
       <c r="O93" s="138"/>
-      <c r="P93" s="138"/>
-      <c r="Q93" s="138"/>
+      <c r="P93" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q93" s="185" t="s">
+        <v>431</v>
+      </c>
       <c r="R93" s="138"/>
       <c r="S93" s="138"/>
       <c r="T93" s="185" t="s">
@@ -23544,25 +23755,25 @@
         <v>58</v>
       </c>
       <c r="W93" s="185" t="s">
-        <v>1678</v>
+        <v>1714</v>
       </c>
       <c r="X93" s="185" t="s">
-        <v>1679</v>
+        <v>1715</v>
       </c>
       <c r="Y93" s="185" t="s">
-        <v>1680</v>
+        <v>1716</v>
       </c>
       <c r="Z93" s="185" t="s">
-        <v>1681</v>
+        <v>1717</v>
       </c>
       <c r="AA93" s="185" t="s">
-        <v>1682</v>
+        <v>1718</v>
       </c>
       <c r="AB93" s="185" t="s">
         <v>58</v>
       </c>
       <c r="AC93" s="136" t="s">
-        <v>1683</v>
+        <v>1719</v>
       </c>
       <c r="AD93" s="140"/>
       <c r="AE93" s="141"/>
@@ -23609,8 +23820,12 @@
       </c>
       <c r="N94" s="147"/>
       <c r="O94" s="147"/>
-      <c r="P94" s="147"/>
-      <c r="Q94" s="147"/>
+      <c r="P94" s="187">
+        <v>73.0</v>
+      </c>
+      <c r="Q94" s="187">
+        <v>75.0</v>
+      </c>
       <c r="R94" s="147"/>
       <c r="S94" s="147"/>
       <c r="T94" s="187">
@@ -23663,7 +23878,7 @@
         <v>1407</v>
       </c>
       <c r="F95" s="189" t="s">
-        <v>1684</v>
+        <v>1720</v>
       </c>
       <c r="G95" s="189" t="s">
         <v>58</v>
@@ -23688,8 +23903,12 @@
       </c>
       <c r="N95" s="155"/>
       <c r="O95" s="155"/>
-      <c r="P95" s="155"/>
-      <c r="Q95" s="155"/>
+      <c r="P95" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q95" s="189" t="s">
+        <v>1721</v>
+      </c>
       <c r="R95" s="155"/>
       <c r="S95" s="155"/>
       <c r="T95" s="189" t="s">
@@ -23705,7 +23924,7 @@
         <v>1410</v>
       </c>
       <c r="X95" s="189" t="s">
-        <v>1685</v>
+        <v>1722</v>
       </c>
       <c r="Y95" s="189" t="s">
         <v>447</v>
@@ -23720,7 +23939,7 @@
         <v>1407</v>
       </c>
       <c r="AC95" s="153" t="s">
-        <v>1686</v>
+        <v>1723</v>
       </c>
       <c r="AD95" s="100"/>
       <c r="AE95" s="157"/>
@@ -24049,28 +24268,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="200" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C4" s="201" t="s">
-        <v>1688</v>
+        <v>1725</v>
       </c>
       <c r="D4" s="202" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E4" s="203" t="s">
-        <v>1690</v>
+        <v>1727</v>
       </c>
       <c r="F4" s="204" t="s">
-        <v>1691</v>
+        <v>1728</v>
       </c>
       <c r="G4" s="202" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H4" s="205" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="206" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -24088,676 +24307,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C6" s="210" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E6" s="193"/>
       <c r="F6" s="194" t="s">
-        <v>1693</v>
+        <v>1730</v>
       </c>
       <c r="G6" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H6" s="195">
         <v>1.0</v>
       </c>
       <c r="I6" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C7" s="210" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E7" s="193"/>
       <c r="F7" s="194" t="s">
-        <v>1694</v>
+        <v>1731</v>
       </c>
       <c r="G7" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H7" s="195">
         <v>2.0</v>
       </c>
       <c r="I7" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C8" s="210" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E8" s="193"/>
       <c r="F8" s="194" t="s">
-        <v>1695</v>
+        <v>1732</v>
       </c>
       <c r="G8" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H8" s="195">
         <v>3.0</v>
       </c>
       <c r="I8" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C9" s="210" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E9" s="193"/>
       <c r="F9" s="194" t="s">
-        <v>1696</v>
+        <v>1733</v>
       </c>
       <c r="G9" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H9" s="195">
         <v>4.0</v>
       </c>
       <c r="I9" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C10" s="210" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E10" s="193"/>
       <c r="F10" s="194" t="s">
-        <v>1697</v>
+        <v>1734</v>
       </c>
       <c r="G10" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H10" s="195">
         <v>5.0</v>
       </c>
       <c r="I10" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C11" s="210" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E11" s="193"/>
       <c r="F11" s="194" t="s">
-        <v>1698</v>
+        <v>1735</v>
       </c>
       <c r="G11" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H11" s="195">
         <v>6.0</v>
       </c>
       <c r="I11" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C12" s="210" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E12" s="193"/>
       <c r="F12" s="194" t="s">
-        <v>1699</v>
+        <v>1736</v>
       </c>
       <c r="G12" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H12" s="195">
         <v>7.0</v>
       </c>
       <c r="I12" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C13" s="210" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E13" s="193"/>
       <c r="F13" s="194" t="s">
-        <v>1700</v>
+        <v>1737</v>
       </c>
       <c r="G13" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H13" s="195">
         <v>8.0</v>
       </c>
       <c r="I13" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C14" s="210" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E14" s="193"/>
       <c r="F14" s="194" t="s">
-        <v>1701</v>
+        <v>1738</v>
       </c>
       <c r="G14" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H14" s="195">
         <v>9.0</v>
       </c>
       <c r="I14" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C15" s="210" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E15" s="193"/>
       <c r="F15" s="194" t="s">
-        <v>1702</v>
+        <v>1739</v>
       </c>
       <c r="G15" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H15" s="195">
         <v>10.0</v>
       </c>
       <c r="I15" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C16" s="210" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E16" s="193"/>
       <c r="F16" s="194" t="s">
-        <v>1703</v>
+        <v>1740</v>
       </c>
       <c r="G16" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H16" s="195">
         <v>11.0</v>
       </c>
       <c r="I16" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C17" s="210" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E17" s="193"/>
       <c r="F17" s="194" t="s">
-        <v>1704</v>
+        <v>1741</v>
       </c>
       <c r="G17" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H17" s="195">
         <v>12.0</v>
       </c>
       <c r="I17" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C18" s="210" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E18" s="193"/>
       <c r="F18" s="194" t="s">
-        <v>1705</v>
+        <v>1742</v>
       </c>
       <c r="G18" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H18" s="195">
         <v>13.0</v>
       </c>
       <c r="I18" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C19" s="210" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E19" s="193"/>
       <c r="F19" s="194" t="s">
-        <v>1706</v>
+        <v>1743</v>
       </c>
       <c r="G19" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H19" s="195">
         <v>14.0</v>
       </c>
       <c r="I19" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C20" s="210" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E20" s="193"/>
       <c r="F20" s="194" t="s">
-        <v>1707</v>
+        <v>1744</v>
       </c>
       <c r="G20" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H20" s="195">
         <v>15.0</v>
       </c>
       <c r="I20" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C21" s="210" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E21" s="193"/>
       <c r="F21" s="194" t="s">
-        <v>1708</v>
+        <v>1745</v>
       </c>
       <c r="G21" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H21" s="195">
         <v>16.0</v>
       </c>
       <c r="I21" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C22" s="210" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E22" s="193"/>
       <c r="F22" s="194" t="s">
-        <v>1709</v>
+        <v>1746</v>
       </c>
       <c r="G22" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H22" s="195">
         <v>17.0</v>
       </c>
       <c r="I22" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C23" s="210" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E23" s="193"/>
       <c r="F23" s="194" t="s">
-        <v>1710</v>
+        <v>1747</v>
       </c>
       <c r="G23" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H23" s="195">
         <v>18.0</v>
       </c>
       <c r="I23" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C24" s="210" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E24" s="193"/>
       <c r="F24" s="194" t="s">
-        <v>1711</v>
+        <v>1748</v>
       </c>
       <c r="G24" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H24" s="195">
         <v>19.0</v>
       </c>
       <c r="I24" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C25" s="210" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E25" s="193"/>
       <c r="F25" s="194" t="s">
-        <v>1712</v>
+        <v>1749</v>
       </c>
       <c r="G25" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H25" s="195">
         <v>20.0</v>
       </c>
       <c r="I25" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C26" s="210" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E26" s="193"/>
       <c r="F26" s="194" t="s">
-        <v>1713</v>
+        <v>1750</v>
       </c>
       <c r="G26" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H26" s="195">
         <v>21.0</v>
       </c>
       <c r="I26" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C27" s="210" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E27" s="193"/>
       <c r="F27" s="194" t="s">
-        <v>1714</v>
+        <v>1751</v>
       </c>
       <c r="G27" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H27" s="195">
         <v>22.0</v>
       </c>
       <c r="I27" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C28" s="210" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E28" s="193"/>
       <c r="F28" s="194" t="s">
-        <v>1715</v>
+        <v>1752</v>
       </c>
       <c r="G28" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H28" s="195">
         <v>23.0</v>
       </c>
       <c r="I28" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C29" s="210" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E29" s="193"/>
       <c r="F29" s="194" t="s">
-        <v>1716</v>
+        <v>1753</v>
       </c>
       <c r="G29" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H29" s="195">
         <v>24.0</v>
       </c>
       <c r="I29" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C30" s="210" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E30" s="193"/>
       <c r="F30" s="194" t="s">
-        <v>1717</v>
+        <v>1754</v>
       </c>
       <c r="G30" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H30" s="195">
         <v>25.0</v>
       </c>
       <c r="I30" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="211" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C31" s="212" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="213" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E31" s="214"/>
       <c r="F31" s="215" t="s">
-        <v>1718</v>
+        <v>1755</v>
       </c>
       <c r="G31" s="213" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H31" s="216">
         <v>26.0</v>
       </c>
       <c r="I31" s="217" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -24775,28 +24994,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="200" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C33" s="201" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="202" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E33" s="203" t="s">
-        <v>1719</v>
+        <v>1756</v>
       </c>
       <c r="F33" s="204" t="s">
-        <v>1720</v>
+        <v>1757</v>
       </c>
       <c r="G33" s="202" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H33" s="205" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="206" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -24814,676 +25033,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C35" s="191" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E35" s="193"/>
       <c r="F35" s="194" t="s">
-        <v>1721</v>
+        <v>1758</v>
       </c>
       <c r="G35" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H35" s="195">
         <v>1.0</v>
       </c>
       <c r="I35" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C36" s="191" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E36" s="193"/>
       <c r="F36" s="194" t="s">
-        <v>1722</v>
+        <v>1759</v>
       </c>
       <c r="G36" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H36" s="195">
         <v>2.0</v>
       </c>
       <c r="I36" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C37" s="191" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E37" s="193"/>
       <c r="F37" s="194" t="s">
-        <v>1723</v>
+        <v>1760</v>
       </c>
       <c r="G37" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H37" s="195">
         <v>3.0</v>
       </c>
       <c r="I37" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C38" s="191" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E38" s="193"/>
       <c r="F38" s="194" t="s">
-        <v>1724</v>
+        <v>1761</v>
       </c>
       <c r="G38" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H38" s="195">
         <v>4.0</v>
       </c>
       <c r="I38" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C39" s="191" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E39" s="193"/>
       <c r="F39" s="194" t="s">
-        <v>1725</v>
+        <v>1762</v>
       </c>
       <c r="G39" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H39" s="195">
         <v>5.0</v>
       </c>
       <c r="I39" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C40" s="191" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E40" s="193"/>
       <c r="F40" s="194" t="s">
-        <v>1726</v>
+        <v>1763</v>
       </c>
       <c r="G40" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H40" s="195">
         <v>6.0</v>
       </c>
       <c r="I40" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C41" s="191" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E41" s="193"/>
       <c r="F41" s="194" t="s">
-        <v>1727</v>
+        <v>1764</v>
       </c>
       <c r="G41" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H41" s="195">
         <v>7.0</v>
       </c>
       <c r="I41" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C42" s="191" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E42" s="193"/>
       <c r="F42" s="194" t="s">
-        <v>1728</v>
+        <v>1765</v>
       </c>
       <c r="G42" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H42" s="195">
         <v>8.0</v>
       </c>
       <c r="I42" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C43" s="191" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E43" s="193"/>
       <c r="F43" s="194" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G43" s="192" t="s">
         <v>1729</v>
-      </c>
-      <c r="G43" s="192" t="s">
-        <v>1692</v>
       </c>
       <c r="H43" s="195">
         <v>9.0</v>
       </c>
       <c r="I43" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C44" s="191" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E44" s="193"/>
       <c r="F44" s="194" t="s">
-        <v>1730</v>
+        <v>1767</v>
       </c>
       <c r="G44" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H44" s="195">
         <v>10.0</v>
       </c>
       <c r="I44" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C45" s="191" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E45" s="193"/>
       <c r="F45" s="194" t="s">
-        <v>1731</v>
+        <v>1768</v>
       </c>
       <c r="G45" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H45" s="195">
         <v>11.0</v>
       </c>
       <c r="I45" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C46" s="191" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E46" s="193"/>
       <c r="F46" s="194" t="s">
-        <v>1732</v>
+        <v>1769</v>
       </c>
       <c r="G46" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H46" s="195">
         <v>12.0</v>
       </c>
       <c r="I46" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C47" s="191" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E47" s="193"/>
       <c r="F47" s="194" t="s">
-        <v>1733</v>
+        <v>1770</v>
       </c>
       <c r="G47" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H47" s="195">
         <v>13.0</v>
       </c>
       <c r="I47" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C48" s="191" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E48" s="193"/>
       <c r="F48" s="194" t="s">
-        <v>1734</v>
+        <v>1771</v>
       </c>
       <c r="G48" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H48" s="195">
         <v>14.0</v>
       </c>
       <c r="I48" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C49" s="191" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E49" s="193"/>
       <c r="F49" s="194" t="s">
-        <v>1735</v>
+        <v>1772</v>
       </c>
       <c r="G49" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H49" s="195">
         <v>15.0</v>
       </c>
       <c r="I49" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C50" s="191" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E50" s="193"/>
       <c r="F50" s="194" t="s">
-        <v>1736</v>
+        <v>1773</v>
       </c>
       <c r="G50" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H50" s="195">
         <v>16.0</v>
       </c>
       <c r="I50" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C51" s="191" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E51" s="193"/>
       <c r="F51" s="194" t="s">
-        <v>1737</v>
+        <v>1774</v>
       </c>
       <c r="G51" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H51" s="195">
         <v>17.0</v>
       </c>
       <c r="I51" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C52" s="191" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E52" s="193"/>
       <c r="F52" s="194" t="s">
-        <v>1738</v>
+        <v>1775</v>
       </c>
       <c r="G52" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H52" s="195">
         <v>18.0</v>
       </c>
       <c r="I52" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C53" s="191" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E53" s="193"/>
       <c r="F53" s="194" t="s">
-        <v>1739</v>
+        <v>1776</v>
       </c>
       <c r="G53" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H53" s="195">
         <v>19.0</v>
       </c>
       <c r="I53" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C54" s="191" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E54" s="193"/>
       <c r="F54" s="194" t="s">
-        <v>1740</v>
+        <v>1777</v>
       </c>
       <c r="G54" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H54" s="195">
         <v>20.0</v>
       </c>
       <c r="I54" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C55" s="191" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E55" s="193"/>
       <c r="F55" s="194" t="s">
-        <v>1741</v>
+        <v>1778</v>
       </c>
       <c r="G55" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H55" s="195">
         <v>21.0</v>
       </c>
       <c r="I55" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C56" s="191" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E56" s="193"/>
       <c r="F56" s="194" t="s">
-        <v>1742</v>
+        <v>1779</v>
       </c>
       <c r="G56" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H56" s="195">
         <v>22.0</v>
       </c>
       <c r="I56" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C57" s="191" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E57" s="193"/>
       <c r="F57" s="194" t="s">
-        <v>1743</v>
+        <v>1780</v>
       </c>
       <c r="G57" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H57" s="195">
         <v>23.0</v>
       </c>
       <c r="I57" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C58" s="191" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E58" s="193"/>
       <c r="F58" s="194" t="s">
-        <v>1744</v>
+        <v>1781</v>
       </c>
       <c r="G58" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H58" s="195">
         <v>24.0</v>
       </c>
       <c r="I58" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C59" s="191" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E59" s="193"/>
       <c r="F59" s="194" t="s">
-        <v>1745</v>
+        <v>1782</v>
       </c>
       <c r="G59" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H59" s="195">
         <v>25.0</v>
       </c>
       <c r="I59" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="211" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C60" s="218" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="213" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E60" s="214"/>
       <c r="F60" s="215" t="s">
-        <v>1746</v>
+        <v>1783</v>
       </c>
       <c r="G60" s="213" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H60" s="216">
         <v>26.0</v>
       </c>
       <c r="I60" s="217" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -25501,28 +25720,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="200" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C62" s="201" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="202" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E62" s="203" t="s">
-        <v>1747</v>
+        <v>1784</v>
       </c>
       <c r="F62" s="204" t="s">
-        <v>1748</v>
+        <v>1785</v>
       </c>
       <c r="G62" s="202" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H62" s="205" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="206" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -25540,676 +25759,676 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C64" s="191" t="s">
         <v>452</v>
       </c>
       <c r="D64" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E64" s="193"/>
       <c r="F64" s="194" t="s">
-        <v>1749</v>
+        <v>1786</v>
       </c>
       <c r="G64" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H64" s="195">
         <v>1.0</v>
       </c>
       <c r="I64" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C65" s="191" t="s">
         <v>453</v>
       </c>
       <c r="D65" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E65" s="193"/>
       <c r="F65" s="194" t="s">
-        <v>1750</v>
+        <v>1787</v>
       </c>
       <c r="G65" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H65" s="195">
         <v>2.0</v>
       </c>
       <c r="I65" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C66" s="191" t="s">
         <v>454</v>
       </c>
       <c r="D66" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E66" s="193"/>
       <c r="F66" s="194" t="s">
-        <v>1751</v>
+        <v>1788</v>
       </c>
       <c r="G66" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H66" s="195">
         <v>3.0</v>
       </c>
       <c r="I66" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C67" s="191" t="s">
         <v>455</v>
       </c>
       <c r="D67" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E67" s="193"/>
       <c r="F67" s="194" t="s">
-        <v>1752</v>
+        <v>1789</v>
       </c>
       <c r="G67" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H67" s="195">
         <v>4.0</v>
       </c>
       <c r="I67" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C68" s="191" t="s">
         <v>456</v>
       </c>
       <c r="D68" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E68" s="193"/>
       <c r="F68" s="194" t="s">
-        <v>1753</v>
+        <v>1790</v>
       </c>
       <c r="G68" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H68" s="195">
         <v>5.0</v>
       </c>
       <c r="I68" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C69" s="191" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E69" s="193"/>
       <c r="F69" s="194" t="s">
-        <v>1754</v>
+        <v>1791</v>
       </c>
       <c r="G69" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H69" s="195">
         <v>6.0</v>
       </c>
       <c r="I69" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C70" s="191" t="s">
         <v>458</v>
       </c>
       <c r="D70" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E70" s="193"/>
       <c r="F70" s="194" t="s">
-        <v>1755</v>
+        <v>1792</v>
       </c>
       <c r="G70" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H70" s="195">
         <v>7.0</v>
       </c>
       <c r="I70" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C71" s="191" t="s">
         <v>459</v>
       </c>
       <c r="D71" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E71" s="193"/>
       <c r="F71" s="194" t="s">
-        <v>1756</v>
+        <v>1793</v>
       </c>
       <c r="G71" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H71" s="195">
         <v>8.0</v>
       </c>
       <c r="I71" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C72" s="191" t="s">
         <v>460</v>
       </c>
       <c r="D72" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E72" s="193"/>
       <c r="F72" s="194" t="s">
-        <v>1757</v>
+        <v>1794</v>
       </c>
       <c r="G72" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H72" s="195">
         <v>9.0</v>
       </c>
       <c r="I72" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C73" s="191" t="s">
         <v>461</v>
       </c>
       <c r="D73" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E73" s="193"/>
       <c r="F73" s="194" t="s">
-        <v>1758</v>
+        <v>1795</v>
       </c>
       <c r="G73" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H73" s="195">
         <v>10.0</v>
       </c>
       <c r="I73" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C74" s="191" t="s">
         <v>462</v>
       </c>
       <c r="D74" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E74" s="193"/>
       <c r="F74" s="194" t="s">
-        <v>1759</v>
+        <v>1796</v>
       </c>
       <c r="G74" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H74" s="195">
         <v>11.0</v>
       </c>
       <c r="I74" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C75" s="191" t="s">
         <v>463</v>
       </c>
       <c r="D75" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E75" s="193"/>
       <c r="F75" s="194" t="s">
-        <v>1760</v>
+        <v>1797</v>
       </c>
       <c r="G75" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H75" s="195">
         <v>12.0</v>
       </c>
       <c r="I75" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C76" s="191" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E76" s="193"/>
       <c r="F76" s="194" t="s">
-        <v>1761</v>
+        <v>1798</v>
       </c>
       <c r="G76" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H76" s="195">
         <v>13.0</v>
       </c>
       <c r="I76" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C77" s="191" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E77" s="193"/>
       <c r="F77" s="194" t="s">
-        <v>1762</v>
+        <v>1799</v>
       </c>
       <c r="G77" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H77" s="195">
         <v>14.0</v>
       </c>
       <c r="I77" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C78" s="191" t="s">
         <v>466</v>
       </c>
       <c r="D78" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E78" s="193"/>
       <c r="F78" s="194" t="s">
-        <v>1763</v>
+        <v>1800</v>
       </c>
       <c r="G78" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H78" s="195">
         <v>15.0</v>
       </c>
       <c r="I78" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C79" s="191" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E79" s="193"/>
       <c r="F79" s="194" t="s">
-        <v>1764</v>
+        <v>1801</v>
       </c>
       <c r="G79" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H79" s="195">
         <v>16.0</v>
       </c>
       <c r="I79" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C80" s="191" t="s">
         <v>468</v>
       </c>
       <c r="D80" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E80" s="193"/>
       <c r="F80" s="194" t="s">
-        <v>1765</v>
+        <v>1802</v>
       </c>
       <c r="G80" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H80" s="195">
         <v>17.0</v>
       </c>
       <c r="I80" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C81" s="191" t="s">
         <v>469</v>
       </c>
       <c r="D81" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E81" s="193"/>
       <c r="F81" s="194" t="s">
-        <v>1766</v>
+        <v>1803</v>
       </c>
       <c r="G81" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H81" s="195">
         <v>18.0</v>
       </c>
       <c r="I81" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C82" s="191" t="s">
         <v>470</v>
       </c>
       <c r="D82" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E82" s="193"/>
       <c r="F82" s="194" t="s">
-        <v>1767</v>
+        <v>1804</v>
       </c>
       <c r="G82" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H82" s="195">
         <v>19.0</v>
       </c>
       <c r="I82" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C83" s="191" t="s">
         <v>471</v>
       </c>
       <c r="D83" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E83" s="193"/>
       <c r="F83" s="194" t="s">
-        <v>1768</v>
+        <v>1805</v>
       </c>
       <c r="G83" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H83" s="195">
         <v>20.0</v>
       </c>
       <c r="I83" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C84" s="191" t="s">
         <v>472</v>
       </c>
       <c r="D84" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E84" s="193"/>
       <c r="F84" s="194" t="s">
-        <v>1769</v>
+        <v>1806</v>
       </c>
       <c r="G84" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H84" s="195">
         <v>21.0</v>
       </c>
       <c r="I84" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C85" s="191" t="s">
         <v>473</v>
       </c>
       <c r="D85" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E85" s="193"/>
       <c r="F85" s="194" t="s">
-        <v>1770</v>
+        <v>1807</v>
       </c>
       <c r="G85" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H85" s="195">
         <v>22.0</v>
       </c>
       <c r="I85" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C86" s="191" t="s">
         <v>474</v>
       </c>
       <c r="D86" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E86" s="193"/>
       <c r="F86" s="194" t="s">
-        <v>1771</v>
+        <v>1808</v>
       </c>
       <c r="G86" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H86" s="195">
         <v>23.0</v>
       </c>
       <c r="I86" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C87" s="191" t="s">
         <v>475</v>
       </c>
       <c r="D87" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E87" s="193"/>
       <c r="F87" s="194" t="s">
-        <v>1772</v>
+        <v>1809</v>
       </c>
       <c r="G87" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H87" s="195">
         <v>24.0</v>
       </c>
       <c r="I87" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C88" s="191" t="s">
         <v>476</v>
       </c>
       <c r="D88" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E88" s="193"/>
       <c r="F88" s="194" t="s">
-        <v>1773</v>
+        <v>1810</v>
       </c>
       <c r="G88" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H88" s="195">
         <v>25.0</v>
       </c>
       <c r="I88" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="211" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C89" s="218" t="s">
         <v>477</v>
       </c>
       <c r="D89" s="213" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E89" s="214"/>
       <c r="F89" s="215" t="s">
-        <v>1774</v>
+        <v>1811</v>
       </c>
       <c r="G89" s="213" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H89" s="216">
         <v>26.0</v>
       </c>
       <c r="I89" s="217" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -26227,28 +26446,28 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="200" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C91" s="201" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="202" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E91" s="203" t="s">
-        <v>1775</v>
+        <v>1812</v>
       </c>
       <c r="F91" s="204" t="s">
-        <v>1776</v>
+        <v>1813</v>
       </c>
       <c r="G91" s="202" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H91" s="205" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="206" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -26266,676 +26485,676 @@
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C93" s="191" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E93" s="193"/>
       <c r="F93" s="194" t="s">
-        <v>1777</v>
+        <v>1814</v>
       </c>
       <c r="G93" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H93" s="195">
         <v>1.0</v>
       </c>
       <c r="I93" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C94" s="191" t="s">
         <v>730</v>
       </c>
       <c r="D94" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E94" s="193"/>
       <c r="F94" s="194" t="s">
-        <v>1778</v>
+        <v>1815</v>
       </c>
       <c r="G94" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H94" s="195">
         <v>2.0</v>
       </c>
       <c r="I94" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C95" s="191" t="s">
         <v>731</v>
       </c>
       <c r="D95" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E95" s="193"/>
       <c r="F95" s="194" t="s">
-        <v>1779</v>
+        <v>1816</v>
       </c>
       <c r="G95" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H95" s="195">
         <v>3.0</v>
       </c>
       <c r="I95" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C96" s="191" t="s">
         <v>732</v>
       </c>
       <c r="D96" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E96" s="193"/>
       <c r="F96" s="194" t="s">
-        <v>1780</v>
+        <v>1817</v>
       </c>
       <c r="G96" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H96" s="195">
         <v>4.0</v>
       </c>
       <c r="I96" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C97" s="191" t="s">
         <v>733</v>
       </c>
       <c r="D97" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E97" s="193"/>
       <c r="F97" s="194" t="s">
-        <v>1781</v>
+        <v>1818</v>
       </c>
       <c r="G97" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H97" s="195">
         <v>5.0</v>
       </c>
       <c r="I97" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C98" s="191" t="s">
         <v>734</v>
       </c>
       <c r="D98" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E98" s="193"/>
       <c r="F98" s="194" t="s">
-        <v>1782</v>
+        <v>1819</v>
       </c>
       <c r="G98" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H98" s="195">
         <v>6.0</v>
       </c>
       <c r="I98" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C99" s="191" t="s">
         <v>735</v>
       </c>
       <c r="D99" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E99" s="193"/>
       <c r="F99" s="194" t="s">
-        <v>1783</v>
+        <v>1820</v>
       </c>
       <c r="G99" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H99" s="195">
         <v>7.0</v>
       </c>
       <c r="I99" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C100" s="191" t="s">
         <v>736</v>
       </c>
       <c r="D100" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E100" s="193"/>
       <c r="F100" s="194" t="s">
-        <v>1784</v>
+        <v>1821</v>
       </c>
       <c r="G100" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H100" s="195">
         <v>8.0</v>
       </c>
       <c r="I100" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C101" s="191" t="s">
         <v>737</v>
       </c>
       <c r="D101" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E101" s="193"/>
       <c r="F101" s="194" t="s">
-        <v>1785</v>
+        <v>1822</v>
       </c>
       <c r="G101" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H101" s="195">
         <v>9.0</v>
       </c>
       <c r="I101" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C102" s="191" t="s">
         <v>738</v>
       </c>
       <c r="D102" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E102" s="193"/>
       <c r="F102" s="194" t="s">
-        <v>1786</v>
+        <v>1823</v>
       </c>
       <c r="G102" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H102" s="195">
         <v>10.0</v>
       </c>
       <c r="I102" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C103" s="191" t="s">
         <v>739</v>
       </c>
       <c r="D103" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E103" s="193"/>
       <c r="F103" s="194" t="s">
-        <v>1787</v>
+        <v>1824</v>
       </c>
       <c r="G103" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H103" s="195">
         <v>11.0</v>
       </c>
       <c r="I103" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C104" s="191" t="s">
         <v>740</v>
       </c>
       <c r="D104" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E104" s="193"/>
       <c r="F104" s="194" t="s">
-        <v>1788</v>
+        <v>1825</v>
       </c>
       <c r="G104" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H104" s="195">
         <v>12.0</v>
       </c>
       <c r="I104" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C105" s="191" t="s">
         <v>741</v>
       </c>
       <c r="D105" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E105" s="193"/>
       <c r="F105" s="194" t="s">
-        <v>1789</v>
+        <v>1826</v>
       </c>
       <c r="G105" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H105" s="195">
         <v>13.0</v>
       </c>
       <c r="I105" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C106" s="191" t="s">
         <v>742</v>
       </c>
       <c r="D106" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E106" s="193"/>
       <c r="F106" s="194" t="s">
-        <v>1790</v>
+        <v>1827</v>
       </c>
       <c r="G106" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H106" s="195">
         <v>14.0</v>
       </c>
       <c r="I106" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C107" s="191" t="s">
         <v>743</v>
       </c>
       <c r="D107" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E107" s="193"/>
       <c r="F107" s="194" t="s">
-        <v>1791</v>
+        <v>1828</v>
       </c>
       <c r="G107" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H107" s="195">
         <v>15.0</v>
       </c>
       <c r="I107" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C108" s="191" t="s">
         <v>744</v>
       </c>
       <c r="D108" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E108" s="193"/>
       <c r="F108" s="194" t="s">
-        <v>1792</v>
+        <v>1829</v>
       </c>
       <c r="G108" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H108" s="195">
         <v>16.0</v>
       </c>
       <c r="I108" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C109" s="191" t="s">
         <v>745</v>
       </c>
       <c r="D109" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E109" s="193"/>
       <c r="F109" s="194" t="s">
-        <v>1793</v>
+        <v>1830</v>
       </c>
       <c r="G109" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H109" s="195">
         <v>17.0</v>
       </c>
       <c r="I109" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C110" s="191" t="s">
         <v>746</v>
       </c>
       <c r="D110" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E110" s="193"/>
       <c r="F110" s="194" t="s">
-        <v>1794</v>
+        <v>1831</v>
       </c>
       <c r="G110" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H110" s="195">
         <v>18.0</v>
       </c>
       <c r="I110" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C111" s="191" t="s">
         <v>747</v>
       </c>
       <c r="D111" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E111" s="193"/>
       <c r="F111" s="194" t="s">
-        <v>1795</v>
+        <v>1832</v>
       </c>
       <c r="G111" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H111" s="195">
         <v>19.0</v>
       </c>
       <c r="I111" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C112" s="191" t="s">
         <v>748</v>
       </c>
       <c r="D112" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E112" s="193"/>
       <c r="F112" s="194" t="s">
-        <v>1796</v>
+        <v>1833</v>
       </c>
       <c r="G112" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H112" s="195">
         <v>20.0</v>
       </c>
       <c r="I112" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C113" s="191" t="s">
         <v>749</v>
       </c>
       <c r="D113" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E113" s="193"/>
       <c r="F113" s="194" t="s">
-        <v>1797</v>
+        <v>1834</v>
       </c>
       <c r="G113" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H113" s="195">
         <v>21.0</v>
       </c>
       <c r="I113" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C114" s="191" t="s">
         <v>750</v>
       </c>
       <c r="D114" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E114" s="193"/>
       <c r="F114" s="194" t="s">
-        <v>1798</v>
+        <v>1835</v>
       </c>
       <c r="G114" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H114" s="195">
         <v>22.0</v>
       </c>
       <c r="I114" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C115" s="191" t="s">
         <v>751</v>
       </c>
       <c r="D115" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E115" s="193"/>
       <c r="F115" s="194" t="s">
-        <v>1799</v>
+        <v>1836</v>
       </c>
       <c r="G115" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H115" s="195">
         <v>23.0</v>
       </c>
       <c r="I115" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C116" s="191" t="s">
         <v>752</v>
       </c>
       <c r="D116" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E116" s="193"/>
       <c r="F116" s="194" t="s">
-        <v>1800</v>
+        <v>1837</v>
       </c>
       <c r="G116" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H116" s="195">
         <v>24.0</v>
       </c>
       <c r="I116" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C117" s="191" t="s">
         <v>753</v>
       </c>
       <c r="D117" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E117" s="193"/>
       <c r="F117" s="194" t="s">
-        <v>1801</v>
+        <v>1838</v>
       </c>
       <c r="G117" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H117" s="195">
         <v>25.0</v>
       </c>
       <c r="I117" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="211" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C118" s="218" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="213" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E118" s="214"/>
       <c r="F118" s="215" t="s">
-        <v>1802</v>
+        <v>1839</v>
       </c>
       <c r="G118" s="213" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H118" s="216">
         <v>26.0</v>
       </c>
       <c r="I118" s="217" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J118" s="1"/>
     </row>
@@ -26953,28 +27172,28 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="200" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C120" s="201" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="202" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E120" s="203" t="s">
-        <v>1803</v>
+        <v>1840</v>
       </c>
       <c r="F120" s="204" t="s">
-        <v>1804</v>
+        <v>1841</v>
       </c>
       <c r="G120" s="202" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H120" s="205" t="s">
         <v>3</v>
       </c>
       <c r="I120" s="206" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J120" s="1"/>
     </row>
@@ -26992,676 +27211,676 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C122" s="191" t="s">
         <v>1045</v>
       </c>
       <c r="D122" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E122" s="193"/>
       <c r="F122" s="194" t="s">
-        <v>1805</v>
+        <v>1842</v>
       </c>
       <c r="G122" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H122" s="195">
         <v>1.0</v>
       </c>
       <c r="I122" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C123" s="191" t="s">
         <v>1046</v>
       </c>
       <c r="D123" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E123" s="193"/>
       <c r="F123" s="194" t="s">
-        <v>1806</v>
+        <v>1843</v>
       </c>
       <c r="G123" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H123" s="195">
         <v>2.0</v>
       </c>
       <c r="I123" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C124" s="191" t="s">
         <v>1047</v>
       </c>
       <c r="D124" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E124" s="193"/>
       <c r="F124" s="194" t="s">
-        <v>1807</v>
+        <v>1844</v>
       </c>
       <c r="G124" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H124" s="195">
         <v>3.0</v>
       </c>
       <c r="I124" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C125" s="191" t="s">
         <v>1048</v>
       </c>
       <c r="D125" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E125" s="193"/>
       <c r="F125" s="194" t="s">
-        <v>1808</v>
+        <v>1845</v>
       </c>
       <c r="G125" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H125" s="195">
         <v>4.0</v>
       </c>
       <c r="I125" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C126" s="191" t="s">
         <v>1049</v>
       </c>
       <c r="D126" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E126" s="193"/>
       <c r="F126" s="194" t="s">
-        <v>1809</v>
+        <v>1846</v>
       </c>
       <c r="G126" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H126" s="195">
         <v>5.0</v>
       </c>
       <c r="I126" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C127" s="191" t="s">
         <v>1050</v>
       </c>
       <c r="D127" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E127" s="193"/>
       <c r="F127" s="194" t="s">
-        <v>1810</v>
+        <v>1847</v>
       </c>
       <c r="G127" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H127" s="195">
         <v>6.0</v>
       </c>
       <c r="I127" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C128" s="191" t="s">
         <v>1051</v>
       </c>
       <c r="D128" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E128" s="193"/>
       <c r="F128" s="194" t="s">
-        <v>1811</v>
+        <v>1848</v>
       </c>
       <c r="G128" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H128" s="195">
         <v>7.0</v>
       </c>
       <c r="I128" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C129" s="191" t="s">
         <v>1052</v>
       </c>
       <c r="D129" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E129" s="193"/>
       <c r="F129" s="194" t="s">
-        <v>1812</v>
+        <v>1849</v>
       </c>
       <c r="G129" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H129" s="195">
         <v>8.0</v>
       </c>
       <c r="I129" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C130" s="191" t="s">
         <v>1053</v>
       </c>
       <c r="D130" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E130" s="193"/>
       <c r="F130" s="194" t="s">
-        <v>1813</v>
+        <v>1850</v>
       </c>
       <c r="G130" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H130" s="195">
         <v>9.0</v>
       </c>
       <c r="I130" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C131" s="191" t="s">
         <v>1054</v>
       </c>
       <c r="D131" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E131" s="193"/>
       <c r="F131" s="194" t="s">
-        <v>1814</v>
+        <v>1851</v>
       </c>
       <c r="G131" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H131" s="195">
         <v>10.0</v>
       </c>
       <c r="I131" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C132" s="191" t="s">
         <v>1055</v>
       </c>
       <c r="D132" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E132" s="193"/>
       <c r="F132" s="194" t="s">
-        <v>1815</v>
+        <v>1852</v>
       </c>
       <c r="G132" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H132" s="195">
         <v>11.0</v>
       </c>
       <c r="I132" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C133" s="191" t="s">
         <v>1056</v>
       </c>
       <c r="D133" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E133" s="193"/>
       <c r="F133" s="194" t="s">
-        <v>1816</v>
+        <v>1853</v>
       </c>
       <c r="G133" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H133" s="195">
         <v>12.0</v>
       </c>
       <c r="I133" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C134" s="191" t="s">
         <v>1057</v>
       </c>
       <c r="D134" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E134" s="193"/>
       <c r="F134" s="194" t="s">
-        <v>1817</v>
+        <v>1854</v>
       </c>
       <c r="G134" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H134" s="195">
         <v>13.0</v>
       </c>
       <c r="I134" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C135" s="191" t="s">
         <v>1058</v>
       </c>
       <c r="D135" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E135" s="193"/>
       <c r="F135" s="194" t="s">
-        <v>1818</v>
+        <v>1855</v>
       </c>
       <c r="G135" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H135" s="195">
         <v>14.0</v>
       </c>
       <c r="I135" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C136" s="191" t="s">
         <v>1059</v>
       </c>
       <c r="D136" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E136" s="193"/>
       <c r="F136" s="194" t="s">
-        <v>1819</v>
+        <v>1856</v>
       </c>
       <c r="G136" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H136" s="195">
         <v>15.0</v>
       </c>
       <c r="I136" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C137" s="191" t="s">
         <v>1060</v>
       </c>
       <c r="D137" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E137" s="193"/>
       <c r="F137" s="194" t="s">
-        <v>1820</v>
+        <v>1857</v>
       </c>
       <c r="G137" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H137" s="195">
         <v>16.0</v>
       </c>
       <c r="I137" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C138" s="191" t="s">
         <v>1061</v>
       </c>
       <c r="D138" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E138" s="193"/>
       <c r="F138" s="194" t="s">
-        <v>1821</v>
+        <v>1858</v>
       </c>
       <c r="G138" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H138" s="195">
         <v>17.0</v>
       </c>
       <c r="I138" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C139" s="191" t="s">
         <v>1062</v>
       </c>
       <c r="D139" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E139" s="193"/>
       <c r="F139" s="194" t="s">
-        <v>1822</v>
+        <v>1859</v>
       </c>
       <c r="G139" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H139" s="195">
         <v>18.0</v>
       </c>
       <c r="I139" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C140" s="191" t="s">
         <v>1063</v>
       </c>
       <c r="D140" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E140" s="193"/>
       <c r="F140" s="194" t="s">
-        <v>1823</v>
+        <v>1860</v>
       </c>
       <c r="G140" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H140" s="195">
         <v>19.0</v>
       </c>
       <c r="I140" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C141" s="191" t="s">
         <v>1064</v>
       </c>
       <c r="D141" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E141" s="193"/>
       <c r="F141" s="194" t="s">
-        <v>1824</v>
+        <v>1861</v>
       </c>
       <c r="G141" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H141" s="195">
         <v>20.0</v>
       </c>
       <c r="I141" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C142" s="191" t="s">
         <v>1065</v>
       </c>
       <c r="D142" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E142" s="193"/>
       <c r="F142" s="194" t="s">
-        <v>1825</v>
+        <v>1862</v>
       </c>
       <c r="G142" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H142" s="195">
         <v>21.0</v>
       </c>
       <c r="I142" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C143" s="191" t="s">
         <v>1066</v>
       </c>
       <c r="D143" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E143" s="193"/>
       <c r="F143" s="194" t="s">
-        <v>1826</v>
+        <v>1863</v>
       </c>
       <c r="G143" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H143" s="195">
         <v>22.0</v>
       </c>
       <c r="I143" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C144" s="191" t="s">
         <v>1067</v>
       </c>
       <c r="D144" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E144" s="193"/>
       <c r="F144" s="194" t="s">
-        <v>1827</v>
+        <v>1864</v>
       </c>
       <c r="G144" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H144" s="195">
         <v>23.0</v>
       </c>
       <c r="I144" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C145" s="191" t="s">
         <v>1068</v>
       </c>
       <c r="D145" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E145" s="193"/>
       <c r="F145" s="194" t="s">
-        <v>1828</v>
+        <v>1865</v>
       </c>
       <c r="G145" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H145" s="195">
         <v>24.0</v>
       </c>
       <c r="I145" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C146" s="191" t="s">
         <v>1069</v>
       </c>
       <c r="D146" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E146" s="193"/>
       <c r="F146" s="194" t="s">
-        <v>1829</v>
+        <v>1866</v>
       </c>
       <c r="G146" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H146" s="195">
         <v>25.0</v>
       </c>
       <c r="I146" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="211" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C147" s="218" t="s">
         <v>1070</v>
       </c>
       <c r="D147" s="213" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E147" s="214"/>
       <c r="F147" s="215" t="s">
-        <v>1830</v>
+        <v>1867</v>
       </c>
       <c r="G147" s="213" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H147" s="216">
         <v>26.0</v>
       </c>
       <c r="I147" s="217" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J147" s="1"/>
     </row>
@@ -27679,28 +27898,28 @@
     <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="200" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C149" s="201" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="202" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E149" s="203" t="s">
-        <v>1831</v>
+        <v>1868</v>
       </c>
       <c r="F149" s="204" t="s">
-        <v>1832</v>
+        <v>1869</v>
       </c>
       <c r="G149" s="202" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H149" s="205" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="206" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J149" s="1"/>
     </row>
@@ -27718,676 +27937,676 @@
     <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C151" s="191" t="s">
         <v>1269</v>
       </c>
       <c r="D151" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E151" s="193"/>
       <c r="F151" s="194" t="s">
-        <v>1833</v>
+        <v>1870</v>
       </c>
       <c r="G151" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H151" s="195">
         <v>1.0</v>
       </c>
       <c r="I151" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C152" s="191" t="s">
         <v>1270</v>
       </c>
       <c r="D152" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E152" s="193"/>
       <c r="F152" s="194" t="s">
-        <v>1834</v>
+        <v>1871</v>
       </c>
       <c r="G152" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H152" s="195">
         <v>2.0</v>
       </c>
       <c r="I152" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C153" s="191" t="s">
         <v>1271</v>
       </c>
       <c r="D153" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E153" s="193"/>
       <c r="F153" s="194" t="s">
-        <v>1835</v>
+        <v>1872</v>
       </c>
       <c r="G153" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H153" s="195">
         <v>3.0</v>
       </c>
       <c r="I153" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C154" s="191" t="s">
         <v>1272</v>
       </c>
       <c r="D154" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E154" s="193"/>
       <c r="F154" s="194" t="s">
-        <v>1836</v>
+        <v>1873</v>
       </c>
       <c r="G154" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H154" s="195">
         <v>4.0</v>
       </c>
       <c r="I154" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C155" s="191" t="s">
         <v>1273</v>
       </c>
       <c r="D155" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E155" s="193"/>
       <c r="F155" s="194" t="s">
-        <v>1837</v>
+        <v>1874</v>
       </c>
       <c r="G155" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H155" s="195">
         <v>5.0</v>
       </c>
       <c r="I155" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C156" s="191" t="s">
         <v>1274</v>
       </c>
       <c r="D156" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E156" s="193"/>
       <c r="F156" s="194" t="s">
-        <v>1838</v>
+        <v>1875</v>
       </c>
       <c r="G156" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H156" s="195">
         <v>6.0</v>
       </c>
       <c r="I156" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C157" s="191" t="s">
         <v>1275</v>
       </c>
       <c r="D157" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E157" s="193"/>
       <c r="F157" s="194" t="s">
-        <v>1839</v>
+        <v>1876</v>
       </c>
       <c r="G157" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H157" s="195">
         <v>7.0</v>
       </c>
       <c r="I157" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C158" s="191" t="s">
         <v>1276</v>
       </c>
       <c r="D158" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E158" s="193"/>
       <c r="F158" s="194" t="s">
-        <v>1840</v>
+        <v>1877</v>
       </c>
       <c r="G158" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H158" s="195">
         <v>8.0</v>
       </c>
       <c r="I158" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C159" s="191" t="s">
         <v>1277</v>
       </c>
       <c r="D159" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E159" s="193"/>
       <c r="F159" s="194" t="s">
-        <v>1841</v>
+        <v>1878</v>
       </c>
       <c r="G159" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H159" s="195">
         <v>9.0</v>
       </c>
       <c r="I159" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C160" s="191" t="s">
         <v>1278</v>
       </c>
       <c r="D160" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E160" s="193"/>
       <c r="F160" s="194" t="s">
-        <v>1842</v>
+        <v>1879</v>
       </c>
       <c r="G160" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H160" s="195">
         <v>10.0</v>
       </c>
       <c r="I160" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C161" s="191" t="s">
         <v>1279</v>
       </c>
       <c r="D161" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E161" s="193"/>
       <c r="F161" s="194" t="s">
-        <v>1843</v>
+        <v>1880</v>
       </c>
       <c r="G161" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H161" s="195">
         <v>11.0</v>
       </c>
       <c r="I161" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C162" s="191" t="s">
         <v>1280</v>
       </c>
       <c r="D162" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E162" s="193"/>
       <c r="F162" s="194" t="s">
-        <v>1844</v>
+        <v>1881</v>
       </c>
       <c r="G162" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H162" s="195">
         <v>12.0</v>
       </c>
       <c r="I162" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C163" s="191" t="s">
         <v>1281</v>
       </c>
       <c r="D163" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E163" s="193"/>
       <c r="F163" s="194" t="s">
-        <v>1845</v>
+        <v>1882</v>
       </c>
       <c r="G163" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H163" s="195">
         <v>13.0</v>
       </c>
       <c r="I163" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C164" s="191" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E164" s="193"/>
       <c r="F164" s="194" t="s">
-        <v>1846</v>
+        <v>1883</v>
       </c>
       <c r="G164" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H164" s="195">
         <v>14.0</v>
       </c>
       <c r="I164" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C165" s="191" t="s">
         <v>1283</v>
       </c>
       <c r="D165" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E165" s="193"/>
       <c r="F165" s="194" t="s">
-        <v>1847</v>
+        <v>1884</v>
       </c>
       <c r="G165" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H165" s="195">
         <v>15.0</v>
       </c>
       <c r="I165" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C166" s="191" t="s">
         <v>1284</v>
       </c>
       <c r="D166" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E166" s="193"/>
       <c r="F166" s="194" t="s">
-        <v>1848</v>
+        <v>1885</v>
       </c>
       <c r="G166" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H166" s="195">
         <v>16.0</v>
       </c>
       <c r="I166" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C167" s="191" t="s">
         <v>1285</v>
       </c>
       <c r="D167" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E167" s="193"/>
       <c r="F167" s="194" t="s">
-        <v>1849</v>
+        <v>1886</v>
       </c>
       <c r="G167" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H167" s="195">
         <v>17.0</v>
       </c>
       <c r="I167" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C168" s="191" t="s">
         <v>1286</v>
       </c>
       <c r="D168" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E168" s="193"/>
       <c r="F168" s="194" t="s">
-        <v>1850</v>
+        <v>1887</v>
       </c>
       <c r="G168" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H168" s="195">
         <v>18.0</v>
       </c>
       <c r="I168" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C169" s="191" t="s">
         <v>1287</v>
       </c>
       <c r="D169" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E169" s="193"/>
       <c r="F169" s="194" t="s">
-        <v>1851</v>
+        <v>1888</v>
       </c>
       <c r="G169" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H169" s="195">
         <v>19.0</v>
       </c>
       <c r="I169" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C170" s="191" t="s">
         <v>1288</v>
       </c>
       <c r="D170" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E170" s="193"/>
       <c r="F170" s="194" t="s">
-        <v>1852</v>
+        <v>1889</v>
       </c>
       <c r="G170" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H170" s="195">
         <v>20.0</v>
       </c>
       <c r="I170" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C171" s="191" t="s">
         <v>1289</v>
       </c>
       <c r="D171" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E171" s="193"/>
       <c r="F171" s="194" t="s">
-        <v>1853</v>
+        <v>1890</v>
       </c>
       <c r="G171" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H171" s="195">
         <v>21.0</v>
       </c>
       <c r="I171" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C172" s="191" t="s">
         <v>1290</v>
       </c>
       <c r="D172" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E172" s="193"/>
       <c r="F172" s="194" t="s">
-        <v>1854</v>
+        <v>1891</v>
       </c>
       <c r="G172" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H172" s="195">
         <v>22.0</v>
       </c>
       <c r="I172" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C173" s="191" t="s">
         <v>1291</v>
       </c>
       <c r="D173" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E173" s="193"/>
       <c r="F173" s="194" t="s">
-        <v>1855</v>
+        <v>1892</v>
       </c>
       <c r="G173" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H173" s="195">
         <v>23.0</v>
       </c>
       <c r="I173" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C174" s="191" t="s">
         <v>1292</v>
       </c>
       <c r="D174" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E174" s="193"/>
       <c r="F174" s="194" t="s">
-        <v>1856</v>
+        <v>1893</v>
       </c>
       <c r="G174" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H174" s="195">
         <v>24.0</v>
       </c>
       <c r="I174" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C175" s="191" t="s">
         <v>1293</v>
       </c>
       <c r="D175" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E175" s="193"/>
       <c r="F175" s="194" t="s">
-        <v>1857</v>
+        <v>1894</v>
       </c>
       <c r="G175" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H175" s="195">
         <v>25.0</v>
       </c>
       <c r="I175" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="211" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C176" s="218" t="s">
         <v>1294</v>
       </c>
       <c r="D176" s="213" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E176" s="214"/>
       <c r="F176" s="215" t="s">
-        <v>1858</v>
+        <v>1895</v>
       </c>
       <c r="G176" s="213" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H176" s="216">
         <v>26.0</v>
       </c>
       <c r="I176" s="217" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -28406,28 +28625,28 @@
     <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="200" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C178" s="201" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="202" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E178" s="203" t="s">
-        <v>1859</v>
+        <v>1896</v>
       </c>
       <c r="F178" s="204" t="s">
-        <v>1860</v>
+        <v>1897</v>
       </c>
       <c r="G178" s="202" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H178" s="205" t="s">
         <v>5</v>
       </c>
       <c r="I178" s="206" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J178" s="1"/>
     </row>
@@ -28446,676 +28665,676 @@
     <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C180" s="191" t="s">
         <v>1424</v>
       </c>
       <c r="D180" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E180" s="193"/>
       <c r="F180" s="194" t="s">
-        <v>1861</v>
+        <v>1898</v>
       </c>
       <c r="G180" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H180" s="195">
         <v>1.0</v>
       </c>
       <c r="I180" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C181" s="191" t="s">
         <v>1425</v>
       </c>
       <c r="D181" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E181" s="193"/>
       <c r="F181" s="194" t="s">
-        <v>1862</v>
+        <v>1899</v>
       </c>
       <c r="G181" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H181" s="195">
         <v>2.0</v>
       </c>
       <c r="I181" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C182" s="191" t="s">
         <v>1426</v>
       </c>
       <c r="D182" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E182" s="193"/>
       <c r="F182" s="194" t="s">
-        <v>1863</v>
+        <v>1900</v>
       </c>
       <c r="G182" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H182" s="195">
         <v>3.0</v>
       </c>
       <c r="I182" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C183" s="191" t="s">
         <v>1427</v>
       </c>
       <c r="D183" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E183" s="193"/>
       <c r="F183" s="194" t="s">
-        <v>1864</v>
+        <v>1901</v>
       </c>
       <c r="G183" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H183" s="195">
         <v>4.0</v>
       </c>
       <c r="I183" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C184" s="191" t="s">
         <v>1428</v>
       </c>
       <c r="D184" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E184" s="193"/>
       <c r="F184" s="194" t="s">
-        <v>1865</v>
+        <v>1902</v>
       </c>
       <c r="G184" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H184" s="195">
         <v>5.0</v>
       </c>
       <c r="I184" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C185" s="191" t="s">
         <v>1429</v>
       </c>
       <c r="D185" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E185" s="193"/>
       <c r="F185" s="194" t="s">
-        <v>1866</v>
+        <v>1903</v>
       </c>
       <c r="G185" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H185" s="195">
         <v>6.0</v>
       </c>
       <c r="I185" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C186" s="191" t="s">
         <v>1430</v>
       </c>
       <c r="D186" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E186" s="193"/>
       <c r="F186" s="194" t="s">
-        <v>1867</v>
+        <v>1904</v>
       </c>
       <c r="G186" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H186" s="195">
         <v>7.0</v>
       </c>
       <c r="I186" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C187" s="191" t="s">
         <v>1431</v>
       </c>
       <c r="D187" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E187" s="193"/>
       <c r="F187" s="194" t="s">
-        <v>1868</v>
+        <v>1905</v>
       </c>
       <c r="G187" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H187" s="195">
         <v>8.0</v>
       </c>
       <c r="I187" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C188" s="191" t="s">
         <v>1432</v>
       </c>
       <c r="D188" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E188" s="193"/>
       <c r="F188" s="194" t="s">
-        <v>1869</v>
+        <v>1906</v>
       </c>
       <c r="G188" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H188" s="195">
         <v>9.0</v>
       </c>
       <c r="I188" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C189" s="191" t="s">
         <v>1433</v>
       </c>
       <c r="D189" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E189" s="193"/>
       <c r="F189" s="194" t="s">
-        <v>1870</v>
+        <v>1907</v>
       </c>
       <c r="G189" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H189" s="195">
         <v>10.0</v>
       </c>
       <c r="I189" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C190" s="191" t="s">
         <v>1434</v>
       </c>
       <c r="D190" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E190" s="193"/>
       <c r="F190" s="194" t="s">
-        <v>1871</v>
+        <v>1908</v>
       </c>
       <c r="G190" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H190" s="195">
         <v>11.0</v>
       </c>
       <c r="I190" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C191" s="191" t="s">
         <v>1435</v>
       </c>
       <c r="D191" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E191" s="193"/>
       <c r="F191" s="194" t="s">
-        <v>1872</v>
+        <v>1909</v>
       </c>
       <c r="G191" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H191" s="195">
         <v>12.0</v>
       </c>
       <c r="I191" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C192" s="191" t="s">
         <v>1436</v>
       </c>
       <c r="D192" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E192" s="193"/>
       <c r="F192" s="194" t="s">
-        <v>1873</v>
+        <v>1910</v>
       </c>
       <c r="G192" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H192" s="195">
         <v>13.0</v>
       </c>
       <c r="I192" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C193" s="191" t="s">
         <v>1437</v>
       </c>
       <c r="D193" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E193" s="193"/>
       <c r="F193" s="194" t="s">
-        <v>1874</v>
+        <v>1911</v>
       </c>
       <c r="G193" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H193" s="195">
         <v>14.0</v>
       </c>
       <c r="I193" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C194" s="191" t="s">
         <v>1438</v>
       </c>
       <c r="D194" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E194" s="193"/>
       <c r="F194" s="194" t="s">
-        <v>1875</v>
+        <v>1912</v>
       </c>
       <c r="G194" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H194" s="195">
         <v>15.0</v>
       </c>
       <c r="I194" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C195" s="191" t="s">
         <v>1439</v>
       </c>
       <c r="D195" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E195" s="193"/>
       <c r="F195" s="194" t="s">
-        <v>1876</v>
+        <v>1913</v>
       </c>
       <c r="G195" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H195" s="195">
         <v>16.0</v>
       </c>
       <c r="I195" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C196" s="191" t="s">
         <v>1440</v>
       </c>
       <c r="D196" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E196" s="193"/>
       <c r="F196" s="194" t="s">
-        <v>1877</v>
+        <v>1914</v>
       </c>
       <c r="G196" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H196" s="195">
         <v>17.0</v>
       </c>
       <c r="I196" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C197" s="191" t="s">
         <v>1441</v>
       </c>
       <c r="D197" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E197" s="193"/>
       <c r="F197" s="194" t="s">
-        <v>1878</v>
+        <v>1915</v>
       </c>
       <c r="G197" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H197" s="195">
         <v>18.0</v>
       </c>
       <c r="I197" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C198" s="191" t="s">
         <v>1442</v>
       </c>
       <c r="D198" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E198" s="193"/>
       <c r="F198" s="194" t="s">
-        <v>1879</v>
+        <v>1916</v>
       </c>
       <c r="G198" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H198" s="195">
         <v>19.0</v>
       </c>
       <c r="I198" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C199" s="191" t="s">
         <v>1443</v>
       </c>
       <c r="D199" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E199" s="193"/>
       <c r="F199" s="194" t="s">
-        <v>1880</v>
+        <v>1917</v>
       </c>
       <c r="G199" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H199" s="195">
         <v>20.0</v>
       </c>
       <c r="I199" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C200" s="191" t="s">
         <v>1444</v>
       </c>
       <c r="D200" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E200" s="193"/>
       <c r="F200" s="194" t="s">
-        <v>1881</v>
+        <v>1918</v>
       </c>
       <c r="G200" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H200" s="195">
         <v>21.0</v>
       </c>
       <c r="I200" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C201" s="191" t="s">
         <v>1445</v>
       </c>
       <c r="D201" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E201" s="193"/>
       <c r="F201" s="194" t="s">
-        <v>1882</v>
+        <v>1919</v>
       </c>
       <c r="G201" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H201" s="195">
         <v>22.0</v>
       </c>
       <c r="I201" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C202" s="191" t="s">
         <v>1446</v>
       </c>
       <c r="D202" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E202" s="193"/>
       <c r="F202" s="194" t="s">
-        <v>1883</v>
+        <v>1920</v>
       </c>
       <c r="G202" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H202" s="195">
         <v>23.0</v>
       </c>
       <c r="I202" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C203" s="191" t="s">
         <v>1447</v>
       </c>
       <c r="D203" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E203" s="193"/>
       <c r="F203" s="194" t="s">
-        <v>1884</v>
+        <v>1921</v>
       </c>
       <c r="G203" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H203" s="195">
         <v>24.0</v>
       </c>
       <c r="I203" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="207" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C204" s="191" t="s">
         <v>1448</v>
       </c>
       <c r="D204" s="192" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E204" s="193"/>
       <c r="F204" s="194" t="s">
-        <v>1885</v>
+        <v>1922</v>
       </c>
       <c r="G204" s="192" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H204" s="195">
         <v>25.0</v>
       </c>
       <c r="I204" s="209" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="211" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="C205" s="218" t="s">
         <v>1449</v>
       </c>
       <c r="D205" s="213" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="E205" s="214"/>
       <c r="F205" s="215" t="s">
-        <v>1886</v>
+        <v>1923</v>
       </c>
       <c r="G205" s="213" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
       <c r="H205" s="216">
         <v>26.0</v>
       </c>
       <c r="I205" s="217" t="s">
-        <v>1687</v>
+        <v>1724</v>
       </c>
       <c r="J205" s="1"/>
     </row>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5314" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5424" uniqueCount="1946">
   <si>
     <t>A#3</t>
   </si>
@@ -16154,7 +16154,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToHeight="0" paperSize="8" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -30231,32 +30231,652 @@
     </row>
     <row r="207">
       <c r="A207" s="1"/>
-      <c r="B207" s="157"/>
-      <c r="C207" s="158"/>
-      <c r="D207" s="159"/>
-      <c r="E207" s="160"/>
-      <c r="F207" s="161"/>
-      <c r="G207" s="159"/>
-      <c r="H207" s="162"/>
-      <c r="I207" s="157"/>
+      <c r="B207" s="167" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C207" s="168" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207" s="169" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E207" s="170"/>
+      <c r="F207" s="171"/>
+      <c r="G207" s="169" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H207" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="I207" s="173" t="s">
+        <v>1746</v>
+      </c>
       <c r="J207" s="1"/>
     </row>
     <row r="208">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
+      <c r="B208" s="174"/>
+      <c r="C208" s="163"/>
+      <c r="D208" s="159"/>
+      <c r="E208" s="164"/>
+      <c r="F208" s="165"/>
+      <c r="G208" s="159"/>
+      <c r="H208" s="166"/>
+      <c r="I208" s="176"/>
       <c r="J208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1"/>
+      <c r="B209" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C209" s="158"/>
+      <c r="D209" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E209" s="160"/>
+      <c r="F209" s="161"/>
+      <c r="G209" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H209" s="162">
+        <v>1.0</v>
+      </c>
+      <c r="I209" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1"/>
+      <c r="B210" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C210" s="158"/>
+      <c r="D210" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E210" s="160"/>
+      <c r="F210" s="161"/>
+      <c r="G210" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H210" s="162">
+        <v>2.0</v>
+      </c>
+      <c r="I210" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1"/>
+      <c r="B211" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C211" s="158"/>
+      <c r="D211" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E211" s="160"/>
+      <c r="F211" s="161"/>
+      <c r="G211" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H211" s="162">
+        <v>3.0</v>
+      </c>
+      <c r="I211" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1"/>
+      <c r="B212" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C212" s="158"/>
+      <c r="D212" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E212" s="160"/>
+      <c r="F212" s="161"/>
+      <c r="G212" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H212" s="162">
+        <v>4.0</v>
+      </c>
+      <c r="I212" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1"/>
+      <c r="B213" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C213" s="158"/>
+      <c r="D213" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E213" s="160"/>
+      <c r="F213" s="161"/>
+      <c r="G213" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H213" s="162">
+        <v>5.0</v>
+      </c>
+      <c r="I213" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1"/>
+      <c r="B214" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C214" s="158"/>
+      <c r="D214" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E214" s="160"/>
+      <c r="F214" s="161"/>
+      <c r="G214" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H214" s="162">
+        <v>6.0</v>
+      </c>
+      <c r="I214" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1"/>
+      <c r="B215" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C215" s="158"/>
+      <c r="D215" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E215" s="160"/>
+      <c r="F215" s="161"/>
+      <c r="G215" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H215" s="162">
+        <v>7.0</v>
+      </c>
+      <c r="I215" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1"/>
+      <c r="B216" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C216" s="158"/>
+      <c r="D216" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E216" s="160"/>
+      <c r="F216" s="161"/>
+      <c r="G216" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H216" s="162">
+        <v>8.0</v>
+      </c>
+      <c r="I216" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1"/>
+      <c r="B217" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C217" s="158"/>
+      <c r="D217" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E217" s="160"/>
+      <c r="F217" s="161"/>
+      <c r="G217" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H217" s="162">
+        <v>9.0</v>
+      </c>
+      <c r="I217" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1"/>
+      <c r="B218" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C218" s="158"/>
+      <c r="D218" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E218" s="160"/>
+      <c r="F218" s="161"/>
+      <c r="G218" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H218" s="162">
+        <v>10.0</v>
+      </c>
+      <c r="I218" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1"/>
+      <c r="B219" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C219" s="158"/>
+      <c r="D219" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E219" s="160"/>
+      <c r="F219" s="161"/>
+      <c r="G219" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H219" s="162">
+        <v>11.0</v>
+      </c>
+      <c r="I219" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1"/>
+      <c r="B220" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C220" s="158"/>
+      <c r="D220" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E220" s="160"/>
+      <c r="F220" s="161"/>
+      <c r="G220" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H220" s="162">
+        <v>12.0</v>
+      </c>
+      <c r="I220" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1"/>
+      <c r="B221" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C221" s="158"/>
+      <c r="D221" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E221" s="160"/>
+      <c r="F221" s="161"/>
+      <c r="G221" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H221" s="162">
+        <v>13.0</v>
+      </c>
+      <c r="I221" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1"/>
+      <c r="B222" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C222" s="158"/>
+      <c r="D222" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E222" s="160"/>
+      <c r="F222" s="161"/>
+      <c r="G222" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H222" s="162">
+        <v>14.0</v>
+      </c>
+      <c r="I222" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1"/>
+      <c r="B223" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C223" s="158"/>
+      <c r="D223" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E223" s="160"/>
+      <c r="F223" s="161"/>
+      <c r="G223" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H223" s="162">
+        <v>15.0</v>
+      </c>
+      <c r="I223" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1"/>
+      <c r="B224" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C224" s="158"/>
+      <c r="D224" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E224" s="160"/>
+      <c r="F224" s="161"/>
+      <c r="G224" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H224" s="162">
+        <v>16.0</v>
+      </c>
+      <c r="I224" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1"/>
+      <c r="B225" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C225" s="158"/>
+      <c r="D225" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E225" s="160"/>
+      <c r="F225" s="161"/>
+      <c r="G225" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H225" s="162">
+        <v>17.0</v>
+      </c>
+      <c r="I225" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1"/>
+      <c r="B226" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C226" s="158"/>
+      <c r="D226" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E226" s="160"/>
+      <c r="F226" s="161"/>
+      <c r="G226" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H226" s="162">
+        <v>18.0</v>
+      </c>
+      <c r="I226" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1"/>
+      <c r="B227" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C227" s="158"/>
+      <c r="D227" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E227" s="160"/>
+      <c r="F227" s="161"/>
+      <c r="G227" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H227" s="162">
+        <v>19.0</v>
+      </c>
+      <c r="I227" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1"/>
+      <c r="B228" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C228" s="158"/>
+      <c r="D228" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E228" s="160"/>
+      <c r="F228" s="161"/>
+      <c r="G228" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H228" s="162">
+        <v>20.0</v>
+      </c>
+      <c r="I228" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1"/>
+      <c r="B229" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C229" s="158"/>
+      <c r="D229" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E229" s="160"/>
+      <c r="F229" s="161"/>
+      <c r="G229" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H229" s="162">
+        <v>21.0</v>
+      </c>
+      <c r="I229" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1"/>
+      <c r="B230" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C230" s="158"/>
+      <c r="D230" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E230" s="160"/>
+      <c r="F230" s="161"/>
+      <c r="G230" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H230" s="162">
+        <v>22.0</v>
+      </c>
+      <c r="I230" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1"/>
+      <c r="B231" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C231" s="158"/>
+      <c r="D231" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E231" s="160"/>
+      <c r="F231" s="161"/>
+      <c r="G231" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H231" s="162">
+        <v>23.0</v>
+      </c>
+      <c r="I231" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1"/>
+      <c r="B232" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C232" s="158"/>
+      <c r="D232" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E232" s="160"/>
+      <c r="F232" s="161"/>
+      <c r="G232" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H232" s="162">
+        <v>24.0</v>
+      </c>
+      <c r="I232" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1"/>
+      <c r="B233" s="174" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C233" s="158"/>
+      <c r="D233" s="159" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E233" s="160"/>
+      <c r="F233" s="161"/>
+      <c r="G233" s="159" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H233" s="162">
+        <v>25.0</v>
+      </c>
+      <c r="I233" s="176" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1"/>
+      <c r="B234" s="178" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C234" s="185"/>
+      <c r="D234" s="180" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E234" s="181"/>
+      <c r="F234" s="182"/>
+      <c r="G234" s="180" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H234" s="183">
+        <v>26.0</v>
+      </c>
+      <c r="I234" s="184" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1"/>
+      <c r="B236" s="157"/>
+      <c r="C236" s="158"/>
+      <c r="D236" s="159"/>
+      <c r="E236" s="160"/>
+      <c r="F236" s="161"/>
+      <c r="G236" s="159"/>
+      <c r="H236" s="162"/>
+      <c r="I236" s="157"/>
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToWidth="0" paperSize="9" orientation="portrait" pageOrder="overThenDown"/>
+  <pageSetup fitToWidth="0" paperSize="8" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5424" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="1978">
   <si>
     <t>A#3</t>
   </si>
@@ -5442,28 +5442,28 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Methodology</t>
+    <t>Rack</t>
   </si>
   <si>
     <t>Scenery</t>
   </si>
   <si>
-    <t>Namespace</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Kernel</t>
-  </si>
-  <si>
-    <t>Display</t>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Basket</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Screen</t>
   </si>
   <si>
     <t>Asymmetry</t>
@@ -5502,10 +5502,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Network</t>
+    <t>Serve</t>
+  </si>
+  <si>
+    <t>Nest</t>
   </si>
   <si>
     <t>Engine</t>
@@ -5851,6 +5851,102 @@
   </si>
   <si>
     <t>Wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluid &gt; Explore &gt; Drive &gt; Choice &gt; Book &gt; And &gt; </t>
+  </si>
+  <si>
+    <t>Wrap</t>
+  </si>
+  <si>
+    <t>_refill</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>_response</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>_general</t>
+  </si>
+  <si>
+    <t>_wish</t>
+  </si>
+  <si>
+    <t>_authentication</t>
+  </si>
+  <si>
+    <t>_debit</t>
+  </si>
+  <si>
+    <t>_planet</t>
+  </si>
+  <si>
+    <t>_hibernate</t>
+  </si>
+  <si>
+    <t>_namespace</t>
+  </si>
+  <si>
+    <t>_methodology</t>
+  </si>
+  <si>
+    <t>_library</t>
+  </si>
+  <si>
+    <t>_accessory</t>
+  </si>
+  <si>
+    <t>_miscellaneous</t>
+  </si>
+  <si>
+    <t>_repository</t>
+  </si>
+  <si>
+    <t>_pastel</t>
+  </si>
+  <si>
+    <t>_server</t>
+  </si>
+  <si>
+    <t>_investment</t>
+  </si>
+  <si>
+    <t>_framework</t>
+  </si>
+  <si>
+    <t>_display</t>
+  </si>
+  <si>
+    <t>_master</t>
+  </si>
+  <si>
+    <t>_credit</t>
+  </si>
+  <si>
+    <t>_authorisation</t>
+  </si>
+  <si>
+    <t>_quit</t>
+  </si>
+  <si>
+    <t>_kernel</t>
+  </si>
+  <si>
+    <t>_platform</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>_problem</t>
+  </si>
+  <si>
+    <t>Quotation</t>
   </si>
 </sst>
 </file>
@@ -30240,8 +30336,12 @@
       <c r="D207" s="169" t="s">
         <v>1748</v>
       </c>
-      <c r="E207" s="170"/>
-      <c r="F207" s="171"/>
+      <c r="E207" s="170" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F207" s="171" t="s">
+        <v>1947</v>
+      </c>
       <c r="G207" s="169" t="s">
         <v>1751</v>
       </c>
@@ -30270,12 +30370,16 @@
       <c r="B209" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C209" s="158"/>
+      <c r="C209" s="158" t="s">
+        <v>1948</v>
+      </c>
       <c r="D209" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E209" s="160"/>
-      <c r="F209" s="161"/>
+      <c r="F209" s="161" t="s">
+        <v>1949</v>
+      </c>
       <c r="G209" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30292,12 +30396,16 @@
       <c r="B210" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C210" s="158"/>
+      <c r="C210" s="158" t="s">
+        <v>1950</v>
+      </c>
       <c r="D210" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E210" s="160"/>
-      <c r="F210" s="161"/>
+      <c r="F210" s="161" t="s">
+        <v>1951</v>
+      </c>
       <c r="G210" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30314,7 +30422,9 @@
       <c r="B211" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C211" s="158"/>
+      <c r="C211" s="158" t="s">
+        <v>1952</v>
+      </c>
       <c r="D211" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30336,7 +30446,9 @@
       <c r="B212" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C212" s="158"/>
+      <c r="C212" s="158" t="s">
+        <v>1953</v>
+      </c>
       <c r="D212" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30358,7 +30470,9 @@
       <c r="B213" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C213" s="158"/>
+      <c r="C213" s="158" t="s">
+        <v>1954</v>
+      </c>
       <c r="D213" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30380,7 +30494,9 @@
       <c r="B214" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C214" s="158"/>
+      <c r="C214" s="158" t="s">
+        <v>1955</v>
+      </c>
       <c r="D214" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30402,7 +30518,9 @@
       <c r="B215" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C215" s="158"/>
+      <c r="C215" s="158" t="s">
+        <v>1956</v>
+      </c>
       <c r="D215" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30424,7 +30542,9 @@
       <c r="B216" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C216" s="158"/>
+      <c r="C216" s="158" t="s">
+        <v>1957</v>
+      </c>
       <c r="D216" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30446,7 +30566,9 @@
       <c r="B217" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C217" s="158"/>
+      <c r="C217" s="158" t="s">
+        <v>1958</v>
+      </c>
       <c r="D217" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30468,7 +30590,9 @@
       <c r="B218" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C218" s="158"/>
+      <c r="C218" s="158" t="s">
+        <v>1959</v>
+      </c>
       <c r="D218" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30490,7 +30614,9 @@
       <c r="B219" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C219" s="158"/>
+      <c r="C219" s="158" t="s">
+        <v>1960</v>
+      </c>
       <c r="D219" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30512,7 +30638,9 @@
       <c r="B220" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C220" s="158"/>
+      <c r="C220" s="158" t="s">
+        <v>1961</v>
+      </c>
       <c r="D220" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30534,7 +30662,9 @@
       <c r="B221" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C221" s="158"/>
+      <c r="C221" s="158" t="s">
+        <v>1962</v>
+      </c>
       <c r="D221" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30556,7 +30686,9 @@
       <c r="B222" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C222" s="158"/>
+      <c r="C222" s="158" t="s">
+        <v>1963</v>
+      </c>
       <c r="D222" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30578,7 +30710,9 @@
       <c r="B223" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C223" s="158"/>
+      <c r="C223" s="158" t="s">
+        <v>1964</v>
+      </c>
       <c r="D223" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30600,7 +30734,9 @@
       <c r="B224" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C224" s="158"/>
+      <c r="C224" s="158" t="s">
+        <v>1965</v>
+      </c>
       <c r="D224" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30622,7 +30758,9 @@
       <c r="B225" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C225" s="158"/>
+      <c r="C225" s="158" t="s">
+        <v>1966</v>
+      </c>
       <c r="D225" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30644,7 +30782,9 @@
       <c r="B226" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C226" s="158"/>
+      <c r="C226" s="158" t="s">
+        <v>1967</v>
+      </c>
       <c r="D226" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30666,7 +30806,9 @@
       <c r="B227" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C227" s="158"/>
+      <c r="C227" s="158" t="s">
+        <v>1968</v>
+      </c>
       <c r="D227" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30688,7 +30830,9 @@
       <c r="B228" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C228" s="158"/>
+      <c r="C228" s="158" t="s">
+        <v>1969</v>
+      </c>
       <c r="D228" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30710,7 +30854,9 @@
       <c r="B229" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C229" s="158"/>
+      <c r="C229" s="158" t="s">
+        <v>1970</v>
+      </c>
       <c r="D229" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30732,7 +30878,9 @@
       <c r="B230" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C230" s="158"/>
+      <c r="C230" s="158" t="s">
+        <v>1971</v>
+      </c>
       <c r="D230" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30754,7 +30902,9 @@
       <c r="B231" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C231" s="158"/>
+      <c r="C231" s="158" t="s">
+        <v>1972</v>
+      </c>
       <c r="D231" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30776,7 +30926,9 @@
       <c r="B232" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C232" s="158"/>
+      <c r="C232" s="158" t="s">
+        <v>1973</v>
+      </c>
       <c r="D232" s="159" t="s">
         <v>1748</v>
       </c>
@@ -30798,12 +30950,16 @@
       <c r="B233" s="174" t="s">
         <v>1746</v>
       </c>
-      <c r="C233" s="158"/>
+      <c r="C233" s="158" t="s">
+        <v>1974</v>
+      </c>
       <c r="D233" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E233" s="160"/>
-      <c r="F233" s="161"/>
+      <c r="F233" s="161" t="s">
+        <v>1975</v>
+      </c>
       <c r="G233" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30820,12 +30976,16 @@
       <c r="B234" s="178" t="s">
         <v>1746</v>
       </c>
-      <c r="C234" s="185"/>
+      <c r="C234" s="185" t="s">
+        <v>1976</v>
+      </c>
       <c r="D234" s="180" t="s">
         <v>1748</v>
       </c>
       <c r="E234" s="181"/>
-      <c r="F234" s="182"/>
+      <c r="F234" s="182" t="s">
+        <v>1977</v>
+      </c>
       <c r="G234" s="180" t="s">
         <v>1751</v>
       </c>
@@ -30876,7 +31036,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToWidth="0" paperSize="8" orientation="portrait" pageOrder="overThenDown"/>
+  <pageSetup fitToWidth="0" paperSize="9" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="1978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="1988">
   <si>
     <t>A#3</t>
   </si>
@@ -5874,18 +5874,33 @@
     <t>_general</t>
   </si>
   <si>
+    <t>Explanation</t>
+  </si>
+  <si>
     <t>_wish</t>
   </si>
   <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
     <t>_authentication</t>
   </si>
   <si>
+    <t>Mnemonic</t>
+  </si>
+  <si>
     <t>_debit</t>
   </si>
   <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
     <t>_planet</t>
   </si>
   <si>
+    <t>Earth</t>
+  </si>
+  <si>
     <t>_hibernate</t>
   </si>
   <si>
@@ -5925,16 +5940,31 @@
     <t>_master</t>
   </si>
   <si>
+    <t>Pressure</t>
+  </si>
+  <si>
     <t>_credit</t>
   </si>
   <si>
+    <t>Typo</t>
+  </si>
+  <si>
     <t>_authorisation</t>
   </si>
   <si>
+    <t>Smart</t>
+  </si>
+  <si>
     <t>_quit</t>
   </si>
   <si>
+    <t>Notice</t>
+  </si>
+  <si>
     <t>_kernel</t>
+  </si>
+  <si>
+    <t>Afterword</t>
   </si>
   <si>
     <t>_platform</t>
@@ -25197,7 +25227,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="3.38"/>
-    <col customWidth="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="15.75"/>
     <col customWidth="1" min="4" max="4" width="3.38"/>
     <col customWidth="1" min="5" max="5" width="87.63"/>
     <col customWidth="1" min="6" max="6" width="12.63"/>
@@ -30429,7 +30459,9 @@
         <v>1748</v>
       </c>
       <c r="E211" s="160"/>
-      <c r="F211" s="161"/>
+      <c r="F211" s="161" t="s">
+        <v>1953</v>
+      </c>
       <c r="G211" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30447,13 +30479,15 @@
         <v>1746</v>
       </c>
       <c r="C212" s="158" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D212" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E212" s="160"/>
-      <c r="F212" s="161"/>
+      <c r="F212" s="161" t="s">
+        <v>1955</v>
+      </c>
       <c r="G212" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30471,13 +30505,15 @@
         <v>1746</v>
       </c>
       <c r="C213" s="158" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="D213" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E213" s="160"/>
-      <c r="F213" s="161"/>
+      <c r="F213" s="161" t="s">
+        <v>1957</v>
+      </c>
       <c r="G213" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30495,13 +30531,15 @@
         <v>1746</v>
       </c>
       <c r="C214" s="158" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="D214" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E214" s="160"/>
-      <c r="F214" s="161"/>
+      <c r="F214" s="161" t="s">
+        <v>1959</v>
+      </c>
       <c r="G214" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30519,13 +30557,15 @@
         <v>1746</v>
       </c>
       <c r="C215" s="158" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="D215" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E215" s="160"/>
-      <c r="F215" s="161"/>
+      <c r="F215" s="161" t="s">
+        <v>1961</v>
+      </c>
       <c r="G215" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30543,7 +30583,7 @@
         <v>1746</v>
       </c>
       <c r="C216" s="158" t="s">
-        <v>1957</v>
+        <v>1962</v>
       </c>
       <c r="D216" s="159" t="s">
         <v>1748</v>
@@ -30567,7 +30607,7 @@
         <v>1746</v>
       </c>
       <c r="C217" s="158" t="s">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="D217" s="159" t="s">
         <v>1748</v>
@@ -30591,7 +30631,7 @@
         <v>1746</v>
       </c>
       <c r="C218" s="158" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="D218" s="159" t="s">
         <v>1748</v>
@@ -30615,7 +30655,7 @@
         <v>1746</v>
       </c>
       <c r="C219" s="158" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="D219" s="159" t="s">
         <v>1748</v>
@@ -30639,7 +30679,7 @@
         <v>1746</v>
       </c>
       <c r="C220" s="158" t="s">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="D220" s="159" t="s">
         <v>1748</v>
@@ -30663,7 +30703,7 @@
         <v>1746</v>
       </c>
       <c r="C221" s="158" t="s">
-        <v>1962</v>
+        <v>1967</v>
       </c>
       <c r="D221" s="159" t="s">
         <v>1748</v>
@@ -30687,7 +30727,7 @@
         <v>1746</v>
       </c>
       <c r="C222" s="158" t="s">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="D222" s="159" t="s">
         <v>1748</v>
@@ -30711,7 +30751,7 @@
         <v>1746</v>
       </c>
       <c r="C223" s="158" t="s">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="D223" s="159" t="s">
         <v>1748</v>
@@ -30735,7 +30775,7 @@
         <v>1746</v>
       </c>
       <c r="C224" s="158" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="D224" s="159" t="s">
         <v>1748</v>
@@ -30759,7 +30799,7 @@
         <v>1746</v>
       </c>
       <c r="C225" s="158" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="D225" s="159" t="s">
         <v>1748</v>
@@ -30783,7 +30823,7 @@
         <v>1746</v>
       </c>
       <c r="C226" s="158" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="D226" s="159" t="s">
         <v>1748</v>
@@ -30807,7 +30847,7 @@
         <v>1746</v>
       </c>
       <c r="C227" s="158" t="s">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="D227" s="159" t="s">
         <v>1748</v>
@@ -30831,13 +30871,15 @@
         <v>1746</v>
       </c>
       <c r="C228" s="158" t="s">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="D228" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E228" s="160"/>
-      <c r="F228" s="161"/>
+      <c r="F228" s="161" t="s">
+        <v>1975</v>
+      </c>
       <c r="G228" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30855,13 +30897,15 @@
         <v>1746</v>
       </c>
       <c r="C229" s="158" t="s">
-        <v>1970</v>
+        <v>1976</v>
       </c>
       <c r="D229" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E229" s="160"/>
-      <c r="F229" s="161"/>
+      <c r="F229" s="161" t="s">
+        <v>1977</v>
+      </c>
       <c r="G229" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30879,13 +30923,15 @@
         <v>1746</v>
       </c>
       <c r="C230" s="158" t="s">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="D230" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E230" s="160"/>
-      <c r="F230" s="161"/>
+      <c r="F230" s="161" t="s">
+        <v>1979</v>
+      </c>
       <c r="G230" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30903,13 +30949,15 @@
         <v>1746</v>
       </c>
       <c r="C231" s="158" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="D231" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E231" s="160"/>
-      <c r="F231" s="161"/>
+      <c r="F231" s="161" t="s">
+        <v>1981</v>
+      </c>
       <c r="G231" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30927,13 +30975,15 @@
         <v>1746</v>
       </c>
       <c r="C232" s="158" t="s">
-        <v>1973</v>
+        <v>1982</v>
       </c>
       <c r="D232" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E232" s="160"/>
-      <c r="F232" s="161"/>
+      <c r="F232" s="161" t="s">
+        <v>1983</v>
+      </c>
       <c r="G232" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30951,14 +31001,14 @@
         <v>1746</v>
       </c>
       <c r="C233" s="158" t="s">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="D233" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E233" s="160"/>
       <c r="F233" s="161" t="s">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="G233" s="159" t="s">
         <v>1751</v>
@@ -30977,14 +31027,14 @@
         <v>1746</v>
       </c>
       <c r="C234" s="185" t="s">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="D234" s="180" t="s">
         <v>1748</v>
       </c>
       <c r="E234" s="181"/>
       <c r="F234" s="182" t="s">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="G234" s="180" t="s">
         <v>1751</v>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="1988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5478" uniqueCount="2000">
   <si>
     <t>A#3</t>
   </si>
@@ -5904,37 +5904,73 @@
     <t>_hibernate</t>
   </si>
   <si>
+    <t>Excel</t>
+  </si>
+  <si>
     <t>_namespace</t>
   </si>
   <si>
+    <t>Document</t>
+  </si>
+  <si>
     <t>_methodology</t>
   </si>
   <si>
+    <t>Voucher</t>
+  </si>
+  <si>
     <t>_library</t>
   </si>
   <si>
+    <t>Favourite</t>
+  </si>
+  <si>
     <t>_accessory</t>
   </si>
   <si>
+    <t>Solidarity</t>
+  </si>
+  <si>
     <t>_miscellaneous</t>
   </si>
   <si>
+    <t>Profession</t>
+  </si>
+  <si>
     <t>_repository</t>
   </si>
   <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
     <t>_pastel</t>
   </si>
   <si>
+    <t>Example</t>
+  </si>
+  <si>
     <t>_server</t>
   </si>
   <si>
+    <t>Material</t>
+  </si>
+  <si>
     <t>_investment</t>
   </si>
   <si>
+    <t>Advisory</t>
+  </si>
+  <si>
     <t>_framework</t>
   </si>
   <si>
+    <t>Synonymous</t>
+  </si>
+  <si>
     <t>_display</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
   </si>
   <si>
     <t>_master</t>
@@ -30589,7 +30625,9 @@
         <v>1748</v>
       </c>
       <c r="E216" s="160"/>
-      <c r="F216" s="161"/>
+      <c r="F216" s="161" t="s">
+        <v>1963</v>
+      </c>
       <c r="G216" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30607,13 +30645,15 @@
         <v>1746</v>
       </c>
       <c r="C217" s="158" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D217" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E217" s="160"/>
-      <c r="F217" s="161"/>
+      <c r="F217" s="161" t="s">
+        <v>1965</v>
+      </c>
       <c r="G217" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30631,13 +30671,15 @@
         <v>1746</v>
       </c>
       <c r="C218" s="158" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="D218" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E218" s="160"/>
-      <c r="F218" s="161"/>
+      <c r="F218" s="161" t="s">
+        <v>1967</v>
+      </c>
       <c r="G218" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30655,13 +30697,15 @@
         <v>1746</v>
       </c>
       <c r="C219" s="158" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="D219" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E219" s="160"/>
-      <c r="F219" s="161"/>
+      <c r="F219" s="161" t="s">
+        <v>1969</v>
+      </c>
       <c r="G219" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30679,13 +30723,15 @@
         <v>1746</v>
       </c>
       <c r="C220" s="158" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="D220" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E220" s="160"/>
-      <c r="F220" s="161"/>
+      <c r="F220" s="161" t="s">
+        <v>1971</v>
+      </c>
       <c r="G220" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30703,13 +30749,15 @@
         <v>1746</v>
       </c>
       <c r="C221" s="158" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="D221" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E221" s="160"/>
-      <c r="F221" s="161"/>
+      <c r="F221" s="161" t="s">
+        <v>1973</v>
+      </c>
       <c r="G221" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30727,13 +30775,15 @@
         <v>1746</v>
       </c>
       <c r="C222" s="158" t="s">
-        <v>1968</v>
+        <v>1974</v>
       </c>
       <c r="D222" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E222" s="160"/>
-      <c r="F222" s="161"/>
+      <c r="F222" s="161" t="s">
+        <v>1975</v>
+      </c>
       <c r="G222" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30751,13 +30801,15 @@
         <v>1746</v>
       </c>
       <c r="C223" s="158" t="s">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="D223" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E223" s="160"/>
-      <c r="F223" s="161"/>
+      <c r="F223" s="161" t="s">
+        <v>1977</v>
+      </c>
       <c r="G223" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30775,13 +30827,15 @@
         <v>1746</v>
       </c>
       <c r="C224" s="158" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="D224" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E224" s="160"/>
-      <c r="F224" s="161"/>
+      <c r="F224" s="161" t="s">
+        <v>1979</v>
+      </c>
       <c r="G224" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30799,13 +30853,15 @@
         <v>1746</v>
       </c>
       <c r="C225" s="158" t="s">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="D225" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E225" s="160"/>
-      <c r="F225" s="161"/>
+      <c r="F225" s="161" t="s">
+        <v>1981</v>
+      </c>
       <c r="G225" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30823,13 +30879,15 @@
         <v>1746</v>
       </c>
       <c r="C226" s="158" t="s">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="D226" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E226" s="160"/>
-      <c r="F226" s="161"/>
+      <c r="F226" s="161" t="s">
+        <v>1983</v>
+      </c>
       <c r="G226" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30847,13 +30905,15 @@
         <v>1746</v>
       </c>
       <c r="C227" s="158" t="s">
-        <v>1973</v>
+        <v>1984</v>
       </c>
       <c r="D227" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E227" s="160"/>
-      <c r="F227" s="161"/>
+      <c r="F227" s="161" t="s">
+        <v>1985</v>
+      </c>
       <c r="G227" s="159" t="s">
         <v>1751</v>
       </c>
@@ -30871,14 +30931,14 @@
         <v>1746</v>
       </c>
       <c r="C228" s="158" t="s">
-        <v>1974</v>
+        <v>1986</v>
       </c>
       <c r="D228" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E228" s="160"/>
       <c r="F228" s="161" t="s">
-        <v>1975</v>
+        <v>1987</v>
       </c>
       <c r="G228" s="159" t="s">
         <v>1751</v>
@@ -30897,14 +30957,14 @@
         <v>1746</v>
       </c>
       <c r="C229" s="158" t="s">
-        <v>1976</v>
+        <v>1988</v>
       </c>
       <c r="D229" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E229" s="160"/>
       <c r="F229" s="161" t="s">
-        <v>1977</v>
+        <v>1989</v>
       </c>
       <c r="G229" s="159" t="s">
         <v>1751</v>
@@ -30923,14 +30983,14 @@
         <v>1746</v>
       </c>
       <c r="C230" s="158" t="s">
-        <v>1978</v>
+        <v>1990</v>
       </c>
       <c r="D230" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E230" s="160"/>
       <c r="F230" s="161" t="s">
-        <v>1979</v>
+        <v>1991</v>
       </c>
       <c r="G230" s="159" t="s">
         <v>1751</v>
@@ -30949,14 +31009,14 @@
         <v>1746</v>
       </c>
       <c r="C231" s="158" t="s">
-        <v>1980</v>
+        <v>1992</v>
       </c>
       <c r="D231" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E231" s="160"/>
       <c r="F231" s="161" t="s">
-        <v>1981</v>
+        <v>1993</v>
       </c>
       <c r="G231" s="159" t="s">
         <v>1751</v>
@@ -30975,14 +31035,14 @@
         <v>1746</v>
       </c>
       <c r="C232" s="158" t="s">
-        <v>1982</v>
+        <v>1994</v>
       </c>
       <c r="D232" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E232" s="160"/>
       <c r="F232" s="161" t="s">
-        <v>1983</v>
+        <v>1995</v>
       </c>
       <c r="G232" s="159" t="s">
         <v>1751</v>
@@ -31001,14 +31061,14 @@
         <v>1746</v>
       </c>
       <c r="C233" s="158" t="s">
-        <v>1984</v>
+        <v>1996</v>
       </c>
       <c r="D233" s="159" t="s">
         <v>1748</v>
       </c>
       <c r="E233" s="160"/>
       <c r="F233" s="161" t="s">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="G233" s="159" t="s">
         <v>1751</v>
@@ -31027,14 +31087,14 @@
         <v>1746</v>
       </c>
       <c r="C234" s="185" t="s">
-        <v>1986</v>
+        <v>1998</v>
       </c>
       <c r="D234" s="180" t="s">
         <v>1748</v>
       </c>
       <c r="E234" s="181"/>
       <c r="F234" s="182" t="s">
-        <v>1987</v>
+        <v>1999</v>
       </c>
       <c r="G234" s="180" t="s">
         <v>1751</v>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5478" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5540" uniqueCount="2000">
   <si>
     <t>A#3</t>
   </si>
@@ -5253,6 +5253,84 @@
     <t>{2, 3, 4, 6, 7, 12, 14, 21, 28, 42}</t>
   </si>
   <si>
+    <t>_refill</t>
+  </si>
+  <si>
+    <t>_response</t>
+  </si>
+  <si>
+    <t>_general</t>
+  </si>
+  <si>
+    <t>_wish</t>
+  </si>
+  <si>
+    <t>_authentication</t>
+  </si>
+  <si>
+    <t>_debit</t>
+  </si>
+  <si>
+    <t>_planet</t>
+  </si>
+  <si>
+    <t>_hibernate</t>
+  </si>
+  <si>
+    <t>_namespace</t>
+  </si>
+  <si>
+    <t>_methodology</t>
+  </si>
+  <si>
+    <t>_library</t>
+  </si>
+  <si>
+    <t>_accessory</t>
+  </si>
+  <si>
+    <t>_miscellaneous</t>
+  </si>
+  <si>
+    <t>_repository</t>
+  </si>
+  <si>
+    <t>_pastel</t>
+  </si>
+  <si>
+    <t>_server</t>
+  </si>
+  <si>
+    <t>_investment</t>
+  </si>
+  <si>
+    <t>_framework</t>
+  </si>
+  <si>
+    <t>_display</t>
+  </si>
+  <si>
+    <t>_master</t>
+  </si>
+  <si>
+    <t>_credit</t>
+  </si>
+  <si>
+    <t>_authorisation</t>
+  </si>
+  <si>
+    <t>_quit</t>
+  </si>
+  <si>
+    <t>_kernel</t>
+  </si>
+  <si>
+    <t>_platform</t>
+  </si>
+  <si>
+    <t>_problem</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -5859,157 +5937,79 @@
     <t>Wrap</t>
   </si>
   <si>
-    <t>_refill</t>
-  </si>
-  <si>
     <t>Chair</t>
   </si>
   <si>
-    <t>_response</t>
-  </si>
-  <si>
     <t>Temporary</t>
   </si>
   <si>
-    <t>_general</t>
-  </si>
-  <si>
     <t>Explanation</t>
   </si>
   <si>
-    <t>_wish</t>
-  </si>
-  <si>
     <t>Portfolio</t>
   </si>
   <si>
-    <t>_authentication</t>
-  </si>
-  <si>
     <t>Mnemonic</t>
   </si>
   <si>
-    <t>_debit</t>
-  </si>
-  <si>
     <t>Exclusive</t>
   </si>
   <si>
-    <t>_planet</t>
-  </si>
-  <si>
     <t>Earth</t>
   </si>
   <si>
-    <t>_hibernate</t>
-  </si>
-  <si>
     <t>Excel</t>
   </si>
   <si>
-    <t>_namespace</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
-    <t>_methodology</t>
-  </si>
-  <si>
     <t>Voucher</t>
   </si>
   <si>
-    <t>_library</t>
-  </si>
-  <si>
     <t>Favourite</t>
   </si>
   <si>
-    <t>_accessory</t>
-  </si>
-  <si>
     <t>Solidarity</t>
   </si>
   <si>
-    <t>_miscellaneous</t>
-  </si>
-  <si>
     <t>Profession</t>
   </si>
   <si>
-    <t>_repository</t>
-  </si>
-  <si>
     <t>Inclusive</t>
   </si>
   <si>
-    <t>_pastel</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
-    <t>_server</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
-    <t>_investment</t>
-  </si>
-  <si>
     <t>Advisory</t>
   </si>
   <si>
-    <t>_framework</t>
-  </si>
-  <si>
     <t>Synonymous</t>
   </si>
   <si>
-    <t>_display</t>
-  </si>
-  <si>
     <t>Ultimate</t>
   </si>
   <si>
-    <t>_master</t>
-  </si>
-  <si>
     <t>Pressure</t>
   </si>
   <si>
-    <t>_credit</t>
-  </si>
-  <si>
     <t>Typo</t>
   </si>
   <si>
-    <t>_authorisation</t>
-  </si>
-  <si>
     <t>Smart</t>
   </si>
   <si>
-    <t>_quit</t>
-  </si>
-  <si>
     <t>Notice</t>
   </si>
   <si>
-    <t>_kernel</t>
-  </si>
-  <si>
     <t>Afterword</t>
   </si>
   <si>
-    <t>_platform</t>
-  </si>
-  <si>
     <t>Album</t>
-  </si>
-  <si>
-    <t>_problem</t>
   </si>
   <si>
     <t>Quotation</t>
@@ -16095,223 +16095,579 @@
       <c r="AI96" s="57"/>
     </row>
     <row r="97">
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="4">
+      <c r="B97" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="94" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E97" s="95" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F97" s="95" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G97" s="95" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H97" s="95" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I97" s="95" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J97" s="95" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K97" s="95" t="s">
+        <v>1753</v>
+      </c>
+      <c r="L97" s="95" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M97" s="95" t="s">
+        <v>1755</v>
+      </c>
+      <c r="N97" s="95" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O97" s="95" t="s">
+        <v>1757</v>
+      </c>
+      <c r="P97" s="95" t="s">
+        <v>1758</v>
+      </c>
+      <c r="Q97" s="95" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R97" s="95" t="s">
+        <v>1760</v>
+      </c>
+      <c r="S97" s="95" t="s">
+        <v>1761</v>
+      </c>
+      <c r="T97" s="95" t="s">
+        <v>1762</v>
+      </c>
+      <c r="U97" s="95" t="s">
+        <v>1763</v>
+      </c>
+      <c r="V97" s="95" t="s">
+        <v>1764</v>
+      </c>
+      <c r="W97" s="95" t="s">
+        <v>1765</v>
+      </c>
+      <c r="X97" s="95" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Y97" s="95" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Z97" s="95" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AA97" s="95" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AB97" s="95" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AC97" s="96" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="24"/>
+      <c r="AF97" s="25"/>
+      <c r="AG97" s="26"/>
+      <c r="AH97" s="27"/>
+      <c r="AI97" s="19"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="67"/>
+      <c r="B98" s="68">
         <v>1.0</v>
       </c>
-      <c r="E97" s="5">
+      <c r="C98" s="1"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="70"/>
+      <c r="N98" s="70"/>
+      <c r="O98" s="70"/>
+      <c r="P98" s="70"/>
+      <c r="Q98" s="70"/>
+      <c r="R98" s="70"/>
+      <c r="S98" s="70"/>
+      <c r="T98" s="70"/>
+      <c r="U98" s="70"/>
+      <c r="V98" s="70"/>
+      <c r="W98" s="70"/>
+      <c r="X98" s="70"/>
+      <c r="Y98" s="70"/>
+      <c r="Z98" s="70"/>
+      <c r="AA98" s="70"/>
+      <c r="AB98" s="70"/>
+      <c r="AC98" s="71"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="31"/>
+      <c r="AF98" s="32"/>
+      <c r="AG98" s="33"/>
+      <c r="AH98" s="34"/>
+      <c r="AI98" s="57"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="67"/>
+      <c r="B99" s="72">
         <v>2.0</v>
       </c>
-      <c r="F97" s="5">
+      <c r="C99" s="1"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="81"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="81"/>
+      <c r="K99" s="81"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="81"/>
+      <c r="N99" s="81"/>
+      <c r="O99" s="81"/>
+      <c r="P99" s="81"/>
+      <c r="Q99" s="81"/>
+      <c r="R99" s="81"/>
+      <c r="S99" s="81"/>
+      <c r="T99" s="81"/>
+      <c r="U99" s="81"/>
+      <c r="V99" s="81"/>
+      <c r="W99" s="81"/>
+      <c r="X99" s="81"/>
+      <c r="Y99" s="81"/>
+      <c r="Z99" s="81"/>
+      <c r="AA99" s="81"/>
+      <c r="AB99" s="81"/>
+      <c r="AC99" s="82"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="83"/>
+      <c r="AF99" s="84"/>
+      <c r="AG99" s="85"/>
+      <c r="AH99" s="86"/>
+      <c r="AI99" s="57"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="57"/>
+      <c r="B100" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="30"/>
+      <c r="AC100" s="28"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="31"/>
+      <c r="AF100" s="32"/>
+      <c r="AG100" s="33"/>
+      <c r="AH100" s="34"/>
+      <c r="AI100" s="57"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="87"/>
+      <c r="B101" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="37"/>
+      <c r="X101" s="37"/>
+      <c r="Y101" s="37"/>
+      <c r="Z101" s="37"/>
+      <c r="AA101" s="37"/>
+      <c r="AB101" s="37"/>
+      <c r="AC101" s="35"/>
+      <c r="AD101" s="38"/>
+      <c r="AE101" s="39"/>
+      <c r="AF101" s="40"/>
+      <c r="AG101" s="41"/>
+      <c r="AH101" s="42"/>
+      <c r="AI101" s="87"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="57"/>
+      <c r="B102" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="45"/>
+      <c r="N102" s="45"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="45"/>
+      <c r="Q102" s="45"/>
+      <c r="R102" s="45"/>
+      <c r="S102" s="45"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="45"/>
+      <c r="V102" s="45"/>
+      <c r="W102" s="45"/>
+      <c r="X102" s="45"/>
+      <c r="Y102" s="45"/>
+      <c r="Z102" s="45"/>
+      <c r="AA102" s="45"/>
+      <c r="AB102" s="45"/>
+      <c r="AC102" s="43"/>
+      <c r="AE102" s="98"/>
+      <c r="AF102" s="76"/>
+      <c r="AG102" s="99"/>
+      <c r="AH102" s="78"/>
+      <c r="AI102" s="57"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="87"/>
+      <c r="B103" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="52"/>
+      <c r="P103" s="52"/>
+      <c r="Q103" s="52"/>
+      <c r="R103" s="52"/>
+      <c r="S103" s="52"/>
+      <c r="T103" s="52"/>
+      <c r="U103" s="52"/>
+      <c r="V103" s="52"/>
+      <c r="W103" s="52"/>
+      <c r="X103" s="52"/>
+      <c r="Y103" s="52"/>
+      <c r="Z103" s="52"/>
+      <c r="AA103" s="52"/>
+      <c r="AB103" s="52"/>
+      <c r="AC103" s="50"/>
+      <c r="AE103" s="89"/>
+      <c r="AF103" s="54"/>
+      <c r="AG103" s="55"/>
+      <c r="AH103" s="56"/>
+      <c r="AI103" s="87"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="57"/>
+      <c r="B104" s="57"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="58"/>
+      <c r="S104" s="58"/>
+      <c r="T104" s="58"/>
+      <c r="U104" s="58"/>
+      <c r="V104" s="58"/>
+      <c r="W104" s="58"/>
+      <c r="X104" s="58"/>
+      <c r="Y104" s="58"/>
+      <c r="Z104" s="58"/>
+      <c r="AA104" s="58"/>
+      <c r="AB104" s="58"/>
+      <c r="AC104" s="58"/>
+      <c r="AE104" s="60"/>
+      <c r="AF104" s="97"/>
+      <c r="AG104" s="60"/>
+      <c r="AH104" s="97"/>
+      <c r="AI104" s="57"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="3"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E105" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F105" s="5">
         <v>3.0</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G105" s="5">
         <v>4.0</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H105" s="5">
         <v>5.0</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I105" s="5">
         <v>6.0</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J105" s="5">
         <v>7.0</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K105" s="5">
         <v>8.0</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L105" s="5">
         <v>9.0</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M105" s="5">
         <v>10.0</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N105" s="5">
         <v>11.0</v>
       </c>
-      <c r="O97" s="5">
+      <c r="O105" s="5">
         <v>12.0</v>
       </c>
-      <c r="P97" s="5">
+      <c r="P105" s="5">
         <v>13.0</v>
       </c>
-      <c r="Q97" s="5">
+      <c r="Q105" s="5">
         <v>14.0</v>
       </c>
-      <c r="R97" s="5">
+      <c r="R105" s="5">
         <v>15.0</v>
       </c>
-      <c r="S97" s="5">
+      <c r="S105" s="5">
         <v>16.0</v>
       </c>
-      <c r="T97" s="5">
+      <c r="T105" s="5">
         <v>17.0</v>
       </c>
-      <c r="U97" s="5">
+      <c r="U105" s="5">
         <v>18.0</v>
       </c>
-      <c r="V97" s="5">
+      <c r="V105" s="5">
         <v>19.0</v>
       </c>
-      <c r="W97" s="5">
+      <c r="W105" s="5">
         <v>20.0</v>
       </c>
-      <c r="X97" s="5">
+      <c r="X105" s="5">
         <v>21.0</v>
       </c>
-      <c r="Y97" s="5">
+      <c r="Y105" s="5">
         <v>22.0</v>
       </c>
-      <c r="Z97" s="5">
+      <c r="Z105" s="5">
         <v>23.0</v>
       </c>
-      <c r="AA97" s="5">
+      <c r="AA105" s="5">
         <v>24.0</v>
       </c>
-      <c r="AB97" s="5">
+      <c r="AB105" s="5">
         <v>25.0</v>
       </c>
-      <c r="AC97" s="6">
+      <c r="AC105" s="6">
         <v>26.0</v>
       </c>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="7"/>
-      <c r="AF97" s="8"/>
-      <c r="AG97" s="9"/>
-      <c r="AH97" s="10"/>
-      <c r="AI97" s="1"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="11"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="12" t="s">
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="7"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="9"/>
+      <c r="AH105" s="10"/>
+      <c r="AI105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="11"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E106" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G106" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H98" s="13" t="s">
+      <c r="H106" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I106" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J98" s="13" t="s">
+      <c r="J106" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="K106" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="13" t="s">
+      <c r="L106" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M98" s="13" t="s">
+      <c r="M106" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N98" s="13" t="s">
+      <c r="N106" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O98" s="13" t="s">
+      <c r="O106" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P98" s="13" t="s">
+      <c r="P106" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q98" s="13" t="s">
+      <c r="Q106" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R98" s="13" t="s">
+      <c r="R106" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S98" s="13" t="s">
+      <c r="S106" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T98" s="13" t="s">
+      <c r="T106" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="U98" s="13" t="s">
+      <c r="U106" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V98" s="13" t="s">
+      <c r="V106" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W98" s="13" t="s">
+      <c r="W106" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X98" s="13" t="s">
+      <c r="X106" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Y98" s="13" t="s">
+      <c r="Y106" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Z98" s="13" t="s">
+      <c r="Z106" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA98" s="13" t="s">
+      <c r="AA106" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB98" s="13" t="s">
+      <c r="AB106" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AC98" s="14" t="s">
+      <c r="AC106" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="15" t="s">
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AF98" s="16" t="s">
+      <c r="AF106" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AG98" s="17" t="s">
+      <c r="AG106" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AH98" s="18" t="s">
+      <c r="AH106" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AI98" s="19"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="58"/>
-      <c r="P99" s="58"/>
-      <c r="Q99" s="58"/>
-      <c r="R99" s="58"/>
-      <c r="S99" s="58"/>
-      <c r="T99" s="58"/>
-      <c r="U99" s="58"/>
-      <c r="V99" s="58"/>
-      <c r="W99" s="58"/>
-      <c r="X99" s="58"/>
-      <c r="Y99" s="58"/>
-      <c r="Z99" s="58"/>
-      <c r="AA99" s="58"/>
-      <c r="AB99" s="58"/>
-      <c r="AC99" s="58"/>
-      <c r="AE99" s="60"/>
-      <c r="AF99" s="97"/>
-      <c r="AG99" s="60"/>
-      <c r="AH99" s="97"/>
-      <c r="AI99" s="57"/>
+      <c r="AI106" s="19"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+      <c r="S107" s="58"/>
+      <c r="T107" s="58"/>
+      <c r="U107" s="58"/>
+      <c r="V107" s="58"/>
+      <c r="W107" s="58"/>
+      <c r="X107" s="58"/>
+      <c r="Y107" s="58"/>
+      <c r="Z107" s="58"/>
+      <c r="AA107" s="58"/>
+      <c r="AB107" s="58"/>
+      <c r="AC107" s="58"/>
+      <c r="AE107" s="60"/>
+      <c r="AF107" s="97"/>
+      <c r="AG107" s="60"/>
+      <c r="AH107" s="97"/>
+      <c r="AI107" s="57"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -25025,223 +25381,579 @@
       <c r="AI96" s="57"/>
     </row>
     <row r="97">
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="4">
+      <c r="B97" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="94" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E97" s="95" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F97" s="95" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G97" s="95" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H97" s="95" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I97" s="95" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J97" s="95" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K97" s="95" t="s">
+        <v>1753</v>
+      </c>
+      <c r="L97" s="95" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M97" s="95" t="s">
+        <v>1755</v>
+      </c>
+      <c r="N97" s="95" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O97" s="95" t="s">
+        <v>1757</v>
+      </c>
+      <c r="P97" s="95" t="s">
+        <v>1758</v>
+      </c>
+      <c r="Q97" s="95" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R97" s="95" t="s">
+        <v>1760</v>
+      </c>
+      <c r="S97" s="95" t="s">
+        <v>1761</v>
+      </c>
+      <c r="T97" s="95" t="s">
+        <v>1762</v>
+      </c>
+      <c r="U97" s="95" t="s">
+        <v>1763</v>
+      </c>
+      <c r="V97" s="95" t="s">
+        <v>1764</v>
+      </c>
+      <c r="W97" s="95" t="s">
+        <v>1765</v>
+      </c>
+      <c r="X97" s="95" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Y97" s="95" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Z97" s="95" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AA97" s="95" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AB97" s="95" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AC97" s="96" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="24"/>
+      <c r="AF97" s="25"/>
+      <c r="AG97" s="26"/>
+      <c r="AH97" s="27"/>
+      <c r="AI97" s="19"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="67"/>
+      <c r="B98" s="68">
         <v>1.0</v>
       </c>
-      <c r="E97" s="5">
+      <c r="C98" s="1"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="70"/>
+      <c r="N98" s="70"/>
+      <c r="O98" s="70"/>
+      <c r="P98" s="70"/>
+      <c r="Q98" s="70"/>
+      <c r="R98" s="70"/>
+      <c r="S98" s="70"/>
+      <c r="T98" s="70"/>
+      <c r="U98" s="70"/>
+      <c r="V98" s="70"/>
+      <c r="W98" s="70"/>
+      <c r="X98" s="70"/>
+      <c r="Y98" s="70"/>
+      <c r="Z98" s="70"/>
+      <c r="AA98" s="70"/>
+      <c r="AB98" s="70"/>
+      <c r="AC98" s="71"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="31"/>
+      <c r="AF98" s="32"/>
+      <c r="AG98" s="33"/>
+      <c r="AH98" s="34"/>
+      <c r="AI98" s="57"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="67"/>
+      <c r="B99" s="72">
         <v>2.0</v>
       </c>
-      <c r="F97" s="5">
+      <c r="C99" s="1"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="81"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="81"/>
+      <c r="K99" s="81"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="81"/>
+      <c r="N99" s="81"/>
+      <c r="O99" s="81"/>
+      <c r="P99" s="81"/>
+      <c r="Q99" s="81"/>
+      <c r="R99" s="81"/>
+      <c r="S99" s="81"/>
+      <c r="T99" s="81"/>
+      <c r="U99" s="81"/>
+      <c r="V99" s="81"/>
+      <c r="W99" s="81"/>
+      <c r="X99" s="81"/>
+      <c r="Y99" s="81"/>
+      <c r="Z99" s="81"/>
+      <c r="AA99" s="81"/>
+      <c r="AB99" s="81"/>
+      <c r="AC99" s="82"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="83"/>
+      <c r="AF99" s="84"/>
+      <c r="AG99" s="85"/>
+      <c r="AH99" s="86"/>
+      <c r="AI99" s="57"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="57"/>
+      <c r="B100" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="30"/>
+      <c r="AC100" s="28"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="31"/>
+      <c r="AF100" s="32"/>
+      <c r="AG100" s="33"/>
+      <c r="AH100" s="34"/>
+      <c r="AI100" s="57"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="87"/>
+      <c r="B101" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="37"/>
+      <c r="X101" s="37"/>
+      <c r="Y101" s="37"/>
+      <c r="Z101" s="37"/>
+      <c r="AA101" s="37"/>
+      <c r="AB101" s="37"/>
+      <c r="AC101" s="35"/>
+      <c r="AD101" s="38"/>
+      <c r="AE101" s="39"/>
+      <c r="AF101" s="40"/>
+      <c r="AG101" s="41"/>
+      <c r="AH101" s="42"/>
+      <c r="AI101" s="87"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="57"/>
+      <c r="B102" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="45"/>
+      <c r="N102" s="45"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="45"/>
+      <c r="Q102" s="45"/>
+      <c r="R102" s="45"/>
+      <c r="S102" s="45"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="45"/>
+      <c r="V102" s="45"/>
+      <c r="W102" s="45"/>
+      <c r="X102" s="45"/>
+      <c r="Y102" s="45"/>
+      <c r="Z102" s="45"/>
+      <c r="AA102" s="45"/>
+      <c r="AB102" s="45"/>
+      <c r="AC102" s="43"/>
+      <c r="AE102" s="98"/>
+      <c r="AF102" s="76"/>
+      <c r="AG102" s="99"/>
+      <c r="AH102" s="78"/>
+      <c r="AI102" s="57"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="87"/>
+      <c r="B103" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="52"/>
+      <c r="P103" s="52"/>
+      <c r="Q103" s="52"/>
+      <c r="R103" s="52"/>
+      <c r="S103" s="52"/>
+      <c r="T103" s="52"/>
+      <c r="U103" s="52"/>
+      <c r="V103" s="52"/>
+      <c r="W103" s="52"/>
+      <c r="X103" s="52"/>
+      <c r="Y103" s="52"/>
+      <c r="Z103" s="52"/>
+      <c r="AA103" s="52"/>
+      <c r="AB103" s="52"/>
+      <c r="AC103" s="50"/>
+      <c r="AE103" s="89"/>
+      <c r="AF103" s="54"/>
+      <c r="AG103" s="55"/>
+      <c r="AH103" s="56"/>
+      <c r="AI103" s="87"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="57"/>
+      <c r="B104" s="57"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="58"/>
+      <c r="S104" s="58"/>
+      <c r="T104" s="58"/>
+      <c r="U104" s="58"/>
+      <c r="V104" s="58"/>
+      <c r="W104" s="58"/>
+      <c r="X104" s="58"/>
+      <c r="Y104" s="58"/>
+      <c r="Z104" s="58"/>
+      <c r="AA104" s="58"/>
+      <c r="AB104" s="58"/>
+      <c r="AC104" s="58"/>
+      <c r="AE104" s="60"/>
+      <c r="AF104" s="97"/>
+      <c r="AG104" s="60"/>
+      <c r="AH104" s="97"/>
+      <c r="AI104" s="57"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="3"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E105" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F105" s="5">
         <v>3.0</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G105" s="5">
         <v>4.0</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H105" s="5">
         <v>5.0</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I105" s="5">
         <v>6.0</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J105" s="5">
         <v>7.0</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K105" s="5">
         <v>8.0</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L105" s="5">
         <v>9.0</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M105" s="5">
         <v>10.0</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N105" s="5">
         <v>11.0</v>
       </c>
-      <c r="O97" s="5">
+      <c r="O105" s="5">
         <v>12.0</v>
       </c>
-      <c r="P97" s="5">
+      <c r="P105" s="5">
         <v>13.0</v>
       </c>
-      <c r="Q97" s="5">
+      <c r="Q105" s="5">
         <v>14.0</v>
       </c>
-      <c r="R97" s="5">
+      <c r="R105" s="5">
         <v>15.0</v>
       </c>
-      <c r="S97" s="5">
+      <c r="S105" s="5">
         <v>16.0</v>
       </c>
-      <c r="T97" s="5">
+      <c r="T105" s="5">
         <v>17.0</v>
       </c>
-      <c r="U97" s="5">
+      <c r="U105" s="5">
         <v>18.0</v>
       </c>
-      <c r="V97" s="5">
+      <c r="V105" s="5">
         <v>19.0</v>
       </c>
-      <c r="W97" s="5">
+      <c r="W105" s="5">
         <v>20.0</v>
       </c>
-      <c r="X97" s="5">
+      <c r="X105" s="5">
         <v>21.0</v>
       </c>
-      <c r="Y97" s="5">
+      <c r="Y105" s="5">
         <v>22.0</v>
       </c>
-      <c r="Z97" s="5">
+      <c r="Z105" s="5">
         <v>23.0</v>
       </c>
-      <c r="AA97" s="5">
+      <c r="AA105" s="5">
         <v>24.0</v>
       </c>
-      <c r="AB97" s="5">
+      <c r="AB105" s="5">
         <v>25.0</v>
       </c>
-      <c r="AC97" s="6">
+      <c r="AC105" s="6">
         <v>26.0</v>
       </c>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="7"/>
-      <c r="AF97" s="8"/>
-      <c r="AG97" s="9"/>
-      <c r="AH97" s="10"/>
-      <c r="AI97" s="1"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="11"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="12" t="s">
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="7"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="9"/>
+      <c r="AH105" s="10"/>
+      <c r="AI105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="11"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E106" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G106" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H98" s="13" t="s">
+      <c r="H106" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I106" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J98" s="13" t="s">
+      <c r="J106" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="K106" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="13" t="s">
+      <c r="L106" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M98" s="13" t="s">
+      <c r="M106" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N98" s="13" t="s">
+      <c r="N106" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O98" s="13" t="s">
+      <c r="O106" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P98" s="13" t="s">
+      <c r="P106" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q98" s="13" t="s">
+      <c r="Q106" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R98" s="13" t="s">
+      <c r="R106" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S98" s="13" t="s">
+      <c r="S106" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T98" s="13" t="s">
+      <c r="T106" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="U98" s="13" t="s">
+      <c r="U106" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V98" s="13" t="s">
+      <c r="V106" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W98" s="13" t="s">
+      <c r="W106" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X98" s="13" t="s">
+      <c r="X106" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Y98" s="13" t="s">
+      <c r="Y106" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Z98" s="13" t="s">
+      <c r="Z106" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA98" s="13" t="s">
+      <c r="AA106" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB98" s="13" t="s">
+      <c r="AB106" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AC98" s="14" t="s">
+      <c r="AC106" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="15" t="s">
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AF98" s="16" t="s">
+      <c r="AF106" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AG98" s="17" t="s">
+      <c r="AG106" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AH98" s="18" t="s">
+      <c r="AH106" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AI98" s="19"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="58"/>
-      <c r="P99" s="58"/>
-      <c r="Q99" s="58"/>
-      <c r="R99" s="58"/>
-      <c r="S99" s="58"/>
-      <c r="T99" s="58"/>
-      <c r="U99" s="58"/>
-      <c r="V99" s="58"/>
-      <c r="W99" s="58"/>
-      <c r="X99" s="58"/>
-      <c r="Y99" s="58"/>
-      <c r="Z99" s="58"/>
-      <c r="AA99" s="58"/>
-      <c r="AB99" s="58"/>
-      <c r="AC99" s="58"/>
-      <c r="AE99" s="60"/>
-      <c r="AF99" s="97"/>
-      <c r="AG99" s="60"/>
-      <c r="AH99" s="97"/>
-      <c r="AI99" s="57"/>
+      <c r="AI106" s="19"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+      <c r="S107" s="58"/>
+      <c r="T107" s="58"/>
+      <c r="U107" s="58"/>
+      <c r="V107" s="58"/>
+      <c r="W107" s="58"/>
+      <c r="X107" s="58"/>
+      <c r="Y107" s="58"/>
+      <c r="Z107" s="58"/>
+      <c r="AA107" s="58"/>
+      <c r="AB107" s="58"/>
+      <c r="AC107" s="58"/>
+      <c r="AE107" s="60"/>
+      <c r="AF107" s="97"/>
+      <c r="AG107" s="60"/>
+      <c r="AH107" s="97"/>
+      <c r="AI107" s="57"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -25309,28 +26021,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="167" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C4" s="168" t="s">
-        <v>1747</v>
+        <v>1773</v>
       </c>
       <c r="D4" s="169" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>1749</v>
+        <v>1775</v>
       </c>
       <c r="F4" s="171" t="s">
-        <v>1750</v>
+        <v>1776</v>
       </c>
       <c r="G4" s="169" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H4" s="172" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="173" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -25348,676 +26060,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C6" s="177" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E6" s="160"/>
       <c r="F6" s="161" t="s">
-        <v>1752</v>
+        <v>1778</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H6" s="162">
         <v>1.0</v>
       </c>
       <c r="I6" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C7" s="177" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="161" t="s">
-        <v>1753</v>
+        <v>1779</v>
       </c>
       <c r="G7" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H7" s="162">
         <v>2.0</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C8" s="177" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E8" s="160"/>
       <c r="F8" s="161" t="s">
-        <v>1754</v>
+        <v>1780</v>
       </c>
       <c r="G8" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H8" s="162">
         <v>3.0</v>
       </c>
       <c r="I8" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C9" s="177" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E9" s="160"/>
       <c r="F9" s="161" t="s">
-        <v>1755</v>
+        <v>1781</v>
       </c>
       <c r="G9" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H9" s="162">
         <v>4.0</v>
       </c>
       <c r="I9" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C10" s="177" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E10" s="160"/>
       <c r="F10" s="161" t="s">
-        <v>1756</v>
+        <v>1782</v>
       </c>
       <c r="G10" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H10" s="162">
         <v>5.0</v>
       </c>
       <c r="I10" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E11" s="160"/>
       <c r="F11" s="161" t="s">
-        <v>1757</v>
+        <v>1783</v>
       </c>
       <c r="G11" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H11" s="162">
         <v>6.0</v>
       </c>
       <c r="I11" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C12" s="177" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E12" s="160"/>
       <c r="F12" s="161" t="s">
-        <v>1758</v>
+        <v>1784</v>
       </c>
       <c r="G12" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H12" s="162">
         <v>7.0</v>
       </c>
       <c r="I12" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E13" s="160"/>
       <c r="F13" s="161" t="s">
-        <v>1759</v>
+        <v>1785</v>
       </c>
       <c r="G13" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H13" s="162">
         <v>8.0</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C14" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E14" s="160"/>
       <c r="F14" s="161" t="s">
-        <v>1760</v>
+        <v>1786</v>
       </c>
       <c r="G14" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H14" s="162">
         <v>9.0</v>
       </c>
       <c r="I14" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E15" s="160"/>
       <c r="F15" s="161" t="s">
-        <v>1761</v>
+        <v>1787</v>
       </c>
       <c r="G15" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H15" s="162">
         <v>10.0</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C16" s="177" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E16" s="160"/>
       <c r="F16" s="161" t="s">
-        <v>1762</v>
+        <v>1788</v>
       </c>
       <c r="G16" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H16" s="162">
         <v>11.0</v>
       </c>
       <c r="I16" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C17" s="177" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E17" s="160"/>
       <c r="F17" s="161" t="s">
-        <v>1763</v>
+        <v>1789</v>
       </c>
       <c r="G17" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H17" s="162">
         <v>12.0</v>
       </c>
       <c r="I17" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C18" s="177" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E18" s="160"/>
       <c r="F18" s="161" t="s">
-        <v>1764</v>
+        <v>1790</v>
       </c>
       <c r="G18" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H18" s="162">
         <v>13.0</v>
       </c>
       <c r="I18" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C19" s="177" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E19" s="160"/>
       <c r="F19" s="161" t="s">
-        <v>1765</v>
+        <v>1791</v>
       </c>
       <c r="G19" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H19" s="162">
         <v>14.0</v>
       </c>
       <c r="I19" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C20" s="177" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E20" s="160"/>
       <c r="F20" s="161" t="s">
-        <v>1766</v>
+        <v>1792</v>
       </c>
       <c r="G20" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H20" s="162">
         <v>15.0</v>
       </c>
       <c r="I20" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C21" s="177" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E21" s="160"/>
       <c r="F21" s="161" t="s">
-        <v>1767</v>
+        <v>1793</v>
       </c>
       <c r="G21" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H21" s="162">
         <v>16.0</v>
       </c>
       <c r="I21" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C22" s="177" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="161" t="s">
-        <v>1768</v>
+        <v>1794</v>
       </c>
       <c r="G22" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H22" s="162">
         <v>17.0</v>
       </c>
       <c r="I22" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C23" s="177" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E23" s="160"/>
       <c r="F23" s="161" t="s">
-        <v>1769</v>
+        <v>1795</v>
       </c>
       <c r="G23" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H23" s="162">
         <v>18.0</v>
       </c>
       <c r="I23" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C24" s="177" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E24" s="160"/>
       <c r="F24" s="161" t="s">
-        <v>1770</v>
+        <v>1796</v>
       </c>
       <c r="G24" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H24" s="162">
         <v>19.0</v>
       </c>
       <c r="I24" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C25" s="177" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E25" s="160"/>
       <c r="F25" s="161" t="s">
-        <v>1771</v>
+        <v>1797</v>
       </c>
       <c r="G25" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H25" s="162">
         <v>20.0</v>
       </c>
       <c r="I25" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C26" s="177" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E26" s="160"/>
       <c r="F26" s="161" t="s">
-        <v>1772</v>
+        <v>1798</v>
       </c>
       <c r="G26" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H26" s="162">
         <v>21.0</v>
       </c>
       <c r="I26" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C27" s="177" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E27" s="160"/>
       <c r="F27" s="161" t="s">
-        <v>1773</v>
+        <v>1799</v>
       </c>
       <c r="G27" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H27" s="162">
         <v>22.0</v>
       </c>
       <c r="I27" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C28" s="177" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E28" s="160"/>
       <c r="F28" s="161" t="s">
-        <v>1774</v>
+        <v>1800</v>
       </c>
       <c r="G28" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H28" s="162">
         <v>23.0</v>
       </c>
       <c r="I28" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C29" s="177" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E29" s="160"/>
       <c r="F29" s="161" t="s">
-        <v>1775</v>
+        <v>1801</v>
       </c>
       <c r="G29" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H29" s="162">
         <v>24.0</v>
       </c>
       <c r="I29" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C30" s="177" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E30" s="160"/>
       <c r="F30" s="161" t="s">
-        <v>1776</v>
+        <v>1802</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H30" s="162">
         <v>25.0</v>
       </c>
       <c r="I30" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="178" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C31" s="179" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="180" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E31" s="181"/>
       <c r="F31" s="182" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G31" s="180" t="s">
         <v>1777</v>
-      </c>
-      <c r="G31" s="180" t="s">
-        <v>1751</v>
       </c>
       <c r="H31" s="183">
         <v>26.0</v>
       </c>
       <c r="I31" s="184" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -26035,28 +26747,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="167" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C33" s="168" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="169" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E33" s="170" t="s">
-        <v>1778</v>
+        <v>1804</v>
       </c>
       <c r="F33" s="171" t="s">
-        <v>1779</v>
+        <v>1805</v>
       </c>
       <c r="G33" s="169" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H33" s="172" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="173" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -26074,676 +26786,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C35" s="158" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E35" s="160"/>
       <c r="F35" s="161" t="s">
-        <v>1780</v>
+        <v>1806</v>
       </c>
       <c r="G35" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H35" s="162">
         <v>1.0</v>
       </c>
       <c r="I35" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C36" s="158" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E36" s="160"/>
       <c r="F36" s="161" t="s">
-        <v>1781</v>
+        <v>1807</v>
       </c>
       <c r="G36" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H36" s="162">
         <v>2.0</v>
       </c>
       <c r="I36" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C37" s="158" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E37" s="160"/>
       <c r="F37" s="161" t="s">
-        <v>1782</v>
+        <v>1808</v>
       </c>
       <c r="G37" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H37" s="162">
         <v>3.0</v>
       </c>
       <c r="I37" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C38" s="158" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E38" s="160"/>
       <c r="F38" s="161" t="s">
-        <v>1783</v>
+        <v>1809</v>
       </c>
       <c r="G38" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H38" s="162">
         <v>4.0</v>
       </c>
       <c r="I38" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C39" s="158" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E39" s="160"/>
       <c r="F39" s="161" t="s">
-        <v>1784</v>
+        <v>1810</v>
       </c>
       <c r="G39" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H39" s="162">
         <v>5.0</v>
       </c>
       <c r="I39" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C40" s="158" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E40" s="160"/>
       <c r="F40" s="161" t="s">
-        <v>1785</v>
+        <v>1811</v>
       </c>
       <c r="G40" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H40" s="162">
         <v>6.0</v>
       </c>
       <c r="I40" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C41" s="158" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E41" s="160"/>
       <c r="F41" s="161" t="s">
-        <v>1786</v>
+        <v>1812</v>
       </c>
       <c r="G41" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H41" s="162">
         <v>7.0</v>
       </c>
       <c r="I41" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C42" s="158" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E42" s="160"/>
       <c r="F42" s="161" t="s">
-        <v>1787</v>
+        <v>1813</v>
       </c>
       <c r="G42" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H42" s="162">
         <v>8.0</v>
       </c>
       <c r="I42" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C43" s="158" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E43" s="160"/>
       <c r="F43" s="161" t="s">
-        <v>1788</v>
+        <v>1814</v>
       </c>
       <c r="G43" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H43" s="162">
         <v>9.0</v>
       </c>
       <c r="I43" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C44" s="158" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E44" s="160"/>
       <c r="F44" s="161" t="s">
-        <v>1789</v>
+        <v>1815</v>
       </c>
       <c r="G44" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H44" s="162">
         <v>10.0</v>
       </c>
       <c r="I44" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C45" s="158" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E45" s="160"/>
       <c r="F45" s="161" t="s">
-        <v>1790</v>
+        <v>1816</v>
       </c>
       <c r="G45" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H45" s="162">
         <v>11.0</v>
       </c>
       <c r="I45" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C46" s="158" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E46" s="160"/>
       <c r="F46" s="161" t="s">
-        <v>1791</v>
+        <v>1817</v>
       </c>
       <c r="G46" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H46" s="162">
         <v>12.0</v>
       </c>
       <c r="I46" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C47" s="158" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E47" s="160"/>
       <c r="F47" s="161" t="s">
-        <v>1792</v>
+        <v>1818</v>
       </c>
       <c r="G47" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H47" s="162">
         <v>13.0</v>
       </c>
       <c r="I47" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C48" s="158" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E48" s="160"/>
       <c r="F48" s="161" t="s">
-        <v>1793</v>
+        <v>1819</v>
       </c>
       <c r="G48" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H48" s="162">
         <v>14.0</v>
       </c>
       <c r="I48" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C49" s="158" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E49" s="160"/>
       <c r="F49" s="161" t="s">
-        <v>1794</v>
+        <v>1820</v>
       </c>
       <c r="G49" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H49" s="162">
         <v>15.0</v>
       </c>
       <c r="I49" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C50" s="158" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E50" s="160"/>
       <c r="F50" s="161" t="s">
-        <v>1795</v>
+        <v>1821</v>
       </c>
       <c r="G50" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H50" s="162">
         <v>16.0</v>
       </c>
       <c r="I50" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C51" s="158" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E51" s="160"/>
       <c r="F51" s="161" t="s">
-        <v>1796</v>
+        <v>1822</v>
       </c>
       <c r="G51" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H51" s="162">
         <v>17.0</v>
       </c>
       <c r="I51" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C52" s="158" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E52" s="160"/>
       <c r="F52" s="161" t="s">
-        <v>1797</v>
+        <v>1823</v>
       </c>
       <c r="G52" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H52" s="162">
         <v>18.0</v>
       </c>
       <c r="I52" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C53" s="158" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E53" s="160"/>
       <c r="F53" s="161" t="s">
-        <v>1798</v>
+        <v>1824</v>
       </c>
       <c r="G53" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H53" s="162">
         <v>19.0</v>
       </c>
       <c r="I53" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C54" s="158" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E54" s="160"/>
       <c r="F54" s="161" t="s">
-        <v>1799</v>
+        <v>1825</v>
       </c>
       <c r="G54" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H54" s="162">
         <v>20.0</v>
       </c>
       <c r="I54" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C55" s="158" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E55" s="160"/>
       <c r="F55" s="161" t="s">
-        <v>1800</v>
+        <v>1826</v>
       </c>
       <c r="G55" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H55" s="162">
         <v>21.0</v>
       </c>
       <c r="I55" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C56" s="158" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E56" s="160"/>
       <c r="F56" s="161" t="s">
-        <v>1801</v>
+        <v>1827</v>
       </c>
       <c r="G56" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H56" s="162">
         <v>22.0</v>
       </c>
       <c r="I56" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C57" s="158" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E57" s="160"/>
       <c r="F57" s="161" t="s">
-        <v>1802</v>
+        <v>1828</v>
       </c>
       <c r="G57" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H57" s="162">
         <v>23.0</v>
       </c>
       <c r="I57" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C58" s="158" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E58" s="160"/>
       <c r="F58" s="161" t="s">
-        <v>1803</v>
+        <v>1829</v>
       </c>
       <c r="G58" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H58" s="162">
         <v>24.0</v>
       </c>
       <c r="I58" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C59" s="158" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E59" s="160"/>
       <c r="F59" s="161" t="s">
-        <v>1804</v>
+        <v>1830</v>
       </c>
       <c r="G59" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H59" s="162">
         <v>25.0</v>
       </c>
       <c r="I59" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="178" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C60" s="185" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E60" s="181"/>
       <c r="F60" s="182" t="s">
-        <v>1805</v>
+        <v>1831</v>
       </c>
       <c r="G60" s="180" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H60" s="183">
         <v>26.0</v>
       </c>
       <c r="I60" s="184" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -26761,28 +27473,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="167" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C62" s="168" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="169" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E62" s="170" t="s">
-        <v>1806</v>
+        <v>1832</v>
       </c>
       <c r="F62" s="171" t="s">
-        <v>1807</v>
+        <v>1833</v>
       </c>
       <c r="G62" s="169" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H62" s="172" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="173" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -26800,676 +27512,676 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C64" s="158" t="s">
         <v>452</v>
       </c>
       <c r="D64" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E64" s="160"/>
       <c r="F64" s="161" t="s">
-        <v>1808</v>
+        <v>1834</v>
       </c>
       <c r="G64" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H64" s="162">
         <v>1.0</v>
       </c>
       <c r="I64" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C65" s="158" t="s">
         <v>453</v>
       </c>
       <c r="D65" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E65" s="160"/>
       <c r="F65" s="161" t="s">
-        <v>1809</v>
+        <v>1835</v>
       </c>
       <c r="G65" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H65" s="162">
         <v>2.0</v>
       </c>
       <c r="I65" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C66" s="158" t="s">
         <v>454</v>
       </c>
       <c r="D66" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E66" s="160"/>
       <c r="F66" s="161" t="s">
-        <v>1810</v>
+        <v>1836</v>
       </c>
       <c r="G66" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H66" s="162">
         <v>3.0</v>
       </c>
       <c r="I66" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C67" s="158" t="s">
         <v>455</v>
       </c>
       <c r="D67" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E67" s="160"/>
       <c r="F67" s="161" t="s">
-        <v>1811</v>
+        <v>1837</v>
       </c>
       <c r="G67" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H67" s="162">
         <v>4.0</v>
       </c>
       <c r="I67" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C68" s="158" t="s">
         <v>456</v>
       </c>
       <c r="D68" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E68" s="160"/>
       <c r="F68" s="161" t="s">
-        <v>1812</v>
+        <v>1838</v>
       </c>
       <c r="G68" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H68" s="162">
         <v>5.0</v>
       </c>
       <c r="I68" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C69" s="158" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E69" s="160"/>
       <c r="F69" s="161" t="s">
-        <v>1813</v>
+        <v>1839</v>
       </c>
       <c r="G69" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H69" s="162">
         <v>6.0</v>
       </c>
       <c r="I69" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C70" s="158" t="s">
         <v>458</v>
       </c>
       <c r="D70" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E70" s="160"/>
       <c r="F70" s="161" t="s">
-        <v>1814</v>
+        <v>1840</v>
       </c>
       <c r="G70" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H70" s="162">
         <v>7.0</v>
       </c>
       <c r="I70" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C71" s="158" t="s">
         <v>459</v>
       </c>
       <c r="D71" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E71" s="160"/>
       <c r="F71" s="161" t="s">
-        <v>1815</v>
+        <v>1841</v>
       </c>
       <c r="G71" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H71" s="162">
         <v>8.0</v>
       </c>
       <c r="I71" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C72" s="158" t="s">
         <v>460</v>
       </c>
       <c r="D72" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E72" s="160"/>
       <c r="F72" s="161" t="s">
-        <v>1816</v>
+        <v>1842</v>
       </c>
       <c r="G72" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H72" s="162">
         <v>9.0</v>
       </c>
       <c r="I72" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C73" s="158" t="s">
         <v>461</v>
       </c>
       <c r="D73" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E73" s="160"/>
       <c r="F73" s="161" t="s">
-        <v>1817</v>
+        <v>1843</v>
       </c>
       <c r="G73" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H73" s="162">
         <v>10.0</v>
       </c>
       <c r="I73" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C74" s="158" t="s">
         <v>462</v>
       </c>
       <c r="D74" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E74" s="160"/>
       <c r="F74" s="161" t="s">
-        <v>1818</v>
+        <v>1844</v>
       </c>
       <c r="G74" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H74" s="162">
         <v>11.0</v>
       </c>
       <c r="I74" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C75" s="158" t="s">
         <v>463</v>
       </c>
       <c r="D75" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E75" s="160"/>
       <c r="F75" s="161" t="s">
-        <v>1819</v>
+        <v>1845</v>
       </c>
       <c r="G75" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H75" s="162">
         <v>12.0</v>
       </c>
       <c r="I75" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C76" s="158" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E76" s="160"/>
       <c r="F76" s="161" t="s">
-        <v>1820</v>
+        <v>1846</v>
       </c>
       <c r="G76" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H76" s="162">
         <v>13.0</v>
       </c>
       <c r="I76" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C77" s="158" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E77" s="160"/>
       <c r="F77" s="161" t="s">
-        <v>1821</v>
+        <v>1847</v>
       </c>
       <c r="G77" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H77" s="162">
         <v>14.0</v>
       </c>
       <c r="I77" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C78" s="158" t="s">
         <v>466</v>
       </c>
       <c r="D78" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E78" s="160"/>
       <c r="F78" s="161" t="s">
-        <v>1822</v>
+        <v>1848</v>
       </c>
       <c r="G78" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H78" s="162">
         <v>15.0</v>
       </c>
       <c r="I78" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C79" s="158" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E79" s="160"/>
       <c r="F79" s="161" t="s">
-        <v>1823</v>
+        <v>1849</v>
       </c>
       <c r="G79" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H79" s="162">
         <v>16.0</v>
       </c>
       <c r="I79" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C80" s="158" t="s">
         <v>468</v>
       </c>
       <c r="D80" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E80" s="160"/>
       <c r="F80" s="161" t="s">
-        <v>1824</v>
+        <v>1850</v>
       </c>
       <c r="G80" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H80" s="162">
         <v>17.0</v>
       </c>
       <c r="I80" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C81" s="158" t="s">
         <v>469</v>
       </c>
       <c r="D81" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E81" s="160"/>
       <c r="F81" s="161" t="s">
-        <v>1825</v>
+        <v>1851</v>
       </c>
       <c r="G81" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H81" s="162">
         <v>18.0</v>
       </c>
       <c r="I81" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C82" s="158" t="s">
         <v>470</v>
       </c>
       <c r="D82" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E82" s="160"/>
       <c r="F82" s="161" t="s">
-        <v>1826</v>
+        <v>1852</v>
       </c>
       <c r="G82" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H82" s="162">
         <v>19.0</v>
       </c>
       <c r="I82" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C83" s="158" t="s">
         <v>471</v>
       </c>
       <c r="D83" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E83" s="160"/>
       <c r="F83" s="161" t="s">
-        <v>1827</v>
+        <v>1853</v>
       </c>
       <c r="G83" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H83" s="162">
         <v>20.0</v>
       </c>
       <c r="I83" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C84" s="158" t="s">
         <v>472</v>
       </c>
       <c r="D84" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E84" s="160"/>
       <c r="F84" s="161" t="s">
-        <v>1828</v>
+        <v>1854</v>
       </c>
       <c r="G84" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H84" s="162">
         <v>21.0</v>
       </c>
       <c r="I84" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C85" s="158" t="s">
         <v>473</v>
       </c>
       <c r="D85" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E85" s="160"/>
       <c r="F85" s="161" t="s">
-        <v>1829</v>
+        <v>1855</v>
       </c>
       <c r="G85" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H85" s="162">
         <v>22.0</v>
       </c>
       <c r="I85" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C86" s="158" t="s">
         <v>474</v>
       </c>
       <c r="D86" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E86" s="160"/>
       <c r="F86" s="161" t="s">
-        <v>1830</v>
+        <v>1856</v>
       </c>
       <c r="G86" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H86" s="162">
         <v>23.0</v>
       </c>
       <c r="I86" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C87" s="158" t="s">
         <v>475</v>
       </c>
       <c r="D87" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E87" s="160"/>
       <c r="F87" s="161" t="s">
-        <v>1831</v>
+        <v>1857</v>
       </c>
       <c r="G87" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H87" s="162">
         <v>24.0</v>
       </c>
       <c r="I87" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C88" s="158" t="s">
         <v>476</v>
       </c>
       <c r="D88" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E88" s="160"/>
       <c r="F88" s="161" t="s">
-        <v>1832</v>
+        <v>1858</v>
       </c>
       <c r="G88" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H88" s="162">
         <v>25.0</v>
       </c>
       <c r="I88" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="178" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C89" s="185" t="s">
         <v>477</v>
       </c>
       <c r="D89" s="180" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E89" s="181"/>
       <c r="F89" s="182" t="s">
-        <v>1833</v>
+        <v>1859</v>
       </c>
       <c r="G89" s="180" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H89" s="183">
         <v>26.0</v>
       </c>
       <c r="I89" s="184" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -27487,28 +28199,28 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="167" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C91" s="168" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="169" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E91" s="170" t="s">
-        <v>1834</v>
+        <v>1860</v>
       </c>
       <c r="F91" s="171" t="s">
-        <v>1835</v>
+        <v>1861</v>
       </c>
       <c r="G91" s="169" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H91" s="172" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="173" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -27526,676 +28238,676 @@
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C93" s="158" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E93" s="160"/>
       <c r="F93" s="161" t="s">
-        <v>1836</v>
+        <v>1862</v>
       </c>
       <c r="G93" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H93" s="162">
         <v>1.0</v>
       </c>
       <c r="I93" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C94" s="158" t="s">
         <v>730</v>
       </c>
       <c r="D94" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E94" s="160"/>
       <c r="F94" s="161" t="s">
-        <v>1837</v>
+        <v>1863</v>
       </c>
       <c r="G94" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H94" s="162">
         <v>2.0</v>
       </c>
       <c r="I94" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C95" s="158" t="s">
         <v>731</v>
       </c>
       <c r="D95" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E95" s="160"/>
       <c r="F95" s="161" t="s">
-        <v>1838</v>
+        <v>1864</v>
       </c>
       <c r="G95" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H95" s="162">
         <v>3.0</v>
       </c>
       <c r="I95" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C96" s="158" t="s">
         <v>732</v>
       </c>
       <c r="D96" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E96" s="160"/>
       <c r="F96" s="161" t="s">
-        <v>1839</v>
+        <v>1865</v>
       </c>
       <c r="G96" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H96" s="162">
         <v>4.0</v>
       </c>
       <c r="I96" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C97" s="158" t="s">
         <v>733</v>
       </c>
       <c r="D97" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E97" s="160"/>
       <c r="F97" s="161" t="s">
-        <v>1840</v>
+        <v>1866</v>
       </c>
       <c r="G97" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H97" s="162">
         <v>5.0</v>
       </c>
       <c r="I97" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C98" s="158" t="s">
         <v>734</v>
       </c>
       <c r="D98" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E98" s="160"/>
       <c r="F98" s="161" t="s">
-        <v>1841</v>
+        <v>1867</v>
       </c>
       <c r="G98" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H98" s="162">
         <v>6.0</v>
       </c>
       <c r="I98" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C99" s="158" t="s">
         <v>735</v>
       </c>
       <c r="D99" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E99" s="160"/>
       <c r="F99" s="161" t="s">
-        <v>1842</v>
+        <v>1868</v>
       </c>
       <c r="G99" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H99" s="162">
         <v>7.0</v>
       </c>
       <c r="I99" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C100" s="158" t="s">
         <v>736</v>
       </c>
       <c r="D100" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E100" s="160"/>
       <c r="F100" s="161" t="s">
-        <v>1843</v>
+        <v>1869</v>
       </c>
       <c r="G100" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H100" s="162">
         <v>8.0</v>
       </c>
       <c r="I100" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C101" s="158" t="s">
         <v>737</v>
       </c>
       <c r="D101" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E101" s="160"/>
       <c r="F101" s="161" t="s">
-        <v>1844</v>
+        <v>1870</v>
       </c>
       <c r="G101" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H101" s="162">
         <v>9.0</v>
       </c>
       <c r="I101" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C102" s="158" t="s">
         <v>738</v>
       </c>
       <c r="D102" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E102" s="160"/>
       <c r="F102" s="161" t="s">
-        <v>1845</v>
+        <v>1871</v>
       </c>
       <c r="G102" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H102" s="162">
         <v>10.0</v>
       </c>
       <c r="I102" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C103" s="158" t="s">
         <v>739</v>
       </c>
       <c r="D103" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E103" s="160"/>
       <c r="F103" s="161" t="s">
-        <v>1846</v>
+        <v>1872</v>
       </c>
       <c r="G103" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H103" s="162">
         <v>11.0</v>
       </c>
       <c r="I103" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C104" s="158" t="s">
         <v>740</v>
       </c>
       <c r="D104" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E104" s="160"/>
       <c r="F104" s="161" t="s">
-        <v>1847</v>
+        <v>1873</v>
       </c>
       <c r="G104" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H104" s="162">
         <v>12.0</v>
       </c>
       <c r="I104" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C105" s="158" t="s">
         <v>741</v>
       </c>
       <c r="D105" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E105" s="160"/>
       <c r="F105" s="161" t="s">
-        <v>1848</v>
+        <v>1874</v>
       </c>
       <c r="G105" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H105" s="162">
         <v>13.0</v>
       </c>
       <c r="I105" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C106" s="158" t="s">
         <v>742</v>
       </c>
       <c r="D106" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E106" s="160"/>
       <c r="F106" s="161" t="s">
-        <v>1849</v>
+        <v>1875</v>
       </c>
       <c r="G106" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H106" s="162">
         <v>14.0</v>
       </c>
       <c r="I106" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C107" s="158" t="s">
         <v>743</v>
       </c>
       <c r="D107" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E107" s="160"/>
       <c r="F107" s="161" t="s">
-        <v>1850</v>
+        <v>1876</v>
       </c>
       <c r="G107" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H107" s="162">
         <v>15.0</v>
       </c>
       <c r="I107" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C108" s="158" t="s">
         <v>744</v>
       </c>
       <c r="D108" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E108" s="160"/>
       <c r="F108" s="161" t="s">
-        <v>1851</v>
+        <v>1877</v>
       </c>
       <c r="G108" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H108" s="162">
         <v>16.0</v>
       </c>
       <c r="I108" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C109" s="158" t="s">
         <v>745</v>
       </c>
       <c r="D109" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E109" s="160"/>
       <c r="F109" s="161" t="s">
-        <v>1852</v>
+        <v>1878</v>
       </c>
       <c r="G109" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H109" s="162">
         <v>17.0</v>
       </c>
       <c r="I109" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C110" s="158" t="s">
         <v>746</v>
       </c>
       <c r="D110" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E110" s="160"/>
       <c r="F110" s="161" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
       <c r="G110" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H110" s="162">
         <v>18.0</v>
       </c>
       <c r="I110" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C111" s="158" t="s">
         <v>747</v>
       </c>
       <c r="D111" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E111" s="160"/>
       <c r="F111" s="161" t="s">
-        <v>1854</v>
+        <v>1880</v>
       </c>
       <c r="G111" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H111" s="162">
         <v>19.0</v>
       </c>
       <c r="I111" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C112" s="158" t="s">
         <v>748</v>
       </c>
       <c r="D112" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E112" s="160"/>
       <c r="F112" s="161" t="s">
-        <v>1855</v>
+        <v>1881</v>
       </c>
       <c r="G112" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H112" s="162">
         <v>20.0</v>
       </c>
       <c r="I112" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C113" s="158" t="s">
         <v>749</v>
       </c>
       <c r="D113" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E113" s="160"/>
       <c r="F113" s="161" t="s">
-        <v>1856</v>
+        <v>1882</v>
       </c>
       <c r="G113" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H113" s="162">
         <v>21.0</v>
       </c>
       <c r="I113" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C114" s="158" t="s">
         <v>750</v>
       </c>
       <c r="D114" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E114" s="160"/>
       <c r="F114" s="161" t="s">
-        <v>1857</v>
+        <v>1883</v>
       </c>
       <c r="G114" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H114" s="162">
         <v>22.0</v>
       </c>
       <c r="I114" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C115" s="158" t="s">
         <v>751</v>
       </c>
       <c r="D115" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E115" s="160"/>
       <c r="F115" s="161" t="s">
-        <v>1858</v>
+        <v>1884</v>
       </c>
       <c r="G115" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H115" s="162">
         <v>23.0</v>
       </c>
       <c r="I115" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C116" s="158" t="s">
         <v>752</v>
       </c>
       <c r="D116" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E116" s="160"/>
       <c r="F116" s="161" t="s">
-        <v>1859</v>
+        <v>1885</v>
       </c>
       <c r="G116" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H116" s="162">
         <v>24.0</v>
       </c>
       <c r="I116" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C117" s="158" t="s">
         <v>753</v>
       </c>
       <c r="D117" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E117" s="160"/>
       <c r="F117" s="161" t="s">
-        <v>1860</v>
+        <v>1886</v>
       </c>
       <c r="G117" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H117" s="162">
         <v>25.0</v>
       </c>
       <c r="I117" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="178" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C118" s="185" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="180" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E118" s="181"/>
       <c r="F118" s="182" t="s">
-        <v>1861</v>
+        <v>1887</v>
       </c>
       <c r="G118" s="180" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H118" s="183">
         <v>26.0</v>
       </c>
       <c r="I118" s="184" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J118" s="1"/>
     </row>
@@ -28213,28 +28925,28 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="167" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C120" s="168" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="169" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E120" s="170" t="s">
-        <v>1862</v>
+        <v>1888</v>
       </c>
       <c r="F120" s="171" t="s">
-        <v>1863</v>
+        <v>1889</v>
       </c>
       <c r="G120" s="169" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H120" s="172" t="s">
         <v>3</v>
       </c>
       <c r="I120" s="173" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J120" s="1"/>
     </row>
@@ -28252,676 +28964,676 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C122" s="158" t="s">
         <v>1045</v>
       </c>
       <c r="D122" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E122" s="160"/>
       <c r="F122" s="161" t="s">
-        <v>1864</v>
+        <v>1890</v>
       </c>
       <c r="G122" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H122" s="162">
         <v>1.0</v>
       </c>
       <c r="I122" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C123" s="158" t="s">
         <v>1046</v>
       </c>
       <c r="D123" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E123" s="160"/>
       <c r="F123" s="161" t="s">
-        <v>1865</v>
+        <v>1891</v>
       </c>
       <c r="G123" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H123" s="162">
         <v>2.0</v>
       </c>
       <c r="I123" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C124" s="158" t="s">
         <v>1047</v>
       </c>
       <c r="D124" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E124" s="160"/>
       <c r="F124" s="161" t="s">
-        <v>1866</v>
+        <v>1892</v>
       </c>
       <c r="G124" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H124" s="162">
         <v>3.0</v>
       </c>
       <c r="I124" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C125" s="158" t="s">
         <v>1048</v>
       </c>
       <c r="D125" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E125" s="160"/>
       <c r="F125" s="161" t="s">
-        <v>1867</v>
+        <v>1893</v>
       </c>
       <c r="G125" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H125" s="162">
         <v>4.0</v>
       </c>
       <c r="I125" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C126" s="158" t="s">
         <v>1049</v>
       </c>
       <c r="D126" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E126" s="160"/>
       <c r="F126" s="161" t="s">
-        <v>1868</v>
+        <v>1894</v>
       </c>
       <c r="G126" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H126" s="162">
         <v>5.0</v>
       </c>
       <c r="I126" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C127" s="158" t="s">
         <v>1050</v>
       </c>
       <c r="D127" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E127" s="160"/>
       <c r="F127" s="161" t="s">
-        <v>1869</v>
+        <v>1895</v>
       </c>
       <c r="G127" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H127" s="162">
         <v>6.0</v>
       </c>
       <c r="I127" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C128" s="158" t="s">
         <v>1051</v>
       </c>
       <c r="D128" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E128" s="160"/>
       <c r="F128" s="161" t="s">
-        <v>1870</v>
+        <v>1896</v>
       </c>
       <c r="G128" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H128" s="162">
         <v>7.0</v>
       </c>
       <c r="I128" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C129" s="158" t="s">
         <v>1052</v>
       </c>
       <c r="D129" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E129" s="160"/>
       <c r="F129" s="161" t="s">
-        <v>1871</v>
+        <v>1897</v>
       </c>
       <c r="G129" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H129" s="162">
         <v>8.0</v>
       </c>
       <c r="I129" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C130" s="158" t="s">
         <v>1053</v>
       </c>
       <c r="D130" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E130" s="160"/>
       <c r="F130" s="161" t="s">
-        <v>1872</v>
+        <v>1898</v>
       </c>
       <c r="G130" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H130" s="162">
         <v>9.0</v>
       </c>
       <c r="I130" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C131" s="158" t="s">
         <v>1054</v>
       </c>
       <c r="D131" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E131" s="160"/>
       <c r="F131" s="161" t="s">
-        <v>1873</v>
+        <v>1899</v>
       </c>
       <c r="G131" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H131" s="162">
         <v>10.0</v>
       </c>
       <c r="I131" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C132" s="158" t="s">
         <v>1055</v>
       </c>
       <c r="D132" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E132" s="160"/>
       <c r="F132" s="161" t="s">
-        <v>1874</v>
+        <v>1900</v>
       </c>
       <c r="G132" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H132" s="162">
         <v>11.0</v>
       </c>
       <c r="I132" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C133" s="158" t="s">
         <v>1056</v>
       </c>
       <c r="D133" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E133" s="160"/>
       <c r="F133" s="161" t="s">
-        <v>1875</v>
+        <v>1901</v>
       </c>
       <c r="G133" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H133" s="162">
         <v>12.0</v>
       </c>
       <c r="I133" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C134" s="158" t="s">
         <v>1057</v>
       </c>
       <c r="D134" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E134" s="160"/>
       <c r="F134" s="161" t="s">
-        <v>1876</v>
+        <v>1902</v>
       </c>
       <c r="G134" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H134" s="162">
         <v>13.0</v>
       </c>
       <c r="I134" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C135" s="158" t="s">
         <v>1058</v>
       </c>
       <c r="D135" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E135" s="160"/>
       <c r="F135" s="161" t="s">
-        <v>1877</v>
+        <v>1903</v>
       </c>
       <c r="G135" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H135" s="162">
         <v>14.0</v>
       </c>
       <c r="I135" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C136" s="158" t="s">
         <v>1059</v>
       </c>
       <c r="D136" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E136" s="160"/>
       <c r="F136" s="161" t="s">
-        <v>1878</v>
+        <v>1904</v>
       </c>
       <c r="G136" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H136" s="162">
         <v>15.0</v>
       </c>
       <c r="I136" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C137" s="158" t="s">
         <v>1060</v>
       </c>
       <c r="D137" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E137" s="160"/>
       <c r="F137" s="161" t="s">
-        <v>1879</v>
+        <v>1905</v>
       </c>
       <c r="G137" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H137" s="162">
         <v>16.0</v>
       </c>
       <c r="I137" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C138" s="158" t="s">
         <v>1061</v>
       </c>
       <c r="D138" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E138" s="160"/>
       <c r="F138" s="161" t="s">
-        <v>1880</v>
+        <v>1906</v>
       </c>
       <c r="G138" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H138" s="162">
         <v>17.0</v>
       </c>
       <c r="I138" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C139" s="158" t="s">
         <v>1062</v>
       </c>
       <c r="D139" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E139" s="160"/>
       <c r="F139" s="161" t="s">
-        <v>1881</v>
+        <v>1907</v>
       </c>
       <c r="G139" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H139" s="162">
         <v>18.0</v>
       </c>
       <c r="I139" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C140" s="158" t="s">
         <v>1063</v>
       </c>
       <c r="D140" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E140" s="160"/>
       <c r="F140" s="161" t="s">
-        <v>1882</v>
+        <v>1908</v>
       </c>
       <c r="G140" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H140" s="162">
         <v>19.0</v>
       </c>
       <c r="I140" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C141" s="158" t="s">
         <v>1064</v>
       </c>
       <c r="D141" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E141" s="160"/>
       <c r="F141" s="161" t="s">
-        <v>1883</v>
+        <v>1909</v>
       </c>
       <c r="G141" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H141" s="162">
         <v>20.0</v>
       </c>
       <c r="I141" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C142" s="158" t="s">
         <v>1065</v>
       </c>
       <c r="D142" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E142" s="160"/>
       <c r="F142" s="161" t="s">
-        <v>1884</v>
+        <v>1910</v>
       </c>
       <c r="G142" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H142" s="162">
         <v>21.0</v>
       </c>
       <c r="I142" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C143" s="158" t="s">
         <v>1066</v>
       </c>
       <c r="D143" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E143" s="160"/>
       <c r="F143" s="161" t="s">
-        <v>1885</v>
+        <v>1911</v>
       </c>
       <c r="G143" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H143" s="162">
         <v>22.0</v>
       </c>
       <c r="I143" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C144" s="158" t="s">
         <v>1067</v>
       </c>
       <c r="D144" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E144" s="160"/>
       <c r="F144" s="161" t="s">
-        <v>1886</v>
+        <v>1912</v>
       </c>
       <c r="G144" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H144" s="162">
         <v>23.0</v>
       </c>
       <c r="I144" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C145" s="158" t="s">
         <v>1068</v>
       </c>
       <c r="D145" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E145" s="160"/>
       <c r="F145" s="161" t="s">
-        <v>1887</v>
+        <v>1913</v>
       </c>
       <c r="G145" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H145" s="162">
         <v>24.0</v>
       </c>
       <c r="I145" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C146" s="158" t="s">
         <v>1069</v>
       </c>
       <c r="D146" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E146" s="160"/>
       <c r="F146" s="161" t="s">
-        <v>1888</v>
+        <v>1914</v>
       </c>
       <c r="G146" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H146" s="162">
         <v>25.0</v>
       </c>
       <c r="I146" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="178" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C147" s="185" t="s">
         <v>1070</v>
       </c>
       <c r="D147" s="180" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E147" s="181"/>
       <c r="F147" s="182" t="s">
-        <v>1889</v>
+        <v>1915</v>
       </c>
       <c r="G147" s="180" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H147" s="183">
         <v>26.0</v>
       </c>
       <c r="I147" s="184" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J147" s="1"/>
     </row>
@@ -28939,28 +29651,28 @@
     <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="167" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C149" s="168" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="169" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E149" s="170" t="s">
-        <v>1890</v>
+        <v>1916</v>
       </c>
       <c r="F149" s="171" t="s">
-        <v>1891</v>
+        <v>1917</v>
       </c>
       <c r="G149" s="169" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H149" s="172" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="173" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J149" s="1"/>
     </row>
@@ -28978,676 +29690,676 @@
     <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C151" s="158" t="s">
         <v>1269</v>
       </c>
       <c r="D151" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E151" s="160"/>
       <c r="F151" s="161" t="s">
-        <v>1892</v>
+        <v>1918</v>
       </c>
       <c r="G151" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H151" s="162">
         <v>1.0</v>
       </c>
       <c r="I151" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C152" s="158" t="s">
         <v>1270</v>
       </c>
       <c r="D152" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E152" s="160"/>
       <c r="F152" s="161" t="s">
-        <v>1893</v>
+        <v>1919</v>
       </c>
       <c r="G152" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H152" s="162">
         <v>2.0</v>
       </c>
       <c r="I152" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C153" s="158" t="s">
         <v>1271</v>
       </c>
       <c r="D153" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E153" s="160"/>
       <c r="F153" s="161" t="s">
-        <v>1894</v>
+        <v>1920</v>
       </c>
       <c r="G153" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H153" s="162">
         <v>3.0</v>
       </c>
       <c r="I153" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C154" s="158" t="s">
         <v>1272</v>
       </c>
       <c r="D154" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E154" s="160"/>
       <c r="F154" s="161" t="s">
-        <v>1895</v>
+        <v>1921</v>
       </c>
       <c r="G154" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H154" s="162">
         <v>4.0</v>
       </c>
       <c r="I154" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C155" s="158" t="s">
         <v>1273</v>
       </c>
       <c r="D155" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E155" s="160"/>
       <c r="F155" s="161" t="s">
-        <v>1896</v>
+        <v>1922</v>
       </c>
       <c r="G155" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H155" s="162">
         <v>5.0</v>
       </c>
       <c r="I155" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C156" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="D156" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E156" s="160"/>
       <c r="F156" s="161" t="s">
-        <v>1897</v>
+        <v>1923</v>
       </c>
       <c r="G156" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H156" s="162">
         <v>6.0</v>
       </c>
       <c r="I156" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C157" s="158" t="s">
         <v>1275</v>
       </c>
       <c r="D157" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E157" s="160"/>
       <c r="F157" s="161" t="s">
-        <v>1898</v>
+        <v>1924</v>
       </c>
       <c r="G157" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H157" s="162">
         <v>7.0</v>
       </c>
       <c r="I157" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C158" s="158" t="s">
         <v>1276</v>
       </c>
       <c r="D158" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E158" s="160"/>
       <c r="F158" s="161" t="s">
-        <v>1899</v>
+        <v>1925</v>
       </c>
       <c r="G158" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H158" s="162">
         <v>8.0</v>
       </c>
       <c r="I158" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C159" s="158" t="s">
         <v>1277</v>
       </c>
       <c r="D159" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E159" s="160"/>
       <c r="F159" s="161" t="s">
-        <v>1900</v>
+        <v>1926</v>
       </c>
       <c r="G159" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H159" s="162">
         <v>9.0</v>
       </c>
       <c r="I159" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C160" s="158" t="s">
         <v>1278</v>
       </c>
       <c r="D160" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E160" s="160"/>
       <c r="F160" s="161" t="s">
-        <v>1901</v>
+        <v>1927</v>
       </c>
       <c r="G160" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H160" s="162">
         <v>10.0</v>
       </c>
       <c r="I160" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C161" s="158" t="s">
         <v>1279</v>
       </c>
       <c r="D161" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E161" s="160"/>
       <c r="F161" s="161" t="s">
-        <v>1902</v>
+        <v>1928</v>
       </c>
       <c r="G161" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H161" s="162">
         <v>11.0</v>
       </c>
       <c r="I161" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C162" s="158" t="s">
         <v>1280</v>
       </c>
       <c r="D162" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E162" s="160"/>
       <c r="F162" s="161" t="s">
-        <v>1903</v>
+        <v>1929</v>
       </c>
       <c r="G162" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H162" s="162">
         <v>12.0</v>
       </c>
       <c r="I162" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C163" s="158" t="s">
         <v>1281</v>
       </c>
       <c r="D163" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E163" s="160"/>
       <c r="F163" s="161" t="s">
-        <v>1904</v>
+        <v>1930</v>
       </c>
       <c r="G163" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H163" s="162">
         <v>13.0</v>
       </c>
       <c r="I163" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C164" s="158" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E164" s="160"/>
       <c r="F164" s="161" t="s">
-        <v>1905</v>
+        <v>1931</v>
       </c>
       <c r="G164" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H164" s="162">
         <v>14.0</v>
       </c>
       <c r="I164" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C165" s="158" t="s">
         <v>1283</v>
       </c>
       <c r="D165" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E165" s="160"/>
       <c r="F165" s="161" t="s">
-        <v>1906</v>
+        <v>1932</v>
       </c>
       <c r="G165" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H165" s="162">
         <v>15.0</v>
       </c>
       <c r="I165" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C166" s="158" t="s">
         <v>1284</v>
       </c>
       <c r="D166" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E166" s="160"/>
       <c r="F166" s="161" t="s">
-        <v>1907</v>
+        <v>1933</v>
       </c>
       <c r="G166" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H166" s="162">
         <v>16.0</v>
       </c>
       <c r="I166" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C167" s="158" t="s">
         <v>1285</v>
       </c>
       <c r="D167" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E167" s="160"/>
       <c r="F167" s="161" t="s">
-        <v>1908</v>
+        <v>1934</v>
       </c>
       <c r="G167" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H167" s="162">
         <v>17.0</v>
       </c>
       <c r="I167" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C168" s="158" t="s">
         <v>1286</v>
       </c>
       <c r="D168" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E168" s="160"/>
       <c r="F168" s="161" t="s">
-        <v>1909</v>
+        <v>1935</v>
       </c>
       <c r="G168" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H168" s="162">
         <v>18.0</v>
       </c>
       <c r="I168" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C169" s="158" t="s">
         <v>1287</v>
       </c>
       <c r="D169" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E169" s="160"/>
       <c r="F169" s="161" t="s">
-        <v>1910</v>
+        <v>1936</v>
       </c>
       <c r="G169" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H169" s="162">
         <v>19.0</v>
       </c>
       <c r="I169" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C170" s="158" t="s">
         <v>1288</v>
       </c>
       <c r="D170" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E170" s="160"/>
       <c r="F170" s="161" t="s">
-        <v>1911</v>
+        <v>1937</v>
       </c>
       <c r="G170" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H170" s="162">
         <v>20.0</v>
       </c>
       <c r="I170" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C171" s="158" t="s">
         <v>1289</v>
       </c>
       <c r="D171" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E171" s="160"/>
       <c r="F171" s="161" t="s">
-        <v>1912</v>
+        <v>1938</v>
       </c>
       <c r="G171" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H171" s="162">
         <v>21.0</v>
       </c>
       <c r="I171" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C172" s="158" t="s">
         <v>1290</v>
       </c>
       <c r="D172" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E172" s="160"/>
       <c r="F172" s="161" t="s">
-        <v>1913</v>
+        <v>1939</v>
       </c>
       <c r="G172" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H172" s="162">
         <v>22.0</v>
       </c>
       <c r="I172" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C173" s="158" t="s">
         <v>1291</v>
       </c>
       <c r="D173" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E173" s="160"/>
       <c r="F173" s="161" t="s">
-        <v>1914</v>
+        <v>1940</v>
       </c>
       <c r="G173" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H173" s="162">
         <v>23.0</v>
       </c>
       <c r="I173" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C174" s="158" t="s">
         <v>1292</v>
       </c>
       <c r="D174" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E174" s="160"/>
       <c r="F174" s="161" t="s">
-        <v>1915</v>
+        <v>1941</v>
       </c>
       <c r="G174" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H174" s="162">
         <v>24.0</v>
       </c>
       <c r="I174" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C175" s="158" t="s">
         <v>1293</v>
       </c>
       <c r="D175" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E175" s="160"/>
       <c r="F175" s="161" t="s">
-        <v>1916</v>
+        <v>1942</v>
       </c>
       <c r="G175" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H175" s="162">
         <v>25.0</v>
       </c>
       <c r="I175" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="178" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C176" s="185" t="s">
         <v>1294</v>
       </c>
       <c r="D176" s="180" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E176" s="181"/>
       <c r="F176" s="182" t="s">
-        <v>1917</v>
+        <v>1943</v>
       </c>
       <c r="G176" s="180" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H176" s="183">
         <v>26.0</v>
       </c>
       <c r="I176" s="184" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -29666,28 +30378,28 @@
     <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="167" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C178" s="168" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="169" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E178" s="170" t="s">
-        <v>1918</v>
+        <v>1944</v>
       </c>
       <c r="F178" s="171" t="s">
-        <v>1919</v>
+        <v>1945</v>
       </c>
       <c r="G178" s="169" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H178" s="172" t="s">
         <v>5</v>
       </c>
       <c r="I178" s="173" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J178" s="1"/>
     </row>
@@ -29706,676 +30418,676 @@
     <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C180" s="158" t="s">
         <v>1424</v>
       </c>
       <c r="D180" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E180" s="160"/>
       <c r="F180" s="161" t="s">
-        <v>1920</v>
+        <v>1946</v>
       </c>
       <c r="G180" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H180" s="162">
         <v>1.0</v>
       </c>
       <c r="I180" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C181" s="158" t="s">
         <v>1425</v>
       </c>
       <c r="D181" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E181" s="160"/>
       <c r="F181" s="161" t="s">
-        <v>1921</v>
+        <v>1947</v>
       </c>
       <c r="G181" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H181" s="162">
         <v>2.0</v>
       </c>
       <c r="I181" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C182" s="158" t="s">
         <v>1426</v>
       </c>
       <c r="D182" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E182" s="160"/>
       <c r="F182" s="161" t="s">
-        <v>1922</v>
+        <v>1948</v>
       </c>
       <c r="G182" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H182" s="162">
         <v>3.0</v>
       </c>
       <c r="I182" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C183" s="158" t="s">
         <v>1427</v>
       </c>
       <c r="D183" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E183" s="160"/>
       <c r="F183" s="161" t="s">
-        <v>1923</v>
+        <v>1949</v>
       </c>
       <c r="G183" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H183" s="162">
         <v>4.0</v>
       </c>
       <c r="I183" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C184" s="158" t="s">
         <v>1428</v>
       </c>
       <c r="D184" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E184" s="160"/>
       <c r="F184" s="161" t="s">
-        <v>1924</v>
+        <v>1950</v>
       </c>
       <c r="G184" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H184" s="162">
         <v>5.0</v>
       </c>
       <c r="I184" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C185" s="158" t="s">
         <v>1429</v>
       </c>
       <c r="D185" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E185" s="160"/>
       <c r="F185" s="161" t="s">
-        <v>1925</v>
+        <v>1951</v>
       </c>
       <c r="G185" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H185" s="162">
         <v>6.0</v>
       </c>
       <c r="I185" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C186" s="158" t="s">
         <v>1430</v>
       </c>
       <c r="D186" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E186" s="160"/>
       <c r="F186" s="161" t="s">
-        <v>1926</v>
+        <v>1952</v>
       </c>
       <c r="G186" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H186" s="162">
         <v>7.0</v>
       </c>
       <c r="I186" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C187" s="158" t="s">
         <v>1431</v>
       </c>
       <c r="D187" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E187" s="160"/>
       <c r="F187" s="161" t="s">
-        <v>1927</v>
+        <v>1953</v>
       </c>
       <c r="G187" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H187" s="162">
         <v>8.0</v>
       </c>
       <c r="I187" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C188" s="158" t="s">
         <v>1432</v>
       </c>
       <c r="D188" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E188" s="160"/>
       <c r="F188" s="161" t="s">
-        <v>1928</v>
+        <v>1954</v>
       </c>
       <c r="G188" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H188" s="162">
         <v>9.0</v>
       </c>
       <c r="I188" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C189" s="158" t="s">
         <v>1433</v>
       </c>
       <c r="D189" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E189" s="160"/>
       <c r="F189" s="161" t="s">
-        <v>1929</v>
+        <v>1955</v>
       </c>
       <c r="G189" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H189" s="162">
         <v>10.0</v>
       </c>
       <c r="I189" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C190" s="158" t="s">
         <v>1434</v>
       </c>
       <c r="D190" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E190" s="160"/>
       <c r="F190" s="161" t="s">
-        <v>1930</v>
+        <v>1956</v>
       </c>
       <c r="G190" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H190" s="162">
         <v>11.0</v>
       </c>
       <c r="I190" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C191" s="158" t="s">
         <v>1435</v>
       </c>
       <c r="D191" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E191" s="160"/>
       <c r="F191" s="161" t="s">
-        <v>1931</v>
+        <v>1957</v>
       </c>
       <c r="G191" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H191" s="162">
         <v>12.0</v>
       </c>
       <c r="I191" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C192" s="158" t="s">
         <v>1436</v>
       </c>
       <c r="D192" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E192" s="160"/>
       <c r="F192" s="161" t="s">
-        <v>1932</v>
+        <v>1958</v>
       </c>
       <c r="G192" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H192" s="162">
         <v>13.0</v>
       </c>
       <c r="I192" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C193" s="158" t="s">
         <v>1437</v>
       </c>
       <c r="D193" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E193" s="160"/>
       <c r="F193" s="161" t="s">
-        <v>1933</v>
+        <v>1959</v>
       </c>
       <c r="G193" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H193" s="162">
         <v>14.0</v>
       </c>
       <c r="I193" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C194" s="158" t="s">
         <v>1438</v>
       </c>
       <c r="D194" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E194" s="160"/>
       <c r="F194" s="161" t="s">
-        <v>1934</v>
+        <v>1960</v>
       </c>
       <c r="G194" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H194" s="162">
         <v>15.0</v>
       </c>
       <c r="I194" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C195" s="158" t="s">
         <v>1439</v>
       </c>
       <c r="D195" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E195" s="160"/>
       <c r="F195" s="161" t="s">
-        <v>1935</v>
+        <v>1961</v>
       </c>
       <c r="G195" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H195" s="162">
         <v>16.0</v>
       </c>
       <c r="I195" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C196" s="158" t="s">
         <v>1440</v>
       </c>
       <c r="D196" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E196" s="160"/>
       <c r="F196" s="161" t="s">
-        <v>1936</v>
+        <v>1962</v>
       </c>
       <c r="G196" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H196" s="162">
         <v>17.0</v>
       </c>
       <c r="I196" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C197" s="158" t="s">
         <v>1441</v>
       </c>
       <c r="D197" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E197" s="160"/>
       <c r="F197" s="161" t="s">
-        <v>1937</v>
+        <v>1963</v>
       </c>
       <c r="G197" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H197" s="162">
         <v>18.0</v>
       </c>
       <c r="I197" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C198" s="158" t="s">
         <v>1442</v>
       </c>
       <c r="D198" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E198" s="160"/>
       <c r="F198" s="161" t="s">
-        <v>1938</v>
+        <v>1964</v>
       </c>
       <c r="G198" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H198" s="162">
         <v>19.0</v>
       </c>
       <c r="I198" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C199" s="158" t="s">
         <v>1443</v>
       </c>
       <c r="D199" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E199" s="160"/>
       <c r="F199" s="161" t="s">
-        <v>1939</v>
+        <v>1965</v>
       </c>
       <c r="G199" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H199" s="162">
         <v>20.0</v>
       </c>
       <c r="I199" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C200" s="158" t="s">
         <v>1444</v>
       </c>
       <c r="D200" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E200" s="160"/>
       <c r="F200" s="161" t="s">
-        <v>1940</v>
+        <v>1966</v>
       </c>
       <c r="G200" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H200" s="162">
         <v>21.0</v>
       </c>
       <c r="I200" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C201" s="158" t="s">
         <v>1445</v>
       </c>
       <c r="D201" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E201" s="160"/>
       <c r="F201" s="161" t="s">
-        <v>1941</v>
+        <v>1967</v>
       </c>
       <c r="G201" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H201" s="162">
         <v>22.0</v>
       </c>
       <c r="I201" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C202" s="158" t="s">
         <v>1446</v>
       </c>
       <c r="D202" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E202" s="160"/>
       <c r="F202" s="161" t="s">
-        <v>1942</v>
+        <v>1968</v>
       </c>
       <c r="G202" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H202" s="162">
         <v>23.0</v>
       </c>
       <c r="I202" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C203" s="158" t="s">
         <v>1447</v>
       </c>
       <c r="D203" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E203" s="160"/>
       <c r="F203" s="161" t="s">
-        <v>1943</v>
+        <v>1969</v>
       </c>
       <c r="G203" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H203" s="162">
         <v>24.0</v>
       </c>
       <c r="I203" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C204" s="158" t="s">
         <v>1448</v>
       </c>
       <c r="D204" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E204" s="160"/>
       <c r="F204" s="161" t="s">
-        <v>1944</v>
+        <v>1970</v>
       </c>
       <c r="G204" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H204" s="162">
         <v>25.0</v>
       </c>
       <c r="I204" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="178" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C205" s="185" t="s">
         <v>1449</v>
       </c>
       <c r="D205" s="180" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E205" s="181"/>
       <c r="F205" s="182" t="s">
-        <v>1945</v>
+        <v>1971</v>
       </c>
       <c r="G205" s="180" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H205" s="183">
         <v>26.0</v>
       </c>
       <c r="I205" s="184" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J205" s="1"/>
     </row>
@@ -30394,28 +31106,28 @@
     <row r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="167" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C207" s="168" t="s">
         <v>37</v>
       </c>
       <c r="D207" s="169" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E207" s="170" t="s">
-        <v>1946</v>
+        <v>1972</v>
       </c>
       <c r="F207" s="171" t="s">
-        <v>1947</v>
+        <v>1973</v>
       </c>
       <c r="G207" s="169" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H207" s="172" t="s">
         <v>6</v>
       </c>
       <c r="I207" s="173" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J207" s="1"/>
     </row>
@@ -30434,676 +31146,676 @@
     <row r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="174" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C209" s="158" t="s">
         <v>1746</v>
       </c>
-      <c r="C209" s="158" t="s">
-        <v>1948</v>
-      </c>
       <c r="D209" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E209" s="160"/>
       <c r="F209" s="161" t="s">
-        <v>1949</v>
+        <v>1974</v>
       </c>
       <c r="G209" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H209" s="162">
         <v>1.0</v>
       </c>
       <c r="I209" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C210" s="158" t="s">
-        <v>1950</v>
+        <v>1747</v>
       </c>
       <c r="D210" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E210" s="160"/>
       <c r="F210" s="161" t="s">
-        <v>1951</v>
+        <v>1975</v>
       </c>
       <c r="G210" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H210" s="162">
         <v>2.0</v>
       </c>
       <c r="I210" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C211" s="158" t="s">
-        <v>1952</v>
+        <v>1748</v>
       </c>
       <c r="D211" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E211" s="160"/>
       <c r="F211" s="161" t="s">
-        <v>1953</v>
+        <v>1976</v>
       </c>
       <c r="G211" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H211" s="162">
         <v>3.0</v>
       </c>
       <c r="I211" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C212" s="158" t="s">
-        <v>1954</v>
+        <v>1749</v>
       </c>
       <c r="D212" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E212" s="160"/>
       <c r="F212" s="161" t="s">
-        <v>1955</v>
+        <v>1977</v>
       </c>
       <c r="G212" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H212" s="162">
         <v>4.0</v>
       </c>
       <c r="I212" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
       <c r="B213" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C213" s="158" t="s">
-        <v>1956</v>
+        <v>1750</v>
       </c>
       <c r="D213" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E213" s="160"/>
       <c r="F213" s="161" t="s">
-        <v>1957</v>
+        <v>1978</v>
       </c>
       <c r="G213" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H213" s="162">
         <v>5.0</v>
       </c>
       <c r="I213" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
       <c r="B214" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C214" s="158" t="s">
-        <v>1958</v>
+        <v>1751</v>
       </c>
       <c r="D214" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E214" s="160"/>
       <c r="F214" s="161" t="s">
-        <v>1959</v>
+        <v>1979</v>
       </c>
       <c r="G214" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H214" s="162">
         <v>6.0</v>
       </c>
       <c r="I214" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
       <c r="B215" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C215" s="158" t="s">
-        <v>1960</v>
+        <v>1752</v>
       </c>
       <c r="D215" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E215" s="160"/>
       <c r="F215" s="161" t="s">
-        <v>1961</v>
+        <v>1980</v>
       </c>
       <c r="G215" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H215" s="162">
         <v>7.0</v>
       </c>
       <c r="I215" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
       <c r="B216" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C216" s="158" t="s">
-        <v>1962</v>
+        <v>1753</v>
       </c>
       <c r="D216" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E216" s="160"/>
       <c r="F216" s="161" t="s">
-        <v>1963</v>
+        <v>1981</v>
       </c>
       <c r="G216" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H216" s="162">
         <v>8.0</v>
       </c>
       <c r="I216" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
       <c r="B217" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C217" s="158" t="s">
-        <v>1964</v>
+        <v>1754</v>
       </c>
       <c r="D217" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E217" s="160"/>
       <c r="F217" s="161" t="s">
-        <v>1965</v>
+        <v>1982</v>
       </c>
       <c r="G217" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H217" s="162">
         <v>9.0</v>
       </c>
       <c r="I217" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
       <c r="B218" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C218" s="158" t="s">
-        <v>1966</v>
+        <v>1755</v>
       </c>
       <c r="D218" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E218" s="160"/>
       <c r="F218" s="161" t="s">
-        <v>1967</v>
+        <v>1983</v>
       </c>
       <c r="G218" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H218" s="162">
         <v>10.0</v>
       </c>
       <c r="I218" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
       <c r="B219" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C219" s="158" t="s">
-        <v>1968</v>
+        <v>1756</v>
       </c>
       <c r="D219" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E219" s="160"/>
       <c r="F219" s="161" t="s">
-        <v>1969</v>
+        <v>1984</v>
       </c>
       <c r="G219" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H219" s="162">
         <v>11.0</v>
       </c>
       <c r="I219" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
       <c r="B220" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C220" s="158" t="s">
-        <v>1970</v>
+        <v>1757</v>
       </c>
       <c r="D220" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E220" s="160"/>
       <c r="F220" s="161" t="s">
-        <v>1971</v>
+        <v>1985</v>
       </c>
       <c r="G220" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H220" s="162">
         <v>12.0</v>
       </c>
       <c r="I220" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
       <c r="B221" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C221" s="158" t="s">
-        <v>1972</v>
+        <v>1758</v>
       </c>
       <c r="D221" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E221" s="160"/>
       <c r="F221" s="161" t="s">
-        <v>1973</v>
+        <v>1986</v>
       </c>
       <c r="G221" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H221" s="162">
         <v>13.0</v>
       </c>
       <c r="I221" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
       <c r="B222" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C222" s="158" t="s">
-        <v>1974</v>
+        <v>1759</v>
       </c>
       <c r="D222" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E222" s="160"/>
       <c r="F222" s="161" t="s">
-        <v>1975</v>
+        <v>1987</v>
       </c>
       <c r="G222" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H222" s="162">
         <v>14.0</v>
       </c>
       <c r="I222" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
       <c r="B223" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C223" s="158" t="s">
-        <v>1976</v>
+        <v>1760</v>
       </c>
       <c r="D223" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E223" s="160"/>
       <c r="F223" s="161" t="s">
-        <v>1977</v>
+        <v>1988</v>
       </c>
       <c r="G223" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H223" s="162">
         <v>15.0</v>
       </c>
       <c r="I223" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
       <c r="B224" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C224" s="158" t="s">
-        <v>1978</v>
+        <v>1761</v>
       </c>
       <c r="D224" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E224" s="160"/>
       <c r="F224" s="161" t="s">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="G224" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H224" s="162">
         <v>16.0</v>
       </c>
       <c r="I224" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
       <c r="B225" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C225" s="158" t="s">
-        <v>1980</v>
+        <v>1762</v>
       </c>
       <c r="D225" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E225" s="160"/>
       <c r="F225" s="161" t="s">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="G225" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H225" s="162">
         <v>17.0</v>
       </c>
       <c r="I225" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
       <c r="B226" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C226" s="158" t="s">
-        <v>1982</v>
+        <v>1763</v>
       </c>
       <c r="D226" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E226" s="160"/>
       <c r="F226" s="161" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="G226" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H226" s="162">
         <v>18.0</v>
       </c>
       <c r="I226" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
       <c r="B227" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C227" s="158" t="s">
-        <v>1984</v>
+        <v>1764</v>
       </c>
       <c r="D227" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E227" s="160"/>
       <c r="F227" s="161" t="s">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="G227" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H227" s="162">
         <v>19.0</v>
       </c>
       <c r="I227" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
       <c r="B228" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C228" s="158" t="s">
-        <v>1986</v>
+        <v>1765</v>
       </c>
       <c r="D228" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E228" s="160"/>
       <c r="F228" s="161" t="s">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="G228" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H228" s="162">
         <v>20.0</v>
       </c>
       <c r="I228" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
       <c r="B229" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C229" s="158" t="s">
-        <v>1988</v>
+        <v>1766</v>
       </c>
       <c r="D229" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E229" s="160"/>
       <c r="F229" s="161" t="s">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="G229" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H229" s="162">
         <v>21.0</v>
       </c>
       <c r="I229" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
       <c r="B230" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C230" s="158" t="s">
-        <v>1990</v>
+        <v>1767</v>
       </c>
       <c r="D230" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E230" s="160"/>
       <c r="F230" s="161" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="G230" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H230" s="162">
         <v>22.0</v>
       </c>
       <c r="I230" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C231" s="158" t="s">
-        <v>1992</v>
+        <v>1768</v>
       </c>
       <c r="D231" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E231" s="160"/>
       <c r="F231" s="161" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="G231" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H231" s="162">
         <v>23.0</v>
       </c>
       <c r="I231" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
       <c r="B232" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C232" s="158" t="s">
-        <v>1994</v>
+        <v>1769</v>
       </c>
       <c r="D232" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E232" s="160"/>
       <c r="F232" s="161" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G232" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H232" s="162">
         <v>24.0</v>
       </c>
       <c r="I232" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
       <c r="B233" s="174" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C233" s="158" t="s">
-        <v>1996</v>
+        <v>1770</v>
       </c>
       <c r="D233" s="159" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E233" s="160"/>
       <c r="F233" s="161" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G233" s="159" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H233" s="162">
         <v>25.0</v>
       </c>
       <c r="I233" s="176" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
       <c r="B234" s="178" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="C234" s="185" t="s">
-        <v>1998</v>
+        <v>1771</v>
       </c>
       <c r="D234" s="180" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
       <c r="E234" s="181"/>
       <c r="F234" s="182" t="s">
         <v>1999</v>
       </c>
       <c r="G234" s="180" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
       <c r="H234" s="183">
         <v>26.0</v>
       </c>
       <c r="I234" s="184" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
       <c r="J234" s="1"/>
     </row>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5540" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="2004">
   <si>
     <t>A#3</t>
   </si>
@@ -5329,6 +5329,18 @@
   </si>
   <si>
     <t>_problem</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>nutrition</t>
   </si>
   <si>
     <t>-</t>
@@ -16671,7 +16683,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="8" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25475,7 +25487,9 @@
         <v>1.0</v>
       </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="69"/>
+      <c r="D98" s="69" t="s">
+        <v>1772</v>
+      </c>
       <c r="E98" s="70"/>
       <c r="F98" s="70"/>
       <c r="G98" s="70"/>
@@ -25500,7 +25514,9 @@
       <c r="Z98" s="70"/>
       <c r="AA98" s="70"/>
       <c r="AB98" s="70"/>
-      <c r="AC98" s="71"/>
+      <c r="AC98" s="71" t="s">
+        <v>1773</v>
+      </c>
       <c r="AD98" s="1"/>
       <c r="AE98" s="31"/>
       <c r="AF98" s="32"/>
@@ -25514,7 +25530,9 @@
         <v>2.0</v>
       </c>
       <c r="C99" s="1"/>
-      <c r="D99" s="80"/>
+      <c r="D99" s="80" t="s">
+        <v>1774</v>
+      </c>
       <c r="E99" s="81"/>
       <c r="F99" s="81"/>
       <c r="G99" s="81"/>
@@ -25539,7 +25557,9 @@
       <c r="Z99" s="81"/>
       <c r="AA99" s="81"/>
       <c r="AB99" s="81"/>
-      <c r="AC99" s="82"/>
+      <c r="AC99" s="82" t="s">
+        <v>1775</v>
+      </c>
       <c r="AD99" s="1"/>
       <c r="AE99" s="83"/>
       <c r="AF99" s="84"/>
@@ -25553,7 +25573,9 @@
         <v>26</v>
       </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="29"/>
+      <c r="D100" s="29">
+        <v>62.0</v>
+      </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
       <c r="G100" s="30"/>
@@ -25578,7 +25600,9 @@
       <c r="Z100" s="30"/>
       <c r="AA100" s="30"/>
       <c r="AB100" s="30"/>
-      <c r="AC100" s="28"/>
+      <c r="AC100" s="28">
+        <v>51.0</v>
+      </c>
       <c r="AD100" s="1"/>
       <c r="AE100" s="31"/>
       <c r="AF100" s="32"/>
@@ -25592,7 +25616,9 @@
         <v>27</v>
       </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="36"/>
+      <c r="D101" s="36" t="s">
+        <v>447</v>
+      </c>
       <c r="E101" s="37"/>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -25617,7 +25643,9 @@
       <c r="Z101" s="37"/>
       <c r="AA101" s="37"/>
       <c r="AB101" s="37"/>
-      <c r="AC101" s="35"/>
+      <c r="AC101" s="35" t="s">
+        <v>438</v>
+      </c>
       <c r="AD101" s="38"/>
       <c r="AE101" s="39"/>
       <c r="AF101" s="40"/>
@@ -25631,7 +25659,9 @@
         <v>28</v>
       </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="44"/>
+      <c r="D102" s="44">
+        <v>16.0</v>
+      </c>
       <c r="E102" s="45"/>
       <c r="F102" s="45"/>
       <c r="G102" s="45"/>
@@ -25656,7 +25686,9 @@
       <c r="Z102" s="45"/>
       <c r="AA102" s="45"/>
       <c r="AB102" s="45"/>
-      <c r="AC102" s="43"/>
+      <c r="AC102" s="43">
+        <v>13.0</v>
+      </c>
       <c r="AE102" s="98"/>
       <c r="AF102" s="76"/>
       <c r="AG102" s="99"/>
@@ -25669,7 +25701,9 @@
         <v>29</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="51"/>
+      <c r="D103" s="51" t="s">
+        <v>69</v>
+      </c>
       <c r="E103" s="52"/>
       <c r="F103" s="52"/>
       <c r="G103" s="52"/>
@@ -25694,7 +25728,9 @@
       <c r="Z103" s="52"/>
       <c r="AA103" s="52"/>
       <c r="AB103" s="52"/>
-      <c r="AC103" s="50"/>
+      <c r="AC103" s="50" t="s">
+        <v>58</v>
+      </c>
       <c r="AE103" s="89"/>
       <c r="AF103" s="54"/>
       <c r="AG103" s="55"/>
@@ -25957,7 +25993,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="8" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -26021,28 +26057,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="167" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C4" s="168" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="D4" s="169" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="F4" s="171" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="G4" s="169" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H4" s="172" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="173" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -26060,676 +26096,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C6" s="177" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E6" s="160"/>
       <c r="F6" s="161" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H6" s="162">
         <v>1.0</v>
       </c>
       <c r="I6" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C7" s="177" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="161" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="G7" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H7" s="162">
         <v>2.0</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C8" s="177" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E8" s="160"/>
       <c r="F8" s="161" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="G8" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H8" s="162">
         <v>3.0</v>
       </c>
       <c r="I8" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C9" s="177" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E9" s="160"/>
       <c r="F9" s="161" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G9" s="159" t="s">
         <v>1781</v>
-      </c>
-      <c r="G9" s="159" t="s">
-        <v>1777</v>
       </c>
       <c r="H9" s="162">
         <v>4.0</v>
       </c>
       <c r="I9" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C10" s="177" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E10" s="160"/>
       <c r="F10" s="161" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="G10" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H10" s="162">
         <v>5.0</v>
       </c>
       <c r="I10" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E11" s="160"/>
       <c r="F11" s="161" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="G11" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H11" s="162">
         <v>6.0</v>
       </c>
       <c r="I11" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C12" s="177" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E12" s="160"/>
       <c r="F12" s="161" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="G12" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H12" s="162">
         <v>7.0</v>
       </c>
       <c r="I12" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E13" s="160"/>
       <c r="F13" s="161" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="G13" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H13" s="162">
         <v>8.0</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C14" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E14" s="160"/>
       <c r="F14" s="161" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="G14" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H14" s="162">
         <v>9.0</v>
       </c>
       <c r="I14" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E15" s="160"/>
       <c r="F15" s="161" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="G15" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H15" s="162">
         <v>10.0</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C16" s="177" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E16" s="160"/>
       <c r="F16" s="161" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="G16" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H16" s="162">
         <v>11.0</v>
       </c>
       <c r="I16" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C17" s="177" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E17" s="160"/>
       <c r="F17" s="161" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="G17" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H17" s="162">
         <v>12.0</v>
       </c>
       <c r="I17" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C18" s="177" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E18" s="160"/>
       <c r="F18" s="161" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="G18" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H18" s="162">
         <v>13.0</v>
       </c>
       <c r="I18" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C19" s="177" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E19" s="160"/>
       <c r="F19" s="161" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="G19" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H19" s="162">
         <v>14.0</v>
       </c>
       <c r="I19" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C20" s="177" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E20" s="160"/>
       <c r="F20" s="161" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="G20" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H20" s="162">
         <v>15.0</v>
       </c>
       <c r="I20" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C21" s="177" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E21" s="160"/>
       <c r="F21" s="161" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="G21" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H21" s="162">
         <v>16.0</v>
       </c>
       <c r="I21" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C22" s="177" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="161" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="G22" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H22" s="162">
         <v>17.0</v>
       </c>
       <c r="I22" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C23" s="177" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E23" s="160"/>
       <c r="F23" s="161" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="G23" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H23" s="162">
         <v>18.0</v>
       </c>
       <c r="I23" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C24" s="177" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E24" s="160"/>
       <c r="F24" s="161" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H24" s="162">
         <v>19.0</v>
       </c>
       <c r="I24" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C25" s="177" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E25" s="160"/>
       <c r="F25" s="161" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="G25" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H25" s="162">
         <v>20.0</v>
       </c>
       <c r="I25" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C26" s="177" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E26" s="160"/>
       <c r="F26" s="161" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="G26" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H26" s="162">
         <v>21.0</v>
       </c>
       <c r="I26" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C27" s="177" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E27" s="160"/>
       <c r="F27" s="161" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="G27" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H27" s="162">
         <v>22.0</v>
       </c>
       <c r="I27" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C28" s="177" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E28" s="160"/>
       <c r="F28" s="161" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="G28" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H28" s="162">
         <v>23.0</v>
       </c>
       <c r="I28" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C29" s="177" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E29" s="160"/>
       <c r="F29" s="161" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="G29" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H29" s="162">
         <v>24.0</v>
       </c>
       <c r="I29" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C30" s="177" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E30" s="160"/>
       <c r="F30" s="161" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H30" s="162">
         <v>25.0</v>
       </c>
       <c r="I30" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="178" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C31" s="179" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="180" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E31" s="181"/>
       <c r="F31" s="182" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="G31" s="180" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H31" s="183">
         <v>26.0</v>
       </c>
       <c r="I31" s="184" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -26747,28 +26783,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="167" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C33" s="168" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="169" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E33" s="170" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="F33" s="171" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="G33" s="169" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H33" s="172" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="173" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -26786,676 +26822,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C35" s="158" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E35" s="160"/>
       <c r="F35" s="161" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="G35" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H35" s="162">
         <v>1.0</v>
       </c>
       <c r="I35" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C36" s="158" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E36" s="160"/>
       <c r="F36" s="161" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="G36" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H36" s="162">
         <v>2.0</v>
       </c>
       <c r="I36" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C37" s="158" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E37" s="160"/>
       <c r="F37" s="161" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="G37" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H37" s="162">
         <v>3.0</v>
       </c>
       <c r="I37" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C38" s="158" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E38" s="160"/>
       <c r="F38" s="161" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="G38" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H38" s="162">
         <v>4.0</v>
       </c>
       <c r="I38" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C39" s="158" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E39" s="160"/>
       <c r="F39" s="161" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="G39" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H39" s="162">
         <v>5.0</v>
       </c>
       <c r="I39" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C40" s="158" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E40" s="160"/>
       <c r="F40" s="161" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="G40" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H40" s="162">
         <v>6.0</v>
       </c>
       <c r="I40" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C41" s="158" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E41" s="160"/>
       <c r="F41" s="161" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="G41" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H41" s="162">
         <v>7.0</v>
       </c>
       <c r="I41" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C42" s="158" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E42" s="160"/>
       <c r="F42" s="161" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="G42" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H42" s="162">
         <v>8.0</v>
       </c>
       <c r="I42" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C43" s="158" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E43" s="160"/>
       <c r="F43" s="161" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="G43" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H43" s="162">
         <v>9.0</v>
       </c>
       <c r="I43" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C44" s="158" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E44" s="160"/>
       <c r="F44" s="161" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="G44" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H44" s="162">
         <v>10.0</v>
       </c>
       <c r="I44" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C45" s="158" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E45" s="160"/>
       <c r="F45" s="161" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="G45" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H45" s="162">
         <v>11.0</v>
       </c>
       <c r="I45" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C46" s="158" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E46" s="160"/>
       <c r="F46" s="161" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="G46" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H46" s="162">
         <v>12.0</v>
       </c>
       <c r="I46" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C47" s="158" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E47" s="160"/>
       <c r="F47" s="161" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="G47" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H47" s="162">
         <v>13.0</v>
       </c>
       <c r="I47" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C48" s="158" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E48" s="160"/>
       <c r="F48" s="161" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="G48" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H48" s="162">
         <v>14.0</v>
       </c>
       <c r="I48" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C49" s="158" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E49" s="160"/>
       <c r="F49" s="161" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="G49" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H49" s="162">
         <v>15.0</v>
       </c>
       <c r="I49" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C50" s="158" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E50" s="160"/>
       <c r="F50" s="161" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="G50" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H50" s="162">
         <v>16.0</v>
       </c>
       <c r="I50" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C51" s="158" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E51" s="160"/>
       <c r="F51" s="161" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="G51" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H51" s="162">
         <v>17.0</v>
       </c>
       <c r="I51" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C52" s="158" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E52" s="160"/>
       <c r="F52" s="161" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="G52" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H52" s="162">
         <v>18.0</v>
       </c>
       <c r="I52" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C53" s="158" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E53" s="160"/>
       <c r="F53" s="161" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="G53" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H53" s="162">
         <v>19.0</v>
       </c>
       <c r="I53" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C54" s="158" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E54" s="160"/>
       <c r="F54" s="161" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="G54" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H54" s="162">
         <v>20.0</v>
       </c>
       <c r="I54" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C55" s="158" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E55" s="160"/>
       <c r="F55" s="161" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="G55" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H55" s="162">
         <v>21.0</v>
       </c>
       <c r="I55" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C56" s="158" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E56" s="160"/>
       <c r="F56" s="161" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="G56" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H56" s="162">
         <v>22.0</v>
       </c>
       <c r="I56" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C57" s="158" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E57" s="160"/>
       <c r="F57" s="161" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="G57" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H57" s="162">
         <v>23.0</v>
       </c>
       <c r="I57" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C58" s="158" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E58" s="160"/>
       <c r="F58" s="161" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="G58" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H58" s="162">
         <v>24.0</v>
       </c>
       <c r="I58" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C59" s="158" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E59" s="160"/>
       <c r="F59" s="161" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="G59" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H59" s="162">
         <v>25.0</v>
       </c>
       <c r="I59" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="178" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C60" s="185" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E60" s="181"/>
       <c r="F60" s="182" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="G60" s="180" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H60" s="183">
         <v>26.0</v>
       </c>
       <c r="I60" s="184" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -27473,28 +27509,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="167" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C62" s="168" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="169" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E62" s="170" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="F62" s="171" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="G62" s="169" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H62" s="172" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="173" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -27512,676 +27548,676 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C64" s="158" t="s">
         <v>452</v>
       </c>
       <c r="D64" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E64" s="160"/>
       <c r="F64" s="161" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="G64" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H64" s="162">
         <v>1.0</v>
       </c>
       <c r="I64" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C65" s="158" t="s">
         <v>453</v>
       </c>
       <c r="D65" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E65" s="160"/>
       <c r="F65" s="161" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="G65" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H65" s="162">
         <v>2.0</v>
       </c>
       <c r="I65" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C66" s="158" t="s">
         <v>454</v>
       </c>
       <c r="D66" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E66" s="160"/>
       <c r="F66" s="161" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="G66" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H66" s="162">
         <v>3.0</v>
       </c>
       <c r="I66" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C67" s="158" t="s">
         <v>455</v>
       </c>
       <c r="D67" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E67" s="160"/>
       <c r="F67" s="161" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="G67" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H67" s="162">
         <v>4.0</v>
       </c>
       <c r="I67" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C68" s="158" t="s">
         <v>456</v>
       </c>
       <c r="D68" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E68" s="160"/>
       <c r="F68" s="161" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="G68" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H68" s="162">
         <v>5.0</v>
       </c>
       <c r="I68" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C69" s="158" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E69" s="160"/>
       <c r="F69" s="161" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="G69" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H69" s="162">
         <v>6.0</v>
       </c>
       <c r="I69" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C70" s="158" t="s">
         <v>458</v>
       </c>
       <c r="D70" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E70" s="160"/>
       <c r="F70" s="161" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="G70" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H70" s="162">
         <v>7.0</v>
       </c>
       <c r="I70" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C71" s="158" t="s">
         <v>459</v>
       </c>
       <c r="D71" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E71" s="160"/>
       <c r="F71" s="161" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="G71" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H71" s="162">
         <v>8.0</v>
       </c>
       <c r="I71" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C72" s="158" t="s">
         <v>460</v>
       </c>
       <c r="D72" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E72" s="160"/>
       <c r="F72" s="161" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="G72" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H72" s="162">
         <v>9.0</v>
       </c>
       <c r="I72" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C73" s="158" t="s">
         <v>461</v>
       </c>
       <c r="D73" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E73" s="160"/>
       <c r="F73" s="161" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="G73" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H73" s="162">
         <v>10.0</v>
       </c>
       <c r="I73" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C74" s="158" t="s">
         <v>462</v>
       </c>
       <c r="D74" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E74" s="160"/>
       <c r="F74" s="161" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="G74" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H74" s="162">
         <v>11.0</v>
       </c>
       <c r="I74" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C75" s="158" t="s">
         <v>463</v>
       </c>
       <c r="D75" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E75" s="160"/>
       <c r="F75" s="161" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="G75" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H75" s="162">
         <v>12.0</v>
       </c>
       <c r="I75" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C76" s="158" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E76" s="160"/>
       <c r="F76" s="161" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="G76" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H76" s="162">
         <v>13.0</v>
       </c>
       <c r="I76" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C77" s="158" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E77" s="160"/>
       <c r="F77" s="161" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="G77" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H77" s="162">
         <v>14.0</v>
       </c>
       <c r="I77" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C78" s="158" t="s">
         <v>466</v>
       </c>
       <c r="D78" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E78" s="160"/>
       <c r="F78" s="161" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="G78" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H78" s="162">
         <v>15.0</v>
       </c>
       <c r="I78" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C79" s="158" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E79" s="160"/>
       <c r="F79" s="161" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="G79" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H79" s="162">
         <v>16.0</v>
       </c>
       <c r="I79" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C80" s="158" t="s">
         <v>468</v>
       </c>
       <c r="D80" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E80" s="160"/>
       <c r="F80" s="161" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="G80" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H80" s="162">
         <v>17.0</v>
       </c>
       <c r="I80" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C81" s="158" t="s">
         <v>469</v>
       </c>
       <c r="D81" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E81" s="160"/>
       <c r="F81" s="161" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="G81" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H81" s="162">
         <v>18.0</v>
       </c>
       <c r="I81" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C82" s="158" t="s">
         <v>470</v>
       </c>
       <c r="D82" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E82" s="160"/>
       <c r="F82" s="161" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="G82" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H82" s="162">
         <v>19.0</v>
       </c>
       <c r="I82" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C83" s="158" t="s">
         <v>471</v>
       </c>
       <c r="D83" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E83" s="160"/>
       <c r="F83" s="161" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="G83" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H83" s="162">
         <v>20.0</v>
       </c>
       <c r="I83" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C84" s="158" t="s">
         <v>472</v>
       </c>
       <c r="D84" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E84" s="160"/>
       <c r="F84" s="161" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="G84" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H84" s="162">
         <v>21.0</v>
       </c>
       <c r="I84" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C85" s="158" t="s">
         <v>473</v>
       </c>
       <c r="D85" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E85" s="160"/>
       <c r="F85" s="161" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="G85" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H85" s="162">
         <v>22.0</v>
       </c>
       <c r="I85" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C86" s="158" t="s">
         <v>474</v>
       </c>
       <c r="D86" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E86" s="160"/>
       <c r="F86" s="161" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="G86" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H86" s="162">
         <v>23.0</v>
       </c>
       <c r="I86" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C87" s="158" t="s">
         <v>475</v>
       </c>
       <c r="D87" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E87" s="160"/>
       <c r="F87" s="161" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="G87" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H87" s="162">
         <v>24.0</v>
       </c>
       <c r="I87" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C88" s="158" t="s">
         <v>476</v>
       </c>
       <c r="D88" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E88" s="160"/>
       <c r="F88" s="161" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="G88" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H88" s="162">
         <v>25.0</v>
       </c>
       <c r="I88" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="178" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C89" s="185" t="s">
         <v>477</v>
       </c>
       <c r="D89" s="180" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E89" s="181"/>
       <c r="F89" s="182" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="G89" s="180" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H89" s="183">
         <v>26.0</v>
       </c>
       <c r="I89" s="184" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -28199,28 +28235,28 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="167" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C91" s="168" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="169" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E91" s="170" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="F91" s="171" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="G91" s="169" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H91" s="172" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="173" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -28238,676 +28274,676 @@
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C93" s="158" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E93" s="160"/>
       <c r="F93" s="161" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="G93" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H93" s="162">
         <v>1.0</v>
       </c>
       <c r="I93" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C94" s="158" t="s">
         <v>730</v>
       </c>
       <c r="D94" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E94" s="160"/>
       <c r="F94" s="161" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="G94" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H94" s="162">
         <v>2.0</v>
       </c>
       <c r="I94" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C95" s="158" t="s">
         <v>731</v>
       </c>
       <c r="D95" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E95" s="160"/>
       <c r="F95" s="161" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="G95" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H95" s="162">
         <v>3.0</v>
       </c>
       <c r="I95" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C96" s="158" t="s">
         <v>732</v>
       </c>
       <c r="D96" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E96" s="160"/>
       <c r="F96" s="161" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="G96" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H96" s="162">
         <v>4.0</v>
       </c>
       <c r="I96" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C97" s="158" t="s">
         <v>733</v>
       </c>
       <c r="D97" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E97" s="160"/>
       <c r="F97" s="161" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="G97" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H97" s="162">
         <v>5.0</v>
       </c>
       <c r="I97" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C98" s="158" t="s">
         <v>734</v>
       </c>
       <c r="D98" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E98" s="160"/>
       <c r="F98" s="161" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="G98" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H98" s="162">
         <v>6.0</v>
       </c>
       <c r="I98" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C99" s="158" t="s">
         <v>735</v>
       </c>
       <c r="D99" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E99" s="160"/>
       <c r="F99" s="161" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="G99" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H99" s="162">
         <v>7.0</v>
       </c>
       <c r="I99" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C100" s="158" t="s">
         <v>736</v>
       </c>
       <c r="D100" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E100" s="160"/>
       <c r="F100" s="161" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="G100" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H100" s="162">
         <v>8.0</v>
       </c>
       <c r="I100" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C101" s="158" t="s">
         <v>737</v>
       </c>
       <c r="D101" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E101" s="160"/>
       <c r="F101" s="161" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="G101" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H101" s="162">
         <v>9.0</v>
       </c>
       <c r="I101" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C102" s="158" t="s">
         <v>738</v>
       </c>
       <c r="D102" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E102" s="160"/>
       <c r="F102" s="161" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="G102" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H102" s="162">
         <v>10.0</v>
       </c>
       <c r="I102" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C103" s="158" t="s">
         <v>739</v>
       </c>
       <c r="D103" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E103" s="160"/>
       <c r="F103" s="161" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="G103" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H103" s="162">
         <v>11.0</v>
       </c>
       <c r="I103" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C104" s="158" t="s">
         <v>740</v>
       </c>
       <c r="D104" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E104" s="160"/>
       <c r="F104" s="161" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="G104" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H104" s="162">
         <v>12.0</v>
       </c>
       <c r="I104" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C105" s="158" t="s">
         <v>741</v>
       </c>
       <c r="D105" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E105" s="160"/>
       <c r="F105" s="161" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="G105" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H105" s="162">
         <v>13.0</v>
       </c>
       <c r="I105" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C106" s="158" t="s">
         <v>742</v>
       </c>
       <c r="D106" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E106" s="160"/>
       <c r="F106" s="161" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="G106" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H106" s="162">
         <v>14.0</v>
       </c>
       <c r="I106" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C107" s="158" t="s">
         <v>743</v>
       </c>
       <c r="D107" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E107" s="160"/>
       <c r="F107" s="161" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="G107" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H107" s="162">
         <v>15.0</v>
       </c>
       <c r="I107" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C108" s="158" t="s">
         <v>744</v>
       </c>
       <c r="D108" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E108" s="160"/>
       <c r="F108" s="161" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="G108" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H108" s="162">
         <v>16.0</v>
       </c>
       <c r="I108" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C109" s="158" t="s">
         <v>745</v>
       </c>
       <c r="D109" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E109" s="160"/>
       <c r="F109" s="161" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="G109" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H109" s="162">
         <v>17.0</v>
       </c>
       <c r="I109" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C110" s="158" t="s">
         <v>746</v>
       </c>
       <c r="D110" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E110" s="160"/>
       <c r="F110" s="161" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="G110" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H110" s="162">
         <v>18.0</v>
       </c>
       <c r="I110" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C111" s="158" t="s">
         <v>747</v>
       </c>
       <c r="D111" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E111" s="160"/>
       <c r="F111" s="161" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="G111" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H111" s="162">
         <v>19.0</v>
       </c>
       <c r="I111" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C112" s="158" t="s">
         <v>748</v>
       </c>
       <c r="D112" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E112" s="160"/>
       <c r="F112" s="161" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="G112" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H112" s="162">
         <v>20.0</v>
       </c>
       <c r="I112" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C113" s="158" t="s">
         <v>749</v>
       </c>
       <c r="D113" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E113" s="160"/>
       <c r="F113" s="161" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="G113" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H113" s="162">
         <v>21.0</v>
       </c>
       <c r="I113" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C114" s="158" t="s">
         <v>750</v>
       </c>
       <c r="D114" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E114" s="160"/>
       <c r="F114" s="161" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="G114" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H114" s="162">
         <v>22.0</v>
       </c>
       <c r="I114" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C115" s="158" t="s">
         <v>751</v>
       </c>
       <c r="D115" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E115" s="160"/>
       <c r="F115" s="161" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="G115" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H115" s="162">
         <v>23.0</v>
       </c>
       <c r="I115" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C116" s="158" t="s">
         <v>752</v>
       </c>
       <c r="D116" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E116" s="160"/>
       <c r="F116" s="161" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="G116" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H116" s="162">
         <v>24.0</v>
       </c>
       <c r="I116" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C117" s="158" t="s">
         <v>753</v>
       </c>
       <c r="D117" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E117" s="160"/>
       <c r="F117" s="161" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="G117" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H117" s="162">
         <v>25.0</v>
       </c>
       <c r="I117" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="178" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C118" s="185" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="180" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E118" s="181"/>
       <c r="F118" s="182" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="G118" s="180" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H118" s="183">
         <v>26.0</v>
       </c>
       <c r="I118" s="184" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J118" s="1"/>
     </row>
@@ -28925,28 +28961,28 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="167" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C120" s="168" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="169" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E120" s="170" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="F120" s="171" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="G120" s="169" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H120" s="172" t="s">
         <v>3</v>
       </c>
       <c r="I120" s="173" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J120" s="1"/>
     </row>
@@ -28964,676 +29000,676 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C122" s="158" t="s">
         <v>1045</v>
       </c>
       <c r="D122" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E122" s="160"/>
       <c r="F122" s="161" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="G122" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H122" s="162">
         <v>1.0</v>
       </c>
       <c r="I122" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C123" s="158" t="s">
         <v>1046</v>
       </c>
       <c r="D123" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E123" s="160"/>
       <c r="F123" s="161" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="G123" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H123" s="162">
         <v>2.0</v>
       </c>
       <c r="I123" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C124" s="158" t="s">
         <v>1047</v>
       </c>
       <c r="D124" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E124" s="160"/>
       <c r="F124" s="161" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="G124" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H124" s="162">
         <v>3.0</v>
       </c>
       <c r="I124" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C125" s="158" t="s">
         <v>1048</v>
       </c>
       <c r="D125" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E125" s="160"/>
       <c r="F125" s="161" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="G125" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H125" s="162">
         <v>4.0</v>
       </c>
       <c r="I125" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C126" s="158" t="s">
         <v>1049</v>
       </c>
       <c r="D126" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E126" s="160"/>
       <c r="F126" s="161" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="G126" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H126" s="162">
         <v>5.0</v>
       </c>
       <c r="I126" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C127" s="158" t="s">
         <v>1050</v>
       </c>
       <c r="D127" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E127" s="160"/>
       <c r="F127" s="161" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="G127" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H127" s="162">
         <v>6.0</v>
       </c>
       <c r="I127" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C128" s="158" t="s">
         <v>1051</v>
       </c>
       <c r="D128" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E128" s="160"/>
       <c r="F128" s="161" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="G128" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H128" s="162">
         <v>7.0</v>
       </c>
       <c r="I128" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C129" s="158" t="s">
         <v>1052</v>
       </c>
       <c r="D129" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E129" s="160"/>
       <c r="F129" s="161" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="G129" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H129" s="162">
         <v>8.0</v>
       </c>
       <c r="I129" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C130" s="158" t="s">
         <v>1053</v>
       </c>
       <c r="D130" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E130" s="160"/>
       <c r="F130" s="161" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="G130" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H130" s="162">
         <v>9.0</v>
       </c>
       <c r="I130" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C131" s="158" t="s">
         <v>1054</v>
       </c>
       <c r="D131" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E131" s="160"/>
       <c r="F131" s="161" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="G131" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H131" s="162">
         <v>10.0</v>
       </c>
       <c r="I131" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C132" s="158" t="s">
         <v>1055</v>
       </c>
       <c r="D132" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E132" s="160"/>
       <c r="F132" s="161" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="G132" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H132" s="162">
         <v>11.0</v>
       </c>
       <c r="I132" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C133" s="158" t="s">
         <v>1056</v>
       </c>
       <c r="D133" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E133" s="160"/>
       <c r="F133" s="161" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="G133" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H133" s="162">
         <v>12.0</v>
       </c>
       <c r="I133" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C134" s="158" t="s">
         <v>1057</v>
       </c>
       <c r="D134" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E134" s="160"/>
       <c r="F134" s="161" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="G134" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H134" s="162">
         <v>13.0</v>
       </c>
       <c r="I134" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C135" s="158" t="s">
         <v>1058</v>
       </c>
       <c r="D135" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E135" s="160"/>
       <c r="F135" s="161" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="G135" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H135" s="162">
         <v>14.0</v>
       </c>
       <c r="I135" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C136" s="158" t="s">
         <v>1059</v>
       </c>
       <c r="D136" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E136" s="160"/>
       <c r="F136" s="161" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="G136" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H136" s="162">
         <v>15.0</v>
       </c>
       <c r="I136" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C137" s="158" t="s">
         <v>1060</v>
       </c>
       <c r="D137" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E137" s="160"/>
       <c r="F137" s="161" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="G137" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H137" s="162">
         <v>16.0</v>
       </c>
       <c r="I137" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C138" s="158" t="s">
         <v>1061</v>
       </c>
       <c r="D138" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E138" s="160"/>
       <c r="F138" s="161" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="G138" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H138" s="162">
         <v>17.0</v>
       </c>
       <c r="I138" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C139" s="158" t="s">
         <v>1062</v>
       </c>
       <c r="D139" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E139" s="160"/>
       <c r="F139" s="161" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="G139" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H139" s="162">
         <v>18.0</v>
       </c>
       <c r="I139" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C140" s="158" t="s">
         <v>1063</v>
       </c>
       <c r="D140" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E140" s="160"/>
       <c r="F140" s="161" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="G140" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H140" s="162">
         <v>19.0</v>
       </c>
       <c r="I140" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C141" s="158" t="s">
         <v>1064</v>
       </c>
       <c r="D141" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E141" s="160"/>
       <c r="F141" s="161" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G141" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H141" s="162">
         <v>20.0</v>
       </c>
       <c r="I141" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C142" s="158" t="s">
         <v>1065</v>
       </c>
       <c r="D142" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E142" s="160"/>
       <c r="F142" s="161" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="G142" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H142" s="162">
         <v>21.0</v>
       </c>
       <c r="I142" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C143" s="158" t="s">
         <v>1066</v>
       </c>
       <c r="D143" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E143" s="160"/>
       <c r="F143" s="161" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="G143" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H143" s="162">
         <v>22.0</v>
       </c>
       <c r="I143" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C144" s="158" t="s">
         <v>1067</v>
       </c>
       <c r="D144" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E144" s="160"/>
       <c r="F144" s="161" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="G144" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H144" s="162">
         <v>23.0</v>
       </c>
       <c r="I144" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C145" s="158" t="s">
         <v>1068</v>
       </c>
       <c r="D145" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E145" s="160"/>
       <c r="F145" s="161" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="G145" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H145" s="162">
         <v>24.0</v>
       </c>
       <c r="I145" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C146" s="158" t="s">
         <v>1069</v>
       </c>
       <c r="D146" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E146" s="160"/>
       <c r="F146" s="161" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="G146" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H146" s="162">
         <v>25.0</v>
       </c>
       <c r="I146" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="178" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C147" s="185" t="s">
         <v>1070</v>
       </c>
       <c r="D147" s="180" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E147" s="181"/>
       <c r="F147" s="182" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="G147" s="180" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H147" s="183">
         <v>26.0</v>
       </c>
       <c r="I147" s="184" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J147" s="1"/>
     </row>
@@ -29651,28 +29687,28 @@
     <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="167" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C149" s="168" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="169" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E149" s="170" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="F149" s="171" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="G149" s="169" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H149" s="172" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="173" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J149" s="1"/>
     </row>
@@ -29690,676 +29726,676 @@
     <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C151" s="158" t="s">
         <v>1269</v>
       </c>
       <c r="D151" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E151" s="160"/>
       <c r="F151" s="161" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="G151" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H151" s="162">
         <v>1.0</v>
       </c>
       <c r="I151" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C152" s="158" t="s">
         <v>1270</v>
       </c>
       <c r="D152" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E152" s="160"/>
       <c r="F152" s="161" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="G152" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H152" s="162">
         <v>2.0</v>
       </c>
       <c r="I152" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C153" s="158" t="s">
         <v>1271</v>
       </c>
       <c r="D153" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E153" s="160"/>
       <c r="F153" s="161" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="G153" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H153" s="162">
         <v>3.0</v>
       </c>
       <c r="I153" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C154" s="158" t="s">
         <v>1272</v>
       </c>
       <c r="D154" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E154" s="160"/>
       <c r="F154" s="161" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="G154" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H154" s="162">
         <v>4.0</v>
       </c>
       <c r="I154" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C155" s="158" t="s">
         <v>1273</v>
       </c>
       <c r="D155" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E155" s="160"/>
       <c r="F155" s="161" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="G155" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H155" s="162">
         <v>5.0</v>
       </c>
       <c r="I155" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C156" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="D156" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E156" s="160"/>
       <c r="F156" s="161" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="G156" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H156" s="162">
         <v>6.0</v>
       </c>
       <c r="I156" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C157" s="158" t="s">
         <v>1275</v>
       </c>
       <c r="D157" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E157" s="160"/>
       <c r="F157" s="161" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="G157" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H157" s="162">
         <v>7.0</v>
       </c>
       <c r="I157" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C158" s="158" t="s">
         <v>1276</v>
       </c>
       <c r="D158" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E158" s="160"/>
       <c r="F158" s="161" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="G158" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H158" s="162">
         <v>8.0</v>
       </c>
       <c r="I158" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C159" s="158" t="s">
         <v>1277</v>
       </c>
       <c r="D159" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E159" s="160"/>
       <c r="F159" s="161" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="G159" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H159" s="162">
         <v>9.0</v>
       </c>
       <c r="I159" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C160" s="158" t="s">
         <v>1278</v>
       </c>
       <c r="D160" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E160" s="160"/>
       <c r="F160" s="161" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="G160" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H160" s="162">
         <v>10.0</v>
       </c>
       <c r="I160" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C161" s="158" t="s">
         <v>1279</v>
       </c>
       <c r="D161" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E161" s="160"/>
       <c r="F161" s="161" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="G161" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H161" s="162">
         <v>11.0</v>
       </c>
       <c r="I161" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C162" s="158" t="s">
         <v>1280</v>
       </c>
       <c r="D162" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E162" s="160"/>
       <c r="F162" s="161" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="G162" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H162" s="162">
         <v>12.0</v>
       </c>
       <c r="I162" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C163" s="158" t="s">
         <v>1281</v>
       </c>
       <c r="D163" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E163" s="160"/>
       <c r="F163" s="161" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="G163" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H163" s="162">
         <v>13.0</v>
       </c>
       <c r="I163" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C164" s="158" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E164" s="160"/>
       <c r="F164" s="161" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="G164" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H164" s="162">
         <v>14.0</v>
       </c>
       <c r="I164" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C165" s="158" t="s">
         <v>1283</v>
       </c>
       <c r="D165" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E165" s="160"/>
       <c r="F165" s="161" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="G165" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H165" s="162">
         <v>15.0</v>
       </c>
       <c r="I165" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C166" s="158" t="s">
         <v>1284</v>
       </c>
       <c r="D166" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E166" s="160"/>
       <c r="F166" s="161" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="G166" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H166" s="162">
         <v>16.0</v>
       </c>
       <c r="I166" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C167" s="158" t="s">
         <v>1285</v>
       </c>
       <c r="D167" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E167" s="160"/>
       <c r="F167" s="161" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="G167" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H167" s="162">
         <v>17.0</v>
       </c>
       <c r="I167" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C168" s="158" t="s">
         <v>1286</v>
       </c>
       <c r="D168" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E168" s="160"/>
       <c r="F168" s="161" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="G168" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H168" s="162">
         <v>18.0</v>
       </c>
       <c r="I168" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C169" s="158" t="s">
         <v>1287</v>
       </c>
       <c r="D169" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E169" s="160"/>
       <c r="F169" s="161" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="G169" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H169" s="162">
         <v>19.0</v>
       </c>
       <c r="I169" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C170" s="158" t="s">
         <v>1288</v>
       </c>
       <c r="D170" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E170" s="160"/>
       <c r="F170" s="161" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="G170" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H170" s="162">
         <v>20.0</v>
       </c>
       <c r="I170" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C171" s="158" t="s">
         <v>1289</v>
       </c>
       <c r="D171" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E171" s="160"/>
       <c r="F171" s="161" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="G171" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H171" s="162">
         <v>21.0</v>
       </c>
       <c r="I171" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C172" s="158" t="s">
         <v>1290</v>
       </c>
       <c r="D172" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E172" s="160"/>
       <c r="F172" s="161" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="G172" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H172" s="162">
         <v>22.0</v>
       </c>
       <c r="I172" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C173" s="158" t="s">
         <v>1291</v>
       </c>
       <c r="D173" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E173" s="160"/>
       <c r="F173" s="161" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="G173" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H173" s="162">
         <v>23.0</v>
       </c>
       <c r="I173" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C174" s="158" t="s">
         <v>1292</v>
       </c>
       <c r="D174" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E174" s="160"/>
       <c r="F174" s="161" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="G174" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H174" s="162">
         <v>24.0</v>
       </c>
       <c r="I174" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C175" s="158" t="s">
         <v>1293</v>
       </c>
       <c r="D175" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E175" s="160"/>
       <c r="F175" s="161" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="G175" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H175" s="162">
         <v>25.0</v>
       </c>
       <c r="I175" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="178" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C176" s="185" t="s">
         <v>1294</v>
       </c>
       <c r="D176" s="180" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E176" s="181"/>
       <c r="F176" s="182" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="G176" s="180" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H176" s="183">
         <v>26.0</v>
       </c>
       <c r="I176" s="184" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -30378,28 +30414,28 @@
     <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="167" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C178" s="168" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="169" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E178" s="170" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="F178" s="171" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="G178" s="169" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H178" s="172" t="s">
         <v>5</v>
       </c>
       <c r="I178" s="173" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J178" s="1"/>
     </row>
@@ -30418,676 +30454,676 @@
     <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C180" s="158" t="s">
         <v>1424</v>
       </c>
       <c r="D180" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E180" s="160"/>
       <c r="F180" s="161" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="G180" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H180" s="162">
         <v>1.0</v>
       </c>
       <c r="I180" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C181" s="158" t="s">
         <v>1425</v>
       </c>
       <c r="D181" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E181" s="160"/>
       <c r="F181" s="161" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="G181" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H181" s="162">
         <v>2.0</v>
       </c>
       <c r="I181" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C182" s="158" t="s">
         <v>1426</v>
       </c>
       <c r="D182" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E182" s="160"/>
       <c r="F182" s="161" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="G182" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H182" s="162">
         <v>3.0</v>
       </c>
       <c r="I182" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C183" s="158" t="s">
         <v>1427</v>
       </c>
       <c r="D183" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E183" s="160"/>
       <c r="F183" s="161" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="G183" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H183" s="162">
         <v>4.0</v>
       </c>
       <c r="I183" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C184" s="158" t="s">
         <v>1428</v>
       </c>
       <c r="D184" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E184" s="160"/>
       <c r="F184" s="161" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="G184" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H184" s="162">
         <v>5.0</v>
       </c>
       <c r="I184" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C185" s="158" t="s">
         <v>1429</v>
       </c>
       <c r="D185" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E185" s="160"/>
       <c r="F185" s="161" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="G185" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H185" s="162">
         <v>6.0</v>
       </c>
       <c r="I185" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C186" s="158" t="s">
         <v>1430</v>
       </c>
       <c r="D186" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E186" s="160"/>
       <c r="F186" s="161" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="G186" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H186" s="162">
         <v>7.0</v>
       </c>
       <c r="I186" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C187" s="158" t="s">
         <v>1431</v>
       </c>
       <c r="D187" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E187" s="160"/>
       <c r="F187" s="161" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="G187" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H187" s="162">
         <v>8.0</v>
       </c>
       <c r="I187" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C188" s="158" t="s">
         <v>1432</v>
       </c>
       <c r="D188" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E188" s="160"/>
       <c r="F188" s="161" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="G188" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H188" s="162">
         <v>9.0</v>
       </c>
       <c r="I188" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C189" s="158" t="s">
         <v>1433</v>
       </c>
       <c r="D189" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E189" s="160"/>
       <c r="F189" s="161" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="G189" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H189" s="162">
         <v>10.0</v>
       </c>
       <c r="I189" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C190" s="158" t="s">
         <v>1434</v>
       </c>
       <c r="D190" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E190" s="160"/>
       <c r="F190" s="161" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="G190" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H190" s="162">
         <v>11.0</v>
       </c>
       <c r="I190" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C191" s="158" t="s">
         <v>1435</v>
       </c>
       <c r="D191" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E191" s="160"/>
       <c r="F191" s="161" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="G191" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H191" s="162">
         <v>12.0</v>
       </c>
       <c r="I191" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C192" s="158" t="s">
         <v>1436</v>
       </c>
       <c r="D192" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E192" s="160"/>
       <c r="F192" s="161" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="G192" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H192" s="162">
         <v>13.0</v>
       </c>
       <c r="I192" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C193" s="158" t="s">
         <v>1437</v>
       </c>
       <c r="D193" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E193" s="160"/>
       <c r="F193" s="161" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="G193" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H193" s="162">
         <v>14.0</v>
       </c>
       <c r="I193" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C194" s="158" t="s">
         <v>1438</v>
       </c>
       <c r="D194" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E194" s="160"/>
       <c r="F194" s="161" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="G194" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H194" s="162">
         <v>15.0</v>
       </c>
       <c r="I194" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C195" s="158" t="s">
         <v>1439</v>
       </c>
       <c r="D195" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E195" s="160"/>
       <c r="F195" s="161" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="G195" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H195" s="162">
         <v>16.0</v>
       </c>
       <c r="I195" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C196" s="158" t="s">
         <v>1440</v>
       </c>
       <c r="D196" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E196" s="160"/>
       <c r="F196" s="161" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="G196" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H196" s="162">
         <v>17.0</v>
       </c>
       <c r="I196" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C197" s="158" t="s">
         <v>1441</v>
       </c>
       <c r="D197" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E197" s="160"/>
       <c r="F197" s="161" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="G197" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H197" s="162">
         <v>18.0</v>
       </c>
       <c r="I197" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C198" s="158" t="s">
         <v>1442</v>
       </c>
       <c r="D198" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E198" s="160"/>
       <c r="F198" s="161" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="G198" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H198" s="162">
         <v>19.0</v>
       </c>
       <c r="I198" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C199" s="158" t="s">
         <v>1443</v>
       </c>
       <c r="D199" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E199" s="160"/>
       <c r="F199" s="161" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="G199" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H199" s="162">
         <v>20.0</v>
       </c>
       <c r="I199" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C200" s="158" t="s">
         <v>1444</v>
       </c>
       <c r="D200" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E200" s="160"/>
       <c r="F200" s="161" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="G200" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H200" s="162">
         <v>21.0</v>
       </c>
       <c r="I200" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C201" s="158" t="s">
         <v>1445</v>
       </c>
       <c r="D201" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E201" s="160"/>
       <c r="F201" s="161" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="G201" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H201" s="162">
         <v>22.0</v>
       </c>
       <c r="I201" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C202" s="158" t="s">
         <v>1446</v>
       </c>
       <c r="D202" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E202" s="160"/>
       <c r="F202" s="161" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="G202" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H202" s="162">
         <v>23.0</v>
       </c>
       <c r="I202" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C203" s="158" t="s">
         <v>1447</v>
       </c>
       <c r="D203" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E203" s="160"/>
       <c r="F203" s="161" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="G203" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H203" s="162">
         <v>24.0</v>
       </c>
       <c r="I203" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C204" s="158" t="s">
         <v>1448</v>
       </c>
       <c r="D204" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E204" s="160"/>
       <c r="F204" s="161" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="G204" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H204" s="162">
         <v>25.0</v>
       </c>
       <c r="I204" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="178" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C205" s="185" t="s">
         <v>1449</v>
       </c>
       <c r="D205" s="180" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E205" s="181"/>
       <c r="F205" s="182" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="G205" s="180" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H205" s="183">
         <v>26.0</v>
       </c>
       <c r="I205" s="184" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J205" s="1"/>
     </row>
@@ -31106,28 +31142,28 @@
     <row r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="167" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C207" s="168" t="s">
         <v>37</v>
       </c>
       <c r="D207" s="169" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E207" s="170" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="F207" s="171" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="G207" s="169" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H207" s="172" t="s">
         <v>6</v>
       </c>
       <c r="I207" s="173" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J207" s="1"/>
     </row>
@@ -31146,676 +31182,676 @@
     <row r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C209" s="158" t="s">
         <v>1746</v>
       </c>
       <c r="D209" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E209" s="160"/>
       <c r="F209" s="161" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="G209" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H209" s="162">
         <v>1.0</v>
       </c>
       <c r="I209" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C210" s="158" t="s">
         <v>1747</v>
       </c>
       <c r="D210" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E210" s="160"/>
       <c r="F210" s="161" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="G210" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H210" s="162">
         <v>2.0</v>
       </c>
       <c r="I210" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C211" s="158" t="s">
         <v>1748</v>
       </c>
       <c r="D211" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E211" s="160"/>
       <c r="F211" s="161" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="G211" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H211" s="162">
         <v>3.0</v>
       </c>
       <c r="I211" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C212" s="158" t="s">
         <v>1749</v>
       </c>
       <c r="D212" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E212" s="160"/>
       <c r="F212" s="161" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="G212" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H212" s="162">
         <v>4.0</v>
       </c>
       <c r="I212" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
       <c r="B213" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C213" s="158" t="s">
         <v>1750</v>
       </c>
       <c r="D213" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E213" s="160"/>
       <c r="F213" s="161" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="G213" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H213" s="162">
         <v>5.0</v>
       </c>
       <c r="I213" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
       <c r="B214" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C214" s="158" t="s">
         <v>1751</v>
       </c>
       <c r="D214" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E214" s="160"/>
       <c r="F214" s="161" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="G214" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H214" s="162">
         <v>6.0</v>
       </c>
       <c r="I214" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
       <c r="B215" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C215" s="158" t="s">
         <v>1752</v>
       </c>
       <c r="D215" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E215" s="160"/>
       <c r="F215" s="161" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="G215" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H215" s="162">
         <v>7.0</v>
       </c>
       <c r="I215" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
       <c r="B216" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C216" s="158" t="s">
         <v>1753</v>
       </c>
       <c r="D216" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E216" s="160"/>
       <c r="F216" s="161" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="G216" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H216" s="162">
         <v>8.0</v>
       </c>
       <c r="I216" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
       <c r="B217" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C217" s="158" t="s">
         <v>1754</v>
       </c>
       <c r="D217" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E217" s="160"/>
       <c r="F217" s="161" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="G217" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H217" s="162">
         <v>9.0</v>
       </c>
       <c r="I217" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
       <c r="B218" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C218" s="158" t="s">
         <v>1755</v>
       </c>
       <c r="D218" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E218" s="160"/>
       <c r="F218" s="161" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="G218" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H218" s="162">
         <v>10.0</v>
       </c>
       <c r="I218" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
       <c r="B219" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C219" s="158" t="s">
         <v>1756</v>
       </c>
       <c r="D219" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E219" s="160"/>
       <c r="F219" s="161" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="G219" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H219" s="162">
         <v>11.0</v>
       </c>
       <c r="I219" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
       <c r="B220" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C220" s="158" t="s">
         <v>1757</v>
       </c>
       <c r="D220" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E220" s="160"/>
       <c r="F220" s="161" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="G220" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H220" s="162">
         <v>12.0</v>
       </c>
       <c r="I220" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
       <c r="B221" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C221" s="158" t="s">
         <v>1758</v>
       </c>
       <c r="D221" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E221" s="160"/>
       <c r="F221" s="161" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="G221" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H221" s="162">
         <v>13.0</v>
       </c>
       <c r="I221" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
       <c r="B222" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C222" s="158" t="s">
         <v>1759</v>
       </c>
       <c r="D222" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E222" s="160"/>
       <c r="F222" s="161" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="G222" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H222" s="162">
         <v>14.0</v>
       </c>
       <c r="I222" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
       <c r="B223" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C223" s="158" t="s">
         <v>1760</v>
       </c>
       <c r="D223" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E223" s="160"/>
       <c r="F223" s="161" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="G223" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H223" s="162">
         <v>15.0</v>
       </c>
       <c r="I223" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
       <c r="B224" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C224" s="158" t="s">
         <v>1761</v>
       </c>
       <c r="D224" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E224" s="160"/>
       <c r="F224" s="161" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="G224" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H224" s="162">
         <v>16.0</v>
       </c>
       <c r="I224" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
       <c r="B225" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C225" s="158" t="s">
         <v>1762</v>
       </c>
       <c r="D225" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E225" s="160"/>
       <c r="F225" s="161" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="G225" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H225" s="162">
         <v>17.0</v>
       </c>
       <c r="I225" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
       <c r="B226" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C226" s="158" t="s">
         <v>1763</v>
       </c>
       <c r="D226" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E226" s="160"/>
       <c r="F226" s="161" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="G226" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H226" s="162">
         <v>18.0</v>
       </c>
       <c r="I226" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
       <c r="B227" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C227" s="158" t="s">
         <v>1764</v>
       </c>
       <c r="D227" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E227" s="160"/>
       <c r="F227" s="161" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="G227" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H227" s="162">
         <v>19.0</v>
       </c>
       <c r="I227" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
       <c r="B228" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C228" s="158" t="s">
         <v>1765</v>
       </c>
       <c r="D228" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E228" s="160"/>
       <c r="F228" s="161" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="G228" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H228" s="162">
         <v>20.0</v>
       </c>
       <c r="I228" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
       <c r="B229" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C229" s="158" t="s">
         <v>1766</v>
       </c>
       <c r="D229" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E229" s="160"/>
       <c r="F229" s="161" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="G229" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H229" s="162">
         <v>21.0</v>
       </c>
       <c r="I229" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
       <c r="B230" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C230" s="158" t="s">
         <v>1767</v>
       </c>
       <c r="D230" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E230" s="160"/>
       <c r="F230" s="161" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="G230" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H230" s="162">
         <v>22.0</v>
       </c>
       <c r="I230" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C231" s="158" t="s">
         <v>1768</v>
       </c>
       <c r="D231" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E231" s="160"/>
       <c r="F231" s="161" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="G231" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H231" s="162">
         <v>23.0</v>
       </c>
       <c r="I231" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
       <c r="B232" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C232" s="158" t="s">
         <v>1769</v>
       </c>
       <c r="D232" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E232" s="160"/>
       <c r="F232" s="161" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="G232" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H232" s="162">
         <v>24.0</v>
       </c>
       <c r="I232" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
       <c r="B233" s="174" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C233" s="158" t="s">
         <v>1770</v>
       </c>
       <c r="D233" s="159" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E233" s="160"/>
       <c r="F233" s="161" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="G233" s="159" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H233" s="162">
         <v>25.0</v>
       </c>
       <c r="I233" s="176" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
       <c r="B234" s="178" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="C234" s="185" t="s">
         <v>1771</v>
       </c>
       <c r="D234" s="180" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E234" s="181"/>
       <c r="F234" s="182" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="G234" s="180" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="H234" s="183">
         <v>26.0</v>
       </c>
       <c r="I234" s="184" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="J234" s="1"/>
     </row>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5556" uniqueCount="2008">
   <si>
     <t>A#3</t>
   </si>
@@ -5334,10 +5334,22 @@
     <t>introduce</t>
   </si>
   <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
     <t>rain</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>stage</t>
   </si>
   <si>
     <t>nutrition</t>
@@ -25490,7 +25502,9 @@
       <c r="D98" s="69" t="s">
         <v>1772</v>
       </c>
-      <c r="E98" s="70"/>
+      <c r="E98" s="70" t="s">
+        <v>1773</v>
+      </c>
       <c r="F98" s="70"/>
       <c r="G98" s="70"/>
       <c r="H98" s="70"/>
@@ -25513,9 +25527,11 @@
       <c r="Y98" s="70"/>
       <c r="Z98" s="70"/>
       <c r="AA98" s="70"/>
-      <c r="AB98" s="70"/>
+      <c r="AB98" s="70" t="s">
+        <v>1774</v>
+      </c>
       <c r="AC98" s="71" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="AD98" s="1"/>
       <c r="AE98" s="31"/>
@@ -25531,9 +25547,11 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="80" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E99" s="81"/>
+        <v>1776</v>
+      </c>
+      <c r="E99" s="81" t="s">
+        <v>1777</v>
+      </c>
       <c r="F99" s="81"/>
       <c r="G99" s="81"/>
       <c r="H99" s="81"/>
@@ -25556,9 +25574,11 @@
       <c r="Y99" s="81"/>
       <c r="Z99" s="81"/>
       <c r="AA99" s="81"/>
-      <c r="AB99" s="81"/>
+      <c r="AB99" s="81" t="s">
+        <v>1778</v>
+      </c>
       <c r="AC99" s="82" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="AD99" s="1"/>
       <c r="AE99" s="83"/>
@@ -25576,7 +25596,9 @@
       <c r="D100" s="29">
         <v>62.0</v>
       </c>
-      <c r="E100" s="30"/>
+      <c r="E100" s="30">
+        <v>56.0</v>
+      </c>
       <c r="F100" s="30"/>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -25599,7 +25621,9 @@
       <c r="Y100" s="30"/>
       <c r="Z100" s="30"/>
       <c r="AA100" s="30"/>
-      <c r="AB100" s="30"/>
+      <c r="AB100" s="30">
+        <v>38.0</v>
+      </c>
       <c r="AC100" s="28">
         <v>51.0</v>
       </c>
@@ -25619,7 +25643,9 @@
       <c r="D101" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="E101" s="37"/>
+      <c r="E101" s="37" t="s">
+        <v>436</v>
+      </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
@@ -25642,7 +25668,9 @@
       <c r="Y101" s="37"/>
       <c r="Z101" s="37"/>
       <c r="AA101" s="37"/>
-      <c r="AB101" s="37"/>
+      <c r="AB101" s="37" t="s">
+        <v>727</v>
+      </c>
       <c r="AC101" s="35" t="s">
         <v>438</v>
       </c>
@@ -25662,7 +25690,9 @@
       <c r="D102" s="44">
         <v>16.0</v>
       </c>
-      <c r="E102" s="45"/>
+      <c r="E102" s="45">
+        <v>15.0</v>
+      </c>
       <c r="F102" s="45"/>
       <c r="G102" s="45"/>
       <c r="H102" s="45"/>
@@ -25685,7 +25715,9 @@
       <c r="Y102" s="45"/>
       <c r="Z102" s="45"/>
       <c r="AA102" s="45"/>
-      <c r="AB102" s="45"/>
+      <c r="AB102" s="45">
+        <v>11.0</v>
+      </c>
       <c r="AC102" s="43">
         <v>13.0</v>
       </c>
@@ -25704,7 +25736,9 @@
       <c r="D103" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="52"/>
+      <c r="E103" s="52" t="s">
+        <v>70</v>
+      </c>
       <c r="F103" s="52"/>
       <c r="G103" s="52"/>
       <c r="H103" s="52"/>
@@ -25727,7 +25761,9 @@
       <c r="Y103" s="52"/>
       <c r="Z103" s="52"/>
       <c r="AA103" s="52"/>
-      <c r="AB103" s="52"/>
+      <c r="AB103" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="AC103" s="50" t="s">
         <v>58</v>
       </c>
@@ -26057,28 +26093,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="167" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C4" s="168" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="D4" s="169" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="F4" s="171" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="G4" s="169" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H4" s="172" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="173" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -26096,676 +26132,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C6" s="177" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E6" s="160"/>
       <c r="F6" s="161" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H6" s="162">
         <v>1.0</v>
       </c>
       <c r="I6" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C7" s="177" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="161" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="G7" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H7" s="162">
         <v>2.0</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C8" s="177" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E8" s="160"/>
       <c r="F8" s="161" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="G8" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H8" s="162">
         <v>3.0</v>
       </c>
       <c r="I8" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C9" s="177" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E9" s="160"/>
       <c r="F9" s="161" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G9" s="159" t="s">
         <v>1785</v>
-      </c>
-      <c r="G9" s="159" t="s">
-        <v>1781</v>
       </c>
       <c r="H9" s="162">
         <v>4.0</v>
       </c>
       <c r="I9" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C10" s="177" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E10" s="160"/>
       <c r="F10" s="161" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="G10" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H10" s="162">
         <v>5.0</v>
       </c>
       <c r="I10" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E11" s="160"/>
       <c r="F11" s="161" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="G11" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H11" s="162">
         <v>6.0</v>
       </c>
       <c r="I11" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C12" s="177" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E12" s="160"/>
       <c r="F12" s="161" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="G12" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H12" s="162">
         <v>7.0</v>
       </c>
       <c r="I12" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E13" s="160"/>
       <c r="F13" s="161" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="G13" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H13" s="162">
         <v>8.0</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C14" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E14" s="160"/>
       <c r="F14" s="161" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="G14" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H14" s="162">
         <v>9.0</v>
       </c>
       <c r="I14" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E15" s="160"/>
       <c r="F15" s="161" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="G15" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H15" s="162">
         <v>10.0</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C16" s="177" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E16" s="160"/>
       <c r="F16" s="161" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="G16" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H16" s="162">
         <v>11.0</v>
       </c>
       <c r="I16" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C17" s="177" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E17" s="160"/>
       <c r="F17" s="161" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="G17" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H17" s="162">
         <v>12.0</v>
       </c>
       <c r="I17" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C18" s="177" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E18" s="160"/>
       <c r="F18" s="161" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="G18" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H18" s="162">
         <v>13.0</v>
       </c>
       <c r="I18" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C19" s="177" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E19" s="160"/>
       <c r="F19" s="161" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="G19" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H19" s="162">
         <v>14.0</v>
       </c>
       <c r="I19" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C20" s="177" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E20" s="160"/>
       <c r="F20" s="161" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H20" s="162">
         <v>15.0</v>
       </c>
       <c r="I20" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C21" s="177" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E21" s="160"/>
       <c r="F21" s="161" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="G21" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H21" s="162">
         <v>16.0</v>
       </c>
       <c r="I21" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C22" s="177" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="161" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="G22" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H22" s="162">
         <v>17.0</v>
       </c>
       <c r="I22" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C23" s="177" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E23" s="160"/>
       <c r="F23" s="161" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="G23" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H23" s="162">
         <v>18.0</v>
       </c>
       <c r="I23" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C24" s="177" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E24" s="160"/>
       <c r="F24" s="161" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="G24" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H24" s="162">
         <v>19.0</v>
       </c>
       <c r="I24" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C25" s="177" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E25" s="160"/>
       <c r="F25" s="161" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="G25" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H25" s="162">
         <v>20.0</v>
       </c>
       <c r="I25" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C26" s="177" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E26" s="160"/>
       <c r="F26" s="161" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="G26" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H26" s="162">
         <v>21.0</v>
       </c>
       <c r="I26" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C27" s="177" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E27" s="160"/>
       <c r="F27" s="161" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="G27" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H27" s="162">
         <v>22.0</v>
       </c>
       <c r="I27" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C28" s="177" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E28" s="160"/>
       <c r="F28" s="161" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="G28" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H28" s="162">
         <v>23.0</v>
       </c>
       <c r="I28" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C29" s="177" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E29" s="160"/>
       <c r="F29" s="161" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="G29" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H29" s="162">
         <v>24.0</v>
       </c>
       <c r="I29" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C30" s="177" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E30" s="160"/>
       <c r="F30" s="161" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H30" s="162">
         <v>25.0</v>
       </c>
       <c r="I30" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="178" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C31" s="179" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="180" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E31" s="181"/>
       <c r="F31" s="182" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="G31" s="180" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H31" s="183">
         <v>26.0</v>
       </c>
       <c r="I31" s="184" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -26783,28 +26819,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="167" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C33" s="168" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="169" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E33" s="170" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="F33" s="171" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="G33" s="169" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H33" s="172" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="173" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -26822,676 +26858,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C35" s="158" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E35" s="160"/>
       <c r="F35" s="161" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="G35" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H35" s="162">
         <v>1.0</v>
       </c>
       <c r="I35" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C36" s="158" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E36" s="160"/>
       <c r="F36" s="161" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="G36" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H36" s="162">
         <v>2.0</v>
       </c>
       <c r="I36" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C37" s="158" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E37" s="160"/>
       <c r="F37" s="161" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="G37" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H37" s="162">
         <v>3.0</v>
       </c>
       <c r="I37" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C38" s="158" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E38" s="160"/>
       <c r="F38" s="161" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="G38" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H38" s="162">
         <v>4.0</v>
       </c>
       <c r="I38" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C39" s="158" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E39" s="160"/>
       <c r="F39" s="161" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="G39" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H39" s="162">
         <v>5.0</v>
       </c>
       <c r="I39" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C40" s="158" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E40" s="160"/>
       <c r="F40" s="161" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="G40" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H40" s="162">
         <v>6.0</v>
       </c>
       <c r="I40" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C41" s="158" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E41" s="160"/>
       <c r="F41" s="161" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="G41" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H41" s="162">
         <v>7.0</v>
       </c>
       <c r="I41" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C42" s="158" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E42" s="160"/>
       <c r="F42" s="161" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="G42" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H42" s="162">
         <v>8.0</v>
       </c>
       <c r="I42" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C43" s="158" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E43" s="160"/>
       <c r="F43" s="161" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="G43" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H43" s="162">
         <v>9.0</v>
       </c>
       <c r="I43" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C44" s="158" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E44" s="160"/>
       <c r="F44" s="161" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="G44" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H44" s="162">
         <v>10.0</v>
       </c>
       <c r="I44" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C45" s="158" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E45" s="160"/>
       <c r="F45" s="161" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="G45" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H45" s="162">
         <v>11.0</v>
       </c>
       <c r="I45" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C46" s="158" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E46" s="160"/>
       <c r="F46" s="161" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="G46" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H46" s="162">
         <v>12.0</v>
       </c>
       <c r="I46" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C47" s="158" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E47" s="160"/>
       <c r="F47" s="161" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="G47" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H47" s="162">
         <v>13.0</v>
       </c>
       <c r="I47" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C48" s="158" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E48" s="160"/>
       <c r="F48" s="161" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="G48" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H48" s="162">
         <v>14.0</v>
       </c>
       <c r="I48" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C49" s="158" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E49" s="160"/>
       <c r="F49" s="161" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="G49" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H49" s="162">
         <v>15.0</v>
       </c>
       <c r="I49" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C50" s="158" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E50" s="160"/>
       <c r="F50" s="161" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="G50" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H50" s="162">
         <v>16.0</v>
       </c>
       <c r="I50" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C51" s="158" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E51" s="160"/>
       <c r="F51" s="161" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="G51" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H51" s="162">
         <v>17.0</v>
       </c>
       <c r="I51" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C52" s="158" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E52" s="160"/>
       <c r="F52" s="161" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="G52" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H52" s="162">
         <v>18.0</v>
       </c>
       <c r="I52" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C53" s="158" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E53" s="160"/>
       <c r="F53" s="161" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="G53" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H53" s="162">
         <v>19.0</v>
       </c>
       <c r="I53" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C54" s="158" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E54" s="160"/>
       <c r="F54" s="161" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="G54" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H54" s="162">
         <v>20.0</v>
       </c>
       <c r="I54" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C55" s="158" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E55" s="160"/>
       <c r="F55" s="161" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="G55" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H55" s="162">
         <v>21.0</v>
       </c>
       <c r="I55" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C56" s="158" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E56" s="160"/>
       <c r="F56" s="161" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="G56" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H56" s="162">
         <v>22.0</v>
       </c>
       <c r="I56" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C57" s="158" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E57" s="160"/>
       <c r="F57" s="161" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="G57" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H57" s="162">
         <v>23.0</v>
       </c>
       <c r="I57" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C58" s="158" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E58" s="160"/>
       <c r="F58" s="161" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="G58" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H58" s="162">
         <v>24.0</v>
       </c>
       <c r="I58" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C59" s="158" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E59" s="160"/>
       <c r="F59" s="161" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="G59" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H59" s="162">
         <v>25.0</v>
       </c>
       <c r="I59" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="178" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C60" s="185" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E60" s="181"/>
       <c r="F60" s="182" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="G60" s="180" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H60" s="183">
         <v>26.0</v>
       </c>
       <c r="I60" s="184" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -27509,28 +27545,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="167" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C62" s="168" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="169" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E62" s="170" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="F62" s="171" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="G62" s="169" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H62" s="172" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="173" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -27548,676 +27584,676 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C64" s="158" t="s">
         <v>452</v>
       </c>
       <c r="D64" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E64" s="160"/>
       <c r="F64" s="161" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="G64" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H64" s="162">
         <v>1.0</v>
       </c>
       <c r="I64" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C65" s="158" t="s">
         <v>453</v>
       </c>
       <c r="D65" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E65" s="160"/>
       <c r="F65" s="161" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="G65" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H65" s="162">
         <v>2.0</v>
       </c>
       <c r="I65" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C66" s="158" t="s">
         <v>454</v>
       </c>
       <c r="D66" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E66" s="160"/>
       <c r="F66" s="161" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="G66" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H66" s="162">
         <v>3.0</v>
       </c>
       <c r="I66" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C67" s="158" t="s">
         <v>455</v>
       </c>
       <c r="D67" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E67" s="160"/>
       <c r="F67" s="161" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="G67" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H67" s="162">
         <v>4.0</v>
       </c>
       <c r="I67" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C68" s="158" t="s">
         <v>456</v>
       </c>
       <c r="D68" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E68" s="160"/>
       <c r="F68" s="161" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="G68" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H68" s="162">
         <v>5.0</v>
       </c>
       <c r="I68" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C69" s="158" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E69" s="160"/>
       <c r="F69" s="161" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="G69" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H69" s="162">
         <v>6.0</v>
       </c>
       <c r="I69" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C70" s="158" t="s">
         <v>458</v>
       </c>
       <c r="D70" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E70" s="160"/>
       <c r="F70" s="161" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="G70" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H70" s="162">
         <v>7.0</v>
       </c>
       <c r="I70" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C71" s="158" t="s">
         <v>459</v>
       </c>
       <c r="D71" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E71" s="160"/>
       <c r="F71" s="161" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="G71" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H71" s="162">
         <v>8.0</v>
       </c>
       <c r="I71" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C72" s="158" t="s">
         <v>460</v>
       </c>
       <c r="D72" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E72" s="160"/>
       <c r="F72" s="161" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="G72" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H72" s="162">
         <v>9.0</v>
       </c>
       <c r="I72" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C73" s="158" t="s">
         <v>461</v>
       </c>
       <c r="D73" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E73" s="160"/>
       <c r="F73" s="161" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="G73" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H73" s="162">
         <v>10.0</v>
       </c>
       <c r="I73" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C74" s="158" t="s">
         <v>462</v>
       </c>
       <c r="D74" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E74" s="160"/>
       <c r="F74" s="161" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="G74" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H74" s="162">
         <v>11.0</v>
       </c>
       <c r="I74" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C75" s="158" t="s">
         <v>463</v>
       </c>
       <c r="D75" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E75" s="160"/>
       <c r="F75" s="161" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="G75" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H75" s="162">
         <v>12.0</v>
       </c>
       <c r="I75" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C76" s="158" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E76" s="160"/>
       <c r="F76" s="161" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="G76" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H76" s="162">
         <v>13.0</v>
       </c>
       <c r="I76" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C77" s="158" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E77" s="160"/>
       <c r="F77" s="161" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="G77" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H77" s="162">
         <v>14.0</v>
       </c>
       <c r="I77" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C78" s="158" t="s">
         <v>466</v>
       </c>
       <c r="D78" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E78" s="160"/>
       <c r="F78" s="161" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="G78" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H78" s="162">
         <v>15.0</v>
       </c>
       <c r="I78" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C79" s="158" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E79" s="160"/>
       <c r="F79" s="161" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="G79" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H79" s="162">
         <v>16.0</v>
       </c>
       <c r="I79" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C80" s="158" t="s">
         <v>468</v>
       </c>
       <c r="D80" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E80" s="160"/>
       <c r="F80" s="161" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="G80" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H80" s="162">
         <v>17.0</v>
       </c>
       <c r="I80" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C81" s="158" t="s">
         <v>469</v>
       </c>
       <c r="D81" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E81" s="160"/>
       <c r="F81" s="161" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="G81" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H81" s="162">
         <v>18.0</v>
       </c>
       <c r="I81" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C82" s="158" t="s">
         <v>470</v>
       </c>
       <c r="D82" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E82" s="160"/>
       <c r="F82" s="161" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="G82" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H82" s="162">
         <v>19.0</v>
       </c>
       <c r="I82" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C83" s="158" t="s">
         <v>471</v>
       </c>
       <c r="D83" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E83" s="160"/>
       <c r="F83" s="161" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="G83" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H83" s="162">
         <v>20.0</v>
       </c>
       <c r="I83" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C84" s="158" t="s">
         <v>472</v>
       </c>
       <c r="D84" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E84" s="160"/>
       <c r="F84" s="161" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="G84" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H84" s="162">
         <v>21.0</v>
       </c>
       <c r="I84" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C85" s="158" t="s">
         <v>473</v>
       </c>
       <c r="D85" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E85" s="160"/>
       <c r="F85" s="161" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="G85" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H85" s="162">
         <v>22.0</v>
       </c>
       <c r="I85" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C86" s="158" t="s">
         <v>474</v>
       </c>
       <c r="D86" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E86" s="160"/>
       <c r="F86" s="161" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="G86" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H86" s="162">
         <v>23.0</v>
       </c>
       <c r="I86" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C87" s="158" t="s">
         <v>475</v>
       </c>
       <c r="D87" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E87" s="160"/>
       <c r="F87" s="161" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="G87" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H87" s="162">
         <v>24.0</v>
       </c>
       <c r="I87" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C88" s="158" t="s">
         <v>476</v>
       </c>
       <c r="D88" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E88" s="160"/>
       <c r="F88" s="161" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="G88" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H88" s="162">
         <v>25.0</v>
       </c>
       <c r="I88" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="178" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C89" s="185" t="s">
         <v>477</v>
       </c>
       <c r="D89" s="180" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E89" s="181"/>
       <c r="F89" s="182" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="G89" s="180" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H89" s="183">
         <v>26.0</v>
       </c>
       <c r="I89" s="184" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -28235,28 +28271,28 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="167" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C91" s="168" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="169" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E91" s="170" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="F91" s="171" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="G91" s="169" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H91" s="172" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="173" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -28274,676 +28310,676 @@
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C93" s="158" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E93" s="160"/>
       <c r="F93" s="161" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="G93" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H93" s="162">
         <v>1.0</v>
       </c>
       <c r="I93" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C94" s="158" t="s">
         <v>730</v>
       </c>
       <c r="D94" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E94" s="160"/>
       <c r="F94" s="161" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="G94" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H94" s="162">
         <v>2.0</v>
       </c>
       <c r="I94" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C95" s="158" t="s">
         <v>731</v>
       </c>
       <c r="D95" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E95" s="160"/>
       <c r="F95" s="161" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="G95" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H95" s="162">
         <v>3.0</v>
       </c>
       <c r="I95" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C96" s="158" t="s">
         <v>732</v>
       </c>
       <c r="D96" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E96" s="160"/>
       <c r="F96" s="161" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="G96" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H96" s="162">
         <v>4.0</v>
       </c>
       <c r="I96" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C97" s="158" t="s">
         <v>733</v>
       </c>
       <c r="D97" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E97" s="160"/>
       <c r="F97" s="161" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="G97" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H97" s="162">
         <v>5.0</v>
       </c>
       <c r="I97" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C98" s="158" t="s">
         <v>734</v>
       </c>
       <c r="D98" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E98" s="160"/>
       <c r="F98" s="161" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="G98" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H98" s="162">
         <v>6.0</v>
       </c>
       <c r="I98" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C99" s="158" t="s">
         <v>735</v>
       </c>
       <c r="D99" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E99" s="160"/>
       <c r="F99" s="161" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="G99" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H99" s="162">
         <v>7.0</v>
       </c>
       <c r="I99" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C100" s="158" t="s">
         <v>736</v>
       </c>
       <c r="D100" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E100" s="160"/>
       <c r="F100" s="161" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="G100" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H100" s="162">
         <v>8.0</v>
       </c>
       <c r="I100" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C101" s="158" t="s">
         <v>737</v>
       </c>
       <c r="D101" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E101" s="160"/>
       <c r="F101" s="161" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="G101" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H101" s="162">
         <v>9.0</v>
       </c>
       <c r="I101" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C102" s="158" t="s">
         <v>738</v>
       </c>
       <c r="D102" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E102" s="160"/>
       <c r="F102" s="161" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="G102" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H102" s="162">
         <v>10.0</v>
       </c>
       <c r="I102" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C103" s="158" t="s">
         <v>739</v>
       </c>
       <c r="D103" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E103" s="160"/>
       <c r="F103" s="161" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="G103" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H103" s="162">
         <v>11.0</v>
       </c>
       <c r="I103" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C104" s="158" t="s">
         <v>740</v>
       </c>
       <c r="D104" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E104" s="160"/>
       <c r="F104" s="161" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="G104" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H104" s="162">
         <v>12.0</v>
       </c>
       <c r="I104" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C105" s="158" t="s">
         <v>741</v>
       </c>
       <c r="D105" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E105" s="160"/>
       <c r="F105" s="161" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="G105" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H105" s="162">
         <v>13.0</v>
       </c>
       <c r="I105" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C106" s="158" t="s">
         <v>742</v>
       </c>
       <c r="D106" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E106" s="160"/>
       <c r="F106" s="161" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="G106" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H106" s="162">
         <v>14.0</v>
       </c>
       <c r="I106" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C107" s="158" t="s">
         <v>743</v>
       </c>
       <c r="D107" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E107" s="160"/>
       <c r="F107" s="161" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="G107" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H107" s="162">
         <v>15.0</v>
       </c>
       <c r="I107" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C108" s="158" t="s">
         <v>744</v>
       </c>
       <c r="D108" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E108" s="160"/>
       <c r="F108" s="161" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="G108" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H108" s="162">
         <v>16.0</v>
       </c>
       <c r="I108" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C109" s="158" t="s">
         <v>745</v>
       </c>
       <c r="D109" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E109" s="160"/>
       <c r="F109" s="161" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="G109" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H109" s="162">
         <v>17.0</v>
       </c>
       <c r="I109" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C110" s="158" t="s">
         <v>746</v>
       </c>
       <c r="D110" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E110" s="160"/>
       <c r="F110" s="161" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="G110" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H110" s="162">
         <v>18.0</v>
       </c>
       <c r="I110" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C111" s="158" t="s">
         <v>747</v>
       </c>
       <c r="D111" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E111" s="160"/>
       <c r="F111" s="161" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="G111" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H111" s="162">
         <v>19.0</v>
       </c>
       <c r="I111" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C112" s="158" t="s">
         <v>748</v>
       </c>
       <c r="D112" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E112" s="160"/>
       <c r="F112" s="161" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="G112" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H112" s="162">
         <v>20.0</v>
       </c>
       <c r="I112" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C113" s="158" t="s">
         <v>749</v>
       </c>
       <c r="D113" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E113" s="160"/>
       <c r="F113" s="161" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="G113" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H113" s="162">
         <v>21.0</v>
       </c>
       <c r="I113" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C114" s="158" t="s">
         <v>750</v>
       </c>
       <c r="D114" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E114" s="160"/>
       <c r="F114" s="161" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="G114" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H114" s="162">
         <v>22.0</v>
       </c>
       <c r="I114" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C115" s="158" t="s">
         <v>751</v>
       </c>
       <c r="D115" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E115" s="160"/>
       <c r="F115" s="161" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="G115" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H115" s="162">
         <v>23.0</v>
       </c>
       <c r="I115" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C116" s="158" t="s">
         <v>752</v>
       </c>
       <c r="D116" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E116" s="160"/>
       <c r="F116" s="161" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="G116" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H116" s="162">
         <v>24.0</v>
       </c>
       <c r="I116" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C117" s="158" t="s">
         <v>753</v>
       </c>
       <c r="D117" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E117" s="160"/>
       <c r="F117" s="161" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="G117" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H117" s="162">
         <v>25.0</v>
       </c>
       <c r="I117" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="178" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C118" s="185" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="180" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E118" s="181"/>
       <c r="F118" s="182" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="G118" s="180" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H118" s="183">
         <v>26.0</v>
       </c>
       <c r="I118" s="184" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J118" s="1"/>
     </row>
@@ -28961,28 +28997,28 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="167" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C120" s="168" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="169" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E120" s="170" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="F120" s="171" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="G120" s="169" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H120" s="172" t="s">
         <v>3</v>
       </c>
       <c r="I120" s="173" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J120" s="1"/>
     </row>
@@ -29000,676 +29036,676 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C122" s="158" t="s">
         <v>1045</v>
       </c>
       <c r="D122" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E122" s="160"/>
       <c r="F122" s="161" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="G122" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H122" s="162">
         <v>1.0</v>
       </c>
       <c r="I122" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C123" s="158" t="s">
         <v>1046</v>
       </c>
       <c r="D123" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E123" s="160"/>
       <c r="F123" s="161" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="G123" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H123" s="162">
         <v>2.0</v>
       </c>
       <c r="I123" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C124" s="158" t="s">
         <v>1047</v>
       </c>
       <c r="D124" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E124" s="160"/>
       <c r="F124" s="161" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="G124" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H124" s="162">
         <v>3.0</v>
       </c>
       <c r="I124" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C125" s="158" t="s">
         <v>1048</v>
       </c>
       <c r="D125" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E125" s="160"/>
       <c r="F125" s="161" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="G125" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H125" s="162">
         <v>4.0</v>
       </c>
       <c r="I125" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C126" s="158" t="s">
         <v>1049</v>
       </c>
       <c r="D126" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E126" s="160"/>
       <c r="F126" s="161" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="G126" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H126" s="162">
         <v>5.0</v>
       </c>
       <c r="I126" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C127" s="158" t="s">
         <v>1050</v>
       </c>
       <c r="D127" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E127" s="160"/>
       <c r="F127" s="161" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="G127" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H127" s="162">
         <v>6.0</v>
       </c>
       <c r="I127" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C128" s="158" t="s">
         <v>1051</v>
       </c>
       <c r="D128" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E128" s="160"/>
       <c r="F128" s="161" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="G128" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H128" s="162">
         <v>7.0</v>
       </c>
       <c r="I128" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C129" s="158" t="s">
         <v>1052</v>
       </c>
       <c r="D129" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E129" s="160"/>
       <c r="F129" s="161" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="G129" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H129" s="162">
         <v>8.0</v>
       </c>
       <c r="I129" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C130" s="158" t="s">
         <v>1053</v>
       </c>
       <c r="D130" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E130" s="160"/>
       <c r="F130" s="161" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="G130" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H130" s="162">
         <v>9.0</v>
       </c>
       <c r="I130" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C131" s="158" t="s">
         <v>1054</v>
       </c>
       <c r="D131" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E131" s="160"/>
       <c r="F131" s="161" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="G131" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H131" s="162">
         <v>10.0</v>
       </c>
       <c r="I131" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C132" s="158" t="s">
         <v>1055</v>
       </c>
       <c r="D132" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E132" s="160"/>
       <c r="F132" s="161" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="G132" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H132" s="162">
         <v>11.0</v>
       </c>
       <c r="I132" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C133" s="158" t="s">
         <v>1056</v>
       </c>
       <c r="D133" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E133" s="160"/>
       <c r="F133" s="161" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="G133" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H133" s="162">
         <v>12.0</v>
       </c>
       <c r="I133" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C134" s="158" t="s">
         <v>1057</v>
       </c>
       <c r="D134" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E134" s="160"/>
       <c r="F134" s="161" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="G134" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H134" s="162">
         <v>13.0</v>
       </c>
       <c r="I134" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C135" s="158" t="s">
         <v>1058</v>
       </c>
       <c r="D135" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E135" s="160"/>
       <c r="F135" s="161" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="G135" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H135" s="162">
         <v>14.0</v>
       </c>
       <c r="I135" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C136" s="158" t="s">
         <v>1059</v>
       </c>
       <c r="D136" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E136" s="160"/>
       <c r="F136" s="161" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="G136" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H136" s="162">
         <v>15.0</v>
       </c>
       <c r="I136" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C137" s="158" t="s">
         <v>1060</v>
       </c>
       <c r="D137" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E137" s="160"/>
       <c r="F137" s="161" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G137" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H137" s="162">
         <v>16.0</v>
       </c>
       <c r="I137" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C138" s="158" t="s">
         <v>1061</v>
       </c>
       <c r="D138" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E138" s="160"/>
       <c r="F138" s="161" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="G138" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H138" s="162">
         <v>17.0</v>
       </c>
       <c r="I138" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C139" s="158" t="s">
         <v>1062</v>
       </c>
       <c r="D139" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E139" s="160"/>
       <c r="F139" s="161" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="G139" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H139" s="162">
         <v>18.0</v>
       </c>
       <c r="I139" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C140" s="158" t="s">
         <v>1063</v>
       </c>
       <c r="D140" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E140" s="160"/>
       <c r="F140" s="161" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="G140" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H140" s="162">
         <v>19.0</v>
       </c>
       <c r="I140" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C141" s="158" t="s">
         <v>1064</v>
       </c>
       <c r="D141" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E141" s="160"/>
       <c r="F141" s="161" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="G141" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H141" s="162">
         <v>20.0</v>
       </c>
       <c r="I141" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C142" s="158" t="s">
         <v>1065</v>
       </c>
       <c r="D142" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E142" s="160"/>
       <c r="F142" s="161" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="G142" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H142" s="162">
         <v>21.0</v>
       </c>
       <c r="I142" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C143" s="158" t="s">
         <v>1066</v>
       </c>
       <c r="D143" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E143" s="160"/>
       <c r="F143" s="161" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="G143" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H143" s="162">
         <v>22.0</v>
       </c>
       <c r="I143" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C144" s="158" t="s">
         <v>1067</v>
       </c>
       <c r="D144" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E144" s="160"/>
       <c r="F144" s="161" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="G144" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H144" s="162">
         <v>23.0</v>
       </c>
       <c r="I144" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C145" s="158" t="s">
         <v>1068</v>
       </c>
       <c r="D145" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E145" s="160"/>
       <c r="F145" s="161" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="G145" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H145" s="162">
         <v>24.0</v>
       </c>
       <c r="I145" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C146" s="158" t="s">
         <v>1069</v>
       </c>
       <c r="D146" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E146" s="160"/>
       <c r="F146" s="161" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="G146" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H146" s="162">
         <v>25.0</v>
       </c>
       <c r="I146" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="178" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C147" s="185" t="s">
         <v>1070</v>
       </c>
       <c r="D147" s="180" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E147" s="181"/>
       <c r="F147" s="182" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="G147" s="180" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H147" s="183">
         <v>26.0</v>
       </c>
       <c r="I147" s="184" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J147" s="1"/>
     </row>
@@ -29687,28 +29723,28 @@
     <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="167" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C149" s="168" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="169" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E149" s="170" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="F149" s="171" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="G149" s="169" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H149" s="172" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="173" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J149" s="1"/>
     </row>
@@ -29726,676 +29762,676 @@
     <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C151" s="158" t="s">
         <v>1269</v>
       </c>
       <c r="D151" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E151" s="160"/>
       <c r="F151" s="161" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="G151" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H151" s="162">
         <v>1.0</v>
       </c>
       <c r="I151" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C152" s="158" t="s">
         <v>1270</v>
       </c>
       <c r="D152" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E152" s="160"/>
       <c r="F152" s="161" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="G152" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H152" s="162">
         <v>2.0</v>
       </c>
       <c r="I152" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C153" s="158" t="s">
         <v>1271</v>
       </c>
       <c r="D153" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E153" s="160"/>
       <c r="F153" s="161" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="G153" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H153" s="162">
         <v>3.0</v>
       </c>
       <c r="I153" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C154" s="158" t="s">
         <v>1272</v>
       </c>
       <c r="D154" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E154" s="160"/>
       <c r="F154" s="161" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="G154" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H154" s="162">
         <v>4.0</v>
       </c>
       <c r="I154" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C155" s="158" t="s">
         <v>1273</v>
       </c>
       <c r="D155" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E155" s="160"/>
       <c r="F155" s="161" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="G155" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H155" s="162">
         <v>5.0</v>
       </c>
       <c r="I155" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C156" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="D156" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E156" s="160"/>
       <c r="F156" s="161" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="G156" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H156" s="162">
         <v>6.0</v>
       </c>
       <c r="I156" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C157" s="158" t="s">
         <v>1275</v>
       </c>
       <c r="D157" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E157" s="160"/>
       <c r="F157" s="161" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="G157" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H157" s="162">
         <v>7.0</v>
       </c>
       <c r="I157" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C158" s="158" t="s">
         <v>1276</v>
       </c>
       <c r="D158" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E158" s="160"/>
       <c r="F158" s="161" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="G158" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H158" s="162">
         <v>8.0</v>
       </c>
       <c r="I158" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C159" s="158" t="s">
         <v>1277</v>
       </c>
       <c r="D159" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E159" s="160"/>
       <c r="F159" s="161" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="G159" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H159" s="162">
         <v>9.0</v>
       </c>
       <c r="I159" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C160" s="158" t="s">
         <v>1278</v>
       </c>
       <c r="D160" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E160" s="160"/>
       <c r="F160" s="161" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="G160" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H160" s="162">
         <v>10.0</v>
       </c>
       <c r="I160" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C161" s="158" t="s">
         <v>1279</v>
       </c>
       <c r="D161" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E161" s="160"/>
       <c r="F161" s="161" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="G161" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H161" s="162">
         <v>11.0</v>
       </c>
       <c r="I161" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C162" s="158" t="s">
         <v>1280</v>
       </c>
       <c r="D162" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E162" s="160"/>
       <c r="F162" s="161" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="G162" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H162" s="162">
         <v>12.0</v>
       </c>
       <c r="I162" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C163" s="158" t="s">
         <v>1281</v>
       </c>
       <c r="D163" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E163" s="160"/>
       <c r="F163" s="161" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="G163" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H163" s="162">
         <v>13.0</v>
       </c>
       <c r="I163" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C164" s="158" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E164" s="160"/>
       <c r="F164" s="161" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="G164" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H164" s="162">
         <v>14.0</v>
       </c>
       <c r="I164" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C165" s="158" t="s">
         <v>1283</v>
       </c>
       <c r="D165" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E165" s="160"/>
       <c r="F165" s="161" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="G165" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H165" s="162">
         <v>15.0</v>
       </c>
       <c r="I165" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C166" s="158" t="s">
         <v>1284</v>
       </c>
       <c r="D166" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E166" s="160"/>
       <c r="F166" s="161" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="G166" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H166" s="162">
         <v>16.0</v>
       </c>
       <c r="I166" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C167" s="158" t="s">
         <v>1285</v>
       </c>
       <c r="D167" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E167" s="160"/>
       <c r="F167" s="161" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="G167" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H167" s="162">
         <v>17.0</v>
       </c>
       <c r="I167" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C168" s="158" t="s">
         <v>1286</v>
       </c>
       <c r="D168" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E168" s="160"/>
       <c r="F168" s="161" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="G168" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H168" s="162">
         <v>18.0</v>
       </c>
       <c r="I168" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C169" s="158" t="s">
         <v>1287</v>
       </c>
       <c r="D169" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E169" s="160"/>
       <c r="F169" s="161" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="G169" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H169" s="162">
         <v>19.0</v>
       </c>
       <c r="I169" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C170" s="158" t="s">
         <v>1288</v>
       </c>
       <c r="D170" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E170" s="160"/>
       <c r="F170" s="161" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="G170" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H170" s="162">
         <v>20.0</v>
       </c>
       <c r="I170" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C171" s="158" t="s">
         <v>1289</v>
       </c>
       <c r="D171" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E171" s="160"/>
       <c r="F171" s="161" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="G171" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H171" s="162">
         <v>21.0</v>
       </c>
       <c r="I171" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C172" s="158" t="s">
         <v>1290</v>
       </c>
       <c r="D172" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E172" s="160"/>
       <c r="F172" s="161" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="G172" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H172" s="162">
         <v>22.0</v>
       </c>
       <c r="I172" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C173" s="158" t="s">
         <v>1291</v>
       </c>
       <c r="D173" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E173" s="160"/>
       <c r="F173" s="161" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="G173" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H173" s="162">
         <v>23.0</v>
       </c>
       <c r="I173" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C174" s="158" t="s">
         <v>1292</v>
       </c>
       <c r="D174" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E174" s="160"/>
       <c r="F174" s="161" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="G174" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H174" s="162">
         <v>24.0</v>
       </c>
       <c r="I174" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C175" s="158" t="s">
         <v>1293</v>
       </c>
       <c r="D175" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E175" s="160"/>
       <c r="F175" s="161" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="G175" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H175" s="162">
         <v>25.0</v>
       </c>
       <c r="I175" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="178" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C176" s="185" t="s">
         <v>1294</v>
       </c>
       <c r="D176" s="180" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E176" s="181"/>
       <c r="F176" s="182" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="G176" s="180" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H176" s="183">
         <v>26.0</v>
       </c>
       <c r="I176" s="184" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -30414,28 +30450,28 @@
     <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="167" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C178" s="168" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="169" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E178" s="170" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="F178" s="171" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="G178" s="169" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H178" s="172" t="s">
         <v>5</v>
       </c>
       <c r="I178" s="173" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J178" s="1"/>
     </row>
@@ -30454,676 +30490,676 @@
     <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C180" s="158" t="s">
         <v>1424</v>
       </c>
       <c r="D180" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E180" s="160"/>
       <c r="F180" s="161" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="G180" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H180" s="162">
         <v>1.0</v>
       </c>
       <c r="I180" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C181" s="158" t="s">
         <v>1425</v>
       </c>
       <c r="D181" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E181" s="160"/>
       <c r="F181" s="161" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="G181" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H181" s="162">
         <v>2.0</v>
       </c>
       <c r="I181" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C182" s="158" t="s">
         <v>1426</v>
       </c>
       <c r="D182" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E182" s="160"/>
       <c r="F182" s="161" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="G182" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H182" s="162">
         <v>3.0</v>
       </c>
       <c r="I182" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C183" s="158" t="s">
         <v>1427</v>
       </c>
       <c r="D183" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E183" s="160"/>
       <c r="F183" s="161" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="G183" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H183" s="162">
         <v>4.0</v>
       </c>
       <c r="I183" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C184" s="158" t="s">
         <v>1428</v>
       </c>
       <c r="D184" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E184" s="160"/>
       <c r="F184" s="161" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="G184" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H184" s="162">
         <v>5.0</v>
       </c>
       <c r="I184" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C185" s="158" t="s">
         <v>1429</v>
       </c>
       <c r="D185" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E185" s="160"/>
       <c r="F185" s="161" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="G185" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H185" s="162">
         <v>6.0</v>
       </c>
       <c r="I185" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C186" s="158" t="s">
         <v>1430</v>
       </c>
       <c r="D186" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E186" s="160"/>
       <c r="F186" s="161" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="G186" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H186" s="162">
         <v>7.0</v>
       </c>
       <c r="I186" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C187" s="158" t="s">
         <v>1431</v>
       </c>
       <c r="D187" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E187" s="160"/>
       <c r="F187" s="161" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="G187" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H187" s="162">
         <v>8.0</v>
       </c>
       <c r="I187" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C188" s="158" t="s">
         <v>1432</v>
       </c>
       <c r="D188" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E188" s="160"/>
       <c r="F188" s="161" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="G188" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H188" s="162">
         <v>9.0</v>
       </c>
       <c r="I188" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C189" s="158" t="s">
         <v>1433</v>
       </c>
       <c r="D189" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E189" s="160"/>
       <c r="F189" s="161" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="G189" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H189" s="162">
         <v>10.0</v>
       </c>
       <c r="I189" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C190" s="158" t="s">
         <v>1434</v>
       </c>
       <c r="D190" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E190" s="160"/>
       <c r="F190" s="161" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="G190" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H190" s="162">
         <v>11.0</v>
       </c>
       <c r="I190" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C191" s="158" t="s">
         <v>1435</v>
       </c>
       <c r="D191" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E191" s="160"/>
       <c r="F191" s="161" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="G191" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H191" s="162">
         <v>12.0</v>
       </c>
       <c r="I191" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C192" s="158" t="s">
         <v>1436</v>
       </c>
       <c r="D192" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E192" s="160"/>
       <c r="F192" s="161" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="G192" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H192" s="162">
         <v>13.0</v>
       </c>
       <c r="I192" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C193" s="158" t="s">
         <v>1437</v>
       </c>
       <c r="D193" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E193" s="160"/>
       <c r="F193" s="161" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="G193" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H193" s="162">
         <v>14.0</v>
       </c>
       <c r="I193" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C194" s="158" t="s">
         <v>1438</v>
       </c>
       <c r="D194" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E194" s="160"/>
       <c r="F194" s="161" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="G194" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H194" s="162">
         <v>15.0</v>
       </c>
       <c r="I194" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C195" s="158" t="s">
         <v>1439</v>
       </c>
       <c r="D195" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E195" s="160"/>
       <c r="F195" s="161" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="G195" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H195" s="162">
         <v>16.0</v>
       </c>
       <c r="I195" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C196" s="158" t="s">
         <v>1440</v>
       </c>
       <c r="D196" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E196" s="160"/>
       <c r="F196" s="161" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="G196" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H196" s="162">
         <v>17.0</v>
       </c>
       <c r="I196" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C197" s="158" t="s">
         <v>1441</v>
       </c>
       <c r="D197" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E197" s="160"/>
       <c r="F197" s="161" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="G197" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H197" s="162">
         <v>18.0</v>
       </c>
       <c r="I197" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C198" s="158" t="s">
         <v>1442</v>
       </c>
       <c r="D198" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E198" s="160"/>
       <c r="F198" s="161" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="G198" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H198" s="162">
         <v>19.0</v>
       </c>
       <c r="I198" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C199" s="158" t="s">
         <v>1443</v>
       </c>
       <c r="D199" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E199" s="160"/>
       <c r="F199" s="161" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="G199" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H199" s="162">
         <v>20.0</v>
       </c>
       <c r="I199" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C200" s="158" t="s">
         <v>1444</v>
       </c>
       <c r="D200" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E200" s="160"/>
       <c r="F200" s="161" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="G200" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H200" s="162">
         <v>21.0</v>
       </c>
       <c r="I200" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C201" s="158" t="s">
         <v>1445</v>
       </c>
       <c r="D201" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E201" s="160"/>
       <c r="F201" s="161" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="G201" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H201" s="162">
         <v>22.0</v>
       </c>
       <c r="I201" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C202" s="158" t="s">
         <v>1446</v>
       </c>
       <c r="D202" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E202" s="160"/>
       <c r="F202" s="161" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="G202" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H202" s="162">
         <v>23.0</v>
       </c>
       <c r="I202" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C203" s="158" t="s">
         <v>1447</v>
       </c>
       <c r="D203" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E203" s="160"/>
       <c r="F203" s="161" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="G203" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H203" s="162">
         <v>24.0</v>
       </c>
       <c r="I203" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C204" s="158" t="s">
         <v>1448</v>
       </c>
       <c r="D204" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E204" s="160"/>
       <c r="F204" s="161" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="G204" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H204" s="162">
         <v>25.0</v>
       </c>
       <c r="I204" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="178" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C205" s="185" t="s">
         <v>1449</v>
       </c>
       <c r="D205" s="180" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E205" s="181"/>
       <c r="F205" s="182" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="G205" s="180" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H205" s="183">
         <v>26.0</v>
       </c>
       <c r="I205" s="184" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J205" s="1"/>
     </row>
@@ -31142,28 +31178,28 @@
     <row r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="167" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C207" s="168" t="s">
         <v>37</v>
       </c>
       <c r="D207" s="169" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E207" s="170" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="F207" s="171" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="G207" s="169" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H207" s="172" t="s">
         <v>6</v>
       </c>
       <c r="I207" s="173" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J207" s="1"/>
     </row>
@@ -31182,676 +31218,676 @@
     <row r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C209" s="158" t="s">
         <v>1746</v>
       </c>
       <c r="D209" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E209" s="160"/>
       <c r="F209" s="161" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="G209" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H209" s="162">
         <v>1.0</v>
       </c>
       <c r="I209" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C210" s="158" t="s">
         <v>1747</v>
       </c>
       <c r="D210" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E210" s="160"/>
       <c r="F210" s="161" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="G210" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H210" s="162">
         <v>2.0</v>
       </c>
       <c r="I210" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C211" s="158" t="s">
         <v>1748</v>
       </c>
       <c r="D211" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E211" s="160"/>
       <c r="F211" s="161" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="G211" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H211" s="162">
         <v>3.0</v>
       </c>
       <c r="I211" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C212" s="158" t="s">
         <v>1749</v>
       </c>
       <c r="D212" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E212" s="160"/>
       <c r="F212" s="161" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="G212" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H212" s="162">
         <v>4.0</v>
       </c>
       <c r="I212" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
       <c r="B213" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C213" s="158" t="s">
         <v>1750</v>
       </c>
       <c r="D213" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E213" s="160"/>
       <c r="F213" s="161" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="G213" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H213" s="162">
         <v>5.0</v>
       </c>
       <c r="I213" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
       <c r="B214" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C214" s="158" t="s">
         <v>1751</v>
       </c>
       <c r="D214" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E214" s="160"/>
       <c r="F214" s="161" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="G214" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H214" s="162">
         <v>6.0</v>
       </c>
       <c r="I214" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
       <c r="B215" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C215" s="158" t="s">
         <v>1752</v>
       </c>
       <c r="D215" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E215" s="160"/>
       <c r="F215" s="161" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="G215" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H215" s="162">
         <v>7.0</v>
       </c>
       <c r="I215" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
       <c r="B216" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C216" s="158" t="s">
         <v>1753</v>
       </c>
       <c r="D216" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E216" s="160"/>
       <c r="F216" s="161" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="G216" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H216" s="162">
         <v>8.0</v>
       </c>
       <c r="I216" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
       <c r="B217" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C217" s="158" t="s">
         <v>1754</v>
       </c>
       <c r="D217" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E217" s="160"/>
       <c r="F217" s="161" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="G217" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H217" s="162">
         <v>9.0</v>
       </c>
       <c r="I217" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
       <c r="B218" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C218" s="158" t="s">
         <v>1755</v>
       </c>
       <c r="D218" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E218" s="160"/>
       <c r="F218" s="161" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="G218" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H218" s="162">
         <v>10.0</v>
       </c>
       <c r="I218" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
       <c r="B219" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C219" s="158" t="s">
         <v>1756</v>
       </c>
       <c r="D219" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E219" s="160"/>
       <c r="F219" s="161" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="G219" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H219" s="162">
         <v>11.0</v>
       </c>
       <c r="I219" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
       <c r="B220" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C220" s="158" t="s">
         <v>1757</v>
       </c>
       <c r="D220" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E220" s="160"/>
       <c r="F220" s="161" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="G220" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H220" s="162">
         <v>12.0</v>
       </c>
       <c r="I220" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
       <c r="B221" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C221" s="158" t="s">
         <v>1758</v>
       </c>
       <c r="D221" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E221" s="160"/>
       <c r="F221" s="161" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="G221" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H221" s="162">
         <v>13.0</v>
       </c>
       <c r="I221" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
       <c r="B222" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C222" s="158" t="s">
         <v>1759</v>
       </c>
       <c r="D222" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E222" s="160"/>
       <c r="F222" s="161" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="G222" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H222" s="162">
         <v>14.0</v>
       </c>
       <c r="I222" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
       <c r="B223" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C223" s="158" t="s">
         <v>1760</v>
       </c>
       <c r="D223" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E223" s="160"/>
       <c r="F223" s="161" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="G223" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H223" s="162">
         <v>15.0</v>
       </c>
       <c r="I223" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
       <c r="B224" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C224" s="158" t="s">
         <v>1761</v>
       </c>
       <c r="D224" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E224" s="160"/>
       <c r="F224" s="161" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="G224" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H224" s="162">
         <v>16.0</v>
       </c>
       <c r="I224" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
       <c r="B225" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C225" s="158" t="s">
         <v>1762</v>
       </c>
       <c r="D225" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E225" s="160"/>
       <c r="F225" s="161" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="G225" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H225" s="162">
         <v>17.0</v>
       </c>
       <c r="I225" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
       <c r="B226" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C226" s="158" t="s">
         <v>1763</v>
       </c>
       <c r="D226" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E226" s="160"/>
       <c r="F226" s="161" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="G226" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H226" s="162">
         <v>18.0</v>
       </c>
       <c r="I226" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
       <c r="B227" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C227" s="158" t="s">
         <v>1764</v>
       </c>
       <c r="D227" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E227" s="160"/>
       <c r="F227" s="161" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="G227" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H227" s="162">
         <v>19.0</v>
       </c>
       <c r="I227" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
       <c r="B228" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C228" s="158" t="s">
         <v>1765</v>
       </c>
       <c r="D228" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E228" s="160"/>
       <c r="F228" s="161" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="G228" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H228" s="162">
         <v>20.0</v>
       </c>
       <c r="I228" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
       <c r="B229" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C229" s="158" t="s">
         <v>1766</v>
       </c>
       <c r="D229" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E229" s="160"/>
       <c r="F229" s="161" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="G229" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H229" s="162">
         <v>21.0</v>
       </c>
       <c r="I229" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
       <c r="B230" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C230" s="158" t="s">
         <v>1767</v>
       </c>
       <c r="D230" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E230" s="160"/>
       <c r="F230" s="161" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="G230" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H230" s="162">
         <v>22.0</v>
       </c>
       <c r="I230" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C231" s="158" t="s">
         <v>1768</v>
       </c>
       <c r="D231" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E231" s="160"/>
       <c r="F231" s="161" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="G231" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H231" s="162">
         <v>23.0</v>
       </c>
       <c r="I231" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
       <c r="B232" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C232" s="158" t="s">
         <v>1769</v>
       </c>
       <c r="D232" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E232" s="160"/>
       <c r="F232" s="161" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="G232" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H232" s="162">
         <v>24.0</v>
       </c>
       <c r="I232" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
       <c r="B233" s="174" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C233" s="158" t="s">
         <v>1770</v>
       </c>
       <c r="D233" s="159" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E233" s="160"/>
       <c r="F233" s="161" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="G233" s="159" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H233" s="162">
         <v>25.0</v>
       </c>
       <c r="I233" s="176" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
       <c r="B234" s="178" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C234" s="185" t="s">
         <v>1771</v>
       </c>
       <c r="D234" s="180" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E234" s="181"/>
       <c r="F234" s="182" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="G234" s="180" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="H234" s="183">
         <v>26.0</v>
       </c>
       <c r="I234" s="184" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="J234" s="1"/>
     </row>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5556" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5596" uniqueCount="2030">
   <si>
     <t>A#3</t>
   </si>
@@ -5337,6 +5337,36 @@
     <t>addition</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>manufacture</t>
+  </si>
+  <si>
+    <t>console</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>employ</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>quotient</t>
+  </si>
+  <si>
+    <t>incandescent</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
     <t>secret</t>
   </si>
   <si>
@@ -5349,10 +5379,46 @@
     <t>numeric</t>
   </si>
   <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>invite</t>
+  </si>
+  <si>
+    <t>rhombus</t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>regulate</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>resonance</t>
+  </si>
+  <si>
+    <t>multiplex</t>
+  </si>
+  <si>
     <t>stage</t>
   </si>
   <si>
     <t>nutrition</t>
+  </si>
+  <si>
+    <t>{2, 3, 4, 5, 6, 10, 12, 15, 20, 30}</t>
+  </si>
+  <si>
+    <t>{2, 3, 4, 6}</t>
   </si>
   <si>
     <t>-</t>
@@ -25505,11 +25571,21 @@
       <c r="E98" s="70" t="s">
         <v>1773</v>
       </c>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
+      <c r="F98" s="70" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G98" s="70" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H98" s="70" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I98" s="70" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J98" s="70" t="s">
+        <v>1778</v>
+      </c>
       <c r="K98" s="70"/>
       <c r="L98" s="70"/>
       <c r="M98" s="70"/>
@@ -25522,16 +25598,26 @@
       <c r="T98" s="70"/>
       <c r="U98" s="70"/>
       <c r="V98" s="70"/>
-      <c r="W98" s="70"/>
-      <c r="X98" s="70"/>
-      <c r="Y98" s="70"/>
-      <c r="Z98" s="70"/>
-      <c r="AA98" s="70"/>
+      <c r="W98" s="70" t="s">
+        <v>1779</v>
+      </c>
+      <c r="X98" s="70" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Y98" s="70" t="s">
+        <v>1781</v>
+      </c>
+      <c r="Z98" s="70" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AA98" s="70" t="s">
+        <v>1783</v>
+      </c>
       <c r="AB98" s="70" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="AC98" s="71" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="AD98" s="1"/>
       <c r="AE98" s="31"/>
@@ -25547,16 +25633,26 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="80" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="E99" s="81" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F99" s="81"/>
-      <c r="G99" s="81"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="81"/>
-      <c r="J99" s="81"/>
+        <v>1787</v>
+      </c>
+      <c r="F99" s="81" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G99" s="81" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H99" s="81" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I99" s="81" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J99" s="81" t="s">
+        <v>1792</v>
+      </c>
       <c r="K99" s="81"/>
       <c r="L99" s="81"/>
       <c r="M99" s="81"/>
@@ -25569,16 +25665,26 @@
       <c r="T99" s="81"/>
       <c r="U99" s="81"/>
       <c r="V99" s="81"/>
-      <c r="W99" s="81"/>
-      <c r="X99" s="81"/>
-      <c r="Y99" s="81"/>
-      <c r="Z99" s="81"/>
-      <c r="AA99" s="81"/>
+      <c r="W99" s="81" t="s">
+        <v>1793</v>
+      </c>
+      <c r="X99" s="81" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Y99" s="81" t="s">
+        <v>1795</v>
+      </c>
+      <c r="Z99" s="81" t="s">
+        <v>1796</v>
+      </c>
+      <c r="AA99" s="81" t="s">
+        <v>1797</v>
+      </c>
       <c r="AB99" s="81" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="AC99" s="82" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="AD99" s="1"/>
       <c r="AE99" s="83"/>
@@ -25599,11 +25705,21 @@
       <c r="E100" s="30">
         <v>56.0</v>
       </c>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
+      <c r="F100" s="30">
+        <v>45.0</v>
+      </c>
+      <c r="G100" s="30">
+        <v>84.0</v>
+      </c>
+      <c r="H100" s="30">
+        <v>52.0</v>
+      </c>
+      <c r="I100" s="30">
+        <v>57.0</v>
+      </c>
+      <c r="J100" s="30">
+        <v>60.0</v>
+      </c>
       <c r="K100" s="30"/>
       <c r="L100" s="30"/>
       <c r="M100" s="30"/>
@@ -25616,11 +25732,21 @@
       <c r="T100" s="30"/>
       <c r="U100" s="30"/>
       <c r="V100" s="30"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="30"/>
-      <c r="Y100" s="30"/>
-      <c r="Z100" s="30"/>
-      <c r="AA100" s="30"/>
+      <c r="W100" s="30">
+        <v>49.0</v>
+      </c>
+      <c r="X100" s="30">
+        <v>60.0</v>
+      </c>
+      <c r="Y100" s="30">
+        <v>55.0</v>
+      </c>
+      <c r="Z100" s="30">
+        <v>80.0</v>
+      </c>
+      <c r="AA100" s="30">
+        <v>70.0</v>
+      </c>
       <c r="AB100" s="30">
         <v>38.0</v>
       </c>
@@ -25646,11 +25772,21 @@
       <c r="E101" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
+      <c r="F101" s="37" t="s">
+        <v>728</v>
+      </c>
+      <c r="G101" s="37" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H101" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="I101" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="J101" s="37" t="s">
+        <v>1800</v>
+      </c>
       <c r="K101" s="37"/>
       <c r="L101" s="37"/>
       <c r="M101" s="37"/>
@@ -25663,11 +25799,21 @@
       <c r="T101" s="37"/>
       <c r="U101" s="37"/>
       <c r="V101" s="37"/>
-      <c r="W101" s="37"/>
-      <c r="X101" s="37"/>
-      <c r="Y101" s="37"/>
-      <c r="Z101" s="37"/>
-      <c r="AA101" s="37"/>
+      <c r="W101" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="X101" s="37" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Y101" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z101" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA101" s="37" t="s">
+        <v>445</v>
+      </c>
       <c r="AB101" s="37" t="s">
         <v>727</v>
       </c>
@@ -25693,11 +25839,21 @@
       <c r="E102" s="45">
         <v>15.0</v>
       </c>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
+      <c r="F102" s="45">
+        <v>12.0</v>
+      </c>
+      <c r="G102" s="45">
+        <v>22.0</v>
+      </c>
+      <c r="H102" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="I102" s="45">
+        <v>15.0</v>
+      </c>
+      <c r="J102" s="45">
+        <v>14.0</v>
+      </c>
       <c r="K102" s="45"/>
       <c r="L102" s="45"/>
       <c r="M102" s="45"/>
@@ -25710,11 +25866,21 @@
       <c r="T102" s="45"/>
       <c r="U102" s="45"/>
       <c r="V102" s="45"/>
-      <c r="W102" s="45"/>
-      <c r="X102" s="45"/>
-      <c r="Y102" s="45"/>
-      <c r="Z102" s="45"/>
-      <c r="AA102" s="45"/>
+      <c r="W102" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="X102" s="45">
+        <v>16.0</v>
+      </c>
+      <c r="Y102" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="Z102" s="45">
+        <v>21.0</v>
+      </c>
+      <c r="AA102" s="45">
+        <v>17.0</v>
+      </c>
       <c r="AB102" s="45">
         <v>11.0</v>
       </c>
@@ -25739,11 +25905,21 @@
       <c r="E103" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
+      <c r="F103" s="52" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G103" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I103" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J103" s="52" t="s">
+        <v>66</v>
+      </c>
       <c r="K103" s="52"/>
       <c r="L103" s="52"/>
       <c r="M103" s="52"/>
@@ -25756,11 +25932,21 @@
       <c r="T103" s="52"/>
       <c r="U103" s="52"/>
       <c r="V103" s="52"/>
-      <c r="W103" s="52"/>
-      <c r="X103" s="52"/>
-      <c r="Y103" s="52"/>
-      <c r="Z103" s="52"/>
-      <c r="AA103" s="52"/>
+      <c r="W103" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="X103" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y103" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z103" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA103" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="AB103" s="52" t="s">
         <v>58</v>
       </c>
@@ -26093,28 +26279,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="167" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C4" s="168" t="s">
-        <v>1781</v>
+        <v>1803</v>
       </c>
       <c r="D4" s="169" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>1783</v>
+        <v>1805</v>
       </c>
       <c r="F4" s="171" t="s">
-        <v>1784</v>
+        <v>1806</v>
       </c>
       <c r="G4" s="169" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H4" s="172" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="173" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -26132,676 +26318,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C6" s="177" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E6" s="160"/>
       <c r="F6" s="161" t="s">
-        <v>1786</v>
+        <v>1808</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H6" s="162">
         <v>1.0</v>
       </c>
       <c r="I6" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C7" s="177" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="161" t="s">
-        <v>1787</v>
+        <v>1809</v>
       </c>
       <c r="G7" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H7" s="162">
         <v>2.0</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C8" s="177" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E8" s="160"/>
       <c r="F8" s="161" t="s">
-        <v>1788</v>
+        <v>1810</v>
       </c>
       <c r="G8" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H8" s="162">
         <v>3.0</v>
       </c>
       <c r="I8" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C9" s="177" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E9" s="160"/>
       <c r="F9" s="161" t="s">
-        <v>1789</v>
+        <v>1811</v>
       </c>
       <c r="G9" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H9" s="162">
         <v>4.0</v>
       </c>
       <c r="I9" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C10" s="177" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E10" s="160"/>
       <c r="F10" s="161" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G10" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H10" s="162">
         <v>5.0</v>
       </c>
       <c r="I10" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E11" s="160"/>
       <c r="F11" s="161" t="s">
-        <v>1791</v>
+        <v>1813</v>
       </c>
       <c r="G11" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H11" s="162">
         <v>6.0</v>
       </c>
       <c r="I11" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C12" s="177" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E12" s="160"/>
       <c r="F12" s="161" t="s">
-        <v>1792</v>
+        <v>1814</v>
       </c>
       <c r="G12" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H12" s="162">
         <v>7.0</v>
       </c>
       <c r="I12" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E13" s="160"/>
       <c r="F13" s="161" t="s">
-        <v>1793</v>
+        <v>1815</v>
       </c>
       <c r="G13" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H13" s="162">
         <v>8.0</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C14" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E14" s="160"/>
       <c r="F14" s="161" t="s">
-        <v>1794</v>
+        <v>1816</v>
       </c>
       <c r="G14" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H14" s="162">
         <v>9.0</v>
       </c>
       <c r="I14" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E15" s="160"/>
       <c r="F15" s="161" t="s">
-        <v>1795</v>
+        <v>1817</v>
       </c>
       <c r="G15" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H15" s="162">
         <v>10.0</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C16" s="177" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E16" s="160"/>
       <c r="F16" s="161" t="s">
-        <v>1796</v>
+        <v>1818</v>
       </c>
       <c r="G16" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H16" s="162">
         <v>11.0</v>
       </c>
       <c r="I16" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C17" s="177" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E17" s="160"/>
       <c r="F17" s="161" t="s">
-        <v>1797</v>
+        <v>1819</v>
       </c>
       <c r="G17" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H17" s="162">
         <v>12.0</v>
       </c>
       <c r="I17" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C18" s="177" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E18" s="160"/>
       <c r="F18" s="161" t="s">
-        <v>1798</v>
+        <v>1820</v>
       </c>
       <c r="G18" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H18" s="162">
         <v>13.0</v>
       </c>
       <c r="I18" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C19" s="177" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E19" s="160"/>
       <c r="F19" s="161" t="s">
-        <v>1799</v>
+        <v>1821</v>
       </c>
       <c r="G19" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H19" s="162">
         <v>14.0</v>
       </c>
       <c r="I19" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C20" s="177" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E20" s="160"/>
       <c r="F20" s="161" t="s">
-        <v>1800</v>
+        <v>1822</v>
       </c>
       <c r="G20" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H20" s="162">
         <v>15.0</v>
       </c>
       <c r="I20" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C21" s="177" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E21" s="160"/>
       <c r="F21" s="161" t="s">
-        <v>1801</v>
+        <v>1823</v>
       </c>
       <c r="G21" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H21" s="162">
         <v>16.0</v>
       </c>
       <c r="I21" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C22" s="177" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="161" t="s">
-        <v>1802</v>
+        <v>1824</v>
       </c>
       <c r="G22" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H22" s="162">
         <v>17.0</v>
       </c>
       <c r="I22" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C23" s="177" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E23" s="160"/>
       <c r="F23" s="161" t="s">
-        <v>1803</v>
+        <v>1825</v>
       </c>
       <c r="G23" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H23" s="162">
         <v>18.0</v>
       </c>
       <c r="I23" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C24" s="177" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E24" s="160"/>
       <c r="F24" s="161" t="s">
-        <v>1804</v>
+        <v>1826</v>
       </c>
       <c r="G24" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H24" s="162">
         <v>19.0</v>
       </c>
       <c r="I24" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C25" s="177" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E25" s="160"/>
       <c r="F25" s="161" t="s">
-        <v>1805</v>
+        <v>1827</v>
       </c>
       <c r="G25" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H25" s="162">
         <v>20.0</v>
       </c>
       <c r="I25" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C26" s="177" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E26" s="160"/>
       <c r="F26" s="161" t="s">
-        <v>1806</v>
+        <v>1828</v>
       </c>
       <c r="G26" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H26" s="162">
         <v>21.0</v>
       </c>
       <c r="I26" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C27" s="177" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E27" s="160"/>
       <c r="F27" s="161" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G27" s="159" t="s">
         <v>1807</v>
-      </c>
-      <c r="G27" s="159" t="s">
-        <v>1785</v>
       </c>
       <c r="H27" s="162">
         <v>22.0</v>
       </c>
       <c r="I27" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C28" s="177" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E28" s="160"/>
       <c r="F28" s="161" t="s">
-        <v>1808</v>
+        <v>1830</v>
       </c>
       <c r="G28" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H28" s="162">
         <v>23.0</v>
       </c>
       <c r="I28" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C29" s="177" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E29" s="160"/>
       <c r="F29" s="161" t="s">
-        <v>1809</v>
+        <v>1831</v>
       </c>
       <c r="G29" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H29" s="162">
         <v>24.0</v>
       </c>
       <c r="I29" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C30" s="177" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E30" s="160"/>
       <c r="F30" s="161" t="s">
-        <v>1810</v>
+        <v>1832</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H30" s="162">
         <v>25.0</v>
       </c>
       <c r="I30" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="178" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C31" s="179" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="180" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E31" s="181"/>
       <c r="F31" s="182" t="s">
-        <v>1811</v>
+        <v>1833</v>
       </c>
       <c r="G31" s="180" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H31" s="183">
         <v>26.0</v>
       </c>
       <c r="I31" s="184" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -26819,28 +27005,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="167" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C33" s="168" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="169" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E33" s="170" t="s">
-        <v>1812</v>
+        <v>1834</v>
       </c>
       <c r="F33" s="171" t="s">
-        <v>1813</v>
+        <v>1835</v>
       </c>
       <c r="G33" s="169" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H33" s="172" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="173" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -26858,676 +27044,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C35" s="158" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E35" s="160"/>
       <c r="F35" s="161" t="s">
-        <v>1814</v>
+        <v>1836</v>
       </c>
       <c r="G35" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H35" s="162">
         <v>1.0</v>
       </c>
       <c r="I35" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C36" s="158" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E36" s="160"/>
       <c r="F36" s="161" t="s">
-        <v>1815</v>
+        <v>1837</v>
       </c>
       <c r="G36" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H36" s="162">
         <v>2.0</v>
       </c>
       <c r="I36" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C37" s="158" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E37" s="160"/>
       <c r="F37" s="161" t="s">
-        <v>1816</v>
+        <v>1838</v>
       </c>
       <c r="G37" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H37" s="162">
         <v>3.0</v>
       </c>
       <c r="I37" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C38" s="158" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E38" s="160"/>
       <c r="F38" s="161" t="s">
-        <v>1817</v>
+        <v>1839</v>
       </c>
       <c r="G38" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H38" s="162">
         <v>4.0</v>
       </c>
       <c r="I38" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C39" s="158" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E39" s="160"/>
       <c r="F39" s="161" t="s">
-        <v>1818</v>
+        <v>1840</v>
       </c>
       <c r="G39" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H39" s="162">
         <v>5.0</v>
       </c>
       <c r="I39" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C40" s="158" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E40" s="160"/>
       <c r="F40" s="161" t="s">
-        <v>1819</v>
+        <v>1841</v>
       </c>
       <c r="G40" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H40" s="162">
         <v>6.0</v>
       </c>
       <c r="I40" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C41" s="158" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E41" s="160"/>
       <c r="F41" s="161" t="s">
-        <v>1820</v>
+        <v>1842</v>
       </c>
       <c r="G41" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H41" s="162">
         <v>7.0</v>
       </c>
       <c r="I41" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C42" s="158" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E42" s="160"/>
       <c r="F42" s="161" t="s">
-        <v>1821</v>
+        <v>1843</v>
       </c>
       <c r="G42" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H42" s="162">
         <v>8.0</v>
       </c>
       <c r="I42" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C43" s="158" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E43" s="160"/>
       <c r="F43" s="161" t="s">
-        <v>1822</v>
+        <v>1844</v>
       </c>
       <c r="G43" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H43" s="162">
         <v>9.0</v>
       </c>
       <c r="I43" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C44" s="158" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E44" s="160"/>
       <c r="F44" s="161" t="s">
-        <v>1823</v>
+        <v>1845</v>
       </c>
       <c r="G44" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H44" s="162">
         <v>10.0</v>
       </c>
       <c r="I44" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C45" s="158" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E45" s="160"/>
       <c r="F45" s="161" t="s">
-        <v>1824</v>
+        <v>1846</v>
       </c>
       <c r="G45" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H45" s="162">
         <v>11.0</v>
       </c>
       <c r="I45" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C46" s="158" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E46" s="160"/>
       <c r="F46" s="161" t="s">
-        <v>1825</v>
+        <v>1847</v>
       </c>
       <c r="G46" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H46" s="162">
         <v>12.0</v>
       </c>
       <c r="I46" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C47" s="158" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E47" s="160"/>
       <c r="F47" s="161" t="s">
-        <v>1826</v>
+        <v>1848</v>
       </c>
       <c r="G47" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H47" s="162">
         <v>13.0</v>
       </c>
       <c r="I47" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C48" s="158" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E48" s="160"/>
       <c r="F48" s="161" t="s">
-        <v>1827</v>
+        <v>1849</v>
       </c>
       <c r="G48" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H48" s="162">
         <v>14.0</v>
       </c>
       <c r="I48" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C49" s="158" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E49" s="160"/>
       <c r="F49" s="161" t="s">
-        <v>1828</v>
+        <v>1850</v>
       </c>
       <c r="G49" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H49" s="162">
         <v>15.0</v>
       </c>
       <c r="I49" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C50" s="158" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E50" s="160"/>
       <c r="F50" s="161" t="s">
-        <v>1829</v>
+        <v>1851</v>
       </c>
       <c r="G50" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H50" s="162">
         <v>16.0</v>
       </c>
       <c r="I50" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C51" s="158" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E51" s="160"/>
       <c r="F51" s="161" t="s">
-        <v>1830</v>
+        <v>1852</v>
       </c>
       <c r="G51" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H51" s="162">
         <v>17.0</v>
       </c>
       <c r="I51" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C52" s="158" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E52" s="160"/>
       <c r="F52" s="161" t="s">
-        <v>1831</v>
+        <v>1853</v>
       </c>
       <c r="G52" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H52" s="162">
         <v>18.0</v>
       </c>
       <c r="I52" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C53" s="158" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E53" s="160"/>
       <c r="F53" s="161" t="s">
-        <v>1832</v>
+        <v>1854</v>
       </c>
       <c r="G53" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H53" s="162">
         <v>19.0</v>
       </c>
       <c r="I53" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C54" s="158" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E54" s="160"/>
       <c r="F54" s="161" t="s">
-        <v>1833</v>
+        <v>1855</v>
       </c>
       <c r="G54" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H54" s="162">
         <v>20.0</v>
       </c>
       <c r="I54" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C55" s="158" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E55" s="160"/>
       <c r="F55" s="161" t="s">
-        <v>1834</v>
+        <v>1856</v>
       </c>
       <c r="G55" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H55" s="162">
         <v>21.0</v>
       </c>
       <c r="I55" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C56" s="158" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E56" s="160"/>
       <c r="F56" s="161" t="s">
-        <v>1835</v>
+        <v>1857</v>
       </c>
       <c r="G56" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H56" s="162">
         <v>22.0</v>
       </c>
       <c r="I56" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C57" s="158" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E57" s="160"/>
       <c r="F57" s="161" t="s">
-        <v>1836</v>
+        <v>1858</v>
       </c>
       <c r="G57" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H57" s="162">
         <v>23.0</v>
       </c>
       <c r="I57" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C58" s="158" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E58" s="160"/>
       <c r="F58" s="161" t="s">
-        <v>1837</v>
+        <v>1859</v>
       </c>
       <c r="G58" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H58" s="162">
         <v>24.0</v>
       </c>
       <c r="I58" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C59" s="158" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E59" s="160"/>
       <c r="F59" s="161" t="s">
-        <v>1838</v>
+        <v>1860</v>
       </c>
       <c r="G59" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H59" s="162">
         <v>25.0</v>
       </c>
       <c r="I59" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="178" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C60" s="185" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E60" s="181"/>
       <c r="F60" s="182" t="s">
-        <v>1839</v>
+        <v>1861</v>
       </c>
       <c r="G60" s="180" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H60" s="183">
         <v>26.0</v>
       </c>
       <c r="I60" s="184" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -27545,28 +27731,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="167" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C62" s="168" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="169" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E62" s="170" t="s">
-        <v>1840</v>
+        <v>1862</v>
       </c>
       <c r="F62" s="171" t="s">
-        <v>1841</v>
+        <v>1863</v>
       </c>
       <c r="G62" s="169" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H62" s="172" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="173" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -27584,676 +27770,676 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C64" s="158" t="s">
         <v>452</v>
       </c>
       <c r="D64" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E64" s="160"/>
       <c r="F64" s="161" t="s">
-        <v>1842</v>
+        <v>1864</v>
       </c>
       <c r="G64" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H64" s="162">
         <v>1.0</v>
       </c>
       <c r="I64" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C65" s="158" t="s">
         <v>453</v>
       </c>
       <c r="D65" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E65" s="160"/>
       <c r="F65" s="161" t="s">
-        <v>1843</v>
+        <v>1865</v>
       </c>
       <c r="G65" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H65" s="162">
         <v>2.0</v>
       </c>
       <c r="I65" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C66" s="158" t="s">
         <v>454</v>
       </c>
       <c r="D66" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E66" s="160"/>
       <c r="F66" s="161" t="s">
-        <v>1844</v>
+        <v>1866</v>
       </c>
       <c r="G66" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H66" s="162">
         <v>3.0</v>
       </c>
       <c r="I66" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C67" s="158" t="s">
         <v>455</v>
       </c>
       <c r="D67" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E67" s="160"/>
       <c r="F67" s="161" t="s">
-        <v>1845</v>
+        <v>1867</v>
       </c>
       <c r="G67" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H67" s="162">
         <v>4.0</v>
       </c>
       <c r="I67" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C68" s="158" t="s">
         <v>456</v>
       </c>
       <c r="D68" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E68" s="160"/>
       <c r="F68" s="161" t="s">
-        <v>1846</v>
+        <v>1868</v>
       </c>
       <c r="G68" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H68" s="162">
         <v>5.0</v>
       </c>
       <c r="I68" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C69" s="158" t="s">
         <v>457</v>
       </c>
       <c r="D69" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E69" s="160"/>
       <c r="F69" s="161" t="s">
-        <v>1847</v>
+        <v>1869</v>
       </c>
       <c r="G69" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H69" s="162">
         <v>6.0</v>
       </c>
       <c r="I69" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C70" s="158" t="s">
         <v>458</v>
       </c>
       <c r="D70" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E70" s="160"/>
       <c r="F70" s="161" t="s">
-        <v>1848</v>
+        <v>1870</v>
       </c>
       <c r="G70" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H70" s="162">
         <v>7.0</v>
       </c>
       <c r="I70" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C71" s="158" t="s">
         <v>459</v>
       </c>
       <c r="D71" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E71" s="160"/>
       <c r="F71" s="161" t="s">
-        <v>1849</v>
+        <v>1871</v>
       </c>
       <c r="G71" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H71" s="162">
         <v>8.0</v>
       </c>
       <c r="I71" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C72" s="158" t="s">
         <v>460</v>
       </c>
       <c r="D72" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E72" s="160"/>
       <c r="F72" s="161" t="s">
-        <v>1850</v>
+        <v>1872</v>
       </c>
       <c r="G72" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H72" s="162">
         <v>9.0</v>
       </c>
       <c r="I72" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C73" s="158" t="s">
         <v>461</v>
       </c>
       <c r="D73" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E73" s="160"/>
       <c r="F73" s="161" t="s">
-        <v>1851</v>
+        <v>1873</v>
       </c>
       <c r="G73" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H73" s="162">
         <v>10.0</v>
       </c>
       <c r="I73" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C74" s="158" t="s">
         <v>462</v>
       </c>
       <c r="D74" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E74" s="160"/>
       <c r="F74" s="161" t="s">
-        <v>1852</v>
+        <v>1874</v>
       </c>
       <c r="G74" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H74" s="162">
         <v>11.0</v>
       </c>
       <c r="I74" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C75" s="158" t="s">
         <v>463</v>
       </c>
       <c r="D75" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E75" s="160"/>
       <c r="F75" s="161" t="s">
-        <v>1853</v>
+        <v>1875</v>
       </c>
       <c r="G75" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H75" s="162">
         <v>12.0</v>
       </c>
       <c r="I75" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C76" s="158" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E76" s="160"/>
       <c r="F76" s="161" t="s">
-        <v>1854</v>
+        <v>1876</v>
       </c>
       <c r="G76" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H76" s="162">
         <v>13.0</v>
       </c>
       <c r="I76" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C77" s="158" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E77" s="160"/>
       <c r="F77" s="161" t="s">
-        <v>1855</v>
+        <v>1877</v>
       </c>
       <c r="G77" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H77" s="162">
         <v>14.0</v>
       </c>
       <c r="I77" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C78" s="158" t="s">
         <v>466</v>
       </c>
       <c r="D78" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E78" s="160"/>
       <c r="F78" s="161" t="s">
-        <v>1856</v>
+        <v>1878</v>
       </c>
       <c r="G78" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H78" s="162">
         <v>15.0</v>
       </c>
       <c r="I78" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C79" s="158" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E79" s="160"/>
       <c r="F79" s="161" t="s">
-        <v>1857</v>
+        <v>1879</v>
       </c>
       <c r="G79" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H79" s="162">
         <v>16.0</v>
       </c>
       <c r="I79" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C80" s="158" t="s">
         <v>468</v>
       </c>
       <c r="D80" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E80" s="160"/>
       <c r="F80" s="161" t="s">
-        <v>1858</v>
+        <v>1880</v>
       </c>
       <c r="G80" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H80" s="162">
         <v>17.0</v>
       </c>
       <c r="I80" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C81" s="158" t="s">
         <v>469</v>
       </c>
       <c r="D81" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E81" s="160"/>
       <c r="F81" s="161" t="s">
-        <v>1859</v>
+        <v>1881</v>
       </c>
       <c r="G81" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H81" s="162">
         <v>18.0</v>
       </c>
       <c r="I81" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C82" s="158" t="s">
         <v>470</v>
       </c>
       <c r="D82" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E82" s="160"/>
       <c r="F82" s="161" t="s">
-        <v>1860</v>
+        <v>1882</v>
       </c>
       <c r="G82" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H82" s="162">
         <v>19.0</v>
       </c>
       <c r="I82" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C83" s="158" t="s">
         <v>471</v>
       </c>
       <c r="D83" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E83" s="160"/>
       <c r="F83" s="161" t="s">
-        <v>1861</v>
+        <v>1883</v>
       </c>
       <c r="G83" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H83" s="162">
         <v>20.0</v>
       </c>
       <c r="I83" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C84" s="158" t="s">
         <v>472</v>
       </c>
       <c r="D84" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E84" s="160"/>
       <c r="F84" s="161" t="s">
-        <v>1862</v>
+        <v>1884</v>
       </c>
       <c r="G84" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H84" s="162">
         <v>21.0</v>
       </c>
       <c r="I84" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C85" s="158" t="s">
         <v>473</v>
       </c>
       <c r="D85" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E85" s="160"/>
       <c r="F85" s="161" t="s">
-        <v>1863</v>
+        <v>1885</v>
       </c>
       <c r="G85" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H85" s="162">
         <v>22.0</v>
       </c>
       <c r="I85" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C86" s="158" t="s">
         <v>474</v>
       </c>
       <c r="D86" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E86" s="160"/>
       <c r="F86" s="161" t="s">
-        <v>1864</v>
+        <v>1886</v>
       </c>
       <c r="G86" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H86" s="162">
         <v>23.0</v>
       </c>
       <c r="I86" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C87" s="158" t="s">
         <v>475</v>
       </c>
       <c r="D87" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E87" s="160"/>
       <c r="F87" s="161" t="s">
-        <v>1865</v>
+        <v>1887</v>
       </c>
       <c r="G87" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H87" s="162">
         <v>24.0</v>
       </c>
       <c r="I87" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C88" s="158" t="s">
         <v>476</v>
       </c>
       <c r="D88" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E88" s="160"/>
       <c r="F88" s="161" t="s">
-        <v>1866</v>
+        <v>1888</v>
       </c>
       <c r="G88" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H88" s="162">
         <v>25.0</v>
       </c>
       <c r="I88" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="178" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C89" s="185" t="s">
         <v>477</v>
       </c>
       <c r="D89" s="180" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E89" s="181"/>
       <c r="F89" s="182" t="s">
-        <v>1867</v>
+        <v>1889</v>
       </c>
       <c r="G89" s="180" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H89" s="183">
         <v>26.0</v>
       </c>
       <c r="I89" s="184" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -28271,28 +28457,28 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="167" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C91" s="168" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="169" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E91" s="170" t="s">
-        <v>1868</v>
+        <v>1890</v>
       </c>
       <c r="F91" s="171" t="s">
-        <v>1869</v>
+        <v>1891</v>
       </c>
       <c r="G91" s="169" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H91" s="172" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="173" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -28310,676 +28496,676 @@
     <row r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C93" s="158" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E93" s="160"/>
       <c r="F93" s="161" t="s">
-        <v>1870</v>
+        <v>1892</v>
       </c>
       <c r="G93" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H93" s="162">
         <v>1.0</v>
       </c>
       <c r="I93" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C94" s="158" t="s">
         <v>730</v>
       </c>
       <c r="D94" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E94" s="160"/>
       <c r="F94" s="161" t="s">
-        <v>1871</v>
+        <v>1893</v>
       </c>
       <c r="G94" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H94" s="162">
         <v>2.0</v>
       </c>
       <c r="I94" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C95" s="158" t="s">
         <v>731</v>
       </c>
       <c r="D95" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E95" s="160"/>
       <c r="F95" s="161" t="s">
-        <v>1872</v>
+        <v>1894</v>
       </c>
       <c r="G95" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H95" s="162">
         <v>3.0</v>
       </c>
       <c r="I95" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C96" s="158" t="s">
         <v>732</v>
       </c>
       <c r="D96" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E96" s="160"/>
       <c r="F96" s="161" t="s">
-        <v>1873</v>
+        <v>1895</v>
       </c>
       <c r="G96" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H96" s="162">
         <v>4.0</v>
       </c>
       <c r="I96" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C97" s="158" t="s">
         <v>733</v>
       </c>
       <c r="D97" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E97" s="160"/>
       <c r="F97" s="161" t="s">
-        <v>1874</v>
+        <v>1896</v>
       </c>
       <c r="G97" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H97" s="162">
         <v>5.0</v>
       </c>
       <c r="I97" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C98" s="158" t="s">
         <v>734</v>
       </c>
       <c r="D98" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E98" s="160"/>
       <c r="F98" s="161" t="s">
-        <v>1875</v>
+        <v>1897</v>
       </c>
       <c r="G98" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H98" s="162">
         <v>6.0</v>
       </c>
       <c r="I98" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C99" s="158" t="s">
         <v>735</v>
       </c>
       <c r="D99" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E99" s="160"/>
       <c r="F99" s="161" t="s">
-        <v>1876</v>
+        <v>1898</v>
       </c>
       <c r="G99" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H99" s="162">
         <v>7.0</v>
       </c>
       <c r="I99" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C100" s="158" t="s">
         <v>736</v>
       </c>
       <c r="D100" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E100" s="160"/>
       <c r="F100" s="161" t="s">
-        <v>1877</v>
+        <v>1899</v>
       </c>
       <c r="G100" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H100" s="162">
         <v>8.0</v>
       </c>
       <c r="I100" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C101" s="158" t="s">
         <v>737</v>
       </c>
       <c r="D101" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E101" s="160"/>
       <c r="F101" s="161" t="s">
-        <v>1878</v>
+        <v>1900</v>
       </c>
       <c r="G101" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H101" s="162">
         <v>9.0</v>
       </c>
       <c r="I101" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C102" s="158" t="s">
         <v>738</v>
       </c>
       <c r="D102" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E102" s="160"/>
       <c r="F102" s="161" t="s">
-        <v>1879</v>
+        <v>1901</v>
       </c>
       <c r="G102" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H102" s="162">
         <v>10.0</v>
       </c>
       <c r="I102" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C103" s="158" t="s">
         <v>739</v>
       </c>
       <c r="D103" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E103" s="160"/>
       <c r="F103" s="161" t="s">
-        <v>1880</v>
+        <v>1902</v>
       </c>
       <c r="G103" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H103" s="162">
         <v>11.0</v>
       </c>
       <c r="I103" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C104" s="158" t="s">
         <v>740</v>
       </c>
       <c r="D104" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E104" s="160"/>
       <c r="F104" s="161" t="s">
-        <v>1881</v>
+        <v>1903</v>
       </c>
       <c r="G104" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H104" s="162">
         <v>12.0</v>
       </c>
       <c r="I104" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C105" s="158" t="s">
         <v>741</v>
       </c>
       <c r="D105" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E105" s="160"/>
       <c r="F105" s="161" t="s">
-        <v>1882</v>
+        <v>1904</v>
       </c>
       <c r="G105" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H105" s="162">
         <v>13.0</v>
       </c>
       <c r="I105" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C106" s="158" t="s">
         <v>742</v>
       </c>
       <c r="D106" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E106" s="160"/>
       <c r="F106" s="161" t="s">
-        <v>1883</v>
+        <v>1905</v>
       </c>
       <c r="G106" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H106" s="162">
         <v>14.0</v>
       </c>
       <c r="I106" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C107" s="158" t="s">
         <v>743</v>
       </c>
       <c r="D107" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E107" s="160"/>
       <c r="F107" s="161" t="s">
-        <v>1884</v>
+        <v>1906</v>
       </c>
       <c r="G107" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H107" s="162">
         <v>15.0</v>
       </c>
       <c r="I107" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C108" s="158" t="s">
         <v>744</v>
       </c>
       <c r="D108" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E108" s="160"/>
       <c r="F108" s="161" t="s">
-        <v>1885</v>
+        <v>1907</v>
       </c>
       <c r="G108" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H108" s="162">
         <v>16.0</v>
       </c>
       <c r="I108" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C109" s="158" t="s">
         <v>745</v>
       </c>
       <c r="D109" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E109" s="160"/>
       <c r="F109" s="161" t="s">
-        <v>1886</v>
+        <v>1908</v>
       </c>
       <c r="G109" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H109" s="162">
         <v>17.0</v>
       </c>
       <c r="I109" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C110" s="158" t="s">
         <v>746</v>
       </c>
       <c r="D110" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E110" s="160"/>
       <c r="F110" s="161" t="s">
-        <v>1887</v>
+        <v>1909</v>
       </c>
       <c r="G110" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H110" s="162">
         <v>18.0</v>
       </c>
       <c r="I110" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C111" s="158" t="s">
         <v>747</v>
       </c>
       <c r="D111" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E111" s="160"/>
       <c r="F111" s="161" t="s">
-        <v>1888</v>
+        <v>1910</v>
       </c>
       <c r="G111" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H111" s="162">
         <v>19.0</v>
       </c>
       <c r="I111" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C112" s="158" t="s">
         <v>748</v>
       </c>
       <c r="D112" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E112" s="160"/>
       <c r="F112" s="161" t="s">
-        <v>1889</v>
+        <v>1911</v>
       </c>
       <c r="G112" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H112" s="162">
         <v>20.0</v>
       </c>
       <c r="I112" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C113" s="158" t="s">
         <v>749</v>
       </c>
       <c r="D113" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E113" s="160"/>
       <c r="F113" s="161" t="s">
-        <v>1890</v>
+        <v>1912</v>
       </c>
       <c r="G113" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H113" s="162">
         <v>21.0</v>
       </c>
       <c r="I113" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C114" s="158" t="s">
         <v>750</v>
       </c>
       <c r="D114" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E114" s="160"/>
       <c r="F114" s="161" t="s">
-        <v>1891</v>
+        <v>1913</v>
       </c>
       <c r="G114" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H114" s="162">
         <v>22.0</v>
       </c>
       <c r="I114" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C115" s="158" t="s">
         <v>751</v>
       </c>
       <c r="D115" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E115" s="160"/>
       <c r="F115" s="161" t="s">
-        <v>1892</v>
+        <v>1914</v>
       </c>
       <c r="G115" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H115" s="162">
         <v>23.0</v>
       </c>
       <c r="I115" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C116" s="158" t="s">
         <v>752</v>
       </c>
       <c r="D116" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E116" s="160"/>
       <c r="F116" s="161" t="s">
-        <v>1893</v>
+        <v>1915</v>
       </c>
       <c r="G116" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H116" s="162">
         <v>24.0</v>
       </c>
       <c r="I116" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C117" s="158" t="s">
         <v>753</v>
       </c>
       <c r="D117" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E117" s="160"/>
       <c r="F117" s="161" t="s">
-        <v>1894</v>
+        <v>1916</v>
       </c>
       <c r="G117" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H117" s="162">
         <v>25.0</v>
       </c>
       <c r="I117" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="178" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C118" s="185" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="180" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E118" s="181"/>
       <c r="F118" s="182" t="s">
-        <v>1895</v>
+        <v>1917</v>
       </c>
       <c r="G118" s="180" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H118" s="183">
         <v>26.0</v>
       </c>
       <c r="I118" s="184" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J118" s="1"/>
     </row>
@@ -28997,28 +29183,28 @@
     <row r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="167" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C120" s="168" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="169" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E120" s="170" t="s">
-        <v>1896</v>
+        <v>1918</v>
       </c>
       <c r="F120" s="171" t="s">
-        <v>1897</v>
+        <v>1919</v>
       </c>
       <c r="G120" s="169" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H120" s="172" t="s">
         <v>3</v>
       </c>
       <c r="I120" s="173" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J120" s="1"/>
     </row>
@@ -29036,676 +29222,676 @@
     <row r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C122" s="158" t="s">
         <v>1045</v>
       </c>
       <c r="D122" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E122" s="160"/>
       <c r="F122" s="161" t="s">
-        <v>1898</v>
+        <v>1920</v>
       </c>
       <c r="G122" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H122" s="162">
         <v>1.0</v>
       </c>
       <c r="I122" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C123" s="158" t="s">
         <v>1046</v>
       </c>
       <c r="D123" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E123" s="160"/>
       <c r="F123" s="161" t="s">
-        <v>1899</v>
+        <v>1921</v>
       </c>
       <c r="G123" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H123" s="162">
         <v>2.0</v>
       </c>
       <c r="I123" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C124" s="158" t="s">
         <v>1047</v>
       </c>
       <c r="D124" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E124" s="160"/>
       <c r="F124" s="161" t="s">
-        <v>1900</v>
+        <v>1922</v>
       </c>
       <c r="G124" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H124" s="162">
         <v>3.0</v>
       </c>
       <c r="I124" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C125" s="158" t="s">
         <v>1048</v>
       </c>
       <c r="D125" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E125" s="160"/>
       <c r="F125" s="161" t="s">
-        <v>1901</v>
+        <v>1923</v>
       </c>
       <c r="G125" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H125" s="162">
         <v>4.0</v>
       </c>
       <c r="I125" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C126" s="158" t="s">
         <v>1049</v>
       </c>
       <c r="D126" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E126" s="160"/>
       <c r="F126" s="161" t="s">
-        <v>1902</v>
+        <v>1924</v>
       </c>
       <c r="G126" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H126" s="162">
         <v>5.0</v>
       </c>
       <c r="I126" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C127" s="158" t="s">
         <v>1050</v>
       </c>
       <c r="D127" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E127" s="160"/>
       <c r="F127" s="161" t="s">
-        <v>1903</v>
+        <v>1925</v>
       </c>
       <c r="G127" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H127" s="162">
         <v>6.0</v>
       </c>
       <c r="I127" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C128" s="158" t="s">
         <v>1051</v>
       </c>
       <c r="D128" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E128" s="160"/>
       <c r="F128" s="161" t="s">
-        <v>1904</v>
+        <v>1926</v>
       </c>
       <c r="G128" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H128" s="162">
         <v>7.0</v>
       </c>
       <c r="I128" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C129" s="158" t="s">
         <v>1052</v>
       </c>
       <c r="D129" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E129" s="160"/>
       <c r="F129" s="161" t="s">
-        <v>1905</v>
+        <v>1927</v>
       </c>
       <c r="G129" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H129" s="162">
         <v>8.0</v>
       </c>
       <c r="I129" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C130" s="158" t="s">
         <v>1053</v>
       </c>
       <c r="D130" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E130" s="160"/>
       <c r="F130" s="161" t="s">
-        <v>1906</v>
+        <v>1928</v>
       </c>
       <c r="G130" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H130" s="162">
         <v>9.0</v>
       </c>
       <c r="I130" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C131" s="158" t="s">
         <v>1054</v>
       </c>
       <c r="D131" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E131" s="160"/>
       <c r="F131" s="161" t="s">
-        <v>1907</v>
+        <v>1929</v>
       </c>
       <c r="G131" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H131" s="162">
         <v>10.0</v>
       </c>
       <c r="I131" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C132" s="158" t="s">
         <v>1055</v>
       </c>
       <c r="D132" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E132" s="160"/>
       <c r="F132" s="161" t="s">
-        <v>1908</v>
+        <v>1930</v>
       </c>
       <c r="G132" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H132" s="162">
         <v>11.0</v>
       </c>
       <c r="I132" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C133" s="158" t="s">
         <v>1056</v>
       </c>
       <c r="D133" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E133" s="160"/>
       <c r="F133" s="161" t="s">
-        <v>1909</v>
+        <v>1931</v>
       </c>
       <c r="G133" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H133" s="162">
         <v>12.0</v>
       </c>
       <c r="I133" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C134" s="158" t="s">
         <v>1057</v>
       </c>
       <c r="D134" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E134" s="160"/>
       <c r="F134" s="161" t="s">
-        <v>1910</v>
+        <v>1932</v>
       </c>
       <c r="G134" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H134" s="162">
         <v>13.0</v>
       </c>
       <c r="I134" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C135" s="158" t="s">
         <v>1058</v>
       </c>
       <c r="D135" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E135" s="160"/>
       <c r="F135" s="161" t="s">
-        <v>1911</v>
+        <v>1933</v>
       </c>
       <c r="G135" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H135" s="162">
         <v>14.0</v>
       </c>
       <c r="I135" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C136" s="158" t="s">
         <v>1059</v>
       </c>
       <c r="D136" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E136" s="160"/>
       <c r="F136" s="161" t="s">
-        <v>1912</v>
+        <v>1934</v>
       </c>
       <c r="G136" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H136" s="162">
         <v>15.0</v>
       </c>
       <c r="I136" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C137" s="158" t="s">
         <v>1060</v>
       </c>
       <c r="D137" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E137" s="160"/>
       <c r="F137" s="161" t="s">
-        <v>1913</v>
+        <v>1935</v>
       </c>
       <c r="G137" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H137" s="162">
         <v>16.0</v>
       </c>
       <c r="I137" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C138" s="158" t="s">
         <v>1061</v>
       </c>
       <c r="D138" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E138" s="160"/>
       <c r="F138" s="161" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="G138" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H138" s="162">
         <v>17.0</v>
       </c>
       <c r="I138" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C139" s="158" t="s">
         <v>1062</v>
       </c>
       <c r="D139" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E139" s="160"/>
       <c r="F139" s="161" t="s">
-        <v>1915</v>
+        <v>1937</v>
       </c>
       <c r="G139" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H139" s="162">
         <v>18.0</v>
       </c>
       <c r="I139" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C140" s="158" t="s">
         <v>1063</v>
       </c>
       <c r="D140" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E140" s="160"/>
       <c r="F140" s="161" t="s">
-        <v>1916</v>
+        <v>1938</v>
       </c>
       <c r="G140" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H140" s="162">
         <v>19.0</v>
       </c>
       <c r="I140" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C141" s="158" t="s">
         <v>1064</v>
       </c>
       <c r="D141" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E141" s="160"/>
       <c r="F141" s="161" t="s">
-        <v>1917</v>
+        <v>1939</v>
       </c>
       <c r="G141" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H141" s="162">
         <v>20.0</v>
       </c>
       <c r="I141" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C142" s="158" t="s">
         <v>1065</v>
       </c>
       <c r="D142" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E142" s="160"/>
       <c r="F142" s="161" t="s">
-        <v>1918</v>
+        <v>1940</v>
       </c>
       <c r="G142" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H142" s="162">
         <v>21.0</v>
       </c>
       <c r="I142" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C143" s="158" t="s">
         <v>1066</v>
       </c>
       <c r="D143" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E143" s="160"/>
       <c r="F143" s="161" t="s">
-        <v>1919</v>
+        <v>1941</v>
       </c>
       <c r="G143" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H143" s="162">
         <v>22.0</v>
       </c>
       <c r="I143" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C144" s="158" t="s">
         <v>1067</v>
       </c>
       <c r="D144" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E144" s="160"/>
       <c r="F144" s="161" t="s">
-        <v>1920</v>
+        <v>1942</v>
       </c>
       <c r="G144" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H144" s="162">
         <v>23.0</v>
       </c>
       <c r="I144" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C145" s="158" t="s">
         <v>1068</v>
       </c>
       <c r="D145" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E145" s="160"/>
       <c r="F145" s="161" t="s">
-        <v>1921</v>
+        <v>1943</v>
       </c>
       <c r="G145" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H145" s="162">
         <v>24.0</v>
       </c>
       <c r="I145" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C146" s="158" t="s">
         <v>1069</v>
       </c>
       <c r="D146" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E146" s="160"/>
       <c r="F146" s="161" t="s">
-        <v>1922</v>
+        <v>1944</v>
       </c>
       <c r="G146" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H146" s="162">
         <v>25.0</v>
       </c>
       <c r="I146" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="178" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C147" s="185" t="s">
         <v>1070</v>
       </c>
       <c r="D147" s="180" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E147" s="181"/>
       <c r="F147" s="182" t="s">
-        <v>1923</v>
+        <v>1945</v>
       </c>
       <c r="G147" s="180" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H147" s="183">
         <v>26.0</v>
       </c>
       <c r="I147" s="184" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J147" s="1"/>
     </row>
@@ -29723,28 +29909,28 @@
     <row r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="167" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C149" s="168" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="169" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E149" s="170" t="s">
-        <v>1924</v>
+        <v>1946</v>
       </c>
       <c r="F149" s="171" t="s">
-        <v>1925</v>
+        <v>1947</v>
       </c>
       <c r="G149" s="169" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H149" s="172" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="173" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J149" s="1"/>
     </row>
@@ -29762,676 +29948,676 @@
     <row r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C151" s="158" t="s">
         <v>1269</v>
       </c>
       <c r="D151" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E151" s="160"/>
       <c r="F151" s="161" t="s">
-        <v>1926</v>
+        <v>1948</v>
       </c>
       <c r="G151" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H151" s="162">
         <v>1.0</v>
       </c>
       <c r="I151" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C152" s="158" t="s">
         <v>1270</v>
       </c>
       <c r="D152" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E152" s="160"/>
       <c r="F152" s="161" t="s">
-        <v>1927</v>
+        <v>1949</v>
       </c>
       <c r="G152" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H152" s="162">
         <v>2.0</v>
       </c>
       <c r="I152" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C153" s="158" t="s">
         <v>1271</v>
       </c>
       <c r="D153" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E153" s="160"/>
       <c r="F153" s="161" t="s">
-        <v>1928</v>
+        <v>1950</v>
       </c>
       <c r="G153" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H153" s="162">
         <v>3.0</v>
       </c>
       <c r="I153" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C154" s="158" t="s">
         <v>1272</v>
       </c>
       <c r="D154" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E154" s="160"/>
       <c r="F154" s="161" t="s">
-        <v>1929</v>
+        <v>1951</v>
       </c>
       <c r="G154" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H154" s="162">
         <v>4.0</v>
       </c>
       <c r="I154" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C155" s="158" t="s">
         <v>1273</v>
       </c>
       <c r="D155" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E155" s="160"/>
       <c r="F155" s="161" t="s">
-        <v>1930</v>
+        <v>1952</v>
       </c>
       <c r="G155" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H155" s="162">
         <v>5.0</v>
       </c>
       <c r="I155" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C156" s="158" t="s">
         <v>1274</v>
       </c>
       <c r="D156" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E156" s="160"/>
       <c r="F156" s="161" t="s">
-        <v>1931</v>
+        <v>1953</v>
       </c>
       <c r="G156" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H156" s="162">
         <v>6.0</v>
       </c>
       <c r="I156" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C157" s="158" t="s">
         <v>1275</v>
       </c>
       <c r="D157" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E157" s="160"/>
       <c r="F157" s="161" t="s">
-        <v>1932</v>
+        <v>1954</v>
       </c>
       <c r="G157" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H157" s="162">
         <v>7.0</v>
       </c>
       <c r="I157" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C158" s="158" t="s">
         <v>1276</v>
       </c>
       <c r="D158" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E158" s="160"/>
       <c r="F158" s="161" t="s">
-        <v>1933</v>
+        <v>1955</v>
       </c>
       <c r="G158" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H158" s="162">
         <v>8.0</v>
       </c>
       <c r="I158" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C159" s="158" t="s">
         <v>1277</v>
       </c>
       <c r="D159" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E159" s="160"/>
       <c r="F159" s="161" t="s">
-        <v>1934</v>
+        <v>1956</v>
       </c>
       <c r="G159" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H159" s="162">
         <v>9.0</v>
       </c>
       <c r="I159" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C160" s="158" t="s">
         <v>1278</v>
       </c>
       <c r="D160" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E160" s="160"/>
       <c r="F160" s="161" t="s">
-        <v>1935</v>
+        <v>1957</v>
       </c>
       <c r="G160" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H160" s="162">
         <v>10.0</v>
       </c>
       <c r="I160" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C161" s="158" t="s">
         <v>1279</v>
       </c>
       <c r="D161" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E161" s="160"/>
       <c r="F161" s="161" t="s">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="G161" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H161" s="162">
         <v>11.0</v>
       </c>
       <c r="I161" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C162" s="158" t="s">
         <v>1280</v>
       </c>
       <c r="D162" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E162" s="160"/>
       <c r="F162" s="161" t="s">
-        <v>1937</v>
+        <v>1959</v>
       </c>
       <c r="G162" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H162" s="162">
         <v>12.0</v>
       </c>
       <c r="I162" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C163" s="158" t="s">
         <v>1281</v>
       </c>
       <c r="D163" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E163" s="160"/>
       <c r="F163" s="161" t="s">
-        <v>1938</v>
+        <v>1960</v>
       </c>
       <c r="G163" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H163" s="162">
         <v>13.0</v>
       </c>
       <c r="I163" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C164" s="158" t="s">
         <v>1282</v>
       </c>
       <c r="D164" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E164" s="160"/>
       <c r="F164" s="161" t="s">
-        <v>1939</v>
+        <v>1961</v>
       </c>
       <c r="G164" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H164" s="162">
         <v>14.0</v>
       </c>
       <c r="I164" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C165" s="158" t="s">
         <v>1283</v>
       </c>
       <c r="D165" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E165" s="160"/>
       <c r="F165" s="161" t="s">
-        <v>1940</v>
+        <v>1962</v>
       </c>
       <c r="G165" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H165" s="162">
         <v>15.0</v>
       </c>
       <c r="I165" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C166" s="158" t="s">
         <v>1284</v>
       </c>
       <c r="D166" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E166" s="160"/>
       <c r="F166" s="161" t="s">
-        <v>1941</v>
+        <v>1963</v>
       </c>
       <c r="G166" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H166" s="162">
         <v>16.0</v>
       </c>
       <c r="I166" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C167" s="158" t="s">
         <v>1285</v>
       </c>
       <c r="D167" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E167" s="160"/>
       <c r="F167" s="161" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="G167" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H167" s="162">
         <v>17.0</v>
       </c>
       <c r="I167" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C168" s="158" t="s">
         <v>1286</v>
       </c>
       <c r="D168" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E168" s="160"/>
       <c r="F168" s="161" t="s">
-        <v>1943</v>
+        <v>1965</v>
       </c>
       <c r="G168" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H168" s="162">
         <v>18.0</v>
       </c>
       <c r="I168" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C169" s="158" t="s">
         <v>1287</v>
       </c>
       <c r="D169" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E169" s="160"/>
       <c r="F169" s="161" t="s">
-        <v>1944</v>
+        <v>1966</v>
       </c>
       <c r="G169" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H169" s="162">
         <v>19.0</v>
       </c>
       <c r="I169" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C170" s="158" t="s">
         <v>1288</v>
       </c>
       <c r="D170" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E170" s="160"/>
       <c r="F170" s="161" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="G170" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H170" s="162">
         <v>20.0</v>
       </c>
       <c r="I170" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C171" s="158" t="s">
         <v>1289</v>
       </c>
       <c r="D171" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E171" s="160"/>
       <c r="F171" s="161" t="s">
-        <v>1946</v>
+        <v>1968</v>
       </c>
       <c r="G171" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H171" s="162">
         <v>21.0</v>
       </c>
       <c r="I171" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C172" s="158" t="s">
         <v>1290</v>
       </c>
       <c r="D172" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E172" s="160"/>
       <c r="F172" s="161" t="s">
-        <v>1947</v>
+        <v>1969</v>
       </c>
       <c r="G172" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H172" s="162">
         <v>22.0</v>
       </c>
       <c r="I172" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C173" s="158" t="s">
         <v>1291</v>
       </c>
       <c r="D173" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E173" s="160"/>
       <c r="F173" s="161" t="s">
-        <v>1948</v>
+        <v>1970</v>
       </c>
       <c r="G173" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H173" s="162">
         <v>23.0</v>
       </c>
       <c r="I173" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C174" s="158" t="s">
         <v>1292</v>
       </c>
       <c r="D174" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E174" s="160"/>
       <c r="F174" s="161" t="s">
-        <v>1949</v>
+        <v>1971</v>
       </c>
       <c r="G174" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H174" s="162">
         <v>24.0</v>
       </c>
       <c r="I174" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C175" s="158" t="s">
         <v>1293</v>
       </c>
       <c r="D175" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E175" s="160"/>
       <c r="F175" s="161" t="s">
-        <v>1950</v>
+        <v>1972</v>
       </c>
       <c r="G175" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H175" s="162">
         <v>25.0</v>
       </c>
       <c r="I175" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="178" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C176" s="185" t="s">
         <v>1294</v>
       </c>
       <c r="D176" s="180" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E176" s="181"/>
       <c r="F176" s="182" t="s">
-        <v>1951</v>
+        <v>1973</v>
       </c>
       <c r="G176" s="180" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H176" s="183">
         <v>26.0</v>
       </c>
       <c r="I176" s="184" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -30450,28 +30636,28 @@
     <row r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="167" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C178" s="168" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="169" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E178" s="170" t="s">
-        <v>1952</v>
+        <v>1974</v>
       </c>
       <c r="F178" s="171" t="s">
-        <v>1953</v>
+        <v>1975</v>
       </c>
       <c r="G178" s="169" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H178" s="172" t="s">
         <v>5</v>
       </c>
       <c r="I178" s="173" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J178" s="1"/>
     </row>
@@ -30490,676 +30676,676 @@
     <row r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C180" s="158" t="s">
         <v>1424</v>
       </c>
       <c r="D180" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E180" s="160"/>
       <c r="F180" s="161" t="s">
-        <v>1954</v>
+        <v>1976</v>
       </c>
       <c r="G180" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H180" s="162">
         <v>1.0</v>
       </c>
       <c r="I180" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C181" s="158" t="s">
         <v>1425</v>
       </c>
       <c r="D181" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E181" s="160"/>
       <c r="F181" s="161" t="s">
-        <v>1955</v>
+        <v>1977</v>
       </c>
       <c r="G181" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H181" s="162">
         <v>2.0</v>
       </c>
       <c r="I181" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C182" s="158" t="s">
         <v>1426</v>
       </c>
       <c r="D182" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E182" s="160"/>
       <c r="F182" s="161" t="s">
-        <v>1956</v>
+        <v>1978</v>
       </c>
       <c r="G182" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H182" s="162">
         <v>3.0</v>
       </c>
       <c r="I182" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C183" s="158" t="s">
         <v>1427</v>
       </c>
       <c r="D183" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E183" s="160"/>
       <c r="F183" s="161" t="s">
-        <v>1957</v>
+        <v>1979</v>
       </c>
       <c r="G183" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H183" s="162">
         <v>4.0</v>
       </c>
       <c r="I183" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C184" s="158" t="s">
         <v>1428</v>
       </c>
       <c r="D184" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E184" s="160"/>
       <c r="F184" s="161" t="s">
-        <v>1958</v>
+        <v>1980</v>
       </c>
       <c r="G184" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H184" s="162">
         <v>5.0</v>
       </c>
       <c r="I184" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C185" s="158" t="s">
         <v>1429</v>
       </c>
       <c r="D185" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E185" s="160"/>
       <c r="F185" s="161" t="s">
-        <v>1959</v>
+        <v>1981</v>
       </c>
       <c r="G185" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H185" s="162">
         <v>6.0</v>
       </c>
       <c r="I185" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C186" s="158" t="s">
         <v>1430</v>
       </c>
       <c r="D186" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E186" s="160"/>
       <c r="F186" s="161" t="s">
-        <v>1960</v>
+        <v>1982</v>
       </c>
       <c r="G186" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H186" s="162">
         <v>7.0</v>
       </c>
       <c r="I186" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C187" s="158" t="s">
         <v>1431</v>
       </c>
       <c r="D187" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E187" s="160"/>
       <c r="F187" s="161" t="s">
-        <v>1961</v>
+        <v>1983</v>
       </c>
       <c r="G187" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H187" s="162">
         <v>8.0</v>
       </c>
       <c r="I187" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C188" s="158" t="s">
         <v>1432</v>
       </c>
       <c r="D188" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E188" s="160"/>
       <c r="F188" s="161" t="s">
-        <v>1962</v>
+        <v>1984</v>
       </c>
       <c r="G188" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H188" s="162">
         <v>9.0</v>
       </c>
       <c r="I188" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C189" s="158" t="s">
         <v>1433</v>
       </c>
       <c r="D189" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E189" s="160"/>
       <c r="F189" s="161" t="s">
-        <v>1963</v>
+        <v>1985</v>
       </c>
       <c r="G189" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H189" s="162">
         <v>10.0</v>
       </c>
       <c r="I189" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C190" s="158" t="s">
         <v>1434</v>
       </c>
       <c r="D190" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E190" s="160"/>
       <c r="F190" s="161" t="s">
-        <v>1964</v>
+        <v>1986</v>
       </c>
       <c r="G190" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H190" s="162">
         <v>11.0</v>
       </c>
       <c r="I190" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C191" s="158" t="s">
         <v>1435</v>
       </c>
       <c r="D191" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E191" s="160"/>
       <c r="F191" s="161" t="s">
-        <v>1965</v>
+        <v>1987</v>
       </c>
       <c r="G191" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H191" s="162">
         <v>12.0</v>
       </c>
       <c r="I191" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C192" s="158" t="s">
         <v>1436</v>
       </c>
       <c r="D192" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E192" s="160"/>
       <c r="F192" s="161" t="s">
-        <v>1966</v>
+        <v>1988</v>
       </c>
       <c r="G192" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H192" s="162">
         <v>13.0</v>
       </c>
       <c r="I192" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C193" s="158" t="s">
         <v>1437</v>
       </c>
       <c r="D193" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E193" s="160"/>
       <c r="F193" s="161" t="s">
-        <v>1967</v>
+        <v>1989</v>
       </c>
       <c r="G193" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H193" s="162">
         <v>14.0</v>
       </c>
       <c r="I193" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C194" s="158" t="s">
         <v>1438</v>
       </c>
       <c r="D194" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E194" s="160"/>
       <c r="F194" s="161" t="s">
-        <v>1968</v>
+        <v>1990</v>
       </c>
       <c r="G194" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H194" s="162">
         <v>15.0</v>
       </c>
       <c r="I194" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C195" s="158" t="s">
         <v>1439</v>
       </c>
       <c r="D195" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E195" s="160"/>
       <c r="F195" s="161" t="s">
-        <v>1969</v>
+        <v>1991</v>
       </c>
       <c r="G195" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H195" s="162">
         <v>16.0</v>
       </c>
       <c r="I195" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C196" s="158" t="s">
         <v>1440</v>
       </c>
       <c r="D196" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E196" s="160"/>
       <c r="F196" s="161" t="s">
-        <v>1970</v>
+        <v>1992</v>
       </c>
       <c r="G196" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H196" s="162">
         <v>17.0</v>
       </c>
       <c r="I196" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C197" s="158" t="s">
         <v>1441</v>
       </c>
       <c r="D197" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E197" s="160"/>
       <c r="F197" s="161" t="s">
-        <v>1971</v>
+        <v>1993</v>
       </c>
       <c r="G197" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H197" s="162">
         <v>18.0</v>
       </c>
       <c r="I197" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C198" s="158" t="s">
         <v>1442</v>
       </c>
       <c r="D198" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E198" s="160"/>
       <c r="F198" s="161" t="s">
-        <v>1972</v>
+        <v>1994</v>
       </c>
       <c r="G198" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H198" s="162">
         <v>19.0</v>
       </c>
       <c r="I198" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C199" s="158" t="s">
         <v>1443</v>
       </c>
       <c r="D199" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E199" s="160"/>
       <c r="F199" s="161" t="s">
-        <v>1973</v>
+        <v>1995</v>
       </c>
       <c r="G199" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H199" s="162">
         <v>20.0</v>
       </c>
       <c r="I199" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C200" s="158" t="s">
         <v>1444</v>
       </c>
       <c r="D200" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E200" s="160"/>
       <c r="F200" s="161" t="s">
-        <v>1974</v>
+        <v>1996</v>
       </c>
       <c r="G200" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H200" s="162">
         <v>21.0</v>
       </c>
       <c r="I200" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C201" s="158" t="s">
         <v>1445</v>
       </c>
       <c r="D201" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E201" s="160"/>
       <c r="F201" s="161" t="s">
-        <v>1975</v>
+        <v>1997</v>
       </c>
       <c r="G201" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H201" s="162">
         <v>22.0</v>
       </c>
       <c r="I201" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C202" s="158" t="s">
         <v>1446</v>
       </c>
       <c r="D202" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E202" s="160"/>
       <c r="F202" s="161" t="s">
-        <v>1976</v>
+        <v>1998</v>
       </c>
       <c r="G202" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H202" s="162">
         <v>23.0</v>
       </c>
       <c r="I202" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C203" s="158" t="s">
         <v>1447</v>
       </c>
       <c r="D203" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E203" s="160"/>
       <c r="F203" s="161" t="s">
-        <v>1977</v>
+        <v>1999</v>
       </c>
       <c r="G203" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H203" s="162">
         <v>24.0</v>
       </c>
       <c r="I203" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C204" s="158" t="s">
         <v>1448</v>
       </c>
       <c r="D204" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E204" s="160"/>
       <c r="F204" s="161" t="s">
-        <v>1978</v>
+        <v>2000</v>
       </c>
       <c r="G204" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H204" s="162">
         <v>25.0</v>
       </c>
       <c r="I204" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="178" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C205" s="185" t="s">
         <v>1449</v>
       </c>
       <c r="D205" s="180" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E205" s="181"/>
       <c r="F205" s="182" t="s">
-        <v>1979</v>
+        <v>2001</v>
       </c>
       <c r="G205" s="180" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H205" s="183">
         <v>26.0</v>
       </c>
       <c r="I205" s="184" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J205" s="1"/>
     </row>
@@ -31178,28 +31364,28 @@
     <row r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="167" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C207" s="168" t="s">
         <v>37</v>
       </c>
       <c r="D207" s="169" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E207" s="170" t="s">
-        <v>1980</v>
+        <v>2002</v>
       </c>
       <c r="F207" s="171" t="s">
-        <v>1981</v>
+        <v>2003</v>
       </c>
       <c r="G207" s="169" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H207" s="172" t="s">
         <v>6</v>
       </c>
       <c r="I207" s="173" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J207" s="1"/>
     </row>
@@ -31218,676 +31404,676 @@
     <row r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C209" s="158" t="s">
         <v>1746</v>
       </c>
       <c r="D209" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E209" s="160"/>
       <c r="F209" s="161" t="s">
-        <v>1982</v>
+        <v>2004</v>
       </c>
       <c r="G209" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H209" s="162">
         <v>1.0</v>
       </c>
       <c r="I209" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C210" s="158" t="s">
         <v>1747</v>
       </c>
       <c r="D210" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E210" s="160"/>
       <c r="F210" s="161" t="s">
-        <v>1983</v>
+        <v>2005</v>
       </c>
       <c r="G210" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H210" s="162">
         <v>2.0</v>
       </c>
       <c r="I210" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C211" s="158" t="s">
         <v>1748</v>
       </c>
       <c r="D211" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E211" s="160"/>
       <c r="F211" s="161" t="s">
-        <v>1984</v>
+        <v>2006</v>
       </c>
       <c r="G211" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H211" s="162">
         <v>3.0</v>
       </c>
       <c r="I211" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C212" s="158" t="s">
         <v>1749</v>
       </c>
       <c r="D212" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E212" s="160"/>
       <c r="F212" s="161" t="s">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="G212" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H212" s="162">
         <v>4.0</v>
       </c>
       <c r="I212" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
       <c r="B213" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C213" s="158" t="s">
         <v>1750</v>
       </c>
       <c r="D213" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E213" s="160"/>
       <c r="F213" s="161" t="s">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="G213" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H213" s="162">
         <v>5.0</v>
       </c>
       <c r="I213" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
       <c r="B214" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C214" s="158" t="s">
         <v>1751</v>
       </c>
       <c r="D214" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E214" s="160"/>
       <c r="F214" s="161" t="s">
-        <v>1987</v>
+        <v>2009</v>
       </c>
       <c r="G214" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H214" s="162">
         <v>6.0</v>
       </c>
       <c r="I214" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
       <c r="B215" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C215" s="158" t="s">
         <v>1752</v>
       </c>
       <c r="D215" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E215" s="160"/>
       <c r="F215" s="161" t="s">
-        <v>1988</v>
+        <v>2010</v>
       </c>
       <c r="G215" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H215" s="162">
         <v>7.0</v>
       </c>
       <c r="I215" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
       <c r="B216" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C216" s="158" t="s">
         <v>1753</v>
       </c>
       <c r="D216" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E216" s="160"/>
       <c r="F216" s="161" t="s">
-        <v>1989</v>
+        <v>2011</v>
       </c>
       <c r="G216" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H216" s="162">
         <v>8.0</v>
       </c>
       <c r="I216" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
       <c r="B217" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C217" s="158" t="s">
         <v>1754</v>
       </c>
       <c r="D217" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E217" s="160"/>
       <c r="F217" s="161" t="s">
-        <v>1990</v>
+        <v>2012</v>
       </c>
       <c r="G217" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H217" s="162">
         <v>9.0</v>
       </c>
       <c r="I217" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
       <c r="B218" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C218" s="158" t="s">
         <v>1755</v>
       </c>
       <c r="D218" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E218" s="160"/>
       <c r="F218" s="161" t="s">
-        <v>1991</v>
+        <v>2013</v>
       </c>
       <c r="G218" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H218" s="162">
         <v>10.0</v>
       </c>
       <c r="I218" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
       <c r="B219" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C219" s="158" t="s">
         <v>1756</v>
       </c>
       <c r="D219" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E219" s="160"/>
       <c r="F219" s="161" t="s">
-        <v>1992</v>
+        <v>2014</v>
       </c>
       <c r="G219" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H219" s="162">
         <v>11.0</v>
       </c>
       <c r="I219" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
       <c r="B220" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C220" s="158" t="s">
         <v>1757</v>
       </c>
       <c r="D220" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E220" s="160"/>
       <c r="F220" s="161" t="s">
-        <v>1993</v>
+        <v>2015</v>
       </c>
       <c r="G220" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H220" s="162">
         <v>12.0</v>
       </c>
       <c r="I220" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
       <c r="B221" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C221" s="158" t="s">
         <v>1758</v>
       </c>
       <c r="D221" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E221" s="160"/>
       <c r="F221" s="161" t="s">
-        <v>1994</v>
+        <v>2016</v>
       </c>
       <c r="G221" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H221" s="162">
         <v>13.0</v>
       </c>
       <c r="I221" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
       <c r="B222" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C222" s="158" t="s">
         <v>1759</v>
       </c>
       <c r="D222" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E222" s="160"/>
       <c r="F222" s="161" t="s">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="G222" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H222" s="162">
         <v>14.0</v>
       </c>
       <c r="I222" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
       <c r="B223" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C223" s="158" t="s">
         <v>1760</v>
       </c>
       <c r="D223" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E223" s="160"/>
       <c r="F223" s="161" t="s">
-        <v>1996</v>
+        <v>2018</v>
       </c>
       <c r="G223" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H223" s="162">
         <v>15.0</v>
       </c>
       <c r="I223" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
       <c r="B224" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C224" s="158" t="s">
         <v>1761</v>
       </c>
       <c r="D224" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E224" s="160"/>
       <c r="F224" s="161" t="s">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="G224" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H224" s="162">
         <v>16.0</v>
       </c>
       <c r="I224" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
       <c r="B225" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C225" s="158" t="s">
         <v>1762</v>
       </c>
       <c r="D225" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E225" s="160"/>
       <c r="F225" s="161" t="s">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="G225" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H225" s="162">
         <v>17.0</v>
       </c>
       <c r="I225" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
       <c r="B226" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C226" s="158" t="s">
         <v>1763</v>
       </c>
       <c r="D226" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E226" s="160"/>
       <c r="F226" s="161" t="s">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="G226" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H226" s="162">
         <v>18.0</v>
       </c>
       <c r="I226" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
       <c r="B227" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C227" s="158" t="s">
         <v>1764</v>
       </c>
       <c r="D227" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E227" s="160"/>
       <c r="F227" s="161" t="s">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="G227" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H227" s="162">
         <v>19.0</v>
       </c>
       <c r="I227" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
       <c r="B228" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C228" s="158" t="s">
         <v>1765</v>
       </c>
       <c r="D228" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E228" s="160"/>
       <c r="F228" s="161" t="s">
-        <v>2001</v>
+        <v>2023</v>
       </c>
       <c r="G228" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H228" s="162">
         <v>20.0</v>
       </c>
       <c r="I228" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
       <c r="B229" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C229" s="158" t="s">
         <v>1766</v>
       </c>
       <c r="D229" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E229" s="160"/>
       <c r="F229" s="161" t="s">
-        <v>2002</v>
+        <v>2024</v>
       </c>
       <c r="G229" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H229" s="162">
         <v>21.0</v>
       </c>
       <c r="I229" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
       <c r="B230" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C230" s="158" t="s">
         <v>1767</v>
       </c>
       <c r="D230" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E230" s="160"/>
       <c r="F230" s="161" t="s">
-        <v>2003</v>
+        <v>2025</v>
       </c>
       <c r="G230" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H230" s="162">
         <v>22.0</v>
       </c>
       <c r="I230" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C231" s="158" t="s">
         <v>1768</v>
       </c>
       <c r="D231" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E231" s="160"/>
       <c r="F231" s="161" t="s">
-        <v>2004</v>
+        <v>2026</v>
       </c>
       <c r="G231" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H231" s="162">
         <v>23.0</v>
       </c>
       <c r="I231" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
       <c r="B232" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C232" s="158" t="s">
         <v>1769</v>
       </c>
       <c r="D232" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E232" s="160"/>
       <c r="F232" s="161" t="s">
-        <v>2005</v>
+        <v>2027</v>
       </c>
       <c r="G232" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H232" s="162">
         <v>24.0</v>
       </c>
       <c r="I232" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
       <c r="B233" s="174" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C233" s="158" t="s">
         <v>1770</v>
       </c>
       <c r="D233" s="159" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E233" s="160"/>
       <c r="F233" s="161" t="s">
-        <v>2006</v>
+        <v>2028</v>
       </c>
       <c r="G233" s="159" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H233" s="162">
         <v>25.0</v>
       </c>
       <c r="I233" s="176" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
       <c r="B234" s="178" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="C234" s="185" t="s">
         <v>1771</v>
       </c>
       <c r="D234" s="180" t="s">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="E234" s="181"/>
       <c r="F234" s="182" t="s">
-        <v>2007</v>
+        <v>2029</v>
       </c>
       <c r="G234" s="180" t="s">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="H234" s="183">
         <v>26.0</v>
       </c>
       <c r="I234" s="184" t="s">
-        <v>1780</v>
+        <v>1802</v>
       </c>
       <c r="J234" s="1"/>
     </row>

--- a/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
+++ b/prePlate33/Offline Documents (Periodic)/prePlate33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5596" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5612" uniqueCount="2038">
   <si>
     <t>A#3</t>
   </si>
@@ -5352,6 +5352,18 @@
     <t>employ</t>
   </si>
   <si>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>eligibility</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
     <t>venue</t>
   </si>
   <si>
@@ -5392,6 +5404,18 @@
   </si>
   <si>
     <t>mechanic</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>hue</t>
+  </si>
+  <si>
+    <t>vibrant</t>
+  </si>
+  <si>
+    <t>stationary</t>
   </si>
   <si>
     <t>regulate</t>
@@ -25586,8 +25610,12 @@
       <c r="J98" s="70" t="s">
         <v>1778</v>
       </c>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
+      <c r="K98" s="70" t="s">
+        <v>1779</v>
+      </c>
+      <c r="L98" s="70" t="s">
+        <v>1780</v>
+      </c>
       <c r="M98" s="70"/>
       <c r="N98" s="70"/>
       <c r="O98" s="70"/>
@@ -25596,28 +25624,32 @@
       <c r="R98" s="70"/>
       <c r="S98" s="70"/>
       <c r="T98" s="70"/>
-      <c r="U98" s="70"/>
-      <c r="V98" s="70"/>
+      <c r="U98" s="70" t="s">
+        <v>1781</v>
+      </c>
+      <c r="V98" s="70" t="s">
+        <v>1782</v>
+      </c>
       <c r="W98" s="70" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="X98" s="70" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="Y98" s="70" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="Z98" s="70" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="AA98" s="70" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="AB98" s="70" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="AC98" s="71" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="AD98" s="1"/>
       <c r="AE98" s="31"/>
@@ -25633,28 +25665,32 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="80" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="E99" s="81" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="F99" s="81" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="G99" s="81" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="H99" s="81" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="I99" s="81" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="J99" s="81" t="s">
-        <v>1792</v>
-      </c>
-      <c r="K99" s="81"/>
-      <c r="L99" s="81"/>
+        <v>1796</v>
+      </c>
+      <c r="K99" s="81" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L99" s="81" t="s">
+        <v>1798</v>
+      </c>
       <c r="M99" s="81"/>
       <c r="N99" s="81"/>
       <c r="O99" s="81"/>
@@ -25663,28 +25699,32 @@
       <c r="R99" s="81"/>
       <c r="S99" s="81"/>
       <c r="T99" s="81"/>
-      <c r="U99" s="81"/>
-      <c r="V99" s="81"/>
+      <c r="U99" s="81" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V99" s="81" t="s">
+        <v>1800</v>
+      </c>
       <c r="W99" s="81" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="X99" s="81" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="Y99" s="81" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="Z99" s="81" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="AA99" s="81" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="AB99" s="81" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="AC99" s="82" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="AD99" s="1"/>
       <c r="AE99" s="83"/>
@@ -25720,8 +25760,12 @@
       <c r="J100" s="30">
         <v>60.0</v>
       </c>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
+      <c r="K100" s="30">
+        <v>67.0</v>
+      </c>
+      <c r="L100" s="30">
+        <v>38.0</v>
+      </c>
       <c r="M100" s="30"/>
       <c r="N100" s="30"/>
       <c r="O100" s="30"/>
@@ -25730,8 +25774,12 @@
       <c r="R100" s="30"/>
       <c r="S100" s="30"/>
       <c r="T100" s="30"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
+      <c r="U100" s="30">
+        <v>65.0</v>
+      </c>
+      <c r="V100" s="30">
+        <v>70.0</v>
+      </c>
       <c r="W100" s="30">
         <v>49.0</v>
       </c>
@@ -25785,10 +25833,14 @@
         <v>439</v>
       </c>
       <c r="J101" s="37" t="s">
-        <v>1800</v>
-      </c>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
+        <v>1808</v>
+      </c>
+      <c r="K101" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="L101" s="37" t="s">
+        <v>727</v>
+      </c>
       <c r="M101" s="37"/>
       <c r="N101" s="37"/>
       <c r="O101" s="37"/>
@@ -25797,13 +25849,17 @@
       <c r="R101" s="37"/>
       <c r="S101" s="37"/>
       <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="37"/>
+      <c r="U101" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V101" s="37" t="s">
+        <v>445</v>
+      </c>
       <c r="W101" s="37" t="s">
         <v>435</v>
       </c>
       <c r="X101" s="37" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="Y101" s="37" t="s">
         <v>444</v>
@@ -25854,8 +25910,12 @@
       <c r="J102" s="45">
         <v>14.0</v>
       </c>
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
+      <c r="K102" s="45">
+        <v>16.0</v>
+      </c>
+      <c r="L102" s="45">
+        <v>11.0</v>
+      </c>
       <c r="M102" s="45"/>
       <c r="N102" s="45"/>
       <c r="O102" s="45"/>
@@ -25864,8 +25924,12 @@
       <c r="R102" s="45"/>
       <c r="S102" s="45"/>
       <c r="T102" s="45"/>
-      <c r="U102" s="45"/>
-      <c r="V102" s="45"/>
+      <c r="U102" s="45">
+        <v>18.0</v>
+      </c>
+      <c r="V102" s="45">
+        <v>17.0</v>
+      </c>
       <c r="W102" s="45">
         <v>13.0</v>
       </c>
@@ -25906,7 +25970,7 @@
         <v>70</v>
       </c>
       <c r="F103" s="52" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="G103" s="52" t="s">
         <v>72</v>
@@ -25920,8 +25984,12 @@
       <c r="J103" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
+      <c r="K103" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L103" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="M103" s="52"/>
       <c r="N103" s="52"/>
       <c r="O103" s="52"/>
@@ -25930,8 +25998,12 @@
       <c r="R103" s="52"/>
       <c r="S103" s="52"/>
       <c r="T103" s="52"/>
-      <c r="U103" s="52"/>
-      <c r="V103" s="52"/>
+      <c r="U103" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="V103" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="W103" s="52" t="s">
         <v>58</v>
       </c>
@@ -26279,28 +26351,28 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="167" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C4" s="168" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="D4" s="169" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="F4" s="171" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="G4" s="169" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H4" s="172" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="173" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -26318,676 +26390,676 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C6" s="177" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E6" s="160"/>
       <c r="F6" s="161" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H6" s="162">
         <v>1.0</v>
       </c>
       <c r="I6" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C7" s="177" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="161" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="G7" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H7" s="162">
         <v>2.0</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C8" s="177" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E8" s="160"/>
       <c r="F8" s="161" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="G8" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H8" s="162">
         <v>3.0</v>
       </c>
       <c r="I8" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C9" s="177" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E9" s="160"/>
       <c r="F9" s="161" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="G9" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H9" s="162">
         <v>4.0</v>
       </c>
       <c r="I9" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C10" s="177" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E10" s="160"/>
       <c r="F10" s="161" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="G10" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H10" s="162">
         <v>5.0</v>
       </c>
       <c r="I10" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E11" s="160"/>
       <c r="F11" s="161" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="G11" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H11" s="162">
         <v>6.0</v>
       </c>
       <c r="I11" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C12" s="177" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E12" s="160"/>
       <c r="F12" s="161" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="G12" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H12" s="162">
         <v>7.0</v>
       </c>
       <c r="I12" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E13" s="160"/>
       <c r="F13" s="161" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G13" s="159" t="s">
         <v>1815</v>
-      </c>
-      <c r="G13" s="159" t="s">
-        <v>1807</v>
       </c>
       <c r="H13" s="162">
         <v>8.0</v>
       </c>
       <c r="I13" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C14" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E14" s="160"/>
       <c r="F14" s="161" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="G14" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H14" s="162">
         <v>9.0</v>
       </c>
       <c r="I14" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E15" s="160"/>
       <c r="F15" s="161" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="G15" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H15" s="162">
         <v>10.0</v>
       </c>
       <c r="I15" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C16" s="177" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E16" s="160"/>
       <c r="F16" s="161" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="G16" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H16" s="162">
         <v>11.0</v>
       </c>
       <c r="I16" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C17" s="177" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E17" s="160"/>
       <c r="F17" s="161" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="G17" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H17" s="162">
         <v>12.0</v>
       </c>
       <c r="I17" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C18" s="177" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E18" s="160"/>
       <c r="F18" s="161" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="G18" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H18" s="162">
         <v>13.0</v>
       </c>
       <c r="I18" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C19" s="177" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E19" s="160"/>
       <c r="F19" s="161" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="G19" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H19" s="162">
         <v>14.0</v>
       </c>
       <c r="I19" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C20" s="177" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E20" s="160"/>
       <c r="F20" s="161" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="G20" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H20" s="162">
         <v>15.0</v>
       </c>
       <c r="I20" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C21" s="177" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E21" s="160"/>
       <c r="F21" s="161" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="G21" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H21" s="162">
         <v>16.0</v>
       </c>
       <c r="I21" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C22" s="177" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="161" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="G22" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H22" s="162">
         <v>17.0</v>
       </c>
       <c r="I22" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C23" s="177" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E23" s="160"/>
       <c r="F23" s="161" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="G23" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H23" s="162">
         <v>18.0</v>
       </c>
       <c r="I23" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C24" s="177" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E24" s="160"/>
       <c r="F24" s="161" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="G24" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H24" s="162">
         <v>19.0</v>
       </c>
       <c r="I24" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C25" s="177" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E25" s="160"/>
       <c r="F25" s="161" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="G25" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H25" s="162">
         <v>20.0</v>
       </c>
       <c r="I25" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C26" s="177" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E26" s="160"/>
       <c r="F26" s="161" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="G26" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H26" s="162">
         <v>21.0</v>
       </c>
       <c r="I26" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C27" s="177" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E27" s="160"/>
       <c r="F27" s="161" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="G27" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H27" s="162">
         <v>22.0</v>
       </c>
       <c r="I27" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C28" s="177" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E28" s="160"/>
       <c r="F28" s="161" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G28" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H28" s="162">
         <v>23.0</v>
       </c>
       <c r="I28" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C29" s="177" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E29" s="160"/>
       <c r="F29" s="161" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="G29" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H29" s="162">
         <v>24.0</v>
       </c>
       <c r="I29" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C30" s="177" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E30" s="160"/>
       <c r="F30" s="161" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H30" s="162">
         <v>25.0</v>
       </c>
       <c r="I30" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="178" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C31" s="179" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="180" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E31" s="181"/>
       <c r="F31" s="182" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="G31" s="180" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H31" s="183">
         <v>26.0</v>
       </c>
       <c r="I31" s="184" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -27005,28 +27077,28 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="167" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C33" s="168" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="169" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E33" s="170" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="F33" s="171" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="G33" s="169" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H33" s="172" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="173" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -27044,676 +27116,676 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C35" s="158" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E35" s="160"/>
       <c r="F35" s="161" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="G35" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H35" s="162">
         <v>1.0</v>
       </c>
       <c r="I35" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
       <c r="B36" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C36" s="158" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E36" s="160"/>
       <c r="F36" s="161" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="G36" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H36" s="162">
         <v>2.0</v>
       </c>
       <c r="I36" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C37" s="158" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E37" s="160"/>
       <c r="F37" s="161" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="G37" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H37" s="162">
         <v>3.0</v>
       </c>
       <c r="I37" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C38" s="158" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E38" s="160"/>
       <c r="F38" s="161" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="G38" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H38" s="162">
         <v>4.0</v>
       </c>
       <c r="I38" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C39" s="158" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E39" s="160"/>
       <c r="F39" s="161" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="G39" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H39" s="162">
         <v>5.0</v>
       </c>
       <c r="I39" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C40" s="158" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E40" s="160"/>
       <c r="F40" s="161" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="G40" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H40" s="162">
         <v>6.0</v>
       </c>
       <c r="I40" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C41" s="158" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E41" s="160"/>
       <c r="F41" s="161" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="G41" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H41" s="162">
         <v>7.0</v>
       </c>
       <c r="I41" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C42" s="158" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E42" s="160"/>
       <c r="F42" s="161" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="G42" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H42" s="162">
         <v>8.0</v>
       </c>
       <c r="I42" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C43" s="158" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E43" s="160"/>
       <c r="F43" s="161" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="G43" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H43" s="162">
         <v>9.0</v>
       </c>
       <c r="I43" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C44" s="158" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E44" s="160"/>
       <c r="F44" s="161" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="G44" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H44" s="162">
         <v>10.0</v>
       </c>
       <c r="I44" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C45" s="158" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E45" s="160"/>
       <c r="F45" s="161" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="G45" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H45" s="162">
         <v>11.0</v>
       </c>
       <c r="I45" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C46" s="158" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E46" s="160"/>
       <c r="F46" s="161" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="G46" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H46" s="162">
         <v>12.0</v>
       </c>
       <c r="I46" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C47" s="158" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E47" s="160"/>
       <c r="F47" s="161" t="s">
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="G47" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H47" s="162">
         <v>13.0</v>
       </c>
       <c r="I47" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C48" s="158" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E48" s="160"/>
       <c r="F48" s="161" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="G48" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H48" s="162">
         <v>14.0</v>
       </c>
       <c r="I48" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C49" s="158" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E49" s="160"/>
       <c r="F49" s="161" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="G49" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H49" s="162">
         <v>15.0</v>
       </c>
       <c r="I49" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C50" s="158" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E50" s="160"/>
       <c r="F50" s="161" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="G50" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H50" s="162">
         <v>16.0</v>
       </c>
       <c r="I50" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C51" s="158" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E51" s="160"/>
       <c r="F51" s="161" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="G51" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H51" s="162">
         <v>17.0</v>
       </c>
       <c r="I51" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C52" s="158" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E52" s="160"/>
       <c r="F52" s="161" t="s">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="G52" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H52" s="162">
         <v>18.0</v>
       </c>
       <c r="I52" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C53" s="158" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E53" s="160"/>
       <c r="F53" s="161" t="s">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="G53" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H53" s="162">
         <v>19.0</v>
       </c>
       <c r="I53" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C54" s="158" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E54" s="160"/>
       <c r="F54" s="161" t="s">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="G54" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H54" s="162">
         <v>20.0</v>
       </c>
       <c r="I54" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C55" s="158" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E55" s="160"/>
       <c r="F55" s="161" t="s">
-        <v>1856</v>
+        <v>1864</v>
       </c>
       <c r="G55" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H55" s="162">
         <v>21.0</v>
       </c>
       <c r="I55" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C56" s="158" t="s">
         <v>99</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E56" s="160"/>
       <c r="F56" s="161" t="s">
-        <v>1857</v>
+        <v>1865</v>
       </c>
       <c r="G56" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H56" s="162">
         <v>22.0</v>
       </c>
       <c r="I56" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C57" s="158" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E57" s="160"/>
       <c r="F57" s="161" t="s">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="G57" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H57" s="162">
         <v>23.0</v>
       </c>
       <c r="I57" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C58" s="158" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E58" s="160"/>
       <c r="F58" s="161" t="s">
-        <v>1859</v>
+        <v>1867</v>
       </c>
       <c r="G58" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H58" s="162">
         <v>24.0</v>
       </c>
       <c r="I58" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="174" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C59" s="158" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="159" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E59" s="160"/>
       <c r="F59" s="161" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="G59" s="159" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H59" s="162">
         <v>25.0</v>
       </c>
       <c r="I59" s="176" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="178" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="C60" s="185" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E60" s="181"/>
       <c r="F60" s="182" t="s">
-        <v>1861</v>
+        <v>1869</v>
       </c>
       <c r="G60" s="180" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="H60" s="183">
         <v>26.0</v>
       </c>
       <c r="I60" s="184" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -27731,28 +27803,28 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="167" t="s">
-        <v>1802</v>
+        <v>1